--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -596,7 +596,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S2" t="n">
-        <v>87.43980051748541</v>
+        <v>87.43980051748542</v>
       </c>
     </row>
     <row r="3">
@@ -2459,7 +2459,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S29" t="n">
-        <v>153.6052790719102</v>
+        <v>153.6052790719101</v>
       </c>
     </row>
     <row r="30">
@@ -2528,7 +2528,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S30" t="n">
-        <v>142.2002233139211</v>
+        <v>142.2002233139212</v>
       </c>
     </row>
     <row r="31">
@@ -4115,7 +4115,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S53" t="n">
-        <v>196.6484060225812</v>
+        <v>196.6484060225816</v>
       </c>
     </row>
     <row r="54">
@@ -4805,7 +4805,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S63" t="n">
-        <v>93.97864080257095</v>
+        <v>93.97864080257104</v>
       </c>
     </row>
     <row r="64">
@@ -5564,7 +5564,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S74" t="n">
-        <v>96.68891378281606</v>
+        <v>96.68891378281604</v>
       </c>
     </row>
     <row r="75">
@@ -6516,7 +6516,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S88" t="n">
-        <v>161.3237710652941</v>
+        <v>161.3237710652939</v>
       </c>
     </row>
     <row r="89">
@@ -6999,7 +6999,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S95" t="n">
-        <v>200.5350907665892</v>
+        <v>200.5350907665891</v>
       </c>
     </row>
     <row r="96">

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -595,9 +595,7 @@
       <c r="R2" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S2" t="n">
-        <v>87.43980051748542</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -664,9 +662,7 @@
       <c r="R3" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S3" t="n">
-        <v>144.8515078804177</v>
-      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -733,9 +729,7 @@
       <c r="R4" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S4" t="n">
-        <v>137.8617990989447</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -802,9 +796,7 @@
       <c r="R5" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S5" t="n">
-        <v>151.3291318171538</v>
-      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -871,9 +863,7 @@
       <c r="R6" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S6" t="n">
-        <v>125.2852917535607</v>
-      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -940,9 +930,7 @@
       <c r="R7" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S7" t="n">
-        <v>171.2746219041506</v>
-      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1009,9 +997,7 @@
       <c r="R8" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S8" t="n">
-        <v>128.9415691838381</v>
-      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1078,9 +1064,7 @@
       <c r="R9" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S9" t="n">
-        <v>136.5104749023618</v>
-      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1147,9 +1131,7 @@
       <c r="R10" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S10" t="n">
-        <v>145.2545201921896</v>
-      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1216,9 +1198,7 @@
       <c r="R11" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S11" t="n">
-        <v>151.6689781437907</v>
-      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1285,9 +1265,7 @@
       <c r="R12" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S12" t="n">
-        <v>154.4169713293225</v>
-      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1354,9 +1332,7 @@
       <c r="R13" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S13" t="n">
-        <v>141.0677234315714</v>
-      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1423,9 +1399,7 @@
       <c r="R14" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S14" t="n">
-        <v>120.0211908117717</v>
-      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1492,9 +1466,7 @@
       <c r="R15" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S15" t="n">
-        <v>106.0048676077282</v>
-      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1561,9 +1533,7 @@
       <c r="R16" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S16" t="n">
-        <v>145.0601058677022</v>
-      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1630,9 +1600,7 @@
       <c r="R17" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S17" t="n">
-        <v>133.0012397611033</v>
-      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1699,9 +1667,7 @@
       <c r="R18" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S18" t="n">
-        <v>164.7573645003438</v>
-      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1768,9 +1734,7 @@
       <c r="R19" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S19" t="n">
-        <v>121.7686918953728</v>
-      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1837,9 +1801,7 @@
       <c r="R20" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S20" t="n">
-        <v>118.3254570751004</v>
-      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1906,9 +1868,7 @@
       <c r="R21" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S21" t="n">
-        <v>107.4894775126494</v>
-      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1975,9 +1935,7 @@
       <c r="R22" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S22" t="n">
-        <v>158.7450396677679</v>
-      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2044,9 +2002,7 @@
       <c r="R23" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S23" t="n">
-        <v>133.4159366297422</v>
-      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2113,9 +2069,7 @@
       <c r="R24" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S24" t="n">
-        <v>124.5997527854531</v>
-      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2182,9 +2136,7 @@
       <c r="R25" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S25" t="n">
-        <v>122.8917048429763</v>
-      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2251,9 +2203,7 @@
       <c r="R26" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S26" t="n">
-        <v>148.7997710036348</v>
-      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2320,9 +2270,7 @@
       <c r="R27" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S27" t="n">
-        <v>136.8341673853694</v>
-      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2389,9 +2337,7 @@
       <c r="R28" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S28" t="n">
-        <v>144.4922506404258</v>
-      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2458,9 +2404,7 @@
       <c r="R29" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S29" t="n">
-        <v>153.6052790719101</v>
-      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2527,9 +2471,7 @@
       <c r="R30" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S30" t="n">
-        <v>142.2002233139212</v>
-      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2596,9 +2538,7 @@
       <c r="R31" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S31" t="n">
-        <v>155.2075041016062</v>
-      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2665,9 +2605,7 @@
       <c r="R32" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S32" t="n">
-        <v>141.3547458152584</v>
-      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2734,9 +2672,7 @@
       <c r="R33" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S33" t="n">
-        <v>147.4403050314444</v>
-      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2803,9 +2739,7 @@
       <c r="R34" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S34" t="n">
-        <v>156.0798803974527</v>
-      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2872,9 +2806,7 @@
       <c r="R35" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S35" t="n">
-        <v>164.4601641154201</v>
-      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2941,9 +2873,7 @@
       <c r="R36" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S36" t="n">
-        <v>165.6283833328803</v>
-      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3010,9 +2940,7 @@
       <c r="R37" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S37" t="n">
-        <v>157.650191993008</v>
-      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3079,9 +3007,7 @@
       <c r="R38" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S38" t="n">
-        <v>165.984381525536</v>
-      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3148,9 +3074,7 @@
       <c r="R39" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S39" t="n">
-        <v>118.4170004045519</v>
-      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3217,9 +3141,7 @@
       <c r="R40" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S40" t="n">
-        <v>143.1660440204334</v>
-      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3286,9 +3208,7 @@
       <c r="R41" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S41" t="n">
-        <v>175.0993392609784</v>
-      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3355,9 +3275,7 @@
       <c r="R42" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S42" t="n">
-        <v>150.321280285165</v>
-      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3424,9 +3342,7 @@
       <c r="R43" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S43" t="n">
-        <v>160.4316628188216</v>
-      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3493,9 +3409,7 @@
       <c r="R44" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S44" t="n">
-        <v>125.5296221627943</v>
-      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3562,9 +3476,7 @@
       <c r="R45" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S45" t="n">
-        <v>153.8687939029317</v>
-      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3631,9 +3543,7 @@
       <c r="R46" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S46" t="n">
-        <v>158.9827773636791</v>
-      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3700,9 +3610,7 @@
       <c r="R47" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S47" t="n">
-        <v>140.2704579541955</v>
-      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3769,9 +3677,7 @@
       <c r="R48" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S48" t="n">
-        <v>211.4081593586887</v>
-      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3838,9 +3744,7 @@
       <c r="R49" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S49" t="n">
-        <v>118.5546869160007</v>
-      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3907,9 +3811,7 @@
       <c r="R50" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S50" t="n">
-        <v>100.4399157073071</v>
-      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3976,9 +3878,7 @@
       <c r="R51" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S51" t="n">
-        <v>187.07510658496</v>
-      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4045,9 +3945,7 @@
       <c r="R52" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S52" t="n">
-        <v>132.1132187526772</v>
-      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4114,9 +4012,7 @@
       <c r="R53" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S53" t="n">
-        <v>196.6484060225816</v>
-      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4183,9 +4079,7 @@
       <c r="R54" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S54" t="n">
-        <v>148.6089224108115</v>
-      </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4252,9 +4146,7 @@
       <c r="R55" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S55" t="n">
-        <v>139.3363541248538</v>
-      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4321,9 +4213,7 @@
       <c r="R56" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S56" t="n">
-        <v>164.1007739198403</v>
-      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4390,9 +4280,7 @@
       <c r="R57" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S57" t="n">
-        <v>132.3636855308572</v>
-      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4459,9 +4347,7 @@
       <c r="R58" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S58" t="n">
-        <v>138.7191583601845</v>
-      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4528,9 +4414,7 @@
       <c r="R59" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S59" t="n">
-        <v>136.331017122618</v>
-      </c>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4597,9 +4481,7 @@
       <c r="R60" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S60" t="n">
-        <v>139.0703406288022</v>
-      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4666,9 +4548,7 @@
       <c r="R61" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S61" t="n">
-        <v>166.4704305746704</v>
-      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4735,9 +4615,7 @@
       <c r="R62" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S62" t="n">
-        <v>139.1034934248727</v>
-      </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4804,9 +4682,7 @@
       <c r="R63" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S63" t="n">
-        <v>93.97864080257104</v>
-      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4873,9 +4749,7 @@
       <c r="R64" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S64" t="n">
-        <v>164.5993620866842</v>
-      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4942,9 +4816,7 @@
       <c r="R65" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S65" t="n">
-        <v>166.0404375041595</v>
-      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5011,9 +4883,7 @@
       <c r="R66" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S66" t="n">
-        <v>130.2462214910861</v>
-      </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5080,9 +4950,7 @@
       <c r="R67" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S67" t="n">
-        <v>130.5254503726129</v>
-      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5149,9 +5017,7 @@
       <c r="R68" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S68" t="n">
-        <v>141.8160600920168</v>
-      </c>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5218,9 +5084,7 @@
       <c r="R69" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S69" t="n">
-        <v>162.6589157716597</v>
-      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5287,9 +5151,7 @@
       <c r="R70" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S70" t="n">
-        <v>148.7847911017482</v>
-      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5356,9 +5218,7 @@
       <c r="R71" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S71" t="n">
-        <v>171.5700897076522</v>
-      </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5425,9 +5285,7 @@
       <c r="R72" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S72" t="n">
-        <v>153.1713529287445</v>
-      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5494,9 +5352,7 @@
       <c r="R73" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S73" t="n">
-        <v>137.4664927312134</v>
-      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5563,9 +5419,7 @@
       <c r="R74" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S74" t="n">
-        <v>96.68891378281604</v>
-      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5632,9 +5486,7 @@
       <c r="R75" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S75" t="n">
-        <v>157.5391602112692</v>
-      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5969,9 +5821,7 @@
       <c r="R80" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S80" t="n">
-        <v>167.0193656714477</v>
-      </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6239,9 +6089,7 @@
       <c r="R84" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S84" t="n">
-        <v>112.6020814246202</v>
-      </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6308,9 +6156,7 @@
       <c r="R85" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S85" t="n">
-        <v>135.4726963213735</v>
-      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6377,9 +6223,7 @@
       <c r="R86" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S86" t="n">
-        <v>137.2872759107314</v>
-      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6446,9 +6290,7 @@
       <c r="R87" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S87" t="n">
-        <v>141.453811022119</v>
-      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6515,9 +6357,7 @@
       <c r="R88" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S88" t="n">
-        <v>161.3237710652939</v>
-      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6584,9 +6424,7 @@
       <c r="R89" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S89" t="n">
-        <v>138.8569046990218</v>
-      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6653,9 +6491,7 @@
       <c r="R90" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S90" t="n">
-        <v>169.1894572380313</v>
-      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6722,9 +6558,7 @@
       <c r="R91" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S91" t="n">
-        <v>154.9855743174223</v>
-      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6791,9 +6625,7 @@
       <c r="R92" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S92" t="n">
-        <v>160.415395795061</v>
-      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6860,9 +6692,7 @@
       <c r="R93" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S93" t="n">
-        <v>151.1701392443462</v>
-      </c>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6929,9 +6759,7 @@
       <c r="R94" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S94" t="n">
-        <v>97.99175937221108</v>
-      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6998,9 +6826,7 @@
       <c r="R95" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S95" t="n">
-        <v>200.5350907665891</v>
-      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7067,9 +6893,7 @@
       <c r="R96" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S96" t="n">
-        <v>183.9769094224172</v>
-      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7136,9 +6960,7 @@
       <c r="R97" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S97" t="n">
-        <v>147.124946614446</v>
-      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7205,9 +7027,7 @@
       <c r="R98" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S98" t="n">
-        <v>166.7840124546252</v>
-      </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7274,9 +7094,7 @@
       <c r="R99" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S99" t="n">
-        <v>139.0037218869148</v>
-      </c>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7343,9 +7161,7 @@
       <c r="R100" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S100" t="n">
-        <v>126.9430981461602</v>
-      </c>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7412,9 +7228,7 @@
       <c r="R101" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S101" t="n">
-        <v>168.8060056652529</v>
-      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8017,7 +7831,9 @@
       <c r="R110" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>114.7897603051682</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8084,7 +7900,9 @@
       <c r="R111" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>145.3017336543949</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8218,7 +8036,9 @@
       <c r="R113" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>106.6826406656907</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8352,7 +8172,9 @@
       <c r="R115" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>108.000663780192</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8419,7 +8241,9 @@
       <c r="R116" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>128.3856634920287</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8754,7 +8578,9 @@
       <c r="R121" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>114.4918344927808</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8821,7 +8647,9 @@
       <c r="R122" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>102.2261206162045</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9156,7 +8984,9 @@
       <c r="R127" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>119.1255119628378</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9223,7 +9053,9 @@
       <c r="R128" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>132.2738322968843</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9290,7 +9122,9 @@
       <c r="R129" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>156.2316338908785</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9357,7 +9191,9 @@
       <c r="R130" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>143.3123969655151</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9424,7 +9260,9 @@
       <c r="R131" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>98.78957849404372</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9491,7 +9329,9 @@
       <c r="R132" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>161.6013424872473</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9558,7 +9398,9 @@
       <c r="R133" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>141.7639407002064</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,22 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RealLength(cm)</t>
+          <t>RealLength_MEC(cm)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RealLength_Skeleton(cm)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>PondType</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Height_mm</t>
         </is>
       </c>
     </row>
@@ -595,7 +610,20 @@
       <c r="R2" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>89.51942722609853</v>
+      </c>
+      <c r="T2" t="n">
+        <v>94.23168548967595</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -662,7 +690,20 @@
       <c r="R3" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>144.8764102773935</v>
+      </c>
+      <c r="T3" t="n">
+        <v>156.8128879831357</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -729,7 +770,20 @@
       <c r="R4" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>128.7456516191202</v>
+      </c>
+      <c r="T4" t="n">
+        <v>147.2958086034024</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -796,7 +850,20 @@
       <c r="R5" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>150.6240311294727</v>
+      </c>
+      <c r="T5" t="n">
+        <v>155.4235512378463</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -863,7 +930,20 @@
       <c r="R6" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>119.5420482817262</v>
+      </c>
+      <c r="T6" t="n">
+        <v>114.5983199675493</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -930,7 +1010,20 @@
       <c r="R7" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>172.4200714868299</v>
+      </c>
+      <c r="T7" t="n">
+        <v>174.178328220591</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -997,7 +1090,20 @@
       <c r="R8" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>113.6408665105316</v>
+      </c>
+      <c r="T8" t="n">
+        <v>89.11297281423367</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1064,7 +1170,20 @@
       <c r="R9" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>138.3169991723383</v>
+      </c>
+      <c r="T9" t="n">
+        <v>154.5822299665249</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1131,7 +1250,20 @@
       <c r="R10" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>142.7588103148251</v>
+      </c>
+      <c r="T10" t="n">
+        <v>154.8381045874964</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1198,7 +1330,20 @@
       <c r="R11" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>151.0819118574266</v>
+      </c>
+      <c r="T11" t="n">
+        <v>138.8704192860928</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1265,7 +1410,20 @@
       <c r="R12" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>156.6829120200248</v>
+      </c>
+      <c r="T12" t="n">
+        <v>177.8340067423377</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1332,7 +1490,20 @@
       <c r="R13" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>144.6045605979157</v>
+      </c>
+      <c r="T13" t="n">
+        <v>139.2847003836162</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1399,7 +1570,20 @@
       <c r="R14" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>126.5207646060668</v>
+      </c>
+      <c r="T14" t="n">
+        <v>108.2118283191664</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1466,7 +1650,20 @@
       <c r="R15" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>108.3459220829687</v>
+      </c>
+      <c r="T15" t="n">
+        <v>89.34158186612096</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1533,7 +1730,20 @@
       <c r="R16" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>140.2892015392351</v>
+      </c>
+      <c r="T16" t="n">
+        <v>146.206448429693</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1600,7 +1810,20 @@
       <c r="R17" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>137.5702402908112</v>
+      </c>
+      <c r="T17" t="n">
+        <v>116.957206530735</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1667,7 +1890,20 @@
       <c r="R18" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>161.048122716919</v>
+      </c>
+      <c r="T18" t="n">
+        <v>181.29241908653</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1734,7 +1970,20 @@
       <c r="R19" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>125.1874738028053</v>
+      </c>
+      <c r="T19" t="n">
+        <v>134.4001025899306</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1801,7 +2050,20 @@
       <c r="R20" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>111.2409241572751</v>
+      </c>
+      <c r="T20" t="n">
+        <v>118.2328212222592</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1868,7 +2130,20 @@
       <c r="R21" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>105.1295426559788</v>
+      </c>
+      <c r="T21" t="n">
+        <v>112.445117772679</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1935,7 +2210,20 @@
       <c r="R22" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>160.0528242681144</v>
+      </c>
+      <c r="T22" t="n">
+        <v>173.7295283075781</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2002,7 +2290,20 @@
       <c r="R23" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>127.926016180156</v>
+      </c>
+      <c r="T23" t="n">
+        <v>136.6525203457561</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2069,7 +2370,20 @@
       <c r="R24" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>124.7183536330472</v>
+      </c>
+      <c r="T24" t="n">
+        <v>121.1269641831386</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2136,7 +2450,20 @@
       <c r="R25" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>120.8475065438441</v>
+      </c>
+      <c r="T25" t="n">
+        <v>124.7698836286107</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2203,7 +2530,20 @@
       <c r="R26" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>149.68638412288</v>
+      </c>
+      <c r="T26" t="n">
+        <v>169.7085939966074</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2270,7 +2610,20 @@
       <c r="R27" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>138.101764458228</v>
+      </c>
+      <c r="T27" t="n">
+        <v>140.6601131082742</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2337,7 +2690,20 @@
       <c r="R28" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>147.1120501204356</v>
+      </c>
+      <c r="T28" t="n">
+        <v>164.7537936275864</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2404,7 +2770,20 @@
       <c r="R29" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>152.5047429966486</v>
+      </c>
+      <c r="T29" t="n">
+        <v>171.7904286717853</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2471,7 +2850,20 @@
       <c r="R30" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>140.2097111148776</v>
+      </c>
+      <c r="T30" t="n">
+        <v>145.4994440069945</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2538,7 +2930,20 @@
       <c r="R31" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>149.6444801727167</v>
+      </c>
+      <c r="T31" t="n">
+        <v>164.289904749585</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2605,7 +3010,20 @@
       <c r="R32" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>138.4699417984678</v>
+      </c>
+      <c r="T32" t="n">
+        <v>133.5889592485863</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2672,7 +3090,20 @@
       <c r="R33" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>147.2719071129475</v>
+      </c>
+      <c r="T33" t="n">
+        <v>158.5373025876724</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2739,7 +3170,20 @@
       <c r="R34" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>148.7515712806191</v>
+      </c>
+      <c r="T34" t="n">
+        <v>151.6735805128355</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2806,7 +3250,20 @@
       <c r="R35" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>152.7024702983286</v>
+      </c>
+      <c r="T35" t="n">
+        <v>167.4628470150082</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2873,7 +3330,20 @@
       <c r="R36" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>121.5263478147821</v>
+      </c>
+      <c r="T36" t="n">
+        <v>133.3676034431038</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2940,7 +3410,20 @@
       <c r="R37" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>156.210702417082</v>
+      </c>
+      <c r="T37" t="n">
+        <v>181.1351775543351</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3007,7 +3490,20 @@
       <c r="R38" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>164.4066206824926</v>
+      </c>
+      <c r="T38" t="n">
+        <v>164.0636255864119</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3074,7 +3570,20 @@
       <c r="R39" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>122.3649644815153</v>
+      </c>
+      <c r="T39" t="n">
+        <v>119.2319664979542</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3141,7 +3650,20 @@
       <c r="R40" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>142.638588527619</v>
+      </c>
+      <c r="T40" t="n">
+        <v>147.7318494401408</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3208,7 +3730,20 @@
       <c r="R41" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>176.7490786984841</v>
+      </c>
+      <c r="T41" t="n">
+        <v>185.1282638240432</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3275,7 +3810,20 @@
       <c r="R42" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>151.1346091349536</v>
+      </c>
+      <c r="T42" t="n">
+        <v>178.7261007384934</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V42" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3342,7 +3890,20 @@
       <c r="R43" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>162.1486797571503</v>
+      </c>
+      <c r="T43" t="n">
+        <v>161.9823733834127</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3409,7 +3970,20 @@
       <c r="R44" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>125.4214734450268</v>
+      </c>
+      <c r="T44" t="n">
+        <v>129.5819489582468</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V44" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3476,7 +4050,20 @@
       <c r="R45" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>149.2713046606348</v>
+      </c>
+      <c r="T45" t="n">
+        <v>157.5979306997532</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V45" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3543,7 +4130,20 @@
       <c r="R46" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>162.0554129223326</v>
+      </c>
+      <c r="T46" t="n">
+        <v>185.4476702461241</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V46" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3610,7 +4210,20 @@
       <c r="R47" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>141.8480810531717</v>
+      </c>
+      <c r="T47" t="n">
+        <v>148.3724097008374</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V47" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3677,7 +4290,20 @@
       <c r="R48" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>142.3130100217776</v>
+      </c>
+      <c r="T48" t="n">
+        <v>161.8808279337432</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V48" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3744,7 +4370,20 @@
       <c r="R49" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>126.6843952890806</v>
+      </c>
+      <c r="T49" t="n">
+        <v>128.0922317076451</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3811,7 +4450,20 @@
       <c r="R50" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>98.725831638765</v>
+      </c>
+      <c r="T50" t="n">
+        <v>112.4808015325252</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V50" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3878,7 +4530,20 @@
       <c r="R51" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>170.2539528140297</v>
+      </c>
+      <c r="T51" t="n">
+        <v>149.2923517382563</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3945,7 +4610,20 @@
       <c r="R52" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>131.4215437639736</v>
+      </c>
+      <c r="T52" t="n">
+        <v>132.391382850981</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4012,7 +4690,20 @@
       <c r="R53" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>173.6839335289665</v>
+      </c>
+      <c r="T53" t="n">
+        <v>165.1463149858949</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4079,7 +4770,20 @@
       <c r="R54" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>154.3387472073479</v>
+      </c>
+      <c r="T54" t="n">
+        <v>129.1749211071282</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4146,7 +4850,20 @@
       <c r="R55" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>104.5489072588774</v>
+      </c>
+      <c r="T55" t="n">
+        <v>81.11520614290032</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4213,7 +4930,20 @@
       <c r="R56" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>157.4718411178839</v>
+      </c>
+      <c r="T56" t="n">
+        <v>165.9078505467619</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V56" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4280,7 +5010,20 @@
       <c r="R57" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>155.1570088198594</v>
+      </c>
+      <c r="T57" t="n">
+        <v>172.1115825104016</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4347,7 +5090,20 @@
       <c r="R58" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>131.555613020363</v>
+      </c>
+      <c r="T58" t="n">
+        <v>131.8355316584295</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V58" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4414,7 +5170,20 @@
       <c r="R59" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>135.3489985181045</v>
+      </c>
+      <c r="T59" t="n">
+        <v>144.4524383673576</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V59" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4481,7 +5250,20 @@
       <c r="R60" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>137.3777835275524</v>
+      </c>
+      <c r="T60" t="n">
+        <v>152.7205861524723</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V60" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4548,7 +5330,20 @@
       <c r="R61" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>152.3293653376577</v>
+      </c>
+      <c r="T61" t="n">
+        <v>160.6258080370768</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V61" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4615,7 +5410,20 @@
       <c r="R62" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>143.3611511582353</v>
+      </c>
+      <c r="T62" t="n">
+        <v>133.6960105281249</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4682,7 +5490,20 @@
       <c r="R63" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>115.6114879590968</v>
+      </c>
+      <c r="T63" t="n">
+        <v>85.49964882656006</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4749,7 +5570,20 @@
       <c r="R64" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>158.9306472803991</v>
+      </c>
+      <c r="T64" t="n">
+        <v>171.2551722740914</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V64" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4816,7 +5650,20 @@
       <c r="R65" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>159.0812954077793</v>
+      </c>
+      <c r="T65" t="n">
+        <v>179.5172317571584</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4883,7 +5730,20 @@
       <c r="R66" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>131.1734960698861</v>
+      </c>
+      <c r="T66" t="n">
+        <v>139.6107775799231</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V66" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4950,7 +5810,20 @@
       <c r="R67" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>130.9934248061256</v>
+      </c>
+      <c r="T67" t="n">
+        <v>137.0589657246962</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5017,7 +5890,20 @@
       <c r="R68" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>140.8871140911096</v>
+      </c>
+      <c r="T68" t="n">
+        <v>153.2915263100121</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V68" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5084,7 +5970,20 @@
       <c r="R69" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>145.7193915989705</v>
+      </c>
+      <c r="T69" t="n">
+        <v>144.2801078701742</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5151,7 +6050,20 @@
       <c r="R70" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>154.8145436392874</v>
+      </c>
+      <c r="T70" t="n">
+        <v>169.7503660585013</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V70" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5218,7 +6130,20 @@
       <c r="R71" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>164.5993620866842</v>
+      </c>
+      <c r="T71" t="n">
+        <v>186.7026901427901</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V71" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5285,7 +6210,20 @@
       <c r="R72" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>147.5192165237457</v>
+      </c>
+      <c r="T72" t="n">
+        <v>126.44469045267</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V72" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5352,7 +6290,20 @@
       <c r="R73" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>139.5296578303904</v>
+      </c>
+      <c r="T73" t="n">
+        <v>146.6056405622281</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V73" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5419,7 +6370,20 @@
       <c r="R74" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>126.2824925669569</v>
+      </c>
+      <c r="T74" t="n">
+        <v>140.6456066154643</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V74" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5486,7 +6450,20 @@
       <c r="R75" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>137.1914186316164</v>
+      </c>
+      <c r="T75" t="n">
+        <v>150.6326631752464</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V75" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5553,7 +6530,20 @@
       <c r="R76" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>102.3687556197053</v>
+      </c>
+      <c r="T76" t="n">
+        <v>105.733656302566</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V76" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5620,7 +6610,20 @@
       <c r="R77" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>95.44948698425914</v>
+      </c>
+      <c r="T77" t="n">
+        <v>99.77630217944898</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V77" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5687,7 +6690,20 @@
       <c r="R78" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>112.7125218760619</v>
+      </c>
+      <c r="T78" t="n">
+        <v>121.6777288164527</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V78" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5754,7 +6770,20 @@
       <c r="R79" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>77.14872089159915</v>
+      </c>
+      <c r="T79" t="n">
+        <v>89.73490546962675</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V79" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5821,7 +6850,20 @@
       <c r="R80" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>159.4404373403439</v>
+      </c>
+      <c r="T80" t="n">
+        <v>152.3582427241406</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V80" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5888,7 +6930,20 @@
       <c r="R81" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>106.6482381960493</v>
+      </c>
+      <c r="T81" t="n">
+        <v>108.059046068478</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V81" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5955,7 +7010,20 @@
       <c r="R82" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>125.5342987354669</v>
+      </c>
+      <c r="T82" t="n">
+        <v>129.0316281257118</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V82" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6022,7 +7090,20 @@
       <c r="R83" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>78.51466666678633</v>
+      </c>
+      <c r="T83" t="n">
+        <v>79.40232909880898</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V83" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6089,7 +7170,20 @@
       <c r="R84" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>112.6288123011965</v>
+      </c>
+      <c r="T84" t="n">
+        <v>118.9464964191841</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V84" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6156,7 +7250,20 @@
       <c r="R85" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>142.4852494498875</v>
+      </c>
+      <c r="T85" t="n">
+        <v>126.6527047096998</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V85" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6223,7 +7330,20 @@
       <c r="R86" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>139.6295391577229</v>
+      </c>
+      <c r="T86" t="n">
+        <v>134.4653818075753</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V86" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6290,7 +7410,20 @@
       <c r="R87" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>137.0950394225367</v>
+      </c>
+      <c r="T87" t="n">
+        <v>146.5046775847371</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V87" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6357,7 +7490,20 @@
       <c r="R88" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>147.3332230805847</v>
+      </c>
+      <c r="T88" t="n">
+        <v>143.4477872617936</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V88" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6424,7 +7570,20 @@
       <c r="R89" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>131.7702936017997</v>
+      </c>
+      <c r="T89" t="n">
+        <v>118.5473042866492</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6491,7 +7650,20 @@
       <c r="R90" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>158.982777363679</v>
+      </c>
+      <c r="T90" t="n">
+        <v>172.7303830318831</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V90" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6558,7 +7730,20 @@
       <c r="R91" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>137.454320347847</v>
+      </c>
+      <c r="T91" t="n">
+        <v>140.7230624372046</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V91" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6625,7 +7810,20 @@
       <c r="R92" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>162.0844743691949</v>
+      </c>
+      <c r="T92" t="n">
+        <v>150.2256353241279</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V92" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6692,7 +7890,20 @@
       <c r="R93" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>147.6398826298108</v>
+      </c>
+      <c r="T93" t="n">
+        <v>138.4796453443196</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V93" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6759,7 +7970,20 @@
       <c r="R94" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>109.8294017744384</v>
+      </c>
+      <c r="T94" t="n">
+        <v>113.0874254499113</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V94" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6826,7 +8050,20 @@
       <c r="R95" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>163.1651451777951</v>
+      </c>
+      <c r="T95" t="n">
+        <v>169.8574173380401</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V95" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6893,7 +8130,20 @@
       <c r="R96" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>189.9140575512969</v>
+      </c>
+      <c r="T96" t="n">
+        <v>170.0364186094499</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V96" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6960,7 +8210,20 @@
       <c r="R97" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>145.4418954359053</v>
+      </c>
+      <c r="T97" t="n">
+        <v>131.2779330493424</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V97" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7027,7 +8290,20 @@
       <c r="R98" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>145.4617186198604</v>
+      </c>
+      <c r="T98" t="n">
+        <v>164.3400950022414</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V98" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7094,7 +8370,20 @@
       <c r="R99" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>139.4680625119909</v>
+      </c>
+      <c r="T99" t="n">
+        <v>121.2630284482973</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V99" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7161,7 +8450,20 @@
       <c r="R100" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>125.5296221627943</v>
+      </c>
+      <c r="T100" t="n">
+        <v>142.4419712118722</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V100" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7228,7 +8530,20 @@
       <c r="R101" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>178.1685316380975</v>
+      </c>
+      <c r="T101" t="n">
+        <v>159.7438796482184</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\right</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7295,7 +8610,20 @@
       <c r="R102" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>117.417647446201</v>
+      </c>
+      <c r="T102" t="n">
+        <v>127.3152845818141</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7362,7 +8690,20 @@
       <c r="R103" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>117.417647446201</v>
+      </c>
+      <c r="T103" t="n">
+        <v>127.3152845818141</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7429,7 +8770,20 @@
       <c r="R104" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>117.417647446201</v>
+      </c>
+      <c r="T104" t="n">
+        <v>127.3152845818141</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7496,7 +8850,20 @@
       <c r="R105" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>97.72765587960151</v>
+      </c>
+      <c r="T105" t="n">
+        <v>111.3708975781134</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V105" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7563,7 +8930,20 @@
       <c r="R106" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>96.10923874915792</v>
+      </c>
+      <c r="T106" t="n">
+        <v>116.4966418253838</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V106" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7630,7 +9010,20 @@
       <c r="R107" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>170.7023610360049</v>
+      </c>
+      <c r="T107" t="n">
+        <v>184.5844876589017</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7697,7 +9090,20 @@
       <c r="R108" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>82.38097332039634</v>
+      </c>
+      <c r="T108" t="n">
+        <v>84.84904135455983</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V108" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7764,7 +9170,20 @@
       <c r="R109" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>135.5851928333629</v>
+      </c>
+      <c r="T109" t="n">
+        <v>138.6176365001863</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\left</t>
+        </is>
+      </c>
+      <c r="V109" t="n">
+        <v>760</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7832,7 +9251,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
-        <v>114.7897603051682</v>
+        <v>117.514428742831</v>
+      </c>
+      <c r="T110" t="n">
+        <v>107.7067198899677</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V110" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="111">
@@ -7901,7 +9331,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>145.3017336543949</v>
+        <v>136.3662532363129</v>
+      </c>
+      <c r="T111" t="n">
+        <v>150.5146765575406</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V111" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="112">
@@ -7970,6 +9411,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8037,7 +9485,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S113" t="n">
-        <v>106.6826406656907</v>
+        <v>108.2163726288793</v>
+      </c>
+      <c r="T113" t="n">
+        <v>111.411207776263</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V113" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="114">
@@ -8106,6 +9565,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8173,7 +9639,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S115" t="n">
-        <v>108.000663780192</v>
+        <v>111.7734371893911</v>
+      </c>
+      <c r="T115" t="n">
+        <v>107.3962800405849</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V115" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="116">
@@ -8242,7 +9719,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S116" t="n">
-        <v>128.3856634920287</v>
+        <v>128.0150974087073</v>
+      </c>
+      <c r="T116" t="n">
+        <v>138.5632554998442</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V116" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="117">
@@ -8311,6 +9799,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8378,6 +9873,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8445,6 +9947,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8512,6 +10021,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8579,7 +10095,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S121" t="n">
-        <v>114.4918344927808</v>
+        <v>122.1170781881949</v>
+      </c>
+      <c r="T121" t="n">
+        <v>132.2789964542964</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V121" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="122">
@@ -8648,7 +10175,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S122" t="n">
-        <v>102.2261206162045</v>
+        <v>111.8450418414499</v>
+      </c>
+      <c r="T122" t="n">
+        <v>108.9323247276364</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V122" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="123">
@@ -8717,6 +10255,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8784,6 +10329,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8851,6 +10403,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8918,6 +10477,13 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8985,7 +10551,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S127" t="n">
-        <v>119.1255119628378</v>
+        <v>122.1293534970989</v>
+      </c>
+      <c r="T127" t="n">
+        <v>123.7652250641713</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V127" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="128">
@@ -9054,7 +10631,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S128" t="n">
-        <v>132.2738322968843</v>
+        <v>131.4562840030627</v>
+      </c>
+      <c r="T128" t="n">
+        <v>121.8211978159453</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V128" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="129">
@@ -9123,7 +10711,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S129" t="n">
-        <v>156.2316338908785</v>
+        <v>160.8436677165517</v>
+      </c>
+      <c r="T129" t="n">
+        <v>165.7450729974032</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V129" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="130">
@@ -9192,7 +10791,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S130" t="n">
-        <v>143.3123969655151</v>
+        <v>144.9115225839679</v>
+      </c>
+      <c r="T130" t="n">
+        <v>138.6655129584702</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V130" t="n">
+        <v>455</v>
       </c>
     </row>
     <row r="131">
@@ -9261,7 +10871,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S131" t="n">
-        <v>98.78957849404372</v>
+        <v>104.4993706470194</v>
+      </c>
+      <c r="T131" t="n">
+        <v>101.1963122947859</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V131" t="n">
+        <v>455</v>
       </c>
     </row>
     <row r="132">
@@ -9330,7 +10951,18 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
-        <v>161.6013424872473</v>
+        <v>162.0556845677155</v>
+      </c>
+      <c r="T132" t="n">
+        <v>155.9967519745518</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V132" t="n">
+        <v>455</v>
       </c>
     </row>
     <row r="133">
@@ -9400,6 +11032,17 @@
       </c>
       <c r="S133" t="n">
         <v>141.7639407002064</v>
+      </c>
+      <c r="T133" t="n">
+        <v>138.0477553557444</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>pond_1\carapace\car</t>
+        </is>
+      </c>
+      <c r="V133" t="n">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,20 +526,25 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>RealLength_Hull(cm)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>RealLength_MEC(cm)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>RealLength_Skeleton(cm)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>PondType</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Height_mm</t>
         </is>
@@ -611,17 +616,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S2" t="n">
+        <v>18.41245121697855</v>
+      </c>
+      <c r="T2" t="n">
         <v>89.51942722609853</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>94.23168548967595</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -691,17 +699,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S3" t="n">
+        <v>28.54325445641133</v>
+      </c>
+      <c r="T3" t="n">
         <v>144.8764102773935</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>156.8128879831357</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>650</v>
       </c>
     </row>
@@ -771,17 +782,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S4" t="n">
+        <v>27.40005145522436</v>
+      </c>
+      <c r="T4" t="n">
         <v>128.7456516191202</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>147.2958086034024</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>650</v>
       </c>
     </row>
@@ -851,17 +865,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S5" t="n">
+        <v>25.64095843222629</v>
+      </c>
+      <c r="T5" t="n">
         <v>150.6240311294727</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>155.4235512378463</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>650</v>
       </c>
     </row>
@@ -931,17 +948,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S6" t="n">
+        <v>21.16636442904771</v>
+      </c>
+      <c r="T6" t="n">
         <v>119.5420482817262</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>114.5983199675493</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1011,17 +1031,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S7" t="n">
+        <v>23.37339306123902</v>
+      </c>
+      <c r="T7" t="n">
         <v>172.4200714868299</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.178328220591</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1091,17 +1114,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
+        <v>14.55250640515562</v>
+      </c>
+      <c r="T8" t="n">
         <v>113.6408665105316</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>89.11297281423367</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1171,17 +1197,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S9" t="n">
+        <v>25.82935467005808</v>
+      </c>
+      <c r="T9" t="n">
         <v>138.3169991723383</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>154.5822299665249</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1251,17 +1280,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S10" t="n">
+        <v>29.0267023603768</v>
+      </c>
+      <c r="T10" t="n">
         <v>142.7588103148251</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>154.8381045874964</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1331,17 +1363,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
+        <v>19.62293856317094</v>
+      </c>
+      <c r="T11" t="n">
         <v>151.0819118574266</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>138.8704192860928</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1411,17 +1446,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S12" t="n">
+        <v>33.50150189142796</v>
+      </c>
+      <c r="T12" t="n">
         <v>156.6829120200248</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>177.8340067423377</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1491,17 +1529,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
+        <v>21.65042716454379</v>
+      </c>
+      <c r="T13" t="n">
         <v>144.6045605979157</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>139.2847003836162</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1571,17 +1612,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S14" t="n">
+        <v>18.50868419588127</v>
+      </c>
+      <c r="T14" t="n">
         <v>126.5207646060668</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>108.2118283191664</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1651,17 +1695,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S15" t="n">
+        <v>13.85415775568651</v>
+      </c>
+      <c r="T15" t="n">
         <v>108.3459220829687</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>89.34158186612096</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1731,17 +1778,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S16" t="n">
+        <v>23.67546465386005</v>
+      </c>
+      <c r="T16" t="n">
         <v>140.2892015392351</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>146.206448429693</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1811,17 +1861,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S17" t="n">
+        <v>17.04506653184843</v>
+      </c>
+      <c r="T17" t="n">
         <v>137.5702402908112</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>116.957206530735</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1891,17 +1944,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S18" t="n">
+        <v>30.72391368233249</v>
+      </c>
+      <c r="T18" t="n">
         <v>161.048122716919</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>181.29241908653</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1971,17 +2027,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S19" t="n">
+        <v>26.63288931417365</v>
+      </c>
+      <c r="T19" t="n">
         <v>125.1874738028053</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>134.4001025899306</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2051,17 +2110,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
+        <v>23.58383705493082</v>
+      </c>
+      <c r="T20" t="n">
         <v>111.2409241572751</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>118.2328212222592</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2131,17 +2193,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S21" t="n">
+        <v>20.77099353743314</v>
+      </c>
+      <c r="T21" t="n">
         <v>105.1295426559788</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>112.445117772679</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2211,17 +2276,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S22" t="n">
+        <v>28.79820509097973</v>
+      </c>
+      <c r="T22" t="n">
         <v>160.0528242681144</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.7295283075781</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2291,17 +2359,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S23" t="n">
+        <v>27.34258413210752</v>
+      </c>
+      <c r="T23" t="n">
         <v>127.926016180156</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>136.6525203457561</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2371,17 +2442,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
+        <v>15.54011149455156</v>
+      </c>
+      <c r="T24" t="n">
         <v>124.7183536330472</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>121.1269641831386</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2451,17 +2525,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S25" t="n">
+        <v>24.7507926115887</v>
+      </c>
+      <c r="T25" t="n">
         <v>120.8475065438441</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>124.7698836286107</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2531,17 +2608,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
-        <v>149.68638412288</v>
+        <v>29.08211450567878</v>
       </c>
       <c r="T26" t="n">
+        <v>149.6863841228801</v>
+      </c>
+      <c r="U26" t="n">
         <v>169.7085939966074</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2611,17 +2691,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S27" t="n">
+        <v>24.88575251975895</v>
+      </c>
+      <c r="T27" t="n">
         <v>138.101764458228</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>140.6601131082742</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2691,17 +2774,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S28" t="n">
+        <v>29.72220221716891</v>
+      </c>
+      <c r="T28" t="n">
         <v>147.1120501204356</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>164.7537936275864</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2771,17 +2857,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S29" t="n">
+        <v>28.32980502772372</v>
+      </c>
+      <c r="T29" t="n">
         <v>152.5047429966486</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>171.7904286717853</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2851,17 +2940,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S30" t="n">
+        <v>29.49407373149284</v>
+      </c>
+      <c r="T30" t="n">
         <v>140.2097111148776</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>145.4994440069945</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2931,17 +3023,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S31" t="n">
+        <v>31.97243473320157</v>
+      </c>
+      <c r="T31" t="n">
         <v>149.6444801727167</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>164.289904749585</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3011,17 +3106,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S32" t="n">
+        <v>22.57516028438255</v>
+      </c>
+      <c r="T32" t="n">
         <v>138.4699417984678</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>133.5889592485863</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3091,17 +3189,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S33" t="n">
+        <v>31.41718273426304</v>
+      </c>
+      <c r="T33" t="n">
         <v>147.2719071129475</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>158.5373025876724</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3171,17 +3272,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S34" t="n">
+        <v>27.81031088260993</v>
+      </c>
+      <c r="T34" t="n">
         <v>148.7515712806191</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>151.6735805128355</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3251,17 +3355,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S35" t="n">
+        <v>30.07315070071706</v>
+      </c>
+      <c r="T35" t="n">
         <v>152.7024702983286</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>167.4628470150082</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3331,17 +3438,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S36" t="n">
+        <v>22.30715965838933</v>
+      </c>
+      <c r="T36" t="n">
         <v>121.5263478147821</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>133.3676034431038</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3411,17 +3521,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S37" t="n">
+        <v>31.78085963655306</v>
+      </c>
+      <c r="T37" t="n">
         <v>156.210702417082</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>181.1351775543351</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3491,17 +3604,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
+        <v>28.15945775465657</v>
+      </c>
+      <c r="T38" t="n">
         <v>164.4066206824926</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>164.0636255864119</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3571,17 +3687,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S39" t="n">
+        <v>21.42358890528796</v>
+      </c>
+      <c r="T39" t="n">
         <v>122.3649644815153</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>119.2319664979542</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3651,17 +3770,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S40" t="n">
+        <v>24.35358445878079</v>
+      </c>
+      <c r="T40" t="n">
         <v>142.638588527619</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>147.7318494401408</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3731,17 +3853,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
+        <v>26.68495078820414</v>
+      </c>
+      <c r="T41" t="n">
         <v>176.7490786984841</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>185.1282638240432</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3811,17 +3936,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S42" t="n">
+        <v>29.81668889749374</v>
+      </c>
+      <c r="T42" t="n">
         <v>151.1346091349536</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>178.7261007384934</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3891,17 +4019,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
+        <v>24.95703727047621</v>
+      </c>
+      <c r="T43" t="n">
         <v>162.1486797571503</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>161.9823733834127</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3971,17 +4102,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S44" t="n">
+        <v>24.52622115712974</v>
+      </c>
+      <c r="T44" t="n">
         <v>125.4214734450268</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>129.5819489582468</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4051,17 +4185,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S45" t="n">
+        <v>25.58098626072759</v>
+      </c>
+      <c r="T45" t="n">
         <v>149.2713046606348</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>157.5979306997532</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4131,17 +4268,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
+        <v>33.35258221588032</v>
+      </c>
+      <c r="T46" t="n">
         <v>162.0554129223326</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>185.4476702461241</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4211,17 +4351,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S47" t="n">
+        <v>29.09038541709339</v>
+      </c>
+      <c r="T47" t="n">
         <v>141.8480810531717</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>148.3724097008374</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4291,17 +4434,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S48" t="n">
+        <v>29.68482205370279</v>
+      </c>
+      <c r="T48" t="n">
         <v>142.3130100217776</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>161.8808279337432</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4371,17 +4517,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
+        <v>17.0743545412518</v>
+      </c>
+      <c r="T49" t="n">
         <v>126.6843952890806</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>128.0922317076451</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4451,17 +4600,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S50" t="n">
+        <v>19.69166071528478</v>
+      </c>
+      <c r="T50" t="n">
         <v>98.725831638765</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>112.4808015325252</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4531,17 +4683,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S51" t="n">
+        <v>22.30964823207185</v>
+      </c>
+      <c r="T51" t="n">
         <v>170.2539528140297</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>149.2923517382563</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4611,17 +4766,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
+        <v>22.14396683935574</v>
+      </c>
+      <c r="T52" t="n">
         <v>131.4215437639736</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>132.391382850981</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4691,17 +4849,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S53" t="n">
+        <v>21.24316191353668</v>
+      </c>
+      <c r="T53" t="n">
         <v>173.6839335289665</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>165.1463149858949</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4771,17 +4932,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
+        <v>18.86518635827786</v>
+      </c>
+      <c r="T54" t="n">
         <v>154.3387472073479</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>129.1749211071282</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4851,17 +5015,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
+        <v>12.79157818923693</v>
+      </c>
+      <c r="T55" t="n">
         <v>104.5489072588774</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>81.11520614290032</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4931,17 +5098,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S56" t="n">
+        <v>33.42408002721034</v>
+      </c>
+      <c r="T56" t="n">
         <v>157.4718411178839</v>
       </c>
-      <c r="T56" t="n">
+      <c r="U56" t="n">
         <v>165.9078505467619</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5011,17 +5181,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S57" t="n">
+        <v>26.93413215562246</v>
+      </c>
+      <c r="T57" t="n">
         <v>155.1570088198594</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>172.1115825104016</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5091,17 +5264,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S58" t="n">
+        <v>21.71955032183897</v>
+      </c>
+      <c r="T58" t="n">
         <v>131.555613020363</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>131.8355316584295</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5171,17 +5347,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S59" t="n">
-        <v>135.3489985181045</v>
+        <v>25.29289635124608</v>
       </c>
       <c r="T59" t="n">
+        <v>135.3489985181046</v>
+      </c>
+      <c r="U59" t="n">
         <v>144.4524383673576</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5251,17 +5430,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S60" t="n">
+        <v>28.46469876301014</v>
+      </c>
+      <c r="T60" t="n">
         <v>137.3777835275524</v>
       </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>152.7205861524723</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5331,17 +5513,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S61" t="n">
+        <v>32.54892278448008</v>
+      </c>
+      <c r="T61" t="n">
         <v>152.3293653376577</v>
       </c>
-      <c r="T61" t="n">
+      <c r="U61" t="n">
         <v>160.6258080370768</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5411,17 +5596,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S62" t="n">
+        <v>20.55245855042843</v>
+      </c>
+      <c r="T62" t="n">
         <v>143.3611511582353</v>
       </c>
-      <c r="T62" t="n">
+      <c r="U62" t="n">
         <v>133.6960105281249</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V62" t="n">
+      <c r="W62" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5491,17 +5679,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S63" t="n">
+        <v>15.24799842392614</v>
+      </c>
+      <c r="T63" t="n">
         <v>115.6114879590968</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>85.49964882656006</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V63" t="n">
+      <c r="W63" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5571,17 +5762,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S64" t="n">
+        <v>31.40304305711093</v>
+      </c>
+      <c r="T64" t="n">
         <v>158.9306472803991</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>171.2551722740914</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5651,17 +5845,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S65" t="n">
-        <v>159.0812954077793</v>
+        <v>31.63787932898325</v>
       </c>
       <c r="T65" t="n">
+        <v>159.0812954077794</v>
+      </c>
+      <c r="U65" t="n">
         <v>179.5172317571584</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5731,17 +5928,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S66" t="n">
+        <v>28.09037083324632</v>
+      </c>
+      <c r="T66" t="n">
         <v>131.1734960698861</v>
       </c>
-      <c r="T66" t="n">
+      <c r="U66" t="n">
         <v>139.6107775799231</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V66" t="n">
+      <c r="W66" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5811,17 +6011,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S67" t="n">
+        <v>27.81563368487555</v>
+      </c>
+      <c r="T67" t="n">
         <v>130.9934248061256</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>137.0589657246962</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5891,17 +6094,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S68" t="n">
+        <v>27.64144849100096</v>
+      </c>
+      <c r="T68" t="n">
         <v>140.8871140911096</v>
       </c>
-      <c r="T68" t="n">
+      <c r="U68" t="n">
         <v>153.2915263100121</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V68" t="n">
+      <c r="W68" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5971,17 +6177,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S69" t="n">
+        <v>30.55177264313123</v>
+      </c>
+      <c r="T69" t="n">
         <v>145.7193915989705</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>144.2801078701742</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V69" t="n">
+      <c r="W69" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6051,17 +6260,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S70" t="n">
+        <v>32.45782889157297</v>
+      </c>
+      <c r="T70" t="n">
         <v>154.8145436392874</v>
       </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>169.7503660585013</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6131,17 +6343,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S71" t="n">
+        <v>32.85224695485368</v>
+      </c>
+      <c r="T71" t="n">
         <v>164.5993620866842</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>186.7026901427901</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V71" t="n">
+      <c r="W71" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6211,17 +6426,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
+        <v>17.93282750246336</v>
+      </c>
+      <c r="T72" t="n">
         <v>147.5192165237457</v>
       </c>
-      <c r="T72" t="n">
+      <c r="U72" t="n">
         <v>126.44469045267</v>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6291,17 +6509,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
+        <v>24.69765115362</v>
+      </c>
+      <c r="T73" t="n">
         <v>139.5296578303904</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>146.6056405622281</v>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V73" t="n">
+      <c r="W73" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6371,17 +6592,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S74" t="n">
+        <v>24.51716532131686</v>
+      </c>
+      <c r="T74" t="n">
         <v>126.2824925669569</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>140.6456066154643</v>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6451,17 +6675,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S75" t="n">
+        <v>26.9031966830677</v>
+      </c>
+      <c r="T75" t="n">
         <v>137.1914186316164</v>
       </c>
-      <c r="T75" t="n">
+      <c r="U75" t="n">
         <v>150.6326631752464</v>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V75" t="n">
+      <c r="W75" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6531,17 +6758,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S76" t="n">
-        <v>102.3687556197053</v>
+        <v>18.85341156069364</v>
       </c>
       <c r="T76" t="n">
+        <v>102.3687556197054</v>
+      </c>
+      <c r="U76" t="n">
         <v>105.733656302566</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V76" t="n">
+      <c r="W76" t="n">
         <v>700</v>
       </c>
     </row>
@@ -6611,17 +6841,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S77" t="n">
+        <v>18.01992677740402</v>
+      </c>
+      <c r="T77" t="n">
         <v>95.44948698425914</v>
       </c>
-      <c r="T77" t="n">
+      <c r="U77" t="n">
         <v>99.77630217944898</v>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="V77" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
         <v>700</v>
       </c>
     </row>
@@ -6691,17 +6924,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S78" t="n">
+        <v>23.64489673940236</v>
+      </c>
+      <c r="T78" t="n">
         <v>112.7125218760619</v>
       </c>
-      <c r="T78" t="n">
+      <c r="U78" t="n">
         <v>121.6777288164527</v>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="V78" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V78" t="n">
+      <c r="W78" t="n">
         <v>700</v>
       </c>
     </row>
@@ -6771,17 +7007,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S79" t="n">
+        <v>14.54990272161832</v>
+      </c>
+      <c r="T79" t="n">
         <v>77.14872089159915</v>
       </c>
-      <c r="T79" t="n">
+      <c r="U79" t="n">
         <v>89.73490546962675</v>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="V79" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V79" t="n">
+      <c r="W79" t="n">
         <v>700</v>
       </c>
     </row>
@@ -6851,17 +7090,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S80" t="n">
+        <v>22.39078954748982</v>
+      </c>
+      <c r="T80" t="n">
         <v>159.4404373403439</v>
       </c>
-      <c r="T80" t="n">
+      <c r="U80" t="n">
         <v>152.3582427241406</v>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="V80" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V80" t="n">
+      <c r="W80" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6931,17 +7173,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
+        <v>22.17700859030642</v>
+      </c>
+      <c r="T81" t="n">
         <v>106.6482381960493</v>
       </c>
-      <c r="T81" t="n">
+      <c r="U81" t="n">
         <v>108.059046068478</v>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="V81" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V81" t="n">
+      <c r="W81" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7011,17 +7256,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S82" t="n">
+        <v>26.77760899515397</v>
+      </c>
+      <c r="T82" t="n">
         <v>125.5342987354669</v>
       </c>
-      <c r="T82" t="n">
+      <c r="U82" t="n">
         <v>129.0316281257118</v>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="V82" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V82" t="n">
+      <c r="W82" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7091,17 +7339,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
+        <v>12.64479212977603</v>
+      </c>
+      <c r="T83" t="n">
         <v>78.51466666678633</v>
       </c>
-      <c r="T83" t="n">
+      <c r="U83" t="n">
         <v>79.40232909880898</v>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="V83" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V83" t="n">
+      <c r="W83" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7171,17 +7422,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S84" t="n">
+        <v>21.00840427801247</v>
+      </c>
+      <c r="T84" t="n">
         <v>112.6288123011965</v>
       </c>
-      <c r="T84" t="n">
+      <c r="U84" t="n">
         <v>118.9464964191841</v>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="V84" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V84" t="n">
+      <c r="W84" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7251,17 +7505,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S85" t="n">
+        <v>19.48001787525633</v>
+      </c>
+      <c r="T85" t="n">
         <v>142.4852494498875</v>
       </c>
-      <c r="T85" t="n">
+      <c r="U85" t="n">
         <v>126.6527047096998</v>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="V85" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V85" t="n">
+      <c r="W85" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7331,17 +7588,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S86" t="n">
+        <v>19.38574304382326</v>
+      </c>
+      <c r="T86" t="n">
         <v>139.6295391577229</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>134.4653818075753</v>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="V86" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V86" t="n">
+      <c r="W86" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7411,17 +7671,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S87" t="n">
+        <v>28.75769357876141</v>
+      </c>
+      <c r="T87" t="n">
         <v>137.0950394225367</v>
       </c>
-      <c r="T87" t="n">
+      <c r="U87" t="n">
         <v>146.5046775847371</v>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="V87" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V87" t="n">
+      <c r="W87" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7491,17 +7754,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S88" t="n">
-        <v>147.3332230805847</v>
+        <v>23.66373735289095</v>
       </c>
       <c r="T88" t="n">
+        <v>147.3332230805846</v>
+      </c>
+      <c r="U88" t="n">
         <v>143.4477872617936</v>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="V88" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V88" t="n">
+      <c r="W88" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7571,17 +7837,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
+        <v>17.2897579680757</v>
+      </c>
+      <c r="T89" t="n">
         <v>131.7702936017997</v>
       </c>
-      <c r="T89" t="n">
+      <c r="U89" t="n">
         <v>118.5473042866492</v>
       </c>
-      <c r="U89" t="inlineStr">
+      <c r="V89" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V89" t="n">
+      <c r="W89" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7651,17 +7920,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S90" t="n">
+        <v>32.74900250288449</v>
+      </c>
+      <c r="T90" t="n">
         <v>158.982777363679</v>
       </c>
-      <c r="T90" t="n">
+      <c r="U90" t="n">
         <v>172.7303830318831</v>
       </c>
-      <c r="U90" t="inlineStr">
+      <c r="V90" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V90" t="n">
+      <c r="W90" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7731,17 +8003,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S91" t="n">
+        <v>29.30524123578117</v>
+      </c>
+      <c r="T91" t="n">
         <v>137.454320347847</v>
       </c>
-      <c r="T91" t="n">
+      <c r="U91" t="n">
         <v>140.7230624372046</v>
       </c>
-      <c r="U91" t="inlineStr">
+      <c r="V91" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V91" t="n">
+      <c r="W91" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7811,17 +8086,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
-        <v>162.0844743691949</v>
+        <v>19.7367174866672</v>
       </c>
       <c r="T92" t="n">
+        <v>162.0844743691948</v>
+      </c>
+      <c r="U92" t="n">
         <v>150.2256353241279</v>
       </c>
-      <c r="U92" t="inlineStr">
+      <c r="V92" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V92" t="n">
+      <c r="W92" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7891,17 +8169,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S93" t="n">
+        <v>23.13465542868036</v>
+      </c>
+      <c r="T93" t="n">
         <v>147.6398826298108</v>
       </c>
-      <c r="T93" t="n">
+      <c r="U93" t="n">
         <v>138.4796453443196</v>
       </c>
-      <c r="U93" t="inlineStr">
+      <c r="V93" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V93" t="n">
+      <c r="W93" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7971,17 +8252,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
+        <v>18.21236485740626</v>
+      </c>
+      <c r="T94" t="n">
         <v>109.8294017744384</v>
       </c>
-      <c r="T94" t="n">
+      <c r="U94" t="n">
         <v>113.0874254499113</v>
       </c>
-      <c r="U94" t="inlineStr">
+      <c r="V94" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V94" t="n">
+      <c r="W94" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8051,17 +8335,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S95" t="n">
+        <v>34.33785215023558</v>
+      </c>
+      <c r="T95" t="n">
         <v>163.1651451777951</v>
       </c>
-      <c r="T95" t="n">
+      <c r="U95" t="n">
         <v>169.8574173380401</v>
       </c>
-      <c r="U95" t="inlineStr">
+      <c r="V95" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V95" t="n">
+      <c r="W95" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8131,17 +8418,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S96" t="n">
+        <v>23.66608327798498</v>
+      </c>
+      <c r="T96" t="n">
         <v>189.9140575512969</v>
       </c>
-      <c r="T96" t="n">
+      <c r="U96" t="n">
         <v>170.0364186094499</v>
       </c>
-      <c r="U96" t="inlineStr">
+      <c r="V96" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V96" t="n">
+      <c r="W96" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8211,17 +8501,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
+        <v>17.5921514010218</v>
+      </c>
+      <c r="T97" t="n">
         <v>145.4418954359053</v>
       </c>
-      <c r="T97" t="n">
+      <c r="U97" t="n">
         <v>131.2779330493424</v>
       </c>
-      <c r="U97" t="inlineStr">
+      <c r="V97" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V97" t="n">
+      <c r="W97" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8291,17 +8584,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S98" t="n">
+        <v>30.76303902295018</v>
+      </c>
+      <c r="T98" t="n">
         <v>145.4617186198604</v>
       </c>
-      <c r="T98" t="n">
+      <c r="U98" t="n">
         <v>164.3400950022414</v>
       </c>
-      <c r="U98" t="inlineStr">
+      <c r="V98" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V98" t="n">
+      <c r="W98" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8371,17 +8667,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S99" t="n">
+        <v>18.16352714305956</v>
+      </c>
+      <c r="T99" t="n">
         <v>139.4680625119909</v>
       </c>
-      <c r="T99" t="n">
+      <c r="U99" t="n">
         <v>121.2630284482973</v>
       </c>
-      <c r="U99" t="inlineStr">
+      <c r="V99" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V99" t="n">
+      <c r="W99" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8451,17 +8750,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S100" t="n">
+        <v>24.45746403642546</v>
+      </c>
+      <c r="T100" t="n">
         <v>125.5296221627943</v>
       </c>
-      <c r="T100" t="n">
+      <c r="U100" t="n">
         <v>142.4419712118722</v>
       </c>
-      <c r="U100" t="inlineStr">
+      <c r="V100" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V100" t="n">
+      <c r="W100" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8531,17 +8833,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S101" t="n">
+        <v>27.0157685953061</v>
+      </c>
+      <c r="T101" t="n">
         <v>178.1685316380975</v>
       </c>
-      <c r="T101" t="n">
+      <c r="U101" t="n">
         <v>159.7438796482184</v>
       </c>
-      <c r="U101" t="inlineStr">
+      <c r="V101" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="V101" t="n">
+      <c r="W101" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8611,17 +8916,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S102" t="n">
-        <v>117.417647446201</v>
+        <v>22.77330385012174</v>
       </c>
       <c r="T102" t="n">
+        <v>117.4176474462011</v>
+      </c>
+      <c r="U102" t="n">
         <v>127.3152845818141</v>
       </c>
-      <c r="U102" t="inlineStr">
+      <c r="V102" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V102" t="n">
+      <c r="W102" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8691,17 +8999,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S103" t="n">
-        <v>117.417647446201</v>
+        <v>22.77330385012174</v>
       </c>
       <c r="T103" t="n">
+        <v>117.4176474462011</v>
+      </c>
+      <c r="U103" t="n">
         <v>127.3152845818141</v>
       </c>
-      <c r="U103" t="inlineStr">
+      <c r="V103" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V103" t="n">
+      <c r="W103" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8771,17 +9082,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S104" t="n">
-        <v>117.417647446201</v>
+        <v>22.77330385012174</v>
       </c>
       <c r="T104" t="n">
+        <v>117.4176474462011</v>
+      </c>
+      <c r="U104" t="n">
         <v>127.3152845818141</v>
       </c>
-      <c r="U104" t="inlineStr">
+      <c r="V104" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V104" t="n">
+      <c r="W104" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8851,17 +9165,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S105" t="n">
+        <v>18.00774133563472</v>
+      </c>
+      <c r="T105" t="n">
         <v>97.72765587960151</v>
       </c>
-      <c r="T105" t="n">
+      <c r="U105" t="n">
         <v>111.3708975781134</v>
       </c>
-      <c r="U105" t="inlineStr">
+      <c r="V105" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V105" t="n">
+      <c r="W105" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8931,17 +9248,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S106" t="n">
+        <v>18.85329540180989</v>
+      </c>
+      <c r="T106" t="n">
         <v>96.10923874915792</v>
       </c>
-      <c r="T106" t="n">
+      <c r="U106" t="n">
         <v>116.4966418253838</v>
       </c>
-      <c r="U106" t="inlineStr">
+      <c r="V106" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V106" t="n">
+      <c r="W106" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9011,17 +9331,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S107" t="n">
+        <v>31.57885671919704</v>
+      </c>
+      <c r="T107" t="n">
         <v>170.7023610360049</v>
       </c>
-      <c r="T107" t="n">
+      <c r="U107" t="n">
         <v>184.5844876589017</v>
       </c>
-      <c r="U107" t="inlineStr">
+      <c r="V107" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V107" t="n">
+      <c r="W107" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9091,17 +9414,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S108" t="n">
+        <v>15.27596861124021</v>
+      </c>
+      <c r="T108" t="n">
         <v>82.38097332039634</v>
       </c>
-      <c r="T108" t="n">
+      <c r="U108" t="n">
         <v>84.84904135455983</v>
       </c>
-      <c r="U108" t="inlineStr">
+      <c r="V108" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V108" t="n">
+      <c r="W108" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9171,17 +9497,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S109" t="n">
+        <v>22.46010008329068</v>
+      </c>
+      <c r="T109" t="n">
         <v>135.5851928333629</v>
       </c>
-      <c r="T109" t="n">
+      <c r="U109" t="n">
         <v>138.6176365001863</v>
       </c>
-      <c r="U109" t="inlineStr">
+      <c r="V109" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="V109" t="n">
+      <c r="W109" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9251,17 +9580,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
+        <v>17.64800172886985</v>
+      </c>
+      <c r="T110" t="n">
         <v>117.514428742831</v>
       </c>
-      <c r="T110" t="n">
+      <c r="U110" t="n">
         <v>107.7067198899677</v>
       </c>
-      <c r="U110" t="inlineStr">
+      <c r="V110" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V110" t="n">
+      <c r="W110" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9331,17 +9663,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
+        <v>28.39115567834585</v>
+      </c>
+      <c r="T111" t="n">
         <v>136.3662532363129</v>
       </c>
-      <c r="T111" t="n">
+      <c r="U111" t="n">
         <v>150.5146765575406</v>
       </c>
-      <c r="U111" t="inlineStr">
+      <c r="V111" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V111" t="n">
+      <c r="W111" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9412,12 +9747,13 @@
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9485,17 +9821,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S113" t="n">
+        <v>19.34497746417141</v>
+      </c>
+      <c r="T113" t="n">
         <v>108.2163726288793</v>
       </c>
-      <c r="T113" t="n">
+      <c r="U113" t="n">
         <v>111.411207776263</v>
       </c>
-      <c r="U113" t="inlineStr">
+      <c r="V113" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V113" t="n">
+      <c r="W113" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9566,12 +9905,13 @@
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr">
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9639,17 +9979,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S115" t="n">
+        <v>13.67427653360674</v>
+      </c>
+      <c r="T115" t="n">
         <v>111.7734371893911</v>
       </c>
-      <c r="T115" t="n">
+      <c r="U115" t="n">
         <v>107.3962800405849</v>
       </c>
-      <c r="U115" t="inlineStr">
+      <c r="V115" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V115" t="n">
+      <c r="W115" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9719,17 +10062,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S116" t="n">
+        <v>26.47656152431712</v>
+      </c>
+      <c r="T116" t="n">
         <v>128.0150974087073</v>
       </c>
-      <c r="T116" t="n">
+      <c r="U116" t="n">
         <v>138.5632554998442</v>
       </c>
-      <c r="U116" t="inlineStr">
+      <c r="V116" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V116" t="n">
+      <c r="W116" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9800,12 +10146,13 @@
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr">
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9874,12 +10221,13 @@
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr">
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9948,12 +10296,13 @@
       </c>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr">
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10022,12 +10371,13 @@
       </c>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr">
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10095,17 +10445,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S121" t="n">
+        <v>22.96040234120882</v>
+      </c>
+      <c r="T121" t="n">
         <v>122.1170781881949</v>
       </c>
-      <c r="T121" t="n">
+      <c r="U121" t="n">
         <v>132.2789964542964</v>
       </c>
-      <c r="U121" t="inlineStr">
+      <c r="V121" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V121" t="n">
+      <c r="W121" t="n">
         <v>400</v>
       </c>
     </row>
@@ -10175,17 +10528,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S122" t="n">
+        <v>15.13015886499415</v>
+      </c>
+      <c r="T122" t="n">
         <v>111.8450418414499</v>
       </c>
-      <c r="T122" t="n">
+      <c r="U122" t="n">
         <v>108.9323247276364</v>
       </c>
-      <c r="U122" t="inlineStr">
+      <c r="V122" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V122" t="n">
+      <c r="W122" t="n">
         <v>400</v>
       </c>
     </row>
@@ -10256,12 +10612,13 @@
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr">
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10330,12 +10687,13 @@
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr">
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10404,12 +10762,13 @@
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr">
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10478,12 +10837,13 @@
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr">
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10551,17 +10911,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S127" t="n">
+        <v>25.65074194580773</v>
+      </c>
+      <c r="T127" t="n">
         <v>122.1293534970989</v>
       </c>
-      <c r="T127" t="n">
+      <c r="U127" t="n">
         <v>123.7652250641713</v>
       </c>
-      <c r="U127" t="inlineStr">
+      <c r="V127" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V127" t="n">
+      <c r="W127" t="n">
         <v>370</v>
       </c>
     </row>
@@ -10631,17 +10994,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S128" t="n">
+        <v>17.00708372979112</v>
+      </c>
+      <c r="T128" t="n">
         <v>131.4562840030627</v>
       </c>
-      <c r="T128" t="n">
+      <c r="U128" t="n">
         <v>121.8211978159453</v>
       </c>
-      <c r="U128" t="inlineStr">
+      <c r="V128" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V128" t="n">
+      <c r="W128" t="n">
         <v>385</v>
       </c>
     </row>
@@ -10711,17 +11077,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S129" t="n">
+        <v>21.2288290415306</v>
+      </c>
+      <c r="T129" t="n">
         <v>160.8436677165517</v>
       </c>
-      <c r="T129" t="n">
+      <c r="U129" t="n">
         <v>165.7450729974032</v>
       </c>
-      <c r="U129" t="inlineStr">
+      <c r="V129" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V129" t="n">
+      <c r="W129" t="n">
         <v>385</v>
       </c>
     </row>
@@ -10791,17 +11160,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S130" t="n">
+        <v>17.68452957799136</v>
+      </c>
+      <c r="T130" t="n">
         <v>144.9115225839679</v>
       </c>
-      <c r="T130" t="n">
+      <c r="U130" t="n">
         <v>138.6655129584702</v>
       </c>
-      <c r="U130" t="inlineStr">
+      <c r="V130" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V130" t="n">
+      <c r="W130" t="n">
         <v>455</v>
       </c>
     </row>
@@ -10871,17 +11243,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S131" t="n">
+        <v>13.74661507186937</v>
+      </c>
+      <c r="T131" t="n">
         <v>104.4993706470194</v>
       </c>
-      <c r="T131" t="n">
+      <c r="U131" t="n">
         <v>101.1963122947859</v>
       </c>
-      <c r="U131" t="inlineStr">
+      <c r="V131" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V131" t="n">
+      <c r="W131" t="n">
         <v>455</v>
       </c>
     </row>
@@ -10951,17 +11326,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
+        <v>22.35840974149103</v>
+      </c>
+      <c r="T132" t="n">
         <v>162.0556845677155</v>
       </c>
-      <c r="T132" t="n">
+      <c r="U132" t="n">
         <v>155.9967519745518</v>
       </c>
-      <c r="U132" t="inlineStr">
+      <c r="V132" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V132" t="n">
+      <c r="W132" t="n">
         <v>455</v>
       </c>
     </row>
@@ -11031,17 +11409,20 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S133" t="n">
+        <v>19.58285581624185</v>
+      </c>
+      <c r="T133" t="n">
         <v>141.7639407002064</v>
       </c>
-      <c r="T133" t="n">
+      <c r="U133" t="n">
         <v>138.0477553557444</v>
       </c>
-      <c r="U133" t="inlineStr">
+      <c r="V133" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="V133" t="n">
+      <c r="W133" t="n">
         <v>455</v>
       </c>
     </row>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -616,7 +616,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S2" t="n">
-        <v>18.41245121697855</v>
+        <v>89.46024071800146</v>
       </c>
       <c r="T2" t="n">
         <v>89.51942722609853</v>
@@ -699,7 +699,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S3" t="n">
-        <v>28.54325445641133</v>
+        <v>144.8515207401151</v>
       </c>
       <c r="T3" t="n">
         <v>144.8764102773935</v>
@@ -782,7 +782,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S4" t="n">
-        <v>27.40005145522436</v>
+        <v>128.7456511458256</v>
       </c>
       <c r="T4" t="n">
         <v>128.7456516191202</v>
@@ -865,7 +865,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S5" t="n">
-        <v>25.64095843222629</v>
+        <v>150.6240150220556</v>
       </c>
       <c r="T5" t="n">
         <v>150.6240311294727</v>
@@ -948,7 +948,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S6" t="n">
-        <v>21.16636442904771</v>
+        <v>119.5420748666193</v>
       </c>
       <c r="T6" t="n">
         <v>119.5420482817262</v>
@@ -1031,7 +1031,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S7" t="n">
-        <v>23.37339306123902</v>
+        <v>172.420065508728</v>
       </c>
       <c r="T7" t="n">
         <v>172.4200714868299</v>
@@ -1114,7 +1114,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
-        <v>14.55250640515562</v>
+        <v>113.6408664857839</v>
       </c>
       <c r="T8" t="n">
         <v>113.6408665105316</v>
@@ -1197,7 +1197,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S9" t="n">
-        <v>25.82935467005808</v>
+        <v>138.2698349929292</v>
       </c>
       <c r="T9" t="n">
         <v>138.3169991723383</v>
@@ -1280,7 +1280,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S10" t="n">
-        <v>29.0267023603768</v>
+        <v>142.7588110864231</v>
       </c>
       <c r="T10" t="n">
         <v>142.7588103148251</v>
@@ -1363,10 +1363,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
-        <v>19.62293856317094</v>
+        <v>151.0657175583403</v>
       </c>
       <c r="T11" t="n">
-        <v>151.0819118574266</v>
+        <v>151.0819118574265</v>
       </c>
       <c r="U11" t="n">
         <v>138.8704192860928</v>
@@ -1446,7 +1446,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S12" t="n">
-        <v>33.50150189142796</v>
+        <v>156.6829076672418</v>
       </c>
       <c r="T12" t="n">
         <v>156.6829120200248</v>
@@ -1529,7 +1529,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
-        <v>21.65042716454379</v>
+        <v>144.6045711003246</v>
       </c>
       <c r="T13" t="n">
         <v>144.6045605979157</v>
@@ -1612,7 +1612,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50868419588127</v>
+        <v>126.5207712080109</v>
       </c>
       <c r="T14" t="n">
         <v>126.5207646060668</v>
@@ -1695,7 +1695,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S15" t="n">
-        <v>13.85415775568651</v>
+        <v>108.345930129826</v>
       </c>
       <c r="T15" t="n">
         <v>108.3459220829687</v>
@@ -1778,7 +1778,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S16" t="n">
-        <v>23.67546465386005</v>
+        <v>140.2892118969358</v>
       </c>
       <c r="T16" t="n">
         <v>140.2892015392351</v>
@@ -1861,7 +1861,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S17" t="n">
-        <v>17.04506653184843</v>
+        <v>137.5702402908112</v>
       </c>
       <c r="T17" t="n">
         <v>137.5702402908112</v>
@@ -1944,7 +1944,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S18" t="n">
-        <v>30.72391368233249</v>
+        <v>160.977943256303</v>
       </c>
       <c r="T18" t="n">
         <v>161.048122716919</v>
@@ -2027,7 +2027,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S19" t="n">
-        <v>26.63288931417365</v>
+        <v>125.1874920747535</v>
       </c>
       <c r="T19" t="n">
         <v>125.1874738028053</v>
@@ -2110,7 +2110,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
-        <v>23.58383705493082</v>
+        <v>111.2409289861498</v>
       </c>
       <c r="T20" t="n">
         <v>111.2409241572751</v>
@@ -2193,7 +2193,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S21" t="n">
-        <v>20.77099353743314</v>
+        <v>105.1295408502361</v>
       </c>
       <c r="T21" t="n">
         <v>105.1295426559788</v>
@@ -2276,7 +2276,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S22" t="n">
-        <v>28.79820509097973</v>
+        <v>159.9830878636595</v>
       </c>
       <c r="T22" t="n">
         <v>160.0528242681144</v>
@@ -2359,7 +2359,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S23" t="n">
-        <v>27.34258413210752</v>
+        <v>127.9012207178111</v>
       </c>
       <c r="T23" t="n">
         <v>127.926016180156</v>
@@ -2442,7 +2442,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
-        <v>15.54011149455156</v>
+        <v>124.6644626264112</v>
       </c>
       <c r="T24" t="n">
         <v>124.7183536330472</v>
@@ -2525,7 +2525,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S25" t="n">
-        <v>24.7507926115887</v>
+        <v>120.8475082815099</v>
       </c>
       <c r="T25" t="n">
         <v>120.8475065438441</v>
@@ -2608,7 +2608,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
-        <v>29.08211450567878</v>
+        <v>149.3150667423094</v>
       </c>
       <c r="T26" t="n">
         <v>149.6863841228801</v>
@@ -2691,7 +2691,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S27" t="n">
-        <v>24.88575251975895</v>
+        <v>138.1017777427979</v>
       </c>
       <c r="T27" t="n">
         <v>138.101764458228</v>
@@ -2774,7 +2774,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S28" t="n">
-        <v>29.72220221716891</v>
+        <v>147.1120482341852</v>
       </c>
       <c r="T28" t="n">
         <v>147.1120501204356</v>
@@ -2857,7 +2857,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S29" t="n">
-        <v>28.32980502772372</v>
+        <v>152.2574242428964</v>
       </c>
       <c r="T29" t="n">
         <v>152.5047429966486</v>
@@ -2940,7 +2940,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S30" t="n">
-        <v>29.49407373149284</v>
+        <v>140.2091023664197</v>
       </c>
       <c r="T30" t="n">
         <v>140.2097111148776</v>
@@ -3023,7 +3023,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S31" t="n">
-        <v>31.97243473320157</v>
+        <v>149.6444809088116</v>
       </c>
       <c r="T31" t="n">
         <v>149.6444801727167</v>
@@ -3106,7 +3106,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S32" t="n">
-        <v>22.57516028438255</v>
+        <v>138.4699501156378</v>
       </c>
       <c r="T32" t="n">
         <v>138.4699417984678</v>
@@ -3189,7 +3189,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S33" t="n">
-        <v>31.41718273426304</v>
+        <v>147.2719024438159</v>
       </c>
       <c r="T33" t="n">
         <v>147.2719071129475</v>
@@ -3272,7 +3272,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S34" t="n">
-        <v>27.81031088260993</v>
+        <v>148.7515533854336</v>
       </c>
       <c r="T34" t="n">
         <v>148.7515712806191</v>
@@ -3355,7 +3355,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S35" t="n">
-        <v>30.07315070071706</v>
+        <v>152.7024814839053</v>
       </c>
       <c r="T35" t="n">
         <v>152.7024702983286</v>
@@ -3438,7 +3438,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S36" t="n">
-        <v>22.30715965838933</v>
+        <v>121.5263359659202</v>
       </c>
       <c r="T36" t="n">
         <v>121.5263478147821</v>
@@ -3521,7 +3521,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S37" t="n">
-        <v>31.78085963655306</v>
+        <v>156.2107008267397</v>
       </c>
       <c r="T37" t="n">
         <v>156.210702417082</v>
@@ -3604,7 +3604,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
-        <v>28.15945775465657</v>
+        <v>164.4066251729149</v>
       </c>
       <c r="T38" t="n">
         <v>164.4066206824926</v>
@@ -3687,7 +3687,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S39" t="n">
-        <v>21.42358890528796</v>
+        <v>122.3649338174221</v>
       </c>
       <c r="T39" t="n">
         <v>122.3649644815153</v>
@@ -3770,7 +3770,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S40" t="n">
-        <v>24.35358445878079</v>
+        <v>142.6385953299745</v>
       </c>
       <c r="T40" t="n">
         <v>142.638588527619</v>
@@ -3853,7 +3853,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
-        <v>26.68495078820414</v>
+        <v>176.7490859304091</v>
       </c>
       <c r="T41" t="n">
         <v>176.7490786984841</v>
@@ -3936,7 +3936,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S42" t="n">
-        <v>29.81668889749374</v>
+        <v>151.0383143758084</v>
       </c>
       <c r="T42" t="n">
         <v>151.1346091349536</v>
@@ -4019,7 +4019,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
-        <v>24.95703727047621</v>
+        <v>162.1486827172921</v>
       </c>
       <c r="T43" t="n">
         <v>162.1486797571503</v>
@@ -4102,7 +4102,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S44" t="n">
-        <v>24.52622115712974</v>
+        <v>125.4214795218226</v>
       </c>
       <c r="T44" t="n">
         <v>125.4214734450268</v>
@@ -4185,7 +4185,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S45" t="n">
-        <v>25.58098626072759</v>
+        <v>149.2712769645643</v>
       </c>
       <c r="T45" t="n">
         <v>149.2713046606348</v>
@@ -4268,7 +4268,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
-        <v>33.35258221588032</v>
+        <v>162.0554097753725</v>
       </c>
       <c r="T46" t="n">
         <v>162.0554129223326</v>
@@ -4351,7 +4351,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S47" t="n">
-        <v>29.09038541709339</v>
+        <v>141.8480799296507</v>
       </c>
       <c r="T47" t="n">
         <v>141.8480810531717</v>
@@ -4434,7 +4434,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S48" t="n">
-        <v>29.68482205370279</v>
+        <v>142.3129925323429</v>
       </c>
       <c r="T48" t="n">
         <v>142.3130100217776</v>
@@ -4517,7 +4517,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
-        <v>17.0743545412518</v>
+        <v>126.6843998844925</v>
       </c>
       <c r="T49" t="n">
         <v>126.6843952890806</v>
@@ -4600,7 +4600,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S50" t="n">
-        <v>19.69166071528478</v>
+        <v>98.72581894307027</v>
       </c>
       <c r="T50" t="n">
         <v>98.725831638765</v>
@@ -4683,7 +4683,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S51" t="n">
-        <v>22.30964823207185</v>
+        <v>170.2539310229063</v>
       </c>
       <c r="T51" t="n">
         <v>170.2539528140297</v>
@@ -4766,7 +4766,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
-        <v>22.14396683935574</v>
+        <v>131.4215357211992</v>
       </c>
       <c r="T52" t="n">
         <v>131.4215437639736</v>
@@ -4849,7 +4849,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S53" t="n">
-        <v>21.24316191353668</v>
+        <v>173.683960951193</v>
       </c>
       <c r="T53" t="n">
         <v>173.6839335289665</v>
@@ -4932,7 +4932,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
-        <v>18.86518635827786</v>
+        <v>154.3387098881642</v>
       </c>
       <c r="T54" t="n">
         <v>154.3387472073479</v>
@@ -5015,7 +5015,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
-        <v>12.79157818923693</v>
+        <v>104.5489069764239</v>
       </c>
       <c r="T55" t="n">
         <v>104.5489072588774</v>
@@ -5098,7 +5098,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S56" t="n">
-        <v>33.42408002721034</v>
+        <v>157.4718495938019</v>
       </c>
       <c r="T56" t="n">
         <v>157.4718411178839</v>
@@ -5181,7 +5181,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S57" t="n">
-        <v>26.93413215562246</v>
+        <v>155.1543536278412</v>
       </c>
       <c r="T57" t="n">
         <v>155.1570088198594</v>
@@ -5264,7 +5264,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S58" t="n">
-        <v>21.71955032183897</v>
+        <v>131.5555759651063</v>
       </c>
       <c r="T58" t="n">
         <v>131.555613020363</v>
@@ -5347,10 +5347,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S59" t="n">
-        <v>25.29289635124608</v>
+        <v>135.3455984320063</v>
       </c>
       <c r="T59" t="n">
-        <v>135.3489985181046</v>
+        <v>135.3489985181045</v>
       </c>
       <c r="U59" t="n">
         <v>144.4524383673576</v>
@@ -5430,7 +5430,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S60" t="n">
-        <v>28.46469876301014</v>
+        <v>137.3777892051259</v>
       </c>
       <c r="T60" t="n">
         <v>137.3777835275524</v>
@@ -5513,7 +5513,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S61" t="n">
-        <v>32.54892278448008</v>
+        <v>152.3293516906985</v>
       </c>
       <c r="T61" t="n">
         <v>152.3293653376577</v>
@@ -5596,7 +5596,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S62" t="n">
-        <v>20.55245855042843</v>
+        <v>143.361146868522</v>
       </c>
       <c r="T62" t="n">
         <v>143.3611511582353</v>
@@ -5679,7 +5679,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S63" t="n">
-        <v>15.24799842392614</v>
+        <v>115.6114747377499</v>
       </c>
       <c r="T63" t="n">
         <v>115.6114879590968</v>
@@ -5762,7 +5762,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S64" t="n">
-        <v>31.40304305711093</v>
+        <v>158.9306635251178</v>
       </c>
       <c r="T64" t="n">
         <v>158.9306472803991</v>
@@ -5845,10 +5845,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S65" t="n">
-        <v>31.63787932898325</v>
+        <v>158.5730751243332</v>
       </c>
       <c r="T65" t="n">
-        <v>159.0812954077794</v>
+        <v>159.0812954077793</v>
       </c>
       <c r="U65" t="n">
         <v>179.5172317571584</v>
@@ -5928,7 +5928,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S66" t="n">
-        <v>28.09037083324632</v>
+        <v>131.1734859929433</v>
       </c>
       <c r="T66" t="n">
         <v>131.1734960698861</v>
@@ -6011,7 +6011,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S67" t="n">
-        <v>27.81563368487555</v>
+        <v>130.993419510247</v>
       </c>
       <c r="T67" t="n">
         <v>130.9934248061256</v>
@@ -6094,7 +6094,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S68" t="n">
-        <v>27.64144849100096</v>
+        <v>140.8871156880767</v>
       </c>
       <c r="T68" t="n">
         <v>140.8871140911096</v>
@@ -6177,7 +6177,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S69" t="n">
-        <v>30.55177264313123</v>
+        <v>145.7185652068018</v>
       </c>
       <c r="T69" t="n">
         <v>145.7193915989705</v>
@@ -6260,7 +6260,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S70" t="n">
-        <v>32.45782889157297</v>
+        <v>154.814545864654</v>
       </c>
       <c r="T70" t="n">
         <v>154.8145436392874</v>
@@ -6343,7 +6343,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S71" t="n">
-        <v>32.85224695485368</v>
+        <v>164.5993746850113</v>
       </c>
       <c r="T71" t="n">
         <v>164.5993620866842</v>
@@ -6426,7 +6426,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
-        <v>17.93282750246336</v>
+        <v>147.5192352325103</v>
       </c>
       <c r="T72" t="n">
         <v>147.5192165237457</v>
@@ -6509,7 +6509,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
-        <v>24.69765115362</v>
+        <v>139.5163781825055</v>
       </c>
       <c r="T73" t="n">
         <v>139.5296578303904</v>
@@ -6592,7 +6592,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S74" t="n">
-        <v>24.51716532131686</v>
+        <v>126.2824911787496</v>
       </c>
       <c r="T74" t="n">
         <v>126.2824925669569</v>
@@ -6675,10 +6675,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S75" t="n">
-        <v>26.9031966830677</v>
+        <v>137.1857168428197</v>
       </c>
       <c r="T75" t="n">
-        <v>137.1914186316164</v>
+        <v>137.1914186316166</v>
       </c>
       <c r="U75" t="n">
         <v>150.6326631752464</v>
@@ -6758,7 +6758,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S76" t="n">
-        <v>18.85341156069364</v>
+        <v>102.3670734810906</v>
       </c>
       <c r="T76" t="n">
         <v>102.3687556197054</v>
@@ -6841,7 +6841,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S77" t="n">
-        <v>18.01992677740402</v>
+        <v>95.4494967802917</v>
       </c>
       <c r="T77" t="n">
         <v>95.44948698425914</v>
@@ -6924,7 +6924,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S78" t="n">
-        <v>23.64489673940236</v>
+        <v>112.711544803459</v>
       </c>
       <c r="T78" t="n">
         <v>112.7125218760619</v>
@@ -7007,7 +7007,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S79" t="n">
-        <v>14.54990272161832</v>
+        <v>77.14872675419424</v>
       </c>
       <c r="T79" t="n">
         <v>77.14872089159915</v>
@@ -7090,7 +7090,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S80" t="n">
-        <v>22.39078954748982</v>
+        <v>159.4404491733029</v>
       </c>
       <c r="T80" t="n">
         <v>159.4404373403439</v>
@@ -7173,7 +7173,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
-        <v>22.17700859030642</v>
+        <v>106.5699815665904</v>
       </c>
       <c r="T81" t="n">
         <v>106.6482381960493</v>
@@ -7256,7 +7256,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S82" t="n">
-        <v>26.77760899515397</v>
+        <v>125.534312116556</v>
       </c>
       <c r="T82" t="n">
         <v>125.5342987354669</v>
@@ -7339,7 +7339,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
-        <v>12.64479212977603</v>
+        <v>78.51469192480864</v>
       </c>
       <c r="T83" t="n">
         <v>78.51466666678633</v>
@@ -7422,7 +7422,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S84" t="n">
-        <v>21.00840427801247</v>
+        <v>112.6233162331283</v>
       </c>
       <c r="T84" t="n">
         <v>112.6288123011965</v>
@@ -7505,7 +7505,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S85" t="n">
-        <v>19.48001787525633</v>
+        <v>142.4081273057455</v>
       </c>
       <c r="T85" t="n">
         <v>142.4852494498875</v>
@@ -7588,7 +7588,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S86" t="n">
-        <v>19.38574304382326</v>
+        <v>139.6295518806741</v>
       </c>
       <c r="T86" t="n">
         <v>139.6295391577229</v>
@@ -7671,7 +7671,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S87" t="n">
-        <v>28.75769357876141</v>
+        <v>137.0950371659708</v>
       </c>
       <c r="T87" t="n">
         <v>137.0950394225367</v>
@@ -7754,7 +7754,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S88" t="n">
-        <v>23.66373735289095</v>
+        <v>147.3238543538565</v>
       </c>
       <c r="T88" t="n">
         <v>147.3332230805846</v>
@@ -7837,7 +7837,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
-        <v>17.2897579680757</v>
+        <v>131.7702941780663</v>
       </c>
       <c r="T89" t="n">
         <v>131.7702936017997</v>
@@ -7920,7 +7920,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S90" t="n">
-        <v>32.74900250288449</v>
+        <v>158.9828288591914</v>
       </c>
       <c r="T90" t="n">
         <v>158.982777363679</v>
@@ -8003,7 +8003,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S91" t="n">
-        <v>29.30524123578117</v>
+        <v>137.4543016877627</v>
       </c>
       <c r="T91" t="n">
         <v>137.454320347847</v>
@@ -8086,10 +8086,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
-        <v>19.7367174866672</v>
+        <v>162.0819696043318</v>
       </c>
       <c r="T92" t="n">
-        <v>162.0844743691948</v>
+        <v>162.0844743691949</v>
       </c>
       <c r="U92" t="n">
         <v>150.2256353241279</v>
@@ -8169,7 +8169,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S93" t="n">
-        <v>23.13465542868036</v>
+        <v>147.6398930750444</v>
       </c>
       <c r="T93" t="n">
         <v>147.6398826298108</v>
@@ -8252,7 +8252,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
-        <v>18.21236485740626</v>
+        <v>109.8294039681047</v>
       </c>
       <c r="T94" t="n">
         <v>109.8294017744384</v>
@@ -8335,7 +8335,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S95" t="n">
-        <v>34.33785215023558</v>
+        <v>163.1651446563927</v>
       </c>
       <c r="T95" t="n">
         <v>163.1651451777951</v>
@@ -8418,7 +8418,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S96" t="n">
-        <v>23.66608327798498</v>
+        <v>189.914075188585</v>
       </c>
       <c r="T96" t="n">
         <v>189.9140575512969</v>
@@ -8501,7 +8501,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
-        <v>17.5921514010218</v>
+        <v>145.4419045162077</v>
       </c>
       <c r="T97" t="n">
         <v>145.4418954359053</v>
@@ -8584,7 +8584,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S98" t="n">
-        <v>30.76303902295018</v>
+        <v>145.4617369487765</v>
       </c>
       <c r="T98" t="n">
         <v>145.4617186198604</v>
@@ -8667,7 +8667,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S99" t="n">
-        <v>18.16352714305956</v>
+        <v>139.3324832457644</v>
       </c>
       <c r="T99" t="n">
         <v>139.4680625119909</v>
@@ -8750,7 +8750,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S100" t="n">
-        <v>24.45746403642546</v>
+        <v>125.5296090040163</v>
       </c>
       <c r="T100" t="n">
         <v>125.5296221627943</v>
@@ -8833,7 +8833,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S101" t="n">
-        <v>27.0157685953061</v>
+        <v>178.16852955447</v>
       </c>
       <c r="T101" t="n">
         <v>178.1685316380975</v>
@@ -8916,10 +8916,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S102" t="n">
-        <v>22.77330385012174</v>
+        <v>117.2452579198594</v>
       </c>
       <c r="T102" t="n">
-        <v>117.4176474462011</v>
+        <v>117.417647446201</v>
       </c>
       <c r="U102" t="n">
         <v>127.3152845818141</v>
@@ -8999,10 +8999,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S103" t="n">
-        <v>22.77330385012174</v>
+        <v>117.2452579198594</v>
       </c>
       <c r="T103" t="n">
-        <v>117.4176474462011</v>
+        <v>117.417647446201</v>
       </c>
       <c r="U103" t="n">
         <v>127.3152845818141</v>
@@ -9082,10 +9082,10 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S104" t="n">
-        <v>22.77330385012174</v>
+        <v>117.2452579198594</v>
       </c>
       <c r="T104" t="n">
-        <v>117.4176474462011</v>
+        <v>117.417647446201</v>
       </c>
       <c r="U104" t="n">
         <v>127.3152845818141</v>
@@ -9165,7 +9165,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S105" t="n">
-        <v>18.00774133563472</v>
+        <v>97.72762860224847</v>
       </c>
       <c r="T105" t="n">
         <v>97.72765587960151</v>
@@ -9248,7 +9248,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S106" t="n">
-        <v>18.85329540180989</v>
+        <v>96.10923874915792</v>
       </c>
       <c r="T106" t="n">
         <v>96.10923874915792</v>
@@ -9331,7 +9331,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S107" t="n">
-        <v>31.57885671919704</v>
+        <v>170.6383557080179</v>
       </c>
       <c r="T107" t="n">
         <v>170.7023610360049</v>
@@ -9414,7 +9414,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S108" t="n">
-        <v>15.27596861124021</v>
+        <v>82.38096485731846</v>
       </c>
       <c r="T108" t="n">
         <v>82.38097332039634</v>
@@ -9497,7 +9497,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S109" t="n">
-        <v>22.46010008329068</v>
+        <v>135.5852100746213</v>
       </c>
       <c r="T109" t="n">
         <v>135.5851928333629</v>
@@ -9580,7 +9580,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
-        <v>17.64800172886985</v>
+        <v>117.5144461663911</v>
       </c>
       <c r="T110" t="n">
         <v>117.514428742831</v>
@@ -9663,7 +9663,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>28.39115567834585</v>
+        <v>136.3662613294278</v>
       </c>
       <c r="T111" t="n">
         <v>136.3662532363129</v>
@@ -9821,7 +9821,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S113" t="n">
-        <v>19.34497746417141</v>
+        <v>108.216371425595</v>
       </c>
       <c r="T113" t="n">
         <v>108.2163726288793</v>
@@ -9979,7 +9979,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S115" t="n">
-        <v>13.67427653360674</v>
+        <v>111.7734305806518</v>
       </c>
       <c r="T115" t="n">
         <v>111.7734371893911</v>
@@ -10062,7 +10062,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S116" t="n">
-        <v>26.47656152431712</v>
+        <v>128.015088802559</v>
       </c>
       <c r="T116" t="n">
         <v>128.0150974087073</v>
@@ -10445,7 +10445,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S121" t="n">
-        <v>22.96040234120882</v>
+        <v>122.1170856974565</v>
       </c>
       <c r="T121" t="n">
         <v>122.1170781881949</v>
@@ -10528,7 +10528,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S122" t="n">
-        <v>15.13015886499415</v>
+        <v>111.84505655063</v>
       </c>
       <c r="T122" t="n">
         <v>111.8450418414499</v>
@@ -10911,7 +10911,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S127" t="n">
-        <v>25.65074194580773</v>
+        <v>122.129358640651</v>
       </c>
       <c r="T127" t="n">
         <v>122.1293534970989</v>
@@ -10994,7 +10994,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S128" t="n">
-        <v>17.00708372979112</v>
+        <v>131.4562610781874</v>
       </c>
       <c r="T128" t="n">
         <v>131.4562840030627</v>
@@ -11077,7 +11077,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S129" t="n">
-        <v>21.2288290415306</v>
+        <v>160.8436791632326</v>
       </c>
       <c r="T129" t="n">
         <v>160.8436677165517</v>
@@ -11160,7 +11160,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S130" t="n">
-        <v>17.68452957799136</v>
+        <v>144.9115492470041</v>
       </c>
       <c r="T130" t="n">
         <v>144.9115225839679</v>
@@ -11243,7 +11243,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S131" t="n">
-        <v>13.74661507186937</v>
+        <v>104.4993706470194</v>
       </c>
       <c r="T131" t="n">
         <v>104.4993706470194</v>
@@ -11326,7 +11326,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
-        <v>22.35840974149103</v>
+        <v>162.0556869657647</v>
       </c>
       <c r="T132" t="n">
         <v>162.0556845677155</v>
@@ -11409,7 +11409,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S133" t="n">
-        <v>19.58285581624185</v>
+        <v>141.7639396357654</v>
       </c>
       <c r="T133" t="n">
         <v>141.7639407002064</v>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -1366,7 +1366,7 @@
         <v>151.0657175583403</v>
       </c>
       <c r="T11" t="n">
-        <v>151.0819118574265</v>
+        <v>151.0819118574266</v>
       </c>
       <c r="U11" t="n">
         <v>138.8704192860928</v>
@@ -5184,7 +5184,7 @@
         <v>155.1543536278412</v>
       </c>
       <c r="T57" t="n">
-        <v>155.1570088198594</v>
+        <v>155.1570088198592</v>
       </c>
       <c r="U57" t="n">
         <v>172.1115825104016</v>
@@ -6512,7 +6512,7 @@
         <v>139.5163781825055</v>
       </c>
       <c r="T73" t="n">
-        <v>139.5296578303904</v>
+        <v>139.5296578303906</v>
       </c>
       <c r="U73" t="n">
         <v>146.6056405622281</v>
@@ -8089,7 +8089,7 @@
         <v>162.0819696043318</v>
       </c>
       <c r="T92" t="n">
-        <v>162.0844743691949</v>
+        <v>162.0844743691948</v>
       </c>
       <c r="U92" t="n">
         <v>150.2256353241279</v>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,25 +526,40 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Hull_Length_pixels</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Skeleton_Length_pixels</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Diameter_pixels</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>RealLength_Hull(cm)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>RealLength_MEC(cm)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>RealLength_Skeleton(cm)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>PondType</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Height_mm</t>
         </is>
@@ -616,20 +631,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S2" t="n">
+        <v>465.0141732779099</v>
+      </c>
+      <c r="T2" t="n">
+        <v>489.8161347753704</v>
+      </c>
+      <c r="U2" t="n">
+        <v>465.3218246424834</v>
+      </c>
+      <c r="V2" t="n">
         <v>89.46024071800146</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>89.51942722609853</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>94.23168548967595</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -699,20 +723,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S3" t="n">
+        <v>752.9379490196103</v>
+      </c>
+      <c r="T3" t="n">
+        <v>815.1131148267311</v>
+      </c>
+      <c r="U3" t="n">
+        <v>753.0673247904316</v>
+      </c>
+      <c r="V3" t="n">
         <v>144.8515207401151</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>144.8764102773935</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>156.8128879831357</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>650</v>
       </c>
     </row>
@@ -782,20 +815,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S4" t="n">
+        <v>669.2196673092043</v>
+      </c>
+      <c r="T4" t="n">
+        <v>765.6433530167076</v>
+      </c>
+      <c r="U4" t="n">
+        <v>669.219669769389</v>
+      </c>
+      <c r="V4" t="n">
         <v>128.7456511458256</v>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>128.7456516191202</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>147.2958086034024</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>650</v>
       </c>
     </row>
@@ -865,20 +907,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S5" t="n">
+        <v>782.9433641037203</v>
+      </c>
+      <c r="T5" t="n">
+        <v>807.8913448780912</v>
+      </c>
+      <c r="U5" t="n">
+        <v>782.9434478300459</v>
+      </c>
+      <c r="V5" t="n">
         <v>150.6240150220556</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>150.6240311294727</v>
       </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
         <v>155.4235512378463</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>650</v>
       </c>
     </row>
@@ -948,20 +999,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S6" t="n">
+        <v>621.3794940621174</v>
+      </c>
+      <c r="T6" t="n">
+        <v>595.6818648267308</v>
+      </c>
+      <c r="U6" t="n">
+        <v>621.3793558738898</v>
+      </c>
+      <c r="V6" t="n">
         <v>119.5420748666193</v>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
         <v>119.5420482817262</v>
       </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
         <v>114.5983199675493</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1031,20 +1091,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S7" t="n">
+        <v>896.2391960446696</v>
+      </c>
+      <c r="T7" t="n">
+        <v>905.3786425160873</v>
+      </c>
+      <c r="U7" t="n">
+        <v>896.2392271188326</v>
+      </c>
+      <c r="V7" t="n">
         <v>172.420065508728</v>
       </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
         <v>172.4200714868299</v>
       </c>
-      <c r="U7" t="n">
+      <c r="X7" t="n">
         <v>174.178328220591</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1114,20 +1183,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
+        <v>590.7050233192431</v>
+      </c>
+      <c r="T8" t="n">
+        <v>463.2090753273514</v>
+      </c>
+      <c r="U8" t="n">
+        <v>590.7050234478816</v>
+      </c>
+      <c r="V8" t="n">
         <v>113.6408664857839</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>113.6408665105316</v>
       </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
         <v>89.11297281423367</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1197,20 +1275,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S9" t="n">
+        <v>718.7263581280739</v>
+      </c>
+      <c r="T9" t="n">
+        <v>803.5181583954184</v>
+      </c>
+      <c r="U9" t="n">
+        <v>718.9715174493565</v>
+      </c>
+      <c r="V9" t="n">
         <v>138.2698349929292</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>138.3169991723383</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>154.5822299665249</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1280,20 +1367,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S10" t="n">
+        <v>742.0600479351514</v>
+      </c>
+      <c r="T10" t="n">
+        <v>804.848194223389</v>
+      </c>
+      <c r="U10" t="n">
+        <v>742.0600439243865</v>
+      </c>
+      <c r="V10" t="n">
         <v>142.7588110864231</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
         <v>142.7588103148251</v>
       </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>154.8381045874964</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1363,20 +1459,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
+        <v>785.2393331073433</v>
+      </c>
+      <c r="T11" t="n">
+        <v>721.8481942233899</v>
+      </c>
+      <c r="U11" t="n">
+        <v>785.3235110453966</v>
+      </c>
+      <c r="V11" t="n">
         <v>151.0657175583403</v>
       </c>
-      <c r="T11" t="n">
-        <v>151.0819118574266</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
+        <v>151.0819118574265</v>
+      </c>
+      <c r="X11" t="n">
         <v>138.8704192860928</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1446,20 +1551,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S12" t="n">
+        <v>814.4374773742417</v>
+      </c>
+      <c r="T12" t="n">
+        <v>924.3808530167103</v>
+      </c>
+      <c r="U12" t="n">
+        <v>814.4375000000001</v>
+      </c>
+      <c r="V12" t="n">
         <v>156.6829076672418</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
         <v>156.6829120200248</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>177.8340067423377</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1529,20 +1643,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
+        <v>751.6543052280576</v>
+      </c>
+      <c r="T13" t="n">
+        <v>724.0016266367547</v>
+      </c>
+      <c r="U13" t="n">
+        <v>751.6542506365545</v>
+      </c>
+      <c r="V13" t="n">
         <v>144.6045711003246</v>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
         <v>144.6045605979157</v>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>139.2847003836162</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1612,20 +1735,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S14" t="n">
+        <v>657.65474532127</v>
+      </c>
+      <c r="T14" t="n">
+        <v>562.4848925160865</v>
+      </c>
+      <c r="U14" t="n">
+        <v>657.6547110043766</v>
+      </c>
+      <c r="V14" t="n">
         <v>126.5207712080109</v>
       </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
         <v>126.5207646060668</v>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>108.2118283191664</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1695,20 +1827,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S15" t="n">
+        <v>563.1819534910899</v>
+      </c>
+      <c r="T15" t="n">
+        <v>464.39738477537</v>
+      </c>
+      <c r="U15" t="n">
+        <v>563.1819116635403</v>
+      </c>
+      <c r="V15" t="n">
         <v>108.345930129826</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>108.3459220829687</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>89.34158186612096</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1778,20 +1919,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S16" t="n">
+        <v>729.2230757091629</v>
+      </c>
+      <c r="T16" t="n">
+        <v>759.9808607574236</v>
+      </c>
+      <c r="U16" t="n">
+        <v>729.223021869853</v>
+      </c>
+      <c r="V16" t="n">
         <v>140.2892118969358</v>
       </c>
-      <c r="T16" t="n">
+      <c r="W16" t="n">
         <v>140.2892015392351</v>
       </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
         <v>146.206448429693</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1861,20 +2011,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S17" t="n">
+        <v>715.0898661018505</v>
+      </c>
+      <c r="T17" t="n">
+        <v>607.9433530167067</v>
+      </c>
+      <c r="U17" t="n">
+        <v>715.0898661018505</v>
+      </c>
+      <c r="V17" t="n">
         <v>137.5702402908112</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>137.5702402908112</v>
       </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
         <v>116.957206530735</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1944,20 +2103,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S18" t="n">
+        <v>836.7630647817501</v>
+      </c>
+      <c r="T18" t="n">
+        <v>942.3576742747498</v>
+      </c>
+      <c r="U18" t="n">
+        <v>837.127857494105</v>
+      </c>
+      <c r="V18" t="n">
         <v>160.977943256303</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>161.048122716919</v>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>181.29241908653</v>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2027,20 +2195,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S19" t="n">
+        <v>650.7243627409828</v>
+      </c>
+      <c r="T19" t="n">
+        <v>698.6114959306926</v>
+      </c>
+      <c r="U19" t="n">
+        <v>650.7242677634282</v>
+      </c>
+      <c r="V19" t="n">
         <v>125.1874920747535</v>
       </c>
-      <c r="T19" t="n">
+      <c r="W19" t="n">
         <v>125.1874738028053</v>
       </c>
-      <c r="U19" t="n">
+      <c r="X19" t="n">
         <v>134.4001025899306</v>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2110,20 +2287,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
+        <v>578.2301524340984</v>
+      </c>
+      <c r="T20" t="n">
+        <v>614.5739959306925</v>
+      </c>
+      <c r="U20" t="n">
+        <v>578.2301273336162</v>
+      </c>
+      <c r="V20" t="n">
         <v>111.2409289861498</v>
       </c>
-      <c r="T20" t="n">
+      <c r="W20" t="n">
         <v>111.2409241572751</v>
       </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>118.2328212222592</v>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2193,20 +2379,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S21" t="n">
+        <v>546.463167695475</v>
+      </c>
+      <c r="T21" t="n">
+        <v>584.4895236200487</v>
+      </c>
+      <c r="U21" t="n">
+        <v>546.4631770817224</v>
+      </c>
+      <c r="V21" t="n">
         <v>105.1295408502361</v>
       </c>
-      <c r="T21" t="n">
+      <c r="W21" t="n">
         <v>105.1295426559788</v>
       </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
         <v>112.445117772679</v>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2276,20 +2471,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S22" t="n">
+        <v>831.5918082075649</v>
+      </c>
+      <c r="T22" t="n">
+        <v>903.0457813607642</v>
+      </c>
+      <c r="U22" t="n">
+        <v>831.9542979147767</v>
+      </c>
+      <c r="V22" t="n">
         <v>159.9830878636595</v>
       </c>
-      <c r="T22" t="n">
+      <c r="W22" t="n">
         <v>160.0528242681144</v>
       </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>173.7295283075781</v>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2359,20 +2563,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S23" t="n">
+        <v>664.8303194355309</v>
+      </c>
+      <c r="T23" t="n">
+        <v>710.3195594480188</v>
+      </c>
+      <c r="U23" t="n">
+        <v>664.9592062050144</v>
+      </c>
+      <c r="V23" t="n">
         <v>127.9012207178111</v>
       </c>
-      <c r="T23" t="n">
+      <c r="W23" t="n">
         <v>127.926016180156</v>
       </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>136.6525203457561</v>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2442,20 +2655,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
+        <v>648.0056565920962</v>
+      </c>
+      <c r="T24" t="n">
+        <v>629.6177459306923</v>
+      </c>
+      <c r="U24" t="n">
+        <v>648.2857819494262</v>
+      </c>
+      <c r="V24" t="n">
         <v>124.6644626264112</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>124.7183536330472</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>121.1269641831386</v>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2525,20 +2747,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S25" t="n">
+        <v>628.165134647506</v>
+      </c>
+      <c r="T25" t="n">
+        <v>648.5536347753704</v>
+      </c>
+      <c r="U25" t="n">
+        <v>628.1651256151224</v>
+      </c>
+      <c r="V25" t="n">
         <v>120.8475082815099</v>
       </c>
-      <c r="T25" t="n">
+      <c r="W25" t="n">
         <v>120.8475065438441</v>
       </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
         <v>124.7698836286107</v>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2608,20 +2839,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
+        <v>776.139453257019</v>
+      </c>
+      <c r="T26" t="n">
+        <v>882.1449719127453</v>
+      </c>
+      <c r="U26" t="n">
+        <v>778.0695603455307</v>
+      </c>
+      <c r="V26" t="n">
         <v>149.3150667423094</v>
       </c>
-      <c r="T26" t="n">
+      <c r="W26" t="n">
         <v>149.6863841228801</v>
       </c>
-      <c r="U26" t="n">
+      <c r="X26" t="n">
         <v>169.7085939966074</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2691,20 +2931,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S27" t="n">
+        <v>717.8527968386568</v>
+      </c>
+      <c r="T27" t="n">
+        <v>731.1510195507404</v>
+      </c>
+      <c r="U27" t="n">
+        <v>717.8527277854857</v>
+      </c>
+      <c r="V27" t="n">
         <v>138.1017777427979</v>
       </c>
-      <c r="T27" t="n">
+      <c r="W27" t="n">
         <v>138.101764458228</v>
       </c>
-      <c r="U27" t="n">
+      <c r="X27" t="n">
         <v>140.6601131082742</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2774,20 +3023,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S28" t="n">
+        <v>764.6881669420113</v>
+      </c>
+      <c r="T28" t="n">
+        <v>856.3899283440584</v>
+      </c>
+      <c r="U28" t="n">
+        <v>764.6881767467377</v>
+      </c>
+      <c r="V28" t="n">
         <v>147.1120482341852</v>
       </c>
-      <c r="T28" t="n">
+      <c r="W28" t="n">
         <v>147.1120501204356</v>
       </c>
-      <c r="U28" t="n">
+      <c r="X28" t="n">
         <v>164.7537936275864</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2857,20 +3115,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S29" t="n">
+        <v>791.4338223492784</v>
+      </c>
+      <c r="T29" t="n">
+        <v>892.9663448780915</v>
+      </c>
+      <c r="U29" t="n">
+        <v>792.719384794552</v>
+      </c>
+      <c r="V29" t="n">
         <v>152.2574242428964</v>
       </c>
-      <c r="T29" t="n">
+      <c r="W29" t="n">
         <v>152.5047429966486</v>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>171.7904286717853</v>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2940,20 +3207,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S30" t="n">
+        <v>728.8066665110024</v>
+      </c>
+      <c r="T30" t="n">
+        <v>756.3058530167077</v>
+      </c>
+      <c r="U30" t="n">
+        <v>728.8098307844115</v>
+      </c>
+      <c r="V30" t="n">
         <v>140.2091023664197</v>
       </c>
-      <c r="T30" t="n">
-        <v>140.2097111148776</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="W30" t="n">
+        <v>140.2097111148775</v>
+      </c>
+      <c r="X30" t="n">
         <v>145.4994440069945</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W30" t="n">
+      <c r="Z30" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3023,20 +3299,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S31" t="n">
+        <v>777.8517475127978</v>
+      </c>
+      <c r="T31" t="n">
+        <v>853.9786347753698</v>
+      </c>
+      <c r="U31" t="n">
+        <v>777.8517436865782</v>
+      </c>
+      <c r="V31" t="n">
         <v>149.6444809088116</v>
       </c>
-      <c r="T31" t="n">
+      <c r="W31" t="n">
         <v>149.6444801727167</v>
       </c>
-      <c r="U31" t="n">
+      <c r="X31" t="n">
         <v>164.289904749585</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3106,20 +3391,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S32" t="n">
+        <v>719.7665561825377</v>
+      </c>
+      <c r="T32" t="n">
+        <v>694.3951742747505</v>
+      </c>
+      <c r="U32" t="n">
+        <v>719.7665129499028</v>
+      </c>
+      <c r="V32" t="n">
         <v>138.4699501156378</v>
       </c>
-      <c r="T32" t="n">
+      <c r="W32" t="n">
         <v>138.4699417984678</v>
       </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
         <v>133.5889592485863</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W32" t="n">
+      <c r="Z32" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3189,20 +3483,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S33" t="n">
+        <v>765.5190888413919</v>
+      </c>
+      <c r="T33" t="n">
+        <v>824.0766188960382</v>
+      </c>
+      <c r="U33" t="n">
+        <v>765.5191131115297</v>
+      </c>
+      <c r="V33" t="n">
         <v>147.2719024438159</v>
       </c>
-      <c r="T33" t="n">
+      <c r="W33" t="n">
         <v>147.2719071129475</v>
       </c>
-      <c r="U33" t="n">
+      <c r="X33" t="n">
         <v>158.5373025876724</v>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W33" t="n">
+      <c r="Z33" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3272,20 +3575,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S34" t="n">
+        <v>773.2103118230642</v>
+      </c>
+      <c r="T34" t="n">
+        <v>788.3990036714083</v>
+      </c>
+      <c r="U34" t="n">
+        <v>773.2104048422069</v>
+      </c>
+      <c r="V34" t="n">
         <v>148.7515533854336</v>
       </c>
-      <c r="T34" t="n">
+      <c r="W34" t="n">
         <v>148.7515712806191</v>
       </c>
-      <c r="U34" t="n">
+      <c r="X34" t="n">
         <v>151.6735805128355</v>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3355,20 +3667,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S35" t="n">
+        <v>793.7472291021342</v>
+      </c>
+      <c r="T35" t="n">
+        <v>870.4715830680677</v>
+      </c>
+      <c r="U35" t="n">
+        <v>793.7471709595259</v>
+      </c>
+      <c r="V35" t="n">
         <v>152.7024814839053</v>
       </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>152.7024702983286</v>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
         <v>167.4628470150082</v>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W35" t="n">
+      <c r="Z35" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3438,20 +3759,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S36" t="n">
+        <v>631.6936797523559</v>
+      </c>
+      <c r="T36" t="n">
+        <v>693.2445671887357</v>
+      </c>
+      <c r="U36" t="n">
+        <v>631.6937413427192</v>
+      </c>
+      <c r="V36" t="n">
         <v>121.5263359659202</v>
       </c>
-      <c r="T36" t="n">
+      <c r="W36" t="n">
         <v>121.5263478147821</v>
       </c>
-      <c r="U36" t="n">
+      <c r="X36" t="n">
         <v>133.3676034431038</v>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3521,20 +3851,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S37" t="n">
+        <v>811.982947051163</v>
+      </c>
+      <c r="T37" t="n">
+        <v>941.5403330680675</v>
+      </c>
+      <c r="U37" t="n">
+        <v>811.9829553177594</v>
+      </c>
+      <c r="V37" t="n">
         <v>156.2107008267397</v>
       </c>
-      <c r="T37" t="n">
+      <c r="W37" t="n">
         <v>156.210702417082</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>181.1351775543351</v>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3604,20 +3943,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
+        <v>854.5853473297266</v>
+      </c>
+      <c r="T38" t="n">
+        <v>852.8024360847736</v>
+      </c>
+      <c r="U38" t="n">
+        <v>854.5853239885195</v>
+      </c>
+      <c r="V38" t="n">
         <v>164.4066251729149</v>
       </c>
-      <c r="T38" t="n">
+      <c r="W38" t="n">
         <v>164.4066206824926</v>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>164.0636255864119</v>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3687,20 +4035,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S39" t="n">
+        <v>636.0527099036168</v>
+      </c>
+      <c r="T39" t="n">
+        <v>619.7675513094043</v>
+      </c>
+      <c r="U39" t="n">
+        <v>636.0528692955191</v>
+      </c>
+      <c r="V39" t="n">
         <v>122.3649338174221</v>
       </c>
-      <c r="T39" t="n">
+      <c r="W39" t="n">
         <v>122.3649644815153</v>
       </c>
-      <c r="U39" t="n">
+      <c r="X39" t="n">
         <v>119.2319664979542</v>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3770,20 +4127,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S40" t="n">
+        <v>741.4351666454161</v>
+      </c>
+      <c r="T40" t="n">
+        <v>767.9098925160865</v>
+      </c>
+      <c r="U40" t="n">
+        <v>741.4351312867839</v>
+      </c>
+      <c r="V40" t="n">
         <v>142.6385953299745</v>
       </c>
-      <c r="T40" t="n">
+      <c r="W40" t="n">
         <v>142.638588527619</v>
       </c>
-      <c r="U40" t="n">
+      <c r="X40" t="n">
         <v>147.7318494401408</v>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3853,20 +4219,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
+        <v>918.7414365521234</v>
+      </c>
+      <c r="T41" t="n">
+        <v>962.2963884467786</v>
+      </c>
+      <c r="U41" t="n">
+        <v>918.7413989605902</v>
+      </c>
+      <c r="V41" t="n">
         <v>176.7490859304091</v>
       </c>
-      <c r="T41" t="n">
+      <c r="W41" t="n">
         <v>176.7490786984841</v>
       </c>
-      <c r="U41" t="n">
+      <c r="X41" t="n">
         <v>185.1282638240432</v>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3936,20 +4311,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S42" t="n">
+        <v>785.0968914129326</v>
+      </c>
+      <c r="T42" t="n">
+        <v>929.0179560334142</v>
+      </c>
+      <c r="U42" t="n">
+        <v>785.597431400926</v>
+      </c>
+      <c r="V42" t="n">
         <v>151.0383143758084</v>
       </c>
-      <c r="T42" t="n">
+      <c r="W42" t="n">
         <v>151.1346091349536</v>
       </c>
-      <c r="U42" t="n">
+      <c r="X42" t="n">
         <v>178.7261007384934</v>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4019,20 +4403,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
+        <v>842.8485664326093</v>
+      </c>
+      <c r="T43" t="n">
+        <v>841.9840908087838</v>
+      </c>
+      <c r="U43" t="n">
+        <v>842.8485510457975</v>
+      </c>
+      <c r="V43" t="n">
         <v>162.1486827172921</v>
       </c>
-      <c r="T43" t="n">
+      <c r="W43" t="n">
         <v>162.1486797571503</v>
       </c>
-      <c r="U43" t="n">
+      <c r="X43" t="n">
         <v>161.9823733834127</v>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W43" t="n">
+      <c r="Z43" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4102,20 +4495,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S44" t="n">
+        <v>651.9406290776586</v>
+      </c>
+      <c r="T44" t="n">
+        <v>673.5667418613848</v>
+      </c>
+      <c r="U44" t="n">
+        <v>651.9405974904848</v>
+      </c>
+      <c r="V44" t="n">
         <v>125.4214795218226</v>
       </c>
-      <c r="T44" t="n">
+      <c r="W44" t="n">
         <v>125.4214734450268</v>
       </c>
-      <c r="U44" t="n">
+      <c r="X44" t="n">
         <v>129.5819489582468</v>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4185,20 +4587,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S45" t="n">
+        <v>775.9118340696264</v>
+      </c>
+      <c r="T45" t="n">
+        <v>819.1937654814335</v>
+      </c>
+      <c r="U45" t="n">
+        <v>775.911978033752</v>
+      </c>
+      <c r="V45" t="n">
         <v>149.2712769645643</v>
       </c>
-      <c r="T45" t="n">
+      <c r="W45" t="n">
         <v>149.2713046606348</v>
       </c>
-      <c r="U45" t="n">
+      <c r="X45" t="n">
         <v>157.5979306997532</v>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4268,20 +4679,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
+        <v>842.3637338452188</v>
+      </c>
+      <c r="T46" t="n">
+        <v>963.9566624647279</v>
+      </c>
+      <c r="U46" t="n">
+        <v>842.3637502031114</v>
+      </c>
+      <c r="V46" t="n">
         <v>162.0554097753725</v>
       </c>
-      <c r="T46" t="n">
+      <c r="W46" t="n">
         <v>162.0554129223326</v>
       </c>
-      <c r="U46" t="n">
+      <c r="X46" t="n">
         <v>185.4476702461241</v>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W46" t="n">
+      <c r="Z46" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4351,20 +4771,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S47" t="n">
+        <v>737.3260689904721</v>
+      </c>
+      <c r="T47" t="n">
+        <v>771.2395236200475</v>
+      </c>
+      <c r="U47" t="n">
+        <v>737.3260748305325</v>
+      </c>
+      <c r="V47" t="n">
         <v>141.8480799296507</v>
       </c>
-      <c r="T47" t="n">
+      <c r="W47" t="n">
         <v>141.8480810531717</v>
       </c>
-      <c r="U47" t="n">
+      <c r="X47" t="n">
         <v>148.3724097008374</v>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W47" t="n">
+      <c r="Z47" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4434,20 +4863,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S48" t="n">
+        <v>739.7426838782958</v>
+      </c>
+      <c r="T48" t="n">
+        <v>841.4562577407165</v>
+      </c>
+      <c r="U48" t="n">
+        <v>739.7427747883465</v>
+      </c>
+      <c r="V48" t="n">
         <v>142.3129925323429</v>
       </c>
-      <c r="T48" t="n">
+      <c r="W48" t="n">
         <v>142.3130100217776</v>
       </c>
-      <c r="U48" t="n">
+      <c r="X48" t="n">
         <v>161.8808279337432</v>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W48" t="n">
+      <c r="Z48" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4517,20 +4955,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
+        <v>658.5052868926763</v>
+      </c>
+      <c r="T49" t="n">
+        <v>665.8231942233896</v>
+      </c>
+      <c r="U49" t="n">
+        <v>658.5052630057334</v>
+      </c>
+      <c r="V49" t="n">
         <v>126.6843998844925</v>
       </c>
-      <c r="T49" t="n">
+      <c r="W49" t="n">
         <v>126.6843952890806</v>
       </c>
-      <c r="U49" t="n">
+      <c r="X49" t="n">
         <v>128.0922317076451</v>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W49" t="n">
+      <c r="Z49" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4600,20 +5047,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S50" t="n">
+        <v>513.1766325301035</v>
+      </c>
+      <c r="T50" t="n">
+        <v>584.6750077407163</v>
+      </c>
+      <c r="U50" t="n">
+        <v>513.1766985223023</v>
+      </c>
+      <c r="V50" t="n">
         <v>98.72581894307027</v>
       </c>
-      <c r="T50" t="n">
+      <c r="W50" t="n">
         <v>98.725831638765</v>
       </c>
-      <c r="U50" t="n">
+      <c r="X50" t="n">
         <v>112.4808015325252</v>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W50" t="n">
+      <c r="Z50" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4683,20 +5139,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S51" t="n">
+        <v>884.9796328124585</v>
+      </c>
+      <c r="T51" t="n">
+        <v>776.0213807060622</v>
+      </c>
+      <c r="U51" t="n">
+        <v>884.9797460826793</v>
+      </c>
+      <c r="V51" t="n">
         <v>170.2539310229063</v>
       </c>
-      <c r="T51" t="n">
+      <c r="W51" t="n">
         <v>170.2539528140297</v>
       </c>
-      <c r="U51" t="n">
+      <c r="X51" t="n">
         <v>149.2923517382563</v>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W51" t="n">
+      <c r="Z51" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4766,20 +5231,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
+        <v>683.128910606759</v>
+      </c>
+      <c r="T52" t="n">
+        <v>688.1701742747504</v>
+      </c>
+      <c r="U52" t="n">
+        <v>683.1289524130859</v>
+      </c>
+      <c r="V52" t="n">
         <v>131.4215357211992</v>
       </c>
-      <c r="T52" t="n">
+      <c r="W52" t="n">
         <v>131.4215437639736</v>
       </c>
-      <c r="U52" t="n">
+      <c r="X52" t="n">
         <v>132.391382850981</v>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W52" t="n">
+      <c r="Z52" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4849,20 +5323,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S53" t="n">
+        <v>902.8089223227398</v>
+      </c>
+      <c r="T53" t="n">
+        <v>858.4302536714081</v>
+      </c>
+      <c r="U53" t="n">
+        <v>902.8087797820552</v>
+      </c>
+      <c r="V53" t="n">
         <v>173.683960951193</v>
       </c>
-      <c r="T53" t="n">
+      <c r="W53" t="n">
         <v>173.6839335289665</v>
       </c>
-      <c r="U53" t="n">
+      <c r="X53" t="n">
         <v>165.1463149858949</v>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W53" t="n">
+      <c r="Z53" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4932,20 +5415,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
+        <v>802.2523414581214</v>
+      </c>
+      <c r="T54" t="n">
+        <v>671.4510118100247</v>
+      </c>
+      <c r="U54" t="n">
+        <v>802.2525354431725</v>
+      </c>
+      <c r="V54" t="n">
         <v>154.3387098881642</v>
       </c>
-      <c r="T54" t="n">
+      <c r="W54" t="n">
         <v>154.3387472073479</v>
       </c>
-      <c r="U54" t="n">
+      <c r="X54" t="n">
         <v>129.1749211071282</v>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="Y54" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W54" t="n">
+      <c r="Z54" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5015,20 +5507,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
+        <v>543.4450338447174</v>
+      </c>
+      <c r="T55" t="n">
+        <v>421.636698292697</v>
+      </c>
+      <c r="U55" t="n">
+        <v>543.44503531291</v>
+      </c>
+      <c r="V55" t="n">
         <v>104.5489069764239</v>
       </c>
-      <c r="T55" t="n">
+      <c r="W55" t="n">
         <v>104.5489072588774</v>
       </c>
-      <c r="U55" t="n">
+      <c r="X55" t="n">
         <v>81.11520614290032</v>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W55" t="n">
+      <c r="Z55" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5098,20 +5599,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S56" t="n">
+        <v>818.53839611534</v>
+      </c>
+      <c r="T56" t="n">
+        <v>862.3887141720293</v>
+      </c>
+      <c r="U56" t="n">
+        <v>818.5383520575333</v>
+      </c>
+      <c r="V56" t="n">
         <v>157.4718495938019</v>
       </c>
-      <c r="T56" t="n">
+      <c r="W56" t="n">
         <v>157.4718411178839</v>
       </c>
-      <c r="U56" t="n">
+      <c r="X56" t="n">
         <v>165.9078505467619</v>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W56" t="n">
+      <c r="Z56" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5181,20 +5691,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S57" t="n">
+        <v>806.4920561766497</v>
+      </c>
+      <c r="T57" t="n">
+        <v>894.6357019641061</v>
+      </c>
+      <c r="U57" t="n">
+        <v>806.5058578600709</v>
+      </c>
+      <c r="V57" t="n">
         <v>155.1543536278412</v>
       </c>
-      <c r="T57" t="n">
+      <c r="W57" t="n">
         <v>155.1570088198592</v>
       </c>
-      <c r="U57" t="n">
+      <c r="X57" t="n">
         <v>172.1115825104016</v>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="Y57" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W57" t="n">
+      <c r="Z57" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5264,20 +5783,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S58" t="n">
+        <v>683.8256515578918</v>
+      </c>
+      <c r="T58" t="n">
+        <v>685.2808607574233</v>
+      </c>
+      <c r="U58" t="n">
+        <v>683.8258441710507</v>
+      </c>
+      <c r="V58" t="n">
         <v>131.5555759651063</v>
       </c>
-      <c r="T58" t="n">
+      <c r="W58" t="n">
         <v>131.555613020363</v>
       </c>
-      <c r="U58" t="n">
+      <c r="X58" t="n">
         <v>131.8355316584295</v>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="Y58" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W58" t="n">
+      <c r="Z58" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5347,20 +5875,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S59" t="n">
+        <v>703.5261816481888</v>
+      </c>
+      <c r="T59" t="n">
+        <v>750.8635195507406</v>
+      </c>
+      <c r="U59" t="n">
+        <v>703.5438552897234</v>
+      </c>
+      <c r="V59" t="n">
         <v>135.3455984320063</v>
       </c>
-      <c r="T59" t="n">
+      <c r="W59" t="n">
         <v>135.3489985181045</v>
       </c>
-      <c r="U59" t="n">
+      <c r="X59" t="n">
         <v>144.4524383673576</v>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W59" t="n">
+      <c r="Z59" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5430,20 +5967,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S60" t="n">
+        <v>714.0895056982999</v>
+      </c>
+      <c r="T60" t="n">
+        <v>793.8413371373751</v>
+      </c>
+      <c r="U60" t="n">
+        <v>714.0894761862829</v>
+      </c>
+      <c r="V60" t="n">
         <v>137.3777892051259</v>
       </c>
-      <c r="T60" t="n">
+      <c r="W60" t="n">
         <v>137.3777835275524</v>
       </c>
-      <c r="U60" t="n">
+      <c r="X60" t="n">
         <v>152.7205861524723</v>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="Y60" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W60" t="n">
+      <c r="Z60" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5513,20 +6059,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S61" t="n">
+        <v>791.80770109594</v>
+      </c>
+      <c r="T61" t="n">
+        <v>834.9326665340342</v>
+      </c>
+      <c r="U61" t="n">
+        <v>791.8077720328102</v>
+      </c>
+      <c r="V61" t="n">
         <v>152.3293516906985</v>
       </c>
-      <c r="T61" t="n">
+      <c r="W61" t="n">
         <v>152.3293653376577</v>
       </c>
-      <c r="U61" t="n">
+      <c r="X61" t="n">
         <v>160.6258080370768</v>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W61" t="n">
+      <c r="Z61" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5596,20 +6151,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S62" t="n">
+        <v>745.1909882668612</v>
+      </c>
+      <c r="T62" t="n">
+        <v>694.9516266367546</v>
+      </c>
+      <c r="U62" t="n">
+        <v>745.1910105647829</v>
+      </c>
+      <c r="V62" t="n">
         <v>143.361146868522</v>
       </c>
-      <c r="T62" t="n">
+      <c r="W62" t="n">
         <v>143.3611511582353</v>
       </c>
-      <c r="U62" t="n">
+      <c r="X62" t="n">
         <v>133.6960105281249</v>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="Y62" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W62" t="n">
+      <c r="Z62" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5679,20 +6243,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S63" t="n">
+        <v>600.9482415331438</v>
+      </c>
+      <c r="T63" t="n">
+        <v>444.4270236200483</v>
+      </c>
+      <c r="U63" t="n">
+        <v>600.9483102576817</v>
+      </c>
+      <c r="V63" t="n">
         <v>115.6114747377499</v>
       </c>
-      <c r="T63" t="n">
+      <c r="W63" t="n">
         <v>115.6114879590968</v>
       </c>
-      <c r="U63" t="n">
+      <c r="X63" t="n">
         <v>85.49964882656006</v>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W63" t="n">
+      <c r="Z63" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5762,20 +6335,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S64" t="n">
+        <v>826.1213083542591</v>
+      </c>
+      <c r="T64" t="n">
+        <v>890.1840830680668</v>
+      </c>
+      <c r="U64" t="n">
+        <v>826.1212239142401</v>
+      </c>
+      <c r="V64" t="n">
         <v>158.9306635251178</v>
       </c>
-      <c r="T64" t="n">
+      <c r="W64" t="n">
         <v>158.9306472803991</v>
       </c>
-      <c r="U64" t="n">
+      <c r="X64" t="n">
         <v>171.2551722740914</v>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="Y64" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W64" t="n">
+      <c r="Z64" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5845,20 +6427,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S65" t="n">
+        <v>824.2625644784316</v>
+      </c>
+      <c r="T65" t="n">
+        <v>933.1302536714082</v>
+      </c>
+      <c r="U65" t="n">
+        <v>826.9042926143389</v>
+      </c>
+      <c r="V65" t="n">
         <v>158.5730751243332</v>
       </c>
-      <c r="T65" t="n">
-        <v>159.0812954077793</v>
-      </c>
-      <c r="U65" t="n">
+      <c r="W65" t="n">
+        <v>159.0812954077794</v>
+      </c>
+      <c r="X65" t="n">
         <v>179.5172317571584</v>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W65" t="n">
+      <c r="Z65" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5928,20 +6519,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S66" t="n">
+        <v>681.8395485573058</v>
+      </c>
+      <c r="T66" t="n">
+        <v>725.6965753273511</v>
+      </c>
+      <c r="U66" t="n">
+        <v>681.8396009372368</v>
+      </c>
+      <c r="V66" t="n">
         <v>131.1734859929433</v>
       </c>
-      <c r="T66" t="n">
+      <c r="W66" t="n">
         <v>131.1734960698861</v>
       </c>
-      <c r="U66" t="n">
+      <c r="X66" t="n">
         <v>139.6107775799231</v>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="Y66" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W66" t="n">
+      <c r="Z66" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6011,20 +6611,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S67" t="n">
+        <v>680.9035632982227</v>
+      </c>
+      <c r="T67" t="n">
+        <v>712.4322618100241</v>
+      </c>
+      <c r="U67" t="n">
+        <v>680.9035908261903</v>
+      </c>
+      <c r="V67" t="n">
         <v>130.993419510247</v>
       </c>
-      <c r="T67" t="n">
+      <c r="W67" t="n">
         <v>130.9934248061256</v>
       </c>
-      <c r="U67" t="n">
+      <c r="X67" t="n">
         <v>137.0589657246962</v>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W67" t="n">
+      <c r="Z67" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6094,20 +6703,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S68" t="n">
+        <v>732.3309785596989</v>
+      </c>
+      <c r="T68" t="n">
+        <v>796.8090830680666</v>
+      </c>
+      <c r="U68" t="n">
+        <v>732.3309702586666</v>
+      </c>
+      <c r="V68" t="n">
         <v>140.8871156880767</v>
       </c>
-      <c r="T68" t="n">
+      <c r="W68" t="n">
         <v>140.8871140911096</v>
       </c>
-      <c r="U68" t="n">
+      <c r="X68" t="n">
         <v>153.2915263100121</v>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W68" t="n">
+      <c r="Z68" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6177,20 +6795,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S69" t="n">
+        <v>757.4448446263683</v>
+      </c>
+      <c r="T69" t="n">
+        <v>749.9677459306924</v>
+      </c>
+      <c r="U69" t="n">
+        <v>757.4491402114021</v>
+      </c>
+      <c r="V69" t="n">
         <v>145.7185652068018</v>
       </c>
-      <c r="T69" t="n">
+      <c r="W69" t="n">
         <v>145.7193915989705</v>
       </c>
-      <c r="U69" t="n">
+      <c r="X69" t="n">
         <v>144.2801078701742</v>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="Y69" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W69" t="n">
+      <c r="Z69" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6260,20 +6887,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S70" t="n">
+        <v>804.7257360236555</v>
+      </c>
+      <c r="T70" t="n">
+        <v>882.3621030167063</v>
+      </c>
+      <c r="U70" t="n">
+        <v>804.7257244562038</v>
+      </c>
+      <c r="V70" t="n">
         <v>154.814545864654</v>
       </c>
-      <c r="T70" t="n">
+      <c r="W70" t="n">
         <v>154.8145436392874</v>
       </c>
-      <c r="U70" t="n">
+      <c r="X70" t="n">
         <v>169.7503660585013</v>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="Y70" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W70" t="n">
+      <c r="Z70" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6343,20 +6979,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S71" t="n">
+        <v>855.5872589532352</v>
+      </c>
+      <c r="T71" t="n">
+        <v>970.4802536714087</v>
+      </c>
+      <c r="U71" t="n">
+        <v>855.5871934671532</v>
+      </c>
+      <c r="V71" t="n">
         <v>164.5993746850113</v>
       </c>
-      <c r="T71" t="n">
+      <c r="W71" t="n">
         <v>164.5993620866842</v>
       </c>
-      <c r="U71" t="n">
+      <c r="X71" t="n">
         <v>186.7026901427901</v>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="Y71" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W71" t="n">
+      <c r="Z71" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6426,20 +7071,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
+        <v>766.8047242402704</v>
+      </c>
+      <c r="T72" t="n">
+        <v>657.2592776893558</v>
+      </c>
+      <c r="U72" t="n">
+        <v>766.804626992145</v>
+      </c>
+      <c r="V72" t="n">
         <v>147.5192352325103</v>
       </c>
-      <c r="T72" t="n">
+      <c r="W72" t="n">
         <v>147.5192165237457</v>
       </c>
-      <c r="U72" t="n">
+      <c r="X72" t="n">
         <v>126.44469045267</v>
       </c>
-      <c r="V72" t="inlineStr">
+      <c r="Y72" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W72" t="n">
+      <c r="Z72" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6509,20 +7163,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
+        <v>725.2058874262708</v>
+      </c>
+      <c r="T73" t="n">
+        <v>762.0558607574235</v>
+      </c>
+      <c r="U73" t="n">
+        <v>725.2749150125262</v>
+      </c>
+      <c r="V73" t="n">
         <v>139.5163781825055</v>
       </c>
-      <c r="T73" t="n">
-        <v>139.5296578303906</v>
-      </c>
-      <c r="U73" t="n">
+      <c r="W73" t="n">
+        <v>139.5296578303904</v>
+      </c>
+      <c r="X73" t="n">
         <v>146.6056405622281</v>
       </c>
-      <c r="V73" t="inlineStr">
+      <c r="Y73" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W73" t="n">
+      <c r="Z73" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6592,20 +7255,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S74" t="n">
+        <v>656.4161661499392</v>
+      </c>
+      <c r="T74" t="n">
+        <v>731.0756148267307</v>
+      </c>
+      <c r="U74" t="n">
+        <v>656.4161733658381</v>
+      </c>
+      <c r="V74" t="n">
         <v>126.2824911787496</v>
       </c>
-      <c r="T74" t="n">
+      <c r="W74" t="n">
         <v>126.2824925669569</v>
       </c>
-      <c r="U74" t="n">
+      <c r="X74" t="n">
         <v>140.6456066154643</v>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="Y74" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W74" t="n">
+      <c r="Z74" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6675,20 +7347,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S75" t="n">
+        <v>713.0911138982055</v>
+      </c>
+      <c r="T75" t="n">
+        <v>782.9883171887344</v>
+      </c>
+      <c r="U75" t="n">
+        <v>713.1207517863018</v>
+      </c>
+      <c r="V75" t="n">
         <v>137.1857168428197</v>
       </c>
-      <c r="T75" t="n">
-        <v>137.1914186316166</v>
-      </c>
-      <c r="U75" t="n">
+      <c r="W75" t="n">
+        <v>137.1914186316164</v>
+      </c>
+      <c r="X75" t="n">
         <v>150.6326631752464</v>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="Y75" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W75" t="n">
+      <c r="Z75" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6758,20 +7439,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S76" t="n">
+        <v>494.096448103874</v>
+      </c>
+      <c r="T76" t="n">
+        <v>510.3459759820526</v>
+      </c>
+      <c r="U76" t="n">
+        <v>494.1045673035982</v>
+      </c>
+      <c r="V76" t="n">
         <v>102.3670734810906</v>
       </c>
-      <c r="T76" t="n">
+      <c r="W76" t="n">
         <v>102.3687556197054</v>
       </c>
-      <c r="U76" t="n">
+      <c r="X76" t="n">
         <v>105.733656302566</v>
       </c>
-      <c r="V76" t="inlineStr">
+      <c r="Y76" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W76" t="n">
+      <c r="Z76" t="n">
         <v>700</v>
       </c>
     </row>
@@ -6841,20 +7531,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S77" t="n">
+        <v>460.707293162542</v>
+      </c>
+      <c r="T77" t="n">
+        <v>481.5915394993799</v>
+      </c>
+      <c r="U77" t="n">
+        <v>460.7072458799078</v>
+      </c>
+      <c r="V77" t="n">
         <v>95.4494967802917</v>
       </c>
-      <c r="T77" t="n">
+      <c r="W77" t="n">
         <v>95.44948698425914</v>
       </c>
-      <c r="U77" t="n">
+      <c r="X77" t="n">
         <v>99.77630217944898</v>
       </c>
-      <c r="V77" t="inlineStr">
+      <c r="Y77" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W77" t="n">
+      <c r="Z77" t="n">
         <v>700</v>
       </c>
     </row>
@@ -6924,20 +7623,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S78" t="n">
+        <v>544.0262386516007</v>
+      </c>
+      <c r="T78" t="n">
+        <v>587.3034324133653</v>
+      </c>
+      <c r="U78" t="n">
+        <v>544.0309547002901</v>
+      </c>
+      <c r="V78" t="n">
         <v>112.711544803459</v>
       </c>
-      <c r="T78" t="n">
-        <v>112.7125218760619</v>
-      </c>
-      <c r="U78" t="n">
+      <c r="W78" t="n">
+        <v>112.7125218760621</v>
+      </c>
+      <c r="X78" t="n">
         <v>121.6777288164527</v>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="Y78" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W78" t="n">
+      <c r="Z78" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7007,20 +7715,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S79" t="n">
+        <v>372.3747350462752</v>
+      </c>
+      <c r="T79" t="n">
+        <v>433.1246030167073</v>
+      </c>
+      <c r="U79" t="n">
+        <v>372.3747067492133</v>
+      </c>
+      <c r="V79" t="n">
         <v>77.14872675419424</v>
       </c>
-      <c r="T79" t="n">
+      <c r="W79" t="n">
         <v>77.14872089159915</v>
       </c>
-      <c r="U79" t="n">
+      <c r="X79" t="n">
         <v>89.73490546962675</v>
       </c>
-      <c r="V79" t="inlineStr">
+      <c r="Y79" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W79" t="n">
+      <c r="Z79" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7090,20 +7807,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S80" t="n">
+        <v>828.7711732533152</v>
+      </c>
+      <c r="T80" t="n">
+        <v>791.9578766367545</v>
+      </c>
+      <c r="U80" t="n">
+        <v>828.7711117456154</v>
+      </c>
+      <c r="V80" t="n">
         <v>159.4404491733029</v>
       </c>
-      <c r="T80" t="n">
+      <c r="W80" t="n">
         <v>159.4404373403439</v>
       </c>
-      <c r="U80" t="n">
+      <c r="X80" t="n">
         <v>152.3582427241406</v>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="Y80" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W80" t="n">
+      <c r="Z80" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7173,20 +7899,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
+        <v>514.3826777100772</v>
+      </c>
+      <c r="T81" t="n">
+        <v>521.5699641720289</v>
+      </c>
+      <c r="U81" t="n">
+        <v>514.7603999731191</v>
+      </c>
+      <c r="V81" t="n">
         <v>106.5699815665904</v>
       </c>
-      <c r="T81" t="n">
+      <c r="W81" t="n">
         <v>106.6482381960493</v>
       </c>
-      <c r="U81" t="n">
+      <c r="X81" t="n">
         <v>108.059046068478</v>
       </c>
-      <c r="V81" t="inlineStr">
+      <c r="Y81" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W81" t="n">
+      <c r="Z81" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7256,20 +7991,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S82" t="n">
+        <v>605.9180517982766</v>
+      </c>
+      <c r="T82" t="n">
+        <v>622.7985912066823</v>
+      </c>
+      <c r="U82" t="n">
+        <v>605.9179872116048</v>
+      </c>
+      <c r="V82" t="n">
         <v>125.534312116556</v>
       </c>
-      <c r="T82" t="n">
+      <c r="W82" t="n">
         <v>125.5342987354669</v>
       </c>
-      <c r="U82" t="n">
+      <c r="X82" t="n">
         <v>129.0316281257118</v>
       </c>
-      <c r="V82" t="inlineStr">
+      <c r="Y82" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W82" t="n">
+      <c r="Z82" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7339,20 +8083,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
+        <v>378.9678564092576</v>
+      </c>
+      <c r="T83" t="n">
+        <v>383.2522259820534</v>
+      </c>
+      <c r="U83" t="n">
+        <v>378.967734496042</v>
+      </c>
+      <c r="V83" t="n">
         <v>78.51469192480864</v>
       </c>
-      <c r="T83" t="n">
+      <c r="W83" t="n">
         <v>78.51466666678633</v>
       </c>
-      <c r="U83" t="n">
+      <c r="X83" t="n">
         <v>79.40232909880898</v>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="Y83" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W83" t="n">
+      <c r="Z83" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7422,20 +8175,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S84" t="n">
+        <v>585.4157989027905</v>
+      </c>
+      <c r="T84" t="n">
+        <v>618.2836783440575</v>
+      </c>
+      <c r="U84" t="n">
+        <v>585.4443674549038</v>
+      </c>
+      <c r="V84" t="n">
         <v>112.6233162331283</v>
       </c>
-      <c r="T84" t="n">
+      <c r="W84" t="n">
         <v>112.6288123011965</v>
       </c>
-      <c r="U84" t="n">
+      <c r="X84" t="n">
         <v>118.9464964191841</v>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="Y84" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W84" t="n">
+      <c r="Z84" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7505,20 +8267,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S85" t="n">
+        <v>740.2371942624477</v>
+      </c>
+      <c r="T85" t="n">
+        <v>658.3405354300733</v>
+      </c>
+      <c r="U85" t="n">
+        <v>740.6380750315111</v>
+      </c>
+      <c r="V85" t="n">
         <v>142.4081273057455</v>
       </c>
-      <c r="T85" t="n">
+      <c r="W85" t="n">
         <v>142.4852494498875</v>
       </c>
-      <c r="U85" t="n">
+      <c r="X85" t="n">
         <v>126.6527047096998</v>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="Y85" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W85" t="n">
+      <c r="Z85" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7588,20 +8359,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S86" t="n">
+        <v>725.7941641095018</v>
+      </c>
+      <c r="T86" t="n">
+        <v>698.9508171887359</v>
+      </c>
+      <c r="U86" t="n">
+        <v>725.7940979756243</v>
+      </c>
+      <c r="V86" t="n">
         <v>139.6295518806741</v>
       </c>
-      <c r="T86" t="n">
+      <c r="W86" t="n">
         <v>139.6295391577229</v>
       </c>
-      <c r="U86" t="n">
+      <c r="X86" t="n">
         <v>134.4653818075753</v>
       </c>
-      <c r="V86" t="inlineStr">
+      <c r="Y86" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W86" t="n">
+      <c r="Z86" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7671,20 +8451,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S87" t="n">
+        <v>712.6197610980723</v>
+      </c>
+      <c r="T87" t="n">
+        <v>761.5310553787116</v>
+      </c>
+      <c r="U87" t="n">
+        <v>712.6197728276979</v>
+      </c>
+      <c r="V87" t="n">
         <v>137.0950371659708</v>
       </c>
-      <c r="T87" t="n">
+      <c r="W87" t="n">
         <v>137.0950394225367</v>
       </c>
-      <c r="U87" t="n">
+      <c r="X87" t="n">
         <v>146.5046775847371</v>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="Y87" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W87" t="n">
+      <c r="Z87" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7754,20 +8543,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S88" t="n">
+        <v>765.789134778043</v>
+      </c>
+      <c r="T88" t="n">
+        <v>745.6413448780918</v>
+      </c>
+      <c r="U88" t="n">
+        <v>765.8378334030316</v>
+      </c>
+      <c r="V88" t="n">
         <v>147.3238543538565</v>
       </c>
-      <c r="T88" t="n">
+      <c r="W88" t="n">
         <v>147.3332230805846</v>
       </c>
-      <c r="U88" t="n">
+      <c r="X88" t="n">
         <v>143.4477872617936</v>
       </c>
-      <c r="V88" t="inlineStr">
+      <c r="Y88" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W88" t="n">
+      <c r="Z88" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7837,20 +8635,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
+        <v>684.9417564496953</v>
+      </c>
+      <c r="T89" t="n">
+        <v>616.2086783440584</v>
+      </c>
+      <c r="U89" t="n">
+        <v>684.9417534542627</v>
+      </c>
+      <c r="V89" t="n">
         <v>131.7702941780663</v>
       </c>
-      <c r="T89" t="n">
+      <c r="W89" t="n">
         <v>131.7702936017997</v>
       </c>
-      <c r="U89" t="n">
+      <c r="X89" t="n">
         <v>118.5473042866492</v>
       </c>
-      <c r="V89" t="inlineStr">
+      <c r="Y89" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W89" t="n">
+      <c r="Z89" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7920,20 +8727,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S90" t="n">
+        <v>826.3924636686571</v>
+      </c>
+      <c r="T90" t="n">
+        <v>897.8522259820523</v>
+      </c>
+      <c r="U90" t="n">
+        <v>826.3921959950745</v>
+      </c>
+      <c r="V90" t="n">
         <v>158.9828288591914</v>
       </c>
-      <c r="T90" t="n">
+      <c r="W90" t="n">
         <v>158.982777363679</v>
       </c>
-      <c r="U90" t="n">
+      <c r="X90" t="n">
         <v>172.7303830318831</v>
       </c>
-      <c r="V90" t="inlineStr">
+      <c r="Y90" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W90" t="n">
+      <c r="Z90" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8003,20 +8819,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S91" t="n">
+        <v>714.4872174479358</v>
+      </c>
+      <c r="T91" t="n">
+        <v>731.4782300513607</v>
+      </c>
+      <c r="U91" t="n">
+        <v>714.4873144430211</v>
+      </c>
+      <c r="V91" t="n">
         <v>137.4543016877627</v>
       </c>
-      <c r="T91" t="n">
+      <c r="W91" t="n">
         <v>137.454320347847</v>
       </c>
-      <c r="U91" t="n">
+      <c r="X91" t="n">
         <v>140.7230624372046</v>
       </c>
-      <c r="V91" t="inlineStr">
+      <c r="Y91" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W91" t="n">
+      <c r="Z91" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8086,20 +8911,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
+        <v>842.5017917892483</v>
+      </c>
+      <c r="T92" t="n">
+        <v>780.8725871373749</v>
+      </c>
+      <c r="U92" t="n">
+        <v>842.5148115525827</v>
+      </c>
+      <c r="V92" t="n">
         <v>162.0819696043318</v>
       </c>
-      <c r="T92" t="n">
+      <c r="W92" t="n">
         <v>162.0844743691948</v>
       </c>
-      <c r="U92" t="n">
+      <c r="X92" t="n">
         <v>150.2256353241279</v>
       </c>
-      <c r="V92" t="inlineStr">
+      <c r="Y92" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W92" t="n">
+      <c r="Z92" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8169,20 +9003,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S93" t="n">
+        <v>767.4319034926975</v>
+      </c>
+      <c r="T93" t="n">
+        <v>719.8169519641052</v>
+      </c>
+      <c r="U93" t="n">
+        <v>767.4318491983917</v>
+      </c>
+      <c r="V93" t="n">
         <v>147.6398930750444</v>
       </c>
-      <c r="T93" t="n">
+      <c r="W93" t="n">
         <v>147.6398826298108</v>
       </c>
-      <c r="U93" t="n">
+      <c r="X93" t="n">
         <v>138.4796453443196</v>
       </c>
-      <c r="V93" t="inlineStr">
+      <c r="Y93" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W93" t="n">
+      <c r="Z93" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8252,20 +9095,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
+        <v>570.8930478828556</v>
+      </c>
+      <c r="T94" t="n">
+        <v>587.8282377920764</v>
+      </c>
+      <c r="U94" t="n">
+        <v>570.893036480182</v>
+      </c>
+      <c r="V94" t="n">
         <v>109.8294039681047</v>
       </c>
-      <c r="T94" t="n">
+      <c r="W94" t="n">
         <v>109.8294017744384</v>
       </c>
-      <c r="U94" t="n">
+      <c r="X94" t="n">
         <v>113.0874254499113</v>
       </c>
-      <c r="V94" t="inlineStr">
+      <c r="Y94" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W94" t="n">
+      <c r="Z94" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8335,20 +9187,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S95" t="n">
+        <v>848.1321337971252</v>
+      </c>
+      <c r="T95" t="n">
+        <v>882.9185553787115</v>
+      </c>
+      <c r="U95" t="n">
+        <v>848.1321365073737</v>
+      </c>
+      <c r="V95" t="n">
         <v>163.1651446563927</v>
       </c>
-      <c r="T95" t="n">
+      <c r="W95" t="n">
         <v>163.1651451777951</v>
       </c>
-      <c r="U95" t="n">
+      <c r="X95" t="n">
         <v>169.8574173380401</v>
       </c>
-      <c r="V95" t="inlineStr">
+      <c r="Y95" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W95" t="n">
+      <c r="Z95" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8418,20 +9279,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S96" t="n">
+        <v>987.1730274685939</v>
+      </c>
+      <c r="T96" t="n">
+        <v>883.8490036714082</v>
+      </c>
+      <c r="U96" t="n">
+        <v>987.1729357900016</v>
+      </c>
+      <c r="V96" t="n">
         <v>189.914075188585</v>
       </c>
-      <c r="T96" t="n">
+      <c r="W96" t="n">
         <v>189.9140575512969</v>
       </c>
-      <c r="U96" t="n">
+      <c r="X96" t="n">
         <v>170.0364186094499</v>
       </c>
-      <c r="V96" t="inlineStr">
+      <c r="Y96" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W96" t="n">
+      <c r="Z96" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8501,20 +9371,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
+        <v>756.0067628452047</v>
+      </c>
+      <c r="T97" t="n">
+        <v>682.3824641720291</v>
+      </c>
+      <c r="U97" t="n">
+        <v>756.0067156458088</v>
+      </c>
+      <c r="V97" t="n">
         <v>145.4419045162077</v>
       </c>
-      <c r="T97" t="n">
+      <c r="W97" t="n">
         <v>145.4418954359053</v>
       </c>
-      <c r="U97" t="n">
+      <c r="X97" t="n">
         <v>131.2779330493424</v>
       </c>
-      <c r="V97" t="inlineStr">
+      <c r="Y97" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W97" t="n">
+      <c r="Z97" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8584,20 +9463,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S98" t="n">
+        <v>756.1098517946758</v>
+      </c>
+      <c r="T98" t="n">
+        <v>854.239523620049</v>
+      </c>
+      <c r="U98" t="n">
+        <v>756.1097565210024</v>
+      </c>
+      <c r="V98" t="n">
         <v>145.4617369487765</v>
       </c>
-      <c r="T98" t="n">
+      <c r="W98" t="n">
         <v>145.4617186198604</v>
       </c>
-      <c r="U98" t="n">
+      <c r="X98" t="n">
         <v>164.3400950022414</v>
       </c>
-      <c r="V98" t="inlineStr">
+      <c r="Y98" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W98" t="n">
+      <c r="Z98" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8667,20 +9555,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S99" t="n">
+        <v>724.2500018698231</v>
+      </c>
+      <c r="T99" t="n">
+        <v>630.3250077407165</v>
+      </c>
+      <c r="U99" t="n">
+        <v>724.9547426562542</v>
+      </c>
+      <c r="V99" t="n">
         <v>139.3324832457644</v>
       </c>
-      <c r="T99" t="n">
+      <c r="W99" t="n">
         <v>139.4680625119909</v>
       </c>
-      <c r="U99" t="n">
+      <c r="X99" t="n">
         <v>121.2630284482973</v>
       </c>
-      <c r="V99" t="inlineStr">
+      <c r="Y99" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W99" t="n">
+      <c r="Z99" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8750,20 +9647,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S100" t="n">
+        <v>652.50268593516</v>
+      </c>
+      <c r="T100" t="n">
+        <v>740.4131148267306</v>
+      </c>
+      <c r="U100" t="n">
+        <v>652.5027543344646</v>
+      </c>
+      <c r="V100" t="n">
         <v>125.5296090040163</v>
       </c>
-      <c r="T100" t="n">
+      <c r="W100" t="n">
         <v>125.5296221627943</v>
       </c>
-      <c r="U100" t="n">
+      <c r="X100" t="n">
         <v>142.4419712118722</v>
       </c>
-      <c r="V100" t="inlineStr">
+      <c r="Y100" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W100" t="n">
+      <c r="Z100" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8833,20 +9739,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S101" t="n">
+        <v>926.1197020034534</v>
+      </c>
+      <c r="T101" t="n">
+        <v>830.34840432611</v>
+      </c>
+      <c r="U101" t="n">
+        <v>926.1197128341455</v>
+      </c>
+      <c r="V101" t="n">
         <v>178.16852955447</v>
       </c>
-      <c r="T101" t="n">
+      <c r="W101" t="n">
         <v>178.1685316380975</v>
       </c>
-      <c r="U101" t="n">
+      <c r="X101" t="n">
         <v>159.7438796482184</v>
       </c>
-      <c r="V101" t="inlineStr">
+      <c r="Y101" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="W101" t="n">
+      <c r="Z101" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8916,20 +9831,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S102" t="n">
+        <v>521.2321294192969</v>
+      </c>
+      <c r="T102" t="n">
+        <v>566.0000077407169</v>
+      </c>
+      <c r="U102" t="n">
+        <v>521.9985140176922</v>
+      </c>
+      <c r="V102" t="n">
         <v>117.2452579198594</v>
       </c>
-      <c r="T102" t="n">
+      <c r="W102" t="n">
         <v>117.417647446201</v>
       </c>
-      <c r="U102" t="n">
+      <c r="X102" t="n">
         <v>127.3152845818141</v>
       </c>
-      <c r="V102" t="inlineStr">
+      <c r="Y102" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W102" t="n">
+      <c r="Z102" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8999,20 +9923,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S103" t="n">
+        <v>521.2321294192969</v>
+      </c>
+      <c r="T103" t="n">
+        <v>566.0000077407169</v>
+      </c>
+      <c r="U103" t="n">
+        <v>521.9985140176922</v>
+      </c>
+      <c r="V103" t="n">
         <v>117.2452579198594</v>
       </c>
-      <c r="T103" t="n">
+      <c r="W103" t="n">
         <v>117.417647446201</v>
       </c>
-      <c r="U103" t="n">
+      <c r="X103" t="n">
         <v>127.3152845818141</v>
       </c>
-      <c r="V103" t="inlineStr">
+      <c r="Y103" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W103" t="n">
+      <c r="Z103" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9082,20 +10015,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S104" t="n">
+        <v>521.2321294192969</v>
+      </c>
+      <c r="T104" t="n">
+        <v>566.0000077407169</v>
+      </c>
+      <c r="U104" t="n">
+        <v>521.9985140176922</v>
+      </c>
+      <c r="V104" t="n">
         <v>117.2452579198594</v>
       </c>
-      <c r="T104" t="n">
+      <c r="W104" t="n">
         <v>117.417647446201</v>
       </c>
-      <c r="U104" t="n">
+      <c r="X104" t="n">
         <v>127.3152845818141</v>
       </c>
-      <c r="V104" t="inlineStr">
+      <c r="Y104" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W104" t="n">
+      <c r="Z104" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9165,20 +10107,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S105" t="n">
+        <v>434.4634560339007</v>
+      </c>
+      <c r="T105" t="n">
+        <v>495.1167418613848</v>
+      </c>
+      <c r="U105" t="n">
+        <v>434.4635772996394</v>
+      </c>
+      <c r="V105" t="n">
         <v>97.72762860224847</v>
       </c>
-      <c r="T105" t="n">
+      <c r="W105" t="n">
         <v>97.72765587960151</v>
       </c>
-      <c r="U105" t="n">
+      <c r="X105" t="n">
         <v>111.3708975781134</v>
       </c>
-      <c r="V105" t="inlineStr">
+      <c r="Y105" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W105" t="n">
+      <c r="Z105" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9248,20 +10199,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S106" t="n">
+        <v>427.2686508509605</v>
+      </c>
+      <c r="T106" t="n">
+        <v>517.9040394993808</v>
+      </c>
+      <c r="U106" t="n">
+        <v>427.2686508509605</v>
+      </c>
+      <c r="V106" t="n">
         <v>96.10923874915792</v>
       </c>
-      <c r="T106" t="n">
+      <c r="W106" t="n">
         <v>96.10923874915792</v>
       </c>
-      <c r="U106" t="n">
+      <c r="X106" t="n">
         <v>116.4966418253838</v>
       </c>
-      <c r="V106" t="inlineStr">
+      <c r="Y106" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W106" t="n">
+      <c r="Z106" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9331,20 +10291,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S107" t="n">
+        <v>758.5994954874188</v>
+      </c>
+      <c r="T107" t="n">
+        <v>820.5992060334129</v>
+      </c>
+      <c r="U107" t="n">
+        <v>758.8840411824249</v>
+      </c>
+      <c r="V107" t="n">
         <v>170.6383557080179</v>
       </c>
-      <c r="T107" t="n">
-        <v>170.7023610360049</v>
-      </c>
-      <c r="U107" t="n">
+      <c r="W107" t="n">
+        <v>170.7023610360051</v>
+      </c>
+      <c r="X107" t="n">
         <v>184.5844876589017</v>
       </c>
-      <c r="V107" t="inlineStr">
+      <c r="Y107" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W107" t="n">
+      <c r="Z107" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9414,20 +10383,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S108" t="n">
+        <v>366.2374623760637</v>
+      </c>
+      <c r="T108" t="n">
+        <v>377.209682413365</v>
+      </c>
+      <c r="U108" t="n">
+        <v>366.2374999999999</v>
+      </c>
+      <c r="V108" t="n">
         <v>82.38096485731846</v>
       </c>
-      <c r="T108" t="n">
+      <c r="W108" t="n">
         <v>82.38097332039634</v>
       </c>
-      <c r="U108" t="n">
+      <c r="X108" t="n">
         <v>84.84904135455983</v>
       </c>
-      <c r="V108" t="inlineStr">
+      <c r="Y108" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W108" t="n">
+      <c r="Z108" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9497,20 +10475,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S109" t="n">
+        <v>602.7652548068388</v>
+      </c>
+      <c r="T109" t="n">
+        <v>616.2463807060626</v>
+      </c>
+      <c r="U109" t="n">
+        <v>602.7651781581285</v>
+      </c>
+      <c r="V109" t="n">
         <v>135.5852100746213</v>
       </c>
-      <c r="T109" t="n">
+      <c r="W109" t="n">
         <v>135.5851928333629</v>
       </c>
-      <c r="U109" t="n">
+      <c r="X109" t="n">
         <v>138.6176365001863</v>
       </c>
-      <c r="V109" t="inlineStr">
+      <c r="Y109" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="W109" t="n">
+      <c r="Z109" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9580,20 +10567,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
+        <v>956.7371671764962</v>
+      </c>
+      <c r="T110" t="n">
+        <v>876.8881225674473</v>
+      </c>
+      <c r="U110" t="n">
+        <v>956.7370253235739</v>
+      </c>
+      <c r="V110" t="n">
         <v>117.5144461663911</v>
       </c>
-      <c r="T110" t="n">
+      <c r="W110" t="n">
         <v>117.514428742831</v>
       </c>
-      <c r="U110" t="n">
+      <c r="X110" t="n">
         <v>107.7067198899677</v>
       </c>
-      <c r="V110" t="inlineStr">
+      <c r="Y110" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W110" t="n">
+      <c r="Z110" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9663,20 +10659,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
+        <v>1110.218146099554</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1225.406662464726</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1110.21808020992</v>
+      </c>
+      <c r="V111" t="n">
         <v>136.3662613294278</v>
       </c>
-      <c r="T111" t="n">
+      <c r="W111" t="n">
         <v>136.3662532363129</v>
       </c>
-      <c r="U111" t="n">
+      <c r="X111" t="n">
         <v>150.5146765575406</v>
       </c>
-      <c r="V111" t="inlineStr">
+      <c r="Y111" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W111" t="n">
+      <c r="Z111" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9748,12 +10753,15 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr">
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9821,20 +10829,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S113" t="n">
+        <v>881.0374215034507</v>
+      </c>
+      <c r="T113" t="n">
+        <v>907.0479996021015</v>
+      </c>
+      <c r="U113" t="n">
+        <v>881.0374312999209</v>
+      </c>
+      <c r="V113" t="n">
         <v>108.216371425595</v>
       </c>
-      <c r="T113" t="n">
+      <c r="W113" t="n">
         <v>108.2163726288793</v>
       </c>
-      <c r="U113" t="n">
+      <c r="X113" t="n">
         <v>111.411207776263</v>
       </c>
-      <c r="V113" t="inlineStr">
+      <c r="Y113" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W113" t="n">
+      <c r="Z113" t="n">
         <v>415</v>
       </c>
     </row>
@@ -9906,12 +10923,15 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr">
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9979,20 +10999,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S115" t="n">
+        <v>909.997015923609</v>
+      </c>
+      <c r="T115" t="n">
+        <v>874.3606942233893</v>
+      </c>
+      <c r="U115" t="n">
+        <v>909.9970697282836</v>
+      </c>
+      <c r="V115" t="n">
         <v>111.7734305806518</v>
       </c>
-      <c r="T115" t="n">
+      <c r="W115" t="n">
         <v>111.7734371893911</v>
       </c>
-      <c r="U115" t="n">
+      <c r="X115" t="n">
         <v>107.3962800405849</v>
       </c>
-      <c r="V115" t="inlineStr">
+      <c r="Y115" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W115" t="n">
+      <c r="Z115" t="n">
         <v>415</v>
       </c>
     </row>
@@ -10062,20 +11091,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S116" t="n">
+        <v>1042.227550844179</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1128.1048489474</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1042.227620910645</v>
+      </c>
+      <c r="V116" t="n">
         <v>128.015088802559</v>
       </c>
-      <c r="T116" t="n">
+      <c r="W116" t="n">
         <v>128.0150974087073</v>
       </c>
-      <c r="U116" t="n">
+      <c r="X116" t="n">
         <v>138.5632554998442</v>
       </c>
-      <c r="V116" t="inlineStr">
+      <c r="Y116" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W116" t="n">
+      <c r="Z116" t="n">
         <v>415</v>
       </c>
     </row>
@@ -10147,12 +11185,15 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr">
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10222,12 +11263,15 @@
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr">
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10297,12 +11341,15 @@
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr">
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10372,12 +11419,15 @@
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr">
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10445,20 +11495,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S121" t="n">
+        <v>1031.492143197263</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1117.327233722769</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1031.49207976843</v>
+      </c>
+      <c r="V121" t="n">
         <v>122.1170856974565</v>
       </c>
-      <c r="T121" t="n">
+      <c r="W121" t="n">
         <v>122.1170781881949</v>
       </c>
-      <c r="U121" t="n">
+      <c r="X121" t="n">
         <v>132.2789964542964</v>
       </c>
-      <c r="V121" t="inlineStr">
+      <c r="Y121" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W121" t="n">
+      <c r="Z121" t="n">
         <v>400</v>
       </c>
     </row>
@@ -10528,20 +11587,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S122" t="n">
+        <v>944.7269104771252</v>
+      </c>
+      <c r="T122" t="n">
+        <v>920.123801309404</v>
+      </c>
+      <c r="U122" t="n">
+        <v>944.7267862324011</v>
+      </c>
+      <c r="V122" t="n">
         <v>111.84505655063</v>
       </c>
-      <c r="T122" t="n">
+      <c r="W122" t="n">
         <v>111.8450418414499</v>
       </c>
-      <c r="U122" t="n">
+      <c r="X122" t="n">
         <v>108.9323247276364</v>
       </c>
-      <c r="V122" t="inlineStr">
+      <c r="Y122" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W122" t="n">
+      <c r="Z122" t="n">
         <v>400</v>
       </c>
     </row>
@@ -10613,12 +11681,15 @@
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr">
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10688,12 +11759,15 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr">
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10763,12 +11837,15 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr">
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10838,12 +11915,15 @@
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr">
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10911,20 +11991,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S127" t="n">
+        <v>1115.238713129702</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1130.176821258042</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1115.238666160746</v>
+      </c>
+      <c r="V127" t="n">
         <v>122.129358640651</v>
       </c>
-      <c r="T127" t="n">
+      <c r="W127" t="n">
         <v>122.1293534970989</v>
       </c>
-      <c r="U127" t="n">
+      <c r="X127" t="n">
         <v>123.7652250641713</v>
       </c>
-      <c r="V127" t="inlineStr">
+      <c r="Y127" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W127" t="n">
+      <c r="Z127" t="n">
         <v>370</v>
       </c>
     </row>
@@ -10994,20 +12083,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S128" t="n">
+        <v>1153.639268618678</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1069.083483722769</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1153.639469803743</v>
+      </c>
+      <c r="V128" t="n">
         <v>131.4562610781874</v>
       </c>
-      <c r="T128" t="n">
+      <c r="W128" t="n">
         <v>131.4562840030627</v>
       </c>
-      <c r="U128" t="n">
+      <c r="X128" t="n">
         <v>121.8211978159453</v>
       </c>
-      <c r="V128" t="inlineStr">
+      <c r="Y128" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W128" t="n">
+      <c r="Z128" t="n">
         <v>385</v>
       </c>
     </row>
@@ -11077,20 +12175,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S129" t="n">
+        <v>1411.538582262312</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1454.552436084775</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1411.538481808059</v>
+      </c>
+      <c r="V129" t="n">
         <v>160.8436791632326</v>
       </c>
-      <c r="T129" t="n">
+      <c r="W129" t="n">
         <v>160.8436677165517</v>
       </c>
-      <c r="U129" t="n">
+      <c r="X129" t="n">
         <v>165.7450729974032</v>
       </c>
-      <c r="V129" t="inlineStr">
+      <c r="Y129" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W129" t="n">
+      <c r="Z129" t="n">
         <v>385</v>
       </c>
     </row>
@@ -11160,20 +12267,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S130" t="n">
+        <v>1076.07139584631</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1029.690130706062</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1076.071197854289</v>
+      </c>
+      <c r="V130" t="n">
         <v>144.9115492470041</v>
       </c>
-      <c r="T130" t="n">
+      <c r="W130" t="n">
         <v>144.9115225839679</v>
       </c>
-      <c r="U130" t="n">
+      <c r="X130" t="n">
         <v>138.6655129584702</v>
       </c>
-      <c r="V130" t="inlineStr">
+      <c r="Y130" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W130" t="n">
+      <c r="Z130" t="n">
         <v>455</v>
       </c>
     </row>
@@ -11243,20 +12359,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S131" t="n">
+        <v>775.9822058456383</v>
+      </c>
+      <c r="T131" t="n">
+        <v>751.454646585394</v>
+      </c>
+      <c r="U131" t="n">
+        <v>775.9822058456383</v>
+      </c>
+      <c r="V131" t="n">
         <v>104.4993706470194</v>
       </c>
-      <c r="T131" t="n">
+      <c r="W131" t="n">
         <v>104.4993706470194</v>
       </c>
-      <c r="U131" t="n">
+      <c r="X131" t="n">
         <v>101.1963122947859</v>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="Y131" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W131" t="n">
+      <c r="Z131" t="n">
         <v>455</v>
       </c>
     </row>
@@ -11326,20 +12451,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
+        <v>1203.378820971982</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1158.386916136135</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1203.37880316476</v>
+      </c>
+      <c r="V132" t="n">
         <v>162.0556869657647</v>
       </c>
-      <c r="T132" t="n">
+      <c r="W132" t="n">
         <v>162.0556845677155</v>
       </c>
-      <c r="U132" t="n">
+      <c r="X132" t="n">
         <v>155.9967519745518</v>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="Y132" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W132" t="n">
+      <c r="Z132" t="n">
         <v>455</v>
       </c>
     </row>
@@ -11409,20 +12543,29 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S133" t="n">
+        <v>1052.698154130624</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1025.102840808784</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1052.698162034855</v>
+      </c>
+      <c r="V133" t="n">
         <v>141.7639396357654</v>
       </c>
-      <c r="T133" t="n">
+      <c r="W133" t="n">
         <v>141.7639407002064</v>
       </c>
-      <c r="U133" t="n">
+      <c r="X133" t="n">
         <v>138.0477553557444</v>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="Y133" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="W133" t="n">
+      <c r="Z133" t="n">
         <v>455</v>
       </c>
     </row>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z133"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,40 +526,55 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Hull_Length_FOV</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Skeleton_Length_FOV</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Diameter_FOV</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Hull_Length_pixels</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Skeleton_Length_pixels</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Diameter_pixels</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>RealLength_Hull(cm)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RealLength_MEC(cm)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>RealLength_Skeleton(cm)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>PondType</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Height_mm</t>
         </is>
@@ -631,29 +646,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S2" t="n">
+        <v>87.32366386173278</v>
+      </c>
+      <c r="T2" t="n">
+        <v>100.0458892363454</v>
+      </c>
+      <c r="U2" t="n">
+        <v>87.38143681982832</v>
+      </c>
+      <c r="V2" t="n">
         <v>465.0141732779099</v>
       </c>
-      <c r="T2" t="n">
-        <v>489.8161347753704</v>
-      </c>
-      <c r="U2" t="n">
-        <v>465.3218246424834</v>
-      </c>
-      <c r="V2" t="n">
-        <v>89.46024071800146</v>
-      </c>
       <c r="W2" t="n">
-        <v>89.51942722609853</v>
+        <v>532.7623053787122</v>
       </c>
       <c r="X2" t="n">
-        <v>94.23168548967595</v>
-      </c>
-      <c r="Y2" t="inlineStr">
+        <v>465.3218246424835</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>87.65076982969236</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>87.70875919968069</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>100.4206514255596</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -723,29 +747,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S3" t="n">
+        <v>141.3920352264977</v>
+      </c>
+      <c r="T3" t="n">
+        <v>153.0328978873621</v>
+      </c>
+      <c r="U3" t="n">
+        <v>141.416330327534</v>
+      </c>
+      <c r="V3" t="n">
         <v>752.9379490196103</v>
       </c>
-      <c r="T3" t="n">
-        <v>815.1131148267311</v>
-      </c>
-      <c r="U3" t="n">
-        <v>753.0673247904316</v>
-      </c>
-      <c r="V3" t="n">
-        <v>144.8515207401151</v>
-      </c>
       <c r="W3" t="n">
-        <v>144.8764102773935</v>
+        <v>814.9276307060625</v>
       </c>
       <c r="X3" t="n">
-        <v>156.8128879831357</v>
-      </c>
-      <c r="Y3" t="inlineStr">
+        <v>753.0673247904319</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>141.921676064951</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>141.9460621730773</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>153.6061442673167</v>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>650</v>
       </c>
     </row>
@@ -815,29 +848,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S4" t="n">
+        <v>125.6708217425546</v>
+      </c>
+      <c r="T4" t="n">
+        <v>148.3357590024979</v>
+      </c>
+      <c r="U4" t="n">
+        <v>125.6708222045455</v>
+      </c>
+      <c r="V4" t="n">
         <v>669.2196673092043</v>
       </c>
-      <c r="T4" t="n">
-        <v>765.6433530167076</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
+        <v>789.914523620048</v>
+      </c>
+      <c r="X4" t="n">
         <v>669.219669769389</v>
       </c>
-      <c r="V4" t="n">
-        <v>128.7456511458256</v>
-      </c>
-      <c r="W4" t="n">
-        <v>128.7456516191202</v>
-      </c>
-      <c r="X4" t="n">
-        <v>147.2958086034024</v>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" t="n">
+        <v>126.1415724414197</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>126.1415729051412</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>148.8914103561603</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>650</v>
       </c>
     </row>
@@ -907,29 +949,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S5" t="n">
+        <v>147.0266651612517</v>
+      </c>
+      <c r="T5" t="n">
+        <v>145.8041175899761</v>
+      </c>
+      <c r="U5" t="n">
+        <v>147.0266808839757</v>
+      </c>
+      <c r="V5" t="n">
         <v>782.9433641037203</v>
       </c>
-      <c r="T5" t="n">
-        <v>807.8913448780912</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
+        <v>776.4330789987599</v>
+      </c>
+      <c r="X5" t="n">
         <v>782.9434478300459</v>
       </c>
-      <c r="V5" t="n">
-        <v>150.6240150220556</v>
-      </c>
-      <c r="W5" t="n">
-        <v>150.6240311294727</v>
-      </c>
-      <c r="X5" t="n">
-        <v>155.4235512378463</v>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" t="n">
+        <v>147.5774127764639</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>147.5774285580837</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>146.3502856606641</v>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>650</v>
       </c>
     </row>
@@ -999,29 +1050,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S6" t="n">
+        <v>116.6870542623771</v>
+      </c>
+      <c r="T6" t="n">
+        <v>116.3495206792588</v>
+      </c>
+      <c r="U6" t="n">
+        <v>116.6870283124104</v>
+      </c>
+      <c r="V6" t="n">
         <v>621.3794940621174</v>
       </c>
-      <c r="T6" t="n">
-        <v>595.6818648267308</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
+        <v>619.5820671887351</v>
+      </c>
+      <c r="X6" t="n">
         <v>621.3793558738898</v>
       </c>
-      <c r="V6" t="n">
-        <v>119.5420748666193</v>
-      </c>
-      <c r="W6" t="n">
-        <v>119.5420482817262</v>
-      </c>
-      <c r="X6" t="n">
-        <v>114.5983199675493</v>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" t="n">
+        <v>117.1241526403527</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>117.1241265931799</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>116.7853546891978</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1091,29 +1151,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S7" t="n">
+        <v>168.3021610791668</v>
+      </c>
+      <c r="T7" t="n">
+        <v>151.4677534867498</v>
+      </c>
+      <c r="U7" t="n">
+        <v>168.3021669144937</v>
+      </c>
+      <c r="V7" t="n">
         <v>896.2391960446696</v>
       </c>
-      <c r="T7" t="n">
-        <v>905.3786425160873</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
+        <v>806.5929560334138</v>
+      </c>
+      <c r="X7" t="n">
         <v>896.2392271188326</v>
       </c>
-      <c r="V7" t="n">
-        <v>172.420065508728</v>
-      </c>
-      <c r="W7" t="n">
-        <v>172.4200714868299</v>
-      </c>
-      <c r="X7" t="n">
-        <v>174.178328220591</v>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" t="n">
+        <v>168.9326046367877</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>168.9326104939733</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>152.0351369877147</v>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1183,29 +1252,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
+        <v>110.9267843045699</v>
+      </c>
+      <c r="T8" t="n">
+        <v>87.71558322242468</v>
+      </c>
+      <c r="U8" t="n">
+        <v>110.9267843287265</v>
+      </c>
+      <c r="V8" t="n">
         <v>590.7050233192431</v>
       </c>
-      <c r="T8" t="n">
-        <v>463.2090753273514</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
+        <v>467.1012141720291</v>
+      </c>
+      <c r="X8" t="n">
         <v>590.7050234478816</v>
       </c>
-      <c r="V8" t="n">
-        <v>113.6408664857839</v>
-      </c>
-      <c r="W8" t="n">
-        <v>113.6408665105316</v>
-      </c>
-      <c r="X8" t="n">
-        <v>89.11297281423367</v>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" t="n">
+        <v>111.3423052704566</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>111.3423052947037</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>88.04415728226422</v>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1275,29 +1353,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S9" t="n">
+        <v>134.9675397275138</v>
+      </c>
+      <c r="T9" t="n">
+        <v>147.3485904997302</v>
+      </c>
+      <c r="U9" t="n">
+        <v>135.0135774859187</v>
+      </c>
+      <c r="V9" t="n">
         <v>718.7263581280739</v>
       </c>
-      <c r="T9" t="n">
-        <v>803.5181583954184</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
+        <v>784.6576742747505</v>
+      </c>
+      <c r="X9" t="n">
         <v>718.9715174493565</v>
       </c>
-      <c r="V9" t="n">
-        <v>138.2698349929292</v>
-      </c>
-      <c r="W9" t="n">
-        <v>138.3169991723383</v>
-      </c>
-      <c r="X9" t="n">
-        <v>154.5822299665249</v>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" t="n">
+        <v>135.4731150294801</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>135.5193252408589</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>147.9005440160097</v>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1367,29 +1454,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S10" t="n">
+        <v>139.3493057089765</v>
+      </c>
+      <c r="T10" t="n">
+        <v>153.8747973931123</v>
+      </c>
+      <c r="U10" t="n">
+        <v>139.3493049558066</v>
+      </c>
+      <c r="V10" t="n">
         <v>742.0600479351514</v>
       </c>
-      <c r="T10" t="n">
-        <v>804.848194223389</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
+        <v>819.410896585394</v>
+      </c>
+      <c r="X10" t="n">
         <v>742.0600439243865</v>
       </c>
-      <c r="V10" t="n">
-        <v>142.7588110864231</v>
-      </c>
-      <c r="W10" t="n">
-        <v>142.7588103148251</v>
-      </c>
-      <c r="X10" t="n">
-        <v>154.8381045874964</v>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" t="n">
+        <v>139.8712946809533</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>139.8712939249621</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>154.4511974468888</v>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1459,29 +1555,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
+        <v>147.4578185260966</v>
+      </c>
+      <c r="T11" t="n">
+        <v>121.8254074752802</v>
+      </c>
+      <c r="U11" t="n">
+        <v>147.473626057113</v>
+      </c>
+      <c r="V11" t="n">
         <v>785.2393331073433</v>
       </c>
-      <c r="T11" t="n">
-        <v>721.8481942233899</v>
-      </c>
-      <c r="U11" t="n">
-        <v>785.3235110453966</v>
-      </c>
-      <c r="V11" t="n">
-        <v>151.0657175583403</v>
-      </c>
       <c r="W11" t="n">
-        <v>151.0819118574265</v>
+        <v>648.7421465853943</v>
       </c>
       <c r="X11" t="n">
-        <v>138.8704192860928</v>
-      </c>
-      <c r="Y11" t="inlineStr">
+        <v>785.3235110453971</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>148.0101811999596</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>148.0260479444528</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>122.2817536255903</v>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1551,29 +1656,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S12" t="n">
+        <v>152.9408534137777</v>
+      </c>
+      <c r="T12" t="n">
+        <v>184.4558889083445</v>
+      </c>
+      <c r="U12" t="n">
+        <v>152.9408576626033</v>
+      </c>
+      <c r="V12" t="n">
         <v>814.4374773742417</v>
       </c>
-      <c r="T12" t="n">
-        <v>924.3808530167103</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
+        <v>982.2606942233929</v>
+      </c>
+      <c r="X12" t="n">
         <v>814.4375000000001</v>
       </c>
-      <c r="V12" t="n">
-        <v>156.6829076672418</v>
-      </c>
-      <c r="W12" t="n">
-        <v>156.6829120200248</v>
-      </c>
-      <c r="X12" t="n">
-        <v>177.8340067423377</v>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" t="n">
+        <v>153.5137550040694</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>153.5137592688107</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>185.146842762305</v>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1643,29 +1757,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
+        <v>141.1509834792325</v>
+      </c>
+      <c r="T13" t="n">
+        <v>136.306482365956</v>
+      </c>
+      <c r="U13" t="n">
+        <v>141.1509732276523</v>
+      </c>
+      <c r="V13" t="n">
         <v>751.6543052280576</v>
       </c>
-      <c r="T13" t="n">
-        <v>724.0016266367547</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
+        <v>725.8564678434384</v>
+      </c>
+      <c r="X13" t="n">
         <v>751.6542506365545</v>
       </c>
-      <c r="V13" t="n">
-        <v>144.6045711003246</v>
-      </c>
-      <c r="W13" t="n">
-        <v>144.6045605979157</v>
-      </c>
-      <c r="X13" t="n">
-        <v>139.2847003836162</v>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" t="n">
+        <v>141.6797213612404</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>141.6797110712588</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>136.8170732170692</v>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1735,29 +1858,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S14" t="n">
+        <v>123.4990785607441</v>
+      </c>
+      <c r="T14" t="n">
+        <v>107.5686188938206</v>
+      </c>
+      <c r="U14" t="n">
+        <v>123.4990721164741</v>
+      </c>
+      <c r="V14" t="n">
         <v>657.65474532127</v>
       </c>
-      <c r="T14" t="n">
-        <v>562.4848925160865</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
+        <v>572.8221901540812</v>
+      </c>
+      <c r="X14" t="n">
         <v>657.6547110043766</v>
       </c>
-      <c r="V14" t="n">
-        <v>126.5207712080109</v>
-      </c>
-      <c r="W14" t="n">
-        <v>126.5207646060668</v>
-      </c>
-      <c r="X14" t="n">
-        <v>108.2118283191664</v>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" t="n">
+        <v>123.9616941204702</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>123.9616876520606</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>107.9715604980696</v>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1827,29 +1959,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S15" t="n">
+        <v>105.7583067909172</v>
+      </c>
+      <c r="T15" t="n">
+        <v>74.50203472103705</v>
+      </c>
+      <c r="U15" t="n">
+        <v>105.7582989362429</v>
+      </c>
+      <c r="V15" t="n">
         <v>563.1819534910899</v>
       </c>
-      <c r="T15" t="n">
-        <v>464.39738477537</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
+        <v>396.7366982926973</v>
+      </c>
+      <c r="X15" t="n">
         <v>563.1819116635403</v>
       </c>
-      <c r="V15" t="n">
-        <v>108.345930129826</v>
-      </c>
-      <c r="W15" t="n">
-        <v>108.3459220829687</v>
-      </c>
-      <c r="X15" t="n">
-        <v>89.34158186612096</v>
-      </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" t="n">
+        <v>106.1544671417631</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>106.154459257666</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>74.78111211088377</v>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1919,29 +2060,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S16" t="n">
+        <v>136.938687899711</v>
+      </c>
+      <c r="T16" t="n">
+        <v>139.5625057953579</v>
+      </c>
+      <c r="U16" t="n">
+        <v>136.9386777893831</v>
+      </c>
+      <c r="V16" t="n">
         <v>729.2230757091629</v>
       </c>
-      <c r="T16" t="n">
-        <v>759.9808607574236</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
+        <v>743.195376636755</v>
+      </c>
+      <c r="X16" t="n">
         <v>729.223021869853</v>
       </c>
-      <c r="V16" t="n">
-        <v>140.2892118969358</v>
-      </c>
-      <c r="W16" t="n">
-        <v>140.2892015392351</v>
-      </c>
-      <c r="X16" t="n">
-        <v>146.206448429693</v>
-      </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" t="n">
+        <v>137.4516469313829</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>137.4516367831826</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>140.0852933941621</v>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2011,29 +2161,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S17" t="n">
+        <v>134.2846534294568</v>
+      </c>
+      <c r="T17" t="n">
+        <v>121.8945019651445</v>
+      </c>
+      <c r="U17" t="n">
+        <v>134.2846534294568</v>
+      </c>
+      <c r="V17" t="n">
         <v>715.0898661018505</v>
       </c>
-      <c r="T17" t="n">
-        <v>607.9433530167067</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
+        <v>649.1100871373752</v>
+      </c>
+      <c r="X17" t="n">
         <v>715.0898661018505</v>
       </c>
-      <c r="V17" t="n">
-        <v>137.5702402908112</v>
-      </c>
-      <c r="W17" t="n">
-        <v>137.5702402908112</v>
-      </c>
-      <c r="X17" t="n">
-        <v>116.957206530735</v>
-      </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" t="n">
+        <v>134.7876707056411</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>134.7876707056411</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>122.3511069367063</v>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2103,29 +2262,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S18" t="n">
+        <v>157.1333107673816</v>
+      </c>
+      <c r="T18" t="n">
+        <v>171.9667224238366</v>
+      </c>
+      <c r="U18" t="n">
+        <v>157.2018141335658</v>
+      </c>
+      <c r="V18" t="n">
         <v>836.7630647817501</v>
       </c>
-      <c r="T18" t="n">
-        <v>942.3576742747498</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
+        <v>915.753642516087</v>
+      </c>
+      <c r="X18" t="n">
         <v>837.127857494105</v>
       </c>
-      <c r="V18" t="n">
-        <v>160.977943256303</v>
-      </c>
-      <c r="W18" t="n">
-        <v>161.048122716919</v>
-      </c>
-      <c r="X18" t="n">
-        <v>181.29241908653</v>
-      </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y18" t="n">
+        <v>157.7219168959409</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>157.7906768690848</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>172.6108930725207</v>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2195,29 +2363,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S19" t="n">
+        <v>122.1976421021342</v>
+      </c>
+      <c r="T19" t="n">
+        <v>130.1186679046056</v>
+      </c>
+      <c r="U19" t="n">
+        <v>122.1976242665745</v>
+      </c>
+      <c r="V19" t="n">
         <v>650.7243627409828</v>
       </c>
-      <c r="T19" t="n">
-        <v>698.6114959306926</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
+        <v>692.9052459306926</v>
+      </c>
+      <c r="X19" t="n">
         <v>650.7242677634282</v>
       </c>
-      <c r="V19" t="n">
-        <v>125.1874920747535</v>
-      </c>
-      <c r="W19" t="n">
-        <v>125.1874738028053</v>
-      </c>
-      <c r="X19" t="n">
-        <v>134.4001025899306</v>
-      </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" t="n">
+        <v>122.6553826072221</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>122.6553647048521</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>130.6060798034231</v>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2287,29 +2464,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
+        <v>108.5841644566328</v>
+      </c>
+      <c r="T20" t="n">
+        <v>109.1674576978516</v>
+      </c>
+      <c r="U20" t="n">
+        <v>108.584159743086</v>
+      </c>
+      <c r="V20" t="n">
         <v>578.2301524340984</v>
       </c>
-      <c r="T20" t="n">
-        <v>614.5739959306925</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
+        <v>581.3362935686874</v>
+      </c>
+      <c r="X20" t="n">
         <v>578.2301273336162</v>
       </c>
-      <c r="V20" t="n">
-        <v>111.2409289861498</v>
-      </c>
-      <c r="W20" t="n">
-        <v>111.2409241572751</v>
-      </c>
-      <c r="X20" t="n">
-        <v>118.2328212222592</v>
-      </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" t="n">
+        <v>108.9909101959768</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>108.9909054647735</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>109.5763883970546</v>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2379,29 +2565,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S21" t="n">
+        <v>102.6187344619679</v>
+      </c>
+      <c r="T21" t="n">
+        <v>116.070868475766</v>
+      </c>
+      <c r="U21" t="n">
+        <v>102.6187362245841</v>
+      </c>
+      <c r="V21" t="n">
         <v>546.463167695475</v>
       </c>
-      <c r="T21" t="n">
-        <v>584.4895236200487</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
+        <v>618.0981942233904</v>
+      </c>
+      <c r="X21" t="n">
         <v>546.4631770817224</v>
       </c>
-      <c r="V21" t="n">
-        <v>105.1295408502361</v>
-      </c>
-      <c r="W21" t="n">
-        <v>105.1295426559788</v>
-      </c>
-      <c r="X21" t="n">
-        <v>112.445117772679</v>
-      </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y21" t="n">
+        <v>103.0031342796407</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>103.0031360488595</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>116.5056586816007</v>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2471,29 +2666,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S22" t="n">
+        <v>156.1622154830298</v>
+      </c>
+      <c r="T22" t="n">
+        <v>163.338738213714</v>
+      </c>
+      <c r="U22" t="n">
+        <v>156.2302863745529</v>
+      </c>
+      <c r="V22" t="n">
         <v>831.5918082075649</v>
       </c>
-      <c r="T22" t="n">
-        <v>903.0457813607642</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
+        <v>869.8080789987592</v>
+      </c>
+      <c r="X22" t="n">
         <v>831.9542979147767</v>
       </c>
-      <c r="V22" t="n">
-        <v>159.9830878636595</v>
-      </c>
-      <c r="W22" t="n">
-        <v>160.0528242681144</v>
-      </c>
-      <c r="X22" t="n">
-        <v>173.7295283075781</v>
-      </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y22" t="n">
+        <v>156.7471839829221</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>156.8155098613969</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>163.9505892711009</v>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z22" t="n">
+      <c r="AC22" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2563,29 +2767,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S23" t="n">
+        <v>124.8465588268868</v>
+      </c>
+      <c r="T23" t="n">
+        <v>131.4476402054596</v>
+      </c>
+      <c r="U23" t="n">
+        <v>124.8707620997791</v>
+      </c>
+      <c r="V23" t="n">
         <v>664.8303194355309</v>
       </c>
-      <c r="T23" t="n">
-        <v>710.3195594480188</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
+        <v>699.9822618100237</v>
+      </c>
+      <c r="X23" t="n">
         <v>664.9592062050144</v>
       </c>
-      <c r="V23" t="n">
-        <v>127.9012207178111</v>
-      </c>
-      <c r="W23" t="n">
-        <v>127.926016180156</v>
-      </c>
-      <c r="X23" t="n">
-        <v>136.6525203457561</v>
-      </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y23" t="n">
+        <v>125.3142219168845</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>125.3385158528875</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>131.9400303055073</v>
+      </c>
+      <c r="AB23" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2655,29 +2868,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
+        <v>121.687104153988</v>
+      </c>
+      <c r="T24" t="n">
+        <v>119.8765477338558</v>
+      </c>
+      <c r="U24" t="n">
+        <v>121.7397080829612</v>
+      </c>
+      <c r="V24" t="n">
         <v>648.0056565920962</v>
       </c>
-      <c r="T24" t="n">
-        <v>629.6177459306923</v>
-      </c>
-      <c r="U24" t="n">
-        <v>648.2857819494262</v>
-      </c>
-      <c r="V24" t="n">
-        <v>124.6644626264112</v>
-      </c>
       <c r="W24" t="n">
-        <v>124.7183536330472</v>
+        <v>638.3641188960385</v>
       </c>
       <c r="X24" t="n">
-        <v>121.1269641831386</v>
-      </c>
-      <c r="Y24" t="inlineStr">
+        <v>648.2857819494261</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>122.1429322334822</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>122.1957332116668</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>120.3255936447584</v>
+      </c>
+      <c r="AB24" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z24" t="n">
+      <c r="AC24" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2747,29 +2969,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S25" t="n">
+        <v>117.9613100412668</v>
+      </c>
+      <c r="T25" t="n">
+        <v>122.6319068945848</v>
+      </c>
+      <c r="U25" t="n">
+        <v>117.9613083451017</v>
+      </c>
+      <c r="V25" t="n">
         <v>628.165134647506</v>
       </c>
-      <c r="T25" t="n">
-        <v>648.5536347753704</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="W25" t="n">
+        <v>653.0369006547018</v>
+      </c>
+      <c r="X25" t="n">
         <v>628.1651256151224</v>
       </c>
-      <c r="V25" t="n">
-        <v>120.8475082815099</v>
-      </c>
-      <c r="W25" t="n">
-        <v>120.8475065438441</v>
-      </c>
-      <c r="X25" t="n">
-        <v>124.7698836286107</v>
-      </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Y25" t="n">
+        <v>118.4031816576929</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>118.4031799551741</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>123.0912741134294</v>
+      </c>
+      <c r="AB25" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2839,29 +3070,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
+        <v>145.7489784629422</v>
+      </c>
+      <c r="T26" t="n">
+        <v>167.5482357424653</v>
+      </c>
+      <c r="U26" t="n">
+        <v>146.1114276791161</v>
+      </c>
+      <c r="V26" t="n">
         <v>776.139453257019</v>
       </c>
-      <c r="T26" t="n">
-        <v>882.1449719127453</v>
-      </c>
-      <c r="U26" t="n">
-        <v>778.0695603455307</v>
-      </c>
-      <c r="V26" t="n">
-        <v>149.3150667423094</v>
-      </c>
       <c r="W26" t="n">
-        <v>149.6863841228801</v>
+        <v>892.2244083954181</v>
       </c>
       <c r="X26" t="n">
-        <v>169.7085939966074</v>
-      </c>
-      <c r="Y26" t="inlineStr">
+        <v>778.0695603455305</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>146.2949399878129</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>146.6587469035661</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>168.1758551689617</v>
+      </c>
+      <c r="AB26" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2931,29 +3171,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S27" t="n">
+        <v>134.8034961847935</v>
+      </c>
+      <c r="T27" t="n">
+        <v>136.4588313802627</v>
+      </c>
+      <c r="U27" t="n">
+        <v>134.8034832174986</v>
+      </c>
+      <c r="V27" t="n">
         <v>717.8527968386568</v>
       </c>
-      <c r="T27" t="n">
-        <v>731.1510195507404</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
+        <v>726.6677536714091</v>
+      </c>
+      <c r="X27" t="n">
         <v>717.8527277854857</v>
       </c>
-      <c r="V27" t="n">
-        <v>138.1017777427979</v>
-      </c>
-      <c r="W27" t="n">
-        <v>138.101764458228</v>
-      </c>
-      <c r="X27" t="n">
-        <v>140.6601131082742</v>
-      </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" t="n">
+        <v>135.308456995573</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>135.308443979704</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>136.9699929159943</v>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3023,29 +3272,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S28" t="n">
+        <v>143.5985745948034</v>
+      </c>
+      <c r="T28" t="n">
+        <v>155.5237648791764</v>
+      </c>
+      <c r="U28" t="n">
+        <v>143.5985764360046</v>
+      </c>
+      <c r="V28" t="n">
         <v>764.6881669420113</v>
       </c>
-      <c r="T28" t="n">
-        <v>856.3899283440584</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="W28" t="n">
+        <v>828.19194422339</v>
+      </c>
+      <c r="X28" t="n">
         <v>764.6881767467377</v>
       </c>
-      <c r="V28" t="n">
-        <v>147.1120482341852</v>
-      </c>
-      <c r="W28" t="n">
-        <v>147.1120501204356</v>
-      </c>
-      <c r="X28" t="n">
-        <v>164.7537936275864</v>
-      </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Y28" t="n">
+        <v>144.1364809155326</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>144.1364827636307</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>156.1063418050836</v>
+      </c>
+      <c r="AB28" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z28" t="n">
+      <c r="AC28" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3115,29 +3373,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S29" t="n">
+        <v>148.6210637075173</v>
+      </c>
+      <c r="T29" t="n">
+        <v>170.4570810395192</v>
+      </c>
+      <c r="U29" t="n">
+        <v>148.862475753204</v>
+      </c>
+      <c r="V29" t="n">
         <v>791.4338223492784</v>
       </c>
-      <c r="T29" t="n">
-        <v>892.9663448780915</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
+        <v>907.7145313607647</v>
+      </c>
+      <c r="X29" t="n">
         <v>792.719384794552</v>
       </c>
-      <c r="V29" t="n">
-        <v>152.2574242428964</v>
-      </c>
-      <c r="W29" t="n">
-        <v>152.5047429966486</v>
-      </c>
-      <c r="X29" t="n">
-        <v>171.7904286717853</v>
-      </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" t="n">
+        <v>149.177783784909</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>149.420100136684</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>171.0955967181247</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3207,29 +3474,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S30" t="n">
+        <v>136.8604916232561</v>
+      </c>
+      <c r="T30" t="n">
+        <v>152.0516722798653</v>
+      </c>
+      <c r="U30" t="n">
+        <v>136.8610858329887</v>
+      </c>
+      <c r="V30" t="n">
         <v>728.8066665110024</v>
       </c>
-      <c r="T30" t="n">
-        <v>756.3058530167077</v>
-      </c>
-      <c r="U30" t="n">
-        <v>728.8098307844115</v>
-      </c>
-      <c r="V30" t="n">
-        <v>140.2091023664197</v>
-      </c>
       <c r="W30" t="n">
-        <v>140.2097111148775</v>
+        <v>809.7024283440578</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4994440069945</v>
-      </c>
-      <c r="Y30" t="inlineStr">
+        <v>728.8098307844116</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>137.3731577392672</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>137.3737541748517</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>152.6212430839458</v>
+      </c>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z30" t="n">
+      <c r="AC30" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3299,29 +3575,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S31" t="n">
+        <v>146.0705252385384</v>
+      </c>
+      <c r="T31" t="n">
+        <v>162.1544663488684</v>
+      </c>
+      <c r="U31" t="n">
+        <v>146.0705245200236</v>
+      </c>
+      <c r="V31" t="n">
         <v>777.8517475127978</v>
       </c>
-      <c r="T31" t="n">
-        <v>853.9786347753698</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
+        <v>863.5016188960382</v>
+      </c>
+      <c r="X31" t="n">
         <v>777.8517436865782</v>
       </c>
-      <c r="V31" t="n">
-        <v>149.6444809088116</v>
-      </c>
-      <c r="W31" t="n">
-        <v>149.6444801727167</v>
-      </c>
-      <c r="X31" t="n">
-        <v>164.289904749585</v>
-      </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" t="n">
+        <v>146.6176912464165</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>146.6176905252103</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>162.7618812388117</v>
+      </c>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z31" t="n">
+      <c r="AC31" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3391,29 +3676,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S32" t="n">
+        <v>135.1628755053834</v>
+      </c>
+      <c r="T32" t="n">
+        <v>144.5170568318478</v>
+      </c>
+      <c r="U32" t="n">
+        <v>135.1628673868522</v>
+      </c>
+      <c r="V32" t="n">
         <v>719.7665561825377</v>
       </c>
-      <c r="T32" t="n">
-        <v>694.3951742747505</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
+        <v>769.5792496021008</v>
+      </c>
+      <c r="X32" t="n">
         <v>719.7665129499028</v>
       </c>
-      <c r="V32" t="n">
-        <v>138.4699501156378</v>
-      </c>
-      <c r="W32" t="n">
-        <v>138.4699417984678</v>
-      </c>
-      <c r="X32" t="n">
-        <v>133.5889592485863</v>
-      </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y32" t="n">
+        <v>135.6691825162115</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>135.6691743672691</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>145.058403697876</v>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z32" t="n">
+      <c r="AC32" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3483,29 +3777,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S33" t="n">
+        <v>143.7546110100494</v>
+      </c>
+      <c r="T33" t="n">
+        <v>164.9794885604705</v>
+      </c>
+      <c r="U33" t="n">
+        <v>143.7546155676683</v>
+      </c>
+      <c r="V33" t="n">
         <v>765.5190888413919</v>
       </c>
-      <c r="T33" t="n">
-        <v>824.0766188960382</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
+        <v>878.5453688960375</v>
+      </c>
+      <c r="X33" t="n">
         <v>765.5191131115297</v>
       </c>
-      <c r="V33" t="n">
-        <v>147.2719024438159</v>
-      </c>
-      <c r="W33" t="n">
-        <v>147.2719071129475</v>
-      </c>
-      <c r="X33" t="n">
-        <v>158.5373025876724</v>
-      </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Y33" t="n">
+        <v>144.2931018280429</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>144.2931064027342</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>165.597485709382</v>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z33" t="n">
+      <c r="AC33" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3575,29 +3878,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S34" t="n">
+        <v>145.198923482512</v>
+      </c>
+      <c r="T34" t="n">
+        <v>146.2628703159234</v>
+      </c>
+      <c r="U34" t="n">
+        <v>145.1989409503072</v>
+      </c>
+      <c r="V34" t="n">
         <v>773.2103118230642</v>
       </c>
-      <c r="T34" t="n">
-        <v>788.3990036714083</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
+        <v>778.8760195507402</v>
+      </c>
+      <c r="X34" t="n">
         <v>773.2104048422069</v>
       </c>
-      <c r="V34" t="n">
-        <v>148.7515533854336</v>
-      </c>
-      <c r="W34" t="n">
-        <v>148.7515712806191</v>
-      </c>
-      <c r="X34" t="n">
-        <v>151.6735805128355</v>
-      </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Y34" t="n">
+        <v>145.7428245548221</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>145.74284208805</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>146.8107568297897</v>
+      </c>
+      <c r="AB34" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z34" t="n">
+      <c r="AC34" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3667,29 +3979,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S35" t="n">
+        <v>149.0554916567512</v>
+      </c>
+      <c r="T35" t="n">
+        <v>164.7090534962849</v>
+      </c>
+      <c r="U35" t="n">
+        <v>149.0554807383193</v>
+      </c>
+      <c r="V35" t="n">
         <v>793.7472291021342</v>
       </c>
-      <c r="T35" t="n">
-        <v>870.4715830680677</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
+        <v>877.1052536714088</v>
+      </c>
+      <c r="X35" t="n">
         <v>793.7471709595259</v>
       </c>
-      <c r="V35" t="n">
-        <v>152.7024814839053</v>
-      </c>
-      <c r="W35" t="n">
-        <v>152.7024702983286</v>
-      </c>
-      <c r="X35" t="n">
-        <v>167.4628470150082</v>
-      </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Y35" t="n">
+        <v>149.6138390590691</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>149.6138280997378</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>165.3260376216982</v>
+      </c>
+      <c r="AB35" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z35" t="n">
+      <c r="AC35" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3759,29 +4080,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S36" t="n">
+        <v>118.6239252998188</v>
+      </c>
+      <c r="T36" t="n">
+        <v>123.9756077910262</v>
+      </c>
+      <c r="U36" t="n">
+        <v>118.6239368656947</v>
+      </c>
+      <c r="V36" t="n">
         <v>631.6936797523559</v>
       </c>
-      <c r="T36" t="n">
-        <v>693.2445671887357</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="W36" t="n">
+        <v>660.192348947399</v>
+      </c>
+      <c r="X36" t="n">
         <v>631.6937413427192</v>
       </c>
-      <c r="V36" t="n">
-        <v>121.5263359659202</v>
-      </c>
-      <c r="W36" t="n">
-        <v>121.5263478147821</v>
-      </c>
-      <c r="X36" t="n">
-        <v>133.3676034431038</v>
-      </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Y36" t="n">
+        <v>119.0682790086807</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>119.0682906178812</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>124.4400083829903</v>
+      </c>
+      <c r="AB36" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z36" t="n">
+      <c r="AC36" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3851,29 +4181,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S37" t="n">
+        <v>152.4799242783063</v>
+      </c>
+      <c r="T37" t="n">
+        <v>178.667086944402</v>
+      </c>
+      <c r="U37" t="n">
+        <v>152.4799258306665</v>
+      </c>
+      <c r="V37" t="n">
         <v>811.982947051163</v>
       </c>
-      <c r="T37" t="n">
-        <v>941.5403330680675</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="W37" t="n">
+        <v>951.4342854300724</v>
+      </c>
+      <c r="X37" t="n">
         <v>811.9829553177594</v>
       </c>
-      <c r="V37" t="n">
-        <v>156.2107008267397</v>
-      </c>
-      <c r="W37" t="n">
-        <v>156.210702417082</v>
-      </c>
-      <c r="X37" t="n">
-        <v>181.1351775543351</v>
-      </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Y37" t="n">
+        <v>153.0510992728008</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>153.051100830976</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>179.3363565081483</v>
+      </c>
+      <c r="AB37" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z37" t="n">
+      <c r="AC37" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3943,29 +4282,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
+        <v>160.4801055532219</v>
+      </c>
+      <c r="T38" t="n">
+        <v>162.8451539623303</v>
+      </c>
+      <c r="U38" t="n">
+        <v>160.4801011700442</v>
+      </c>
+      <c r="V38" t="n">
         <v>854.5853473297266</v>
       </c>
-      <c r="T38" t="n">
-        <v>852.8024360847736</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="W38" t="n">
+        <v>867.1796543261113</v>
+      </c>
+      <c r="X38" t="n">
         <v>854.5853239885195</v>
       </c>
-      <c r="V38" t="n">
-        <v>164.4066251729149</v>
-      </c>
-      <c r="W38" t="n">
-        <v>164.4066206824926</v>
-      </c>
-      <c r="X38" t="n">
-        <v>164.0636255864119</v>
-      </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Y38" t="n">
+        <v>161.0812484501618</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>161.0812440505651</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>163.4551561010257</v>
+      </c>
+      <c r="AB38" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z38" t="n">
+      <c r="AC38" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4035,29 +4383,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S39" t="n">
+        <v>119.4424949382637</v>
+      </c>
+      <c r="T39" t="n">
+        <v>113.6844960602616</v>
+      </c>
+      <c r="U39" t="n">
+        <v>119.4425248700071</v>
+      </c>
+      <c r="V39" t="n">
         <v>636.0527099036168</v>
       </c>
-      <c r="T39" t="n">
-        <v>619.7675513094043</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="W39" t="n">
+        <v>605.3903330680672</v>
+      </c>
+      <c r="X39" t="n">
         <v>636.0528692955191</v>
       </c>
-      <c r="V39" t="n">
-        <v>122.3649338174221</v>
-      </c>
-      <c r="W39" t="n">
-        <v>122.3649644815153</v>
-      </c>
-      <c r="X39" t="n">
-        <v>119.2319664979542</v>
-      </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Y39" t="n">
+        <v>119.8899149295293</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>119.8899449733941</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>114.1103471466827</v>
+      </c>
+      <c r="AB39" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z39" t="n">
+      <c r="AC39" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4127,29 +4484,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S40" t="n">
+        <v>139.2319610626539</v>
+      </c>
+      <c r="T40" t="n">
+        <v>146.2563588596433</v>
+      </c>
+      <c r="U40" t="n">
+        <v>139.2319544227588</v>
+      </c>
+      <c r="V40" t="n">
         <v>741.4351666454161</v>
       </c>
-      <c r="T40" t="n">
-        <v>767.9098925160865</v>
-      </c>
-      <c r="U40" t="n">
+      <c r="W40" t="n">
+        <v>778.8413448780915</v>
+      </c>
+      <c r="X40" t="n">
         <v>741.4351312867839</v>
       </c>
-      <c r="V40" t="n">
-        <v>142.6385953299745</v>
-      </c>
-      <c r="W40" t="n">
-        <v>142.638588527619</v>
-      </c>
-      <c r="X40" t="n">
-        <v>147.7318494401408</v>
-      </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Y40" t="n">
+        <v>139.7535104729767</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>139.7535038082092</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>146.8042209822265</v>
+      </c>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z40" t="n">
+      <c r="AC40" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4219,29 +4585,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
+        <v>172.5277916064204</v>
+      </c>
+      <c r="T41" t="n">
+        <v>176.1425255491691</v>
+      </c>
+      <c r="U41" t="n">
+        <v>172.5277845472153</v>
+      </c>
+      <c r="V41" t="n">
         <v>918.7414365521234</v>
       </c>
-      <c r="T41" t="n">
-        <v>962.2963884467786</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
+        <v>937.9905431707878</v>
+      </c>
+      <c r="X41" t="n">
         <v>918.7413989605902</v>
       </c>
-      <c r="V41" t="n">
-        <v>176.7490859304091</v>
-      </c>
-      <c r="W41" t="n">
-        <v>176.7490786984841</v>
-      </c>
-      <c r="X41" t="n">
-        <v>185.1282638240432</v>
-      </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Y41" t="n">
+        <v>173.1740639657972</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>173.1740568801491</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>176.8023383509984</v>
+      </c>
+      <c r="AB41" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z41" t="n">
+      <c r="AC41" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4311,29 +4686,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S42" t="n">
+        <v>147.4310698131381</v>
+      </c>
+      <c r="T42" t="n">
+        <v>173.6505214353371</v>
+      </c>
+      <c r="U42" t="n">
+        <v>147.5250647667818</v>
+      </c>
+      <c r="V42" t="n">
         <v>785.0968914129326</v>
       </c>
-      <c r="T42" t="n">
-        <v>929.0179560334142</v>
-      </c>
-      <c r="U42" t="n">
+      <c r="W42" t="n">
+        <v>924.7201742747504</v>
+      </c>
+      <c r="X42" t="n">
         <v>785.597431400926</v>
       </c>
-      <c r="V42" t="n">
-        <v>151.0383143758084</v>
-      </c>
-      <c r="W42" t="n">
-        <v>151.1346091349536</v>
-      </c>
-      <c r="X42" t="n">
-        <v>178.7261007384934</v>
-      </c>
-      <c r="Y42" t="inlineStr">
+      <c r="Y42" t="n">
+        <v>147.9833322889191</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>148.0776793385346</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>174.300999431665</v>
+      </c>
+      <c r="AB42" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z42" t="n">
+      <c r="AC42" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4403,29 +4787,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
+        <v>158.27608948495</v>
+      </c>
+      <c r="T43" t="n">
+        <v>147.0014123673818</v>
+      </c>
+      <c r="U43" t="n">
+        <v>158.2760865955052</v>
+      </c>
+      <c r="V43" t="n">
         <v>842.8485664326093</v>
       </c>
-      <c r="T43" t="n">
-        <v>841.9840908087838</v>
-      </c>
-      <c r="U43" t="n">
+      <c r="W43" t="n">
+        <v>782.8088884467786</v>
+      </c>
+      <c r="X43" t="n">
         <v>842.8485510457975</v>
       </c>
-      <c r="V43" t="n">
-        <v>162.1486827172921</v>
-      </c>
-      <c r="W43" t="n">
-        <v>162.1486797571503</v>
-      </c>
-      <c r="X43" t="n">
-        <v>161.9823733834127</v>
-      </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Y43" t="n">
+        <v>158.868976351651</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>158.8689734513827</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>147.5520653880795</v>
+      </c>
+      <c r="AB43" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z43" t="n">
+      <c r="AC43" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4495,29 +4888,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S44" t="n">
+        <v>122.4260412324264</v>
+      </c>
+      <c r="T44" t="n">
+        <v>124.6988526858883</v>
+      </c>
+      <c r="U44" t="n">
+        <v>122.4260353007626</v>
+      </c>
+      <c r="V44" t="n">
         <v>651.9406290776586</v>
       </c>
-      <c r="T44" t="n">
-        <v>673.5667418613848</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="W44" t="n">
+        <v>664.0437577407164</v>
+      </c>
+      <c r="X44" t="n">
         <v>651.9405974904848</v>
       </c>
-      <c r="V44" t="n">
-        <v>125.4214795218226</v>
-      </c>
-      <c r="W44" t="n">
-        <v>125.4214734450268</v>
-      </c>
-      <c r="X44" t="n">
-        <v>129.5819489582468</v>
-      </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Y44" t="n">
+        <v>122.8846372984848</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>122.8846313446015</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>125.1659624830202</v>
+      </c>
+      <c r="AB44" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z44" t="n">
+      <c r="AC44" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4587,29 +4989,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S45" t="n">
+        <v>145.7062345154444</v>
+      </c>
+      <c r="T45" t="n">
+        <v>146.7156801465997</v>
+      </c>
+      <c r="U45" t="n">
+        <v>145.7062615500503</v>
+      </c>
+      <c r="V45" t="n">
         <v>775.9118340696264</v>
       </c>
-      <c r="T45" t="n">
-        <v>819.1937654814335</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="W45" t="n">
+        <v>781.2873131194285</v>
+      </c>
+      <c r="X45" t="n">
         <v>775.911978033752</v>
       </c>
-      <c r="V45" t="n">
-        <v>149.2712769645643</v>
-      </c>
-      <c r="W45" t="n">
-        <v>149.2713046606348</v>
-      </c>
-      <c r="X45" t="n">
-        <v>157.5979306997532</v>
-      </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Y45" t="n">
+        <v>146.252035925637</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>146.2520630615119</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>147.2652628421357</v>
+      </c>
+      <c r="AB45" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z45" t="n">
+      <c r="AC45" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4679,29 +5090,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
+        <v>158.1850441785413</v>
+      </c>
+      <c r="T46" t="n">
+        <v>183.8578100806502</v>
+      </c>
+      <c r="U46" t="n">
+        <v>158.1850472503425</v>
+      </c>
+      <c r="V46" t="n">
         <v>842.3637338452188</v>
       </c>
-      <c r="T46" t="n">
-        <v>963.9566624647279</v>
-      </c>
-      <c r="U46" t="n">
+      <c r="W46" t="n">
+        <v>979.0758171887362</v>
+      </c>
+      <c r="X46" t="n">
         <v>842.3637502031114</v>
       </c>
-      <c r="V46" t="n">
-        <v>162.0554097753725</v>
-      </c>
-      <c r="W46" t="n">
-        <v>162.0554129223326</v>
-      </c>
-      <c r="X46" t="n">
-        <v>185.4476702461241</v>
-      </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Y46" t="n">
+        <v>158.7775899983626</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>158.7775930816705</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>184.5465235893801</v>
+      </c>
+      <c r="AB46" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z46" t="n">
+      <c r="AC46" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4771,29 +5191,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S47" t="n">
+        <v>138.4603255233197</v>
+      </c>
+      <c r="T47" t="n">
+        <v>147.4590279713112</v>
+      </c>
+      <c r="U47" t="n">
+        <v>138.4603266200077</v>
+      </c>
+      <c r="V47" t="n">
         <v>737.3260689904721</v>
       </c>
-      <c r="T47" t="n">
-        <v>771.2395236200475</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="W47" t="n">
+        <v>785.2457736200492</v>
+      </c>
+      <c r="X47" t="n">
         <v>737.3260748305325</v>
       </c>
-      <c r="V47" t="n">
-        <v>141.8480799296507</v>
-      </c>
-      <c r="W47" t="n">
-        <v>141.8480810531717</v>
-      </c>
-      <c r="X47" t="n">
-        <v>148.3724097008374</v>
-      </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Y47" t="n">
+        <v>138.9789844618179</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>138.978985562614</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>148.0113951756387</v>
+      </c>
+      <c r="AB47" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z47" t="n">
+      <c r="AC47" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4863,29 +5292,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S48" t="n">
+        <v>138.9141346290938</v>
+      </c>
+      <c r="T48" t="n">
+        <v>163.3795126344216</v>
+      </c>
+      <c r="U48" t="n">
+        <v>138.9141517008288</v>
+      </c>
+      <c r="V48" t="n">
         <v>739.7426838782958</v>
       </c>
-      <c r="T48" t="n">
-        <v>841.4562577407165</v>
-      </c>
-      <c r="U48" t="n">
+      <c r="W48" t="n">
+        <v>870.0252101027205</v>
+      </c>
+      <c r="X48" t="n">
         <v>739.7427747883465</v>
       </c>
-      <c r="V48" t="n">
-        <v>142.3129925323429</v>
-      </c>
-      <c r="W48" t="n">
-        <v>142.3130100217776</v>
-      </c>
-      <c r="X48" t="n">
-        <v>161.8808279337432</v>
-      </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Y48" t="n">
+        <v>139.4344934924492</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>139.4345106281332</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>163.9915164288303</v>
+      </c>
+      <c r="AB48" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z48" t="n">
+      <c r="AC48" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4955,29 +5393,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
+        <v>123.6587992973366</v>
+      </c>
+      <c r="T49" t="n">
+        <v>119.9396993284491</v>
+      </c>
+      <c r="U49" t="n">
+        <v>123.6587948116768</v>
+      </c>
+      <c r="V49" t="n">
         <v>658.5052868926763</v>
       </c>
-      <c r="T49" t="n">
-        <v>665.8231942233896</v>
-      </c>
-      <c r="U49" t="n">
+      <c r="W49" t="n">
+        <v>638.7004124647264</v>
+      </c>
+      <c r="X49" t="n">
         <v>658.5052630057334</v>
       </c>
-      <c r="V49" t="n">
-        <v>126.6843998844925</v>
-      </c>
-      <c r="W49" t="n">
-        <v>126.6843952890806</v>
-      </c>
-      <c r="X49" t="n">
-        <v>128.0922317076451</v>
-      </c>
-      <c r="Y49" t="inlineStr">
+      <c r="Y49" t="n">
+        <v>124.1220131554372</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>124.1220086529746</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>120.3889817990946</v>
+      </c>
+      <c r="AB49" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z49" t="n">
+      <c r="AC49" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5047,29 +5494,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S50" t="n">
+        <v>96.36795249673628</v>
+      </c>
+      <c r="T50" t="n">
+        <v>107.1294005367137</v>
+      </c>
+      <c r="U50" t="n">
+        <v>96.36796488922003</v>
+      </c>
+      <c r="V50" t="n">
         <v>513.1766325301035</v>
       </c>
-      <c r="T50" t="n">
-        <v>584.6750077407163</v>
-      </c>
-      <c r="U50" t="n">
+      <c r="W50" t="n">
+        <v>570.4832736200481</v>
+      </c>
+      <c r="X50" t="n">
         <v>513.1766985223023</v>
       </c>
-      <c r="V50" t="n">
-        <v>98.72581894307027</v>
-      </c>
-      <c r="W50" t="n">
-        <v>98.725831638765</v>
-      </c>
-      <c r="X50" t="n">
-        <v>112.4808015325252</v>
-      </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Y50" t="n">
+        <v>96.72893749195637</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>96.72894993086118</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>107.5306968716336</v>
+      </c>
+      <c r="AB50" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z50" t="n">
+      <c r="AC50" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5139,29 +5595,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S51" t="n">
+        <v>166.1877603330804</v>
+      </c>
+      <c r="T51" t="n">
+        <v>149.3033931364253</v>
+      </c>
+      <c r="U51" t="n">
+        <v>166.1877816037669</v>
+      </c>
+      <c r="V51" t="n">
         <v>884.9796328124585</v>
       </c>
-      <c r="T51" t="n">
-        <v>776.0213807060622</v>
-      </c>
-      <c r="U51" t="n">
+      <c r="W51" t="n">
+        <v>795.0673489473978</v>
+      </c>
+      <c r="X51" t="n">
         <v>884.9797460826793</v>
       </c>
-      <c r="V51" t="n">
-        <v>170.2539310229063</v>
-      </c>
-      <c r="W51" t="n">
-        <v>170.2539528140297</v>
-      </c>
-      <c r="X51" t="n">
-        <v>149.2923517382563</v>
-      </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Y51" t="n">
+        <v>166.8102835507601</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>166.8103049011245</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>149.8626691536211</v>
+      </c>
+      <c r="AB51" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z51" t="n">
+      <c r="AC51" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5231,29 +5696,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
+        <v>128.282798228615</v>
+      </c>
+      <c r="T52" t="n">
+        <v>130.5655348400107</v>
+      </c>
+      <c r="U52" t="n">
+        <v>128.282806079304</v>
+      </c>
+      <c r="V52" t="n">
         <v>683.128910606759</v>
       </c>
-      <c r="T52" t="n">
-        <v>688.1701742747504</v>
-      </c>
-      <c r="U52" t="n">
+      <c r="W52" t="n">
+        <v>695.2848925160866</v>
+      </c>
+      <c r="X52" t="n">
         <v>683.1289524130859</v>
       </c>
-      <c r="V52" t="n">
-        <v>131.4215357211992</v>
-      </c>
-      <c r="W52" t="n">
-        <v>131.4215437639736</v>
-      </c>
-      <c r="X52" t="n">
-        <v>132.391382850981</v>
-      </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Y52" t="n">
+        <v>128.7633331378416</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>128.7633410179385</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>131.0546206589891</v>
+      </c>
+      <c r="AB52" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z52" t="n">
+      <c r="AC52" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5323,29 +5797,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S53" t="n">
+        <v>169.5358709360638</v>
+      </c>
+      <c r="T53" t="n">
+        <v>154.5566993062577</v>
+      </c>
+      <c r="U53" t="n">
+        <v>169.5358441687618</v>
+      </c>
+      <c r="V53" t="n">
         <v>902.8089223227398</v>
       </c>
-      <c r="T53" t="n">
-        <v>858.4302536714081</v>
-      </c>
-      <c r="U53" t="n">
+      <c r="W53" t="n">
+        <v>823.042146585394</v>
+      </c>
+      <c r="X53" t="n">
         <v>902.8087797820552</v>
       </c>
-      <c r="V53" t="n">
-        <v>173.683960951193</v>
-      </c>
-      <c r="W53" t="n">
-        <v>173.6839335289665</v>
-      </c>
-      <c r="X53" t="n">
-        <v>165.1463149858949</v>
-      </c>
-      <c r="Y53" t="inlineStr">
+      <c r="Y53" t="n">
+        <v>170.1709358510475</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>170.1709089834777</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>155.1356536984058</v>
+      </c>
+      <c r="AB53" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z53" t="n">
+      <c r="AC53" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5415,29 +5898,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
+        <v>150.6526420559427</v>
+      </c>
+      <c r="T54" t="n">
+        <v>135.6163633135032</v>
+      </c>
+      <c r="U54" t="n">
+        <v>150.6526784838332</v>
+      </c>
+      <c r="V54" t="n">
         <v>802.2523414581214</v>
       </c>
-      <c r="T54" t="n">
-        <v>671.4510118100247</v>
-      </c>
-      <c r="U54" t="n">
+      <c r="W54" t="n">
+        <v>722.1814601027208</v>
+      </c>
+      <c r="X54" t="n">
         <v>802.2525354431725</v>
       </c>
-      <c r="V54" t="n">
-        <v>154.3387098881642</v>
-      </c>
-      <c r="W54" t="n">
-        <v>154.3387472073479</v>
-      </c>
-      <c r="X54" t="n">
-        <v>129.1749211071282</v>
-      </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Y54" t="n">
+        <v>151.2169722286139</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>151.2170087929598</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>136.1243690456386</v>
+      </c>
+      <c r="AB54" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z54" t="n">
+      <c r="AC54" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5507,29 +5999,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
+        <v>102.0519678535106</v>
+      </c>
+      <c r="T55" t="n">
+        <v>71.34285728964673</v>
+      </c>
+      <c r="U55" t="n">
+        <v>102.0519681292183</v>
+      </c>
+      <c r="V55" t="n">
         <v>543.4450338447174</v>
       </c>
-      <c r="T55" t="n">
-        <v>421.636698292697</v>
-      </c>
-      <c r="U55" t="n">
+      <c r="W55" t="n">
+        <v>379.913511810024</v>
+      </c>
+      <c r="X55" t="n">
         <v>543.44503531291</v>
       </c>
-      <c r="V55" t="n">
-        <v>104.5489069764239</v>
-      </c>
-      <c r="W55" t="n">
-        <v>104.5489072588774</v>
-      </c>
-      <c r="X55" t="n">
-        <v>81.11520614290032</v>
-      </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Y55" t="n">
+        <v>102.4342446184865</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>102.4342448952269</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>71.61010070750979</v>
+      </c>
+      <c r="AB55" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z55" t="n">
+      <c r="AC55" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5599,29 +6100,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S56" t="n">
+        <v>153.7109530585857</v>
+      </c>
+      <c r="T56" t="n">
+        <v>169.237977649237</v>
+      </c>
+      <c r="U56" t="n">
+        <v>153.7109447850978</v>
+      </c>
+      <c r="V56" t="n">
         <v>818.53839611534</v>
       </c>
-      <c r="T56" t="n">
-        <v>862.3887141720293</v>
-      </c>
-      <c r="U56" t="n">
+      <c r="W56" t="n">
+        <v>901.2225871373755</v>
+      </c>
+      <c r="X56" t="n">
         <v>818.5383520575333</v>
       </c>
-      <c r="V56" t="n">
-        <v>157.4718495938019</v>
-      </c>
-      <c r="W56" t="n">
-        <v>157.4718411178839</v>
-      </c>
-      <c r="X56" t="n">
-        <v>165.9078505467619</v>
-      </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Y56" t="n">
+        <v>154.28673936739</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>154.2867310629105</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>169.871926684886</v>
+      </c>
+      <c r="AB56" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z56" t="n">
+      <c r="AC56" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5691,29 +6201,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S57" t="n">
+        <v>151.4488057950835</v>
+      </c>
+      <c r="T57" t="n">
+        <v>160.7782081710266</v>
+      </c>
+      <c r="U57" t="n">
+        <v>151.4513975732121</v>
+      </c>
+      <c r="V57" t="n">
         <v>806.4920561766497</v>
       </c>
-      <c r="T57" t="n">
-        <v>894.6357019641061</v>
-      </c>
-      <c r="U57" t="n">
+      <c r="W57" t="n">
+        <v>856.1727972400961</v>
+      </c>
+      <c r="X57" t="n">
         <v>806.5058578600709</v>
       </c>
-      <c r="V57" t="n">
-        <v>155.1543536278412</v>
-      </c>
-      <c r="W57" t="n">
-        <v>155.1570088198592</v>
-      </c>
-      <c r="X57" t="n">
-        <v>172.1115825104016</v>
-      </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Y57" t="n">
+        <v>152.0161183198347</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>152.0187198065126</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>161.3804677314347</v>
+      </c>
+      <c r="AB57" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z57" t="n">
+      <c r="AC57" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5783,29 +6302,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S58" t="n">
+        <v>128.4136371924826</v>
+      </c>
+      <c r="T58" t="n">
+        <v>120.6221698026034</v>
+      </c>
+      <c r="U58" t="n">
+        <v>128.4136733627494</v>
+      </c>
+      <c r="V58" t="n">
         <v>683.8256515578918</v>
       </c>
-      <c r="T58" t="n">
-        <v>685.2808607574233</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="W58" t="n">
+        <v>642.3346901540815</v>
+      </c>
+      <c r="X58" t="n">
         <v>683.8258441710507</v>
       </c>
-      <c r="V58" t="n">
-        <v>131.5555759651063</v>
-      </c>
-      <c r="W58" t="n">
-        <v>131.555613020363</v>
-      </c>
-      <c r="X58" t="n">
-        <v>131.8355316584295</v>
-      </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Y58" t="n">
+        <v>128.8946622117668</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>128.894698517524</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>121.0740087413948</v>
+      </c>
+      <c r="AB58" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z58" t="n">
+      <c r="AC58" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5875,29 +6403,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S59" t="n">
+        <v>132.1131426406206</v>
+      </c>
+      <c r="T59" t="n">
+        <v>144.648734355296</v>
+      </c>
+      <c r="U59" t="n">
+        <v>132.1164615225414</v>
+      </c>
+      <c r="V59" t="n">
         <v>703.5261816481888</v>
       </c>
-      <c r="T59" t="n">
-        <v>750.8635195507406</v>
-      </c>
-      <c r="U59" t="n">
-        <v>703.5438552897234</v>
-      </c>
-      <c r="V59" t="n">
-        <v>135.3455984320063</v>
-      </c>
       <c r="W59" t="n">
-        <v>135.3489985181045</v>
+        <v>770.2804560334129</v>
       </c>
       <c r="X59" t="n">
-        <v>144.4524383673576</v>
-      </c>
-      <c r="Y59" t="inlineStr">
+        <v>703.5438552897238</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>132.6080256481874</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>132.6113569623177</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>145.1905744725446</v>
+      </c>
+      <c r="AB59" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z59" t="n">
+      <c r="AC59" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5967,29 +6504,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S60" t="n">
+        <v>134.0967986485918</v>
+      </c>
+      <c r="T60" t="n">
+        <v>144.6198457251306</v>
+      </c>
+      <c r="U60" t="n">
+        <v>134.0967931066156</v>
+      </c>
+      <c r="V60" t="n">
         <v>714.0895056982999</v>
       </c>
-      <c r="T60" t="n">
-        <v>793.8413371373751</v>
-      </c>
-      <c r="U60" t="n">
+      <c r="W60" t="n">
+        <v>770.1266188960387</v>
+      </c>
+      <c r="X60" t="n">
         <v>714.0894761862829</v>
       </c>
-      <c r="V60" t="n">
-        <v>137.3777892051259</v>
-      </c>
-      <c r="W60" t="n">
-        <v>137.3777835275524</v>
-      </c>
-      <c r="X60" t="n">
-        <v>152.7205861524723</v>
-      </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Y60" t="n">
+        <v>134.5991122390028</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>134.5991066762669</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>145.1615776283749</v>
+      </c>
+      <c r="AB60" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z60" t="n">
+      <c r="AC60" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6059,29 +6605,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S61" t="n">
+        <v>148.6912733137501</v>
+      </c>
+      <c r="T61" t="n">
+        <v>168.5005727197967</v>
+      </c>
+      <c r="U61" t="n">
+        <v>148.6912866347793</v>
+      </c>
+      <c r="V61" t="n">
         <v>791.80770109594</v>
       </c>
-      <c r="T61" t="n">
-        <v>834.9326665340342</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="W61" t="n">
+        <v>897.2957736200489</v>
+      </c>
+      <c r="X61" t="n">
         <v>791.8077720328102</v>
       </c>
-      <c r="V61" t="n">
-        <v>152.3293516906985</v>
-      </c>
-      <c r="W61" t="n">
-        <v>152.3293653376577</v>
-      </c>
-      <c r="X61" t="n">
-        <v>160.6258080370768</v>
-      </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Y61" t="n">
+        <v>149.2482563895112</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>149.2482697604398</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>169.1317595081629</v>
+      </c>
+      <c r="AB61" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z61" t="n">
+      <c r="AC61" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6151,29 +6706,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S62" t="n">
+        <v>139.9372559195478</v>
+      </c>
+      <c r="T62" t="n">
+        <v>130.2803711802376</v>
+      </c>
+      <c r="U62" t="n">
+        <v>139.9372601068099</v>
+      </c>
+      <c r="V62" t="n">
         <v>745.1909882668612</v>
       </c>
-      <c r="T62" t="n">
-        <v>694.9516266367546</v>
-      </c>
-      <c r="U62" t="n">
+      <c r="W62" t="n">
+        <v>693.7663448780911</v>
+      </c>
+      <c r="X62" t="n">
         <v>745.1910105647829</v>
       </c>
-      <c r="V62" t="n">
-        <v>143.361146868522</v>
-      </c>
-      <c r="W62" t="n">
-        <v>143.3611511582353</v>
-      </c>
-      <c r="X62" t="n">
-        <v>133.6960105281249</v>
-      </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Y62" t="n">
+        <v>140.4614472959387</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>140.4614514988859</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>130.7683888038284</v>
+      </c>
+      <c r="AB62" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z62" t="n">
+      <c r="AC62" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6243,29 +6807,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S63" t="n">
+        <v>112.8503285653132</v>
+      </c>
+      <c r="T63" t="n">
+        <v>72.31757144086347</v>
+      </c>
+      <c r="U63" t="n">
+        <v>112.850341470895</v>
+      </c>
+      <c r="V63" t="n">
         <v>600.9482415331438</v>
       </c>
-      <c r="T63" t="n">
-        <v>444.4270236200483</v>
-      </c>
-      <c r="U63" t="n">
+      <c r="W63" t="n">
+        <v>385.10403949938</v>
+      </c>
+      <c r="X63" t="n">
         <v>600.9483102576817</v>
       </c>
-      <c r="V63" t="n">
-        <v>115.6114747377499</v>
-      </c>
-      <c r="W63" t="n">
-        <v>115.6114879590968</v>
-      </c>
-      <c r="X63" t="n">
-        <v>85.49964882656006</v>
-      </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Y63" t="n">
+        <v>113.2730549412744</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>113.2730678951992</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>72.58846604331748</v>
+      </c>
+      <c r="AB63" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z63" t="n">
+      <c r="AC63" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6335,29 +6908,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S64" t="n">
+        <v>155.1349261705808</v>
+      </c>
+      <c r="T64" t="n">
+        <v>166.2535264060387</v>
+      </c>
+      <c r="U64" t="n">
+        <v>155.1349103138343</v>
+      </c>
+      <c r="V64" t="n">
         <v>826.1213083542591</v>
       </c>
-      <c r="T64" t="n">
-        <v>890.1840830680668</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="W64" t="n">
+        <v>885.3298489473984</v>
+      </c>
+      <c r="X64" t="n">
         <v>826.1212239142401</v>
       </c>
-      <c r="V64" t="n">
-        <v>158.9306635251178</v>
-      </c>
-      <c r="W64" t="n">
-        <v>158.9306472803991</v>
-      </c>
-      <c r="X64" t="n">
-        <v>171.2551722740914</v>
-      </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Y64" t="n">
+        <v>155.7160465444318</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>155.7160306282875</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>166.8762959770436</v>
+      </c>
+      <c r="AB64" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z64" t="n">
+      <c r="AC64" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6427,29 +7009,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S65" t="n">
+        <v>154.7858780452867</v>
+      </c>
+      <c r="T65" t="n">
+        <v>179.7876386536453</v>
+      </c>
+      <c r="U65" t="n">
+        <v>155.2819605154788</v>
+      </c>
+      <c r="V65" t="n">
         <v>824.2625644784316</v>
       </c>
-      <c r="T65" t="n">
-        <v>933.1302536714082</v>
-      </c>
-      <c r="U65" t="n">
-        <v>826.9042926143389</v>
-      </c>
-      <c r="V65" t="n">
-        <v>158.5730751243332</v>
-      </c>
       <c r="W65" t="n">
-        <v>159.0812954077794</v>
+        <v>957.40142427475</v>
       </c>
       <c r="X65" t="n">
-        <v>179.5172317571584</v>
-      </c>
-      <c r="Y65" t="inlineStr">
+        <v>826.9042926143387</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>155.3656909187439</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>155.8636316657126</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>180.4611056953179</v>
+      </c>
+      <c r="AB65" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z65" t="n">
+      <c r="AC65" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6519,29 +7110,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S66" t="n">
+        <v>128.0406726662717</v>
+      </c>
+      <c r="T66" t="n">
+        <v>145.3572506545711</v>
+      </c>
+      <c r="U66" t="n">
+        <v>128.040682502547</v>
+      </c>
+      <c r="V66" t="n">
         <v>681.8395485573058</v>
       </c>
-      <c r="T66" t="n">
-        <v>725.6965753273511</v>
-      </c>
-      <c r="U66" t="n">
-        <v>681.8396009372368</v>
-      </c>
-      <c r="V66" t="n">
-        <v>131.1734859929433</v>
-      </c>
       <c r="W66" t="n">
-        <v>131.1734960698861</v>
+        <v>774.0534324133666</v>
       </c>
       <c r="X66" t="n">
-        <v>139.6107775799231</v>
-      </c>
-      <c r="Y66" t="inlineStr">
+        <v>681.8396009372365</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>128.5203005966459</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>128.520310469767</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>145.9017448050982</v>
+      </c>
+      <c r="AB66" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z66" t="n">
+      <c r="AC66" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6611,29 +7211,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S67" t="n">
+        <v>127.8649067072094</v>
+      </c>
+      <c r="T67" t="n">
+        <v>135.3442225662903</v>
+      </c>
+      <c r="U67" t="n">
+        <v>127.8649118766067</v>
+      </c>
+      <c r="V67" t="n">
         <v>680.9035632982227</v>
       </c>
-      <c r="T67" t="n">
-        <v>712.4322618100241</v>
-      </c>
-      <c r="U67" t="n">
+      <c r="W67" t="n">
+        <v>720.7322618100241</v>
+      </c>
+      <c r="X67" t="n">
         <v>680.9035908261903</v>
       </c>
-      <c r="V67" t="n">
-        <v>130.993419510247</v>
-      </c>
-      <c r="W67" t="n">
-        <v>130.9934248061256</v>
-      </c>
-      <c r="X67" t="n">
-        <v>137.0589657246962</v>
-      </c>
-      <c r="Y67" t="inlineStr">
+      <c r="Y67" t="n">
+        <v>128.3438762353634</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>128.3438814241247</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>135.8512088856044</v>
+      </c>
+      <c r="AB67" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z67" t="n">
+      <c r="AC67" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6703,29 +7312,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S68" t="n">
+        <v>137.5223119684616</v>
+      </c>
+      <c r="T68" t="n">
+        <v>149.665299864361</v>
+      </c>
+      <c r="U68" t="n">
+        <v>137.5223104096348</v>
+      </c>
+      <c r="V68" t="n">
         <v>732.3309785596989</v>
       </c>
-      <c r="T68" t="n">
-        <v>796.8090830680666</v>
-      </c>
-      <c r="U68" t="n">
+      <c r="W68" t="n">
+        <v>796.9945671887351</v>
+      </c>
+      <c r="X68" t="n">
         <v>732.3309702586666</v>
       </c>
-      <c r="V68" t="n">
-        <v>140.8871156880767</v>
-      </c>
-      <c r="W68" t="n">
-        <v>140.8871140911096</v>
-      </c>
-      <c r="X68" t="n">
-        <v>153.2915263100121</v>
-      </c>
-      <c r="Y68" t="inlineStr">
+      <c r="Y68" t="n">
+        <v>138.0374571992402</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>138.0374556345742</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>150.2259315490279</v>
+      </c>
+      <c r="AB68" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z68" t="n">
+      <c r="AC68" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6795,29 +7413,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S69" t="n">
+        <v>142.2383720902759</v>
+      </c>
+      <c r="T69" t="n">
+        <v>145.3920821800079</v>
+      </c>
+      <c r="U69" t="n">
+        <v>142.2391787457397</v>
+      </c>
+      <c r="V69" t="n">
         <v>757.4448446263683</v>
       </c>
-      <c r="T69" t="n">
-        <v>749.9677459306924</v>
-      </c>
-      <c r="U69" t="n">
+      <c r="W69" t="n">
+        <v>774.2389165340358</v>
+      </c>
+      <c r="X69" t="n">
         <v>757.4491402114021</v>
       </c>
-      <c r="V69" t="n">
-        <v>145.7185652068018</v>
-      </c>
-      <c r="W69" t="n">
-        <v>145.7193915989705</v>
-      </c>
-      <c r="X69" t="n">
-        <v>144.2801078701742</v>
-      </c>
-      <c r="Y69" t="inlineStr">
+      <c r="Y69" t="n">
+        <v>142.7711832244635</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>142.7719929015803</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>145.9367068060481</v>
+      </c>
+      <c r="AB69" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z69" t="n">
+      <c r="AC69" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6887,29 +7514,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S70" t="n">
+        <v>151.1171136528311</v>
+      </c>
+      <c r="T70" t="n">
+        <v>172.0423283699809</v>
+      </c>
+      <c r="U70" t="n">
+        <v>151.1171114806128</v>
+      </c>
+      <c r="V70" t="n">
         <v>804.7257360236555</v>
       </c>
-      <c r="T70" t="n">
-        <v>882.3621030167063</v>
-      </c>
-      <c r="U70" t="n">
+      <c r="W70" t="n">
+        <v>916.1562577407166</v>
+      </c>
+      <c r="X70" t="n">
         <v>804.7257244562038</v>
       </c>
-      <c r="V70" t="n">
-        <v>154.814545864654</v>
-      </c>
-      <c r="W70" t="n">
-        <v>154.8145436392874</v>
-      </c>
-      <c r="X70" t="n">
-        <v>169.7503660585013</v>
-      </c>
-      <c r="Y70" t="inlineStr">
+      <c r="Y70" t="n">
+        <v>151.6831836910161</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>151.683181510661</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>172.6867822311999</v>
+      </c>
+      <c r="AB70" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z70" t="n">
+      <c r="AC70" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6979,29 +7615,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S71" t="n">
+        <v>160.6682516331869</v>
+      </c>
+      <c r="T71" t="n">
+        <v>179.6134810264621</v>
+      </c>
+      <c r="U71" t="n">
+        <v>160.6682393357454</v>
+      </c>
+      <c r="V71" t="n">
         <v>855.5872589532352</v>
       </c>
-      <c r="T71" t="n">
-        <v>970.4802536714087</v>
-      </c>
-      <c r="U71" t="n">
+      <c r="W71" t="n">
+        <v>956.4740036714086</v>
+      </c>
+      <c r="X71" t="n">
         <v>855.5871934671532</v>
       </c>
-      <c r="V71" t="n">
-        <v>164.5993746850113</v>
-      </c>
-      <c r="W71" t="n">
-        <v>164.5993620866842</v>
-      </c>
-      <c r="X71" t="n">
-        <v>186.7026901427901</v>
-      </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Y71" t="n">
+        <v>161.2700993070782</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>161.2700869635717</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>180.2862956905694</v>
+      </c>
+      <c r="AB71" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z71" t="n">
+      <c r="AC71" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7071,29 +7716,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
+        <v>143.9960367554822</v>
+      </c>
+      <c r="T72" t="n">
+        <v>126.3684916628106</v>
+      </c>
+      <c r="U72" t="n">
+        <v>143.9960184935385</v>
+      </c>
+      <c r="V72" t="n">
         <v>766.8047242402704</v>
       </c>
-      <c r="T72" t="n">
-        <v>657.2592776893558</v>
-      </c>
-      <c r="U72" t="n">
+      <c r="W72" t="n">
+        <v>672.9348847753704</v>
+      </c>
+      <c r="X72" t="n">
         <v>766.804626992145</v>
       </c>
-      <c r="V72" t="n">
-        <v>147.5192352325103</v>
-      </c>
-      <c r="W72" t="n">
-        <v>147.5192165237457</v>
-      </c>
-      <c r="X72" t="n">
-        <v>126.44469045267</v>
-      </c>
-      <c r="Y72" t="inlineStr">
+      <c r="Y72" t="n">
+        <v>144.5354319308819</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>144.5354136005308</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>126.8418557654714</v>
+      </c>
+      <c r="AB72" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z72" t="n">
+      <c r="AC72" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7163,29 +7817,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
+        <v>136.1843117549759</v>
+      </c>
+      <c r="T73" t="n">
+        <v>143.9461609512923</v>
+      </c>
+      <c r="U73" t="n">
+        <v>136.1972742453382</v>
+      </c>
+      <c r="V73" t="n">
         <v>725.2058874262708</v>
       </c>
-      <c r="T73" t="n">
-        <v>762.0558607574235</v>
-      </c>
-      <c r="U73" t="n">
-        <v>725.2749150125262</v>
-      </c>
-      <c r="V73" t="n">
-        <v>139.5163781825055</v>
-      </c>
       <c r="W73" t="n">
-        <v>139.5296578303904</v>
+        <v>766.5391266367542</v>
       </c>
       <c r="X73" t="n">
-        <v>146.6056405622281</v>
-      </c>
-      <c r="Y73" t="inlineStr">
+        <v>725.2749150125272</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>136.69444496684</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>136.7074560134329</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>144.4853692967712</v>
+      </c>
+      <c r="AB73" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z73" t="n">
+      <c r="AC73" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7255,29 +7918,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S74" t="n">
+        <v>123.2664893679007</v>
+      </c>
+      <c r="T74" t="n">
+        <v>132.0958477151865</v>
+      </c>
+      <c r="U74" t="n">
+        <v>123.2664907229534</v>
+      </c>
+      <c r="V74" t="n">
         <v>656.4161661499392</v>
       </c>
-      <c r="T74" t="n">
-        <v>731.0756148267307</v>
-      </c>
-      <c r="U74" t="n">
+      <c r="W74" t="n">
+        <v>703.4340830680674</v>
+      </c>
+      <c r="X74" t="n">
         <v>656.4161733658381</v>
       </c>
-      <c r="V74" t="n">
-        <v>126.2824911787496</v>
-      </c>
-      <c r="W74" t="n">
-        <v>126.2824925669569</v>
-      </c>
-      <c r="X74" t="n">
-        <v>140.6456066154643</v>
-      </c>
-      <c r="Y74" t="inlineStr">
+      <c r="Y74" t="n">
+        <v>123.7282336710888</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>123.7282350312175</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>132.5906659376415</v>
+      </c>
+      <c r="AB74" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z74" t="n">
+      <c r="AC74" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7347,29 +8019,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S75" t="n">
+        <v>133.9093135460643</v>
+      </c>
+      <c r="T75" t="n">
+        <v>152.4348190596679</v>
+      </c>
+      <c r="U75" t="n">
+        <v>133.9148791591713</v>
+      </c>
+      <c r="V75" t="n">
         <v>713.0911138982055</v>
       </c>
-      <c r="T75" t="n">
-        <v>782.9883171887344</v>
-      </c>
-      <c r="U75" t="n">
-        <v>713.1207517863018</v>
-      </c>
-      <c r="V75" t="n">
-        <v>137.1857168428197</v>
-      </c>
       <c r="W75" t="n">
-        <v>137.1914186316164</v>
+        <v>811.7427536714067</v>
       </c>
       <c r="X75" t="n">
-        <v>150.6326631752464</v>
-      </c>
-      <c r="Y75" t="inlineStr">
+        <v>713.1207517863028</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>134.4109248354812</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>134.4165112968347</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>153.0058250943919</v>
+      </c>
+      <c r="AB75" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z75" t="n">
+      <c r="AC75" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7439,29 +8120,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S76" t="n">
+        <v>99.92224303699318</v>
+      </c>
+      <c r="T76" t="n">
+        <v>98.45005156670148</v>
+      </c>
+      <c r="U76" t="n">
+        <v>99.92388500113032</v>
+      </c>
+      <c r="V76" t="n">
         <v>494.096448103874</v>
       </c>
-      <c r="T76" t="n">
-        <v>510.3459759820526</v>
-      </c>
-      <c r="U76" t="n">
-        <v>494.1045673035982</v>
-      </c>
-      <c r="V76" t="n">
-        <v>102.3670734810906</v>
-      </c>
       <c r="W76" t="n">
-        <v>102.3687556197054</v>
+        <v>486.8167418613845</v>
       </c>
       <c r="X76" t="n">
-        <v>105.733656302566</v>
-      </c>
-      <c r="Y76" t="inlineStr">
+        <v>494.1045673035979</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>104.8786175851106</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>104.8803409944696</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>103.3334020101597</v>
+      </c>
+      <c r="AB76" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z76" t="n">
+      <c r="AC76" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7531,29 +8221,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S77" t="n">
+        <v>93.16987866025877</v>
+      </c>
+      <c r="T77" t="n">
+        <v>99.28169082579984</v>
+      </c>
+      <c r="U77" t="n">
+        <v>93.16986909818462</v>
+      </c>
+      <c r="V77" t="n">
         <v>460.707293162542</v>
       </c>
-      <c r="T77" t="n">
-        <v>481.5915394993799</v>
-      </c>
-      <c r="U77" t="n">
+      <c r="W77" t="n">
+        <v>490.9290394993801</v>
+      </c>
+      <c r="X77" t="n">
         <v>460.7072458799078</v>
       </c>
-      <c r="V77" t="n">
-        <v>95.4494967802917</v>
-      </c>
-      <c r="W77" t="n">
-        <v>95.44948698425914</v>
-      </c>
-      <c r="X77" t="n">
-        <v>99.77630217944898</v>
-      </c>
-      <c r="Y77" t="inlineStr">
+      <c r="Y77" t="n">
+        <v>97.79132030535807</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>97.79131026898291</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>104.2062925015336</v>
+      </c>
+      <c r="AB77" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z77" t="n">
+      <c r="AC77" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7623,29 +8322,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S78" t="n">
+        <v>110.0196575904515</v>
+      </c>
+      <c r="T78" t="n">
+        <v>124.3394503642144</v>
+      </c>
+      <c r="U78" t="n">
+        <v>110.0206113276522</v>
+      </c>
+      <c r="V78" t="n">
         <v>544.0262386516007</v>
       </c>
-      <c r="T78" t="n">
-        <v>587.3034324133653</v>
-      </c>
-      <c r="U78" t="n">
+      <c r="W78" t="n">
+        <v>614.8348847753707</v>
+      </c>
+      <c r="X78" t="n">
         <v>544.0309547002901</v>
       </c>
-      <c r="V78" t="n">
-        <v>112.711544803459</v>
-      </c>
-      <c r="W78" t="n">
-        <v>112.7125218760621</v>
-      </c>
-      <c r="X78" t="n">
-        <v>121.6777288164527</v>
-      </c>
-      <c r="Y78" t="inlineStr">
+      <c r="Y78" t="n">
+        <v>115.4768872732562</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>115.4778883180297</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>130.5069749151189</v>
+      </c>
+      <c r="AB78" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z78" t="n">
+      <c r="AC78" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7715,29 +8423,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S79" t="n">
+        <v>75.30618550066463</v>
+      </c>
+      <c r="T79" t="n">
+        <v>90.49930618777218</v>
+      </c>
+      <c r="U79" t="n">
+        <v>75.30617977808573</v>
+      </c>
+      <c r="V79" t="n">
         <v>372.3747350462752</v>
       </c>
-      <c r="T79" t="n">
-        <v>433.1246030167073</v>
-      </c>
-      <c r="U79" t="n">
+      <c r="W79" t="n">
+        <v>447.5018212580423</v>
+      </c>
+      <c r="X79" t="n">
         <v>372.3747067492133</v>
       </c>
-      <c r="V79" t="n">
-        <v>77.14872675419424</v>
-      </c>
-      <c r="W79" t="n">
-        <v>77.14872089159915</v>
-      </c>
-      <c r="X79" t="n">
-        <v>89.73490546962675</v>
-      </c>
-      <c r="Y79" t="inlineStr">
+      <c r="Y79" t="n">
+        <v>79.04154661533775</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>79.04154060890572</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>94.98828125656938</v>
+      </c>
+      <c r="AB79" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z79" t="n">
+      <c r="AC79" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7807,29 +8524,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S80" t="n">
+        <v>155.632536619942</v>
+      </c>
+      <c r="T80" t="n">
+        <v>145.8667006235602</v>
+      </c>
+      <c r="U80" t="n">
+        <v>155.6325250695893</v>
+      </c>
+      <c r="V80" t="n">
         <v>828.7711732533152</v>
       </c>
-      <c r="T80" t="n">
-        <v>791.9578766367545</v>
-      </c>
-      <c r="U80" t="n">
+      <c r="W80" t="n">
+        <v>776.7663448780913</v>
+      </c>
+      <c r="X80" t="n">
         <v>828.7711117456154</v>
       </c>
-      <c r="V80" t="n">
-        <v>159.4404491733029</v>
-      </c>
-      <c r="W80" t="n">
-        <v>159.4404373403439</v>
-      </c>
-      <c r="X80" t="n">
-        <v>152.3582427241406</v>
-      </c>
-      <c r="Y80" t="inlineStr">
+      <c r="Y80" t="n">
+        <v>156.2155209942313</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>156.2155094006121</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>146.4131031242167</v>
+      </c>
+      <c r="AB80" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z80" t="n">
+      <c r="AC80" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7899,29 +8625,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
+        <v>104.0247731660686</v>
+      </c>
+      <c r="T81" t="n">
+        <v>109.9893178003826</v>
+      </c>
+      <c r="U81" t="n">
+        <v>104.1011607942594</v>
+      </c>
+      <c r="V81" t="n">
         <v>514.3826777100772</v>
       </c>
-      <c r="T81" t="n">
-        <v>521.5699641720289</v>
-      </c>
-      <c r="U81" t="n">
-        <v>514.7603999731191</v>
-      </c>
-      <c r="V81" t="n">
-        <v>106.5699815665904</v>
-      </c>
       <c r="W81" t="n">
-        <v>106.6482381960493</v>
+        <v>543.876214172029</v>
       </c>
       <c r="X81" t="n">
-        <v>108.059046068478</v>
-      </c>
-      <c r="Y81" t="inlineStr">
+        <v>514.7603999731192</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>109.1846427048569</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>109.2648193362231</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>115.4450425593713</v>
+      </c>
+      <c r="AB81" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z81" t="n">
+      <c r="AC81" t="n">
         <v>700</v>
       </c>
     </row>
@@ -7991,29 +8726,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S82" t="n">
+        <v>122.5361790489141</v>
+      </c>
+      <c r="T82" t="n">
+        <v>131.9525978812192</v>
+      </c>
+      <c r="U82" t="n">
+        <v>122.5361659874053</v>
+      </c>
+      <c r="V82" t="n">
         <v>605.9180517982766</v>
       </c>
-      <c r="T82" t="n">
-        <v>622.7985912066823</v>
-      </c>
-      <c r="U82" t="n">
+      <c r="W82" t="n">
+        <v>652.4804482926974</v>
+      </c>
+      <c r="X82" t="n">
         <v>605.9179872116048</v>
       </c>
-      <c r="V82" t="n">
-        <v>125.534312116556</v>
-      </c>
-      <c r="W82" t="n">
-        <v>125.5342987354669</v>
-      </c>
-      <c r="X82" t="n">
-        <v>129.0316281257118</v>
-      </c>
-      <c r="Y82" t="inlineStr">
+      <c r="Y82" t="n">
+        <v>128.614257168485</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>128.6142434590951</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>138.4977521713838</v>
+      </c>
+      <c r="AB82" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z82" t="n">
+      <c r="AC82" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8083,29 +8827,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
+        <v>76.63952735675873</v>
+      </c>
+      <c r="T83" t="n">
+        <v>76.77160920623481</v>
+      </c>
+      <c r="U83" t="n">
+        <v>76.6395027019732</v>
+      </c>
+      <c r="V83" t="n">
         <v>378.9678564092576</v>
       </c>
-      <c r="T83" t="n">
-        <v>383.2522259820534</v>
-      </c>
-      <c r="U83" t="n">
+      <c r="W83" t="n">
+        <v>379.6209759820534</v>
+      </c>
+      <c r="X83" t="n">
         <v>378.967734496042</v>
       </c>
-      <c r="V83" t="n">
-        <v>78.51469192480864</v>
-      </c>
-      <c r="W83" t="n">
-        <v>78.51466666678633</v>
-      </c>
-      <c r="X83" t="n">
-        <v>79.40232909880898</v>
-      </c>
-      <c r="Y83" t="inlineStr">
+      <c r="Y83" t="n">
+        <v>80.44102531382678</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>80.44099943610681</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>80.57965872877131</v>
+      </c>
+      <c r="AB83" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z83" t="n">
+      <c r="AC83" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8175,29 +8928,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S84" t="n">
+        <v>109.9335361810218</v>
+      </c>
+      <c r="T84" t="n">
+        <v>115.298632020889</v>
+      </c>
+      <c r="U84" t="n">
+        <v>109.9389009866237</v>
+      </c>
+      <c r="V84" t="n">
         <v>585.4157989027905</v>
       </c>
-      <c r="T84" t="n">
-        <v>618.2836783440575</v>
-      </c>
-      <c r="U84" t="n">
+      <c r="W84" t="n">
+        <v>613.9858965853949</v>
+      </c>
+      <c r="X84" t="n">
         <v>585.4443674549038</v>
       </c>
-      <c r="V84" t="n">
-        <v>112.6233162331283</v>
-      </c>
-      <c r="W84" t="n">
-        <v>112.6288123011965</v>
-      </c>
-      <c r="X84" t="n">
-        <v>118.9464964191841</v>
-      </c>
-      <c r="Y84" t="inlineStr">
+      <c r="Y84" t="n">
+        <v>110.3453365358563</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>110.3507214374992</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>115.7305295039278</v>
+      </c>
+      <c r="AB84" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z84" t="n">
+      <c r="AC84" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8267,29 +9029,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S85" t="n">
+        <v>139.0069973009075</v>
+      </c>
+      <c r="T85" t="n">
+        <v>116.739178915342</v>
+      </c>
+      <c r="U85" t="n">
+        <v>139.0822775386679</v>
+      </c>
+      <c r="V85" t="n">
         <v>740.2371942624477</v>
       </c>
-      <c r="T85" t="n">
-        <v>658.3405354300733</v>
-      </c>
-      <c r="U85" t="n">
+      <c r="W85" t="n">
+        <v>621.6570671887356</v>
+      </c>
+      <c r="X85" t="n">
         <v>740.6380750315111</v>
       </c>
-      <c r="V85" t="n">
-        <v>142.4081273057455</v>
-      </c>
-      <c r="W85" t="n">
-        <v>142.4852494498875</v>
-      </c>
-      <c r="X85" t="n">
-        <v>126.6527047096998</v>
-      </c>
-      <c r="Y85" t="inlineStr">
+      <c r="Y85" t="n">
+        <v>139.527704018817</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>139.6032662490403</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>117.1764725472076</v>
+      </c>
+      <c r="AB85" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z85" t="n">
+      <c r="AC85" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8359,29 +9130,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S86" t="n">
+        <v>136.2947825283333</v>
+      </c>
+      <c r="T86" t="n">
+        <v>124.1775169263569</v>
+      </c>
+      <c r="U86" t="n">
+        <v>136.2947701092442</v>
+      </c>
+      <c r="V86" t="n">
         <v>725.7941641095018</v>
       </c>
-      <c r="T86" t="n">
-        <v>698.9508171887359</v>
-      </c>
-      <c r="U86" t="n">
+      <c r="W86" t="n">
+        <v>661.2675513094041</v>
+      </c>
+      <c r="X86" t="n">
         <v>725.7940979756243</v>
       </c>
-      <c r="V86" t="n">
-        <v>139.6295518806741</v>
-      </c>
-      <c r="W86" t="n">
-        <v>139.6295391577229</v>
-      </c>
-      <c r="X86" t="n">
-        <v>134.4653818075753</v>
-      </c>
-      <c r="Y86" t="inlineStr">
+      <c r="Y86" t="n">
+        <v>136.8053295529905</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>136.8053170873806</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>124.6426738503418</v>
+      </c>
+      <c r="AB86" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z86" t="n">
+      <c r="AC86" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8451,29 +9231,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S87" t="n">
+        <v>133.8207995698365</v>
+      </c>
+      <c r="T87" t="n">
+        <v>149.3866476608683</v>
+      </c>
+      <c r="U87" t="n">
+        <v>133.8208017725088</v>
+      </c>
+      <c r="V87" t="n">
         <v>712.6197610980723</v>
       </c>
-      <c r="T87" t="n">
-        <v>761.5310553787116</v>
-      </c>
-      <c r="U87" t="n">
+      <c r="W87" t="n">
+        <v>795.5106942233913</v>
+      </c>
+      <c r="X87" t="n">
         <v>712.6197728276979</v>
       </c>
-      <c r="V87" t="n">
-        <v>137.0950371659708</v>
-      </c>
-      <c r="W87" t="n">
-        <v>137.0950394225367</v>
-      </c>
-      <c r="X87" t="n">
-        <v>146.5046775847371</v>
-      </c>
-      <c r="Y87" t="inlineStr">
+      <c r="Y87" t="n">
+        <v>134.3220792944908</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>134.3220815054142</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>149.946235541431</v>
+      </c>
+      <c r="AB87" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z87" t="n">
+      <c r="AC87" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8543,29 +9332,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S88" t="n">
+        <v>143.8053221538262</v>
+      </c>
+      <c r="T88" t="n">
+        <v>148.9981265468029</v>
+      </c>
+      <c r="U88" t="n">
+        <v>143.8144671274709</v>
+      </c>
+      <c r="V88" t="n">
         <v>765.789134778043</v>
       </c>
-      <c r="T88" t="n">
-        <v>745.6413448780918</v>
-      </c>
-      <c r="U88" t="n">
+      <c r="W88" t="n">
+        <v>793.4417496021005</v>
+      </c>
+      <c r="X88" t="n">
         <v>765.8378334030316</v>
       </c>
-      <c r="V88" t="n">
-        <v>147.3238543538565</v>
-      </c>
-      <c r="W88" t="n">
-        <v>147.3332230805846</v>
-      </c>
-      <c r="X88" t="n">
-        <v>143.4477872617936</v>
-      </c>
-      <c r="Y88" t="inlineStr">
+      <c r="Y88" t="n">
+        <v>144.3440029308416</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>144.3531821606698</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>149.5562590649876</v>
+      </c>
+      <c r="AB88" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z88" t="n">
+      <c r="AC88" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8635,29 +9433,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
+        <v>128.6232272953374</v>
+      </c>
+      <c r="T89" t="n">
+        <v>94.15259269609346</v>
+      </c>
+      <c r="U89" t="n">
+        <v>128.6232267328338</v>
+      </c>
+      <c r="V89" t="n">
         <v>684.9417564496953</v>
       </c>
-      <c r="T89" t="n">
-        <v>616.2086783440584</v>
-      </c>
-      <c r="U89" t="n">
+      <c r="W89" t="n">
+        <v>501.3794442233897</v>
+      </c>
+      <c r="X89" t="n">
         <v>684.9417534542627</v>
       </c>
-      <c r="V89" t="n">
-        <v>131.7702941780663</v>
-      </c>
-      <c r="W89" t="n">
-        <v>131.7702936017997</v>
-      </c>
-      <c r="X89" t="n">
-        <v>118.5473042866492</v>
-      </c>
-      <c r="Y89" t="inlineStr">
+      <c r="Y89" t="n">
+        <v>129.1050374188012</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>129.1050368541905</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>94.50527916855442</v>
+      </c>
+      <c r="AB89" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z89" t="n">
+      <c r="AC89" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8727,29 +9534,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S90" t="n">
+        <v>155.1858456411894</v>
+      </c>
+      <c r="T90" t="n">
+        <v>180.2812229050282</v>
+      </c>
+      <c r="U90" t="n">
+        <v>155.1857953755431</v>
+      </c>
+      <c r="V90" t="n">
         <v>826.3924636686571</v>
       </c>
-      <c r="T90" t="n">
-        <v>897.8522259820523</v>
-      </c>
-      <c r="U90" t="n">
+      <c r="W90" t="n">
+        <v>960.0298489473935</v>
+      </c>
+      <c r="X90" t="n">
         <v>826.3921959950745</v>
       </c>
-      <c r="V90" t="n">
-        <v>158.9828288591914</v>
-      </c>
-      <c r="W90" t="n">
-        <v>158.982777363679</v>
-      </c>
-      <c r="X90" t="n">
-        <v>172.7303830318831</v>
-      </c>
-      <c r="Y90" t="inlineStr">
+      <c r="Y90" t="n">
+        <v>155.7671567544343</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>155.7671063004978</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>180.9565388653922</v>
+      </c>
+      <c r="AB90" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z90" t="n">
+      <c r="AC90" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8819,29 +9635,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S91" t="n">
+        <v>134.1714837853786</v>
+      </c>
+      <c r="T91" t="n">
+        <v>138.3085708796391</v>
+      </c>
+      <c r="U91" t="n">
+        <v>134.1715019998045</v>
+      </c>
+      <c r="V91" t="n">
         <v>714.4872174479358</v>
       </c>
-      <c r="T91" t="n">
-        <v>731.4782300513607</v>
-      </c>
-      <c r="U91" t="n">
+      <c r="W91" t="n">
+        <v>736.5179482926972</v>
+      </c>
+      <c r="X91" t="n">
         <v>714.4873144430211</v>
       </c>
-      <c r="V91" t="n">
-        <v>137.4543016877627</v>
-      </c>
-      <c r="W91" t="n">
-        <v>137.454320347847</v>
-      </c>
-      <c r="X91" t="n">
-        <v>140.7230624372046</v>
-      </c>
-      <c r="Y91" t="inlineStr">
+      <c r="Y91" t="n">
+        <v>134.674077139062</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>134.6740954217174</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>138.8266613599735</v>
+      </c>
+      <c r="AB91" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z91" t="n">
+      <c r="AC91" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8911,29 +9736,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
+        <v>158.2109696797209</v>
+      </c>
+      <c r="T92" t="n">
+        <v>142.1915617669005</v>
+      </c>
+      <c r="U92" t="n">
+        <v>158.2134146233428</v>
+      </c>
+      <c r="V92" t="n">
         <v>842.5017917892483</v>
       </c>
-      <c r="T92" t="n">
-        <v>780.8725871373749</v>
-      </c>
-      <c r="U92" t="n">
-        <v>842.5148115525827</v>
-      </c>
-      <c r="V92" t="n">
-        <v>162.0819696043318</v>
-      </c>
       <c r="W92" t="n">
-        <v>162.0844743691948</v>
+        <v>757.1955712580435</v>
       </c>
       <c r="X92" t="n">
-        <v>150.2256353241279</v>
-      </c>
-      <c r="Y92" t="inlineStr">
+        <v>842.5148115525834</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>158.803612613953</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>158.8060667160963</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>142.7241975541608</v>
+      </c>
+      <c r="AB92" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z92" t="n">
+      <c r="AC92" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9003,29 +9837,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S93" t="n">
+        <v>144.1138129295586</v>
+      </c>
+      <c r="T93" t="n">
+        <v>142.9029208712205</v>
+      </c>
+      <c r="U93" t="n">
+        <v>144.1138027337883</v>
+      </c>
+      <c r="V93" t="n">
         <v>767.4319034926975</v>
       </c>
-      <c r="T93" t="n">
-        <v>719.8169519641052</v>
-      </c>
-      <c r="U93" t="n">
+      <c r="W93" t="n">
+        <v>760.9836860847743</v>
+      </c>
+      <c r="X93" t="n">
         <v>767.4318491983917</v>
       </c>
-      <c r="V93" t="n">
-        <v>147.6398930750444</v>
-      </c>
-      <c r="W93" t="n">
-        <v>147.6398826298108</v>
-      </c>
-      <c r="X93" t="n">
-        <v>138.4796453443196</v>
-      </c>
-      <c r="Y93" t="inlineStr">
+      <c r="Y93" t="n">
+        <v>144.6536492830734</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>144.6536390491107</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>143.4382213406311</v>
+      </c>
+      <c r="AB93" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z93" t="n">
+      <c r="AC93" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9095,29 +9938,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
+        <v>107.2063508578886</v>
+      </c>
+      <c r="T94" t="n">
+        <v>108.3337753314085</v>
+      </c>
+      <c r="U94" t="n">
+        <v>107.2063487166135</v>
+      </c>
+      <c r="V94" t="n">
         <v>570.8930478828556</v>
       </c>
-      <c r="T94" t="n">
-        <v>587.8282377920764</v>
-      </c>
-      <c r="U94" t="n">
+      <c r="W94" t="n">
+        <v>576.8967854300718</v>
+      </c>
+      <c r="X94" t="n">
         <v>570.893036480182</v>
       </c>
-      <c r="V94" t="n">
-        <v>109.8294039681047</v>
-      </c>
-      <c r="W94" t="n">
-        <v>109.8294017744384</v>
-      </c>
-      <c r="X94" t="n">
-        <v>113.0874254499113</v>
-      </c>
-      <c r="Y94" t="inlineStr">
+      <c r="Y94" t="n">
+        <v>107.6079354412417</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>107.6079332919457</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>108.7395831373958</v>
+      </c>
+      <c r="AB94" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z94" t="n">
+      <c r="AC94" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9187,29 +10039,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S95" t="n">
+        <v>159.2682752871106</v>
+      </c>
+      <c r="T95" t="n">
+        <v>164.8543224933027</v>
+      </c>
+      <c r="U95" t="n">
+        <v>159.2682757960604</v>
+      </c>
+      <c r="V95" t="n">
         <v>848.1321337971252</v>
       </c>
-      <c r="T95" t="n">
-        <v>882.9185553787115</v>
-      </c>
-      <c r="U95" t="n">
+      <c r="W95" t="n">
+        <v>877.8788371373765</v>
+      </c>
+      <c r="X95" t="n">
         <v>848.1321365073737</v>
       </c>
-      <c r="V95" t="n">
-        <v>163.1651446563927</v>
-      </c>
-      <c r="W95" t="n">
-        <v>163.1651451777951</v>
-      </c>
-      <c r="X95" t="n">
-        <v>169.8574173380401</v>
-      </c>
-      <c r="Y95" t="inlineStr">
+      <c r="Y95" t="n">
+        <v>159.864878785511</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>159.8648792963672</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>165.471850782277</v>
+      </c>
+      <c r="AB95" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z95" t="n">
+      <c r="AC95" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9279,29 +10140,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S96" t="n">
+        <v>185.3783617311769</v>
+      </c>
+      <c r="T96" t="n">
+        <v>164.1942291930336</v>
+      </c>
+      <c r="U96" t="n">
+        <v>185.3783445151198</v>
+      </c>
+      <c r="V96" t="n">
         <v>987.1730274685939</v>
       </c>
-      <c r="T96" t="n">
-        <v>883.8490036714082</v>
-      </c>
-      <c r="U96" t="n">
+      <c r="W96" t="n">
+        <v>874.3637219127456</v>
+      </c>
+      <c r="X96" t="n">
         <v>987.1729357900016</v>
       </c>
-      <c r="V96" t="n">
-        <v>189.914075188585</v>
-      </c>
-      <c r="W96" t="n">
-        <v>189.9140575512969</v>
-      </c>
-      <c r="X96" t="n">
-        <v>170.0364186094499</v>
-      </c>
-      <c r="Y96" t="inlineStr">
+      <c r="Y96" t="n">
+        <v>186.0727710787835</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>186.0727537982367</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>164.809284836583</v>
+      </c>
+      <c r="AB96" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z96" t="n">
+      <c r="AC96" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9371,29 +10241,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
+        <v>141.9683188805451</v>
+      </c>
+      <c r="T97" t="n">
+        <v>126.2084940702057</v>
+      </c>
+      <c r="U97" t="n">
+        <v>141.9683100171074</v>
+      </c>
+      <c r="V97" t="n">
         <v>756.0067628452047</v>
       </c>
-      <c r="T97" t="n">
-        <v>682.3824641720291</v>
-      </c>
-      <c r="U97" t="n">
+      <c r="W97" t="n">
+        <v>672.0828688960386</v>
+      </c>
+      <c r="X97" t="n">
         <v>756.0067156458088</v>
       </c>
-      <c r="V97" t="n">
-        <v>145.4419045162077</v>
-      </c>
-      <c r="W97" t="n">
-        <v>145.4418954359053</v>
-      </c>
-      <c r="X97" t="n">
-        <v>131.2779330493424</v>
-      </c>
-      <c r="Y97" t="inlineStr">
+      <c r="Y97" t="n">
+        <v>142.5001184216243</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>142.5001095249849</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>126.6812588374162</v>
+      </c>
+      <c r="AB97" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z97" t="n">
+      <c r="AC97" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9463,29 +10342,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S98" t="n">
+        <v>141.9876776555864</v>
+      </c>
+      <c r="T98" t="n">
+        <v>170.5952700192479</v>
+      </c>
+      <c r="U98" t="n">
+        <v>141.9876597644194</v>
+      </c>
+      <c r="V98" t="n">
         <v>756.1098517946758</v>
       </c>
-      <c r="T98" t="n">
-        <v>854.239523620049</v>
-      </c>
-      <c r="U98" t="n">
+      <c r="W98" t="n">
+        <v>908.4504124647279</v>
+      </c>
+      <c r="X98" t="n">
         <v>756.1097565210024</v>
       </c>
-      <c r="V98" t="n">
-        <v>145.4617369487765</v>
-      </c>
-      <c r="W98" t="n">
-        <v>145.4617186198604</v>
-      </c>
-      <c r="X98" t="n">
-        <v>164.3400950022414</v>
-      </c>
-      <c r="Y98" t="inlineStr">
+      <c r="Y98" t="n">
+        <v>142.5195497127575</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>142.519531754572</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>171.234303340357</v>
+      </c>
+      <c r="AB98" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z98" t="n">
+      <c r="AC98" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9555,29 +10443,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S99" t="n">
+        <v>136.0048087767481</v>
+      </c>
+      <c r="T99" t="n">
+        <v>115.2844719863106</v>
+      </c>
+      <c r="U99" t="n">
+        <v>136.1371500065006</v>
+      </c>
+      <c r="V99" t="n">
         <v>724.2500018698231</v>
       </c>
-      <c r="T99" t="n">
-        <v>630.3250077407165</v>
-      </c>
-      <c r="U99" t="n">
-        <v>724.9547426562542</v>
-      </c>
-      <c r="V99" t="n">
-        <v>139.3324832457644</v>
-      </c>
       <c r="W99" t="n">
-        <v>139.4680625119909</v>
+        <v>613.9104918613846</v>
       </c>
       <c r="X99" t="n">
-        <v>121.2630284482973</v>
-      </c>
-      <c r="Y99" t="inlineStr">
+        <v>724.954742656254</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>136.5142695878808</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>136.6471065550331</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>115.7163164272344</v>
+      </c>
+      <c r="AB99" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z99" t="n">
+      <c r="AC99" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9647,29 +10544,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S100" t="n">
+        <v>122.5315882607022</v>
+      </c>
+      <c r="T100" t="n">
+        <v>143.6675087477995</v>
+      </c>
+      <c r="U100" t="n">
+        <v>122.5316011052094</v>
+      </c>
+      <c r="V100" t="n">
         <v>652.50268593516</v>
       </c>
-      <c r="T100" t="n">
-        <v>740.4131148267306</v>
-      </c>
-      <c r="U100" t="n">
+      <c r="W100" t="n">
+        <v>765.0552536714096</v>
+      </c>
+      <c r="X100" t="n">
         <v>652.5027543344646</v>
       </c>
-      <c r="V100" t="n">
-        <v>125.5296090040163</v>
-      </c>
-      <c r="W100" t="n">
-        <v>125.5296221627943</v>
-      </c>
-      <c r="X100" t="n">
-        <v>142.4419712118722</v>
-      </c>
-      <c r="Y100" t="inlineStr">
+      <c r="Y100" t="n">
+        <v>122.9905796956826</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>122.9905925883041</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>144.205673289174</v>
+      </c>
+      <c r="AB100" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z100" t="n">
+      <c r="AC100" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9739,29 +10645,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S101" t="n">
+        <v>173.9133346912965</v>
+      </c>
+      <c r="T101" t="n">
+        <v>168.9338481816324</v>
+      </c>
+      <c r="U101" t="n">
+        <v>173.9133367251607</v>
+      </c>
+      <c r="V101" t="n">
         <v>926.1197020034534</v>
       </c>
-      <c r="T101" t="n">
-        <v>830.34840432611</v>
-      </c>
-      <c r="U101" t="n">
+      <c r="W101" t="n">
+        <v>899.6030431707877</v>
+      </c>
+      <c r="X101" t="n">
         <v>926.1197128341455</v>
       </c>
-      <c r="V101" t="n">
-        <v>178.16852955447</v>
-      </c>
-      <c r="W101" t="n">
-        <v>178.1685316380975</v>
-      </c>
-      <c r="X101" t="n">
-        <v>159.7438796482184</v>
-      </c>
-      <c r="Y101" t="inlineStr">
+      <c r="Y101" t="n">
+        <v>174.5647971605689</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>174.5647992020518</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>169.5666579778188</v>
+      </c>
+      <c r="AB101" t="inlineStr">
         <is>
           <t>pond_1\carapace\right</t>
         </is>
       </c>
-      <c r="Z101" t="n">
+      <c r="AC101" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9831,29 +10746,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S102" t="n">
+        <v>114.4450921415393</v>
+      </c>
+      <c r="T102" t="n">
+        <v>123.2902417833263</v>
+      </c>
+      <c r="U102" t="n">
+        <v>114.6133644928176</v>
+      </c>
+      <c r="V102" t="n">
         <v>521.2321294192969</v>
       </c>
-      <c r="T102" t="n">
-        <v>566.0000077407169</v>
-      </c>
-      <c r="U102" t="n">
-        <v>521.9985140176922</v>
-      </c>
-      <c r="V102" t="n">
-        <v>117.2452579198594</v>
-      </c>
       <c r="W102" t="n">
-        <v>117.417647446201</v>
+        <v>561.5167418613853</v>
       </c>
       <c r="X102" t="n">
-        <v>127.3152845818141</v>
-      </c>
-      <c r="Y102" t="inlineStr">
+        <v>521.9985140176923</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>120.1218336217848</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>120.2984526711925</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>129.4057231599793</v>
+      </c>
+      <c r="AB102" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z102" t="n">
+      <c r="AC102" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9923,29 +10847,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S103" t="n">
+        <v>114.4450921415393</v>
+      </c>
+      <c r="T103" t="n">
+        <v>123.2902417833263</v>
+      </c>
+      <c r="U103" t="n">
+        <v>114.6133644928176</v>
+      </c>
+      <c r="V103" t="n">
         <v>521.2321294192969</v>
       </c>
-      <c r="T103" t="n">
-        <v>566.0000077407169</v>
-      </c>
-      <c r="U103" t="n">
-        <v>521.9985140176922</v>
-      </c>
-      <c r="V103" t="n">
-        <v>117.2452579198594</v>
-      </c>
       <c r="W103" t="n">
-        <v>117.417647446201</v>
+        <v>561.5167418613853</v>
       </c>
       <c r="X103" t="n">
-        <v>127.3152845818141</v>
-      </c>
-      <c r="Y103" t="inlineStr">
+        <v>521.9985140176923</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>120.1218336217848</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>120.2984526711925</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>129.4057231599793</v>
+      </c>
+      <c r="AB103" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z103" t="n">
+      <c r="AC103" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10015,29 +10948,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S104" t="n">
+        <v>114.4450921415393</v>
+      </c>
+      <c r="T104" t="n">
+        <v>123.2902417833263</v>
+      </c>
+      <c r="U104" t="n">
+        <v>114.6133644928176</v>
+      </c>
+      <c r="V104" t="n">
         <v>521.2321294192969</v>
       </c>
-      <c r="T104" t="n">
-        <v>566.0000077407169</v>
-      </c>
-      <c r="U104" t="n">
-        <v>521.9985140176922</v>
-      </c>
-      <c r="V104" t="n">
-        <v>117.2452579198594</v>
-      </c>
       <c r="W104" t="n">
-        <v>117.417647446201</v>
+        <v>561.5167418613853</v>
       </c>
       <c r="X104" t="n">
-        <v>127.3152845818141</v>
-      </c>
-      <c r="Y104" t="inlineStr">
+        <v>521.9985140176923</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>120.1218336217848</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>120.2984526711925</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>129.4057231599793</v>
+      </c>
+      <c r="AB104" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z104" t="n">
+      <c r="AC104" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10107,29 +11049,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S105" t="n">
+        <v>95.3936019126962</v>
+      </c>
+      <c r="T105" t="n">
+        <v>108.9795553025619</v>
+      </c>
+      <c r="U105" t="n">
+        <v>95.39362853858485</v>
+      </c>
+      <c r="V105" t="n">
         <v>434.4634560339007</v>
       </c>
-      <c r="T105" t="n">
-        <v>495.1167418613848</v>
-      </c>
-      <c r="U105" t="n">
+      <c r="W105" t="n">
+        <v>496.3397259820527</v>
+      </c>
+      <c r="X105" t="n">
         <v>434.4635772996394</v>
       </c>
-      <c r="V105" t="n">
-        <v>97.72762860224847</v>
-      </c>
-      <c r="W105" t="n">
-        <v>97.72765587960151</v>
-      </c>
-      <c r="X105" t="n">
-        <v>111.3708975781134</v>
-      </c>
-      <c r="Y105" t="inlineStr">
+      <c r="Y105" t="n">
+        <v>100.1253453784458</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>100.1253733250401</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>114.3851935043265</v>
+      </c>
+      <c r="AB105" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z105" t="n">
+      <c r="AC105" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10199,29 +11150,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S106" t="n">
+        <v>93.81386402696883</v>
+      </c>
+      <c r="T106" t="n">
+        <v>115.8867352977479</v>
+      </c>
+      <c r="U106" t="n">
+        <v>93.81386402696883</v>
+      </c>
+      <c r="V106" t="n">
         <v>427.2686508509605</v>
       </c>
-      <c r="T106" t="n">
-        <v>517.9040394993808</v>
-      </c>
-      <c r="U106" t="n">
+      <c r="W106" t="n">
+        <v>527.7979918613845</v>
+      </c>
+      <c r="X106" t="n">
         <v>427.2686508509605</v>
       </c>
-      <c r="V106" t="n">
-        <v>96.10923874915792</v>
-      </c>
-      <c r="W106" t="n">
-        <v>96.10923874915792</v>
-      </c>
-      <c r="X106" t="n">
-        <v>116.4966418253838</v>
-      </c>
-      <c r="Y106" t="inlineStr">
+      <c r="Y106" t="n">
+        <v>98.46724883691222</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>98.46724883691222</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>121.6349856155628</v>
+      </c>
+      <c r="AB106" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z106" t="n">
+      <c r="AC106" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10291,29 +11251,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S107" t="n">
+        <v>166.5630038123446</v>
+      </c>
+      <c r="T107" t="n">
+        <v>177.4100103050847</v>
+      </c>
+      <c r="U107" t="n">
+        <v>166.6254805025665</v>
+      </c>
+      <c r="V107" t="n">
         <v>758.5994954874188</v>
       </c>
-      <c r="T107" t="n">
-        <v>820.5992060334129</v>
-      </c>
-      <c r="U107" t="n">
+      <c r="W107" t="n">
+        <v>808.00142427475</v>
+      </c>
+      <c r="X107" t="n">
         <v>758.8840411824249</v>
       </c>
-      <c r="V107" t="n">
-        <v>170.6383557080179</v>
-      </c>
-      <c r="W107" t="n">
-        <v>170.7023610360051</v>
-      </c>
-      <c r="X107" t="n">
-        <v>184.5844876589017</v>
-      </c>
-      <c r="Y107" t="inlineStr">
+      <c r="Y107" t="n">
+        <v>174.8249143506004</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>174.8904900292743</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>186.2099574733226</v>
+      </c>
+      <c r="AB107" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z107" t="n">
+      <c r="AC107" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10383,29 +11352,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S108" t="n">
+        <v>80.41346218240321</v>
+      </c>
+      <c r="T108" t="n">
+        <v>83.9698728376889</v>
+      </c>
+      <c r="U108" t="n">
+        <v>80.4134704433576</v>
+      </c>
+      <c r="V108" t="n">
         <v>366.2374623760637</v>
       </c>
-      <c r="T108" t="n">
-        <v>377.209682413365</v>
-      </c>
-      <c r="U108" t="n">
+      <c r="W108" t="n">
+        <v>382.4348847753699</v>
+      </c>
+      <c r="X108" t="n">
         <v>366.2374999999999</v>
       </c>
-      <c r="V108" t="n">
-        <v>82.38096485731846</v>
-      </c>
-      <c r="W108" t="n">
-        <v>82.38097332039634</v>
-      </c>
-      <c r="X108" t="n">
-        <v>84.84904135455983</v>
-      </c>
-      <c r="Y108" t="inlineStr">
+      <c r="Y108" t="n">
+        <v>84.40215604248108</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>84.40216471319793</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>88.13497289841608</v>
+      </c>
+      <c r="AB108" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z108" t="n">
+      <c r="AC108" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10475,29 +11453,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S109" t="n">
+        <v>132.3470316439268</v>
+      </c>
+      <c r="T109" t="n">
+        <v>123.7299506133423</v>
+      </c>
+      <c r="U109" t="n">
+        <v>132.3470148144411</v>
+      </c>
+      <c r="V109" t="n">
         <v>602.7652548068388</v>
       </c>
-      <c r="T109" t="n">
-        <v>616.2463807060626</v>
-      </c>
-      <c r="U109" t="n">
+      <c r="W109" t="n">
+        <v>563.5193648267306</v>
+      </c>
+      <c r="X109" t="n">
         <v>602.7651781581285</v>
       </c>
-      <c r="V109" t="n">
-        <v>135.5852100746213</v>
-      </c>
-      <c r="W109" t="n">
-        <v>135.5851928333629</v>
-      </c>
-      <c r="X109" t="n">
-        <v>138.6176365001863</v>
-      </c>
-      <c r="Y109" t="inlineStr">
+      <c r="Y109" t="n">
+        <v>138.9117507617312</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>138.911733097464</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>129.8672425657733</v>
+      </c>
+      <c r="AB109" t="inlineStr">
         <is>
           <t>pond_1\carapace\left</t>
         </is>
       </c>
-      <c r="Z109" t="n">
+      <c r="AC109" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10567,29 +11554,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
+        <v>114.7078513714162</v>
+      </c>
+      <c r="T110" t="n">
+        <v>108.772978076001</v>
+      </c>
+      <c r="U110" t="n">
+        <v>114.7078343639825</v>
+      </c>
+      <c r="V110" t="n">
         <v>956.7371671764962</v>
       </c>
-      <c r="T110" t="n">
-        <v>876.8881225674473</v>
-      </c>
-      <c r="U110" t="n">
+      <c r="W110" t="n">
+        <v>907.236511412126</v>
+      </c>
+      <c r="X110" t="n">
         <v>956.7370253235739</v>
       </c>
-      <c r="V110" t="n">
-        <v>117.5144461663911</v>
-      </c>
-      <c r="W110" t="n">
-        <v>117.514428742831</v>
-      </c>
-      <c r="X110" t="n">
-        <v>107.7067198899677</v>
-      </c>
-      <c r="Y110" t="inlineStr">
+      <c r="Y110" t="n">
+        <v>115.1375358474916</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>115.1375187763498</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>109.1804310928343</v>
+      </c>
+      <c r="AB110" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z110" t="n">
+      <c r="AC110" t="n">
         <v>415</v>
       </c>
     </row>
@@ -10659,29 +11655,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
+        <v>133.1094290697119</v>
+      </c>
+      <c r="T111" t="n">
+        <v>149.2701671432917</v>
+      </c>
+      <c r="U111" t="n">
+        <v>133.1094211698846</v>
+      </c>
+      <c r="V111" t="n">
         <v>1110.218146099554</v>
       </c>
-      <c r="T111" t="n">
-        <v>1225.406662464726</v>
-      </c>
-      <c r="U111" t="n">
+      <c r="W111" t="n">
+        <v>1245.009083068067</v>
+      </c>
+      <c r="X111" t="n">
         <v>1110.21808020992</v>
       </c>
-      <c r="V111" t="n">
-        <v>136.3662613294278</v>
-      </c>
-      <c r="W111" t="n">
-        <v>136.3662532363129</v>
-      </c>
-      <c r="X111" t="n">
-        <v>150.5146765575406</v>
-      </c>
-      <c r="Y111" t="inlineStr">
+      <c r="Y111" t="n">
+        <v>133.6080440695284</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>133.6080361401092</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>149.8293186991427</v>
+      </c>
+      <c r="AB111" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z111" t="n">
+      <c r="AC111" t="n">
         <v>415</v>
       </c>
     </row>
@@ -10756,12 +11761,15 @@
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr">
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10829,29 +11837,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S113" t="n">
+        <v>105.6318423342176</v>
+      </c>
+      <c r="T113" t="n">
+        <v>122.1050427986015</v>
+      </c>
+      <c r="U113" t="n">
+        <v>105.6318435087638</v>
+      </c>
+      <c r="V113" t="n">
         <v>881.0374215034507</v>
       </c>
-      <c r="T113" t="n">
-        <v>907.0479996021015</v>
-      </c>
-      <c r="U113" t="n">
+      <c r="W113" t="n">
+        <v>1018.434495532792</v>
+      </c>
+      <c r="X113" t="n">
         <v>881.0374312999209</v>
       </c>
-      <c r="V113" t="n">
-        <v>108.216371425595</v>
-      </c>
-      <c r="W113" t="n">
-        <v>108.2163726288793</v>
-      </c>
-      <c r="X113" t="n">
-        <v>111.411207776263</v>
-      </c>
-      <c r="Y113" t="inlineStr">
+      <c r="Y113" t="n">
+        <v>106.0275289614851</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>106.0275301404311</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>122.5624364356874</v>
+      </c>
+      <c r="AB113" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z113" t="n">
+      <c r="AC113" t="n">
         <v>415</v>
       </c>
     </row>
@@ -10926,12 +11943,15 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr">
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10999,29 +12019,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S115" t="n">
+        <v>109.1039483278914</v>
+      </c>
+      <c r="T115" t="n">
+        <v>107.2215231511983</v>
+      </c>
+      <c r="U115" t="n">
+        <v>109.1039547787944</v>
+      </c>
+      <c r="V115" t="n">
         <v>909.997015923609</v>
       </c>
-      <c r="T115" t="n">
-        <v>874.3606942233893</v>
-      </c>
-      <c r="U115" t="n">
+      <c r="W115" t="n">
+        <v>894.2963807060635</v>
+      </c>
+      <c r="X115" t="n">
         <v>909.9970697282836</v>
       </c>
-      <c r="V115" t="n">
-        <v>111.7734305806518</v>
-      </c>
-      <c r="W115" t="n">
-        <v>111.7734371893911</v>
-      </c>
-      <c r="X115" t="n">
-        <v>107.3962800405849</v>
-      </c>
-      <c r="Y115" t="inlineStr">
+      <c r="Y115" t="n">
+        <v>109.5126411271596</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>109.512647602227</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>107.6231645684894</v>
+      </c>
+      <c r="AB115" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z115" t="n">
+      <c r="AC115" t="n">
         <v>415</v>
       </c>
     </row>
@@ -11091,29 +12120,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S116" t="n">
+        <v>124.9577074028051</v>
+      </c>
+      <c r="T116" t="n">
+        <v>137.4707500618976</v>
+      </c>
+      <c r="U116" t="n">
+        <v>124.9577158034129</v>
+      </c>
+      <c r="V116" t="n">
         <v>1042.227550844179</v>
       </c>
-      <c r="T116" t="n">
-        <v>1128.1048489474</v>
-      </c>
-      <c r="U116" t="n">
+      <c r="W116" t="n">
+        <v>1146.594364826731</v>
+      </c>
+      <c r="X116" t="n">
         <v>1042.227620910645</v>
       </c>
-      <c r="V116" t="n">
-        <v>128.015088802559</v>
-      </c>
-      <c r="W116" t="n">
-        <v>128.0150974087073</v>
-      </c>
-      <c r="X116" t="n">
-        <v>138.5632554998442</v>
-      </c>
-      <c r="Y116" t="inlineStr">
+      <c r="Y116" t="n">
+        <v>125.4257868445785</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>125.4257952766542</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>137.9857021467796</v>
+      </c>
+      <c r="AB116" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z116" t="n">
+      <c r="AC116" t="n">
         <v>415</v>
       </c>
     </row>
@@ -11188,12 +12226,15 @@
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr">
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11266,12 +12307,15 @@
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr">
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11344,12 +12388,15 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr">
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11422,12 +12469,15 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr">
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11495,29 +12545,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S121" t="n">
+        <v>119.2005661692046</v>
+      </c>
+      <c r="T121" t="n">
+        <v>132.3998105471953</v>
+      </c>
+      <c r="U121" t="n">
+        <v>119.2005588392866</v>
+      </c>
+      <c r="V121" t="n">
         <v>1031.492143197263</v>
       </c>
-      <c r="T121" t="n">
-        <v>1117.327233722769</v>
-      </c>
-      <c r="U121" t="n">
+      <c r="W121" t="n">
+        <v>1145.710701964105</v>
+      </c>
+      <c r="X121" t="n">
         <v>1031.49207976843</v>
       </c>
-      <c r="V121" t="n">
-        <v>122.1170856974565</v>
-      </c>
-      <c r="W121" t="n">
-        <v>122.1170781881949</v>
-      </c>
-      <c r="X121" t="n">
-        <v>132.2789964542964</v>
-      </c>
-      <c r="Y121" t="inlineStr">
+      <c r="Y121" t="n">
+        <v>119.6470799187863</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>119.6470725614111</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>132.8957673849121</v>
+      </c>
+      <c r="AB121" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z121" t="n">
+      <c r="AC121" t="n">
         <v>400</v>
       </c>
     </row>
@@ -11587,29 +12646,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S122" t="n">
+        <v>109.1738636564882</v>
+      </c>
+      <c r="T122" t="n">
+        <v>99.19695344876806</v>
+      </c>
+      <c r="U122" t="n">
+        <v>109.1738492986071</v>
+      </c>
+      <c r="V122" t="n">
         <v>944.7269104771252</v>
       </c>
-      <c r="T122" t="n">
-        <v>920.123801309404</v>
-      </c>
-      <c r="U122" t="n">
+      <c r="W122" t="n">
+        <v>858.3925513094036</v>
+      </c>
+      <c r="X122" t="n">
         <v>944.7267862324011</v>
       </c>
-      <c r="V122" t="n">
-        <v>111.84505655063</v>
-      </c>
-      <c r="W122" t="n">
-        <v>111.8450418414499</v>
-      </c>
-      <c r="X122" t="n">
-        <v>108.9323247276364</v>
-      </c>
-      <c r="Y122" t="inlineStr">
+      <c r="Y122" t="n">
+        <v>109.5828183517904</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>109.5828039401261</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>99.56853560693175</v>
+      </c>
+      <c r="AB122" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z122" t="n">
+      <c r="AC122" t="n">
         <v>400</v>
       </c>
     </row>
@@ -11684,12 +12752,15 @@
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr">
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11762,12 +12833,15 @@
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr">
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11840,12 +12914,15 @@
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr">
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11918,12 +12995,15 @@
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr">
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11991,29 +13071,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S127" t="n">
+        <v>119.2125459979812</v>
+      </c>
+      <c r="T127" t="n">
+        <v>127.8241024750789</v>
+      </c>
+      <c r="U127" t="n">
+        <v>119.2125409772724</v>
+      </c>
+      <c r="V127" t="n">
         <v>1115.238713129702</v>
       </c>
-      <c r="T127" t="n">
-        <v>1130.176821258042</v>
-      </c>
-      <c r="U127" t="n">
+      <c r="W127" t="n">
+        <v>1195.800210102721</v>
+      </c>
+      <c r="X127" t="n">
         <v>1115.238666160746</v>
       </c>
-      <c r="V127" t="n">
-        <v>122.129358640651</v>
-      </c>
-      <c r="W127" t="n">
-        <v>122.1293534970989</v>
-      </c>
-      <c r="X127" t="n">
-        <v>123.7652250641713</v>
-      </c>
-      <c r="Y127" t="inlineStr">
+      <c r="Y127" t="n">
+        <v>119.6591046228385</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>119.6590995833226</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>128.3029191545403</v>
+      </c>
+      <c r="AB127" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z127" t="n">
+      <c r="AC127" t="n">
         <v>370</v>
       </c>
     </row>
@@ -12083,29 +13172,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S128" t="n">
+        <v>128.3166942407068</v>
+      </c>
+      <c r="T128" t="n">
+        <v>121.8376398014925</v>
+      </c>
+      <c r="U128" t="n">
+        <v>128.3167166180678</v>
+      </c>
+      <c r="V128" t="n">
         <v>1153.639268618678</v>
       </c>
-      <c r="T128" t="n">
-        <v>1069.083483722769</v>
-      </c>
-      <c r="U128" t="n">
+      <c r="W128" t="n">
+        <v>1095.38892427475</v>
+      </c>
+      <c r="X128" t="n">
         <v>1153.639469803743</v>
       </c>
-      <c r="V128" t="n">
-        <v>131.4562610781874</v>
-      </c>
-      <c r="W128" t="n">
-        <v>131.4562840030627</v>
-      </c>
-      <c r="X128" t="n">
-        <v>121.8211978159453</v>
-      </c>
-      <c r="Y128" t="inlineStr">
+      <c r="Y128" t="n">
+        <v>128.7973561211043</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>128.7973785822888</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>122.2940317729092</v>
+      </c>
+      <c r="AB128" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z128" t="n">
+      <c r="AC128" t="n">
         <v>385</v>
       </c>
     </row>
@@ -12175,29 +13273,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S129" t="n">
+        <v>157.0022533005351</v>
+      </c>
+      <c r="T129" t="n">
+        <v>161.8404298663378</v>
+      </c>
+      <c r="U129" t="n">
+        <v>157.0022421272351</v>
+      </c>
+      <c r="V129" t="n">
         <v>1411.538582262312</v>
       </c>
-      <c r="T129" t="n">
-        <v>1454.552436084775</v>
-      </c>
-      <c r="U129" t="n">
+      <c r="W129" t="n">
+        <v>1455.036511412126</v>
+      </c>
+      <c r="X129" t="n">
         <v>1411.538481808059</v>
       </c>
-      <c r="V129" t="n">
-        <v>160.8436791632326</v>
-      </c>
-      <c r="W129" t="n">
-        <v>160.8436677165517</v>
-      </c>
-      <c r="X129" t="n">
-        <v>165.7450729974032</v>
-      </c>
-      <c r="Y129" t="inlineStr">
+      <c r="Y129" t="n">
+        <v>157.5903685005458</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>157.5903572853917</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>162.4466684061023</v>
+      </c>
+      <c r="AB129" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z129" t="n">
+      <c r="AC129" t="n">
         <v>385</v>
       </c>
     </row>
@@ -12267,29 +13374,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S130" t="n">
+        <v>141.4506300739475</v>
+      </c>
+      <c r="T130" t="n">
+        <v>125.3781757450396</v>
+      </c>
+      <c r="U130" t="n">
+        <v>141.450604047704</v>
+      </c>
+      <c r="V130" t="n">
         <v>1076.07139584631</v>
       </c>
-      <c r="T130" t="n">
-        <v>1029.690130706062</v>
-      </c>
-      <c r="U130" t="n">
+      <c r="W130" t="n">
+        <v>953.8018212580429</v>
+      </c>
+      <c r="X130" t="n">
         <v>1076.071197854289</v>
       </c>
-      <c r="V130" t="n">
-        <v>144.9115492470041</v>
-      </c>
-      <c r="W130" t="n">
-        <v>144.9115225839679</v>
-      </c>
-      <c r="X130" t="n">
-        <v>138.6655129584702</v>
-      </c>
-      <c r="Y130" t="inlineStr">
+      <c r="Y130" t="n">
+        <v>141.9804904030113</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>141.980464279276</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>125.8478302204065</v>
+      </c>
+      <c r="AB130" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z130" t="n">
+      <c r="AC130" t="n">
         <v>455</v>
       </c>
     </row>
@@ -12359,29 +13475,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S131" t="n">
+        <v>102.0036145991135</v>
+      </c>
+      <c r="T131" t="n">
+        <v>85.04387657884453</v>
+      </c>
+      <c r="U131" t="n">
+        <v>102.0036145991135</v>
+      </c>
+      <c r="V131" t="n">
         <v>775.9822058456383</v>
       </c>
-      <c r="T131" t="n">
-        <v>751.454646585394</v>
-      </c>
-      <c r="U131" t="n">
+      <c r="W131" t="n">
+        <v>646.9627101027214</v>
+      </c>
+      <c r="X131" t="n">
         <v>775.9822058456383</v>
       </c>
-      <c r="V131" t="n">
-        <v>104.4993706470194</v>
-      </c>
-      <c r="W131" t="n">
-        <v>104.4993706470194</v>
-      </c>
-      <c r="X131" t="n">
-        <v>101.1963122947859</v>
-      </c>
-      <c r="Y131" t="inlineStr">
+      <c r="Y131" t="n">
+        <v>102.3857102374923</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>102.3857102374923</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>85.36244268495075</v>
+      </c>
+      <c r="AB131" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z131" t="n">
+      <c r="AC131" t="n">
         <v>455</v>
       </c>
     </row>
@@ -12451,29 +13576,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
+        <v>158.1853147488017</v>
+      </c>
+      <c r="T132" t="n">
+        <v>149.4996693855077</v>
+      </c>
+      <c r="U132" t="n">
+        <v>158.185312408025</v>
+      </c>
+      <c r="V132" t="n">
         <v>1203.378820971982</v>
       </c>
-      <c r="T132" t="n">
-        <v>1158.386916136135</v>
-      </c>
-      <c r="U132" t="n">
+      <c r="W132" t="n">
+        <v>1137.303650256803</v>
+      </c>
+      <c r="X132" t="n">
         <v>1203.37880316476</v>
       </c>
-      <c r="V132" t="n">
-        <v>162.0556869657647</v>
-      </c>
-      <c r="W132" t="n">
-        <v>162.0556845677155</v>
-      </c>
-      <c r="X132" t="n">
-        <v>155.9967519745518</v>
-      </c>
-      <c r="Y132" t="inlineStr">
+      <c r="Y132" t="n">
+        <v>158.7778615821529</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>158.777859232608</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>150.0596806344793</v>
+      </c>
+      <c r="AB132" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z132" t="n">
+      <c r="AC132" t="n">
         <v>455</v>
       </c>
     </row>
@@ -12543,29 +13677,38 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S133" t="n">
+        <v>138.3781947501238</v>
+      </c>
+      <c r="T133" t="n">
+        <v>129.2079324609775</v>
+      </c>
+      <c r="U133" t="n">
+        <v>138.3781957891426</v>
+      </c>
+      <c r="V133" t="n">
         <v>1052.698154130624</v>
       </c>
-      <c r="T133" t="n">
-        <v>1025.102840808784</v>
-      </c>
-      <c r="U133" t="n">
+      <c r="W133" t="n">
+        <v>982.9363090501199</v>
+      </c>
+      <c r="X133" t="n">
         <v>1052.698162034855</v>
       </c>
-      <c r="V133" t="n">
-        <v>141.7639396357654</v>
-      </c>
-      <c r="W133" t="n">
-        <v>141.7639407002064</v>
-      </c>
-      <c r="X133" t="n">
-        <v>138.0477553557444</v>
-      </c>
-      <c r="Y133" t="inlineStr">
+      <c r="Y133" t="n">
+        <v>138.8965460347184</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>138.8965470776294</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>129.691932833232</v>
+      </c>
+      <c r="AB133" t="inlineStr">
         <is>
           <t>pond_1\carapace\car</t>
         </is>
       </c>
-      <c r="Z133" t="n">
+      <c r="AC133" t="n">
         <v>455</v>
       </c>
     </row>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -652,7 +652,7 @@
         <v>100.0458892363454</v>
       </c>
       <c r="U2" t="n">
-        <v>87.38143681982832</v>
+        <v>87.38143681982831</v>
       </c>
       <c r="V2" t="n">
         <v>465.0141732779099</v>
@@ -661,13 +661,13 @@
         <v>532.7623053787122</v>
       </c>
       <c r="X2" t="n">
-        <v>465.3218246424835</v>
+        <v>465.3218246424834</v>
       </c>
       <c r="Y2" t="n">
         <v>87.65076982969236</v>
       </c>
       <c r="Z2" t="n">
-        <v>87.70875919968069</v>
+        <v>87.70875919968067</v>
       </c>
       <c r="AA2" t="n">
         <v>100.4206514255596</v>
@@ -753,7 +753,7 @@
         <v>153.0328978873621</v>
       </c>
       <c r="U3" t="n">
-        <v>141.416330327534</v>
+        <v>141.4163303275339</v>
       </c>
       <c r="V3" t="n">
         <v>752.9379490196103</v>
@@ -762,7 +762,7 @@
         <v>814.9276307060625</v>
       </c>
       <c r="X3" t="n">
-        <v>753.0673247904319</v>
+        <v>753.0673247904316</v>
       </c>
       <c r="Y3" t="n">
         <v>141.921676064951</v>
@@ -1359,7 +1359,7 @@
         <v>147.3485904997302</v>
       </c>
       <c r="U9" t="n">
-        <v>135.0135774859187</v>
+        <v>135.0135774859188</v>
       </c>
       <c r="V9" t="n">
         <v>718.7263581280739</v>
@@ -1368,7 +1368,7 @@
         <v>784.6576742747505</v>
       </c>
       <c r="X9" t="n">
-        <v>718.9715174493565</v>
+        <v>718.9715174493566</v>
       </c>
       <c r="Y9" t="n">
         <v>135.4731150294801</v>
@@ -1561,7 +1561,7 @@
         <v>121.8254074752802</v>
       </c>
       <c r="U11" t="n">
-        <v>147.473626057113</v>
+        <v>147.4736260571129</v>
       </c>
       <c r="V11" t="n">
         <v>785.2393331073433</v>
@@ -1570,13 +1570,13 @@
         <v>648.7421465853943</v>
       </c>
       <c r="X11" t="n">
-        <v>785.3235110453971</v>
+        <v>785.3235110453966</v>
       </c>
       <c r="Y11" t="n">
         <v>148.0101811999596</v>
       </c>
       <c r="Z11" t="n">
-        <v>148.0260479444528</v>
+        <v>148.0260479444527</v>
       </c>
       <c r="AA11" t="n">
         <v>122.2817536255903</v>
@@ -2773,7 +2773,7 @@
         <v>131.4476402054596</v>
       </c>
       <c r="U23" t="n">
-        <v>124.8707620997791</v>
+        <v>124.870762099779</v>
       </c>
       <c r="V23" t="n">
         <v>664.8303194355309</v>
@@ -2782,13 +2782,13 @@
         <v>699.9822618100237</v>
       </c>
       <c r="X23" t="n">
-        <v>664.9592062050144</v>
+        <v>664.9592062050143</v>
       </c>
       <c r="Y23" t="n">
         <v>125.3142219168845</v>
       </c>
       <c r="Z23" t="n">
-        <v>125.3385158528875</v>
+        <v>125.3385158528874</v>
       </c>
       <c r="AA23" t="n">
         <v>131.9400303055073</v>
@@ -2883,7 +2883,7 @@
         <v>638.3641188960385</v>
       </c>
       <c r="X24" t="n">
-        <v>648.2857819494261</v>
+        <v>648.2857819494262</v>
       </c>
       <c r="Y24" t="n">
         <v>122.1429322334822</v>
@@ -3076,7 +3076,7 @@
         <v>167.5482357424653</v>
       </c>
       <c r="U26" t="n">
-        <v>146.1114276791161</v>
+        <v>146.1114276791162</v>
       </c>
       <c r="V26" t="n">
         <v>776.139453257019</v>
@@ -3085,13 +3085,13 @@
         <v>892.2244083954181</v>
       </c>
       <c r="X26" t="n">
-        <v>778.0695603455305</v>
+        <v>778.0695603455308</v>
       </c>
       <c r="Y26" t="n">
         <v>146.2949399878129</v>
       </c>
       <c r="Z26" t="n">
-        <v>146.6587469035661</v>
+        <v>146.6587469035662</v>
       </c>
       <c r="AA26" t="n">
         <v>168.1758551689617</v>
@@ -3489,7 +3489,7 @@
         <v>809.7024283440578</v>
       </c>
       <c r="X30" t="n">
-        <v>728.8098307844116</v>
+        <v>728.8098307844115</v>
       </c>
       <c r="Y30" t="n">
         <v>137.3731577392672</v>
@@ -7024,13 +7024,13 @@
         <v>957.40142427475</v>
       </c>
       <c r="X65" t="n">
-        <v>826.9042926143387</v>
+        <v>826.9042926143386</v>
       </c>
       <c r="Y65" t="n">
         <v>155.3656909187439</v>
       </c>
       <c r="Z65" t="n">
-        <v>155.8636316657126</v>
+        <v>155.8636316657125</v>
       </c>
       <c r="AA65" t="n">
         <v>180.4611056953179</v>
@@ -7428,7 +7428,7 @@
         <v>774.2389165340358</v>
       </c>
       <c r="X69" t="n">
-        <v>757.4491402114021</v>
+        <v>757.4491402114023</v>
       </c>
       <c r="Y69" t="n">
         <v>142.7711832244635</v>
@@ -8126,7 +8126,7 @@
         <v>98.45005156670148</v>
       </c>
       <c r="U76" t="n">
-        <v>99.92388500113032</v>
+        <v>99.92388500113039</v>
       </c>
       <c r="V76" t="n">
         <v>494.096448103874</v>
@@ -8135,13 +8135,13 @@
         <v>486.8167418613845</v>
       </c>
       <c r="X76" t="n">
-        <v>494.1045673035979</v>
+        <v>494.1045673035982</v>
       </c>
       <c r="Y76" t="n">
         <v>104.8786175851106</v>
       </c>
       <c r="Z76" t="n">
-        <v>104.8803409944696</v>
+        <v>104.8803409944697</v>
       </c>
       <c r="AA76" t="n">
         <v>103.3334020101597</v>
@@ -8640,7 +8640,7 @@
         <v>543.876214172029</v>
       </c>
       <c r="X81" t="n">
-        <v>514.7603999731192</v>
+        <v>514.7603999731191</v>
       </c>
       <c r="Y81" t="n">
         <v>109.1846427048569</v>
@@ -9347,13 +9347,13 @@
         <v>793.4417496021005</v>
       </c>
       <c r="X88" t="n">
-        <v>765.8378334030316</v>
+        <v>765.8378334030318</v>
       </c>
       <c r="Y88" t="n">
         <v>144.3440029308416</v>
       </c>
       <c r="Z88" t="n">
-        <v>144.3531821606698</v>
+        <v>144.3531821606699</v>
       </c>
       <c r="AA88" t="n">
         <v>149.5562590649876</v>
@@ -9742,7 +9742,7 @@
         <v>142.1915617669005</v>
       </c>
       <c r="U92" t="n">
-        <v>158.2134146233428</v>
+        <v>158.2134146233427</v>
       </c>
       <c r="V92" t="n">
         <v>842.5017917892483</v>
@@ -9751,13 +9751,13 @@
         <v>757.1955712580435</v>
       </c>
       <c r="X92" t="n">
-        <v>842.5148115525834</v>
+        <v>842.5148115525827</v>
       </c>
       <c r="Y92" t="n">
         <v>158.803612613953</v>
       </c>
       <c r="Z92" t="n">
-        <v>158.8060667160963</v>
+        <v>158.8060667160962</v>
       </c>
       <c r="AA92" t="n">
         <v>142.7241975541608</v>
@@ -10449,7 +10449,7 @@
         <v>115.2844719863106</v>
       </c>
       <c r="U99" t="n">
-        <v>136.1371500065006</v>
+        <v>136.1371500065007</v>
       </c>
       <c r="V99" t="n">
         <v>724.2500018698231</v>
@@ -10458,13 +10458,13 @@
         <v>613.9104918613846</v>
       </c>
       <c r="X99" t="n">
-        <v>724.954742656254</v>
+        <v>724.9547426562542</v>
       </c>
       <c r="Y99" t="n">
         <v>136.5142695878808</v>
       </c>
       <c r="Z99" t="n">
-        <v>136.6471065550331</v>
+        <v>136.6471065550332</v>
       </c>
       <c r="AA99" t="n">
         <v>115.7163164272344</v>
@@ -10761,13 +10761,13 @@
         <v>561.5167418613853</v>
       </c>
       <c r="X102" t="n">
-        <v>521.9985140176923</v>
+        <v>521.9985140176922</v>
       </c>
       <c r="Y102" t="n">
         <v>120.1218336217848</v>
       </c>
       <c r="Z102" t="n">
-        <v>120.2984526711925</v>
+        <v>120.2984526711924</v>
       </c>
       <c r="AA102" t="n">
         <v>129.4057231599793</v>
@@ -10862,13 +10862,13 @@
         <v>561.5167418613853</v>
       </c>
       <c r="X103" t="n">
-        <v>521.9985140176923</v>
+        <v>521.9985140176922</v>
       </c>
       <c r="Y103" t="n">
         <v>120.1218336217848</v>
       </c>
       <c r="Z103" t="n">
-        <v>120.2984526711925</v>
+        <v>120.2984526711924</v>
       </c>
       <c r="AA103" t="n">
         <v>129.4057231599793</v>
@@ -10963,13 +10963,13 @@
         <v>561.5167418613853</v>
       </c>
       <c r="X104" t="n">
-        <v>521.9985140176923</v>
+        <v>521.9985140176922</v>
       </c>
       <c r="Y104" t="n">
         <v>120.1218336217848</v>
       </c>
       <c r="Z104" t="n">
-        <v>120.2984526711925</v>
+        <v>120.2984526711924</v>
       </c>
       <c r="AA104" t="n">
         <v>129.4057231599793</v>
@@ -11257,7 +11257,7 @@
         <v>177.4100103050847</v>
       </c>
       <c r="U107" t="n">
-        <v>166.6254805025665</v>
+        <v>166.6254805025666</v>
       </c>
       <c r="V107" t="n">
         <v>758.5994954874188</v>
@@ -11266,13 +11266,13 @@
         <v>808.00142427475</v>
       </c>
       <c r="X107" t="n">
-        <v>758.8840411824249</v>
+        <v>758.8840411824253</v>
       </c>
       <c r="Y107" t="n">
         <v>174.8249143506004</v>
       </c>
       <c r="Z107" t="n">
-        <v>174.8904900292743</v>
+        <v>174.8904900292744</v>
       </c>
       <c r="AA107" t="n">
         <v>186.2099574733226</v>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -649,28 +649,28 @@
         <v>87.32366386173278</v>
       </c>
       <c r="T2" t="n">
-        <v>100.0458892363454</v>
+        <v>78.58408988960846</v>
       </c>
       <c r="U2" t="n">
-        <v>87.38143681982831</v>
+        <v>87.38143681982832</v>
       </c>
       <c r="V2" t="n">
         <v>465.0141732779099</v>
       </c>
       <c r="W2" t="n">
-        <v>532.7623053787122</v>
+        <v>418.4743742621076</v>
       </c>
       <c r="X2" t="n">
-        <v>465.3218246424834</v>
+        <v>465.3218246424835</v>
       </c>
       <c r="Y2" t="n">
         <v>87.65076982969236</v>
       </c>
       <c r="Z2" t="n">
-        <v>87.70875919968067</v>
+        <v>87.70875919968069</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.4206514255596</v>
+        <v>78.8784582618548</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -750,19 +750,19 @@
         <v>141.3920352264977</v>
       </c>
       <c r="T3" t="n">
-        <v>153.0328978873621</v>
+        <v>132.2763453912976</v>
       </c>
       <c r="U3" t="n">
-        <v>141.4163303275339</v>
+        <v>141.416330327534</v>
       </c>
       <c r="V3" t="n">
         <v>752.9379490196103</v>
       </c>
       <c r="W3" t="n">
-        <v>814.9276307060625</v>
+        <v>704.3952655691621</v>
       </c>
       <c r="X3" t="n">
-        <v>753.0673247904316</v>
+        <v>753.0673247904319</v>
       </c>
       <c r="Y3" t="n">
         <v>141.921676064951</v>
@@ -771,7 +771,7 @@
         <v>141.9460621730773</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.6061442673167</v>
+        <v>132.7718397405256</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>125.6708217425546</v>
       </c>
       <c r="T4" t="n">
-        <v>148.3357590024979</v>
+        <v>121.9887015532037</v>
       </c>
       <c r="U4" t="n">
         <v>125.6708222045455</v>
@@ -860,7 +860,7 @@
         <v>669.2196673092043</v>
       </c>
       <c r="W4" t="n">
-        <v>789.914523620048</v>
+        <v>649.6117168403367</v>
       </c>
       <c r="X4" t="n">
         <v>669.219669769389</v>
@@ -872,7 +872,7 @@
         <v>126.1415729051412</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.8914103561603</v>
+        <v>122.445659387278</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>147.0266651612517</v>
       </c>
       <c r="T5" t="n">
-        <v>145.8041175899761</v>
+        <v>129.6492265403244</v>
       </c>
       <c r="U5" t="n">
         <v>147.0266808839757</v>
@@ -961,7 +961,7 @@
         <v>782.9433641037203</v>
       </c>
       <c r="W5" t="n">
-        <v>776.4330789987599</v>
+        <v>690.4053864623668</v>
       </c>
       <c r="X5" t="n">
         <v>782.9434478300459</v>
@@ -973,7 +973,7 @@
         <v>147.5774285580837</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.3502856606641</v>
+        <v>130.134879957362</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>116.6870542623771</v>
       </c>
       <c r="T6" t="n">
-        <v>116.3495206792588</v>
+        <v>97.16217189992318</v>
       </c>
       <c r="U6" t="n">
         <v>116.6870283124104</v>
@@ -1062,7 +1062,7 @@
         <v>621.3794940621174</v>
       </c>
       <c r="W6" t="n">
-        <v>619.5820671887351</v>
+        <v>517.4059933109224</v>
       </c>
       <c r="X6" t="n">
         <v>621.3793558738898</v>
@@ -1074,7 +1074,7 @@
         <v>117.1241265931799</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.7853546891978</v>
+        <v>97.52613196392947</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>168.3021610791668</v>
       </c>
       <c r="T7" t="n">
-        <v>151.4677534867498</v>
+        <v>143.9195521065645</v>
       </c>
       <c r="U7" t="n">
         <v>168.3021669144937</v>
@@ -1163,7 +1163,7 @@
         <v>896.2391960446696</v>
       </c>
       <c r="W7" t="n">
-        <v>806.5929560334138</v>
+        <v>766.3974297657597</v>
       </c>
       <c r="X7" t="n">
         <v>896.2392271188326</v>
@@ -1175,7 +1175,7 @@
         <v>168.9326104939733</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.0351369877147</v>
+        <v>144.458660777894</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>110.9267843045699</v>
       </c>
       <c r="T8" t="n">
-        <v>87.71558322242468</v>
+        <v>76.84175020066974</v>
       </c>
       <c r="U8" t="n">
         <v>110.9267843287265</v>
@@ -1264,7 +1264,7 @@
         <v>590.7050233192431</v>
       </c>
       <c r="W8" t="n">
-        <v>467.1012141720291</v>
+        <v>409.1961028956654</v>
       </c>
       <c r="X8" t="n">
         <v>590.7050234478816</v>
@@ -1276,7 +1276,7 @@
         <v>111.3423052947037</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.04415728226422</v>
+        <v>77.12959193757737</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1356,19 +1356,19 @@
         <v>134.9675397275138</v>
       </c>
       <c r="T9" t="n">
-        <v>147.3485904997302</v>
+        <v>121.2133080514676</v>
       </c>
       <c r="U9" t="n">
-        <v>135.0135774859188</v>
+        <v>135.0135774859187</v>
       </c>
       <c r="V9" t="n">
         <v>718.7263581280739</v>
       </c>
       <c r="W9" t="n">
-        <v>784.6576742747505</v>
+        <v>645.4826073615386</v>
       </c>
       <c r="X9" t="n">
-        <v>718.9715174493566</v>
+        <v>718.9715174493565</v>
       </c>
       <c r="Y9" t="n">
         <v>135.4731150294801</v>
@@ -1377,7 +1377,7 @@
         <v>135.5193252408589</v>
       </c>
       <c r="AA9" t="n">
-        <v>147.9005440160097</v>
+        <v>121.6673613367551</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>139.3493057089765</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8747973931123</v>
+        <v>128.0761040545412</v>
       </c>
       <c r="U10" t="n">
         <v>139.3493049558066</v>
@@ -1466,7 +1466,7 @@
         <v>742.0600479351514</v>
       </c>
       <c r="W10" t="n">
-        <v>819.410896585394</v>
+        <v>682.0282270551564</v>
       </c>
       <c r="X10" t="n">
         <v>742.0600439243865</v>
@@ -1478,7 +1478,7 @@
         <v>139.8712939249621</v>
       </c>
       <c r="AA10" t="n">
-        <v>154.4511974468888</v>
+        <v>128.5558647074564</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>147.4578185260966</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8254074752802</v>
+        <v>115.4658429434593</v>
       </c>
       <c r="U11" t="n">
         <v>147.4736260571129</v>
@@ -1567,7 +1567,7 @@
         <v>785.2393331073433</v>
       </c>
       <c r="W11" t="n">
-        <v>648.7421465853943</v>
+        <v>614.8763247406449</v>
       </c>
       <c r="X11" t="n">
         <v>785.3235110453966</v>
@@ -1579,7 +1579,7 @@
         <v>148.0260479444527</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.2817536255903</v>
+        <v>115.8983667823822</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>152.9408534137777</v>
       </c>
       <c r="T12" t="n">
-        <v>184.4558889083445</v>
+        <v>152.9408576626033</v>
       </c>
       <c r="U12" t="n">
         <v>152.9408576626033</v>
@@ -1668,7 +1668,7 @@
         <v>814.4374773742417</v>
       </c>
       <c r="W12" t="n">
-        <v>982.2606942233929</v>
+        <v>814.4375000000001</v>
       </c>
       <c r="X12" t="n">
         <v>814.4375000000001</v>
@@ -1680,7 +1680,7 @@
         <v>153.5137592688107</v>
       </c>
       <c r="AA12" t="n">
-        <v>185.146842762305</v>
+        <v>153.5137592688107</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>141.1509834792325</v>
       </c>
       <c r="T13" t="n">
-        <v>136.306482365956</v>
+        <v>95.30236133237626</v>
       </c>
       <c r="U13" t="n">
         <v>141.1509732276523</v>
@@ -1769,7 +1769,7 @@
         <v>751.6543052280576</v>
       </c>
       <c r="W13" t="n">
-        <v>725.8564678434384</v>
+        <v>507.5021684451825</v>
       </c>
       <c r="X13" t="n">
         <v>751.6542506365545</v>
@@ -1781,7 +1781,7 @@
         <v>141.6797110712588</v>
       </c>
       <c r="AA13" t="n">
-        <v>136.8170732170692</v>
+        <v>95.65935472653599</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>123.4990785607441</v>
       </c>
       <c r="T14" t="n">
-        <v>107.5686188938206</v>
+        <v>102.8037492387761</v>
       </c>
       <c r="U14" t="n">
         <v>123.4990721164741</v>
@@ -1870,7 +1870,7 @@
         <v>657.65474532127</v>
       </c>
       <c r="W14" t="n">
-        <v>572.8221901540812</v>
+        <v>547.4484045680127</v>
       </c>
       <c r="X14" t="n">
         <v>657.6547110043766</v>
@@ -1882,7 +1882,7 @@
         <v>123.9616876520606</v>
       </c>
       <c r="AA14" t="n">
-        <v>107.9715604980696</v>
+        <v>103.1888421038427</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>105.7583067909172</v>
       </c>
       <c r="T15" t="n">
-        <v>74.50203472103705</v>
+        <v>72.08947227142319</v>
       </c>
       <c r="U15" t="n">
         <v>105.7582989362429</v>
@@ -1971,7 +1971,7 @@
         <v>563.1819534910899</v>
       </c>
       <c r="W15" t="n">
-        <v>396.7366982926973</v>
+        <v>383.8893705080445</v>
       </c>
       <c r="X15" t="n">
         <v>563.1819116635403</v>
@@ -1983,7 +1983,7 @@
         <v>106.154459257666</v>
       </c>
       <c r="AA15" t="n">
-        <v>74.78111211088377</v>
+        <v>72.35951243653099</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>136.938687899711</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5625057953579</v>
+        <v>119.6487158315901</v>
       </c>
       <c r="U16" t="n">
         <v>136.9386777893831</v>
@@ -2072,7 +2072,7 @@
         <v>729.2230757091629</v>
       </c>
       <c r="W16" t="n">
-        <v>743.195376636755</v>
+        <v>637.1508731503473</v>
       </c>
       <c r="X16" t="n">
         <v>729.223021869853</v>
@@ -2084,7 +2084,7 @@
         <v>137.4516367831826</v>
       </c>
       <c r="AA16" t="n">
-        <v>140.0852933941621</v>
+        <v>120.0969083063033</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>134.2846534294568</v>
       </c>
       <c r="T17" t="n">
-        <v>121.8945019651445</v>
+        <v>113.3530476108643</v>
       </c>
       <c r="U17" t="n">
         <v>134.2846534294568</v>
@@ -2173,7 +2173,7 @@
         <v>715.0898661018505</v>
       </c>
       <c r="W17" t="n">
-        <v>649.1100871373752</v>
+        <v>603.6253106232376</v>
       </c>
       <c r="X17" t="n">
         <v>715.0898661018505</v>
@@ -2185,7 +2185,7 @@
         <v>134.7876707056411</v>
       </c>
       <c r="AA17" t="n">
-        <v>122.3511069367063</v>
+        <v>113.7776571235691</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2265,28 +2265,28 @@
         <v>157.1333107673816</v>
       </c>
       <c r="T18" t="n">
-        <v>171.9667224238366</v>
+        <v>143.7458686501498</v>
       </c>
       <c r="U18" t="n">
-        <v>157.2018141335658</v>
+        <v>157.201814133566</v>
       </c>
       <c r="V18" t="n">
         <v>836.7630647817501</v>
       </c>
       <c r="W18" t="n">
-        <v>915.753642516087</v>
+        <v>765.4725342068127</v>
       </c>
       <c r="X18" t="n">
-        <v>837.127857494105</v>
+        <v>837.1278574941061</v>
       </c>
       <c r="Y18" t="n">
         <v>157.7219168959409</v>
       </c>
       <c r="Z18" t="n">
-        <v>157.7906768690848</v>
+        <v>157.790676869085</v>
       </c>
       <c r="AA18" t="n">
-        <v>172.6108930725207</v>
+        <v>144.2843267201118</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>122.1976421021342</v>
       </c>
       <c r="T19" t="n">
-        <v>130.1186679046056</v>
+        <v>113.2700116235083</v>
       </c>
       <c r="U19" t="n">
         <v>122.1976242665745</v>
@@ -2375,7 +2375,7 @@
         <v>650.7243627409828</v>
       </c>
       <c r="W19" t="n">
-        <v>692.9052459306926</v>
+        <v>603.1831290964318</v>
       </c>
       <c r="X19" t="n">
         <v>650.7242677634282</v>
@@ -2387,7 +2387,7 @@
         <v>122.6553647048521</v>
       </c>
       <c r="AA19" t="n">
-        <v>130.6060798034231</v>
+        <v>113.6943100914651</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2464,31 +2464,31 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
-        <v>108.5841644566328</v>
+        <v>108.8634653949697</v>
       </c>
       <c r="T20" t="n">
-        <v>109.1674576978516</v>
+        <v>97.62868442505626</v>
       </c>
       <c r="U20" t="n">
         <v>108.584159743086</v>
       </c>
       <c r="V20" t="n">
-        <v>578.2301524340984</v>
+        <v>579.7174800288514</v>
       </c>
       <c r="W20" t="n">
-        <v>581.3362935686874</v>
+        <v>519.89025618544</v>
       </c>
       <c r="X20" t="n">
         <v>578.2301273336162</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.9909101959768</v>
+        <v>109.2712573685159</v>
       </c>
       <c r="Z20" t="n">
         <v>108.9909054647735</v>
       </c>
       <c r="AA20" t="n">
-        <v>109.5763883970546</v>
+        <v>97.99439199969544</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>102.6187344619679</v>
       </c>
       <c r="T21" t="n">
-        <v>116.070868475766</v>
+        <v>94.10064881843485</v>
       </c>
       <c r="U21" t="n">
         <v>102.6187362245841</v>
@@ -2577,7 +2577,7 @@
         <v>546.463167695475</v>
       </c>
       <c r="W21" t="n">
-        <v>618.0981942233904</v>
+        <v>501.1028337577029</v>
       </c>
       <c r="X21" t="n">
         <v>546.4631770817224</v>
@@ -2589,7 +2589,7 @@
         <v>103.0031360488595</v>
       </c>
       <c r="AA21" t="n">
-        <v>116.5056586816007</v>
+        <v>94.45314071417249</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2669,28 +2669,28 @@
         <v>156.1622154830298</v>
       </c>
       <c r="T22" t="n">
-        <v>163.338738213714</v>
+        <v>142.742746993877</v>
       </c>
       <c r="U22" t="n">
-        <v>156.2302863745529</v>
+        <v>156.2302863745531</v>
       </c>
       <c r="V22" t="n">
         <v>831.5918082075649</v>
       </c>
       <c r="W22" t="n">
-        <v>869.8080789987592</v>
+        <v>760.1307314575894</v>
       </c>
       <c r="X22" t="n">
-        <v>831.9542979147767</v>
+        <v>831.9542979147774</v>
       </c>
       <c r="Y22" t="n">
         <v>156.7471839829221</v>
       </c>
       <c r="Z22" t="n">
-        <v>156.8155098613969</v>
+        <v>156.815509861397</v>
       </c>
       <c r="AA22" t="n">
-        <v>163.9505892711009</v>
+        <v>143.2774474674918</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>124.8465588268868</v>
       </c>
       <c r="T23" t="n">
-        <v>131.4476402054596</v>
+        <v>114.1672449182469</v>
       </c>
       <c r="U23" t="n">
         <v>124.870762099779</v>
@@ -2779,7 +2779,7 @@
         <v>664.8303194355309</v>
       </c>
       <c r="W23" t="n">
-        <v>699.9822618100237</v>
+        <v>607.961057327328</v>
       </c>
       <c r="X23" t="n">
         <v>664.9592062050143</v>
@@ -2791,7 +2791,7 @@
         <v>125.3385158528874</v>
       </c>
       <c r="AA23" t="n">
-        <v>131.9400303055073</v>
+        <v>114.5949043350276</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>121.687104153988</v>
       </c>
       <c r="T24" t="n">
-        <v>119.8765477338558</v>
+        <v>111.8319137558399</v>
       </c>
       <c r="U24" t="n">
         <v>121.7397080829612</v>
@@ -2880,7 +2880,7 @@
         <v>648.0056565920962</v>
       </c>
       <c r="W24" t="n">
-        <v>638.3641188960385</v>
+        <v>595.525</v>
       </c>
       <c r="X24" t="n">
         <v>648.2857819494262</v>
@@ -2892,7 +2892,7 @@
         <v>122.1957332116668</v>
       </c>
       <c r="AA24" t="n">
-        <v>120.3255936447584</v>
+        <v>112.2508252487864</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>117.9613100412668</v>
       </c>
       <c r="T25" t="n">
-        <v>122.6319068945848</v>
+        <v>106.8381491219319</v>
       </c>
       <c r="U25" t="n">
         <v>117.9613083451017</v>
@@ -2981,7 +2981,7 @@
         <v>628.165134647506</v>
       </c>
       <c r="W25" t="n">
-        <v>653.0369006547018</v>
+        <v>568.9323075946734</v>
       </c>
       <c r="X25" t="n">
         <v>628.1651256151224</v>
@@ -2993,7 +2993,7 @@
         <v>118.4031799551741</v>
       </c>
       <c r="AA25" t="n">
-        <v>123.0912741134294</v>
+        <v>107.238354457325</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3070,31 +3070,31 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
-        <v>145.7489784629422</v>
+        <v>145.9981655329674</v>
       </c>
       <c r="T26" t="n">
-        <v>167.5482357424653</v>
+        <v>136.7805867641109</v>
       </c>
       <c r="U26" t="n">
-        <v>146.1114276791162</v>
+        <v>146.1114276791161</v>
       </c>
       <c r="V26" t="n">
-        <v>776.139453257019</v>
+        <v>777.4664191014983</v>
       </c>
       <c r="W26" t="n">
-        <v>892.2244083954181</v>
+        <v>728.3811588035485</v>
       </c>
       <c r="X26" t="n">
-        <v>778.0695603455308</v>
+        <v>778.0695603455305</v>
       </c>
       <c r="Y26" t="n">
-        <v>146.2949399878129</v>
+        <v>146.5450604884128</v>
       </c>
       <c r="Z26" t="n">
-        <v>146.6587469035662</v>
+        <v>146.6587469035661</v>
       </c>
       <c r="AA26" t="n">
-        <v>168.1758551689617</v>
+        <v>137.2929535642764</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>134.8034961847935</v>
       </c>
       <c r="T27" t="n">
-        <v>136.4588313802627</v>
+        <v>116.683002645401</v>
       </c>
       <c r="U27" t="n">
         <v>134.8034832174986</v>
@@ -3183,7 +3183,7 @@
         <v>717.8527968386568</v>
       </c>
       <c r="W27" t="n">
-        <v>726.6677536714091</v>
+        <v>621.3579184749822</v>
       </c>
       <c r="X27" t="n">
         <v>717.8527277854857</v>
@@ -3195,7 +3195,7 @@
         <v>135.308443979704</v>
       </c>
       <c r="AA27" t="n">
-        <v>136.9699929159943</v>
+        <v>117.1200858464127</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>143.5985745948034</v>
       </c>
       <c r="T28" t="n">
-        <v>155.5237648791764</v>
+        <v>132.7262910191612</v>
       </c>
       <c r="U28" t="n">
         <v>143.5985764360046</v>
@@ -3284,7 +3284,7 @@
         <v>764.6881669420113</v>
       </c>
       <c r="W28" t="n">
-        <v>828.19194422339</v>
+        <v>706.7913067441212</v>
       </c>
       <c r="X28" t="n">
         <v>764.6881767467377</v>
@@ -3296,7 +3296,7 @@
         <v>144.1364827636307</v>
       </c>
       <c r="AA28" t="n">
-        <v>156.1063418050836</v>
+        <v>133.2234708210331</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>148.6210637075173</v>
       </c>
       <c r="T29" t="n">
-        <v>170.4570810395192</v>
+        <v>141.4741481953136</v>
       </c>
       <c r="U29" t="n">
         <v>148.862475753204</v>
@@ -3385,7 +3385,7 @@
         <v>791.4338223492784</v>
       </c>
       <c r="W29" t="n">
-        <v>907.7145313607647</v>
+        <v>753.3752153071288</v>
       </c>
       <c r="X29" t="n">
         <v>792.719384794552</v>
@@ -3397,7 +3397,7 @@
         <v>149.420100136684</v>
       </c>
       <c r="AA29" t="n">
-        <v>171.0955967181247</v>
+        <v>142.004096620977</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>136.8604916232561</v>
       </c>
       <c r="T30" t="n">
-        <v>152.0516722798653</v>
+        <v>122.4915936561311</v>
       </c>
       <c r="U30" t="n">
         <v>136.8610858329887</v>
@@ -3486,10 +3486,10 @@
         <v>728.8066665110024</v>
       </c>
       <c r="W30" t="n">
-        <v>809.7024283440578</v>
+        <v>652.2897074920007</v>
       </c>
       <c r="X30" t="n">
-        <v>728.8098307844115</v>
+        <v>728.8098307844116</v>
       </c>
       <c r="Y30" t="n">
         <v>137.3731577392672</v>
@@ -3498,7 +3498,7 @@
         <v>137.3737541748517</v>
       </c>
       <c r="AA30" t="n">
-        <v>152.6212430839458</v>
+        <v>122.9504352752052</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>146.0705252385384</v>
       </c>
       <c r="T31" t="n">
-        <v>162.1544663488684</v>
+        <v>140.8300552180137</v>
       </c>
       <c r="U31" t="n">
         <v>146.0705245200236</v>
@@ -3587,7 +3587,7 @@
         <v>777.8517475127978</v>
       </c>
       <c r="W31" t="n">
-        <v>863.5016188960382</v>
+        <v>749.9453046722808</v>
       </c>
       <c r="X31" t="n">
         <v>777.8517436865782</v>
@@ -3599,7 +3599,7 @@
         <v>146.6176905252103</v>
       </c>
       <c r="AA31" t="n">
-        <v>162.7618812388117</v>
+        <v>141.3575909339089</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>135.1628755053834</v>
       </c>
       <c r="T32" t="n">
-        <v>144.5170568318478</v>
+        <v>127.0048267368986</v>
       </c>
       <c r="U32" t="n">
         <v>135.1628673868522</v>
@@ -3688,7 +3688,7 @@
         <v>719.7665561825377</v>
       </c>
       <c r="W32" t="n">
-        <v>769.5792496021008</v>
+        <v>676.3234831840824</v>
       </c>
       <c r="X32" t="n">
         <v>719.7665129499028</v>
@@ -3700,7 +3700,7 @@
         <v>135.6691743672691</v>
       </c>
       <c r="AA32" t="n">
-        <v>145.058403697876</v>
+        <v>127.4805744889752</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>143.7546110100494</v>
       </c>
       <c r="T33" t="n">
-        <v>164.9794885604705</v>
+        <v>130.6701116826025</v>
       </c>
       <c r="U33" t="n">
         <v>143.7546155676683</v>
@@ -3789,7 +3789,7 @@
         <v>765.5190888413919</v>
       </c>
       <c r="W33" t="n">
-        <v>878.5453688960375</v>
+        <v>695.8417829607981</v>
       </c>
       <c r="X33" t="n">
         <v>765.5191131115297</v>
@@ -3801,7 +3801,7 @@
         <v>144.2931064027342</v>
       </c>
       <c r="AA33" t="n">
-        <v>165.597485709382</v>
+        <v>131.1595892362814</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>145.198923482512</v>
       </c>
       <c r="T34" t="n">
-        <v>146.2628703159234</v>
+        <v>126.591596887104</v>
       </c>
       <c r="U34" t="n">
         <v>145.1989409503072</v>
@@ -3890,7 +3890,7 @@
         <v>773.2103118230642</v>
       </c>
       <c r="W34" t="n">
-        <v>778.8760195507402</v>
+        <v>674.1229601130366</v>
       </c>
       <c r="X34" t="n">
         <v>773.2104048422069</v>
@@ -3902,7 +3902,7 @@
         <v>145.74284208805</v>
       </c>
       <c r="AA34" t="n">
-        <v>146.8107568297897</v>
+        <v>127.0657967202772</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>149.0554916567512</v>
       </c>
       <c r="T35" t="n">
-        <v>164.7090534962849</v>
+        <v>139.0793701053376</v>
       </c>
       <c r="U35" t="n">
         <v>149.0554807383193</v>
@@ -3991,7 +3991,7 @@
         <v>793.7472291021342</v>
       </c>
       <c r="W35" t="n">
-        <v>877.1052536714088</v>
+        <v>740.6225924275216</v>
       </c>
       <c r="X35" t="n">
         <v>793.7471709595259</v>
@@ -4003,7 +4003,7 @@
         <v>149.6138280997378</v>
       </c>
       <c r="AA35" t="n">
-        <v>165.3260376216982</v>
+        <v>139.6003479247469</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>118.6239252998188</v>
       </c>
       <c r="T36" t="n">
-        <v>123.9756077910262</v>
+        <v>105.4477842052396</v>
       </c>
       <c r="U36" t="n">
         <v>118.6239368656947</v>
@@ -4092,7 +4092,7 @@
         <v>631.6936797523559</v>
       </c>
       <c r="W36" t="n">
-        <v>660.192348947399</v>
+        <v>561.528365024032</v>
       </c>
       <c r="X36" t="n">
         <v>631.6937413427192</v>
@@ -4104,7 +4104,7 @@
         <v>119.0682906178812</v>
       </c>
       <c r="AA36" t="n">
-        <v>124.4400083829903</v>
+        <v>105.8427813686232</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>152.4799242783063</v>
       </c>
       <c r="T37" t="n">
-        <v>178.667086944402</v>
+        <v>149.2393905589104</v>
       </c>
       <c r="U37" t="n">
         <v>152.4799258306665</v>
@@ -4193,7 +4193,7 @@
         <v>811.982947051163</v>
       </c>
       <c r="W37" t="n">
-        <v>951.4342854300724</v>
+        <v>794.726523742012</v>
       </c>
       <c r="X37" t="n">
         <v>811.9829553177594</v>
@@ -4205,7 +4205,7 @@
         <v>153.051100830976</v>
       </c>
       <c r="AA37" t="n">
-        <v>179.3363565081483</v>
+        <v>149.7984268286639</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>160.4801055532219</v>
       </c>
       <c r="T38" t="n">
-        <v>162.8451539623303</v>
+        <v>144.5502076421822</v>
       </c>
       <c r="U38" t="n">
         <v>160.4801011700442</v>
@@ -4294,7 +4294,7 @@
         <v>854.5853473297266</v>
       </c>
       <c r="W38" t="n">
-        <v>867.1796543261113</v>
+        <v>769.7557836133808</v>
       </c>
       <c r="X38" t="n">
         <v>854.5853239885195</v>
@@ -4306,7 +4306,7 @@
         <v>161.0812440505651</v>
       </c>
       <c r="AA38" t="n">
-        <v>163.4551561010257</v>
+        <v>145.0916786879279</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>119.4424949382637</v>
       </c>
       <c r="T39" t="n">
-        <v>113.6844960602616</v>
+        <v>99.85158615783226</v>
       </c>
       <c r="U39" t="n">
         <v>119.4425248700071</v>
@@ -4395,7 +4395,7 @@
         <v>636.0527099036168</v>
       </c>
       <c r="W39" t="n">
-        <v>605.3903330680672</v>
+        <v>531.7276066335565</v>
       </c>
       <c r="X39" t="n">
         <v>636.0528692955191</v>
@@ -4407,7 +4407,7 @@
         <v>119.8899449733941</v>
       </c>
       <c r="AA39" t="n">
-        <v>114.1103471466827</v>
+        <v>100.2256205065762</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>139.2319610626539</v>
       </c>
       <c r="T40" t="n">
-        <v>146.2563588596433</v>
+        <v>127.305585740461</v>
       </c>
       <c r="U40" t="n">
         <v>139.2319544227588</v>
@@ -4496,7 +4496,7 @@
         <v>741.4351666454161</v>
       </c>
       <c r="W40" t="n">
-        <v>778.8413448780915</v>
+        <v>677.9250788250866</v>
       </c>
       <c r="X40" t="n">
         <v>741.4351312867839</v>
@@ -4508,7 +4508,7 @@
         <v>139.7535038082092</v>
       </c>
       <c r="AA40" t="n">
-        <v>146.8042209822265</v>
+        <v>127.7824601065691</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>172.5277916064204</v>
       </c>
       <c r="T41" t="n">
-        <v>176.1425255491691</v>
+        <v>164.0424440573868</v>
       </c>
       <c r="U41" t="n">
         <v>172.5277845472153</v>
@@ -4597,7 +4597,7 @@
         <v>918.7414365521234</v>
       </c>
       <c r="W41" t="n">
-        <v>937.9905431707878</v>
+        <v>873.5554388397811</v>
       </c>
       <c r="X41" t="n">
         <v>918.7413989605902</v>
@@ -4609,7 +4609,7 @@
         <v>173.1740568801491</v>
       </c>
       <c r="AA41" t="n">
-        <v>176.8023383509984</v>
+        <v>164.6569311285525</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>147.4310698131381</v>
       </c>
       <c r="T42" t="n">
-        <v>173.6505214353371</v>
+        <v>138.1567881053092</v>
       </c>
       <c r="U42" t="n">
         <v>147.5250647667818</v>
@@ -4698,7 +4698,7 @@
         <v>785.0968914129326</v>
       </c>
       <c r="W42" t="n">
-        <v>924.7201742747504</v>
+        <v>735.7096777941689</v>
       </c>
       <c r="X42" t="n">
         <v>785.597431400926</v>
@@ -4710,7 +4710,7 @@
         <v>148.0776793385346</v>
       </c>
       <c r="AA42" t="n">
-        <v>174.300999431665</v>
+        <v>138.6743100221052</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>158.27608948495</v>
       </c>
       <c r="T43" t="n">
-        <v>147.0014123673818</v>
+        <v>139.1043064890497</v>
       </c>
       <c r="U43" t="n">
         <v>158.2760865955052</v>
@@ -4799,7 +4799,7 @@
         <v>842.8485664326093</v>
       </c>
       <c r="W43" t="n">
-        <v>782.8088884467786</v>
+        <v>740.7553831436192</v>
       </c>
       <c r="X43" t="n">
         <v>842.8485510457975</v>
@@ -4811,7 +4811,7 @@
         <v>158.8689734513827</v>
       </c>
       <c r="AA43" t="n">
-        <v>147.5520653880795</v>
+        <v>139.6253777177318</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>122.4260412324264</v>
       </c>
       <c r="T44" t="n">
-        <v>124.6988526858883</v>
+        <v>107.8672604095599</v>
       </c>
       <c r="U44" t="n">
         <v>122.4260353007626</v>
@@ -4900,7 +4900,7 @@
         <v>651.9406290776586</v>
       </c>
       <c r="W44" t="n">
-        <v>664.0437577407164</v>
+        <v>574.4125097926141</v>
       </c>
       <c r="X44" t="n">
         <v>651.9405974904848</v>
@@ -4912,7 +4912,7 @@
         <v>122.8846313446015</v>
       </c>
       <c r="AA44" t="n">
-        <v>125.1659624830202</v>
+        <v>108.2713206959364</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>145.7062345154444</v>
       </c>
       <c r="T45" t="n">
-        <v>146.7156801465997</v>
+        <v>130.7407906169985</v>
       </c>
       <c r="U45" t="n">
         <v>145.7062615500503</v>
@@ -5001,7 +5001,7 @@
         <v>775.9118340696264</v>
       </c>
       <c r="W45" t="n">
-        <v>781.2873131194285</v>
+        <v>696.2181609641121</v>
       </c>
       <c r="X45" t="n">
         <v>775.911978033752</v>
@@ -5013,7 +5013,7 @@
         <v>146.2520630615119</v>
       </c>
       <c r="AA45" t="n">
-        <v>147.2652628421357</v>
+        <v>131.2305329271047</v>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>158.1850441785413</v>
       </c>
       <c r="T46" t="n">
-        <v>183.8578100806502</v>
+        <v>152.5165156518637</v>
       </c>
       <c r="U46" t="n">
         <v>158.1850472503425</v>
@@ -5102,7 +5102,7 @@
         <v>842.3637338452188</v>
       </c>
       <c r="W46" t="n">
-        <v>979.0758171887362</v>
+        <v>812.1778026787376</v>
       </c>
       <c r="X46" t="n">
         <v>842.3637502031114</v>
@@ -5114,7 +5114,7 @@
         <v>158.7775930816705</v>
       </c>
       <c r="AA46" t="n">
-        <v>184.5465235893801</v>
+        <v>153.0878277140915</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>138.4603255233197</v>
       </c>
       <c r="T47" t="n">
-        <v>147.4590279713112</v>
+        <v>127.7948700886578</v>
       </c>
       <c r="U47" t="n">
         <v>138.4603266200077</v>
@@ -5203,7 +5203,7 @@
         <v>737.3260689904721</v>
       </c>
       <c r="W47" t="n">
-        <v>785.2457736200492</v>
+        <v>680.5306057419918</v>
       </c>
       <c r="X47" t="n">
         <v>737.3260748305325</v>
@@ -5215,7 +5215,7 @@
         <v>138.978985562614</v>
       </c>
       <c r="AA47" t="n">
-        <v>148.0113951756387</v>
+        <v>128.2735772664373</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>138.9141346290938</v>
       </c>
       <c r="T48" t="n">
-        <v>163.3795126344216</v>
+        <v>136.0069475549464</v>
       </c>
       <c r="U48" t="n">
         <v>138.9141517008288</v>
@@ -5304,7 +5304,7 @@
         <v>739.7426838782958</v>
       </c>
       <c r="W48" t="n">
-        <v>870.0252101027205</v>
+        <v>724.2613912473608</v>
       </c>
       <c r="X48" t="n">
         <v>739.7427747883465</v>
@@ -5316,7 +5316,7 @@
         <v>139.4345106281332</v>
       </c>
       <c r="AA48" t="n">
-        <v>163.9915164288303</v>
+        <v>136.5164163777347</v>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>123.6587992973366</v>
       </c>
       <c r="T49" t="n">
-        <v>119.9396993284491</v>
+        <v>111.0249503248606</v>
       </c>
       <c r="U49" t="n">
         <v>123.6587948116768</v>
@@ -5405,7 +5405,7 @@
         <v>658.5052868926763</v>
       </c>
       <c r="W49" t="n">
-        <v>638.7004124647264</v>
+        <v>591.2277749852948</v>
       </c>
       <c r="X49" t="n">
         <v>658.5052630057334</v>
@@ -5417,7 +5417,7 @@
         <v>124.1220086529746</v>
       </c>
       <c r="AA49" t="n">
-        <v>120.3889817990946</v>
+        <v>111.4408390111299</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>96.36795249673628</v>
       </c>
       <c r="T50" t="n">
-        <v>107.1294005367137</v>
+        <v>89.48453882570432</v>
       </c>
       <c r="U50" t="n">
         <v>96.36796488922003</v>
@@ -5506,7 +5506,7 @@
         <v>513.1766325301035</v>
       </c>
       <c r="W50" t="n">
-        <v>570.4832736200481</v>
+        <v>476.5212200564236</v>
       </c>
       <c r="X50" t="n">
         <v>513.1766985223023</v>
@@ -5518,7 +5518,7 @@
         <v>96.72894993086118</v>
       </c>
       <c r="AA50" t="n">
-        <v>107.5306968716336</v>
+        <v>89.81973922151396</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>166.1877603330804</v>
       </c>
       <c r="T51" t="n">
-        <v>149.3033931364253</v>
+        <v>136.8757752759897</v>
       </c>
       <c r="U51" t="n">
         <v>166.1877816037669</v>
@@ -5607,7 +5607,7 @@
         <v>884.9796328124585</v>
       </c>
       <c r="W51" t="n">
-        <v>795.0673489473978</v>
+        <v>728.8880547032321</v>
       </c>
       <c r="X51" t="n">
         <v>884.9797460826793</v>
@@ -5619,7 +5619,7 @@
         <v>166.8103049011245</v>
       </c>
       <c r="AA51" t="n">
-        <v>149.8626691536211</v>
+        <v>137.3884986430803</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>128.282798228615</v>
       </c>
       <c r="T52" t="n">
-        <v>130.5655348400107</v>
+        <v>117.1067653545891</v>
       </c>
       <c r="U52" t="n">
         <v>128.282806079304</v>
@@ -5708,7 +5708,7 @@
         <v>683.128910606759</v>
       </c>
       <c r="W52" t="n">
-        <v>695.2848925160866</v>
+        <v>623.614530911574</v>
       </c>
       <c r="X52" t="n">
         <v>683.1289524130859</v>
@@ -5720,7 +5720,7 @@
         <v>128.7633410179385</v>
       </c>
       <c r="AA52" t="n">
-        <v>131.0546206589891</v>
+        <v>117.5454359295731</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>169.5358709360638</v>
       </c>
       <c r="T53" t="n">
-        <v>154.5566993062577</v>
+        <v>131.9806225340352</v>
       </c>
       <c r="U53" t="n">
         <v>169.5358441687618</v>
@@ -5809,7 +5809,7 @@
         <v>902.8089223227398</v>
       </c>
       <c r="W53" t="n">
-        <v>823.042146585394</v>
+        <v>702.8204883105374</v>
       </c>
       <c r="X53" t="n">
         <v>902.8087797820552</v>
@@ -5821,7 +5821,7 @@
         <v>170.1709089834777</v>
       </c>
       <c r="AA53" t="n">
-        <v>155.1356536984058</v>
+        <v>132.4750091341469</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>150.6526420559427</v>
       </c>
       <c r="T54" t="n">
-        <v>135.6163633135032</v>
+        <v>128.5754095398853</v>
       </c>
       <c r="U54" t="n">
         <v>150.6526784838332</v>
@@ -5910,7 +5910,7 @@
         <v>802.2523414581214</v>
       </c>
       <c r="W54" t="n">
-        <v>722.1814601027208</v>
+        <v>684.6871183248593</v>
       </c>
       <c r="X54" t="n">
         <v>802.2525354431725</v>
@@ -5922,7 +5922,7 @@
         <v>151.2170087929598</v>
       </c>
       <c r="AA54" t="n">
-        <v>136.1243690456386</v>
+        <v>129.057040542679</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>102.0519678535106</v>
       </c>
       <c r="T55" t="n">
-        <v>71.34285728964673</v>
+        <v>67.22733921720049</v>
       </c>
       <c r="U55" t="n">
         <v>102.0519681292183</v>
@@ -6011,7 +6011,7 @@
         <v>543.4450338447174</v>
       </c>
       <c r="W55" t="n">
-        <v>379.913511810024</v>
+        <v>357.9976398752512</v>
       </c>
       <c r="X55" t="n">
         <v>543.44503531291</v>
@@ -6023,7 +6023,7 @@
         <v>102.4342448952269</v>
       </c>
       <c r="AA55" t="n">
-        <v>71.61010070750979</v>
+        <v>67.47916630387438</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>153.7109530585857</v>
       </c>
       <c r="T56" t="n">
-        <v>169.237977649237</v>
+        <v>147.1640940312401</v>
       </c>
       <c r="U56" t="n">
         <v>153.7109447850978</v>
@@ -6112,7 +6112,7 @@
         <v>818.53839611534</v>
       </c>
       <c r="W56" t="n">
-        <v>901.2225871373755</v>
+        <v>783.6751974869754</v>
       </c>
       <c r="X56" t="n">
         <v>818.5383520575333</v>
@@ -6124,7 +6124,7 @@
         <v>154.2867310629105</v>
       </c>
       <c r="AA56" t="n">
-        <v>169.871926684886</v>
+        <v>147.7153564416585</v>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>151.4488057950835</v>
       </c>
       <c r="T57" t="n">
-        <v>160.7782081710266</v>
+        <v>132.3413623482335</v>
       </c>
       <c r="U57" t="n">
         <v>151.4513975732121</v>
@@ -6213,7 +6213,7 @@
         <v>806.4920561766497</v>
       </c>
       <c r="W57" t="n">
-        <v>856.1727972400961</v>
+        <v>704.7414925269144</v>
       </c>
       <c r="X57" t="n">
         <v>806.5058578600709</v>
@@ -6225,7 +6225,7 @@
         <v>152.0187198065126</v>
       </c>
       <c r="AA57" t="n">
-        <v>161.3804677314347</v>
+        <v>132.8371002446708</v>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>128.4136371924826</v>
       </c>
       <c r="T58" t="n">
-        <v>120.6221698026034</v>
+        <v>108.9365283846585</v>
       </c>
       <c r="U58" t="n">
         <v>128.4136733627494</v>
@@ -6314,7 +6314,7 @@
         <v>683.8256515578918</v>
       </c>
       <c r="W58" t="n">
-        <v>642.3346901540815</v>
+        <v>580.1065535542261</v>
       </c>
       <c r="X58" t="n">
         <v>683.8258441710507</v>
@@ -6326,7 +6326,7 @@
         <v>128.894698517524</v>
       </c>
       <c r="AA58" t="n">
-        <v>121.0740087413948</v>
+        <v>109.3445940450715</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>132.1131426406206</v>
       </c>
       <c r="T59" t="n">
-        <v>144.648734355296</v>
+        <v>120.491413973953</v>
       </c>
       <c r="U59" t="n">
         <v>132.1164615225414</v>
@@ -6415,19 +6415,19 @@
         <v>703.5261816481888</v>
       </c>
       <c r="W59" t="n">
-        <v>770.2804560334129</v>
+        <v>641.6383919128925</v>
       </c>
       <c r="X59" t="n">
-        <v>703.5438552897238</v>
+        <v>703.5438552897234</v>
       </c>
       <c r="Y59" t="n">
         <v>132.6080256481874</v>
       </c>
       <c r="Z59" t="n">
-        <v>132.6113569623177</v>
+        <v>132.6113569623176</v>
       </c>
       <c r="AA59" t="n">
-        <v>145.1905744725446</v>
+        <v>120.9427631141034</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>134.0967986485918</v>
       </c>
       <c r="T60" t="n">
-        <v>144.6198457251306</v>
+        <v>128.3159421657081</v>
       </c>
       <c r="U60" t="n">
         <v>134.0967931066156</v>
@@ -6516,7 +6516,7 @@
         <v>714.0895056982999</v>
       </c>
       <c r="W60" t="n">
-        <v>770.1266188960387</v>
+        <v>683.3054080167962</v>
       </c>
       <c r="X60" t="n">
         <v>714.0894761862829</v>
@@ -6528,7 +6528,7 @@
         <v>134.5991066762669</v>
       </c>
       <c r="AA60" t="n">
-        <v>145.1615776283749</v>
+        <v>128.7966012289057</v>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>148.6912733137501</v>
       </c>
       <c r="T61" t="n">
-        <v>168.5005727197967</v>
+        <v>141.4631472150967</v>
       </c>
       <c r="U61" t="n">
         <v>148.6912866347793</v>
@@ -6617,7 +6617,7 @@
         <v>791.80770109594</v>
       </c>
       <c r="W61" t="n">
-        <v>897.2957736200489</v>
+        <v>753.3166331142321</v>
       </c>
       <c r="X61" t="n">
         <v>791.8077720328102</v>
@@ -6629,7 +6629,7 @@
         <v>149.2482697604398</v>
       </c>
       <c r="AA61" t="n">
-        <v>169.1317595081629</v>
+        <v>141.9930544321562</v>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>139.9372559195478</v>
       </c>
       <c r="T62" t="n">
-        <v>130.2803711802376</v>
+        <v>122.9648046200353</v>
       </c>
       <c r="U62" t="n">
         <v>139.9372601068099</v>
@@ -6718,7 +6718,7 @@
         <v>745.1909882668612</v>
       </c>
       <c r="W62" t="n">
-        <v>693.7663448780911</v>
+        <v>654.8096407544713</v>
       </c>
       <c r="X62" t="n">
         <v>745.1910105647829</v>
@@ -6730,7 +6730,7 @@
         <v>140.4614514988859</v>
       </c>
       <c r="AA62" t="n">
-        <v>130.7683888038284</v>
+        <v>123.4254188414437</v>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>112.8503285653132</v>
       </c>
       <c r="T63" t="n">
-        <v>72.31757144086347</v>
+        <v>69.44346321739444</v>
       </c>
       <c r="U63" t="n">
         <v>112.850341470895</v>
@@ -6819,7 +6819,7 @@
         <v>600.9482415331438</v>
       </c>
       <c r="W63" t="n">
-        <v>385.10403949938</v>
+        <v>369.798897681649</v>
       </c>
       <c r="X63" t="n">
         <v>600.9483102576817</v>
@@ -6831,7 +6831,7 @@
         <v>113.2730678951992</v>
       </c>
       <c r="AA63" t="n">
-        <v>72.58846604331748</v>
+        <v>69.70359168944481</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>155.1349261705808</v>
       </c>
       <c r="T64" t="n">
-        <v>166.2535264060387</v>
+        <v>142.495391752853</v>
       </c>
       <c r="U64" t="n">
         <v>155.1349103138343</v>
@@ -6920,7 +6920,7 @@
         <v>826.1213083542591</v>
       </c>
       <c r="W64" t="n">
-        <v>885.3298489473984</v>
+        <v>758.8135204311154</v>
       </c>
       <c r="X64" t="n">
         <v>826.1212239142401</v>
@@ -6932,7 +6932,7 @@
         <v>155.7160306282875</v>
       </c>
       <c r="AA64" t="n">
-        <v>166.8762959770436</v>
+        <v>143.0291656577466</v>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>154.7858780452867</v>
       </c>
       <c r="T65" t="n">
-        <v>179.7876386536453</v>
+        <v>146.332135122137</v>
       </c>
       <c r="U65" t="n">
         <v>155.2819605154788</v>
@@ -7021,19 +7021,19 @@
         <v>824.2625644784316</v>
       </c>
       <c r="W65" t="n">
-        <v>957.40142427475</v>
+        <v>779.2448670678315</v>
       </c>
       <c r="X65" t="n">
-        <v>826.9042926143386</v>
+        <v>826.9042926143387</v>
       </c>
       <c r="Y65" t="n">
         <v>155.3656909187439</v>
       </c>
       <c r="Z65" t="n">
-        <v>155.8636316657125</v>
+        <v>155.8636316657126</v>
       </c>
       <c r="AA65" t="n">
-        <v>180.4611056953179</v>
+        <v>146.8802810952436</v>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
@@ -7113,28 +7113,28 @@
         <v>128.0406726662717</v>
       </c>
       <c r="T66" t="n">
-        <v>145.3572506545711</v>
+        <v>127.1259995221002</v>
       </c>
       <c r="U66" t="n">
-        <v>128.040682502547</v>
+        <v>128.0406825025471</v>
       </c>
       <c r="V66" t="n">
         <v>681.8395485573058</v>
       </c>
       <c r="W66" t="n">
-        <v>774.0534324133666</v>
+        <v>676.96875</v>
       </c>
       <c r="X66" t="n">
-        <v>681.8396009372365</v>
+        <v>681.8396009372368</v>
       </c>
       <c r="Y66" t="n">
         <v>128.5203005966459</v>
       </c>
       <c r="Z66" t="n">
-        <v>128.520310469767</v>
+        <v>128.5203104697671</v>
       </c>
       <c r="AA66" t="n">
-        <v>145.9017448050982</v>
+        <v>127.6022011756675</v>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>127.8649067072094</v>
       </c>
       <c r="T67" t="n">
-        <v>135.3442225662903</v>
+        <v>120.7576350764756</v>
       </c>
       <c r="U67" t="n">
         <v>127.8649118766067</v>
@@ -7223,7 +7223,7 @@
         <v>680.9035632982227</v>
       </c>
       <c r="W67" t="n">
-        <v>720.7322618100241</v>
+        <v>643.0560670358087</v>
       </c>
       <c r="X67" t="n">
         <v>680.9035908261903</v>
@@ -7235,7 +7235,7 @@
         <v>128.3438814241247</v>
       </c>
       <c r="AA67" t="n">
-        <v>135.8512088856044</v>
+        <v>121.2099814550329</v>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>137.5223119684616</v>
       </c>
       <c r="T68" t="n">
-        <v>149.665299864361</v>
+        <v>124.6152686965689</v>
       </c>
       <c r="U68" t="n">
         <v>137.5223104096348</v>
@@ -7324,7 +7324,7 @@
         <v>732.3309785596989</v>
       </c>
       <c r="W68" t="n">
-        <v>796.9945671887351</v>
+        <v>663.5986580051606</v>
       </c>
       <c r="X68" t="n">
         <v>732.3309702586666</v>
@@ -7336,7 +7336,7 @@
         <v>138.0374556345742</v>
       </c>
       <c r="AA68" t="n">
-        <v>150.2259315490279</v>
+        <v>125.0820653961907</v>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
@@ -7416,28 +7416,28 @@
         <v>142.2383720902759</v>
       </c>
       <c r="T69" t="n">
-        <v>145.3920821800079</v>
+        <v>127.4081140656466</v>
       </c>
       <c r="U69" t="n">
-        <v>142.2391787457397</v>
+        <v>145.9030730323778</v>
       </c>
       <c r="V69" t="n">
         <v>757.4448446263683</v>
       </c>
       <c r="W69" t="n">
-        <v>774.2389165340358</v>
+        <v>678.4710605471688</v>
       </c>
       <c r="X69" t="n">
-        <v>757.4491402114023</v>
+        <v>776.9600344791507</v>
       </c>
       <c r="Y69" t="n">
         <v>142.7711832244635</v>
       </c>
       <c r="Z69" t="n">
-        <v>142.7719929015803</v>
+        <v>146.4496117805469</v>
       </c>
       <c r="AA69" t="n">
-        <v>145.9367068060481</v>
+        <v>127.885372492908</v>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>151.1171136528311</v>
       </c>
       <c r="T70" t="n">
-        <v>172.0423283699809</v>
+        <v>148.1854441553314</v>
       </c>
       <c r="U70" t="n">
         <v>151.1171114806128</v>
@@ -7526,7 +7526,7 @@
         <v>804.7257360236555</v>
       </c>
       <c r="W70" t="n">
-        <v>916.1562577407166</v>
+        <v>789.1140700969662</v>
       </c>
       <c r="X70" t="n">
         <v>804.7257244562038</v>
@@ -7538,7 +7538,7 @@
         <v>151.683181510661</v>
       </c>
       <c r="AA70" t="n">
-        <v>172.6867822311999</v>
+        <v>148.740532444168</v>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>160.6682516331869</v>
       </c>
       <c r="T71" t="n">
-        <v>179.6134810264621</v>
+        <v>152.3085275145268</v>
       </c>
       <c r="U71" t="n">
         <v>160.6682393357454</v>
@@ -7627,7 +7627,7 @@
         <v>855.5872589532352</v>
       </c>
       <c r="W71" t="n">
-        <v>956.4740036714086</v>
+        <v>811.070228540661</v>
       </c>
       <c r="X71" t="n">
         <v>855.5871934671532</v>
@@ -7639,7 +7639,7 @@
         <v>161.2700869635717</v>
       </c>
       <c r="AA71" t="n">
-        <v>180.2862956905694</v>
+        <v>152.8790604733823</v>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>143.9960367554822</v>
       </c>
       <c r="T72" t="n">
-        <v>126.3684916628106</v>
+        <v>119.0903243391202</v>
       </c>
       <c r="U72" t="n">
         <v>143.9960184935385</v>
@@ -7728,7 +7728,7 @@
         <v>766.8047242402704</v>
       </c>
       <c r="W72" t="n">
-        <v>672.9348847753704</v>
+        <v>634.1773382944634</v>
       </c>
       <c r="X72" t="n">
         <v>766.804626992145</v>
@@ -7740,7 +7740,7 @@
         <v>144.5354136005308</v>
       </c>
       <c r="AA72" t="n">
-        <v>126.8418557654714</v>
+        <v>119.5364251335079</v>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
@@ -7820,28 +7820,28 @@
         <v>136.1843117549759</v>
       </c>
       <c r="T73" t="n">
-        <v>143.9461609512923</v>
+        <v>124.9974563901785</v>
       </c>
       <c r="U73" t="n">
-        <v>136.1972742453382</v>
+        <v>136.197274245338</v>
       </c>
       <c r="V73" t="n">
         <v>725.2058874262708</v>
       </c>
       <c r="W73" t="n">
-        <v>766.5391266367542</v>
+        <v>665.6338760265005</v>
       </c>
       <c r="X73" t="n">
-        <v>725.2749150125272</v>
+        <v>725.2749150125262</v>
       </c>
       <c r="Y73" t="n">
         <v>136.69444496684</v>
       </c>
       <c r="Z73" t="n">
-        <v>136.7074560134329</v>
+        <v>136.7074560134327</v>
       </c>
       <c r="AA73" t="n">
-        <v>144.4853692967712</v>
+        <v>125.4656847278</v>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>123.2664893679007</v>
       </c>
       <c r="T74" t="n">
-        <v>132.0958477151865</v>
+        <v>109.3104649370806</v>
       </c>
       <c r="U74" t="n">
         <v>123.2664907229534</v>
@@ -7930,7 +7930,7 @@
         <v>656.4161661499392</v>
       </c>
       <c r="W74" t="n">
-        <v>703.4340830680674</v>
+        <v>582.0978327687388</v>
       </c>
       <c r="X74" t="n">
         <v>656.4161733658381</v>
@@ -7942,7 +7942,7 @@
         <v>123.7282350312175</v>
       </c>
       <c r="AA74" t="n">
-        <v>132.5906659376415</v>
+        <v>109.7199313275194</v>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>133.9093135460643</v>
       </c>
       <c r="T75" t="n">
-        <v>152.4348190596679</v>
+        <v>123.8387346905463</v>
       </c>
       <c r="U75" t="n">
         <v>133.9148791591713</v>
@@ -8031,7 +8031,7 @@
         <v>713.0911138982055</v>
       </c>
       <c r="W75" t="n">
-        <v>811.7427536714067</v>
+        <v>659.4634751364647</v>
       </c>
       <c r="X75" t="n">
         <v>713.1207517863028</v>
@@ -8043,7 +8043,7 @@
         <v>134.4165112968347</v>
       </c>
       <c r="AA75" t="n">
-        <v>153.0058250943919</v>
+        <v>124.3026225691628</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
@@ -8123,28 +8123,28 @@
         <v>99.92224303699318</v>
       </c>
       <c r="T76" t="n">
-        <v>98.45005156670148</v>
+        <v>83.8424865488102</v>
       </c>
       <c r="U76" t="n">
-        <v>99.92388500113039</v>
+        <v>99.92388500113032</v>
       </c>
       <c r="V76" t="n">
         <v>494.096448103874</v>
       </c>
       <c r="W76" t="n">
-        <v>486.8167418613845</v>
+        <v>414.5851168355692</v>
       </c>
       <c r="X76" t="n">
-        <v>494.1045673035982</v>
+        <v>494.1045673035979</v>
       </c>
       <c r="Y76" t="n">
         <v>104.8786175851106</v>
       </c>
       <c r="Z76" t="n">
-        <v>104.8803409944697</v>
+        <v>104.8803409944696</v>
       </c>
       <c r="AA76" t="n">
-        <v>103.3334020101597</v>
+        <v>88.00126795474354</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>93.16987866025877</v>
       </c>
       <c r="T77" t="n">
-        <v>99.28169082579984</v>
+        <v>84.07372127898977</v>
       </c>
       <c r="U77" t="n">
         <v>93.16986909818462</v>
@@ -8233,7 +8233,7 @@
         <v>460.707293162542</v>
       </c>
       <c r="W77" t="n">
-        <v>490.9290394993801</v>
+        <v>415.7285285063589</v>
       </c>
       <c r="X77" t="n">
         <v>460.7072458799078</v>
@@ -8245,7 +8245,7 @@
         <v>97.79131026898291</v>
       </c>
       <c r="AA77" t="n">
-        <v>104.2062925015336</v>
+        <v>88.24397246278707</v>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
@@ -8325,28 +8325,28 @@
         <v>110.0196575904515</v>
       </c>
       <c r="T78" t="n">
-        <v>124.3394503642144</v>
+        <v>101.4800283966937</v>
       </c>
       <c r="U78" t="n">
-        <v>110.0206113276522</v>
+        <v>110.0206113276521</v>
       </c>
       <c r="V78" t="n">
         <v>544.0262386516007</v>
       </c>
       <c r="W78" t="n">
-        <v>614.8348847753707</v>
+        <v>501.7993998165501</v>
       </c>
       <c r="X78" t="n">
-        <v>544.0309547002901</v>
+        <v>544.0309547002895</v>
       </c>
       <c r="Y78" t="n">
         <v>115.4768872732562</v>
       </c>
       <c r="Z78" t="n">
-        <v>115.4778883180297</v>
+        <v>115.4778883180296</v>
       </c>
       <c r="AA78" t="n">
-        <v>130.5069749151189</v>
+        <v>106.5136727045121</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>75.30618550066463</v>
       </c>
       <c r="T79" t="n">
-        <v>90.49930618777218</v>
+        <v>74.20280648604778</v>
       </c>
       <c r="U79" t="n">
         <v>75.30617977808573</v>
@@ -8435,7 +8435,7 @@
         <v>372.3747350462752</v>
       </c>
       <c r="W79" t="n">
-        <v>447.5018212580423</v>
+        <v>366.9187361068528</v>
       </c>
       <c r="X79" t="n">
         <v>372.3747067492133</v>
@@ -8447,7 +8447,7 @@
         <v>79.04154060890572</v>
       </c>
       <c r="AA79" t="n">
-        <v>94.98828125656938</v>
+        <v>77.88343744756622</v>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>155.632536619942</v>
       </c>
       <c r="T80" t="n">
-        <v>145.8667006235602</v>
+        <v>133.6190093243721</v>
       </c>
       <c r="U80" t="n">
         <v>155.6325250695893</v>
@@ -8536,7 +8536,7 @@
         <v>828.7711732533152</v>
       </c>
       <c r="W80" t="n">
-        <v>776.7663448780913</v>
+        <v>711.5451918459307</v>
       </c>
       <c r="X80" t="n">
         <v>828.7711117456154</v>
@@ -8548,7 +8548,7 @@
         <v>156.2155094006121</v>
       </c>
       <c r="AA80" t="n">
-        <v>146.4131031242167</v>
+        <v>134.1195331623555</v>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>104.0247731660686</v>
       </c>
       <c r="T81" t="n">
-        <v>109.9893178003826</v>
+        <v>91.0282193111674</v>
       </c>
       <c r="U81" t="n">
         <v>104.1011607942594</v>
@@ -8637,10 +8637,10 @@
         <v>514.3826777100772</v>
       </c>
       <c r="W81" t="n">
-        <v>543.876214172029</v>
+        <v>450.1171958501474</v>
       </c>
       <c r="X81" t="n">
-        <v>514.7603999731191</v>
+        <v>514.7603999731192</v>
       </c>
       <c r="Y81" t="n">
         <v>109.1846427048569</v>
@@ -8649,7 +8649,7 @@
         <v>109.2648193362231</v>
       </c>
       <c r="AA81" t="n">
-        <v>115.4450425593713</v>
+        <v>95.54342969517857</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>122.5361790489141</v>
       </c>
       <c r="T82" t="n">
-        <v>131.9525978812192</v>
+        <v>113.4124722155186</v>
       </c>
       <c r="U82" t="n">
         <v>122.5361659874053</v>
@@ -8738,7 +8738,7 @@
         <v>605.9180517982766</v>
       </c>
       <c r="W82" t="n">
-        <v>652.4804482926974</v>
+        <v>560.8030603518494</v>
       </c>
       <c r="X82" t="n">
         <v>605.9179872116048</v>
@@ -8750,7 +8750,7 @@
         <v>128.6142434590951</v>
       </c>
       <c r="AA82" t="n">
-        <v>138.4977521713838</v>
+        <v>119.0379933571924</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>76.63952735675873</v>
       </c>
       <c r="T83" t="n">
-        <v>76.77160920623481</v>
+        <v>70.97496319599094</v>
       </c>
       <c r="U83" t="n">
         <v>76.6395027019732</v>
@@ -8839,7 +8839,7 @@
         <v>378.9678564092576</v>
       </c>
       <c r="W83" t="n">
-        <v>379.6209759820534</v>
+        <v>350.9576662171131</v>
       </c>
       <c r="X83" t="n">
         <v>378.967734496042</v>
@@ -8851,7 +8851,7 @@
         <v>80.44099943610681</v>
       </c>
       <c r="AA83" t="n">
-        <v>80.57965872877131</v>
+        <v>74.49548565872172</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>109.9335361810218</v>
       </c>
       <c r="T84" t="n">
-        <v>115.298632020889</v>
+        <v>96.51025111052287</v>
       </c>
       <c r="U84" t="n">
         <v>109.9389009866237</v>
@@ -8940,7 +8940,7 @@
         <v>585.4157989027905</v>
       </c>
       <c r="W84" t="n">
-        <v>613.9858965853949</v>
+        <v>513.9343981725683</v>
       </c>
       <c r="X84" t="n">
         <v>585.4443674549038</v>
@@ -8952,7 +8952,7 @@
         <v>110.3507214374992</v>
       </c>
       <c r="AA84" t="n">
-        <v>115.7305295039278</v>
+        <v>96.87176914253672</v>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
@@ -9032,19 +9032,19 @@
         <v>139.0069973009075</v>
       </c>
       <c r="T85" t="n">
-        <v>116.739178915342</v>
+        <v>112.7890651981613</v>
       </c>
       <c r="U85" t="n">
-        <v>139.0822775386679</v>
+        <v>139.082277538668</v>
       </c>
       <c r="V85" t="n">
         <v>740.2371942624477</v>
       </c>
       <c r="W85" t="n">
-        <v>621.6570671887356</v>
+        <v>600.6220031142715</v>
       </c>
       <c r="X85" t="n">
-        <v>740.6380750315111</v>
+        <v>740.6380750315113</v>
       </c>
       <c r="Y85" t="n">
         <v>139.527704018817</v>
@@ -9053,7 +9053,7 @@
         <v>139.6032662490403</v>
       </c>
       <c r="AA85" t="n">
-        <v>117.1764725472076</v>
+        <v>113.2115620874961</v>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>136.2947825283333</v>
       </c>
       <c r="T86" t="n">
-        <v>124.1775169263569</v>
+        <v>115.0238261434035</v>
       </c>
       <c r="U86" t="n">
         <v>136.2947701092442</v>
@@ -9142,7 +9142,7 @@
         <v>725.7941641095018</v>
       </c>
       <c r="W86" t="n">
-        <v>661.2675513094041</v>
+        <v>612.5225059959531</v>
       </c>
       <c r="X86" t="n">
         <v>725.7940979756243</v>
@@ -9154,7 +9154,7 @@
         <v>136.8053170873806</v>
       </c>
       <c r="AA86" t="n">
-        <v>124.6426738503418</v>
+        <v>115.4546942303018</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>133.8207995698365</v>
       </c>
       <c r="T87" t="n">
-        <v>149.3866476608683</v>
+        <v>121.1569272889285</v>
       </c>
       <c r="U87" t="n">
         <v>133.8208017725088</v>
@@ -9243,7 +9243,7 @@
         <v>712.6197610980723</v>
       </c>
       <c r="W87" t="n">
-        <v>795.5106942233913</v>
+        <v>645.1823696880208</v>
       </c>
       <c r="X87" t="n">
         <v>712.6197728276979</v>
@@ -9255,7 +9255,7 @@
         <v>134.3220815054142</v>
       </c>
       <c r="AA87" t="n">
-        <v>149.946235541431</v>
+        <v>121.6107693773527</v>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>143.8053221538262</v>
       </c>
       <c r="T88" t="n">
-        <v>148.9981265468029</v>
+        <v>117.9578893114059</v>
       </c>
       <c r="U88" t="n">
         <v>143.8144671274709</v>
@@ -9344,7 +9344,7 @@
         <v>765.789134778043</v>
       </c>
       <c r="W88" t="n">
-        <v>793.4417496021005</v>
+        <v>628.1469186474214</v>
       </c>
       <c r="X88" t="n">
         <v>765.8378334030318</v>
@@ -9356,7 +9356,7 @@
         <v>144.3531821606699</v>
       </c>
       <c r="AA88" t="n">
-        <v>149.5562590649876</v>
+        <v>118.39974811411</v>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>128.6232272953374</v>
       </c>
       <c r="T89" t="n">
-        <v>94.15259269609346</v>
+        <v>89.40433109883134</v>
       </c>
       <c r="U89" t="n">
         <v>128.6232267328338</v>
@@ -9445,7 +9445,7 @@
         <v>684.9417564496953</v>
       </c>
       <c r="W89" t="n">
-        <v>501.3794442233897</v>
+        <v>476.0940995239938</v>
       </c>
       <c r="X89" t="n">
         <v>684.9417534542627</v>
@@ -9457,7 +9457,7 @@
         <v>129.1050368541905</v>
       </c>
       <c r="AA89" t="n">
-        <v>94.50527916855442</v>
+        <v>89.73923104428218</v>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>155.1858456411894</v>
       </c>
       <c r="T90" t="n">
-        <v>180.2812229050282</v>
+        <v>150.854394556801</v>
       </c>
       <c r="U90" t="n">
         <v>155.1857953755431</v>
@@ -9546,7 +9546,7 @@
         <v>826.3924636686571</v>
       </c>
       <c r="W90" t="n">
-        <v>960.0298489473935</v>
+        <v>803.3267097134654</v>
       </c>
       <c r="X90" t="n">
         <v>826.3921959950745</v>
@@ -9558,7 +9558,7 @@
         <v>155.7671063004978</v>
       </c>
       <c r="AA90" t="n">
-        <v>180.9565388653922</v>
+        <v>151.4194804747555</v>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>134.1714837853786</v>
       </c>
       <c r="T91" t="n">
-        <v>138.3085708796391</v>
+        <v>120.9989213909611</v>
       </c>
       <c r="U91" t="n">
         <v>134.1715019998045</v>
@@ -9647,7 +9647,7 @@
         <v>714.4872174479358</v>
       </c>
       <c r="W91" t="n">
-        <v>736.5179482926972</v>
+        <v>644.3409599398832</v>
       </c>
       <c r="X91" t="n">
         <v>714.4873144430211</v>
@@ -9659,7 +9659,7 @@
         <v>134.6740954217174</v>
       </c>
       <c r="AA91" t="n">
-        <v>138.8266613599735</v>
+        <v>121.4521716046297</v>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
@@ -9739,28 +9739,28 @@
         <v>158.2109696797209</v>
       </c>
       <c r="T92" t="n">
-        <v>142.1915617669005</v>
+        <v>132.7185690659008</v>
       </c>
       <c r="U92" t="n">
-        <v>158.2134146233427</v>
+        <v>158.2134146233428</v>
       </c>
       <c r="V92" t="n">
         <v>842.5017917892483</v>
       </c>
       <c r="W92" t="n">
-        <v>757.1955712580435</v>
+        <v>706.7501859579256</v>
       </c>
       <c r="X92" t="n">
-        <v>842.5148115525827</v>
+        <v>842.5148115525834</v>
       </c>
       <c r="Y92" t="n">
         <v>158.803612613953</v>
       </c>
       <c r="Z92" t="n">
-        <v>158.8060667160962</v>
+        <v>158.8060667160963</v>
       </c>
       <c r="AA92" t="n">
-        <v>142.7241975541608</v>
+        <v>133.2157199420854</v>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>144.1138129295586</v>
       </c>
       <c r="T93" t="n">
-        <v>142.9029208712205</v>
+        <v>131.0943737646681</v>
       </c>
       <c r="U93" t="n">
         <v>144.1138027337883</v>
@@ -9849,7 +9849,7 @@
         <v>767.4319034926975</v>
       </c>
       <c r="W93" t="n">
-        <v>760.9836860847743</v>
+        <v>698.1010546475345</v>
       </c>
       <c r="X93" t="n">
         <v>767.4318491983917</v>
@@ -9861,7 +9861,7 @@
         <v>144.6536390491107</v>
       </c>
       <c r="AA93" t="n">
-        <v>143.4382213406311</v>
+        <v>131.5854405629216</v>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>107.2063508578886</v>
       </c>
       <c r="T94" t="n">
-        <v>108.3337753314085</v>
+        <v>97.28398470816259</v>
       </c>
       <c r="U94" t="n">
         <v>107.2063487166135</v>
@@ -9950,7 +9950,7 @@
         <v>570.8930478828556</v>
       </c>
       <c r="W94" t="n">
-        <v>576.8967854300718</v>
+        <v>518.054668364317</v>
       </c>
       <c r="X94" t="n">
         <v>570.893036480182</v>
@@ -9962,7 +9962,7 @@
         <v>107.6079332919457</v>
       </c>
       <c r="AA94" t="n">
-        <v>108.7395831373958</v>
+        <v>97.6484010711237</v>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>159.2682752871106</v>
       </c>
       <c r="T95" t="n">
-        <v>164.8543224933027</v>
+        <v>144.5548358322114</v>
       </c>
       <c r="U95" t="n">
         <v>159.2682757960604</v>
@@ -10051,7 +10051,7 @@
         <v>848.1321337971252</v>
       </c>
       <c r="W95" t="n">
-        <v>877.8788371373765</v>
+        <v>769.7804295554431</v>
       </c>
       <c r="X95" t="n">
         <v>848.1321365073737</v>
@@ -10063,7 +10063,7 @@
         <v>159.8648792963672</v>
       </c>
       <c r="AA95" t="n">
-        <v>165.471850782277</v>
+        <v>145.0963242147077</v>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>185.3783617311769</v>
       </c>
       <c r="T96" t="n">
-        <v>164.1942291930336</v>
+        <v>154.2700028591486</v>
       </c>
       <c r="U96" t="n">
         <v>185.3783445151198</v>
@@ -10152,7 +10152,7 @@
         <v>987.1730274685939</v>
       </c>
       <c r="W96" t="n">
-        <v>874.3637219127456</v>
+        <v>821.5154365798996</v>
       </c>
       <c r="X96" t="n">
         <v>987.1729357900016</v>
@@ -10164,7 +10164,7 @@
         <v>186.0727537982367</v>
       </c>
       <c r="AA96" t="n">
-        <v>164.809284836583</v>
+        <v>154.8478833142367</v>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>141.9683188805451</v>
       </c>
       <c r="T97" t="n">
-        <v>126.2084940702057</v>
+        <v>111.1448464458777</v>
       </c>
       <c r="U97" t="n">
         <v>141.9683100171074</v>
@@ -10253,7 +10253,7 @@
         <v>756.0067628452047</v>
       </c>
       <c r="W97" t="n">
-        <v>672.0828688960386</v>
+        <v>591.866243335435</v>
       </c>
       <c r="X97" t="n">
         <v>756.0067156458088</v>
@@ -10265,7 +10265,7 @@
         <v>142.5001095249849</v>
       </c>
       <c r="AA97" t="n">
-        <v>126.6812588374162</v>
+        <v>111.5611842513776</v>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>141.9876776555864</v>
       </c>
       <c r="T98" t="n">
-        <v>170.5952700192479</v>
+        <v>132.7085584577487</v>
       </c>
       <c r="U98" t="n">
         <v>141.9876597644194</v>
@@ -10354,7 +10354,7 @@
         <v>756.1098517946758</v>
       </c>
       <c r="W98" t="n">
-        <v>908.4504124647279</v>
+        <v>706.6968776739167</v>
       </c>
       <c r="X98" t="n">
         <v>756.1097565210024</v>
@@ -10366,7 +10366,7 @@
         <v>142.519531754572</v>
       </c>
       <c r="AA98" t="n">
-        <v>171.234303340357</v>
+        <v>133.205671835167</v>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
@@ -10446,28 +10446,28 @@
         <v>136.0048087767481</v>
       </c>
       <c r="T99" t="n">
-        <v>115.2844719863106</v>
+        <v>109.093868329798</v>
       </c>
       <c r="U99" t="n">
-        <v>136.1371500065007</v>
+        <v>136.1371500065006</v>
       </c>
       <c r="V99" t="n">
         <v>724.2500018698231</v>
       </c>
       <c r="W99" t="n">
-        <v>613.9104918613846</v>
+        <v>580.9444169841037</v>
       </c>
       <c r="X99" t="n">
-        <v>724.9547426562542</v>
+        <v>724.954742656254</v>
       </c>
       <c r="Y99" t="n">
         <v>136.5142695878808</v>
       </c>
       <c r="Z99" t="n">
-        <v>136.6471065550332</v>
+        <v>136.6471065550331</v>
       </c>
       <c r="AA99" t="n">
-        <v>115.7163164272344</v>
+        <v>109.5025233703719</v>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>122.5315882607022</v>
       </c>
       <c r="T100" t="n">
-        <v>143.6675087477995</v>
+        <v>116.1518604553755</v>
       </c>
       <c r="U100" t="n">
         <v>122.5316011052094</v>
@@ -10556,7 +10556,7 @@
         <v>652.50268593516</v>
       </c>
       <c r="W100" t="n">
-        <v>765.0552536714096</v>
+        <v>618.5294910423128</v>
       </c>
       <c r="X100" t="n">
         <v>652.5027543344646</v>
@@ -10568,7 +10568,7 @@
         <v>122.9905925883041</v>
       </c>
       <c r="AA100" t="n">
-        <v>144.205673289174</v>
+        <v>116.5869540493035</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>173.9133346912965</v>
       </c>
       <c r="T101" t="n">
-        <v>168.9338481816324</v>
+        <v>151.4422976475788</v>
       </c>
       <c r="U101" t="n">
         <v>173.9133367251607</v>
@@ -10657,7 +10657,7 @@
         <v>926.1197020034534</v>
       </c>
       <c r="W101" t="n">
-        <v>899.6030431707877</v>
+        <v>806.4573991238236</v>
       </c>
       <c r="X101" t="n">
         <v>926.1197128341455</v>
@@ -10669,7 +10669,7 @@
         <v>174.5647992020518</v>
       </c>
       <c r="AA101" t="n">
-        <v>169.5666579778188</v>
+        <v>152.0095857934413</v>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="T102" t="n">
-        <v>123.2902417833263</v>
+        <v>100.9893164849978</v>
       </c>
       <c r="U102" t="n">
         <v>114.6133644928176</v>
@@ -10758,7 +10758,7 @@
         <v>521.2321294192969</v>
       </c>
       <c r="W102" t="n">
-        <v>561.5167418613853</v>
+        <v>459.9487448092043</v>
       </c>
       <c r="X102" t="n">
         <v>521.9985140176922</v>
@@ -10770,7 +10770,7 @@
         <v>120.2984526711924</v>
       </c>
       <c r="AA102" t="n">
-        <v>129.4057231599793</v>
+        <v>105.9986203461282</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="T103" t="n">
-        <v>123.2902417833263</v>
+        <v>100.9893164849978</v>
       </c>
       <c r="U103" t="n">
         <v>114.6133644928176</v>
@@ -10859,7 +10859,7 @@
         <v>521.2321294192969</v>
       </c>
       <c r="W103" t="n">
-        <v>561.5167418613853</v>
+        <v>459.9487448092043</v>
       </c>
       <c r="X103" t="n">
         <v>521.9985140176922</v>
@@ -10871,7 +10871,7 @@
         <v>120.2984526711924</v>
       </c>
       <c r="AA103" t="n">
-        <v>129.4057231599793</v>
+        <v>105.9986203461282</v>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="T104" t="n">
-        <v>123.2902417833263</v>
+        <v>100.9893164849978</v>
       </c>
       <c r="U104" t="n">
         <v>114.6133644928176</v>
@@ -10960,7 +10960,7 @@
         <v>521.2321294192969</v>
       </c>
       <c r="W104" t="n">
-        <v>561.5167418613853</v>
+        <v>459.9487448092043</v>
       </c>
       <c r="X104" t="n">
         <v>521.9985140176922</v>
@@ -10972,7 +10972,7 @@
         <v>120.2984526711924</v>
       </c>
       <c r="AA104" t="n">
-        <v>129.4057231599793</v>
+        <v>105.9986203461282</v>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>95.3936019126962</v>
       </c>
       <c r="T105" t="n">
-        <v>108.9795553025619</v>
+        <v>88.70529240658827</v>
       </c>
       <c r="U105" t="n">
         <v>95.39362853858485</v>
@@ -11061,7 +11061,7 @@
         <v>434.4634560339007</v>
       </c>
       <c r="W105" t="n">
-        <v>496.3397259820527</v>
+        <v>404.00202041574</v>
       </c>
       <c r="X105" t="n">
         <v>434.4635772996394</v>
@@ -11073,7 +11073,7 @@
         <v>100.1253733250401</v>
       </c>
       <c r="AA105" t="n">
-        <v>114.3851935043265</v>
+        <v>93.10528023917283</v>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>93.81386402696883</v>
       </c>
       <c r="T106" t="n">
-        <v>115.8867352977479</v>
+        <v>90.27817040219503</v>
       </c>
       <c r="U106" t="n">
         <v>93.81386402696883</v>
@@ -11162,7 +11162,7 @@
         <v>427.2686508509605</v>
       </c>
       <c r="W106" t="n">
-        <v>527.7979918613845</v>
+        <v>411.1655827112113</v>
       </c>
       <c r="X106" t="n">
         <v>427.2686508509605</v>
@@ -11174,7 +11174,7 @@
         <v>98.46724883691222</v>
       </c>
       <c r="AA106" t="n">
-        <v>121.6349856155628</v>
+        <v>94.75617662415694</v>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
@@ -11254,28 +11254,28 @@
         <v>166.5630038123446</v>
       </c>
       <c r="T107" t="n">
-        <v>177.4100103050847</v>
+        <v>154.4707509406348</v>
       </c>
       <c r="U107" t="n">
-        <v>166.6254805025666</v>
+        <v>166.6254805025665</v>
       </c>
       <c r="V107" t="n">
         <v>758.5994954874188</v>
       </c>
       <c r="W107" t="n">
-        <v>808.00142427475</v>
+        <v>703.5261795779618</v>
       </c>
       <c r="X107" t="n">
-        <v>758.8840411824253</v>
+        <v>758.8840411824249</v>
       </c>
       <c r="Y107" t="n">
         <v>174.8249143506004</v>
       </c>
       <c r="Z107" t="n">
-        <v>174.8904900292744</v>
+        <v>174.8904900292743</v>
       </c>
       <c r="AA107" t="n">
-        <v>186.2099574733226</v>
+        <v>162.1328577460965</v>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>80.41346218240321</v>
       </c>
       <c r="T108" t="n">
-        <v>83.9698728376889</v>
+        <v>65.43895286657232</v>
       </c>
       <c r="U108" t="n">
         <v>80.4134704433576</v>
@@ -11364,7 +11364,7 @@
         <v>366.2374623760637</v>
       </c>
       <c r="W108" t="n">
-        <v>382.4348847753699</v>
+        <v>298.0371120452115</v>
       </c>
       <c r="X108" t="n">
         <v>366.2374999999999</v>
@@ -11376,7 +11376,7 @@
         <v>84.40216471319793</v>
       </c>
       <c r="AA108" t="n">
-        <v>88.13497289841608</v>
+        <v>68.68487640256878</v>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>132.3470316439268</v>
       </c>
       <c r="T109" t="n">
-        <v>123.7299506133423</v>
+        <v>108.9828152897596</v>
       </c>
       <c r="U109" t="n">
         <v>132.3470148144411</v>
@@ -11465,7 +11465,7 @@
         <v>602.7652548068388</v>
       </c>
       <c r="W109" t="n">
-        <v>563.5193648267306</v>
+        <v>496.3545733646461</v>
       </c>
       <c r="X109" t="n">
         <v>602.7651781581285</v>
@@ -11477,7 +11477,7 @@
         <v>138.911733097464</v>
       </c>
       <c r="AA109" t="n">
-        <v>129.8672425657733</v>
+        <v>114.3886151944352</v>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>114.7078513714162</v>
       </c>
       <c r="T110" t="n">
-        <v>108.772978076001</v>
+        <v>98.6386295001862</v>
       </c>
       <c r="U110" t="n">
         <v>114.7078343639825</v>
@@ -11566,7 +11566,7 @@
         <v>956.7371671764962</v>
       </c>
       <c r="W110" t="n">
-        <v>907.236511412126</v>
+        <v>822.7095341243245</v>
       </c>
       <c r="X110" t="n">
         <v>956.7370253235739</v>
@@ -11578,7 +11578,7 @@
         <v>115.1375187763498</v>
       </c>
       <c r="AA110" t="n">
-        <v>109.1804310928343</v>
+        <v>99.00812023103728</v>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
@@ -11655,31 +11655,31 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>133.1094290697119</v>
+        <v>133.3955554941313</v>
       </c>
       <c r="T111" t="n">
-        <v>149.2701671432917</v>
+        <v>129.330423087164</v>
       </c>
       <c r="U111" t="n">
         <v>133.1094211698846</v>
       </c>
       <c r="V111" t="n">
-        <v>1110.218146099554</v>
+        <v>1112.604624282873</v>
       </c>
       <c r="W111" t="n">
-        <v>1245.009083068067</v>
+        <v>1078.698808623873</v>
       </c>
       <c r="X111" t="n">
         <v>1110.21808020992</v>
       </c>
       <c r="Y111" t="n">
-        <v>133.6080440695284</v>
+        <v>133.8952422957582</v>
       </c>
       <c r="Z111" t="n">
         <v>133.6080361401092</v>
       </c>
       <c r="AA111" t="n">
-        <v>149.8293186991427</v>
+        <v>129.8148822974135</v>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>105.6318423342176</v>
       </c>
       <c r="T113" t="n">
-        <v>122.1050427986015</v>
+        <v>96.47524646919949</v>
       </c>
       <c r="U113" t="n">
         <v>105.6318435087638</v>
@@ -11849,7 +11849,7 @@
         <v>881.0374215034507</v>
       </c>
       <c r="W113" t="n">
-        <v>1018.434495532792</v>
+        <v>804.6655299185261</v>
       </c>
       <c r="X113" t="n">
         <v>881.0374312999209</v>
@@ -11861,7 +11861,7 @@
         <v>106.0275301404311</v>
       </c>
       <c r="AA113" t="n">
-        <v>122.5624364356874</v>
+        <v>96.83663337722497</v>
       </c>
       <c r="AB113" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>109.1039483278914</v>
       </c>
       <c r="T115" t="n">
-        <v>107.2215231511983</v>
+        <v>92.75143344971727</v>
       </c>
       <c r="U115" t="n">
         <v>109.1039547787944</v>
@@ -12031,7 +12031,7 @@
         <v>909.997015923609</v>
       </c>
       <c r="W115" t="n">
-        <v>894.2963807060635</v>
+        <v>773.6065372100101</v>
       </c>
       <c r="X115" t="n">
         <v>909.9970697282836</v>
@@ -12043,7 +12043,7 @@
         <v>109.512647602227</v>
       </c>
       <c r="AA115" t="n">
-        <v>107.6231645684894</v>
+        <v>93.0988713156576</v>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>124.9577074028051</v>
       </c>
       <c r="T116" t="n">
-        <v>137.4707500618976</v>
+        <v>120.2892789635997</v>
       </c>
       <c r="U116" t="n">
         <v>124.9577158034129</v>
@@ -12132,7 +12132,7 @@
         <v>1042.227550844179</v>
       </c>
       <c r="W116" t="n">
-        <v>1146.594364826731</v>
+        <v>1003.289858727277</v>
       </c>
       <c r="X116" t="n">
         <v>1042.227620910645</v>
@@ -12144,7 +12144,7 @@
         <v>125.4257952766542</v>
       </c>
       <c r="AA116" t="n">
-        <v>137.9857021467796</v>
+        <v>120.7398709256234</v>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>119.2005661692046</v>
       </c>
       <c r="T121" t="n">
-        <v>132.3998105471953</v>
+        <v>113.1439085110871</v>
       </c>
       <c r="U121" t="n">
         <v>119.2005588392866</v>
@@ -12557,7 +12557,7 @@
         <v>1031.492143197263</v>
       </c>
       <c r="W121" t="n">
-        <v>1145.710701964105</v>
+        <v>979.081362031043</v>
       </c>
       <c r="X121" t="n">
         <v>1031.49207976843</v>
@@ -12569,7 +12569,7 @@
         <v>119.6470725614111</v>
       </c>
       <c r="AA121" t="n">
-        <v>132.8957673849121</v>
+        <v>113.567734609026</v>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>109.1738636564882</v>
       </c>
       <c r="T122" t="n">
-        <v>99.19695344876806</v>
+        <v>84.36681069284472</v>
       </c>
       <c r="U122" t="n">
         <v>109.1738492986071</v>
@@ -12658,7 +12658,7 @@
         <v>944.7269104771252</v>
       </c>
       <c r="W122" t="n">
-        <v>858.3925513094036</v>
+        <v>730.0611496488237</v>
       </c>
       <c r="X122" t="n">
         <v>944.7267862324011</v>
@@ -12670,7 +12670,7 @@
         <v>109.5828039401261</v>
       </c>
       <c r="AA122" t="n">
-        <v>99.56853560693175</v>
+        <v>84.68284057586754</v>
       </c>
       <c r="AB122" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>119.2125459979812</v>
       </c>
       <c r="T127" t="n">
-        <v>127.8241024750789</v>
+        <v>109.5669709191679</v>
       </c>
       <c r="U127" t="n">
         <v>119.2125409772724</v>
@@ -13083,7 +13083,7 @@
         <v>1115.238713129702</v>
       </c>
       <c r="W127" t="n">
-        <v>1195.800210102721</v>
+        <v>1025.003925773732</v>
       </c>
       <c r="X127" t="n">
         <v>1115.238666160746</v>
@@ -13095,7 +13095,7 @@
         <v>119.6590995833226</v>
       </c>
       <c r="AA127" t="n">
-        <v>128.3029191545403</v>
+        <v>109.9773981561156</v>
       </c>
       <c r="AB127" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>128.3166942407068</v>
       </c>
       <c r="T128" t="n">
-        <v>121.8376398014925</v>
+        <v>92.17295123957535</v>
       </c>
       <c r="U128" t="n">
         <v>128.3167166180678</v>
@@ -13184,7 +13184,7 @@
         <v>1153.639268618678</v>
       </c>
       <c r="W128" t="n">
-        <v>1095.38892427475</v>
+        <v>828.6866855763781</v>
       </c>
       <c r="X128" t="n">
         <v>1153.639469803743</v>
@@ -13196,7 +13196,7 @@
         <v>128.7973785822888</v>
       </c>
       <c r="AA128" t="n">
-        <v>122.2940317729092</v>
+        <v>92.51822216731213</v>
       </c>
       <c r="AB128" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>157.0022533005351</v>
       </c>
       <c r="T129" t="n">
-        <v>161.8404298663378</v>
+        <v>147.4184252431244</v>
       </c>
       <c r="U129" t="n">
         <v>157.0022421272351</v>
@@ -13285,7 +13285,7 @@
         <v>1411.538582262312</v>
       </c>
       <c r="W129" t="n">
-        <v>1455.036511412126</v>
+        <v>1325.37457643172</v>
       </c>
       <c r="X129" t="n">
         <v>1411.538481808059</v>
@@ -13297,7 +13297,7 @@
         <v>157.5903572853917</v>
       </c>
       <c r="AA129" t="n">
-        <v>162.4466684061023</v>
+        <v>147.9706403535735</v>
       </c>
       <c r="AB129" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>141.4506300739475</v>
       </c>
       <c r="T130" t="n">
-        <v>125.3781757450396</v>
+        <v>119.8860362088901</v>
       </c>
       <c r="U130" t="n">
         <v>141.450604047704</v>
@@ -13386,7 +13386,7 @@
         <v>1076.07139584631</v>
       </c>
       <c r="W130" t="n">
-        <v>953.8018212580429</v>
+        <v>912.0209238964858</v>
       </c>
       <c r="X130" t="n">
         <v>1076.071197854289</v>
@@ -13398,7 +13398,7 @@
         <v>141.980464279276</v>
       </c>
       <c r="AA130" t="n">
-        <v>125.8478302204065</v>
+        <v>120.335117662699</v>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>102.0036145991135</v>
       </c>
       <c r="T131" t="n">
-        <v>85.04387657884453</v>
+        <v>79.37575525152396</v>
       </c>
       <c r="U131" t="n">
         <v>102.0036145991135</v>
@@ -13487,7 +13487,7 @@
         <v>775.9822058456383</v>
       </c>
       <c r="W131" t="n">
-        <v>646.9627101027214</v>
+        <v>603.843049021484</v>
       </c>
       <c r="X131" t="n">
         <v>775.9822058456383</v>
@@ -13499,7 +13499,7 @@
         <v>102.3857102374923</v>
       </c>
       <c r="AA131" t="n">
-        <v>85.36244268495075</v>
+        <v>79.67308912536582</v>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>158.1853147488017</v>
       </c>
       <c r="T132" t="n">
-        <v>149.4996693855077</v>
+        <v>142.8249864946607</v>
       </c>
       <c r="U132" t="n">
         <v>158.185312408025</v>
@@ -13588,7 +13588,7 @@
         <v>1203.378820971982</v>
       </c>
       <c r="W132" t="n">
-        <v>1137.303650256803</v>
+        <v>1086.526673643617</v>
       </c>
       <c r="X132" t="n">
         <v>1203.37880316476</v>
@@ -13600,7 +13600,7 @@
         <v>158.777859232608</v>
       </c>
       <c r="AA132" t="n">
-        <v>150.0596806344793</v>
+        <v>143.3599950294621</v>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>138.3781947501238</v>
       </c>
       <c r="T133" t="n">
-        <v>129.2079324609775</v>
+        <v>117.6408872171629</v>
       </c>
       <c r="U133" t="n">
         <v>138.3781957891426</v>
@@ -13689,7 +13689,7 @@
         <v>1052.698154130624</v>
       </c>
       <c r="W133" t="n">
-        <v>982.9363090501199</v>
+        <v>894.9411794786083</v>
       </c>
       <c r="X133" t="n">
         <v>1052.698162034855</v>
@@ -13701,7 +13701,7 @@
         <v>138.8965470776294</v>
       </c>
       <c r="AA133" t="n">
-        <v>129.691932833232</v>
+        <v>118.0815585607947</v>
       </c>
       <c r="AB133" t="inlineStr">
         <is>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -649,28 +649,28 @@
         <v>87.32366386173278</v>
       </c>
       <c r="T2" t="n">
-        <v>78.58408988960846</v>
+        <v>74.76470624280951</v>
       </c>
       <c r="U2" t="n">
-        <v>87.38143681982832</v>
+        <v>87.38143681982831</v>
       </c>
       <c r="V2" t="n">
         <v>465.0141732779099</v>
       </c>
       <c r="W2" t="n">
-        <v>418.4743742621076</v>
+        <v>398.135471261432</v>
       </c>
       <c r="X2" t="n">
-        <v>465.3218246424835</v>
+        <v>465.3218246424834</v>
       </c>
       <c r="Y2" t="n">
         <v>87.65076982969236</v>
       </c>
       <c r="Z2" t="n">
-        <v>87.70875919968069</v>
+        <v>87.70875919968067</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.8784582618548</v>
+        <v>75.04476757467819</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -750,19 +750,19 @@
         <v>141.3920352264977</v>
       </c>
       <c r="T3" t="n">
-        <v>132.2763453912976</v>
+        <v>132.2260097199337</v>
       </c>
       <c r="U3" t="n">
-        <v>141.416330327534</v>
+        <v>141.4163303275339</v>
       </c>
       <c r="V3" t="n">
         <v>752.9379490196103</v>
       </c>
       <c r="W3" t="n">
-        <v>704.3952655691621</v>
+        <v>704.1272190904584</v>
       </c>
       <c r="X3" t="n">
-        <v>753.0673247904319</v>
+        <v>753.0673247904316</v>
       </c>
       <c r="Y3" t="n">
         <v>141.921676064951</v>
@@ -771,7 +771,7 @@
         <v>141.9460621730773</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.7718397405256</v>
+        <v>132.7213155166232</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>125.6708217425546</v>
       </c>
       <c r="T4" t="n">
-        <v>121.9887015532037</v>
+        <v>122.1976242665746</v>
       </c>
       <c r="U4" t="n">
         <v>125.6708222045455</v>
@@ -860,7 +860,7 @@
         <v>669.2196673092043</v>
       </c>
       <c r="W4" t="n">
-        <v>649.6117168403367</v>
+        <v>650.7242677634285</v>
       </c>
       <c r="X4" t="n">
         <v>669.219669769389</v>
@@ -872,7 +872,7 @@
         <v>126.1415729051412</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.445659387278</v>
+        <v>122.6553647048522</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>147.0266651612517</v>
       </c>
       <c r="T5" t="n">
-        <v>129.6492265403244</v>
+        <v>131.3789820895892</v>
       </c>
       <c r="U5" t="n">
         <v>147.0266808839757</v>
@@ -961,7 +961,7 @@
         <v>782.9433641037203</v>
       </c>
       <c r="W5" t="n">
-        <v>690.4053864623668</v>
+        <v>699.6166450278322</v>
       </c>
       <c r="X5" t="n">
         <v>782.9434478300459</v>
@@ -973,7 +973,7 @@
         <v>147.5774285580837</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.134879957362</v>
+        <v>131.8711150029997</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>116.6870542623771</v>
       </c>
       <c r="T6" t="n">
-        <v>97.16217189992318</v>
+        <v>97.83623074704535</v>
       </c>
       <c r="U6" t="n">
         <v>116.6870283124104</v>
@@ -1062,7 +1062,7 @@
         <v>621.3794940621174</v>
       </c>
       <c r="W6" t="n">
-        <v>517.4059933109224</v>
+        <v>520.995477577541</v>
       </c>
       <c r="X6" t="n">
         <v>621.3793558738898</v>
@@ -1074,7 +1074,7 @@
         <v>117.1241265931799</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.52613196392947</v>
+        <v>98.20271577005931</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>168.3021610791668</v>
       </c>
       <c r="T7" t="n">
-        <v>143.9195521065645</v>
+        <v>138.3698287686405</v>
       </c>
       <c r="U7" t="n">
         <v>168.3021669144937</v>
@@ -1163,7 +1163,7 @@
         <v>896.2391960446696</v>
       </c>
       <c r="W7" t="n">
-        <v>766.3974297657597</v>
+        <v>736.8441575394352</v>
       </c>
       <c r="X7" t="n">
         <v>896.2392271188326</v>
@@ -1175,7 +1175,7 @@
         <v>168.9326104939733</v>
       </c>
       <c r="AA7" t="n">
-        <v>144.458660777894</v>
+        <v>138.8881487150806</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>110.9267843045699</v>
       </c>
       <c r="T8" t="n">
-        <v>76.84175020066974</v>
+        <v>77.26073897646847</v>
       </c>
       <c r="U8" t="n">
         <v>110.9267843287265</v>
@@ -1264,7 +1264,7 @@
         <v>590.7050233192431</v>
       </c>
       <c r="W8" t="n">
-        <v>409.1961028956654</v>
+        <v>411.4272932806598</v>
       </c>
       <c r="X8" t="n">
         <v>590.7050234478816</v>
@@ -1276,7 +1276,7 @@
         <v>111.3423052947037</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.12959193757737</v>
+        <v>77.5501502046573</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1356,19 +1356,19 @@
         <v>134.9675397275138</v>
       </c>
       <c r="T9" t="n">
-        <v>121.2133080514676</v>
+        <v>124.2640596500611</v>
       </c>
       <c r="U9" t="n">
-        <v>135.0135774859187</v>
+        <v>135.0135774859188</v>
       </c>
       <c r="V9" t="n">
         <v>718.7263581280739</v>
       </c>
       <c r="W9" t="n">
-        <v>645.4826073615386</v>
+        <v>661.7284068362659</v>
       </c>
       <c r="X9" t="n">
-        <v>718.9715174493565</v>
+        <v>718.9715174493566</v>
       </c>
       <c r="Y9" t="n">
         <v>135.4731150294801</v>
@@ -1377,7 +1377,7 @@
         <v>135.5193252408589</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.6673613367551</v>
+        <v>124.7295407546879</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>139.3493057089765</v>
       </c>
       <c r="T10" t="n">
-        <v>128.0761040545412</v>
+        <v>128.653324736496</v>
       </c>
       <c r="U10" t="n">
         <v>139.3493049558066</v>
@@ -1466,7 +1466,7 @@
         <v>742.0600479351514</v>
       </c>
       <c r="W10" t="n">
-        <v>682.0282270551564</v>
+        <v>685.1020307224317</v>
       </c>
       <c r="X10" t="n">
         <v>742.0600439243865</v>
@@ -1478,7 +1478,7 @@
         <v>139.8712939249621</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.5558647074564</v>
+        <v>129.1352476020526</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>147.4578185260966</v>
       </c>
       <c r="T11" t="n">
-        <v>115.4658429434593</v>
+        <v>128.0286754852751</v>
       </c>
       <c r="U11" t="n">
         <v>147.4736260571129</v>
@@ -1567,7 +1567,7 @@
         <v>785.2393331073433</v>
       </c>
       <c r="W11" t="n">
-        <v>614.8763247406449</v>
+        <v>681.7756614165692</v>
       </c>
       <c r="X11" t="n">
         <v>785.3235110453966</v>
@@ -1579,7 +1579,7 @@
         <v>148.0260479444527</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.8983667823822</v>
+        <v>128.508258475374</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>152.9408534137777</v>
       </c>
       <c r="T12" t="n">
-        <v>152.9408576626033</v>
+        <v>151.1919147648076</v>
       </c>
       <c r="U12" t="n">
         <v>152.9408576626033</v>
@@ -1668,7 +1668,7 @@
         <v>814.4374773742417</v>
       </c>
       <c r="W12" t="n">
-        <v>814.4375000000001</v>
+        <v>805.124065361979</v>
       </c>
       <c r="X12" t="n">
         <v>814.4375000000001</v>
@@ -1680,7 +1680,7 @@
         <v>153.5137592688107</v>
       </c>
       <c r="AA12" t="n">
-        <v>153.5137592688107</v>
+        <v>151.7582650006968</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>141.1509834792325</v>
       </c>
       <c r="T13" t="n">
-        <v>95.30236133237626</v>
+        <v>125.1488976079331</v>
       </c>
       <c r="U13" t="n">
         <v>141.1509732276523</v>
@@ -1769,7 +1769,7 @@
         <v>751.6543052280576</v>
       </c>
       <c r="W13" t="n">
-        <v>507.5021684451825</v>
+        <v>666.4403276750007</v>
       </c>
       <c r="X13" t="n">
         <v>751.6542506365545</v>
@@ -1781,7 +1781,7 @@
         <v>141.6797110712588</v>
       </c>
       <c r="AA13" t="n">
-        <v>95.65935472653599</v>
+        <v>125.6176932296553</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>105.7583067909172</v>
       </c>
       <c r="T15" t="n">
-        <v>72.08947227142319</v>
+        <v>83.73573264114532</v>
       </c>
       <c r="U15" t="n">
         <v>105.7582989362429</v>
@@ -1971,7 +1971,7 @@
         <v>563.1819534910899</v>
       </c>
       <c r="W15" t="n">
-        <v>383.8893705080445</v>
+        <v>445.907795962349</v>
       </c>
       <c r="X15" t="n">
         <v>563.1819116635403</v>
@@ -1983,7 +1983,7 @@
         <v>106.154459257666</v>
       </c>
       <c r="AA15" t="n">
-        <v>72.35951243653099</v>
+        <v>84.04939856704782</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>136.938687899711</v>
       </c>
       <c r="T16" t="n">
-        <v>119.6487158315901</v>
+        <v>117.9593776088418</v>
       </c>
       <c r="U16" t="n">
         <v>136.9386777893831</v>
@@ -2072,7 +2072,7 @@
         <v>729.2230757091629</v>
       </c>
       <c r="W16" t="n">
-        <v>637.1508731503473</v>
+        <v>628.1548440982227</v>
       </c>
       <c r="X16" t="n">
         <v>729.223021869853</v>
@@ -2084,7 +2084,7 @@
         <v>137.4516367831826</v>
       </c>
       <c r="AA16" t="n">
-        <v>120.0969083063033</v>
+        <v>118.4012419865636</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>134.2846534294568</v>
       </c>
       <c r="T17" t="n">
-        <v>113.3530476108643</v>
+        <v>109.584754508139</v>
       </c>
       <c r="U17" t="n">
         <v>134.2846534294568</v>
@@ -2173,7 +2173,7 @@
         <v>715.0898661018505</v>
       </c>
       <c r="W17" t="n">
-        <v>603.6253106232376</v>
+        <v>583.5584739338465</v>
       </c>
       <c r="X17" t="n">
         <v>715.0898661018505</v>
@@ -2185,7 +2185,7 @@
         <v>134.7876707056411</v>
       </c>
       <c r="AA17" t="n">
-        <v>113.7776571235691</v>
+        <v>109.9952483606846</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>157.1333107673816</v>
       </c>
       <c r="T18" t="n">
-        <v>143.7458686501498</v>
+        <v>149.0554807383192</v>
       </c>
       <c r="U18" t="n">
         <v>157.201814133566</v>
@@ -2274,7 +2274,7 @@
         <v>836.7630647817501</v>
       </c>
       <c r="W18" t="n">
-        <v>765.4725342068127</v>
+        <v>793.7471709595254</v>
       </c>
       <c r="X18" t="n">
         <v>837.1278574941061</v>
@@ -2286,7 +2286,7 @@
         <v>157.790676869085</v>
       </c>
       <c r="AA18" t="n">
-        <v>144.2843267201118</v>
+        <v>149.6138280997377</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>122.1976421021342</v>
       </c>
       <c r="T19" t="n">
-        <v>113.2700116235083</v>
+        <v>117.2700155373638</v>
       </c>
       <c r="U19" t="n">
         <v>122.1976242665745</v>
@@ -2375,7 +2375,7 @@
         <v>650.7243627409828</v>
       </c>
       <c r="W19" t="n">
-        <v>603.1831290964318</v>
+        <v>624.4838674169756</v>
       </c>
       <c r="X19" t="n">
         <v>650.7242677634282</v>
@@ -2387,7 +2387,7 @@
         <v>122.6553647048521</v>
       </c>
       <c r="AA19" t="n">
-        <v>113.6943100914651</v>
+        <v>117.709297631685</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2464,31 +2464,31 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
-        <v>108.8634653949697</v>
+        <v>108.5841644566328</v>
       </c>
       <c r="T20" t="n">
-        <v>97.62868442505626</v>
+        <v>101.016643147634</v>
       </c>
       <c r="U20" t="n">
         <v>108.584159743086</v>
       </c>
       <c r="V20" t="n">
-        <v>579.7174800288514</v>
+        <v>578.2301524340984</v>
       </c>
       <c r="W20" t="n">
-        <v>519.89025618544</v>
+        <v>537.9317440801041</v>
       </c>
       <c r="X20" t="n">
         <v>578.2301273336162</v>
       </c>
       <c r="Y20" t="n">
-        <v>109.2712573685159</v>
+        <v>108.9909101959768</v>
       </c>
       <c r="Z20" t="n">
         <v>108.9909054647735</v>
       </c>
       <c r="AA20" t="n">
-        <v>97.99439199969544</v>
+        <v>101.3950416867649</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>102.6187344619679</v>
       </c>
       <c r="T21" t="n">
-        <v>94.10064881843485</v>
+        <v>91.83728812922089</v>
       </c>
       <c r="U21" t="n">
         <v>102.6187362245841</v>
@@ -2577,7 +2577,7 @@
         <v>546.463167695475</v>
       </c>
       <c r="W21" t="n">
-        <v>501.1028337577029</v>
+        <v>489.0500321094459</v>
       </c>
       <c r="X21" t="n">
         <v>546.4631770817224</v>
@@ -2589,7 +2589,7 @@
         <v>103.0031360488595</v>
       </c>
       <c r="AA21" t="n">
-        <v>94.45314071417249</v>
+        <v>92.18130169553048</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2669,28 +2669,28 @@
         <v>156.1622154830298</v>
       </c>
       <c r="T22" t="n">
-        <v>142.742746993877</v>
+        <v>142.6150474863387</v>
       </c>
       <c r="U22" t="n">
-        <v>156.2302863745531</v>
+        <v>156.2302863745529</v>
       </c>
       <c r="V22" t="n">
         <v>831.5918082075649</v>
       </c>
       <c r="W22" t="n">
-        <v>760.1307314575894</v>
+        <v>759.4507086745327</v>
       </c>
       <c r="X22" t="n">
-        <v>831.9542979147774</v>
+        <v>831.9542979147767</v>
       </c>
       <c r="Y22" t="n">
         <v>156.7471839829221</v>
       </c>
       <c r="Z22" t="n">
-        <v>156.815509861397</v>
+        <v>156.8155098613969</v>
       </c>
       <c r="AA22" t="n">
-        <v>143.2774474674918</v>
+        <v>143.1492696099945</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2773,22 +2773,22 @@
         <v>114.1672449182469</v>
       </c>
       <c r="U23" t="n">
-        <v>124.870762099779</v>
+        <v>124.8707620997791</v>
       </c>
       <c r="V23" t="n">
         <v>664.8303194355309</v>
       </c>
       <c r="W23" t="n">
-        <v>607.961057327328</v>
+        <v>607.9610573273278</v>
       </c>
       <c r="X23" t="n">
-        <v>664.9592062050143</v>
+        <v>664.9592062050144</v>
       </c>
       <c r="Y23" t="n">
         <v>125.3142219168845</v>
       </c>
       <c r="Z23" t="n">
-        <v>125.3385158528874</v>
+        <v>125.3385158528875</v>
       </c>
       <c r="AA23" t="n">
         <v>114.5949043350276</v>
@@ -2871,7 +2871,7 @@
         <v>121.687104153988</v>
       </c>
       <c r="T24" t="n">
-        <v>111.8319137558399</v>
+        <v>109.5847545081391</v>
       </c>
       <c r="U24" t="n">
         <v>121.7397080829612</v>
@@ -2880,7 +2880,7 @@
         <v>648.0056565920962</v>
       </c>
       <c r="W24" t="n">
-        <v>595.525</v>
+        <v>583.5584739338469</v>
       </c>
       <c r="X24" t="n">
         <v>648.2857819494262</v>
@@ -2892,7 +2892,7 @@
         <v>122.1957332116668</v>
       </c>
       <c r="AA24" t="n">
-        <v>112.2508252487864</v>
+        <v>109.9952483606847</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>117.9613100412668</v>
       </c>
       <c r="T25" t="n">
-        <v>106.8381491219319</v>
+        <v>107.007531963467</v>
       </c>
       <c r="U25" t="n">
         <v>117.9613083451017</v>
@@ -2981,7 +2981,7 @@
         <v>628.165134647506</v>
       </c>
       <c r="W25" t="n">
-        <v>568.9323075946734</v>
+        <v>569.8343016079873</v>
       </c>
       <c r="X25" t="n">
         <v>628.1651256151224</v>
@@ -2993,7 +2993,7 @@
         <v>118.4031799551741</v>
       </c>
       <c r="AA25" t="n">
-        <v>107.238354457325</v>
+        <v>107.4083717905418</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3070,31 +3070,31 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
-        <v>145.9981655329674</v>
+        <v>145.7489784629422</v>
       </c>
       <c r="T26" t="n">
-        <v>136.7805867641109</v>
+        <v>138.3117967366042</v>
       </c>
       <c r="U26" t="n">
         <v>146.1114276791161</v>
       </c>
       <c r="V26" t="n">
-        <v>777.4664191014983</v>
+        <v>776.139453257019</v>
       </c>
       <c r="W26" t="n">
-        <v>728.3811588035485</v>
+        <v>736.5351265596571</v>
       </c>
       <c r="X26" t="n">
         <v>778.0695603455305</v>
       </c>
       <c r="Y26" t="n">
-        <v>146.5450604884128</v>
+        <v>146.2949399878129</v>
       </c>
       <c r="Z26" t="n">
         <v>146.6587469035661</v>
       </c>
       <c r="AA26" t="n">
-        <v>137.2929535642764</v>
+        <v>138.8298993006857</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>134.8034961847935</v>
       </c>
       <c r="T27" t="n">
-        <v>116.683002645401</v>
+        <v>117.1313970136564</v>
       </c>
       <c r="U27" t="n">
         <v>134.8034832174986</v>
@@ -3183,7 +3183,7 @@
         <v>717.8527968386568</v>
       </c>
       <c r="W27" t="n">
-        <v>621.3579184749822</v>
+        <v>623.7456989142789</v>
       </c>
       <c r="X27" t="n">
         <v>717.8527277854857</v>
@@ -3195,7 +3195,7 @@
         <v>135.308443979704</v>
       </c>
       <c r="AA27" t="n">
-        <v>117.1200858464127</v>
+        <v>117.5701598564441</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>143.5985745948034</v>
       </c>
       <c r="T28" t="n">
-        <v>132.7262910191612</v>
+        <v>138.5388472684103</v>
       </c>
       <c r="U28" t="n">
         <v>143.5985764360046</v>
@@ -3284,7 +3284,7 @@
         <v>764.6881669420113</v>
       </c>
       <c r="W28" t="n">
-        <v>706.7913067441212</v>
+        <v>737.744211367497</v>
       </c>
       <c r="X28" t="n">
         <v>764.6881767467377</v>
@@ -3296,7 +3296,7 @@
         <v>144.1364827636307</v>
       </c>
       <c r="AA28" t="n">
-        <v>133.2234708210331</v>
+        <v>139.0578003417432</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>148.6210637075173</v>
       </c>
       <c r="T29" t="n">
-        <v>141.4741481953136</v>
+        <v>144.0202353673912</v>
       </c>
       <c r="U29" t="n">
         <v>148.862475753204</v>
@@ -3385,7 +3385,7 @@
         <v>791.4338223492784</v>
       </c>
       <c r="W29" t="n">
-        <v>753.3752153071288</v>
+        <v>766.9335861891824</v>
       </c>
       <c r="X29" t="n">
         <v>792.719384794552</v>
@@ -3397,7 +3397,7 @@
         <v>149.420100136684</v>
       </c>
       <c r="AA29" t="n">
-        <v>142.004096620977</v>
+        <v>144.5597211884421</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>136.8604916232561</v>
       </c>
       <c r="T30" t="n">
-        <v>122.4915936561311</v>
+        <v>122.1440286444172</v>
       </c>
       <c r="U30" t="n">
         <v>136.8610858329887</v>
@@ -3486,10 +3486,10 @@
         <v>728.8066665110024</v>
       </c>
       <c r="W30" t="n">
-        <v>652.2897074920007</v>
+        <v>650.4388614620131</v>
       </c>
       <c r="X30" t="n">
-        <v>728.8098307844116</v>
+        <v>728.8098307844115</v>
       </c>
       <c r="Y30" t="n">
         <v>137.3731577392672</v>
@@ -3498,7 +3498,7 @@
         <v>137.3737541748517</v>
       </c>
       <c r="AA30" t="n">
-        <v>122.9504352752052</v>
+        <v>122.601568318697</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>146.0705252385384</v>
       </c>
       <c r="T31" t="n">
-        <v>140.8300552180137</v>
+        <v>139.8265451330602</v>
       </c>
       <c r="U31" t="n">
         <v>146.0705245200236</v>
@@ -3587,7 +3587,7 @@
         <v>777.8517475127978</v>
       </c>
       <c r="W31" t="n">
-        <v>749.9453046722808</v>
+        <v>744.6014334706605</v>
       </c>
       <c r="X31" t="n">
         <v>777.8517436865782</v>
@@ -3599,7 +3599,7 @@
         <v>146.6176905252103</v>
       </c>
       <c r="AA31" t="n">
-        <v>141.3575909339089</v>
+        <v>140.350321797592</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>135.1628755053834</v>
       </c>
       <c r="T32" t="n">
-        <v>127.0048267368986</v>
+        <v>116.601605581278</v>
       </c>
       <c r="U32" t="n">
         <v>135.1628673868522</v>
@@ -3688,7 +3688,7 @@
         <v>719.7665561825377</v>
       </c>
       <c r="W32" t="n">
-        <v>676.3234831840824</v>
+        <v>620.9244645083653</v>
       </c>
       <c r="X32" t="n">
         <v>719.7665129499028</v>
@@ -3700,7 +3700,7 @@
         <v>135.6691743672691</v>
       </c>
       <c r="AA32" t="n">
-        <v>127.4805744889752</v>
+        <v>117.038383876789</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>143.7546110100494</v>
       </c>
       <c r="T33" t="n">
-        <v>130.6701116826025</v>
+        <v>129.7936318496911</v>
       </c>
       <c r="U33" t="n">
         <v>143.7546155676683</v>
@@ -3789,7 +3789,7 @@
         <v>765.5190888413919</v>
       </c>
       <c r="W33" t="n">
-        <v>695.8417829607981</v>
+        <v>691.1743706366724</v>
       </c>
       <c r="X33" t="n">
         <v>765.5191131115297</v>
@@ -3801,7 +3801,7 @@
         <v>144.2931064027342</v>
       </c>
       <c r="AA33" t="n">
-        <v>131.1595892362814</v>
+        <v>130.2798261949994</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>145.198923482512</v>
       </c>
       <c r="T34" t="n">
-        <v>126.591596887104</v>
+        <v>128.1993362163265</v>
       </c>
       <c r="U34" t="n">
         <v>145.1989409503072</v>
@@ -3890,7 +3890,7 @@
         <v>773.2103118230642</v>
       </c>
       <c r="W34" t="n">
-        <v>674.1229601130366</v>
+        <v>682.6844604207715</v>
       </c>
       <c r="X34" t="n">
         <v>773.2104048422069</v>
@@ -3902,7 +3902,7 @@
         <v>145.74284208805</v>
       </c>
       <c r="AA34" t="n">
-        <v>127.0657967202772</v>
+        <v>128.6795584849571</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>149.0554916567512</v>
       </c>
       <c r="T35" t="n">
-        <v>139.0793701053376</v>
+        <v>140.6183461625234</v>
       </c>
       <c r="U35" t="n">
         <v>149.0554807383193</v>
@@ -3991,7 +3991,7 @@
         <v>793.7472291021342</v>
       </c>
       <c r="W35" t="n">
-        <v>740.6225924275216</v>
+        <v>748.8179159776178</v>
       </c>
       <c r="X35" t="n">
         <v>793.7471709595259</v>
@@ -4003,7 +4003,7 @@
         <v>149.6138280997378</v>
       </c>
       <c r="AA35" t="n">
-        <v>139.6003479247469</v>
+        <v>141.1450888368481</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>118.6239252998188</v>
       </c>
       <c r="T36" t="n">
-        <v>105.4477842052396</v>
+        <v>110.8262623198196</v>
       </c>
       <c r="U36" t="n">
         <v>118.6239368656947</v>
@@ -4092,7 +4092,7 @@
         <v>631.6936797523559</v>
       </c>
       <c r="W36" t="n">
-        <v>561.528365024032</v>
+        <v>590.1697257198557</v>
       </c>
       <c r="X36" t="n">
         <v>631.6937413427192</v>
@@ -4104,7 +4104,7 @@
         <v>119.0682906178812</v>
       </c>
       <c r="AA36" t="n">
-        <v>105.8427813686232</v>
+        <v>111.2414067401095</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>152.4799242783063</v>
       </c>
       <c r="T37" t="n">
-        <v>149.2393905589104</v>
+        <v>149.4562851418366</v>
       </c>
       <c r="U37" t="n">
         <v>152.4799258306665</v>
@@ -4193,7 +4193,7 @@
         <v>811.982947051163</v>
       </c>
       <c r="W37" t="n">
-        <v>794.726523742012</v>
+        <v>795.8815263003974</v>
       </c>
       <c r="X37" t="n">
         <v>811.9829553177594</v>
@@ -4205,7 +4205,7 @@
         <v>153.051100830976</v>
       </c>
       <c r="AA37" t="n">
-        <v>149.7984268286639</v>
+        <v>150.0161338776429</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>160.4801055532219</v>
       </c>
       <c r="T38" t="n">
-        <v>144.5502076421822</v>
+        <v>143.9453970158842</v>
       </c>
       <c r="U38" t="n">
         <v>160.4801011700442</v>
@@ -4294,7 +4294,7 @@
         <v>854.5853473297266</v>
       </c>
       <c r="W38" t="n">
-        <v>769.7557836133808</v>
+        <v>766.5350585436796</v>
       </c>
       <c r="X38" t="n">
         <v>854.5853239885195</v>
@@ -4306,7 +4306,7 @@
         <v>161.0812440505651</v>
       </c>
       <c r="AA38" t="n">
-        <v>145.0916786879279</v>
+        <v>144.4846024997352</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>119.4424949382637</v>
       </c>
       <c r="T39" t="n">
-        <v>99.85158615783226</v>
+        <v>100.5152574056096</v>
       </c>
       <c r="U39" t="n">
         <v>119.4425248700071</v>
@@ -4395,7 +4395,7 @@
         <v>636.0527099036168</v>
       </c>
       <c r="W39" t="n">
-        <v>531.7276066335565</v>
+        <v>535.2617750704439</v>
       </c>
       <c r="X39" t="n">
         <v>636.0528692955191</v>
@@ -4407,7 +4407,7 @@
         <v>119.8899449733941</v>
       </c>
       <c r="AA39" t="n">
-        <v>100.2256205065762</v>
+        <v>100.8917778024225</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>139.2319610626539</v>
       </c>
       <c r="T40" t="n">
-        <v>127.305585740461</v>
+        <v>126.679122586973</v>
       </c>
       <c r="U40" t="n">
         <v>139.2319544227588</v>
@@ -4496,7 +4496,7 @@
         <v>741.4351666454161</v>
       </c>
       <c r="W40" t="n">
-        <v>677.9250788250866</v>
+        <v>674.5890501642925</v>
       </c>
       <c r="X40" t="n">
         <v>741.4351312867839</v>
@@ -4508,7 +4508,7 @@
         <v>139.7535038082092</v>
       </c>
       <c r="AA40" t="n">
-        <v>127.7824601065691</v>
+        <v>127.1536502829215</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>172.5277916064204</v>
       </c>
       <c r="T41" t="n">
-        <v>164.0424440573868</v>
+        <v>164.928113212401</v>
       </c>
       <c r="U41" t="n">
         <v>172.5277845472153</v>
@@ -4597,7 +4597,7 @@
         <v>918.7414365521234</v>
       </c>
       <c r="W41" t="n">
-        <v>873.5554388397811</v>
+        <v>878.2717859523898</v>
       </c>
       <c r="X41" t="n">
         <v>918.7413989605902</v>
@@ -4609,7 +4609,7 @@
         <v>173.1740568801491</v>
       </c>
       <c r="AA41" t="n">
-        <v>164.6569311285525</v>
+        <v>165.5459179142458</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>147.4310698131381</v>
       </c>
       <c r="T42" t="n">
-        <v>138.1567881053092</v>
+        <v>140.5643479812306</v>
       </c>
       <c r="U42" t="n">
         <v>147.5250647667818</v>
@@ -4698,7 +4698,7 @@
         <v>785.0968914129326</v>
       </c>
       <c r="W42" t="n">
-        <v>735.7096777941689</v>
+        <v>748.5303659765998</v>
       </c>
       <c r="X42" t="n">
         <v>785.597431400926</v>
@@ -4710,7 +4710,7 @@
         <v>148.0776793385346</v>
       </c>
       <c r="AA42" t="n">
-        <v>138.6743100221052</v>
+        <v>141.0908883836101</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>158.27608948495</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1043064890497</v>
+        <v>148.5047810309958</v>
       </c>
       <c r="U43" t="n">
         <v>158.2760865955052</v>
@@ -4799,7 +4799,7 @@
         <v>842.8485664326093</v>
       </c>
       <c r="W43" t="n">
-        <v>740.7553831436192</v>
+        <v>790.8145962392197</v>
       </c>
       <c r="X43" t="n">
         <v>842.8485510457975</v>
@@ -4811,7 +4811,7 @@
         <v>158.8689734513827</v>
       </c>
       <c r="AA43" t="n">
-        <v>139.6253777177318</v>
+        <v>149.0610655247693</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>122.4260412324264</v>
       </c>
       <c r="T44" t="n">
-        <v>107.8672604095599</v>
+        <v>109.3538629453479</v>
       </c>
       <c r="U44" t="n">
         <v>122.4260353007626</v>
@@ -4900,7 +4900,7 @@
         <v>651.9406290776586</v>
       </c>
       <c r="W44" t="n">
-        <v>574.4125097926141</v>
+        <v>582.3289349470473</v>
       </c>
       <c r="X44" t="n">
         <v>651.9405974904848</v>
@@ -4912,7 +4912,7 @@
         <v>122.8846313446015</v>
       </c>
       <c r="AA44" t="n">
-        <v>108.2713206959364</v>
+        <v>109.7634919005128</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>145.7062345154444</v>
       </c>
       <c r="T45" t="n">
-        <v>130.7407906169985</v>
+        <v>134.9675463389499</v>
       </c>
       <c r="U45" t="n">
         <v>145.7062615500503</v>
@@ -5001,7 +5001,7 @@
         <v>775.9118340696264</v>
       </c>
       <c r="W45" t="n">
-        <v>696.2181609641121</v>
+        <v>718.7263933351568</v>
       </c>
       <c r="X45" t="n">
         <v>775.911978033752</v>
@@ -5013,7 +5013,7 @@
         <v>146.2520630615119</v>
       </c>
       <c r="AA45" t="n">
-        <v>131.2305329271047</v>
+        <v>135.4731216656819</v>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>158.1850441785413</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5165156518637</v>
+        <v>156.0132407271587</v>
       </c>
       <c r="U46" t="n">
         <v>158.1850472503425</v>
@@ -5102,7 +5102,7 @@
         <v>842.3637338452188</v>
       </c>
       <c r="W46" t="n">
-        <v>812.1778026787376</v>
+        <v>830.798490911003</v>
       </c>
       <c r="X46" t="n">
         <v>842.3637502031114</v>
@@ -5114,7 +5114,7 @@
         <v>158.7775930816705</v>
       </c>
       <c r="AA46" t="n">
-        <v>153.0878277140915</v>
+        <v>156.5976511820771</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>138.4603255233197</v>
       </c>
       <c r="T47" t="n">
-        <v>127.7948700886578</v>
+        <v>125.3260165936287</v>
       </c>
       <c r="U47" t="n">
         <v>138.4603266200077</v>
@@ -5203,7 +5203,7 @@
         <v>737.3260689904721</v>
       </c>
       <c r="W47" t="n">
-        <v>680.5306057419918</v>
+        <v>667.3835180435984</v>
       </c>
       <c r="X47" t="n">
         <v>737.3260748305325</v>
@@ -5215,7 +5215,7 @@
         <v>138.978985562614</v>
       </c>
       <c r="AA47" t="n">
-        <v>128.2735772664373</v>
+        <v>125.7954756858776</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>138.9141346290938</v>
       </c>
       <c r="T48" t="n">
-        <v>136.0069475549464</v>
+        <v>133.8208017725088</v>
       </c>
       <c r="U48" t="n">
         <v>138.9141517008288</v>
@@ -5304,7 +5304,7 @@
         <v>739.7426838782958</v>
       </c>
       <c r="W48" t="n">
-        <v>724.2613912473608</v>
+        <v>712.6197728276979</v>
       </c>
       <c r="X48" t="n">
         <v>739.7427747883465</v>
@@ -5316,7 +5316,7 @@
         <v>139.4345106281332</v>
       </c>
       <c r="AA48" t="n">
-        <v>136.5164163777347</v>
+        <v>134.3220815054142</v>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>123.6587992973366</v>
       </c>
       <c r="T49" t="n">
-        <v>111.0249503248606</v>
+        <v>115.7232480753053</v>
       </c>
       <c r="U49" t="n">
         <v>123.6587948116768</v>
@@ -5405,7 +5405,7 @@
         <v>658.5052868926763</v>
       </c>
       <c r="W49" t="n">
-        <v>591.2277749852948</v>
+        <v>616.2470532383908</v>
       </c>
       <c r="X49" t="n">
         <v>658.5052630057334</v>
@@ -5417,7 +5417,7 @@
         <v>124.1220086529746</v>
       </c>
       <c r="AA49" t="n">
-        <v>111.4408390111299</v>
+        <v>116.1567361288648</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>96.36795249673628</v>
       </c>
       <c r="T50" t="n">
-        <v>89.48453882570432</v>
+        <v>91.75567240425681</v>
       </c>
       <c r="U50" t="n">
         <v>96.36796488922003</v>
@@ -5506,7 +5506,7 @@
         <v>513.1766325301035</v>
       </c>
       <c r="W50" t="n">
-        <v>476.5212200564236</v>
+        <v>488.6154137346288</v>
       </c>
       <c r="X50" t="n">
         <v>513.1766985223023</v>
@@ -5518,7 +5518,7 @@
         <v>96.72894993086118</v>
       </c>
       <c r="AA50" t="n">
-        <v>89.81973922151396</v>
+        <v>92.09938024598344</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>166.1877603330804</v>
       </c>
       <c r="T51" t="n">
-        <v>136.8757752759897</v>
+        <v>133.9333992494458</v>
       </c>
       <c r="U51" t="n">
         <v>166.1877816037669</v>
@@ -5607,7 +5607,7 @@
         <v>884.9796328124585</v>
       </c>
       <c r="W51" t="n">
-        <v>728.8880547032321</v>
+        <v>713.2193745889564</v>
       </c>
       <c r="X51" t="n">
         <v>884.9797460826793</v>
@@ -5619,7 +5619,7 @@
         <v>166.8103049011245</v>
       </c>
       <c r="AA51" t="n">
-        <v>137.3884986430803</v>
+        <v>134.4351007615695</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>128.282798228615</v>
       </c>
       <c r="T52" t="n">
-        <v>117.1067653545891</v>
+        <v>115.3309391323641</v>
       </c>
       <c r="U52" t="n">
         <v>128.282806079304</v>
@@ -5708,7 +5708,7 @@
         <v>683.128910606759</v>
       </c>
       <c r="W52" t="n">
-        <v>623.614530911574</v>
+        <v>614.1579377489149</v>
       </c>
       <c r="X52" t="n">
         <v>683.1289524130859</v>
@@ -5720,7 +5720,7 @@
         <v>128.7633410179385</v>
       </c>
       <c r="AA52" t="n">
-        <v>117.5454359295731</v>
+        <v>115.7629576347063</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>169.5358709360638</v>
       </c>
       <c r="T53" t="n">
-        <v>131.9806225340352</v>
+        <v>110.6468593319974</v>
       </c>
       <c r="U53" t="n">
         <v>169.5358441687618</v>
@@ -5809,7 +5809,7 @@
         <v>902.8089223227398</v>
       </c>
       <c r="W53" t="n">
-        <v>702.8204883105374</v>
+        <v>589.2143726302529</v>
       </c>
       <c r="X53" t="n">
         <v>902.8087797820552</v>
@@ -5821,7 +5821,7 @@
         <v>170.1709089834777</v>
       </c>
       <c r="AA53" t="n">
-        <v>132.4750091341469</v>
+        <v>111.0613317261103</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>150.6526420559427</v>
       </c>
       <c r="T54" t="n">
-        <v>128.5754095398853</v>
+        <v>120.0275454120225</v>
       </c>
       <c r="U54" t="n">
         <v>150.6526784838332</v>
@@ -5910,7 +5910,7 @@
         <v>802.2523414581214</v>
       </c>
       <c r="W54" t="n">
-        <v>684.6871183248593</v>
+        <v>639.1682086166754</v>
       </c>
       <c r="X54" t="n">
         <v>802.2525354431725</v>
@@ -5922,7 +5922,7 @@
         <v>151.2170087929598</v>
       </c>
       <c r="AA54" t="n">
-        <v>129.057040542679</v>
+        <v>120.4771569455695</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>102.0519678535106</v>
       </c>
       <c r="T55" t="n">
-        <v>67.22733921720049</v>
+        <v>75.2293353344853</v>
       </c>
       <c r="U55" t="n">
         <v>102.0519681292183</v>
@@ -6011,7 +6011,7 @@
         <v>543.4450338447174</v>
       </c>
       <c r="W55" t="n">
-        <v>357.9976398752512</v>
+        <v>400.6097045149587</v>
       </c>
       <c r="X55" t="n">
         <v>543.44503531291</v>
@@ -6023,7 +6023,7 @@
         <v>102.4342448952269</v>
       </c>
       <c r="AA55" t="n">
-        <v>67.47916630387438</v>
+        <v>75.51113712182794</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>818.53839611534</v>
       </c>
       <c r="W56" t="n">
-        <v>783.6751974869754</v>
+        <v>783.6751974869755</v>
       </c>
       <c r="X56" t="n">
         <v>818.5383520575333</v>
@@ -6204,7 +6204,7 @@
         <v>151.4488057950835</v>
       </c>
       <c r="T57" t="n">
-        <v>132.3413623482335</v>
+        <v>134.8997502706081</v>
       </c>
       <c r="U57" t="n">
         <v>151.4513975732121</v>
@@ -6213,7 +6213,7 @@
         <v>806.4920561766497</v>
       </c>
       <c r="W57" t="n">
-        <v>704.7414925269144</v>
+        <v>718.3653671106804</v>
       </c>
       <c r="X57" t="n">
         <v>806.5058578600709</v>
@@ -6225,7 +6225,7 @@
         <v>152.0187198065126</v>
       </c>
       <c r="AA57" t="n">
-        <v>132.8371002446708</v>
+        <v>135.4050716398494</v>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>128.4136371924826</v>
       </c>
       <c r="T58" t="n">
-        <v>108.9365283846585</v>
+        <v>117.1573194811519</v>
       </c>
       <c r="U58" t="n">
         <v>128.4136733627494</v>
@@ -6314,7 +6314,7 @@
         <v>683.8256515578918</v>
       </c>
       <c r="W58" t="n">
-        <v>580.1065535542261</v>
+        <v>623.8837407033963</v>
       </c>
       <c r="X58" t="n">
         <v>683.8258441710507</v>
@@ -6326,7 +6326,7 @@
         <v>128.894698517524</v>
       </c>
       <c r="AA58" t="n">
-        <v>109.3445940450715</v>
+        <v>117.5961794269865</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -6415,19 +6415,19 @@
         <v>703.5261816481888</v>
       </c>
       <c r="W59" t="n">
-        <v>641.6383919128925</v>
+        <v>641.6383919128922</v>
       </c>
       <c r="X59" t="n">
-        <v>703.5438552897234</v>
+        <v>703.5438552897238</v>
       </c>
       <c r="Y59" t="n">
         <v>132.6080256481874</v>
       </c>
       <c r="Z59" t="n">
-        <v>132.6113569623176</v>
+        <v>132.6113569623177</v>
       </c>
       <c r="AA59" t="n">
-        <v>120.9427631141034</v>
+        <v>120.9427631141033</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>134.0967986485918</v>
       </c>
       <c r="T60" t="n">
-        <v>128.3159421657081</v>
+        <v>129.9771983471983</v>
       </c>
       <c r="U60" t="n">
         <v>134.0967931066156</v>
@@ -6516,7 +6516,7 @@
         <v>714.0895056982999</v>
       </c>
       <c r="W60" t="n">
-        <v>683.3054080167962</v>
+        <v>692.1518951621549</v>
       </c>
       <c r="X60" t="n">
         <v>714.0894761862829</v>
@@ -6528,7 +6528,7 @@
         <v>134.5991066762669</v>
       </c>
       <c r="AA60" t="n">
-        <v>128.7966012289057</v>
+        <v>130.4640803147868</v>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>148.6912733137501</v>
       </c>
       <c r="T61" t="n">
-        <v>141.4631472150967</v>
+        <v>138.0784969123962</v>
       </c>
       <c r="U61" t="n">
         <v>148.6912866347793</v>
@@ -6617,7 +6617,7 @@
         <v>791.80770109594</v>
       </c>
       <c r="W61" t="n">
-        <v>753.3166331142321</v>
+        <v>735.2927631488444</v>
       </c>
       <c r="X61" t="n">
         <v>791.8077720328102</v>
@@ -6629,7 +6629,7 @@
         <v>149.2482697604398</v>
       </c>
       <c r="AA61" t="n">
-        <v>141.9930544321562</v>
+        <v>138.5957255579837</v>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>139.9372559195478</v>
       </c>
       <c r="T62" t="n">
-        <v>122.9648046200353</v>
+        <v>123.0907255124977</v>
       </c>
       <c r="U62" t="n">
         <v>139.9372601068099</v>
@@ -6718,7 +6718,7 @@
         <v>745.1909882668612</v>
       </c>
       <c r="W62" t="n">
-        <v>654.8096407544713</v>
+        <v>655.4801920932184</v>
       </c>
       <c r="X62" t="n">
         <v>745.1910105647829</v>
@@ -6730,7 +6730,7 @@
         <v>140.4614514988859</v>
       </c>
       <c r="AA62" t="n">
-        <v>123.4254188414437</v>
+        <v>123.5518114213456</v>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>112.8503285653132</v>
       </c>
       <c r="T63" t="n">
-        <v>69.44346321739444</v>
+        <v>74.09656429725177</v>
       </c>
       <c r="U63" t="n">
         <v>112.850341470895</v>
@@ -6819,7 +6819,7 @@
         <v>600.9482415331438</v>
       </c>
       <c r="W63" t="n">
-        <v>369.798897681649</v>
+        <v>394.5774955569565</v>
       </c>
       <c r="X63" t="n">
         <v>600.9483102576817</v>
@@ -6831,7 +6831,7 @@
         <v>113.2730678951992</v>
       </c>
       <c r="AA63" t="n">
-        <v>69.70359168944481</v>
+        <v>74.37412283425166</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>155.1349261705808</v>
       </c>
       <c r="T64" t="n">
-        <v>142.495391752853</v>
+        <v>143.1672248336066</v>
       </c>
       <c r="U64" t="n">
         <v>155.1349103138343</v>
@@ -6920,7 +6920,7 @@
         <v>826.1213083542591</v>
       </c>
       <c r="W64" t="n">
-        <v>758.8135204311154</v>
+        <v>762.391152092587</v>
       </c>
       <c r="X64" t="n">
         <v>826.1212239142401</v>
@@ -6932,7 +6932,7 @@
         <v>155.7160306282875</v>
       </c>
       <c r="AA64" t="n">
-        <v>143.0291656577466</v>
+        <v>143.7035153600033</v>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>154.7858780452867</v>
       </c>
       <c r="T65" t="n">
-        <v>146.332135122137</v>
+        <v>145.6748989141434</v>
       </c>
       <c r="U65" t="n">
         <v>155.2819605154788</v>
@@ -7021,19 +7021,19 @@
         <v>824.2625644784316</v>
       </c>
       <c r="W65" t="n">
-        <v>779.2448670678315</v>
+        <v>775.7449663720431</v>
       </c>
       <c r="X65" t="n">
-        <v>826.9042926143387</v>
+        <v>826.9042926143386</v>
       </c>
       <c r="Y65" t="n">
         <v>155.3656909187439</v>
       </c>
       <c r="Z65" t="n">
-        <v>155.8636316657126</v>
+        <v>155.8636316657125</v>
       </c>
       <c r="AA65" t="n">
-        <v>146.8802810952436</v>
+        <v>146.2205829442155</v>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
@@ -7113,28 +7113,28 @@
         <v>128.0406726662717</v>
       </c>
       <c r="T66" t="n">
-        <v>127.1259995221002</v>
+        <v>126.2588893153503</v>
       </c>
       <c r="U66" t="n">
-        <v>128.0406825025471</v>
+        <v>128.040682502547</v>
       </c>
       <c r="V66" t="n">
         <v>681.8395485573058</v>
       </c>
       <c r="W66" t="n">
-        <v>676.96875</v>
+        <v>672.3512326158107</v>
       </c>
       <c r="X66" t="n">
-        <v>681.8396009372368</v>
+        <v>681.8396009372365</v>
       </c>
       <c r="Y66" t="n">
         <v>128.5203005966459</v>
       </c>
       <c r="Z66" t="n">
-        <v>128.5203104697671</v>
+        <v>128.520310469767</v>
       </c>
       <c r="AA66" t="n">
-        <v>127.6022011756675</v>
+        <v>126.731842858257</v>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>127.8649067072094</v>
       </c>
       <c r="T67" t="n">
-        <v>120.7576350764756</v>
+        <v>120.6066597640275</v>
       </c>
       <c r="U67" t="n">
         <v>127.8649118766067</v>
@@ -7223,7 +7223,7 @@
         <v>680.9035632982227</v>
       </c>
       <c r="W67" t="n">
-        <v>643.0560670358087</v>
+        <v>642.2520964166349</v>
       </c>
       <c r="X67" t="n">
         <v>680.9035908261903</v>
@@ -7235,7 +7235,7 @@
         <v>128.3438814241247</v>
       </c>
       <c r="AA67" t="n">
-        <v>121.2099814550329</v>
+        <v>121.0584406037201</v>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>137.5223119684616</v>
       </c>
       <c r="T68" t="n">
-        <v>124.6152686965689</v>
+        <v>126.1175473065487</v>
       </c>
       <c r="U68" t="n">
         <v>137.5223104096348</v>
@@ -7324,7 +7324,7 @@
         <v>732.3309785596989</v>
       </c>
       <c r="W68" t="n">
-        <v>663.5986580051606</v>
+        <v>671.5985610664769</v>
       </c>
       <c r="X68" t="n">
         <v>732.3309702586666</v>
@@ -7336,7 +7336,7 @@
         <v>138.0374556345742</v>
       </c>
       <c r="AA68" t="n">
-        <v>125.0820653961907</v>
+        <v>126.5899713960111</v>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
@@ -7416,28 +7416,28 @@
         <v>142.2383720902759</v>
       </c>
       <c r="T69" t="n">
-        <v>127.4081140656466</v>
+        <v>127.6272003643167</v>
       </c>
       <c r="U69" t="n">
-        <v>145.9030730323778</v>
+        <v>142.2391787457396</v>
       </c>
       <c r="V69" t="n">
         <v>757.4448446263683</v>
       </c>
       <c r="W69" t="n">
-        <v>678.4710605471688</v>
+        <v>679.6377343850179</v>
       </c>
       <c r="X69" t="n">
-        <v>776.9600344791507</v>
+        <v>757.4491402114019</v>
       </c>
       <c r="Y69" t="n">
         <v>142.7711832244635</v>
       </c>
       <c r="Z69" t="n">
-        <v>146.4496117805469</v>
+        <v>142.7719929015803</v>
       </c>
       <c r="AA69" t="n">
-        <v>127.885372492908</v>
+        <v>128.1052794675853</v>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>151.1171136528311</v>
       </c>
       <c r="T70" t="n">
-        <v>148.1854441553314</v>
+        <v>147.3349073440194</v>
       </c>
       <c r="U70" t="n">
         <v>151.1171114806128</v>
@@ -7526,7 +7526,7 @@
         <v>804.7257360236555</v>
       </c>
       <c r="W70" t="n">
-        <v>789.1140700969662</v>
+        <v>784.584809016248</v>
       </c>
       <c r="X70" t="n">
         <v>804.7257244562038</v>
@@ -7538,7 +7538,7 @@
         <v>151.683181510661</v>
       </c>
       <c r="AA70" t="n">
-        <v>148.740532444168</v>
+        <v>147.886809604526</v>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>160.6682516331869</v>
       </c>
       <c r="T71" t="n">
-        <v>152.3085275145268</v>
+        <v>153.3497314802519</v>
       </c>
       <c r="U71" t="n">
         <v>160.6682393357454</v>
@@ -7627,7 +7627,7 @@
         <v>855.5872589532352</v>
       </c>
       <c r="W71" t="n">
-        <v>811.070228540661</v>
+        <v>816.6148264185282</v>
       </c>
       <c r="X71" t="n">
         <v>855.5871934671532</v>
@@ -7639,7 +7639,7 @@
         <v>161.2700869635717</v>
       </c>
       <c r="AA71" t="n">
-        <v>152.8790604733823</v>
+        <v>153.9241646880891</v>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>143.9960367554822</v>
       </c>
       <c r="T72" t="n">
-        <v>119.0903243391202</v>
+        <v>118.5080041052441</v>
       </c>
       <c r="U72" t="n">
         <v>143.9960184935385</v>
@@ -7728,7 +7728,7 @@
         <v>766.8047242402704</v>
       </c>
       <c r="W72" t="n">
-        <v>634.1773382944634</v>
+        <v>631.0763785985023</v>
       </c>
       <c r="X72" t="n">
         <v>766.804626992145</v>
@@ -7740,7 +7740,7 @@
         <v>144.5354136005308</v>
       </c>
       <c r="AA72" t="n">
-        <v>119.5364251335079</v>
+        <v>118.951923584564</v>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>136.1843117549759</v>
       </c>
       <c r="T73" t="n">
-        <v>124.9974563901785</v>
+        <v>124.7332851746996</v>
       </c>
       <c r="U73" t="n">
         <v>136.197274245338</v>
@@ -7829,7 +7829,7 @@
         <v>725.2058874262708</v>
       </c>
       <c r="W73" t="n">
-        <v>665.6338760265005</v>
+        <v>664.2271169197797</v>
       </c>
       <c r="X73" t="n">
         <v>725.2749150125262</v>
@@ -7841,7 +7841,7 @@
         <v>136.7074560134327</v>
       </c>
       <c r="AA73" t="n">
-        <v>125.4656847278</v>
+        <v>125.2005239525921</v>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>123.2664893679007</v>
       </c>
       <c r="T74" t="n">
-        <v>109.3104649370806</v>
+        <v>115.3859311676189</v>
       </c>
       <c r="U74" t="n">
         <v>123.2664907229534</v>
@@ -7930,7 +7930,7 @@
         <v>656.4161661499392</v>
       </c>
       <c r="W74" t="n">
-        <v>582.0978327687388</v>
+        <v>614.4507802005483</v>
       </c>
       <c r="X74" t="n">
         <v>656.4161733658381</v>
@@ -7942,7 +7942,7 @@
         <v>123.7282350312175</v>
       </c>
       <c r="AA74" t="n">
-        <v>109.7199313275194</v>
+        <v>115.8181556647869</v>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
@@ -8022,28 +8022,28 @@
         <v>133.9093135460643</v>
       </c>
       <c r="T75" t="n">
-        <v>123.8387346905463</v>
+        <v>122.2897305109332</v>
       </c>
       <c r="U75" t="n">
-        <v>133.9148791591713</v>
+        <v>133.9148791591712</v>
       </c>
       <c r="V75" t="n">
         <v>713.0911138982055</v>
       </c>
       <c r="W75" t="n">
-        <v>659.4634751364647</v>
+        <v>651.2147500357024</v>
       </c>
       <c r="X75" t="n">
-        <v>713.1207517863028</v>
+        <v>713.1207517863018</v>
       </c>
       <c r="Y75" t="n">
         <v>134.4109248354812</v>
       </c>
       <c r="Z75" t="n">
-        <v>134.4165112968347</v>
+        <v>134.4165112968345</v>
       </c>
       <c r="AA75" t="n">
-        <v>124.3026225691628</v>
+        <v>122.7478159702611</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
@@ -8123,28 +8123,28 @@
         <v>99.92224303699318</v>
       </c>
       <c r="T76" t="n">
-        <v>83.8424865488102</v>
+        <v>87.87514035515903</v>
       </c>
       <c r="U76" t="n">
-        <v>99.92388500113032</v>
+        <v>99.92388500113039</v>
       </c>
       <c r="V76" t="n">
         <v>494.096448103874</v>
       </c>
       <c r="W76" t="n">
-        <v>414.5851168355692</v>
+        <v>434.5258213432918</v>
       </c>
       <c r="X76" t="n">
-        <v>494.1045673035979</v>
+        <v>494.1045673035982</v>
       </c>
       <c r="Y76" t="n">
         <v>104.8786175851106</v>
       </c>
       <c r="Z76" t="n">
-        <v>104.8803409944696</v>
+        <v>104.8803409944697</v>
       </c>
       <c r="AA76" t="n">
-        <v>88.00126795474354</v>
+        <v>92.23395072441093</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>93.16987866025877</v>
       </c>
       <c r="T77" t="n">
-        <v>84.07372127898977</v>
+        <v>82.48950412206295</v>
       </c>
       <c r="U77" t="n">
         <v>93.16986909818462</v>
@@ -8233,7 +8233,7 @@
         <v>460.707293162542</v>
       </c>
       <c r="W77" t="n">
-        <v>415.7285285063589</v>
+        <v>407.8948765939116</v>
       </c>
       <c r="X77" t="n">
         <v>460.7072458799078</v>
@@ -8245,7 +8245,7 @@
         <v>97.79131026898291</v>
       </c>
       <c r="AA77" t="n">
-        <v>88.24397246278707</v>
+        <v>86.58117446783426</v>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
@@ -8325,28 +8325,28 @@
         <v>110.0196575904515</v>
       </c>
       <c r="T78" t="n">
-        <v>101.4800283966937</v>
+        <v>101.1635607966164</v>
       </c>
       <c r="U78" t="n">
-        <v>110.0206113276521</v>
+        <v>110.0206113276522</v>
       </c>
       <c r="V78" t="n">
         <v>544.0262386516007</v>
       </c>
       <c r="W78" t="n">
-        <v>501.7993998165501</v>
+        <v>500.2345278482509</v>
       </c>
       <c r="X78" t="n">
-        <v>544.0309547002895</v>
+        <v>544.0309547002901</v>
       </c>
       <c r="Y78" t="n">
         <v>115.4768872732562</v>
       </c>
       <c r="Z78" t="n">
-        <v>115.4778883180296</v>
+        <v>115.4778883180297</v>
       </c>
       <c r="AA78" t="n">
-        <v>106.5136727045121</v>
+        <v>106.1815075789324</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>75.30618550066463</v>
       </c>
       <c r="T79" t="n">
-        <v>74.20280648604778</v>
+        <v>73.41168272055538</v>
       </c>
       <c r="U79" t="n">
         <v>75.30617977808573</v>
@@ -8435,7 +8435,7 @@
         <v>372.3747350462752</v>
       </c>
       <c r="W79" t="n">
-        <v>366.9187361068528</v>
+        <v>363.0067798630799</v>
       </c>
       <c r="X79" t="n">
         <v>372.3747067492133</v>
@@ -8447,7 +8447,7 @@
         <v>79.04154060890572</v>
       </c>
       <c r="AA79" t="n">
-        <v>77.88343744756622</v>
+        <v>77.05307211206377</v>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>155.632536619942</v>
       </c>
       <c r="T80" t="n">
-        <v>133.6190093243721</v>
+        <v>138.2100790573799</v>
       </c>
       <c r="U80" t="n">
         <v>155.6325250695893</v>
@@ -8536,7 +8536,7 @@
         <v>828.7711732533152</v>
       </c>
       <c r="W80" t="n">
-        <v>711.5451918459307</v>
+        <v>735.9934616727244</v>
       </c>
       <c r="X80" t="n">
         <v>828.7711117456154</v>
@@ -8548,7 +8548,7 @@
         <v>156.2155094006121</v>
       </c>
       <c r="AA80" t="n">
-        <v>134.1195331623555</v>
+        <v>138.7278005969092</v>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>104.0247731660686</v>
       </c>
       <c r="T81" t="n">
-        <v>91.0282193111674</v>
+        <v>87.80798481579551</v>
       </c>
       <c r="U81" t="n">
         <v>104.1011607942594</v>
@@ -8637,7 +8637,7 @@
         <v>514.3826777100772</v>
       </c>
       <c r="W81" t="n">
-        <v>450.1171958501474</v>
+        <v>434.19375</v>
       </c>
       <c r="X81" t="n">
         <v>514.7603999731192</v>
@@ -8649,7 +8649,7 @@
         <v>109.2648193362231</v>
       </c>
       <c r="AA81" t="n">
-        <v>95.54342969517857</v>
+        <v>92.16346411484771</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>122.5361790489141</v>
       </c>
       <c r="T82" t="n">
-        <v>113.4124722155186</v>
+        <v>116.1816522044278</v>
       </c>
       <c r="U82" t="n">
         <v>122.5361659874053</v>
@@ -8738,7 +8738,7 @@
         <v>605.9180517982766</v>
       </c>
       <c r="W82" t="n">
-        <v>560.8030603518494</v>
+        <v>574.4961276319125</v>
       </c>
       <c r="X82" t="n">
         <v>605.9179872116048</v>
@@ -8750,7 +8750,7 @@
         <v>128.6142434590951</v>
       </c>
       <c r="AA82" t="n">
-        <v>119.0379933571924</v>
+        <v>121.9445310834685</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>76.63952735675873</v>
       </c>
       <c r="T83" t="n">
-        <v>70.97496319599094</v>
+        <v>71.716867548991</v>
       </c>
       <c r="U83" t="n">
         <v>76.6395027019732</v>
@@ -8839,7 +8839,7 @@
         <v>378.9678564092576</v>
       </c>
       <c r="W83" t="n">
-        <v>350.9576662171131</v>
+        <v>354.6262418466096</v>
       </c>
       <c r="X83" t="n">
         <v>378.967734496042</v>
@@ -8851,7 +8851,7 @@
         <v>80.44099943610681</v>
       </c>
       <c r="AA83" t="n">
-        <v>74.49548565872172</v>
+        <v>75.27419018494234</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>109.9335361810218</v>
       </c>
       <c r="T84" t="n">
-        <v>96.51025111052287</v>
+        <v>98.71902205402468</v>
       </c>
       <c r="U84" t="n">
         <v>109.9389009866237</v>
@@ -8940,7 +8940,7 @@
         <v>585.4157989027905</v>
       </c>
       <c r="W84" t="n">
-        <v>513.9343981725683</v>
+        <v>525.6964996331652</v>
       </c>
       <c r="X84" t="n">
         <v>585.4443674549038</v>
@@ -8952,7 +8952,7 @@
         <v>110.3507214374992</v>
       </c>
       <c r="AA84" t="n">
-        <v>96.87176914253672</v>
+        <v>99.08881392757841</v>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
@@ -9032,19 +9032,19 @@
         <v>139.0069973009075</v>
       </c>
       <c r="T85" t="n">
-        <v>112.7890651981613</v>
+        <v>115.4861820167965</v>
       </c>
       <c r="U85" t="n">
-        <v>139.082277538668</v>
+        <v>139.0822775386679</v>
       </c>
       <c r="V85" t="n">
         <v>740.2371942624477</v>
       </c>
       <c r="W85" t="n">
-        <v>600.6220031142715</v>
+        <v>614.9846339543777</v>
       </c>
       <c r="X85" t="n">
-        <v>740.6380750315113</v>
+        <v>740.6380750315111</v>
       </c>
       <c r="Y85" t="n">
         <v>139.527704018817</v>
@@ -9053,7 +9053,7 @@
         <v>139.6032662490403</v>
       </c>
       <c r="AA85" t="n">
-        <v>113.2115620874961</v>
+        <v>115.9187820439137</v>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>136.2947825283333</v>
       </c>
       <c r="T86" t="n">
-        <v>115.0238261434035</v>
+        <v>120.0046548321027</v>
       </c>
       <c r="U86" t="n">
         <v>136.2947701092442</v>
@@ -9142,7 +9142,7 @@
         <v>725.7941641095018</v>
       </c>
       <c r="W86" t="n">
-        <v>612.5225059959531</v>
+        <v>639.0463121727271</v>
       </c>
       <c r="X86" t="n">
         <v>725.7940979756243</v>
@@ -9154,7 +9154,7 @@
         <v>136.8053170873806</v>
       </c>
       <c r="AA86" t="n">
-        <v>115.4546942303018</v>
+        <v>120.4541806197594</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>133.8207995698365</v>
       </c>
       <c r="T87" t="n">
-        <v>121.1569272889285</v>
+        <v>120.7854112625108</v>
       </c>
       <c r="U87" t="n">
         <v>133.8208017725088</v>
@@ -9243,7 +9243,7 @@
         <v>712.6197610980723</v>
       </c>
       <c r="W87" t="n">
-        <v>645.1823696880208</v>
+        <v>643.2039802086504</v>
       </c>
       <c r="X87" t="n">
         <v>712.6197728276979</v>
@@ -9255,7 +9255,7 @@
         <v>134.3220815054142</v>
       </c>
       <c r="AA87" t="n">
-        <v>121.6107693773527</v>
+        <v>121.2378616879646</v>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
@@ -9335,19 +9335,19 @@
         <v>143.8053221538262</v>
       </c>
       <c r="T88" t="n">
-        <v>117.9578893114059</v>
+        <v>126.1072760740915</v>
       </c>
       <c r="U88" t="n">
-        <v>143.8144671274709</v>
+        <v>143.814467127471</v>
       </c>
       <c r="V88" t="n">
         <v>765.789134778043</v>
       </c>
       <c r="W88" t="n">
-        <v>628.1469186474214</v>
+        <v>671.5438649112953</v>
       </c>
       <c r="X88" t="n">
-        <v>765.8378334030318</v>
+        <v>765.8378334030321</v>
       </c>
       <c r="Y88" t="n">
         <v>144.3440029308416</v>
@@ -9356,7 +9356,7 @@
         <v>144.3531821606699</v>
       </c>
       <c r="AA88" t="n">
-        <v>118.39974811411</v>
+        <v>126.5796616885142</v>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>128.6232272953374</v>
       </c>
       <c r="T89" t="n">
-        <v>89.40433109883134</v>
+        <v>107.4991176294036</v>
       </c>
       <c r="U89" t="n">
         <v>128.6232267328338</v>
@@ -9445,7 +9445,7 @@
         <v>684.9417564496953</v>
       </c>
       <c r="W89" t="n">
-        <v>476.0940995239938</v>
+        <v>572.4520834546438</v>
       </c>
       <c r="X89" t="n">
         <v>684.9417534542627</v>
@@ -9457,7 +9457,7 @@
         <v>129.1050368541905</v>
       </c>
       <c r="AA89" t="n">
-        <v>89.73923104428218</v>
+        <v>107.9017988886628</v>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>155.1858456411894</v>
       </c>
       <c r="T90" t="n">
-        <v>150.854394556801</v>
+        <v>146.7083957683407</v>
       </c>
       <c r="U90" t="n">
         <v>155.1857953755431</v>
@@ -9546,7 +9546,7 @@
         <v>826.3924636686571</v>
       </c>
       <c r="W90" t="n">
-        <v>803.3267097134654</v>
+        <v>781.2485224986028</v>
       </c>
       <c r="X90" t="n">
         <v>826.3921959950745</v>
@@ -9558,7 +9558,7 @@
         <v>155.7671063004978</v>
       </c>
       <c r="AA90" t="n">
-        <v>151.4194804747555</v>
+        <v>147.2579511773028</v>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>134.1714837853786</v>
       </c>
       <c r="T91" t="n">
-        <v>120.9989213909611</v>
+        <v>121.9552858362728</v>
       </c>
       <c r="U91" t="n">
         <v>134.1715019998045</v>
@@ -9647,7 +9647,7 @@
         <v>714.4872174479358</v>
       </c>
       <c r="W91" t="n">
-        <v>644.3409599398832</v>
+        <v>649.4337721539144</v>
       </c>
       <c r="X91" t="n">
         <v>714.4873144430211</v>
@@ -9659,7 +9659,7 @@
         <v>134.6740954217174</v>
       </c>
       <c r="AA91" t="n">
-        <v>121.4521716046297</v>
+        <v>122.4121184983153</v>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
@@ -9739,28 +9739,28 @@
         <v>158.2109696797209</v>
       </c>
       <c r="T92" t="n">
-        <v>132.7185690659008</v>
+        <v>137.4396186972558</v>
       </c>
       <c r="U92" t="n">
-        <v>158.2134146233428</v>
+        <v>158.2134146233427</v>
       </c>
       <c r="V92" t="n">
         <v>842.5017917892483</v>
       </c>
       <c r="W92" t="n">
-        <v>706.7501859579256</v>
+        <v>731.890622057866</v>
       </c>
       <c r="X92" t="n">
-        <v>842.5148115525834</v>
+        <v>842.5148115525827</v>
       </c>
       <c r="Y92" t="n">
         <v>158.803612613953</v>
       </c>
       <c r="Z92" t="n">
-        <v>158.8060667160963</v>
+        <v>158.8060667160962</v>
       </c>
       <c r="AA92" t="n">
-        <v>133.2157199420854</v>
+        <v>137.9544541670679</v>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>144.1138129295586</v>
       </c>
       <c r="T93" t="n">
-        <v>131.0943737646681</v>
+        <v>128.0691390838696</v>
       </c>
       <c r="U93" t="n">
         <v>144.1138027337883</v>
@@ -9849,7 +9849,7 @@
         <v>767.4319034926975</v>
       </c>
       <c r="W93" t="n">
-        <v>698.1010546475345</v>
+        <v>681.9911373370257</v>
       </c>
       <c r="X93" t="n">
         <v>767.4318491983917</v>
@@ -9861,7 +9861,7 @@
         <v>144.6536390491107</v>
       </c>
       <c r="AA93" t="n">
-        <v>131.5854405629216</v>
+        <v>128.5488736466808</v>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>107.2063508578886</v>
       </c>
       <c r="T94" t="n">
-        <v>97.28398470816259</v>
+        <v>97.87870520780282</v>
       </c>
       <c r="U94" t="n">
         <v>107.2063487166135</v>
@@ -9950,7 +9950,7 @@
         <v>570.8930478828556</v>
       </c>
       <c r="W94" t="n">
-        <v>518.054668364317</v>
+        <v>521.2216616997033</v>
       </c>
       <c r="X94" t="n">
         <v>570.893036480182</v>
@@ -9962,7 +9962,7 @@
         <v>107.6079332919457</v>
       </c>
       <c r="AA94" t="n">
-        <v>97.6484010711237</v>
+        <v>98.24534933602364</v>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>159.2682752871106</v>
       </c>
       <c r="T95" t="n">
-        <v>144.5548358322114</v>
+        <v>143.0549963582182</v>
       </c>
       <c r="U95" t="n">
         <v>159.2682757960604</v>
@@ -10051,7 +10051,7 @@
         <v>848.1321337971252</v>
       </c>
       <c r="W95" t="n">
-        <v>769.7804295554431</v>
+        <v>761.793515330762</v>
       </c>
       <c r="X95" t="n">
         <v>848.1321365073737</v>
@@ -10063,7 +10063,7 @@
         <v>159.8648792963672</v>
       </c>
       <c r="AA95" t="n">
-        <v>145.0963242147077</v>
+        <v>143.5908664876404</v>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>185.3783617311769</v>
       </c>
       <c r="T96" t="n">
-        <v>154.2700028591486</v>
+        <v>156.8344146973914</v>
       </c>
       <c r="U96" t="n">
         <v>185.3783445151198</v>
@@ -10152,7 +10152,7 @@
         <v>987.1730274685939</v>
       </c>
       <c r="W96" t="n">
-        <v>821.5154365798996</v>
+        <v>835.1713895961713</v>
       </c>
       <c r="X96" t="n">
         <v>987.1729357900016</v>
@@ -10164,7 +10164,7 @@
         <v>186.0727537982367</v>
       </c>
       <c r="AA96" t="n">
-        <v>154.8478833142367</v>
+        <v>157.4219011902875</v>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>141.9683188805451</v>
       </c>
       <c r="T97" t="n">
-        <v>111.1448464458777</v>
+        <v>109.8650103276247</v>
       </c>
       <c r="U97" t="n">
         <v>141.9683100171074</v>
@@ -10253,7 +10253,7 @@
         <v>756.0067628452047</v>
       </c>
       <c r="W97" t="n">
-        <v>591.866243335435</v>
+        <v>585.0508864419936</v>
       </c>
       <c r="X97" t="n">
         <v>756.0067156458088</v>
@@ -10265,7 +10265,7 @@
         <v>142.5001095249849</v>
       </c>
       <c r="AA97" t="n">
-        <v>111.5611842513776</v>
+        <v>110.2765539912645</v>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>141.9876776555864</v>
       </c>
       <c r="T98" t="n">
-        <v>132.7085584577487</v>
+        <v>134.1524042530606</v>
       </c>
       <c r="U98" t="n">
         <v>141.9876597644194</v>
@@ -10354,7 +10354,7 @@
         <v>756.1098517946758</v>
       </c>
       <c r="W98" t="n">
-        <v>706.6968776739167</v>
+        <v>714.3856155160533</v>
       </c>
       <c r="X98" t="n">
         <v>756.1097565210024</v>
@@ -10366,7 +10366,7 @@
         <v>142.519531754572</v>
       </c>
       <c r="AA98" t="n">
-        <v>133.205671835167</v>
+        <v>134.654926136668</v>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
@@ -10446,28 +10446,28 @@
         <v>136.0048087767481</v>
       </c>
       <c r="T99" t="n">
-        <v>109.093868329798</v>
+        <v>110.8401756520711</v>
       </c>
       <c r="U99" t="n">
-        <v>136.1371500065006</v>
+        <v>136.1371500065007</v>
       </c>
       <c r="V99" t="n">
         <v>724.2500018698231</v>
       </c>
       <c r="W99" t="n">
-        <v>580.9444169841037</v>
+        <v>590.2438167097243</v>
       </c>
       <c r="X99" t="n">
-        <v>724.954742656254</v>
+        <v>724.9547426562542</v>
       </c>
       <c r="Y99" t="n">
         <v>136.5142695878808</v>
       </c>
       <c r="Z99" t="n">
-        <v>136.6471065550331</v>
+        <v>136.6471065550332</v>
       </c>
       <c r="AA99" t="n">
-        <v>109.5025233703719</v>
+        <v>111.255372190353</v>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>122.5315882607022</v>
       </c>
       <c r="T100" t="n">
-        <v>116.1518604553755</v>
+        <v>116.9212132125896</v>
       </c>
       <c r="U100" t="n">
         <v>122.5316011052094</v>
@@ -10556,7 +10556,7 @@
         <v>652.50268593516</v>
       </c>
       <c r="W100" t="n">
-        <v>618.5294910423128</v>
+        <v>622.6264324730058</v>
       </c>
       <c r="X100" t="n">
         <v>652.5027543344646</v>
@@ -10568,7 +10568,7 @@
         <v>122.9905925883041</v>
       </c>
       <c r="AA100" t="n">
-        <v>116.5869540493035</v>
+        <v>117.359188727262</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>173.9133346912965</v>
       </c>
       <c r="T101" t="n">
-        <v>151.4422976475788</v>
+        <v>143.106761695206</v>
       </c>
       <c r="U101" t="n">
         <v>173.9133367251607</v>
@@ -10657,7 +10657,7 @@
         <v>926.1197020034534</v>
       </c>
       <c r="W101" t="n">
-        <v>806.4573991238236</v>
+        <v>762.069175035352</v>
       </c>
       <c r="X101" t="n">
         <v>926.1197128341455</v>
@@ -10669,7 +10669,7 @@
         <v>174.5647992020518</v>
       </c>
       <c r="AA101" t="n">
-        <v>152.0095857934413</v>
+        <v>143.6428257325555</v>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="T102" t="n">
-        <v>100.9893164849978</v>
+        <v>103.6569133119592</v>
       </c>
       <c r="U102" t="n">
         <v>114.6133644928176</v>
@@ -10758,19 +10758,19 @@
         <v>521.2321294192969</v>
       </c>
       <c r="W102" t="n">
-        <v>459.9487448092043</v>
+        <v>472.0981270896576</v>
       </c>
       <c r="X102" t="n">
-        <v>521.9985140176922</v>
+        <v>521.9985140176923</v>
       </c>
       <c r="Y102" t="n">
         <v>120.1218336217848</v>
       </c>
       <c r="Z102" t="n">
-        <v>120.2984526711924</v>
+        <v>120.2984526711925</v>
       </c>
       <c r="AA102" t="n">
-        <v>105.9986203461282</v>
+        <v>108.7985361504858</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="T103" t="n">
-        <v>100.9893164849978</v>
+        <v>103.6569133119592</v>
       </c>
       <c r="U103" t="n">
         <v>114.6133644928176</v>
@@ -10859,19 +10859,19 @@
         <v>521.2321294192969</v>
       </c>
       <c r="W103" t="n">
-        <v>459.9487448092043</v>
+        <v>472.0981270896576</v>
       </c>
       <c r="X103" t="n">
-        <v>521.9985140176922</v>
+        <v>521.9985140176923</v>
       </c>
       <c r="Y103" t="n">
         <v>120.1218336217848</v>
       </c>
       <c r="Z103" t="n">
-        <v>120.2984526711924</v>
+        <v>120.2984526711925</v>
       </c>
       <c r="AA103" t="n">
-        <v>105.9986203461282</v>
+        <v>108.7985361504858</v>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="T104" t="n">
-        <v>100.9893164849978</v>
+        <v>103.6569133119592</v>
       </c>
       <c r="U104" t="n">
         <v>114.6133644928176</v>
@@ -10960,19 +10960,19 @@
         <v>521.2321294192969</v>
       </c>
       <c r="W104" t="n">
-        <v>459.9487448092043</v>
+        <v>472.0981270896576</v>
       </c>
       <c r="X104" t="n">
-        <v>521.9985140176922</v>
+        <v>521.9985140176923</v>
       </c>
       <c r="Y104" t="n">
         <v>120.1218336217848</v>
       </c>
       <c r="Z104" t="n">
-        <v>120.2984526711924</v>
+        <v>120.2984526711925</v>
       </c>
       <c r="AA104" t="n">
-        <v>105.9986203461282</v>
+        <v>108.7985361504858</v>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>95.3936019126962</v>
       </c>
       <c r="T105" t="n">
-        <v>88.70529240658827</v>
+        <v>87.85419708945554</v>
       </c>
       <c r="U105" t="n">
         <v>95.39362853858485</v>
@@ -11061,7 +11061,7 @@
         <v>434.4634560339007</v>
       </c>
       <c r="W105" t="n">
-        <v>404.00202041574</v>
+        <v>400.1257666054041</v>
       </c>
       <c r="X105" t="n">
         <v>434.4635772996394</v>
@@ -11073,7 +11073,7 @@
         <v>100.1253733250401</v>
       </c>
       <c r="AA105" t="n">
-        <v>93.10528023917283</v>
+        <v>92.21196862425046</v>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>93.81386402696883</v>
       </c>
       <c r="T106" t="n">
-        <v>90.27817040219503</v>
+        <v>90.36413564431933</v>
       </c>
       <c r="U106" t="n">
         <v>93.81386402696883</v>
@@ -11162,7 +11162,7 @@
         <v>427.2686508509605</v>
       </c>
       <c r="W106" t="n">
-        <v>411.1655827112113</v>
+        <v>411.557105365176</v>
       </c>
       <c r="X106" t="n">
         <v>427.2686508509605</v>
@@ -11174,7 +11174,7 @@
         <v>98.46724883691222</v>
       </c>
       <c r="AA106" t="n">
-        <v>94.75617662415694</v>
+        <v>94.84640594127734</v>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>166.5630038123446</v>
       </c>
       <c r="T107" t="n">
-        <v>154.4707509406348</v>
+        <v>155.8168351747937</v>
       </c>
       <c r="U107" t="n">
         <v>166.6254805025665</v>
@@ -11263,7 +11263,7 @@
         <v>758.5994954874188</v>
       </c>
       <c r="W107" t="n">
-        <v>703.5261795779618</v>
+        <v>709.6568256250691</v>
       </c>
       <c r="X107" t="n">
         <v>758.8840411824249</v>
@@ -11275,7 +11275,7 @@
         <v>174.8904900292743</v>
       </c>
       <c r="AA107" t="n">
-        <v>162.1328577460965</v>
+        <v>163.5457108740975</v>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>80.41346218240321</v>
       </c>
       <c r="T108" t="n">
-        <v>65.43895286657232</v>
+        <v>66.58783364358995</v>
       </c>
       <c r="U108" t="n">
         <v>80.4134704433576</v>
@@ -11364,7 +11364,7 @@
         <v>366.2374623760637</v>
       </c>
       <c r="W108" t="n">
-        <v>298.0371120452115</v>
+        <v>303.2696088054325</v>
       </c>
       <c r="X108" t="n">
         <v>366.2374999999999</v>
@@ -11376,7 +11376,7 @@
         <v>84.40216471319793</v>
       </c>
       <c r="AA108" t="n">
-        <v>68.68487640256878</v>
+        <v>69.89074432548067</v>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>132.3470316439268</v>
       </c>
       <c r="T109" t="n">
-        <v>108.9828152897596</v>
+        <v>113.9648335894923</v>
       </c>
       <c r="U109" t="n">
         <v>132.3470148144411</v>
@@ -11465,7 +11465,7 @@
         <v>602.7652548068388</v>
       </c>
       <c r="W109" t="n">
-        <v>496.3545733646461</v>
+        <v>519.0448255946325</v>
       </c>
       <c r="X109" t="n">
         <v>602.7651781581285</v>
@@ -11477,7 +11477,7 @@
         <v>138.911733097464</v>
       </c>
       <c r="AA109" t="n">
-        <v>114.3886151944352</v>
+        <v>119.6177531338852</v>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>114.7078513714162</v>
       </c>
       <c r="T110" t="n">
-        <v>98.6386295001862</v>
+        <v>96.67990004295457</v>
       </c>
       <c r="U110" t="n">
         <v>114.7078343639825</v>
@@ -11566,7 +11566,7 @@
         <v>956.7371671764962</v>
       </c>
       <c r="W110" t="n">
-        <v>822.7095341243245</v>
+        <v>806.3724721902718</v>
       </c>
       <c r="X110" t="n">
         <v>956.7370253235739</v>
@@ -11578,7 +11578,7 @@
         <v>115.1375187763498</v>
       </c>
       <c r="AA110" t="n">
-        <v>99.00812023103728</v>
+        <v>97.04205356340077</v>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
@@ -11655,31 +11655,31 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>133.3955554941313</v>
+        <v>133.1094290697119</v>
       </c>
       <c r="T111" t="n">
-        <v>129.330423087164</v>
+        <v>129.6150774221181</v>
       </c>
       <c r="U111" t="n">
         <v>133.1094211698846</v>
       </c>
       <c r="V111" t="n">
-        <v>1112.604624282873</v>
+        <v>1110.218146099554</v>
       </c>
       <c r="W111" t="n">
-        <v>1078.698808623873</v>
+        <v>1081.073008635402</v>
       </c>
       <c r="X111" t="n">
         <v>1110.21808020992</v>
       </c>
       <c r="Y111" t="n">
-        <v>133.8952422957582</v>
+        <v>133.6080440695284</v>
       </c>
       <c r="Z111" t="n">
         <v>133.6080361401092</v>
       </c>
       <c r="AA111" t="n">
-        <v>129.8148822974135</v>
+        <v>130.1006029198738</v>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>105.6318423342176</v>
       </c>
       <c r="T113" t="n">
-        <v>96.47524646919949</v>
+        <v>95.44570053327124</v>
       </c>
       <c r="U113" t="n">
         <v>105.6318435087638</v>
@@ -11849,7 +11849,7 @@
         <v>881.0374215034507</v>
       </c>
       <c r="W113" t="n">
-        <v>804.6655299185261</v>
+        <v>796.0784554467998</v>
       </c>
       <c r="X113" t="n">
         <v>881.0374312999209</v>
@@ -11861,7 +11861,7 @@
         <v>106.0275301404311</v>
       </c>
       <c r="AA113" t="n">
-        <v>96.83663337722497</v>
+        <v>95.80323086216298</v>
       </c>
       <c r="AB113" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>109.1039483278914</v>
       </c>
       <c r="T115" t="n">
-        <v>92.75143344971727</v>
+        <v>93.64908218816682</v>
       </c>
       <c r="U115" t="n">
         <v>109.1039547787944</v>
@@ -12031,7 +12031,7 @@
         <v>909.997015923609</v>
       </c>
       <c r="W115" t="n">
-        <v>773.6065372100101</v>
+        <v>781.0935043258265</v>
       </c>
       <c r="X115" t="n">
         <v>909.9970697282836</v>
@@ -12043,7 +12043,7 @@
         <v>109.512647602227</v>
       </c>
       <c r="AA115" t="n">
-        <v>93.0988713156576</v>
+        <v>93.9998825591429</v>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>124.9577074028051</v>
       </c>
       <c r="T116" t="n">
-        <v>120.2892789635997</v>
+        <v>117.9593223258183</v>
       </c>
       <c r="U116" t="n">
         <v>124.9577158034129</v>
@@ -12132,7 +12132,7 @@
         <v>1042.227550844179</v>
       </c>
       <c r="W116" t="n">
-        <v>1003.289858727277</v>
+        <v>983.8565236362276</v>
       </c>
       <c r="X116" t="n">
         <v>1042.227620910645</v>
@@ -12144,7 +12144,7 @@
         <v>125.4257952766542</v>
       </c>
       <c r="AA116" t="n">
-        <v>120.7398709256234</v>
+        <v>118.4011864964553</v>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>119.2005661692046</v>
       </c>
       <c r="T121" t="n">
-        <v>113.1439085110871</v>
+        <v>111.3493450454741</v>
       </c>
       <c r="U121" t="n">
         <v>119.2005588392866</v>
@@ -12557,7 +12557,7 @@
         <v>1031.492143197263</v>
       </c>
       <c r="W121" t="n">
-        <v>979.081362031043</v>
+        <v>963.5522569710803</v>
       </c>
       <c r="X121" t="n">
         <v>1031.49207976843</v>
@@ -12569,7 +12569,7 @@
         <v>119.6470725614111</v>
       </c>
       <c r="AA121" t="n">
-        <v>113.567734609026</v>
+        <v>111.7664488828766</v>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>109.1738636564882</v>
       </c>
       <c r="T122" t="n">
-        <v>84.36681069284472</v>
+        <v>93.38022670743987</v>
       </c>
       <c r="U122" t="n">
         <v>109.1738492986071</v>
@@ -12658,7 +12658,7 @@
         <v>944.7269104771252</v>
       </c>
       <c r="W122" t="n">
-        <v>730.0611496488237</v>
+        <v>808.0579922915497</v>
       </c>
       <c r="X122" t="n">
         <v>944.7267862324011</v>
@@ -12670,7 +12670,7 @@
         <v>109.5828039401261</v>
       </c>
       <c r="AA122" t="n">
-        <v>84.68284057586754</v>
+        <v>93.73001997188408</v>
       </c>
       <c r="AB122" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>119.2125459979812</v>
       </c>
       <c r="T127" t="n">
-        <v>109.5669709191679</v>
+        <v>108.1215154419398</v>
       </c>
       <c r="U127" t="n">
         <v>119.2125409772724</v>
@@ -13083,7 +13083,7 @@
         <v>1115.238713129702</v>
       </c>
       <c r="W127" t="n">
-        <v>1025.003925773732</v>
+        <v>1011.481624972125</v>
       </c>
       <c r="X127" t="n">
         <v>1115.238666160746</v>
@@ -13095,7 +13095,7 @@
         <v>119.6590995833226</v>
       </c>
       <c r="AA127" t="n">
-        <v>109.9773981561156</v>
+        <v>108.5265281429861</v>
       </c>
       <c r="AB127" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>128.3166942407068</v>
       </c>
       <c r="T128" t="n">
-        <v>92.17295123957535</v>
+        <v>107.1706226525133</v>
       </c>
       <c r="U128" t="n">
         <v>128.3167166180678</v>
@@ -13184,7 +13184,7 @@
         <v>1153.639268618678</v>
       </c>
       <c r="W128" t="n">
-        <v>828.6866855763781</v>
+        <v>963.5241888504934</v>
       </c>
       <c r="X128" t="n">
         <v>1153.639469803743</v>
@@ -13196,7 +13196,7 @@
         <v>128.7973785822888</v>
       </c>
       <c r="AA128" t="n">
-        <v>92.51822216731213</v>
+        <v>107.5720734014774</v>
       </c>
       <c r="AB128" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>157.0022533005351</v>
       </c>
       <c r="T129" t="n">
-        <v>147.4184252431244</v>
+        <v>148.6171602139234</v>
       </c>
       <c r="U129" t="n">
         <v>157.0022421272351</v>
@@ -13285,7 +13285,7 @@
         <v>1411.538582262312</v>
       </c>
       <c r="W129" t="n">
-        <v>1325.37457643172</v>
+        <v>1336.151878194078</v>
       </c>
       <c r="X129" t="n">
         <v>1411.538481808059</v>
@@ -13297,7 +13297,7 @@
         <v>157.5903572853917</v>
       </c>
       <c r="AA129" t="n">
-        <v>147.9706403535735</v>
+        <v>149.1738656692071</v>
       </c>
       <c r="AB129" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>141.4506300739475</v>
       </c>
       <c r="T130" t="n">
-        <v>119.8860362088901</v>
+        <v>124.079768523649</v>
       </c>
       <c r="U130" t="n">
         <v>141.450604047704</v>
@@ -13386,7 +13386,7 @@
         <v>1076.07139584631</v>
       </c>
       <c r="W130" t="n">
-        <v>912.0209238964858</v>
+        <v>943.924319331269</v>
       </c>
       <c r="X130" t="n">
         <v>1076.071197854289</v>
@@ -13398,7 +13398,7 @@
         <v>141.980464279276</v>
       </c>
       <c r="AA130" t="n">
-        <v>120.335117662699</v>
+        <v>124.5445592916061</v>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>102.0036145991135</v>
       </c>
       <c r="T131" t="n">
-        <v>79.37575525152396</v>
+        <v>92.23047934723739</v>
       </c>
       <c r="U131" t="n">
         <v>102.0036145991135</v>
@@ -13487,7 +13487,7 @@
         <v>775.9822058456383</v>
       </c>
       <c r="W131" t="n">
-        <v>603.843049021484</v>
+        <v>701.6340655313586</v>
       </c>
       <c r="X131" t="n">
         <v>775.9822058456383</v>
@@ -13499,7 +13499,7 @@
         <v>102.3857102374923</v>
       </c>
       <c r="AA131" t="n">
-        <v>79.67308912536582</v>
+        <v>92.57596576968098</v>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>158.1853147488017</v>
       </c>
       <c r="T132" t="n">
-        <v>142.8249864946607</v>
+        <v>144.3172704632135</v>
       </c>
       <c r="U132" t="n">
         <v>158.185312408025</v>
@@ -13588,7 +13588,7 @@
         <v>1203.378820971982</v>
       </c>
       <c r="W132" t="n">
-        <v>1086.526673643617</v>
+        <v>1097.879073362164</v>
       </c>
       <c r="X132" t="n">
         <v>1203.37880316476</v>
@@ -13600,7 +13600,7 @@
         <v>158.777859232608</v>
       </c>
       <c r="AA132" t="n">
-        <v>143.3599950294621</v>
+        <v>144.857868948899</v>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>138.3781947501238</v>
       </c>
       <c r="T133" t="n">
-        <v>117.6408872171629</v>
+        <v>120.7694491830507</v>
       </c>
       <c r="U133" t="n">
         <v>138.3781957891426</v>
@@ -13689,7 +13689,7 @@
         <v>1052.698154130624</v>
       </c>
       <c r="W133" t="n">
-        <v>894.9411794786083</v>
+        <v>918.7413989605902</v>
       </c>
       <c r="X133" t="n">
         <v>1052.698162034855</v>
@@ -13701,7 +13701,7 @@
         <v>138.8965470776294</v>
       </c>
       <c r="AA133" t="n">
-        <v>118.0815585607947</v>
+        <v>121.2218398161043</v>
       </c>
       <c r="AB133" t="inlineStr">
         <is>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,55 +526,65 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Length_box_focal</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Length_FOV_box</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Hull_Length_FOV</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Skeleton_Length_FOV</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Diameter_FOV</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Hull_Length_pixels</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Skeleton_Length_pixels</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Diameter_pixels</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>RealLength_Hull(cm)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>RealLength_MEC(cm)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>RealLength_Skeleton(cm)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>PondType</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Height_mm</t>
         </is>
@@ -646,38 +656,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S2" t="n">
+        <v>88.18954265407288</v>
+      </c>
+      <c r="T2" t="n">
+        <v>87.86042602714734</v>
+      </c>
+      <c r="U2" t="n">
         <v>87.32366386173278</v>
       </c>
-      <c r="T2" t="n">
-        <v>74.76470624280951</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>98.63224100852604</v>
+      </c>
+      <c r="W2" t="n">
         <v>87.38143681982831</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>465.0141732779099</v>
       </c>
-      <c r="W2" t="n">
-        <v>398.135471261432</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
+        <v>525.234375</v>
+      </c>
+      <c r="Z2" t="n">
         <v>465.3218246424834</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>87.65076982969236</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>87.70875919968067</v>
       </c>
-      <c r="AA2" t="n">
-        <v>75.04476757467819</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC2" t="n">
+        <v>99.00170780870752</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -747,38 +763,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S3" t="n">
+        <v>143.4289766246502</v>
+      </c>
+      <c r="T3" t="n">
+        <v>142.8937106558125</v>
+      </c>
+      <c r="U3" t="n">
         <v>141.3920352264977</v>
       </c>
-      <c r="T3" t="n">
-        <v>132.2260097199337</v>
-      </c>
-      <c r="U3" t="n">
-        <v>141.4163303275339</v>
-      </c>
       <c r="V3" t="n">
+        <v>161.9517043720242</v>
+      </c>
+      <c r="W3" t="n">
+        <v>141.416330327534</v>
+      </c>
+      <c r="X3" t="n">
         <v>752.9379490196103</v>
       </c>
-      <c r="W3" t="n">
-        <v>704.1272190904584</v>
-      </c>
-      <c r="X3" t="n">
-        <v>753.0673247904316</v>
-      </c>
       <c r="Y3" t="n">
+        <v>862.421875</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>753.0673247904319</v>
+      </c>
+      <c r="AA3" t="n">
         <v>141.921676064951</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>141.9460621730773</v>
       </c>
-      <c r="AA3" t="n">
-        <v>132.7213155166232</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC3" t="n">
+        <v>162.5583597352852</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
         <v>650</v>
       </c>
     </row>
@@ -848,38 +870,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S4" t="n">
+        <v>127.2375358874953</v>
+      </c>
+      <c r="T4" t="n">
+        <v>126.7626951368876</v>
+      </c>
+      <c r="U4" t="n">
         <v>125.6708217425546</v>
       </c>
-      <c r="T4" t="n">
-        <v>122.1976242665746</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>168.0401143108221</v>
+      </c>
+      <c r="W4" t="n">
         <v>125.6708222045455</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>669.2196673092043</v>
       </c>
-      <c r="W4" t="n">
-        <v>650.7242677634285</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
+        <v>894.84375</v>
+      </c>
+      <c r="Z4" t="n">
         <v>669.219669769389</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>126.1415724414197</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>126.1415729051412</v>
       </c>
-      <c r="AA4" t="n">
-        <v>122.6553647048522</v>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC4" t="n">
+        <v>168.6695762666869</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
         <v>650</v>
       </c>
     </row>
@@ -949,38 +977,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S5" t="n">
+        <v>142.5325790545914</v>
+      </c>
+      <c r="T5" t="n">
+        <v>142.0006583729132</v>
+      </c>
+      <c r="U5" t="n">
         <v>147.0266651612517</v>
       </c>
-      <c r="T5" t="n">
-        <v>131.3789820895892</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
+        <v>137.5980646168326</v>
+      </c>
+      <c r="W5" t="n">
         <v>147.0266808839757</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>782.9433641037203</v>
       </c>
-      <c r="W5" t="n">
-        <v>699.6166450278322</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>732.734375</v>
+      </c>
+      <c r="Z5" t="n">
         <v>782.9434478300459</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>147.5774127764639</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>147.5774285580837</v>
       </c>
-      <c r="AA5" t="n">
-        <v>131.8711150029997</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC5" t="n">
+        <v>138.1134936096784</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1050,38 +1084,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S6" t="n">
+        <v>113.6808124653121</v>
+      </c>
+      <c r="T6" t="n">
+        <v>113.2565643694636</v>
+      </c>
+      <c r="U6" t="n">
         <v>116.6870542623771</v>
       </c>
-      <c r="T6" t="n">
-        <v>97.83623074704535</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
+        <v>104.7206509473239</v>
+      </c>
+      <c r="W6" t="n">
         <v>116.6870283124104</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>621.3794940621174</v>
       </c>
-      <c r="W6" t="n">
-        <v>520.995477577541</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
+        <v>557.65625</v>
+      </c>
+      <c r="Z6" t="n">
         <v>621.3793558738898</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>117.1241526403527</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>117.1241265931799</v>
       </c>
-      <c r="AA6" t="n">
-        <v>98.20271577005931</v>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC6" t="n">
+        <v>105.1129243401092</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1151,38 +1191,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S7" t="n">
+        <v>172.5468195432177</v>
+      </c>
+      <c r="T7" t="n">
+        <v>171.9028880120435</v>
+      </c>
+      <c r="U7" t="n">
         <v>168.3021610791668</v>
       </c>
-      <c r="T7" t="n">
-        <v>138.3698287686405</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
+        <v>132.7273366657943</v>
+      </c>
+      <c r="W7" t="n">
         <v>168.3021669144937</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>896.2391960446696</v>
       </c>
-      <c r="W7" t="n">
-        <v>736.8441575394352</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>706.796875</v>
+      </c>
+      <c r="Z7" t="n">
         <v>896.2392271188326</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>168.9326046367877</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>168.9326104939733</v>
       </c>
-      <c r="AA7" t="n">
-        <v>138.8881487150806</v>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC7" t="n">
+        <v>133.224520384557</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1252,38 +1298,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
+        <v>112.9851761014231</v>
+      </c>
+      <c r="T8" t="n">
+        <v>112.5635240672704</v>
+      </c>
+      <c r="U8" t="n">
         <v>110.9267843045699</v>
       </c>
-      <c r="T8" t="n">
-        <v>77.26073897646847</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
+        <v>71.84323727781526</v>
+      </c>
+      <c r="W8" t="n">
         <v>110.9267843287265</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>590.7050233192431</v>
       </c>
-      <c r="W8" t="n">
-        <v>411.4272932806598</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>382.578125</v>
+      </c>
+      <c r="Z8" t="n">
         <v>590.7050234478816</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>111.3423052704566</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>111.3423052947037</v>
       </c>
-      <c r="AA8" t="n">
-        <v>77.5501502046573</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC8" t="n">
+        <v>72.11235507054005</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1353,38 +1405,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S9" t="n">
+        <v>140.9197493148064</v>
+      </c>
+      <c r="T9" t="n">
+        <v>140.39384759034</v>
+      </c>
+      <c r="U9" t="n">
         <v>134.9675397275138</v>
       </c>
-      <c r="T9" t="n">
-        <v>124.2640596500611</v>
-      </c>
-      <c r="U9" t="n">
-        <v>135.0135774859188</v>
-      </c>
       <c r="V9" t="n">
+        <v>142.4687925678709</v>
+      </c>
+      <c r="W9" t="n">
+        <v>135.0135774859187</v>
+      </c>
+      <c r="X9" t="n">
         <v>718.7263581280739</v>
       </c>
-      <c r="W9" t="n">
-        <v>661.7284068362659</v>
-      </c>
-      <c r="X9" t="n">
-        <v>718.9715174493566</v>
-      </c>
       <c r="Y9" t="n">
+        <v>758.671875</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>718.9715174493565</v>
+      </c>
+      <c r="AA9" t="n">
         <v>135.4731150294801</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>135.5193252408589</v>
       </c>
-      <c r="AA9" t="n">
-        <v>124.7295407546879</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC9" t="n">
+        <v>143.0024668347998</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1454,38 +1512,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S10" t="n">
+        <v>141.5696727553039</v>
+      </c>
+      <c r="T10" t="n">
+        <v>141.0413455662749</v>
+      </c>
+      <c r="U10" t="n">
         <v>139.3493057089765</v>
       </c>
-      <c r="T10" t="n">
-        <v>128.653324736496</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
+        <v>165.604750335303</v>
+      </c>
+      <c r="W10" t="n">
         <v>139.3493049558066</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>742.0600479351514</v>
       </c>
-      <c r="W10" t="n">
-        <v>685.1020307224317</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>881.875</v>
+      </c>
+      <c r="Z10" t="n">
         <v>742.0600439243865</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>139.8712946809533</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>139.8712939249621</v>
       </c>
-      <c r="AA10" t="n">
-        <v>129.1352476020526</v>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC10" t="n">
+        <v>166.2250896541262</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1555,38 +1619,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
+        <v>139.5223535681459</v>
+      </c>
+      <c r="T11" t="n">
+        <v>139.001666817709</v>
+      </c>
+      <c r="U11" t="n">
         <v>147.4578185260966</v>
       </c>
-      <c r="T11" t="n">
-        <v>128.0286754852751</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
+        <v>102.2852869718048</v>
+      </c>
+      <c r="W11" t="n">
         <v>147.4736260571129</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>785.2393331073433</v>
       </c>
-      <c r="W11" t="n">
-        <v>681.7756614165692</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
+        <v>544.6875</v>
+      </c>
+      <c r="Z11" t="n">
         <v>785.3235110453966</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>148.0101811999596</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>148.0260479444527</v>
       </c>
-      <c r="AA11" t="n">
-        <v>128.508258475374</v>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC11" t="n">
+        <v>102.6684377275486</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1656,38 +1726,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S12" t="n">
+        <v>153.5137592688107</v>
+      </c>
+      <c r="T12" t="n">
+        <v>152.9408576626033</v>
+      </c>
+      <c r="U12" t="n">
         <v>152.9408534137777</v>
       </c>
-      <c r="T12" t="n">
-        <v>151.1919147648076</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
+        <v>209.4413018946479</v>
+      </c>
+      <c r="W12" t="n">
         <v>152.9408576626033</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>814.4374773742417</v>
       </c>
-      <c r="W12" t="n">
-        <v>805.124065361979</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
+        <v>1115.3125</v>
+      </c>
+      <c r="Z12" t="n">
         <v>814.4375000000001</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>153.5137550040694</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>153.5137592688107</v>
       </c>
-      <c r="AA12" t="n">
-        <v>151.7582650006968</v>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC12" t="n">
+        <v>210.2258486802184</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1757,38 +1833,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
+        <v>122.786248653665</v>
+      </c>
+      <c r="T13" t="n">
+        <v>122.3280197665027</v>
+      </c>
+      <c r="U13" t="n">
         <v>141.1509834792325</v>
       </c>
-      <c r="T13" t="n">
-        <v>125.1488976079331</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
+        <v>105.9383329350835</v>
+      </c>
+      <c r="W13" t="n">
         <v>141.1509732276523</v>
       </c>
-      <c r="V13" t="n">
+      <c r="X13" t="n">
         <v>751.6543052280576</v>
       </c>
-      <c r="W13" t="n">
-        <v>666.4403276750007</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
+        <v>564.140625</v>
+      </c>
+      <c r="Z13" t="n">
         <v>751.6542506365545</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
         <v>141.6797213612404</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
         <v>141.6797110712588</v>
       </c>
-      <c r="AA13" t="n">
-        <v>125.6176932296553</v>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC13" t="n">
+        <v>106.3351676463896</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1858,38 +1940,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S14" t="n">
+        <v>122.0594806155492</v>
+      </c>
+      <c r="T14" t="n">
+        <v>121.6039639711093</v>
+      </c>
+      <c r="U14" t="n">
         <v>123.4990785607441</v>
       </c>
-      <c r="T14" t="n">
-        <v>102.8037492387761</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
+        <v>75.49628324109401</v>
+      </c>
+      <c r="W14" t="n">
         <v>123.4990721164741</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>657.65474532127</v>
       </c>
-      <c r="W14" t="n">
-        <v>547.4484045680127</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
+        <v>402.03125</v>
+      </c>
+      <c r="Z14" t="n">
         <v>657.6547110043766</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>123.9616941204702</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AB14" t="n">
         <v>123.9616876520606</v>
       </c>
-      <c r="AA14" t="n">
-        <v>103.1888421038427</v>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC14" t="n">
+        <v>75.77908498938106</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE14" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1959,38 +2047,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S15" t="n">
+        <v>100.8345246090341</v>
+      </c>
+      <c r="T15" t="n">
+        <v>100.4582178767592</v>
+      </c>
+      <c r="U15" t="n">
         <v>105.7583067909172</v>
       </c>
-      <c r="T15" t="n">
-        <v>83.73573264114532</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
+        <v>64.53714535125778</v>
+      </c>
+      <c r="W15" t="n">
         <v>105.7582989362429</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>563.1819534910899</v>
       </c>
-      <c r="W15" t="n">
-        <v>445.907795962349</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
+        <v>343.671875</v>
+      </c>
+      <c r="Z15" t="n">
         <v>563.1819116635403</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
         <v>106.1544671417631</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>106.154459257666</v>
       </c>
-      <c r="AA15" t="n">
-        <v>84.04939856704782</v>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC15" t="n">
+        <v>64.77889523285802</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2060,38 +2154,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S16" t="n">
+        <v>138.5750289508788</v>
+      </c>
+      <c r="T16" t="n">
+        <v>138.0578775434459</v>
+      </c>
+      <c r="U16" t="n">
         <v>136.938687899711</v>
       </c>
-      <c r="T16" t="n">
-        <v>117.9593776088418</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
+        <v>125.4212447392368</v>
+      </c>
+      <c r="W16" t="n">
         <v>136.9386777893831</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>729.2230757091629</v>
       </c>
-      <c r="W16" t="n">
-        <v>628.1548440982227</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
+        <v>667.890625</v>
+      </c>
+      <c r="Z16" t="n">
         <v>729.223021869853</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
         <v>137.4516469313829</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>137.4516367831826</v>
       </c>
-      <c r="AA16" t="n">
-        <v>118.4012419865636</v>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC16" t="n">
+        <v>125.891060546875</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2161,38 +2261,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S17" t="n">
-        <v>134.2846534294568</v>
+        <v>135.3737175908468</v>
       </c>
       <c r="T17" t="n">
-        <v>109.584754508139</v>
+        <v>134.8685132325179</v>
       </c>
       <c r="U17" t="n">
         <v>134.2846534294568</v>
       </c>
       <c r="V17" t="n">
-        <v>715.0898661018505</v>
+        <v>85.23773914317064</v>
       </c>
       <c r="W17" t="n">
-        <v>583.5584739338465</v>
+        <v>134.2846534294568</v>
       </c>
       <c r="X17" t="n">
         <v>715.0898661018505</v>
       </c>
       <c r="Y17" t="n">
+        <v>453.90625</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>715.0898661018505</v>
+      </c>
+      <c r="AA17" t="n">
         <v>134.7876707056411</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
         <v>134.7876707056411</v>
       </c>
-      <c r="AA17" t="n">
-        <v>109.9952483606846</v>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC17" t="n">
+        <v>85.55703143962378</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE17" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2262,38 +2368,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S18" t="n">
+        <v>155.8073656984696</v>
+      </c>
+      <c r="T18" t="n">
+        <v>155.2259045285214</v>
+      </c>
+      <c r="U18" t="n">
         <v>157.1333107673816</v>
       </c>
-      <c r="T18" t="n">
-        <v>149.0554807383192</v>
-      </c>
-      <c r="U18" t="n">
-        <v>157.201814133566</v>
-      </c>
       <c r="V18" t="n">
+        <v>178.9992522006584</v>
+      </c>
+      <c r="W18" t="n">
+        <v>157.2018141335658</v>
+      </c>
+      <c r="X18" t="n">
         <v>836.7630647817501</v>
       </c>
-      <c r="W18" t="n">
-        <v>793.7471709595254</v>
-      </c>
-      <c r="X18" t="n">
-        <v>837.1278574941061</v>
-      </c>
       <c r="Y18" t="n">
+        <v>953.203125</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>837.127857494105</v>
+      </c>
+      <c r="AA18" t="n">
         <v>157.7219168959409</v>
       </c>
-      <c r="Z18" t="n">
-        <v>157.790676869085</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>149.6138280997377</v>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB18" t="n">
+        <v>157.7906768690848</v>
       </c>
       <c r="AC18" t="n">
+        <v>179.6697660232099</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE18" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2363,38 +2475,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S19" t="n">
+        <v>121.4420949120146</v>
+      </c>
+      <c r="T19" t="n">
+        <v>120.9888823037919</v>
+      </c>
+      <c r="U19" t="n">
         <v>122.1976421021342</v>
       </c>
-      <c r="T19" t="n">
-        <v>117.2700155373638</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
+        <v>161.9517043720242</v>
+      </c>
+      <c r="W19" t="n">
         <v>122.1976242665745</v>
       </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
         <v>650.7243627409828</v>
       </c>
-      <c r="W19" t="n">
-        <v>624.4838674169756</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
+        <v>862.421875</v>
+      </c>
+      <c r="Z19" t="n">
         <v>650.7242677634282</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AA19" t="n">
         <v>122.6553826072221</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
         <v>122.6553647048521</v>
       </c>
-      <c r="AA19" t="n">
-        <v>117.709297631685</v>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC19" t="n">
+        <v>162.5583597352852</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE19" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2464,38 +2582,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S20" t="n">
+        <v>107.361852023665</v>
+      </c>
+      <c r="T20" t="n">
+        <v>106.9611858048016</v>
+      </c>
+      <c r="U20" t="n">
         <v>108.5841644566328</v>
       </c>
-      <c r="T20" t="n">
-        <v>101.016643147634</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
+        <v>140.0334285923518</v>
+      </c>
+      <c r="W20" t="n">
         <v>108.584159743086</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>578.2301524340984</v>
       </c>
-      <c r="W20" t="n">
-        <v>537.9317440801041</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
+        <v>745.703125</v>
+      </c>
+      <c r="Z20" t="n">
         <v>578.2301273336162</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
         <v>108.9909101959768</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AB20" t="n">
         <v>108.9909054647735</v>
       </c>
-      <c r="AA20" t="n">
-        <v>101.3950416867649</v>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC20" t="n">
+        <v>140.5579802222391</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2565,38 +2689,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S21" t="n">
+        <v>107.8085443292419</v>
+      </c>
+      <c r="T21" t="n">
+        <v>107.4062110888648</v>
+      </c>
+      <c r="U21" t="n">
         <v>102.6187344619679</v>
       </c>
-      <c r="T21" t="n">
-        <v>91.83728812922089</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
+        <v>114.4621068494006</v>
+      </c>
+      <c r="W21" t="n">
         <v>102.6187362245841</v>
       </c>
-      <c r="V21" t="n">
+      <c r="X21" t="n">
         <v>546.463167695475</v>
       </c>
-      <c r="W21" t="n">
-        <v>489.0500321094459</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
+        <v>609.53125</v>
+      </c>
+      <c r="Z21" t="n">
         <v>546.4631770817224</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AA21" t="n">
         <v>103.0031342796407</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AB21" t="n">
         <v>103.0031360488595</v>
       </c>
-      <c r="AA21" t="n">
-        <v>92.18130169553048</v>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC21" t="n">
+        <v>114.8908707903519</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2666,38 +2796,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S22" t="n">
+        <v>156.7393531341312</v>
+      </c>
+      <c r="T22" t="n">
+        <v>156.1544138583676</v>
+      </c>
+      <c r="U22" t="n">
         <v>156.1622154830298</v>
       </c>
-      <c r="T22" t="n">
-        <v>142.6150474863387</v>
-      </c>
-      <c r="U22" t="n">
-        <v>156.2302863745529</v>
-      </c>
       <c r="V22" t="n">
+        <v>158.2986584087455</v>
+      </c>
+      <c r="W22" t="n">
+        <v>156.2302863745531</v>
+      </c>
+      <c r="X22" t="n">
         <v>831.5918082075649</v>
       </c>
-      <c r="W22" t="n">
-        <v>759.4507086745327</v>
-      </c>
-      <c r="X22" t="n">
-        <v>831.9542979147767</v>
-      </c>
       <c r="Y22" t="n">
+        <v>842.96875</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>831.9542979147774</v>
+      </c>
+      <c r="AA22" t="n">
         <v>156.7471839829221</v>
       </c>
-      <c r="Z22" t="n">
-        <v>156.8155098613969</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>143.1492696099945</v>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB22" t="n">
+        <v>156.815509861397</v>
       </c>
       <c r="AC22" t="n">
+        <v>158.8916298164442</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2767,38 +2903,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S23" t="n">
+        <v>125.2067474709856</v>
+      </c>
+      <c r="T23" t="n">
+        <v>124.7394854673986</v>
+      </c>
+      <c r="U23" t="n">
         <v>124.8465588268868</v>
       </c>
-      <c r="T23" t="n">
-        <v>114.1672449182469</v>
-      </c>
-      <c r="U23" t="n">
-        <v>124.8707620997791</v>
-      </c>
       <c r="V23" t="n">
+        <v>164.3870683475434</v>
+      </c>
+      <c r="W23" t="n">
+        <v>124.870762099779</v>
+      </c>
+      <c r="X23" t="n">
         <v>664.8303194355309</v>
       </c>
-      <c r="W23" t="n">
-        <v>607.9610573273278</v>
-      </c>
-      <c r="X23" t="n">
-        <v>664.9592062050144</v>
-      </c>
       <c r="Y23" t="n">
+        <v>875.390625</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>664.9592062050143</v>
+      </c>
+      <c r="AA23" t="n">
         <v>125.3142219168845</v>
       </c>
-      <c r="Z23" t="n">
-        <v>125.3385158528875</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>114.5949043350276</v>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB23" t="n">
+        <v>125.3385158528874</v>
       </c>
       <c r="AC23" t="n">
+        <v>165.0028463478459</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2868,38 +3010,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
+        <v>122.4121184983153</v>
+      </c>
+      <c r="T24" t="n">
+        <v>121.9552858362728</v>
+      </c>
+      <c r="U24" t="n">
         <v>121.687104153988</v>
       </c>
-      <c r="T24" t="n">
-        <v>109.5847545081391</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
+        <v>93.76151305748772</v>
+      </c>
+      <c r="W24" t="n">
         <v>121.7397080829612</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
         <v>648.0056565920962</v>
       </c>
-      <c r="W24" t="n">
-        <v>583.5584739338469</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
+        <v>499.296875</v>
+      </c>
+      <c r="Z24" t="n">
         <v>648.2857819494262</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AA24" t="n">
         <v>122.1429322334822</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
         <v>122.1957332116668</v>
       </c>
-      <c r="AA24" t="n">
-        <v>109.9952483606847</v>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC24" t="n">
+        <v>94.11273458358617</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2969,38 +3117,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S25" t="n">
+        <v>114.5308110264838</v>
+      </c>
+      <c r="T25" t="n">
+        <v>114.1033908010276</v>
+      </c>
+      <c r="U25" t="n">
         <v>117.9613100412668</v>
       </c>
-      <c r="T25" t="n">
-        <v>107.007531963467</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
+        <v>140.0334285923518</v>
+      </c>
+      <c r="W25" t="n">
         <v>117.9613083451017</v>
       </c>
-      <c r="V25" t="n">
+      <c r="X25" t="n">
         <v>628.165134647506</v>
       </c>
-      <c r="W25" t="n">
-        <v>569.8343016079873</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
+        <v>745.703125</v>
+      </c>
+      <c r="Z25" t="n">
         <v>628.1651256151224</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
         <v>118.4031816576929</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AB25" t="n">
         <v>118.4031799551741</v>
       </c>
-      <c r="AA25" t="n">
-        <v>107.4083717905418</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC25" t="n">
+        <v>140.5579802222391</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3070,38 +3224,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S26" t="n">
+        <v>152.539098548788</v>
+      </c>
+      <c r="T26" t="n">
+        <v>151.9698343018289</v>
+      </c>
+      <c r="U26" t="n">
         <v>145.7489784629422</v>
       </c>
-      <c r="T26" t="n">
-        <v>138.3117967366042</v>
-      </c>
-      <c r="U26" t="n">
-        <v>146.1114276791161</v>
-      </c>
       <c r="V26" t="n">
+        <v>168.0401143108221</v>
+      </c>
+      <c r="W26" t="n">
+        <v>146.1114276791162</v>
+      </c>
+      <c r="X26" t="n">
         <v>776.139453257019</v>
       </c>
-      <c r="W26" t="n">
-        <v>736.5351265596571</v>
-      </c>
-      <c r="X26" t="n">
-        <v>778.0695603455305</v>
-      </c>
       <c r="Y26" t="n">
+        <v>894.84375</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>778.0695603455308</v>
+      </c>
+      <c r="AA26" t="n">
         <v>146.2949399878129</v>
       </c>
-      <c r="Z26" t="n">
-        <v>146.6587469035661</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>138.8298993006857</v>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB26" t="n">
+        <v>146.6587469035662</v>
       </c>
       <c r="AC26" t="n">
+        <v>168.6695762666869</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3171,38 +3331,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S27" t="n">
+        <v>135.5464630533457</v>
+      </c>
+      <c r="T27" t="n">
+        <v>135.0406140221653</v>
+      </c>
+      <c r="U27" t="n">
         <v>134.8034961847935</v>
       </c>
-      <c r="T27" t="n">
-        <v>117.1313970136564</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
+        <v>131.5096546780347</v>
+      </c>
+      <c r="W27" t="n">
         <v>134.8034832174986</v>
       </c>
-      <c r="V27" t="n">
+      <c r="X27" t="n">
         <v>717.8527968386568</v>
       </c>
-      <c r="W27" t="n">
-        <v>623.7456989142789</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
+        <v>700.3125</v>
+      </c>
+      <c r="Z27" t="n">
         <v>717.8527277854857</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AA27" t="n">
         <v>135.308456995573</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AB27" t="n">
         <v>135.308443979704</v>
       </c>
-      <c r="AA27" t="n">
-        <v>117.5701598564441</v>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC27" t="n">
+        <v>132.0022770782767</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3272,38 +3438,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S28" t="n">
+        <v>142.9086262595458</v>
+      </c>
+      <c r="T28" t="n">
+        <v>142.3753021984653</v>
+      </c>
+      <c r="U28" t="n">
         <v>143.5985745948034</v>
       </c>
-      <c r="T28" t="n">
-        <v>138.5388472684103</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
+        <v>177.7815702128988</v>
+      </c>
+      <c r="W28" t="n">
         <v>143.5985764360046</v>
       </c>
-      <c r="V28" t="n">
+      <c r="X28" t="n">
         <v>764.6881669420113</v>
       </c>
-      <c r="W28" t="n">
-        <v>737.744211367497</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
+        <v>946.71875</v>
+      </c>
+      <c r="Z28" t="n">
         <v>764.6881767467377</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AA28" t="n">
         <v>144.1364809155326</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
         <v>144.1364827636307</v>
       </c>
-      <c r="AA28" t="n">
-        <v>139.0578003417432</v>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC28" t="n">
+        <v>178.4475227169296</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3373,38 +3545,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S29" t="n">
+        <v>155.1610683494845</v>
+      </c>
+      <c r="T29" t="n">
+        <v>154.5820191118027</v>
+      </c>
+      <c r="U29" t="n">
         <v>148.6210637075173</v>
       </c>
-      <c r="T29" t="n">
-        <v>144.0202353673912</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
+        <v>160.7340223842646</v>
+      </c>
+      <c r="W29" t="n">
         <v>148.862475753204</v>
       </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>791.4338223492784</v>
       </c>
-      <c r="W29" t="n">
-        <v>766.9335861891824</v>
-      </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
+        <v>855.9375</v>
+      </c>
+      <c r="Z29" t="n">
         <v>792.719384794552</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AA29" t="n">
         <v>149.177783784909</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AB29" t="n">
         <v>149.420100136684</v>
       </c>
-      <c r="AA29" t="n">
-        <v>144.5597211884421</v>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC29" t="n">
+        <v>161.3361164290048</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3474,38 +3652,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S30" t="n">
+        <v>134.0912653475656</v>
+      </c>
+      <c r="T30" t="n">
+        <v>133.5908470029045</v>
+      </c>
+      <c r="U30" t="n">
         <v>136.8604916232561</v>
       </c>
-      <c r="T30" t="n">
-        <v>122.1440286444172</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
+        <v>165.604750335303</v>
+      </c>
+      <c r="W30" t="n">
         <v>136.8610858329887</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
         <v>728.8066665110024</v>
       </c>
-      <c r="W30" t="n">
-        <v>650.4388614620131</v>
-      </c>
-      <c r="X30" t="n">
-        <v>728.8098307844115</v>
-      </c>
       <c r="Y30" t="n">
+        <v>881.875</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>728.8098307844116</v>
+      </c>
+      <c r="AA30" t="n">
         <v>137.3731577392672</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AB30" t="n">
         <v>137.3737541748517</v>
       </c>
-      <c r="AA30" t="n">
-        <v>122.601568318697</v>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC30" t="n">
+        <v>166.2250896541262</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3575,38 +3759,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S31" t="n">
+        <v>147.4914984513387</v>
+      </c>
+      <c r="T31" t="n">
+        <v>146.9410714618157</v>
+      </c>
+      <c r="U31" t="n">
         <v>146.0705252385384</v>
       </c>
-      <c r="T31" t="n">
-        <v>139.8265451330602</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
+        <v>193.6114360537733</v>
+      </c>
+      <c r="W31" t="n">
         <v>146.0705245200236</v>
       </c>
-      <c r="V31" t="n">
+      <c r="X31" t="n">
         <v>777.8517475127978</v>
       </c>
-      <c r="W31" t="n">
-        <v>744.6014334706605</v>
-      </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
+        <v>1031.015625</v>
+      </c>
+      <c r="Z31" t="n">
         <v>777.8517436865782</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AA31" t="n">
         <v>146.6176912464165</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AB31" t="n">
         <v>146.6176905252103</v>
       </c>
-      <c r="AA31" t="n">
-        <v>140.350321797592</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC31" t="n">
+        <v>194.3366856985741</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3676,38 +3866,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S32" t="n">
+        <v>143.1302000262507</v>
+      </c>
+      <c r="T32" t="n">
+        <v>142.5960490688227</v>
+      </c>
+      <c r="U32" t="n">
         <v>135.1628755053834</v>
       </c>
-      <c r="T32" t="n">
-        <v>116.601605581278</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
+        <v>109.5913788983623</v>
+      </c>
+      <c r="W32" t="n">
         <v>135.1628673868522</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>719.7665561825377</v>
       </c>
-      <c r="W32" t="n">
-        <v>620.9244645083653</v>
-      </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
+        <v>583.59375</v>
+      </c>
+      <c r="Z32" t="n">
         <v>719.7665129499028</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AA32" t="n">
         <v>135.6691825162115</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AB32" t="n">
         <v>135.6691743672691</v>
       </c>
-      <c r="AA32" t="n">
-        <v>117.038383876789</v>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC32" t="n">
+        <v>110.0018975652306</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3777,38 +3973,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S33" t="n">
+        <v>143.7492818076117</v>
+      </c>
+      <c r="T33" t="n">
+        <v>143.2128204843336</v>
+      </c>
+      <c r="U33" t="n">
         <v>143.7546110100494</v>
       </c>
-      <c r="T33" t="n">
-        <v>129.7936318496911</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
+        <v>182.6522981639371</v>
+      </c>
+      <c r="W33" t="n">
         <v>143.7546155676683</v>
       </c>
-      <c r="V33" t="n">
+      <c r="X33" t="n">
         <v>765.5190888413919</v>
       </c>
-      <c r="W33" t="n">
-        <v>691.1743706366724</v>
-      </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
+        <v>972.65625</v>
+      </c>
+      <c r="Z33" t="n">
         <v>765.5191131115297</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AA33" t="n">
         <v>144.2931018280429</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AB33" t="n">
         <v>144.2931064027342</v>
       </c>
-      <c r="AA33" t="n">
-        <v>130.2798261949994</v>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC33" t="n">
+        <v>183.336495942051</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3878,38 +4080,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S34" t="n">
+        <v>142.9780533136008</v>
+      </c>
+      <c r="T34" t="n">
+        <v>142.4444701560655</v>
+      </c>
+      <c r="U34" t="n">
         <v>145.198923482512</v>
       </c>
-      <c r="T34" t="n">
-        <v>128.1993362163265</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
+        <v>146.1218385311497</v>
+      </c>
+      <c r="W34" t="n">
         <v>145.1989409503072</v>
       </c>
-      <c r="V34" t="n">
+      <c r="X34" t="n">
         <v>773.2103118230642</v>
       </c>
-      <c r="W34" t="n">
-        <v>682.6844604207715</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
+        <v>778.125</v>
+      </c>
+      <c r="Z34" t="n">
         <v>773.2104048422069</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AA34" t="n">
         <v>145.7428245548221</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AB34" t="n">
         <v>145.74284208805</v>
       </c>
-      <c r="AA34" t="n">
-        <v>128.6795584849571</v>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC34" t="n">
+        <v>146.6691967536408</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3979,38 +4187,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S35" t="n">
+        <v>145.5747090678801</v>
+      </c>
+      <c r="T35" t="n">
+        <v>145.031435389707</v>
+      </c>
+      <c r="U35" t="n">
         <v>149.0554916567512</v>
       </c>
-      <c r="T35" t="n">
-        <v>140.6183461625234</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
+        <v>172.9108422618605</v>
+      </c>
+      <c r="W35" t="n">
         <v>149.0554807383193</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
         <v>793.7472291021342</v>
       </c>
-      <c r="W35" t="n">
-        <v>748.8179159776178</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
+        <v>920.78125</v>
+      </c>
+      <c r="Z35" t="n">
         <v>793.7471709595259</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AA35" t="n">
         <v>149.6138390590691</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AB35" t="n">
         <v>149.6138280997378</v>
       </c>
-      <c r="AA35" t="n">
-        <v>141.1450888368481</v>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC35" t="n">
+        <v>173.5585494918082</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4080,38 +4294,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S36" t="n">
+        <v>114.6615884096145</v>
+      </c>
+      <c r="T36" t="n">
+        <v>114.2336801329685</v>
+      </c>
+      <c r="U36" t="n">
         <v>118.6239252998188</v>
       </c>
-      <c r="T36" t="n">
-        <v>110.8262623198196</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
+        <v>125.4212447392368</v>
+      </c>
+      <c r="W36" t="n">
         <v>118.6239368656947</v>
       </c>
-      <c r="V36" t="n">
+      <c r="X36" t="n">
         <v>631.6936797523559</v>
       </c>
-      <c r="W36" t="n">
-        <v>590.1697257198557</v>
-      </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
+        <v>667.890625</v>
+      </c>
+      <c r="Z36" t="n">
         <v>631.6937413427192</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AA36" t="n">
         <v>119.0682790086807</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AB36" t="n">
         <v>119.0682906178812</v>
       </c>
-      <c r="AA36" t="n">
-        <v>111.2414067401095</v>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC36" t="n">
+        <v>125.891060546875</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4181,38 +4401,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S37" t="n">
+        <v>156.6352860990746</v>
+      </c>
+      <c r="T37" t="n">
+        <v>156.050735193525</v>
+      </c>
+      <c r="U37" t="n">
         <v>152.4799242783063</v>
       </c>
-      <c r="T37" t="n">
-        <v>149.4562851418366</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
+        <v>192.3937540660137</v>
+      </c>
+      <c r="W37" t="n">
         <v>152.4799258306665</v>
       </c>
-      <c r="V37" t="n">
+      <c r="X37" t="n">
         <v>811.982947051163</v>
       </c>
-      <c r="W37" t="n">
-        <v>795.8815263003974</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
+        <v>1024.53125</v>
+      </c>
+      <c r="Z37" t="n">
         <v>811.9829553177594</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AA37" t="n">
         <v>153.0510992728008</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AB37" t="n">
         <v>153.051100830976</v>
       </c>
-      <c r="AA37" t="n">
-        <v>150.0161338776429</v>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC37" t="n">
+        <v>193.1144423922937</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4282,38 +4508,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
+        <v>170.1362682342233</v>
+      </c>
+      <c r="T38" t="n">
+        <v>169.5013326961337</v>
+      </c>
+      <c r="U38" t="n">
         <v>160.4801055532219</v>
       </c>
-      <c r="T38" t="n">
-        <v>143.9453970158842</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
+        <v>137.5980646168326</v>
+      </c>
+      <c r="W38" t="n">
         <v>160.4801011700442</v>
       </c>
-      <c r="V38" t="n">
+      <c r="X38" t="n">
         <v>854.5853473297266</v>
       </c>
-      <c r="W38" t="n">
-        <v>766.5350585436796</v>
-      </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
+        <v>732.734375</v>
+      </c>
+      <c r="Z38" t="n">
         <v>854.5853239885195</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AA38" t="n">
         <v>161.0812484501618</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AB38" t="n">
         <v>161.0812440505651</v>
       </c>
-      <c r="AA38" t="n">
-        <v>144.4846024997352</v>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC38" t="n">
+        <v>138.1134936096784</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4383,38 +4615,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S39" t="n">
+        <v>118.1367346501903</v>
+      </c>
+      <c r="T39" t="n">
+        <v>117.6958573936137</v>
+      </c>
+      <c r="U39" t="n">
         <v>119.4424949382637</v>
       </c>
-      <c r="T39" t="n">
-        <v>100.5152574056096</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
+        <v>105.9383329350835</v>
+      </c>
+      <c r="W39" t="n">
         <v>119.4425248700071</v>
       </c>
-      <c r="V39" t="n">
+      <c r="X39" t="n">
         <v>636.0527099036168</v>
       </c>
-      <c r="W39" t="n">
-        <v>535.2617750704439</v>
-      </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
+        <v>564.140625</v>
+      </c>
+      <c r="Z39" t="n">
         <v>636.0528692955191</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AA39" t="n">
         <v>119.8899149295293</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AB39" t="n">
         <v>119.8899449733941</v>
       </c>
-      <c r="AA39" t="n">
-        <v>100.8917778024225</v>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC39" t="n">
+        <v>106.3351676463896</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4484,38 +4722,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S40" t="n">
+        <v>142.0948255137276</v>
+      </c>
+      <c r="T40" t="n">
+        <v>141.5645384947769</v>
+      </c>
+      <c r="U40" t="n">
         <v>139.2319610626539</v>
       </c>
-      <c r="T40" t="n">
-        <v>126.679122586973</v>
-      </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
+        <v>129.0742907025156</v>
+      </c>
+      <c r="W40" t="n">
         <v>139.2319544227588</v>
       </c>
-      <c r="V40" t="n">
+      <c r="X40" t="n">
         <v>741.4351666454161</v>
       </c>
-      <c r="W40" t="n">
-        <v>674.5890501642925</v>
-      </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
+        <v>687.34375</v>
+      </c>
+      <c r="Z40" t="n">
         <v>741.4351312867839</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AA40" t="n">
         <v>139.7535104729767</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AB40" t="n">
         <v>139.7535038082092</v>
       </c>
-      <c r="AA40" t="n">
-        <v>127.1536502829215</v>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC40" t="n">
+        <v>129.557790465716</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4585,38 +4829,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
+        <v>182.6541596291482</v>
+      </c>
+      <c r="T41" t="n">
+        <v>181.9725082779572</v>
+      </c>
+      <c r="U41" t="n">
         <v>172.5277916064204</v>
       </c>
-      <c r="T41" t="n">
-        <v>164.928113212401</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
+        <v>142.4687925678709</v>
+      </c>
+      <c r="W41" t="n">
         <v>172.5277845472153</v>
       </c>
-      <c r="V41" t="n">
+      <c r="X41" t="n">
         <v>918.7414365521234</v>
       </c>
-      <c r="W41" t="n">
-        <v>878.2717859523898</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
+        <v>758.671875</v>
+      </c>
+      <c r="Z41" t="n">
         <v>918.7413989605902</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AA41" t="n">
         <v>173.1740639657972</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AB41" t="n">
         <v>173.1740568801491</v>
       </c>
-      <c r="AA41" t="n">
-        <v>165.5459179142458</v>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC41" t="n">
+        <v>143.0024668347998</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4686,38 +4936,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S42" t="n">
+        <v>148.8022270439428</v>
+      </c>
+      <c r="T42" t="n">
+        <v>148.2469085155793</v>
+      </c>
+      <c r="U42" t="n">
         <v>147.4310698131381</v>
       </c>
-      <c r="T42" t="n">
-        <v>140.5643479812306</v>
-      </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
+        <v>178.9992522006584</v>
+      </c>
+      <c r="W42" t="n">
         <v>147.5250647667818</v>
       </c>
-      <c r="V42" t="n">
+      <c r="X42" t="n">
         <v>785.0968914129326</v>
       </c>
-      <c r="W42" t="n">
-        <v>748.5303659765998</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
+        <v>953.203125</v>
+      </c>
+      <c r="Z42" t="n">
         <v>785.597431400926</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AA42" t="n">
         <v>147.9833322889191</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AB42" t="n">
         <v>148.0776793385346</v>
       </c>
-      <c r="AA42" t="n">
-        <v>141.0908883836101</v>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC42" t="n">
+        <v>179.6697660232099</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE42" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4787,38 +5043,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
+        <v>161.0688979357204</v>
+      </c>
+      <c r="T43" t="n">
+        <v>160.4678011299557</v>
+      </c>
+      <c r="U43" t="n">
         <v>158.27608948495</v>
       </c>
-      <c r="T43" t="n">
-        <v>148.5047810309958</v>
-      </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
+        <v>120.5505167881985</v>
+      </c>
+      <c r="W43" t="n">
         <v>158.2760865955052</v>
       </c>
-      <c r="V43" t="n">
+      <c r="X43" t="n">
         <v>842.8485664326093</v>
       </c>
-      <c r="W43" t="n">
-        <v>790.8145962392197</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
+        <v>641.953125</v>
+      </c>
+      <c r="Z43" t="n">
         <v>842.8485510457975</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AA43" t="n">
         <v>158.868976351651</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AB43" t="n">
         <v>158.8689734513827</v>
       </c>
-      <c r="AA43" t="n">
-        <v>149.0610655247693</v>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC43" t="n">
+        <v>121.0020873217536</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE43" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4888,38 +5150,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S44" t="n">
+        <v>120.6055294417893</v>
+      </c>
+      <c r="T44" t="n">
+        <v>120.1554388319066</v>
+      </c>
+      <c r="U44" t="n">
         <v>122.4260412324264</v>
       </c>
-      <c r="T44" t="n">
-        <v>109.3538629453479</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
+        <v>135.1627006413134</v>
+      </c>
+      <c r="W44" t="n">
         <v>122.4260353007626</v>
       </c>
-      <c r="V44" t="n">
+      <c r="X44" t="n">
         <v>651.9406290776586</v>
       </c>
-      <c r="W44" t="n">
-        <v>582.3289349470473</v>
-      </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
+        <v>719.765625</v>
+      </c>
+      <c r="Z44" t="n">
         <v>651.9405974904848</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AA44" t="n">
         <v>122.8846372984848</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AB44" t="n">
         <v>122.8846313446015</v>
       </c>
-      <c r="AA44" t="n">
-        <v>109.7634919005128</v>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC44" t="n">
+        <v>135.6690069971177</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE44" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4989,38 +5257,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S45" t="n">
+        <v>148.5012237781475</v>
+      </c>
+      <c r="T45" t="n">
+        <v>147.947028570946</v>
+      </c>
+      <c r="U45" t="n">
         <v>145.7062345154444</v>
       </c>
-      <c r="T45" t="n">
-        <v>134.9675463389499</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
+        <v>135.1627006413134</v>
+      </c>
+      <c r="W45" t="n">
         <v>145.7062615500503</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
         <v>775.9118340696264</v>
       </c>
-      <c r="W45" t="n">
-        <v>718.7263933351568</v>
-      </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
+        <v>719.765625</v>
+      </c>
+      <c r="Z45" t="n">
         <v>775.911978033752</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AA45" t="n">
         <v>146.252035925637</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AB45" t="n">
         <v>146.2520630615119</v>
       </c>
-      <c r="AA45" t="n">
-        <v>135.4731216656819</v>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC45" t="n">
+        <v>135.6690069971177</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5090,38 +5364,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
+        <v>164.9059582887413</v>
+      </c>
+      <c r="T46" t="n">
+        <v>164.2905418672637</v>
+      </c>
+      <c r="U46" t="n">
         <v>158.1850441785413</v>
       </c>
-      <c r="T46" t="n">
-        <v>156.0132407271587</v>
-      </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
+        <v>204.5705739436096</v>
+      </c>
+      <c r="W46" t="n">
         <v>158.1850472503425</v>
       </c>
-      <c r="V46" t="n">
+      <c r="X46" t="n">
         <v>842.3637338452188</v>
       </c>
-      <c r="W46" t="n">
-        <v>830.798490911003</v>
-      </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
+        <v>1089.375</v>
+      </c>
+      <c r="Z46" t="n">
         <v>842.3637502031114</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AA46" t="n">
         <v>158.7775899983626</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AB46" t="n">
         <v>158.7775930816705</v>
       </c>
-      <c r="AA46" t="n">
-        <v>156.5976511820771</v>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC46" t="n">
+        <v>205.3368754550971</v>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5191,38 +5471,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S47" t="n">
+        <v>137.4115656904413</v>
+      </c>
+      <c r="T47" t="n">
+        <v>136.8987562388945</v>
+      </c>
+      <c r="U47" t="n">
         <v>138.4603255233197</v>
       </c>
-      <c r="T47" t="n">
-        <v>125.3260165936287</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
+        <v>163.1693863597838</v>
+      </c>
+      <c r="W47" t="n">
         <v>138.4603266200077</v>
       </c>
-      <c r="V47" t="n">
+      <c r="X47" t="n">
         <v>737.3260689904721</v>
       </c>
-      <c r="W47" t="n">
-        <v>667.3835180435984</v>
-      </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
+        <v>868.90625</v>
+      </c>
+      <c r="Z47" t="n">
         <v>737.3260748305325</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AA47" t="n">
         <v>138.9789844618179</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AB47" t="n">
         <v>138.978985562614</v>
       </c>
-      <c r="AA47" t="n">
-        <v>125.7954756858776</v>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC47" t="n">
+        <v>163.7806030415655</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE47" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5292,38 +5578,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S48" t="n">
+        <v>140.9273478479313</v>
+      </c>
+      <c r="T48" t="n">
+        <v>140.4014177663206</v>
+      </c>
+      <c r="U48" t="n">
         <v>138.9141346290938</v>
       </c>
-      <c r="T48" t="n">
-        <v>133.8208017725088</v>
-      </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
+        <v>180.216934188418</v>
+      </c>
+      <c r="W48" t="n">
         <v>138.9141517008288</v>
       </c>
-      <c r="V48" t="n">
+      <c r="X48" t="n">
         <v>739.7426838782958</v>
       </c>
-      <c r="W48" t="n">
-        <v>712.6197728276979</v>
-      </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
+        <v>959.6875</v>
+      </c>
+      <c r="Z48" t="n">
         <v>739.7427747883465</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AA48" t="n">
         <v>139.4344934924492</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AB48" t="n">
         <v>139.4345106281332</v>
       </c>
-      <c r="AA48" t="n">
-        <v>134.3220815054142</v>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC48" t="n">
+        <v>180.8920093294903</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE48" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5393,38 +5685,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
+        <v>130.2065655385212</v>
+      </c>
+      <c r="T49" t="n">
+        <v>129.7206445963785</v>
+      </c>
+      <c r="U49" t="n">
         <v>123.6587992973366</v>
       </c>
-      <c r="T49" t="n">
-        <v>115.7232480753053</v>
-      </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
+        <v>96.19687703300687</v>
+      </c>
+      <c r="W49" t="n">
         <v>123.6587948116768</v>
       </c>
-      <c r="V49" t="n">
+      <c r="X49" t="n">
         <v>658.5052868926763</v>
       </c>
-      <c r="W49" t="n">
-        <v>616.2470532383908</v>
-      </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
+        <v>512.265625</v>
+      </c>
+      <c r="Z49" t="n">
         <v>658.5052630057334</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AA49" t="n">
         <v>124.1220131554372</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AB49" t="n">
         <v>124.1220086529746</v>
       </c>
-      <c r="AA49" t="n">
-        <v>116.1567361288648</v>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC49" t="n">
+        <v>96.55722119614686</v>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE49" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5494,38 +5792,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S50" t="n">
+        <v>100.6746787338178</v>
+      </c>
+      <c r="T50" t="n">
+        <v>100.2989685341215</v>
+      </c>
+      <c r="U50" t="n">
         <v>96.36795249673628</v>
       </c>
-      <c r="T50" t="n">
-        <v>91.75567240425681</v>
-      </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
+        <v>113.244424861641</v>
+      </c>
+      <c r="W50" t="n">
         <v>96.36796488922003</v>
       </c>
-      <c r="V50" t="n">
+      <c r="X50" t="n">
         <v>513.1766325301035</v>
       </c>
-      <c r="W50" t="n">
-        <v>488.6154137346288</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
+        <v>603.046875</v>
+      </c>
+      <c r="Z50" t="n">
         <v>513.1766985223023</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AA50" t="n">
         <v>96.72893749195637</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AB50" t="n">
         <v>96.72894993086118</v>
       </c>
-      <c r="AA50" t="n">
-        <v>92.09938024598344</v>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC50" t="n">
+        <v>113.6686274840716</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE50" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5595,38 +5899,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S51" t="n">
+        <v>170.8804899138876</v>
+      </c>
+      <c r="T51" t="n">
+        <v>170.2427769974203</v>
+      </c>
+      <c r="U51" t="n">
         <v>166.1877603330804</v>
       </c>
-      <c r="T51" t="n">
-        <v>133.9333992494458</v>
-      </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
+        <v>113.244424861641</v>
+      </c>
+      <c r="W51" t="n">
         <v>166.1877816037669</v>
       </c>
-      <c r="V51" t="n">
+      <c r="X51" t="n">
         <v>884.9796328124585</v>
       </c>
-      <c r="W51" t="n">
-        <v>713.2193745889564</v>
-      </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
+        <v>603.046875</v>
+      </c>
+      <c r="Z51" t="n">
         <v>884.9797460826793</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AA51" t="n">
         <v>166.8102835507601</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AB51" t="n">
         <v>166.8103049011245</v>
       </c>
-      <c r="AA51" t="n">
-        <v>134.4351007615695</v>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC51" t="n">
+        <v>113.6686274840716</v>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE51" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5696,38 +6006,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
+        <v>131.0052170029862</v>
+      </c>
+      <c r="T52" t="n">
+        <v>130.5163155546728</v>
+      </c>
+      <c r="U52" t="n">
         <v>128.282798228615</v>
       </c>
-      <c r="T52" t="n">
-        <v>115.3309391323641</v>
-      </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
+        <v>110.8090608861218</v>
+      </c>
+      <c r="W52" t="n">
         <v>128.282806079304</v>
       </c>
-      <c r="V52" t="n">
+      <c r="X52" t="n">
         <v>683.128910606759</v>
       </c>
-      <c r="W52" t="n">
-        <v>614.1579377489149</v>
-      </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
+        <v>590.078125</v>
+      </c>
+      <c r="Z52" t="n">
         <v>683.1289524130859</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AA52" t="n">
         <v>128.7633331378416</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AB52" t="n">
         <v>128.7633410179385</v>
       </c>
-      <c r="AA52" t="n">
-        <v>115.7629576347063</v>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC52" t="n">
+        <v>111.2241408715109</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE52" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5797,38 +6113,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S53" t="n">
+        <v>171.43325259304</v>
+      </c>
+      <c r="T53" t="n">
+        <v>170.793476808539</v>
+      </c>
+      <c r="U53" t="n">
         <v>169.5358709360638</v>
       </c>
-      <c r="T53" t="n">
-        <v>110.6468593319974</v>
-      </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
+        <v>121.7681987759581</v>
+      </c>
+      <c r="W53" t="n">
         <v>169.5358441687618</v>
       </c>
-      <c r="V53" t="n">
+      <c r="X53" t="n">
         <v>902.8089223227398</v>
       </c>
-      <c r="W53" t="n">
-        <v>589.2143726302529</v>
-      </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
+        <v>648.4375</v>
+      </c>
+      <c r="Z53" t="n">
         <v>902.8087797820552</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AA53" t="n">
         <v>170.1709358510475</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AB53" t="n">
         <v>170.1709089834777</v>
       </c>
-      <c r="AA53" t="n">
-        <v>111.0613317261103</v>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC53" t="n">
+        <v>122.224330628034</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE53" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5898,38 +6220,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
+        <v>147.4389825692726</v>
+      </c>
+      <c r="T54" t="n">
+        <v>146.8887515650041</v>
+      </c>
+      <c r="U54" t="n">
         <v>150.6526420559427</v>
       </c>
-      <c r="T54" t="n">
-        <v>120.0275454120225</v>
-      </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
+        <v>97.41455902076645</v>
+      </c>
+      <c r="W54" t="n">
         <v>150.6526784838332</v>
       </c>
-      <c r="V54" t="n">
+      <c r="X54" t="n">
         <v>802.2523414581214</v>
       </c>
-      <c r="W54" t="n">
-        <v>639.1682086166754</v>
-      </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
+        <v>518.75</v>
+      </c>
+      <c r="Z54" t="n">
         <v>802.2525354431725</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AA54" t="n">
         <v>151.2169722286139</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AB54" t="n">
         <v>151.2170087929598</v>
       </c>
-      <c r="AA54" t="n">
-        <v>120.4771569455695</v>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC54" t="n">
+        <v>97.77946450242719</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE54" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5999,38 +6327,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
+        <v>101.3714185853089</v>
+      </c>
+      <c r="T55" t="n">
+        <v>100.9931082057856</v>
+      </c>
+      <c r="U55" t="n">
         <v>102.0519678535106</v>
       </c>
-      <c r="T55" t="n">
-        <v>75.2293353344853</v>
-      </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
+        <v>58.44873541245988</v>
+      </c>
+      <c r="W55" t="n">
         <v>102.0519681292183</v>
       </c>
-      <c r="V55" t="n">
+      <c r="X55" t="n">
         <v>543.4450338447174</v>
       </c>
-      <c r="W55" t="n">
-        <v>400.6097045149587</v>
-      </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
+        <v>311.25</v>
+      </c>
+      <c r="Z55" t="n">
         <v>543.44503531291</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AA55" t="n">
         <v>102.4342446184865</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AB55" t="n">
         <v>102.4342448952269</v>
       </c>
-      <c r="AA55" t="n">
-        <v>75.51113712182794</v>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC55" t="n">
+        <v>58.66767870145632</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE55" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6100,38 +6434,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S56" t="n">
+        <v>157.6319302522263</v>
+      </c>
+      <c r="T56" t="n">
+        <v>157.0436599469377</v>
+      </c>
+      <c r="U56" t="n">
         <v>153.7109530585857</v>
       </c>
-      <c r="T56" t="n">
-        <v>147.1640940312401</v>
-      </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
+        <v>202.1352099680904</v>
+      </c>
+      <c r="W56" t="n">
         <v>153.7109447850978</v>
       </c>
-      <c r="V56" t="n">
+      <c r="X56" t="n">
         <v>818.53839611534</v>
       </c>
-      <c r="W56" t="n">
-        <v>783.6751974869755</v>
-      </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
+        <v>1076.40625</v>
+      </c>
+      <c r="Z56" t="n">
         <v>818.5383520575333</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AA56" t="n">
         <v>154.28673936739</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AB56" t="n">
         <v>154.2867310629105</v>
       </c>
-      <c r="AA56" t="n">
-        <v>147.7153564416585</v>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC56" t="n">
+        <v>202.8923888425364</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6201,38 +6541,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S57" t="n">
+        <v>149.1595525124675</v>
+      </c>
+      <c r="T57" t="n">
+        <v>148.6029004727899</v>
+      </c>
+      <c r="U57" t="n">
         <v>151.4488057950835</v>
       </c>
-      <c r="T57" t="n">
-        <v>134.8997502706081</v>
-      </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
+        <v>149.7748844944284</v>
+      </c>
+      <c r="W57" t="n">
         <v>151.4513975732121</v>
       </c>
-      <c r="V57" t="n">
+      <c r="X57" t="n">
         <v>806.4920561766497</v>
       </c>
-      <c r="W57" t="n">
-        <v>718.3653671106804</v>
-      </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
+        <v>797.578125</v>
+      </c>
+      <c r="Z57" t="n">
         <v>806.5058578600709</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AA57" t="n">
         <v>152.0161183198347</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AB57" t="n">
         <v>152.0187198065126</v>
       </c>
-      <c r="AA57" t="n">
-        <v>135.4050716398494</v>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC57" t="n">
+        <v>150.3359266724818</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6302,38 +6648,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S58" t="n">
+        <v>129.3184709657613</v>
+      </c>
+      <c r="T58" t="n">
+        <v>128.8358643246274</v>
+      </c>
+      <c r="U58" t="n">
         <v>128.4136371924826</v>
       </c>
-      <c r="T58" t="n">
-        <v>117.1573194811519</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
+        <v>105.9383329350835</v>
+      </c>
+      <c r="W58" t="n">
         <v>128.4136733627494</v>
       </c>
-      <c r="V58" t="n">
+      <c r="X58" t="n">
         <v>683.8256515578918</v>
       </c>
-      <c r="W58" t="n">
-        <v>623.8837407033963</v>
-      </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
+        <v>564.140625</v>
+      </c>
+      <c r="Z58" t="n">
         <v>683.8258441710507</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AA58" t="n">
         <v>128.8946622117668</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AB58" t="n">
         <v>128.894698517524</v>
       </c>
-      <c r="AA58" t="n">
-        <v>117.5961794269865</v>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC58" t="n">
+        <v>106.3351676463896</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6403,38 +6755,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S59" t="n">
+        <v>135.2363167609984</v>
+      </c>
+      <c r="T59" t="n">
+        <v>134.7316251720557</v>
+      </c>
+      <c r="U59" t="n">
         <v>132.1131426406206</v>
       </c>
-      <c r="T59" t="n">
-        <v>120.491413973953</v>
-      </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
+        <v>137.5980646168326</v>
+      </c>
+      <c r="W59" t="n">
         <v>132.1164615225414</v>
       </c>
-      <c r="V59" t="n">
+      <c r="X59" t="n">
         <v>703.5261816481888</v>
       </c>
-      <c r="W59" t="n">
-        <v>641.6383919128922</v>
-      </c>
-      <c r="X59" t="n">
-        <v>703.5438552897238</v>
-      </c>
       <c r="Y59" t="n">
+        <v>732.734375</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>703.5438552897234</v>
+      </c>
+      <c r="AA59" t="n">
         <v>132.6080256481874</v>
       </c>
-      <c r="Z59" t="n">
-        <v>132.6113569623177</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>120.9427631141033</v>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB59" t="n">
+        <v>132.6113569623176</v>
       </c>
       <c r="AC59" t="n">
+        <v>138.1134936096784</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6504,38 +6862,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S60" t="n">
+        <v>132.0679178573625</v>
+      </c>
+      <c r="T60" t="n">
+        <v>131.5750504907543</v>
+      </c>
+      <c r="U60" t="n">
         <v>134.0967986485918</v>
       </c>
-      <c r="T60" t="n">
-        <v>129.9771983471983</v>
-      </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
+        <v>174.12852424962</v>
+      </c>
+      <c r="W60" t="n">
         <v>134.0967931066156</v>
       </c>
-      <c r="V60" t="n">
+      <c r="X60" t="n">
         <v>714.0895056982999</v>
       </c>
-      <c r="W60" t="n">
-        <v>692.1518951621549</v>
-      </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
+        <v>927.265625</v>
+      </c>
+      <c r="Z60" t="n">
         <v>714.0894761862829</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AA60" t="n">
         <v>134.5991122390028</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AB60" t="n">
         <v>134.5991066762669</v>
       </c>
-      <c r="AA60" t="n">
-        <v>130.4640803147868</v>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC60" t="n">
+        <v>174.7807927980886</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6605,38 +6969,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S61" t="n">
+        <v>149.125224102296</v>
+      </c>
+      <c r="T61" t="n">
+        <v>148.5687001736191</v>
+      </c>
+      <c r="U61" t="n">
         <v>148.6912733137501</v>
       </c>
-      <c r="T61" t="n">
-        <v>138.0784969123962</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
+        <v>191.1760720782542</v>
+      </c>
+      <c r="W61" t="n">
         <v>148.6912866347793</v>
       </c>
-      <c r="V61" t="n">
+      <c r="X61" t="n">
         <v>791.80770109594</v>
       </c>
-      <c r="W61" t="n">
-        <v>735.2927631488444</v>
-      </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
+        <v>1018.046875</v>
+      </c>
+      <c r="Z61" t="n">
         <v>791.8077720328102</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AA61" t="n">
         <v>149.2482563895112</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AB61" t="n">
         <v>149.2482697604398</v>
       </c>
-      <c r="AA61" t="n">
-        <v>138.5957255579837</v>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC61" t="n">
+        <v>191.8921990860134</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6706,38 +7076,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S62" t="n">
+        <v>140.1408633025499</v>
+      </c>
+      <c r="T62" t="n">
+        <v>139.6178683210985</v>
+      </c>
+      <c r="U62" t="n">
         <v>139.9372559195478</v>
       </c>
-      <c r="T62" t="n">
-        <v>123.0907255124977</v>
-      </c>
-      <c r="U62" t="n">
+      <c r="V62" t="n">
+        <v>97.41455902076645</v>
+      </c>
+      <c r="W62" t="n">
         <v>139.9372601068099</v>
       </c>
-      <c r="V62" t="n">
+      <c r="X62" t="n">
         <v>745.1909882668612</v>
       </c>
-      <c r="W62" t="n">
-        <v>655.4801920932184</v>
-      </c>
-      <c r="X62" t="n">
+      <c r="Y62" t="n">
+        <v>518.75</v>
+      </c>
+      <c r="Z62" t="n">
         <v>745.1910105647829</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AA62" t="n">
         <v>140.4614472959387</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AB62" t="n">
         <v>140.4614514988859</v>
       </c>
-      <c r="AA62" t="n">
-        <v>123.5518114213456</v>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC62" t="n">
+        <v>97.77946450242719</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6807,38 +7183,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S63" t="n">
+        <v>109.1292856862165</v>
+      </c>
+      <c r="T63" t="n">
+        <v>108.7220235401283</v>
+      </c>
+      <c r="U63" t="n">
         <v>112.8503285653132</v>
       </c>
-      <c r="T63" t="n">
-        <v>74.09656429725177</v>
-      </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
+        <v>60.88409938797903</v>
+      </c>
+      <c r="W63" t="n">
         <v>112.850341470895</v>
       </c>
-      <c r="V63" t="n">
+      <c r="X63" t="n">
         <v>600.9482415331438</v>
       </c>
-      <c r="W63" t="n">
-        <v>394.5774955569565</v>
-      </c>
-      <c r="X63" t="n">
+      <c r="Y63" t="n">
+        <v>324.21875</v>
+      </c>
+      <c r="Z63" t="n">
         <v>600.9483102576817</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AA63" t="n">
         <v>113.2730549412744</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AB63" t="n">
         <v>113.2730678951992</v>
       </c>
-      <c r="AA63" t="n">
-        <v>74.37412283425166</v>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC63" t="n">
+        <v>61.11216531401699</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE63" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6908,38 +7290,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S64" t="n">
+        <v>156.5104731452235</v>
+      </c>
+      <c r="T64" t="n">
+        <v>155.9263880320698</v>
+      </c>
+      <c r="U64" t="n">
         <v>155.1349261705808</v>
       </c>
-      <c r="T64" t="n">
-        <v>143.1672248336066</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
+        <v>178.9992522006584</v>
+      </c>
+      <c r="W64" t="n">
         <v>155.1349103138343</v>
       </c>
-      <c r="V64" t="n">
+      <c r="X64" t="n">
         <v>826.1213083542591</v>
       </c>
-      <c r="W64" t="n">
-        <v>762.391152092587</v>
-      </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
+        <v>953.203125</v>
+      </c>
+      <c r="Z64" t="n">
         <v>826.1212239142401</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AA64" t="n">
         <v>155.7160465444318</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AB64" t="n">
         <v>155.7160306282875</v>
       </c>
-      <c r="AA64" t="n">
-        <v>143.7035153600033</v>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC64" t="n">
+        <v>179.6697660232099</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE64" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7009,38 +7397,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S65" t="n">
+        <v>161.3749864912758</v>
+      </c>
+      <c r="T65" t="n">
+        <v>160.7727473864366</v>
+      </c>
+      <c r="U65" t="n">
         <v>154.7858780452867</v>
       </c>
-      <c r="T65" t="n">
-        <v>145.6748989141434</v>
-      </c>
-      <c r="U65" t="n">
-        <v>155.2819605154788</v>
-      </c>
       <c r="V65" t="n">
+        <v>183.8699801516967</v>
+      </c>
+      <c r="W65" t="n">
+        <v>155.2819605154789</v>
+      </c>
+      <c r="X65" t="n">
         <v>824.2625644784316</v>
       </c>
-      <c r="W65" t="n">
-        <v>775.7449663720431</v>
-      </c>
-      <c r="X65" t="n">
-        <v>826.9042926143386</v>
-      </c>
       <c r="Y65" t="n">
+        <v>979.140625</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>826.9042926143389</v>
+      </c>
+      <c r="AA65" t="n">
         <v>155.3656909187439</v>
       </c>
-      <c r="Z65" t="n">
-        <v>155.8636316657125</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>146.2205829442155</v>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB65" t="n">
+        <v>155.8636316657126</v>
       </c>
       <c r="AC65" t="n">
+        <v>184.5587392483313</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE65" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7110,38 +7504,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S66" t="n">
+        <v>128.5679122392272</v>
+      </c>
+      <c r="T66" t="n">
+        <v>128.088106625845</v>
+      </c>
+      <c r="U66" t="n">
         <v>128.0406726662717</v>
       </c>
-      <c r="T66" t="n">
-        <v>126.2588893153503</v>
-      </c>
-      <c r="U66" t="n">
+      <c r="V66" t="n">
+        <v>175.3462062373796</v>
+      </c>
+      <c r="W66" t="n">
         <v>128.040682502547</v>
       </c>
-      <c r="V66" t="n">
+      <c r="X66" t="n">
         <v>681.8395485573058</v>
       </c>
-      <c r="W66" t="n">
-        <v>672.3512326158107</v>
-      </c>
-      <c r="X66" t="n">
+      <c r="Y66" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="Z66" t="n">
         <v>681.8396009372365</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AA66" t="n">
         <v>128.5203005966459</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AB66" t="n">
         <v>128.520310469767</v>
       </c>
-      <c r="AA66" t="n">
-        <v>126.731842858257</v>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC66" t="n">
+        <v>176.0030361043689</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE66" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7211,38 +7611,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S67" t="n">
+        <v>126.8766076042977</v>
+      </c>
+      <c r="T67" t="n">
+        <v>126.4031138104329</v>
+      </c>
+      <c r="U67" t="n">
         <v>127.8649067072094</v>
       </c>
-      <c r="T67" t="n">
-        <v>120.6066597640275</v>
-      </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
+        <v>166.8224323230625</v>
+      </c>
+      <c r="W67" t="n">
         <v>127.8649118766067</v>
       </c>
-      <c r="V67" t="n">
+      <c r="X67" t="n">
         <v>680.9035632982227</v>
       </c>
-      <c r="W67" t="n">
-        <v>642.2520964166349</v>
-      </c>
-      <c r="X67" t="n">
+      <c r="Y67" t="n">
+        <v>888.359375</v>
+      </c>
+      <c r="Z67" t="n">
         <v>680.9035908261903</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AA67" t="n">
         <v>128.3438762353634</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AB67" t="n">
         <v>128.3438814241247</v>
       </c>
-      <c r="AA67" t="n">
-        <v>121.0584406037201</v>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC67" t="n">
+        <v>167.4473329604066</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE67" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7312,38 +7718,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S68" t="n">
+        <v>141.3879223041269</v>
+      </c>
+      <c r="T68" t="n">
+        <v>140.8602733938783</v>
+      </c>
+      <c r="U68" t="n">
         <v>137.5223119684616</v>
       </c>
-      <c r="T68" t="n">
-        <v>126.1175473065487</v>
-      </c>
-      <c r="U68" t="n">
+      <c r="V68" t="n">
+        <v>154.6456124454668</v>
+      </c>
+      <c r="W68" t="n">
         <v>137.5223104096348</v>
       </c>
-      <c r="V68" t="n">
+      <c r="X68" t="n">
         <v>732.3309785596989</v>
       </c>
-      <c r="W68" t="n">
-        <v>671.5985610664769</v>
-      </c>
-      <c r="X68" t="n">
+      <c r="Y68" t="n">
+        <v>823.515625</v>
+      </c>
+      <c r="Z68" t="n">
         <v>732.3309702586666</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AA68" t="n">
         <v>138.0374571992402</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AB68" t="n">
         <v>138.0374556345742</v>
       </c>
-      <c r="AA68" t="n">
-        <v>126.5899713960111</v>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC68" t="n">
+        <v>155.2248998976032</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE68" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7413,38 +7825,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S69" t="n">
+        <v>140.7569269192912</v>
+      </c>
+      <c r="T69" t="n">
+        <v>140.2316328355494</v>
+      </c>
+      <c r="U69" t="n">
         <v>142.2383720902759</v>
       </c>
-      <c r="T69" t="n">
-        <v>127.6272003643167</v>
-      </c>
-      <c r="U69" t="n">
+      <c r="V69" t="n">
+        <v>175.3462062373796</v>
+      </c>
+      <c r="W69" t="n">
         <v>142.2391787457396</v>
       </c>
-      <c r="V69" t="n">
+      <c r="X69" t="n">
         <v>757.4448446263683</v>
       </c>
-      <c r="W69" t="n">
-        <v>679.6377343850179</v>
-      </c>
-      <c r="X69" t="n">
+      <c r="Y69" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="Z69" t="n">
         <v>757.4491402114019</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="AA69" t="n">
         <v>142.7711832244635</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AB69" t="n">
         <v>142.7719929015803</v>
       </c>
-      <c r="AA69" t="n">
-        <v>128.1052794675853</v>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC69" t="n">
+        <v>176.0030361043689</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE69" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7514,38 +7932,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S70" t="n">
+        <v>149.6362245449156</v>
+      </c>
+      <c r="T70" t="n">
+        <v>149.077793601677</v>
+      </c>
+      <c r="U70" t="n">
         <v>151.1171136528311</v>
       </c>
-      <c r="T70" t="n">
-        <v>147.3349073440194</v>
-      </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
+        <v>198.4821640048116</v>
+      </c>
+      <c r="W70" t="n">
         <v>151.1171114806128</v>
       </c>
-      <c r="V70" t="n">
+      <c r="X70" t="n">
         <v>804.7257360236555</v>
       </c>
-      <c r="W70" t="n">
-        <v>784.584809016248</v>
-      </c>
-      <c r="X70" t="n">
+      <c r="Y70" t="n">
+        <v>1056.953125</v>
+      </c>
+      <c r="Z70" t="n">
         <v>804.7257244562038</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="AA70" t="n">
         <v>151.6831836910161</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AB70" t="n">
         <v>151.683181510661</v>
       </c>
-      <c r="AA70" t="n">
-        <v>147.886809604526</v>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC70" t="n">
+        <v>199.2256589236954</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE70" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7615,38 +8039,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S71" t="n">
+        <v>164.1410563990457</v>
+      </c>
+      <c r="T71" t="n">
+        <v>163.5284945329076</v>
+      </c>
+      <c r="U71" t="n">
         <v>160.6682516331869</v>
       </c>
-      <c r="T71" t="n">
-        <v>153.3497314802519</v>
-      </c>
-      <c r="U71" t="n">
+      <c r="V71" t="n">
+        <v>193.6114360537733</v>
+      </c>
+      <c r="W71" t="n">
         <v>160.6682393357454</v>
       </c>
-      <c r="V71" t="n">
+      <c r="X71" t="n">
         <v>855.5872589532352</v>
       </c>
-      <c r="W71" t="n">
-        <v>816.6148264185282</v>
-      </c>
-      <c r="X71" t="n">
+      <c r="Y71" t="n">
+        <v>1031.015625</v>
+      </c>
+      <c r="Z71" t="n">
         <v>855.5871934671532</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="AA71" t="n">
         <v>161.2700993070782</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AB71" t="n">
         <v>161.2700869635717</v>
       </c>
-      <c r="AA71" t="n">
-        <v>153.9241646880891</v>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC71" t="n">
+        <v>194.3366856985741</v>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE71" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7716,38 +8146,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
+        <v>143.9421324005234</v>
+      </c>
+      <c r="T72" t="n">
+        <v>143.4049513735852</v>
+      </c>
+      <c r="U72" t="n">
         <v>143.9960367554822</v>
       </c>
-      <c r="T72" t="n">
-        <v>118.5080041052441</v>
-      </c>
-      <c r="U72" t="n">
+      <c r="V72" t="n">
+        <v>94.97919504524729</v>
+      </c>
+      <c r="W72" t="n">
         <v>143.9960184935385</v>
       </c>
-      <c r="V72" t="n">
+      <c r="X72" t="n">
         <v>766.8047242402704</v>
       </c>
-      <c r="W72" t="n">
-        <v>631.0763785985023</v>
-      </c>
-      <c r="X72" t="n">
+      <c r="Y72" t="n">
+        <v>505.78125</v>
+      </c>
+      <c r="Z72" t="n">
         <v>766.804626992145</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="AA72" t="n">
         <v>144.5354319308819</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AB72" t="n">
         <v>144.5354136005308</v>
       </c>
-      <c r="AA72" t="n">
-        <v>118.951923584564</v>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC72" t="n">
+        <v>95.33497788986651</v>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE72" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7817,38 +8253,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
+        <v>142.0848670125284</v>
+      </c>
+      <c r="T73" t="n">
+        <v>141.5546171579424</v>
+      </c>
+      <c r="U73" t="n">
         <v>136.1843117549759</v>
       </c>
-      <c r="T73" t="n">
-        <v>124.7332851746996</v>
-      </c>
-      <c r="U73" t="n">
+      <c r="V73" t="n">
+        <v>127.856608714756</v>
+      </c>
+      <c r="W73" t="n">
         <v>136.197274245338</v>
       </c>
-      <c r="V73" t="n">
+      <c r="X73" t="n">
         <v>725.2058874262708</v>
       </c>
-      <c r="W73" t="n">
-        <v>664.2271169197797</v>
-      </c>
-      <c r="X73" t="n">
+      <c r="Y73" t="n">
+        <v>680.859375</v>
+      </c>
+      <c r="Z73" t="n">
         <v>725.2749150125262</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="AA73" t="n">
         <v>136.69444496684</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AB73" t="n">
         <v>136.7074560134327</v>
       </c>
-      <c r="AA73" t="n">
-        <v>125.2005239525921</v>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC73" t="n">
+        <v>128.3355471594357</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE73" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7918,38 +8360,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S74" t="n">
+        <v>128.3656690118571</v>
+      </c>
+      <c r="T74" t="n">
+        <v>127.8866181547283</v>
+      </c>
+      <c r="U74" t="n">
         <v>123.2664893679007</v>
       </c>
-      <c r="T74" t="n">
-        <v>115.3859311676189</v>
-      </c>
-      <c r="U74" t="n">
+      <c r="V74" t="n">
+        <v>140.0334285923518</v>
+      </c>
+      <c r="W74" t="n">
         <v>123.2664907229534</v>
       </c>
-      <c r="V74" t="n">
+      <c r="X74" t="n">
         <v>656.4161661499392</v>
       </c>
-      <c r="W74" t="n">
-        <v>614.4507802005483</v>
-      </c>
-      <c r="X74" t="n">
+      <c r="Y74" t="n">
+        <v>745.703125</v>
+      </c>
+      <c r="Z74" t="n">
         <v>656.4161733658381</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="AA74" t="n">
         <v>123.7282336710888</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AB74" t="n">
         <v>123.7282350312175</v>
       </c>
-      <c r="AA74" t="n">
-        <v>115.8181556647869</v>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC74" t="n">
+        <v>140.5579802222391</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE74" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8019,38 +8467,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S75" t="n">
+        <v>139.4773936683958</v>
+      </c>
+      <c r="T75" t="n">
+        <v>138.9568747048655</v>
+      </c>
+      <c r="U75" t="n">
         <v>133.9093135460643</v>
       </c>
-      <c r="T75" t="n">
-        <v>122.2897305109332</v>
-      </c>
-      <c r="U75" t="n">
+      <c r="V75" t="n">
+        <v>149.7748844944284</v>
+      </c>
+      <c r="W75" t="n">
         <v>133.9148791591712</v>
       </c>
-      <c r="V75" t="n">
+      <c r="X75" t="n">
         <v>713.0911138982055</v>
       </c>
-      <c r="W75" t="n">
-        <v>651.2147500357024</v>
-      </c>
-      <c r="X75" t="n">
+      <c r="Y75" t="n">
+        <v>797.578125</v>
+      </c>
+      <c r="Z75" t="n">
         <v>713.1207517863018</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="AA75" t="n">
         <v>134.4109248354812</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AB75" t="n">
         <v>134.4165112968345</v>
       </c>
-      <c r="AA75" t="n">
-        <v>122.7478159702611</v>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC75" t="n">
+        <v>150.3359266724818</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE75" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8120,38 +8574,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S76" t="n">
+        <v>98.84619846871738</v>
+      </c>
+      <c r="T76" t="n">
+        <v>98.4773120174967</v>
+      </c>
+      <c r="U76" t="n">
         <v>99.92224303699318</v>
       </c>
-      <c r="T76" t="n">
-        <v>87.87514035515903</v>
-      </c>
-      <c r="U76" t="n">
-        <v>99.92388500113039</v>
-      </c>
       <c r="V76" t="n">
+        <v>98.35123747288921</v>
+      </c>
+      <c r="W76" t="n">
+        <v>99.92388500113036</v>
+      </c>
+      <c r="X76" t="n">
         <v>494.096448103874</v>
       </c>
-      <c r="W76" t="n">
-        <v>434.5258213432918</v>
-      </c>
-      <c r="X76" t="n">
+      <c r="Y76" t="n">
+        <v>486.328125</v>
+      </c>
+      <c r="Z76" t="n">
         <v>494.1045673035982</v>
       </c>
-      <c r="Y76" t="n">
-        <v>104.8786175851106</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>104.8803409944697</v>
-      </c>
       <c r="AA76" t="n">
-        <v>92.23395072441093</v>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>100.2965420595475</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>100.298190174323</v>
       </c>
       <c r="AC76" t="n">
+        <v>98.71965166110436</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE76" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8221,38 +8681,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S77" t="n">
+        <v>96.35452292082896</v>
+      </c>
+      <c r="T77" t="n">
+        <v>95.9949352121466</v>
+      </c>
+      <c r="U77" t="n">
         <v>93.16987866025877</v>
       </c>
-      <c r="T77" t="n">
-        <v>82.48950412206295</v>
-      </c>
-      <c r="U77" t="n">
+      <c r="V77" t="n">
+        <v>95.72853780694551</v>
+      </c>
+      <c r="W77" t="n">
         <v>93.16986909818462</v>
       </c>
-      <c r="V77" t="n">
+      <c r="X77" t="n">
         <v>460.707293162542</v>
       </c>
-      <c r="W77" t="n">
-        <v>407.8948765939116</v>
-      </c>
-      <c r="X77" t="n">
+      <c r="Y77" t="n">
+        <v>473.359375</v>
+      </c>
+      <c r="Z77" t="n">
         <v>460.7072458799078</v>
       </c>
-      <c r="Y77" t="n">
-        <v>97.79132030535807</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>97.79131026898291</v>
-      </c>
       <c r="AA77" t="n">
-        <v>86.58117446783426</v>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>93.51888398133758</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>93.51887438344484</v>
       </c>
       <c r="AC77" t="n">
+        <v>96.08712761680826</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE77" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8322,38 +8788,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S78" t="n">
+        <v>109.6579462707451</v>
+      </c>
+      <c r="T78" t="n">
+        <v>109.2487112037965</v>
+      </c>
+      <c r="U78" t="n">
         <v>110.0196575904515</v>
       </c>
-      <c r="T78" t="n">
-        <v>101.1635607966164</v>
-      </c>
-      <c r="U78" t="n">
+      <c r="V78" t="n">
+        <v>137.6917324620449</v>
+      </c>
+      <c r="W78" t="n">
         <v>110.0206113276522</v>
       </c>
-      <c r="V78" t="n">
+      <c r="X78" t="n">
         <v>544.0262386516007</v>
       </c>
-      <c r="W78" t="n">
-        <v>500.2345278482509</v>
-      </c>
-      <c r="X78" t="n">
+      <c r="Y78" t="n">
+        <v>680.859375</v>
+      </c>
+      <c r="Z78" t="n">
         <v>544.0309547002901</v>
       </c>
-      <c r="Y78" t="n">
-        <v>115.4768872732562</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>115.4778883180297</v>
-      </c>
       <c r="AA78" t="n">
-        <v>106.1815075789324</v>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>110.4317805477256</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>110.4327378575333</v>
       </c>
       <c r="AC78" t="n">
+        <v>138.2075123255461</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE78" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8423,38 +8895,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S79" t="n">
+        <v>76.57697060353637</v>
+      </c>
+      <c r="T79" t="n">
+        <v>76.29119120717336</v>
+      </c>
+      <c r="U79" t="n">
         <v>75.30618550066463</v>
       </c>
-      <c r="T79" t="n">
-        <v>73.41168272055538</v>
-      </c>
-      <c r="U79" t="n">
+      <c r="V79" t="n">
+        <v>86.54908897614251</v>
+      </c>
+      <c r="W79" t="n">
         <v>75.30617977808573</v>
       </c>
-      <c r="V79" t="n">
+      <c r="X79" t="n">
         <v>372.3747350462752</v>
       </c>
-      <c r="W79" t="n">
-        <v>363.0067798630799</v>
-      </c>
-      <c r="X79" t="n">
+      <c r="Y79" t="n">
+        <v>427.96875</v>
+      </c>
+      <c r="Z79" t="n">
         <v>372.3747067492133</v>
       </c>
-      <c r="Y79" t="n">
-        <v>79.04154661533775</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>79.04154060890572</v>
-      </c>
       <c r="AA79" t="n">
-        <v>77.05307211206377</v>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>75.58827516126961</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>75.58826941725451</v>
       </c>
       <c r="AC79" t="n">
+        <v>86.87329346177184</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE79" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8524,38 +9002,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S80" t="n">
+        <v>158.7692831673474</v>
+      </c>
+      <c r="T80" t="n">
+        <v>158.1767683479839</v>
+      </c>
+      <c r="U80" t="n">
         <v>155.632536619942</v>
       </c>
-      <c r="T80" t="n">
-        <v>138.2100790573799</v>
-      </c>
-      <c r="U80" t="n">
+      <c r="V80" t="n">
+        <v>113.244424861641</v>
+      </c>
+      <c r="W80" t="n">
         <v>155.6325250695893</v>
       </c>
-      <c r="V80" t="n">
+      <c r="X80" t="n">
         <v>828.7711732533152</v>
       </c>
-      <c r="W80" t="n">
-        <v>735.9934616727244</v>
-      </c>
-      <c r="X80" t="n">
+      <c r="Y80" t="n">
+        <v>603.046875</v>
+      </c>
+      <c r="Z80" t="n">
         <v>828.7711117456154</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="AA80" t="n">
         <v>156.2155209942313</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AB80" t="n">
         <v>156.2155094006121</v>
       </c>
-      <c r="AA80" t="n">
-        <v>138.7278005969092</v>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC80" t="n">
+        <v>113.6686274840716</v>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE80" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8625,38 +9109,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
+        <v>101.4607962980886</v>
+      </c>
+      <c r="T81" t="n">
+        <v>101.0821523677783</v>
+      </c>
+      <c r="U81" t="n">
         <v>104.0247731660686</v>
       </c>
-      <c r="T81" t="n">
-        <v>87.80798481579551</v>
-      </c>
-      <c r="U81" t="n">
+      <c r="V81" t="n">
+        <v>121.9555344663826</v>
+      </c>
+      <c r="W81" t="n">
         <v>104.1011607942594</v>
       </c>
-      <c r="V81" t="n">
+      <c r="X81" t="n">
         <v>514.3826777100772</v>
       </c>
-      <c r="W81" t="n">
-        <v>434.19375</v>
-      </c>
-      <c r="X81" t="n">
+      <c r="Y81" t="n">
+        <v>603.046875</v>
+      </c>
+      <c r="Z81" t="n">
         <v>514.7603999731192</v>
       </c>
-      <c r="Y81" t="n">
-        <v>109.1846427048569</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>109.2648193362231</v>
-      </c>
       <c r="AA81" t="n">
-        <v>92.16346411484771</v>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>104.414439868237</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>104.4911136370677</v>
       </c>
       <c r="AC81" t="n">
+        <v>122.4123680597694</v>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE81" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8726,38 +9216,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S82" t="n">
+        <v>123.1911896878534</v>
+      </c>
+      <c r="T82" t="n">
+        <v>122.7314495917283</v>
+      </c>
+      <c r="U82" t="n">
         <v>122.5361790489141</v>
       </c>
-      <c r="T82" t="n">
-        <v>116.1816522044278</v>
-      </c>
-      <c r="U82" t="n">
+      <c r="V82" t="n">
+        <v>161.2960294555383</v>
+      </c>
+      <c r="W82" t="n">
         <v>122.5361659874053</v>
       </c>
-      <c r="V82" t="n">
+      <c r="X82" t="n">
         <v>605.9180517982766</v>
       </c>
-      <c r="W82" t="n">
-        <v>574.4961276319125</v>
-      </c>
-      <c r="X82" t="n">
+      <c r="Y82" t="n">
+        <v>797.578125</v>
+      </c>
+      <c r="Z82" t="n">
         <v>605.9179872116048</v>
       </c>
-      <c r="Y82" t="n">
-        <v>128.614257168485</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>128.6142434590951</v>
-      </c>
       <c r="AA82" t="n">
-        <v>121.9445310834685</v>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>122.9951876805415</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>122.9951745701056</v>
       </c>
       <c r="AC82" t="n">
+        <v>161.9002287242112</v>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE82" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8827,38 +9323,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
+        <v>79.38219005337818</v>
+      </c>
+      <c r="T83" t="n">
+        <v>79.08594179261998</v>
+      </c>
+      <c r="U83" t="n">
         <v>76.63952735675873</v>
       </c>
-      <c r="T83" t="n">
-        <v>71.716867548991</v>
-      </c>
-      <c r="U83" t="n">
+      <c r="V83" t="n">
+        <v>61.63344214967724</v>
+      </c>
+      <c r="W83" t="n">
         <v>76.6395027019732</v>
       </c>
-      <c r="V83" t="n">
+      <c r="X83" t="n">
         <v>378.9678564092576</v>
       </c>
-      <c r="W83" t="n">
-        <v>354.6262418466096</v>
-      </c>
-      <c r="X83" t="n">
+      <c r="Y83" t="n">
+        <v>304.765625</v>
+      </c>
+      <c r="Z83" t="n">
         <v>378.967734496042</v>
       </c>
-      <c r="Y83" t="n">
-        <v>80.44102531382678</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>80.44099943610681</v>
-      </c>
       <c r="AA83" t="n">
-        <v>75.27419018494234</v>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>76.92661158652368</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>76.9265868393837</v>
       </c>
       <c r="AC83" t="n">
+        <v>61.86431504095874</v>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE83" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8928,38 +9430,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S84" t="n">
+        <v>110.5325379685768</v>
+      </c>
+      <c r="T84" t="n">
+        <v>110.1200389923157</v>
+      </c>
+      <c r="U84" t="n">
         <v>109.9335361810218</v>
       </c>
-      <c r="T84" t="n">
-        <v>98.71902205402468</v>
-      </c>
-      <c r="U84" t="n">
+      <c r="V84" t="n">
+        <v>115.6797888371602</v>
+      </c>
+      <c r="W84" t="n">
         <v>109.9389009866237</v>
       </c>
-      <c r="V84" t="n">
+      <c r="X84" t="n">
         <v>585.4157989027905</v>
       </c>
-      <c r="W84" t="n">
-        <v>525.6964996331652</v>
-      </c>
-      <c r="X84" t="n">
+      <c r="Y84" t="n">
+        <v>616.015625</v>
+      </c>
+      <c r="Z84" t="n">
         <v>585.4443674549038</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="AA84" t="n">
         <v>110.3453365358563</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AB84" t="n">
         <v>110.3507214374992</v>
       </c>
-      <c r="AA84" t="n">
-        <v>99.08881392757841</v>
-      </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC84" t="n">
+        <v>116.1131140966323</v>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE84" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9029,38 +9537,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S85" t="n">
+        <v>146.5060098244149</v>
+      </c>
+      <c r="T85" t="n">
+        <v>145.9592606030604</v>
+      </c>
+      <c r="U85" t="n">
         <v>139.0069973009075</v>
       </c>
-      <c r="T85" t="n">
-        <v>115.4861820167965</v>
-      </c>
-      <c r="U85" t="n">
-        <v>139.0822775386679</v>
-      </c>
       <c r="V85" t="n">
+        <v>90.10846709420898</v>
+      </c>
+      <c r="W85" t="n">
+        <v>139.082277538668</v>
+      </c>
+      <c r="X85" t="n">
         <v>740.2371942624477</v>
       </c>
-      <c r="W85" t="n">
-        <v>614.9846339543777</v>
-      </c>
-      <c r="X85" t="n">
-        <v>740.6380750315111</v>
-      </c>
       <c r="Y85" t="n">
+        <v>479.84375</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>740.6380750315113</v>
+      </c>
+      <c r="AA85" t="n">
         <v>139.527704018817</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AB85" t="n">
         <v>139.6032662490403</v>
       </c>
-      <c r="AA85" t="n">
-        <v>115.9187820439137</v>
-      </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC85" t="n">
+        <v>90.44600466474515</v>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE85" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9130,38 +9644,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S86" t="n">
+        <v>141.8327112702291</v>
+      </c>
+      <c r="T86" t="n">
+        <v>141.3034024415842</v>
+      </c>
+      <c r="U86" t="n">
         <v>136.2947825283333</v>
       </c>
-      <c r="T86" t="n">
-        <v>120.0046548321027</v>
-      </c>
-      <c r="U86" t="n">
+      <c r="V86" t="n">
+        <v>102.2852869718048</v>
+      </c>
+      <c r="W86" t="n">
         <v>136.2947701092442</v>
       </c>
-      <c r="V86" t="n">
+      <c r="X86" t="n">
         <v>725.7941641095018</v>
       </c>
-      <c r="W86" t="n">
-        <v>639.0463121727271</v>
-      </c>
-      <c r="X86" t="n">
+      <c r="Y86" t="n">
+        <v>544.6875</v>
+      </c>
+      <c r="Z86" t="n">
         <v>725.7940979756243</v>
       </c>
-      <c r="Y86" t="n">
+      <c r="AA86" t="n">
         <v>136.8053295529905</v>
       </c>
-      <c r="Z86" t="n">
+      <c r="AB86" t="n">
         <v>136.8053170873806</v>
       </c>
-      <c r="AA86" t="n">
-        <v>120.4541806197594</v>
-      </c>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC86" t="n">
+        <v>102.6684377275486</v>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE86" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9231,38 +9751,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S87" t="n">
+        <v>138.2451216533915</v>
+      </c>
+      <c r="T87" t="n">
+        <v>137.7292014347557</v>
+      </c>
+      <c r="U87" t="n">
         <v>133.8207995698365</v>
       </c>
-      <c r="T87" t="n">
-        <v>120.7854112625108</v>
-      </c>
-      <c r="U87" t="n">
+      <c r="V87" t="n">
+        <v>163.1693863597838</v>
+      </c>
+      <c r="W87" t="n">
         <v>133.8208017725088</v>
       </c>
-      <c r="V87" t="n">
+      <c r="X87" t="n">
         <v>712.6197610980723</v>
       </c>
-      <c r="W87" t="n">
-        <v>643.2039802086504</v>
-      </c>
-      <c r="X87" t="n">
+      <c r="Y87" t="n">
+        <v>868.90625</v>
+      </c>
+      <c r="Z87" t="n">
         <v>712.6197728276979</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="AA87" t="n">
         <v>134.3220792944908</v>
       </c>
-      <c r="Z87" t="n">
+      <c r="AB87" t="n">
         <v>134.3220815054142</v>
       </c>
-      <c r="AA87" t="n">
-        <v>121.2378616879646</v>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC87" t="n">
+        <v>163.7806030415655</v>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE87" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9332,38 +9858,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S88" t="n">
+        <v>145.1005413017139</v>
+      </c>
+      <c r="T88" t="n">
+        <v>144.5590371813715</v>
+      </c>
+      <c r="U88" t="n">
         <v>143.8053221538262</v>
       </c>
-      <c r="T88" t="n">
-        <v>126.1072760740915</v>
-      </c>
-      <c r="U88" t="n">
+      <c r="V88" t="n">
+        <v>115.6797888371602</v>
+      </c>
+      <c r="W88" t="n">
         <v>143.814467127471</v>
       </c>
-      <c r="V88" t="n">
+      <c r="X88" t="n">
         <v>765.789134778043</v>
       </c>
-      <c r="W88" t="n">
-        <v>671.5438649112953</v>
-      </c>
-      <c r="X88" t="n">
+      <c r="Y88" t="n">
+        <v>616.015625</v>
+      </c>
+      <c r="Z88" t="n">
         <v>765.8378334030321</v>
       </c>
-      <c r="Y88" t="n">
+      <c r="AA88" t="n">
         <v>144.3440029308416</v>
       </c>
-      <c r="Z88" t="n">
+      <c r="AB88" t="n">
         <v>144.3531821606699</v>
       </c>
-      <c r="AA88" t="n">
-        <v>126.5796616885142</v>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC88" t="n">
+        <v>116.1131140966323</v>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE88" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9433,38 +9965,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
+        <v>123.033145806933</v>
+      </c>
+      <c r="T89" t="n">
+        <v>122.5739955184816</v>
+      </c>
+      <c r="U89" t="n">
         <v>128.6232272953374</v>
       </c>
-      <c r="T89" t="n">
-        <v>107.4991176294036</v>
-      </c>
-      <c r="U89" t="n">
+      <c r="V89" t="n">
+        <v>87.67310311868981</v>
+      </c>
+      <c r="W89" t="n">
         <v>128.6232267328338</v>
       </c>
-      <c r="V89" t="n">
+      <c r="X89" t="n">
         <v>684.9417564496953</v>
       </c>
-      <c r="W89" t="n">
-        <v>572.4520834546438</v>
-      </c>
-      <c r="X89" t="n">
+      <c r="Y89" t="n">
+        <v>466.875</v>
+      </c>
+      <c r="Z89" t="n">
         <v>684.9417534542627</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="AA89" t="n">
         <v>129.1050374188012</v>
       </c>
-      <c r="Z89" t="n">
+      <c r="AB89" t="n">
         <v>129.1050368541905</v>
       </c>
-      <c r="AA89" t="n">
-        <v>107.9017988886628</v>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC89" t="n">
+        <v>88.00151805218447</v>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE89" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9534,38 +10072,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S90" t="n">
+        <v>153.7585732424176</v>
+      </c>
+      <c r="T90" t="n">
+        <v>153.1847580091883</v>
+      </c>
+      <c r="U90" t="n">
         <v>155.1858456411894</v>
       </c>
-      <c r="T90" t="n">
-        <v>146.7083957683407</v>
-      </c>
-      <c r="U90" t="n">
+      <c r="V90" t="n">
+        <v>192.3937540660137</v>
+      </c>
+      <c r="W90" t="n">
         <v>155.1857953755431</v>
       </c>
-      <c r="V90" t="n">
+      <c r="X90" t="n">
         <v>826.3924636686571</v>
       </c>
-      <c r="W90" t="n">
-        <v>781.2485224986028</v>
-      </c>
-      <c r="X90" t="n">
+      <c r="Y90" t="n">
+        <v>1024.53125</v>
+      </c>
+      <c r="Z90" t="n">
         <v>826.3921959950745</v>
       </c>
-      <c r="Y90" t="n">
+      <c r="AA90" t="n">
         <v>155.7671567544343</v>
       </c>
-      <c r="Z90" t="n">
+      <c r="AB90" t="n">
         <v>155.7671063004978</v>
       </c>
-      <c r="AA90" t="n">
-        <v>147.2579511773028</v>
-      </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC90" t="n">
+        <v>193.1144423922937</v>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE90" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9635,38 +10179,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S91" t="n">
+        <v>133.7988982575638</v>
+      </c>
+      <c r="T91" t="n">
+        <v>133.2995710045174</v>
+      </c>
+      <c r="U91" t="n">
         <v>134.1714837853786</v>
       </c>
-      <c r="T91" t="n">
-        <v>121.9552858362728</v>
-      </c>
-      <c r="U91" t="n">
+      <c r="V91" t="n">
+        <v>169.2577962985817</v>
+      </c>
+      <c r="W91" t="n">
         <v>134.1715019998045</v>
       </c>
-      <c r="V91" t="n">
+      <c r="X91" t="n">
         <v>714.4872174479358</v>
       </c>
-      <c r="W91" t="n">
-        <v>649.4337721539144</v>
-      </c>
-      <c r="X91" t="n">
+      <c r="Y91" t="n">
+        <v>901.328125</v>
+      </c>
+      <c r="Z91" t="n">
         <v>714.4873144430211</v>
       </c>
-      <c r="Y91" t="n">
+      <c r="AA91" t="n">
         <v>134.674077139062</v>
       </c>
-      <c r="Z91" t="n">
+      <c r="AB91" t="n">
         <v>134.6740954217174</v>
       </c>
-      <c r="AA91" t="n">
-        <v>122.4121184983153</v>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC91" t="n">
+        <v>169.8918195729672</v>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE91" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9736,38 +10286,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
+        <v>158.0116146359224</v>
+      </c>
+      <c r="T92" t="n">
+        <v>157.4219273775586</v>
+      </c>
+      <c r="U92" t="n">
         <v>158.2109696797209</v>
       </c>
-      <c r="T92" t="n">
-        <v>137.4396186972558</v>
-      </c>
-      <c r="U92" t="n">
-        <v>158.2134146233427</v>
-      </c>
       <c r="V92" t="n">
+        <v>112.0267428738814</v>
+      </c>
+      <c r="W92" t="n">
+        <v>158.2134146233428</v>
+      </c>
+      <c r="X92" t="n">
         <v>842.5017917892483</v>
       </c>
-      <c r="W92" t="n">
-        <v>731.890622057866</v>
-      </c>
-      <c r="X92" t="n">
-        <v>842.5148115525827</v>
-      </c>
       <c r="Y92" t="n">
+        <v>596.5625</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>842.5148115525834</v>
+      </c>
+      <c r="AA92" t="n">
         <v>158.803612613953</v>
       </c>
-      <c r="Z92" t="n">
-        <v>158.8060667160962</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>137.9544541670679</v>
-      </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB92" t="n">
+        <v>158.8060667160963</v>
       </c>
       <c r="AC92" t="n">
+        <v>112.4463841777913</v>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE92" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9837,38 +10393,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S93" t="n">
+        <v>147.2695399564692</v>
+      </c>
+      <c r="T93" t="n">
+        <v>146.7199412990698</v>
+      </c>
+      <c r="U93" t="n">
         <v>144.1138129295586</v>
       </c>
-      <c r="T93" t="n">
-        <v>128.0691390838696</v>
-      </c>
-      <c r="U93" t="n">
+      <c r="V93" t="n">
+        <v>102.2852869718048</v>
+      </c>
+      <c r="W93" t="n">
         <v>144.1138027337883</v>
       </c>
-      <c r="V93" t="n">
+      <c r="X93" t="n">
         <v>767.4319034926975</v>
       </c>
-      <c r="W93" t="n">
-        <v>681.9911373370257</v>
-      </c>
-      <c r="X93" t="n">
+      <c r="Y93" t="n">
+        <v>544.6875</v>
+      </c>
+      <c r="Z93" t="n">
         <v>767.4318491983917</v>
       </c>
-      <c r="Y93" t="n">
+      <c r="AA93" t="n">
         <v>144.6536492830734</v>
       </c>
-      <c r="Z93" t="n">
+      <c r="AB93" t="n">
         <v>144.6536390491107</v>
       </c>
-      <c r="AA93" t="n">
-        <v>128.5488736466808</v>
-      </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC93" t="n">
+        <v>102.6684377275486</v>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE93" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9938,38 +10500,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
+        <v>115.7646507104204</v>
+      </c>
+      <c r="T94" t="n">
+        <v>115.3326258896491</v>
+      </c>
+      <c r="U94" t="n">
         <v>107.2063508578886</v>
       </c>
-      <c r="T94" t="n">
-        <v>97.87870520780282</v>
-      </c>
-      <c r="U94" t="n">
+      <c r="V94" t="n">
+        <v>92.54383106972813</v>
+      </c>
+      <c r="W94" t="n">
         <v>107.2063487166135</v>
       </c>
-      <c r="V94" t="n">
+      <c r="X94" t="n">
         <v>570.8930478828556</v>
       </c>
-      <c r="W94" t="n">
-        <v>521.2216616997033</v>
-      </c>
-      <c r="X94" t="n">
+      <c r="Y94" t="n">
+        <v>492.8125</v>
+      </c>
+      <c r="Z94" t="n">
         <v>570.893036480182</v>
       </c>
-      <c r="Y94" t="n">
+      <c r="AA94" t="n">
         <v>107.6079354412417</v>
       </c>
-      <c r="Z94" t="n">
+      <c r="AB94" t="n">
         <v>107.6079332919457</v>
       </c>
-      <c r="AA94" t="n">
-        <v>98.24534933602364</v>
-      </c>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC94" t="n">
+        <v>92.89049127730583</v>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE94" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10039,38 +10607,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S95" t="n">
+        <v>160.5394692072302</v>
+      </c>
+      <c r="T95" t="n">
+        <v>159.9403481889803</v>
+      </c>
+      <c r="U95" t="n">
         <v>159.2682752871106</v>
       </c>
-      <c r="T95" t="n">
-        <v>143.0549963582182</v>
-      </c>
-      <c r="U95" t="n">
+      <c r="V95" t="n">
+        <v>194.8291180415329</v>
+      </c>
+      <c r="W95" t="n">
         <v>159.2682757960604</v>
       </c>
-      <c r="V95" t="n">
+      <c r="X95" t="n">
         <v>848.1321337971252</v>
       </c>
-      <c r="W95" t="n">
-        <v>761.793515330762</v>
-      </c>
-      <c r="X95" t="n">
+      <c r="Y95" t="n">
+        <v>1037.5</v>
+      </c>
+      <c r="Z95" t="n">
         <v>848.1321365073737</v>
       </c>
-      <c r="Y95" t="n">
+      <c r="AA95" t="n">
         <v>159.864878785511</v>
       </c>
-      <c r="Z95" t="n">
+      <c r="AB95" t="n">
         <v>159.8648792963672</v>
       </c>
-      <c r="AA95" t="n">
-        <v>143.5908664876404</v>
-      </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC95" t="n">
+        <v>195.5589290048544</v>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE95" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10140,38 +10714,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S96" t="n">
+        <v>177.0249070526192</v>
+      </c>
+      <c r="T96" t="n">
+        <v>176.3642636414214</v>
+      </c>
+      <c r="U96" t="n">
         <v>185.3783617311769</v>
       </c>
-      <c r="T96" t="n">
-        <v>156.8344146973914</v>
-      </c>
-      <c r="U96" t="n">
+      <c r="V96" t="n">
+        <v>121.7681987759581</v>
+      </c>
+      <c r="W96" t="n">
         <v>185.3783445151198</v>
       </c>
-      <c r="V96" t="n">
+      <c r="X96" t="n">
         <v>987.1730274685939</v>
       </c>
-      <c r="W96" t="n">
-        <v>835.1713895961713</v>
-      </c>
-      <c r="X96" t="n">
+      <c r="Y96" t="n">
+        <v>648.4375</v>
+      </c>
+      <c r="Z96" t="n">
         <v>987.1729357900016</v>
       </c>
-      <c r="Y96" t="n">
+      <c r="AA96" t="n">
         <v>186.0727710787835</v>
       </c>
-      <c r="Z96" t="n">
+      <c r="AB96" t="n">
         <v>186.0727537982367</v>
       </c>
-      <c r="AA96" t="n">
-        <v>157.4219011902875</v>
-      </c>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC96" t="n">
+        <v>122.224330628034</v>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE96" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10241,38 +10821,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
+        <v>138.0187534840128</v>
+      </c>
+      <c r="T97" t="n">
+        <v>137.5036780540686</v>
+      </c>
+      <c r="U97" t="n">
         <v>141.9683188805451</v>
       </c>
-      <c r="T97" t="n">
-        <v>109.8650103276247</v>
-      </c>
-      <c r="U97" t="n">
+      <c r="V97" t="n">
+        <v>105.9383329350835</v>
+      </c>
+      <c r="W97" t="n">
         <v>141.9683100171074</v>
       </c>
-      <c r="V97" t="n">
+      <c r="X97" t="n">
         <v>756.0067628452047</v>
       </c>
-      <c r="W97" t="n">
-        <v>585.0508864419936</v>
-      </c>
-      <c r="X97" t="n">
+      <c r="Y97" t="n">
+        <v>564.140625</v>
+      </c>
+      <c r="Z97" t="n">
         <v>756.0067156458088</v>
       </c>
-      <c r="Y97" t="n">
+      <c r="AA97" t="n">
         <v>142.5001184216243</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="AB97" t="n">
         <v>142.5001095249849</v>
       </c>
-      <c r="AA97" t="n">
-        <v>110.2765539912645</v>
-      </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC97" t="n">
+        <v>106.3351676463896</v>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE97" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10342,38 +10928,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S98" t="n">
+        <v>140.350321797592</v>
+      </c>
+      <c r="T98" t="n">
+        <v>139.8265451330602</v>
+      </c>
+      <c r="U98" t="n">
         <v>141.9876776555864</v>
       </c>
-      <c r="T98" t="n">
-        <v>134.1524042530606</v>
-      </c>
-      <c r="U98" t="n">
+      <c r="V98" t="n">
+        <v>183.8699801516967</v>
+      </c>
+      <c r="W98" t="n">
         <v>141.9876597644194</v>
       </c>
-      <c r="V98" t="n">
+      <c r="X98" t="n">
         <v>756.1098517946758</v>
       </c>
-      <c r="W98" t="n">
-        <v>714.3856155160533</v>
-      </c>
-      <c r="X98" t="n">
+      <c r="Y98" t="n">
+        <v>979.140625</v>
+      </c>
+      <c r="Z98" t="n">
         <v>756.1097565210024</v>
       </c>
-      <c r="Y98" t="n">
+      <c r="AA98" t="n">
         <v>142.5195497127575</v>
       </c>
-      <c r="Z98" t="n">
+      <c r="AB98" t="n">
         <v>142.519531754572</v>
       </c>
-      <c r="AA98" t="n">
-        <v>134.654926136668</v>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC98" t="n">
+        <v>184.5587392483313</v>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE98" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10443,38 +11035,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S99" t="n">
+        <v>140.524025390388</v>
+      </c>
+      <c r="T99" t="n">
+        <v>139.9996004773357</v>
+      </c>
+      <c r="U99" t="n">
         <v>136.0048087767481</v>
       </c>
-      <c r="T99" t="n">
-        <v>110.8401756520711</v>
-      </c>
-      <c r="U99" t="n">
-        <v>136.1371500065007</v>
-      </c>
       <c r="V99" t="n">
+        <v>90.10846709420898</v>
+      </c>
+      <c r="W99" t="n">
+        <v>136.1371500065006</v>
+      </c>
+      <c r="X99" t="n">
         <v>724.2500018698231</v>
       </c>
-      <c r="W99" t="n">
-        <v>590.2438167097243</v>
-      </c>
-      <c r="X99" t="n">
-        <v>724.9547426562542</v>
-      </c>
       <c r="Y99" t="n">
+        <v>479.84375</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>724.954742656254</v>
+      </c>
+      <c r="AA99" t="n">
         <v>136.5142695878808</v>
       </c>
-      <c r="Z99" t="n">
-        <v>136.6471065550332</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>111.255372190353</v>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
+      <c r="AB99" t="n">
+        <v>136.6471065550331</v>
       </c>
       <c r="AC99" t="n">
+        <v>90.44600466474515</v>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE99" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10544,38 +11142,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S100" t="n">
+        <v>128.1496035342991</v>
+      </c>
+      <c r="T100" t="n">
+        <v>127.6713590170042</v>
+      </c>
+      <c r="U100" t="n">
         <v>122.5315882607022</v>
       </c>
-      <c r="T100" t="n">
-        <v>116.9212132125896</v>
-      </c>
-      <c r="U100" t="n">
+      <c r="V100" t="n">
+        <v>142.4687925678709</v>
+      </c>
+      <c r="W100" t="n">
         <v>122.5316011052094</v>
       </c>
-      <c r="V100" t="n">
+      <c r="X100" t="n">
         <v>652.50268593516</v>
       </c>
-      <c r="W100" t="n">
-        <v>622.6264324730058</v>
-      </c>
-      <c r="X100" t="n">
+      <c r="Y100" t="n">
+        <v>758.671875</v>
+      </c>
+      <c r="Z100" t="n">
         <v>652.5027543344646</v>
       </c>
-      <c r="Y100" t="n">
+      <c r="AA100" t="n">
         <v>122.9905796956826</v>
       </c>
-      <c r="Z100" t="n">
+      <c r="AB100" t="n">
         <v>122.9905925883041</v>
       </c>
-      <c r="AA100" t="n">
-        <v>117.359188727262</v>
-      </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC100" t="n">
+        <v>143.0024668347998</v>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE100" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10645,38 +11249,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S101" t="n">
+        <v>171.0388679175718</v>
+      </c>
+      <c r="T101" t="n">
+        <v>170.4005639465103</v>
+      </c>
+      <c r="U101" t="n">
         <v>173.9133346912965</v>
       </c>
-      <c r="T101" t="n">
-        <v>143.106761695206</v>
-      </c>
-      <c r="U101" t="n">
+      <c r="V101" t="n">
+        <v>125.4212447392368</v>
+      </c>
+      <c r="W101" t="n">
         <v>173.9133367251607</v>
       </c>
-      <c r="V101" t="n">
+      <c r="X101" t="n">
         <v>926.1197020034534</v>
       </c>
-      <c r="W101" t="n">
-        <v>762.069175035352</v>
-      </c>
-      <c r="X101" t="n">
+      <c r="Y101" t="n">
+        <v>667.890625</v>
+      </c>
+      <c r="Z101" t="n">
         <v>926.1197128341455</v>
       </c>
-      <c r="Y101" t="n">
+      <c r="AA101" t="n">
         <v>174.5647971605689</v>
       </c>
-      <c r="Z101" t="n">
+      <c r="AB101" t="n">
         <v>174.5647992020518</v>
       </c>
-      <c r="AA101" t="n">
-        <v>143.6428257325555</v>
-      </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\right</t>
-        </is>
-      </c>
       <c r="AC101" t="n">
+        <v>125.891060546875</v>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
+      <c r="AE101" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10746,38 +11356,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S102" t="n">
+        <v>119.1074145220063</v>
+      </c>
+      <c r="T102" t="n">
+        <v>118.6629147624025</v>
+      </c>
+      <c r="U102" t="n">
         <v>114.4450921415393</v>
       </c>
-      <c r="T102" t="n">
-        <v>103.6569133119592</v>
-      </c>
-      <c r="U102" t="n">
+      <c r="V102" t="n">
+        <v>126.7138610031662</v>
+      </c>
+      <c r="W102" t="n">
         <v>114.6133644928176</v>
       </c>
-      <c r="V102" t="n">
+      <c r="X102" t="n">
         <v>521.2321294192969</v>
       </c>
-      <c r="W102" t="n">
-        <v>472.0981270896576</v>
-      </c>
-      <c r="X102" t="n">
-        <v>521.9985140176923</v>
-      </c>
       <c r="Y102" t="n">
-        <v>120.1218336217848</v>
+        <v>577.109375</v>
       </c>
       <c r="Z102" t="n">
-        <v>120.2984526711925</v>
+        <v>521.9985140176922</v>
       </c>
       <c r="AA102" t="n">
-        <v>108.7985361504858</v>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>114.8737923470467</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>115.042695030218</v>
       </c>
       <c r="AC102" t="n">
+        <v>127.1885188258495</v>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE102" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10847,38 +11463,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S103" t="n">
+        <v>119.1074145220063</v>
+      </c>
+      <c r="T103" t="n">
+        <v>118.6629147624025</v>
+      </c>
+      <c r="U103" t="n">
         <v>114.4450921415393</v>
       </c>
-      <c r="T103" t="n">
-        <v>103.6569133119592</v>
-      </c>
-      <c r="U103" t="n">
+      <c r="V103" t="n">
+        <v>126.7138610031662</v>
+      </c>
+      <c r="W103" t="n">
         <v>114.6133644928176</v>
       </c>
-      <c r="V103" t="n">
+      <c r="X103" t="n">
         <v>521.2321294192969</v>
       </c>
-      <c r="W103" t="n">
-        <v>472.0981270896576</v>
-      </c>
-      <c r="X103" t="n">
-        <v>521.9985140176923</v>
-      </c>
       <c r="Y103" t="n">
-        <v>120.1218336217848</v>
+        <v>577.109375</v>
       </c>
       <c r="Z103" t="n">
-        <v>120.2984526711925</v>
+        <v>521.9985140176922</v>
       </c>
       <c r="AA103" t="n">
-        <v>108.7985361504858</v>
-      </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>114.8737923470467</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>115.042695030218</v>
       </c>
       <c r="AC103" t="n">
+        <v>127.1885188258495</v>
+      </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE103" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10948,38 +11570,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S104" t="n">
+        <v>119.1074145220063</v>
+      </c>
+      <c r="T104" t="n">
+        <v>118.6629147624025</v>
+      </c>
+      <c r="U104" t="n">
         <v>114.4450921415393</v>
       </c>
-      <c r="T104" t="n">
-        <v>103.6569133119592</v>
-      </c>
-      <c r="U104" t="n">
+      <c r="V104" t="n">
+        <v>126.7138610031662</v>
+      </c>
+      <c r="W104" t="n">
         <v>114.6133644928176</v>
       </c>
-      <c r="V104" t="n">
+      <c r="X104" t="n">
         <v>521.2321294192969</v>
       </c>
-      <c r="W104" t="n">
-        <v>472.0981270896576</v>
-      </c>
-      <c r="X104" t="n">
-        <v>521.9985140176923</v>
-      </c>
       <c r="Y104" t="n">
-        <v>120.1218336217848</v>
+        <v>577.109375</v>
       </c>
       <c r="Z104" t="n">
-        <v>120.2984526711925</v>
+        <v>521.9985140176922</v>
       </c>
       <c r="AA104" t="n">
-        <v>108.7985361504858</v>
-      </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>114.8737923470467</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>115.042695030218</v>
       </c>
       <c r="AC104" t="n">
+        <v>127.1885188258495</v>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE104" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11049,38 +11677,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S105" t="n">
+        <v>92.62083397588667</v>
+      </c>
+      <c r="T105" t="n">
+        <v>92.27518010872983</v>
+      </c>
+      <c r="U105" t="n">
         <v>95.3936019126962</v>
       </c>
-      <c r="T105" t="n">
-        <v>87.85419708945554</v>
-      </c>
-      <c r="U105" t="n">
+      <c r="V105" t="n">
+        <v>102.5100898003142</v>
+      </c>
+      <c r="W105" t="n">
         <v>95.39362853858485</v>
       </c>
-      <c r="V105" t="n">
+      <c r="X105" t="n">
         <v>434.4634560339007</v>
       </c>
-      <c r="W105" t="n">
-        <v>400.1257666054041</v>
-      </c>
-      <c r="X105" t="n">
+      <c r="Y105" t="n">
+        <v>466.875</v>
+      </c>
+      <c r="Z105" t="n">
         <v>434.4635772996394</v>
       </c>
-      <c r="Y105" t="n">
-        <v>100.1253453784458</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>100.1253733250401</v>
-      </c>
       <c r="AA105" t="n">
-        <v>92.21196862425046</v>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>95.75093708521271</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>95.75096381083935</v>
       </c>
       <c r="AC105" t="n">
+        <v>102.8940826456311</v>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE105" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11150,38 +11784,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S106" t="n">
-        <v>93.81386402696883</v>
+        <v>100.6680704864494</v>
       </c>
       <c r="T106" t="n">
-        <v>90.36413564431933</v>
+        <v>100.2923849482268</v>
       </c>
       <c r="U106" t="n">
         <v>93.81386402696883</v>
       </c>
       <c r="V106" t="n">
-        <v>427.2686508509605</v>
+        <v>113.9000997781269</v>
       </c>
       <c r="W106" t="n">
-        <v>411.557105365176</v>
+        <v>93.81386402696883</v>
       </c>
       <c r="X106" t="n">
         <v>427.2686508509605</v>
       </c>
       <c r="Y106" t="n">
-        <v>98.46724883691222</v>
+        <v>518.75</v>
       </c>
       <c r="Z106" t="n">
-        <v>98.46724883691222</v>
+        <v>427.2686508509605</v>
       </c>
       <c r="AA106" t="n">
-        <v>94.84640594127734</v>
-      </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>94.16528165471703</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>94.16528165471703</v>
       </c>
       <c r="AC106" t="n">
+        <v>114.3267584951456</v>
+      </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE106" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11251,38 +11891,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S107" t="n">
+        <v>158.7629889782694</v>
+      </c>
+      <c r="T107" t="n">
+        <v>158.1704976483381</v>
+      </c>
+      <c r="U107" t="n">
         <v>166.5630038123446</v>
       </c>
-      <c r="T107" t="n">
-        <v>155.8168351747937</v>
-      </c>
-      <c r="U107" t="n">
+      <c r="V107" t="n">
+        <v>175.1214034088702</v>
+      </c>
+      <c r="W107" t="n">
         <v>166.6254805025665</v>
       </c>
-      <c r="V107" t="n">
+      <c r="X107" t="n">
         <v>758.5994954874188</v>
       </c>
-      <c r="W107" t="n">
-        <v>709.6568256250691</v>
-      </c>
-      <c r="X107" t="n">
+      <c r="Y107" t="n">
+        <v>797.578125</v>
+      </c>
+      <c r="Z107" t="n">
         <v>758.8840411824249</v>
       </c>
-      <c r="Y107" t="n">
-        <v>174.8249143506004</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>174.8904900292743</v>
-      </c>
       <c r="AA107" t="n">
-        <v>163.5457108740975</v>
-      </c>
-      <c r="AB107" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>167.1869326556713</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>167.2496433775099</v>
       </c>
       <c r="AC107" t="n">
+        <v>175.7773911862864</v>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE107" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11352,38 +11998,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S108" t="n">
+        <v>81.83440374245026</v>
+      </c>
+      <c r="T108" t="n">
+        <v>81.52900400779211</v>
+      </c>
+      <c r="U108" t="n">
         <v>80.41346218240321</v>
       </c>
-      <c r="T108" t="n">
-        <v>66.58783364358995</v>
-      </c>
-      <c r="U108" t="n">
+      <c r="V108" t="n">
+        <v>85.4250748335952</v>
+      </c>
+      <c r="W108" t="n">
         <v>80.4134704433576</v>
       </c>
-      <c r="V108" t="n">
+      <c r="X108" t="n">
         <v>366.2374623760637</v>
       </c>
-      <c r="W108" t="n">
-        <v>303.2696088054325</v>
-      </c>
-      <c r="X108" t="n">
+      <c r="Y108" t="n">
+        <v>389.0625</v>
+      </c>
+      <c r="Z108" t="n">
         <v>366.2374999999999</v>
       </c>
-      <c r="Y108" t="n">
-        <v>84.40215604248108</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>84.40216471319793</v>
-      </c>
       <c r="AA108" t="n">
-        <v>69.89074432548067</v>
-      </c>
-      <c r="AB108" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>80.71468320567367</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>80.71469149757279</v>
       </c>
       <c r="AC108" t="n">
+        <v>85.74506887135924</v>
+      </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE108" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11453,38 +12105,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S109" t="n">
+        <v>123.9008827775438</v>
+      </c>
+      <c r="T109" t="n">
+        <v>123.4384941610976</v>
+      </c>
+      <c r="U109" t="n">
         <v>132.3470316439268</v>
       </c>
-      <c r="T109" t="n">
-        <v>113.9648335894923</v>
-      </c>
-      <c r="U109" t="n">
+      <c r="V109" t="n">
+        <v>122.4426072614865</v>
+      </c>
+      <c r="W109" t="n">
         <v>132.3470148144411</v>
       </c>
-      <c r="V109" t="n">
+      <c r="X109" t="n">
         <v>602.7652548068388</v>
       </c>
-      <c r="W109" t="n">
-        <v>519.0448255946325</v>
-      </c>
-      <c r="X109" t="n">
+      <c r="Y109" t="n">
+        <v>557.65625</v>
+      </c>
+      <c r="Z109" t="n">
         <v>602.7651781581285</v>
       </c>
-      <c r="Y109" t="n">
-        <v>138.9117507617312</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>138.911733097464</v>
-      </c>
       <c r="AA109" t="n">
-        <v>119.6177531338852</v>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\left</t>
-        </is>
+        <v>132.8427907769954</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>132.842773884468</v>
       </c>
       <c r="AC109" t="n">
+        <v>122.9012653822816</v>
+      </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
+      <c r="AE109" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11554,38 +12212,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
+        <v>114.2909019549055</v>
+      </c>
+      <c r="T110" t="n">
+        <v>113.8643770517521</v>
+      </c>
+      <c r="U110" t="n">
         <v>114.7078513714162</v>
       </c>
-      <c r="T110" t="n">
-        <v>96.67990004295457</v>
-      </c>
-      <c r="U110" t="n">
+      <c r="V110" t="n">
+        <v>83.18641333302182</v>
+      </c>
+      <c r="W110" t="n">
         <v>114.7078343639825</v>
       </c>
-      <c r="V110" t="n">
+      <c r="X110" t="n">
         <v>956.7371671764962</v>
       </c>
-      <c r="W110" t="n">
-        <v>806.3724721902718</v>
-      </c>
-      <c r="X110" t="n">
+      <c r="Y110" t="n">
+        <v>693.828125</v>
+      </c>
+      <c r="Z110" t="n">
         <v>956.7370253235739</v>
       </c>
-      <c r="Y110" t="n">
+      <c r="AA110" t="n">
         <v>115.1375358474916</v>
       </c>
-      <c r="Z110" t="n">
+      <c r="AB110" t="n">
         <v>115.1375187763498</v>
       </c>
-      <c r="AA110" t="n">
-        <v>97.04205356340077</v>
-      </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC110" t="n">
+        <v>83.49802156212074</v>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE110" t="n">
         <v>415</v>
       </c>
     </row>
@@ -11655,38 +12319,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
+        <v>134.1892329326644</v>
+      </c>
+      <c r="T111" t="n">
+        <v>133.68844898047</v>
+      </c>
+      <c r="U111" t="n">
         <v>133.1094290697119</v>
       </c>
-      <c r="T111" t="n">
-        <v>129.6150774221181</v>
-      </c>
-      <c r="U111" t="n">
+      <c r="V111" t="n">
+        <v>174.1472578186625</v>
+      </c>
+      <c r="W111" t="n">
         <v>133.1094211698846</v>
       </c>
-      <c r="V111" t="n">
+      <c r="X111" t="n">
         <v>1110.218146099554</v>
       </c>
-      <c r="W111" t="n">
-        <v>1081.073008635402</v>
-      </c>
-      <c r="X111" t="n">
+      <c r="Y111" t="n">
+        <v>1452.5</v>
+      </c>
+      <c r="Z111" t="n">
         <v>1110.21808020992</v>
       </c>
-      <c r="Y111" t="n">
+      <c r="AA111" t="n">
         <v>133.6080440695284</v>
       </c>
-      <c r="Z111" t="n">
+      <c r="AB111" t="n">
         <v>133.6080361401092</v>
       </c>
-      <c r="AA111" t="n">
-        <v>130.1006029198738</v>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC111" t="n">
+        <v>174.7995965412622</v>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE111" t="n">
         <v>415</v>
       </c>
     </row>
@@ -11764,12 +12434,14 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr">
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11837,38 +12509,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S113" t="n">
+        <v>109.843381153875</v>
+      </c>
+      <c r="T113" t="n">
+        <v>109.4334540581278</v>
+      </c>
+      <c r="U113" t="n">
         <v>105.6318423342176</v>
       </c>
-      <c r="T113" t="n">
-        <v>95.44570053327124</v>
-      </c>
-      <c r="U113" t="n">
+      <c r="V113" t="n">
+        <v>99.51271875352144</v>
+      </c>
+      <c r="W113" t="n">
         <v>105.6318435087638</v>
       </c>
-      <c r="V113" t="n">
+      <c r="X113" t="n">
         <v>881.0374215034507</v>
       </c>
-      <c r="W113" t="n">
-        <v>796.0784554467998</v>
-      </c>
-      <c r="X113" t="n">
+      <c r="Y113" t="n">
+        <v>830</v>
+      </c>
+      <c r="Z113" t="n">
         <v>881.0374312999209</v>
       </c>
-      <c r="Y113" t="n">
+      <c r="AA113" t="n">
         <v>106.0275289614851</v>
       </c>
-      <c r="Z113" t="n">
+      <c r="AB113" t="n">
         <v>106.0275301404311</v>
       </c>
-      <c r="AA113" t="n">
-        <v>95.80323086216298</v>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC113" t="n">
+        <v>99.88548373786409</v>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE113" t="n">
         <v>415</v>
       </c>
     </row>
@@ -11946,12 +12624,14 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr">
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12019,38 +12699,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S115" t="n">
+        <v>110.1967848015877</v>
+      </c>
+      <c r="T115" t="n">
+        <v>109.7855388304616</v>
+      </c>
+      <c r="U115" t="n">
         <v>109.1039483278914</v>
       </c>
-      <c r="T115" t="n">
-        <v>93.64908218816682</v>
-      </c>
-      <c r="U115" t="n">
+      <c r="V115" t="n">
+        <v>81.63152710249805</v>
+      </c>
+      <c r="W115" t="n">
         <v>109.1039547787944</v>
       </c>
-      <c r="V115" t="n">
+      <c r="X115" t="n">
         <v>909.997015923609</v>
       </c>
-      <c r="W115" t="n">
-        <v>781.0935043258265</v>
-      </c>
-      <c r="X115" t="n">
+      <c r="Y115" t="n">
+        <v>680.859375</v>
+      </c>
+      <c r="Z115" t="n">
         <v>909.9970697282836</v>
       </c>
-      <c r="Y115" t="n">
+      <c r="AA115" t="n">
         <v>109.5126411271596</v>
       </c>
-      <c r="Z115" t="n">
+      <c r="AB115" t="n">
         <v>109.512647602227</v>
       </c>
-      <c r="AA115" t="n">
-        <v>93.9998825591429</v>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC115" t="n">
+        <v>81.93731087871663</v>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE115" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12120,38 +12806,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S116" t="n">
+        <v>124.4006840094643</v>
+      </c>
+      <c r="T116" t="n">
+        <v>123.936430173054</v>
+      </c>
+      <c r="U116" t="n">
         <v>124.9577074028051</v>
       </c>
-      <c r="T116" t="n">
-        <v>117.9593223258183</v>
-      </c>
-      <c r="U116" t="n">
+      <c r="V116" t="n">
+        <v>154.7111799371153</v>
+      </c>
+      <c r="W116" t="n">
         <v>124.9577158034129</v>
       </c>
-      <c r="V116" t="n">
+      <c r="X116" t="n">
         <v>1042.227550844179</v>
       </c>
-      <c r="W116" t="n">
-        <v>983.8565236362276</v>
-      </c>
-      <c r="X116" t="n">
+      <c r="Y116" t="n">
+        <v>1290.390625</v>
+      </c>
+      <c r="Z116" t="n">
         <v>1042.227620910645</v>
       </c>
-      <c r="Y116" t="n">
+      <c r="AA116" t="n">
         <v>125.4257868445785</v>
       </c>
-      <c r="Z116" t="n">
+      <c r="AB116" t="n">
         <v>125.4257952766542</v>
       </c>
-      <c r="AA116" t="n">
-        <v>118.4011864964553</v>
-      </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC116" t="n">
+        <v>155.2907129987106</v>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE116" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12229,12 +12921,14 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr">
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12310,12 +13004,14 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr">
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12391,12 +13087,14 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr">
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12472,12 +13170,14 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr">
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12545,38 +13245,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S121" t="n">
+        <v>119.7338454190674</v>
+      </c>
+      <c r="T121" t="n">
+        <v>119.287007867276</v>
+      </c>
+      <c r="U121" t="n">
         <v>119.2005661692046</v>
       </c>
-      <c r="T121" t="n">
-        <v>111.3493450454741</v>
-      </c>
-      <c r="U121" t="n">
+      <c r="V121" t="n">
+        <v>128.886955012091</v>
+      </c>
+      <c r="W121" t="n">
         <v>119.2005588392866</v>
       </c>
-      <c r="V121" t="n">
+      <c r="X121" t="n">
         <v>1031.492143197263</v>
       </c>
-      <c r="W121" t="n">
-        <v>963.5522569710803</v>
-      </c>
-      <c r="X121" t="n">
+      <c r="Y121" t="n">
+        <v>1115.3125</v>
+      </c>
+      <c r="Z121" t="n">
         <v>1031.49207976843</v>
       </c>
-      <c r="Y121" t="n">
+      <c r="AA121" t="n">
         <v>119.6470799187863</v>
       </c>
-      <c r="Z121" t="n">
+      <c r="AB121" t="n">
         <v>119.6470725614111</v>
       </c>
-      <c r="AA121" t="n">
-        <v>111.7664488828766</v>
-      </c>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC121" t="n">
+        <v>129.3697530339806</v>
+      </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE121" t="n">
         <v>400</v>
       </c>
     </row>
@@ -12646,38 +13352,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S122" t="n">
+        <v>110.3057237018007</v>
+      </c>
+      <c r="T122" t="n">
+        <v>109.8940711790326</v>
+      </c>
+      <c r="U122" t="n">
         <v>109.1738636564882</v>
       </c>
-      <c r="T122" t="n">
-        <v>93.38022670743987</v>
-      </c>
-      <c r="U122" t="n">
+      <c r="V122" t="n">
+        <v>85.4250748335952</v>
+      </c>
+      <c r="W122" t="n">
         <v>109.1738492986071</v>
       </c>
-      <c r="V122" t="n">
+      <c r="X122" t="n">
         <v>944.7269104771252</v>
       </c>
-      <c r="W122" t="n">
-        <v>808.0579922915497</v>
-      </c>
-      <c r="X122" t="n">
+      <c r="Y122" t="n">
+        <v>739.21875</v>
+      </c>
+      <c r="Z122" t="n">
         <v>944.7267862324011</v>
       </c>
-      <c r="Y122" t="n">
+      <c r="AA122" t="n">
         <v>109.5828183517904</v>
       </c>
-      <c r="Z122" t="n">
+      <c r="AB122" t="n">
         <v>109.5828039401261</v>
       </c>
-      <c r="AA122" t="n">
-        <v>93.73001997188408</v>
-      </c>
-      <c r="AB122" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC122" t="n">
+        <v>85.74506887135924</v>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE122" t="n">
         <v>400</v>
       </c>
     </row>
@@ -12755,12 +13467,14 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr">
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12836,12 +13550,14 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr">
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12917,12 +13633,14 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr"/>
-      <c r="AB125" t="inlineStr">
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12998,12 +13716,14 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="inlineStr">
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AC126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13071,38 +13791,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S127" t="n">
+        <v>118.6578611261841</v>
+      </c>
+      <c r="T127" t="n">
+        <v>118.2150390654638</v>
+      </c>
+      <c r="U127" t="n">
         <v>119.2125459979812</v>
       </c>
-      <c r="T127" t="n">
-        <v>108.1215154419398</v>
-      </c>
-      <c r="U127" t="n">
+      <c r="V127" t="n">
+        <v>148.3323996781594</v>
+      </c>
+      <c r="W127" t="n">
         <v>119.2125409772724</v>
       </c>
-      <c r="V127" t="n">
+      <c r="X127" t="n">
         <v>1115.238713129702</v>
       </c>
-      <c r="W127" t="n">
-        <v>1011.481624972125</v>
-      </c>
-      <c r="X127" t="n">
+      <c r="Y127" t="n">
+        <v>1387.65625</v>
+      </c>
+      <c r="Z127" t="n">
         <v>1115.238666160746</v>
       </c>
-      <c r="Y127" t="n">
+      <c r="AA127" t="n">
         <v>119.6591046228385</v>
       </c>
-      <c r="Z127" t="n">
+      <c r="AB127" t="n">
         <v>119.6590995833226</v>
       </c>
-      <c r="AA127" t="n">
-        <v>108.5265281429861</v>
-      </c>
-      <c r="AB127" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC127" t="n">
+        <v>148.8880384481189</v>
+      </c>
+      <c r="AD127" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE127" t="n">
         <v>370</v>
       </c>
     </row>
@@ -13172,38 +13898,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S128" t="n">
+        <v>129.3357502629965</v>
+      </c>
+      <c r="T128" t="n">
+        <v>128.8530791368471</v>
+      </c>
+      <c r="U128" t="n">
         <v>128.3166942407068</v>
       </c>
-      <c r="T128" t="n">
-        <v>107.1706226525133</v>
-      </c>
-      <c r="U128" t="n">
+      <c r="V128" t="n">
+        <v>87.99157379241156</v>
+      </c>
+      <c r="W128" t="n">
         <v>128.3167166180678</v>
       </c>
-      <c r="V128" t="n">
+      <c r="X128" t="n">
         <v>1153.639268618678</v>
       </c>
-      <c r="W128" t="n">
-        <v>963.5241888504934</v>
-      </c>
-      <c r="X128" t="n">
+      <c r="Y128" t="n">
+        <v>791.09375</v>
+      </c>
+      <c r="Z128" t="n">
         <v>1153.639469803743</v>
       </c>
-      <c r="Y128" t="n">
+      <c r="AA128" t="n">
         <v>128.7973561211043</v>
       </c>
-      <c r="Z128" t="n">
+      <c r="AB128" t="n">
         <v>128.7973785822888</v>
       </c>
-      <c r="AA128" t="n">
-        <v>107.5720734014774</v>
-      </c>
-      <c r="AB128" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC128" t="n">
+        <v>88.32118168613472</v>
+      </c>
+      <c r="AD128" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE128" t="n">
         <v>385</v>
       </c>
     </row>
@@ -13273,38 +14005,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S129" t="n">
+        <v>163.4991387425998</v>
+      </c>
+      <c r="T129" t="n">
+        <v>162.8889724640506</v>
+      </c>
+      <c r="U129" t="n">
         <v>157.0022533005351</v>
       </c>
-      <c r="T129" t="n">
-        <v>148.6171602139234</v>
-      </c>
-      <c r="U129" t="n">
+      <c r="V129" t="n">
+        <v>126.2174214235412</v>
+      </c>
+      <c r="W129" t="n">
         <v>157.0022421272351</v>
       </c>
-      <c r="V129" t="n">
+      <c r="X129" t="n">
         <v>1411.538582262312</v>
       </c>
-      <c r="W129" t="n">
-        <v>1336.151878194078</v>
-      </c>
-      <c r="X129" t="n">
+      <c r="Y129" t="n">
+        <v>1134.765625</v>
+      </c>
+      <c r="Z129" t="n">
         <v>1411.538481808059</v>
       </c>
-      <c r="Y129" t="n">
+      <c r="AA129" t="n">
         <v>157.5903685005458</v>
       </c>
-      <c r="Z129" t="n">
+      <c r="AB129" t="n">
         <v>157.5903572853917</v>
       </c>
-      <c r="AA129" t="n">
-        <v>149.1738656692071</v>
-      </c>
-      <c r="AB129" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC129" t="n">
+        <v>126.6902196317506</v>
+      </c>
+      <c r="AD129" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE129" t="n">
         <v>385</v>
       </c>
     </row>
@@ -13374,38 +14112,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S130" t="n">
+        <v>142.4748093590183</v>
+      </c>
+      <c r="T130" t="n">
+        <v>141.9431042694247</v>
+      </c>
+      <c r="U130" t="n">
         <v>141.4506300739475</v>
       </c>
-      <c r="T130" t="n">
-        <v>124.079768523649</v>
-      </c>
-      <c r="U130" t="n">
+      <c r="V130" t="n">
+        <v>105.6947965375316</v>
+      </c>
+      <c r="W130" t="n">
         <v>141.450604047704</v>
       </c>
-      <c r="V130" t="n">
+      <c r="X130" t="n">
         <v>1076.07139584631</v>
       </c>
-      <c r="W130" t="n">
-        <v>943.924319331269</v>
-      </c>
-      <c r="X130" t="n">
+      <c r="Y130" t="n">
+        <v>804.0625</v>
+      </c>
+      <c r="Z130" t="n">
         <v>1076.071197854289</v>
       </c>
-      <c r="Y130" t="n">
+      <c r="AA130" t="n">
         <v>141.9804904030113</v>
       </c>
-      <c r="Z130" t="n">
+      <c r="AB130" t="n">
         <v>141.980464279276</v>
       </c>
-      <c r="AA130" t="n">
-        <v>124.5445592916061</v>
-      </c>
-      <c r="AB130" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC130" t="n">
+        <v>106.0907189851335</v>
+      </c>
+      <c r="AD130" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE130" t="n">
         <v>455</v>
       </c>
     </row>
@@ -13475,38 +14219,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S131" t="n">
-        <v>102.0036145991135</v>
+        <v>101.8529778512628</v>
       </c>
       <c r="T131" t="n">
-        <v>92.23047934723739</v>
+        <v>101.4728703293968</v>
       </c>
       <c r="U131" t="n">
         <v>102.0036145991135</v>
       </c>
       <c r="V131" t="n">
-        <v>775.9822058456383</v>
+        <v>75.00921044599016</v>
       </c>
       <c r="W131" t="n">
-        <v>701.6340655313586</v>
+        <v>102.0036145991135</v>
       </c>
       <c r="X131" t="n">
         <v>775.9822058456383</v>
       </c>
       <c r="Y131" t="n">
+        <v>570.625</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>775.9822058456383</v>
+      </c>
+      <c r="AA131" t="n">
         <v>102.3857102374923</v>
       </c>
-      <c r="Z131" t="n">
+      <c r="AB131" t="n">
         <v>102.3857102374923</v>
       </c>
-      <c r="AA131" t="n">
-        <v>92.57596576968098</v>
-      </c>
-      <c r="AB131" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC131" t="n">
+        <v>75.29018766686893</v>
+      </c>
+      <c r="AD131" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE131" t="n">
         <v>455</v>
       </c>
     </row>
@@ -13576,38 +14326,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
+        <v>162.4151227910532</v>
+      </c>
+      <c r="T132" t="n">
+        <v>161.8090019771108</v>
+      </c>
+      <c r="U132" t="n">
         <v>158.1853147488017</v>
       </c>
-      <c r="T132" t="n">
-        <v>144.3172704632135</v>
-      </c>
-      <c r="U132" t="n">
+      <c r="V132" t="n">
+        <v>112.5138156689853</v>
+      </c>
+      <c r="W132" t="n">
         <v>158.185312408025</v>
       </c>
-      <c r="V132" t="n">
+      <c r="X132" t="n">
         <v>1203.378820971982</v>
       </c>
-      <c r="W132" t="n">
-        <v>1097.879073362164</v>
-      </c>
-      <c r="X132" t="n">
+      <c r="Y132" t="n">
+        <v>855.9375</v>
+      </c>
+      <c r="Z132" t="n">
         <v>1203.37880316476</v>
       </c>
-      <c r="Y132" t="n">
+      <c r="AA132" t="n">
         <v>158.7778615821529</v>
       </c>
-      <c r="Z132" t="n">
+      <c r="AB132" t="n">
         <v>158.777859232608</v>
       </c>
-      <c r="AA132" t="n">
-        <v>144.857868948899</v>
-      </c>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC132" t="n">
+        <v>112.9352815003034</v>
+      </c>
+      <c r="AD132" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE132" t="n">
         <v>455</v>
       </c>
     </row>
@@ -13677,38 +14433,44 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S133" t="n">
+        <v>136.6013498961868</v>
+      </c>
+      <c r="T133" t="n">
+        <v>136.0915641080049</v>
+      </c>
+      <c r="U133" t="n">
         <v>138.3781947501238</v>
       </c>
-      <c r="T133" t="n">
-        <v>120.7694491830507</v>
-      </c>
-      <c r="U133" t="n">
+      <c r="V133" t="n">
+        <v>106.5471739289633</v>
+      </c>
+      <c r="W133" t="n">
         <v>138.3781957891426</v>
       </c>
-      <c r="V133" t="n">
+      <c r="X133" t="n">
         <v>1052.698154130624</v>
       </c>
-      <c r="W133" t="n">
-        <v>918.7413989605902</v>
-      </c>
-      <c r="X133" t="n">
+      <c r="Y133" t="n">
+        <v>810.546875</v>
+      </c>
+      <c r="Z133" t="n">
         <v>1052.698162034855</v>
       </c>
-      <c r="Y133" t="n">
+      <c r="AA133" t="n">
         <v>138.8965460347184</v>
       </c>
-      <c r="Z133" t="n">
+      <c r="AB133" t="n">
         <v>138.8965470776294</v>
       </c>
-      <c r="AA133" t="n">
-        <v>121.2218398161043</v>
-      </c>
-      <c r="AB133" t="inlineStr">
-        <is>
-          <t>pond_1\carapace\car</t>
-        </is>
-      </c>
       <c r="AC133" t="n">
+        <v>106.9462892995297</v>
+      </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
+      <c r="AE133" t="n">
         <v>455</v>
       </c>
     </row>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -665,28 +665,28 @@
         <v>87.32366386173278</v>
       </c>
       <c r="V2" t="n">
-        <v>98.63224100852604</v>
+        <v>74.76470624280951</v>
       </c>
       <c r="W2" t="n">
-        <v>87.38143681982831</v>
+        <v>87.38143681982832</v>
       </c>
       <c r="X2" t="n">
         <v>465.0141732779099</v>
       </c>
       <c r="Y2" t="n">
-        <v>525.234375</v>
+        <v>398.135471261432</v>
       </c>
       <c r="Z2" t="n">
-        <v>465.3218246424834</v>
+        <v>465.3218246424835</v>
       </c>
       <c r="AA2" t="n">
         <v>87.65076982969236</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.70875919968067</v>
+        <v>87.70875919968069</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.00170780870752</v>
+        <v>75.04476757467819</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -772,19 +772,19 @@
         <v>141.3920352264977</v>
       </c>
       <c r="V3" t="n">
-        <v>161.9517043720242</v>
+        <v>132.2260097199337</v>
       </c>
       <c r="W3" t="n">
-        <v>141.416330327534</v>
+        <v>141.4163303275339</v>
       </c>
       <c r="X3" t="n">
         <v>752.9379490196103</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.421875</v>
+        <v>704.1272190904584</v>
       </c>
       <c r="Z3" t="n">
-        <v>753.0673247904319</v>
+        <v>753.0673247904316</v>
       </c>
       <c r="AA3" t="n">
         <v>141.921676064951</v>
@@ -793,7 +793,7 @@
         <v>141.9460621730773</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.5583597352852</v>
+        <v>132.7213155166232</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>125.6708217425546</v>
       </c>
       <c r="V4" t="n">
-        <v>168.0401143108221</v>
+        <v>122.1976242665746</v>
       </c>
       <c r="W4" t="n">
         <v>125.6708222045455</v>
@@ -888,7 +888,7 @@
         <v>669.2196673092043</v>
       </c>
       <c r="Y4" t="n">
-        <v>894.84375</v>
+        <v>650.7242677634285</v>
       </c>
       <c r="Z4" t="n">
         <v>669.219669769389</v>
@@ -900,7 +900,7 @@
         <v>126.1415729051412</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.6695762666869</v>
+        <v>122.6553647048522</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>147.0266651612517</v>
       </c>
       <c r="V5" t="n">
-        <v>137.5980646168326</v>
+        <v>131.3789820895892</v>
       </c>
       <c r="W5" t="n">
         <v>147.0266808839757</v>
@@ -995,7 +995,7 @@
         <v>782.9433641037203</v>
       </c>
       <c r="Y5" t="n">
-        <v>732.734375</v>
+        <v>699.6166450278322</v>
       </c>
       <c r="Z5" t="n">
         <v>782.9434478300459</v>
@@ -1007,7 +1007,7 @@
         <v>147.5774285580837</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.1134936096784</v>
+        <v>131.8711150029997</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>116.6870542623771</v>
       </c>
       <c r="V6" t="n">
-        <v>104.7206509473239</v>
+        <v>97.83623074704535</v>
       </c>
       <c r="W6" t="n">
         <v>116.6870283124104</v>
@@ -1102,7 +1102,7 @@
         <v>621.3794940621174</v>
       </c>
       <c r="Y6" t="n">
-        <v>557.65625</v>
+        <v>520.995477577541</v>
       </c>
       <c r="Z6" t="n">
         <v>621.3793558738898</v>
@@ -1114,7 +1114,7 @@
         <v>117.1241265931799</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.1129243401092</v>
+        <v>98.20271577005931</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>168.3021610791668</v>
       </c>
       <c r="V7" t="n">
-        <v>132.7273366657943</v>
+        <v>138.3698287686405</v>
       </c>
       <c r="W7" t="n">
         <v>168.3021669144937</v>
@@ -1209,7 +1209,7 @@
         <v>896.2391960446696</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.796875</v>
+        <v>736.8441575394352</v>
       </c>
       <c r="Z7" t="n">
         <v>896.2392271188326</v>
@@ -1221,7 +1221,7 @@
         <v>168.9326104939733</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.224520384557</v>
+        <v>138.8881487150806</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>110.9267843045699</v>
       </c>
       <c r="V8" t="n">
-        <v>71.84323727781526</v>
+        <v>77.26073897646847</v>
       </c>
       <c r="W8" t="n">
         <v>110.9267843287265</v>
@@ -1316,7 +1316,7 @@
         <v>590.7050233192431</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.578125</v>
+        <v>411.4272932806598</v>
       </c>
       <c r="Z8" t="n">
         <v>590.7050234478816</v>
@@ -1328,7 +1328,7 @@
         <v>111.3423052947037</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.11235507054005</v>
+        <v>77.5501502046573</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>134.9675397275138</v>
       </c>
       <c r="V9" t="n">
-        <v>142.4687925678709</v>
+        <v>124.2640596500611</v>
       </c>
       <c r="W9" t="n">
         <v>135.0135774859187</v>
@@ -1423,7 +1423,7 @@
         <v>718.7263581280739</v>
       </c>
       <c r="Y9" t="n">
-        <v>758.671875</v>
+        <v>661.7284068362659</v>
       </c>
       <c r="Z9" t="n">
         <v>718.9715174493565</v>
@@ -1435,7 +1435,7 @@
         <v>135.5193252408589</v>
       </c>
       <c r="AC9" t="n">
-        <v>143.0024668347998</v>
+        <v>124.7295407546879</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>139.3493057089765</v>
       </c>
       <c r="V10" t="n">
-        <v>165.604750335303</v>
+        <v>128.653324736496</v>
       </c>
       <c r="W10" t="n">
         <v>139.3493049558066</v>
@@ -1530,7 +1530,7 @@
         <v>742.0600479351514</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.875</v>
+        <v>685.1020307224317</v>
       </c>
       <c r="Z10" t="n">
         <v>742.0600439243865</v>
@@ -1542,7 +1542,7 @@
         <v>139.8712939249621</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.2250896541262</v>
+        <v>129.1352476020526</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>147.4578185260966</v>
       </c>
       <c r="V11" t="n">
-        <v>102.2852869718048</v>
+        <v>128.0286754852751</v>
       </c>
       <c r="W11" t="n">
         <v>147.4736260571129</v>
@@ -1637,7 +1637,7 @@
         <v>785.2393331073433</v>
       </c>
       <c r="Y11" t="n">
-        <v>544.6875</v>
+        <v>681.7756614165692</v>
       </c>
       <c r="Z11" t="n">
         <v>785.3235110453966</v>
@@ -1649,7 +1649,7 @@
         <v>148.0260479444527</v>
       </c>
       <c r="AC11" t="n">
-        <v>102.6684377275486</v>
+        <v>128.508258475374</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>152.9408534137777</v>
       </c>
       <c r="V12" t="n">
-        <v>209.4413018946479</v>
+        <v>151.1919147648076</v>
       </c>
       <c r="W12" t="n">
         <v>152.9408576626033</v>
@@ -1744,7 +1744,7 @@
         <v>814.4374773742417</v>
       </c>
       <c r="Y12" t="n">
-        <v>1115.3125</v>
+        <v>805.124065361979</v>
       </c>
       <c r="Z12" t="n">
         <v>814.4375000000001</v>
@@ -1756,7 +1756,7 @@
         <v>153.5137592688107</v>
       </c>
       <c r="AC12" t="n">
-        <v>210.2258486802184</v>
+        <v>151.7582650006968</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>141.1509834792325</v>
       </c>
       <c r="V13" t="n">
-        <v>105.9383329350835</v>
+        <v>125.1488976079331</v>
       </c>
       <c r="W13" t="n">
         <v>141.1509732276523</v>
@@ -1851,7 +1851,7 @@
         <v>751.6543052280576</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.140625</v>
+        <v>666.4403276750007</v>
       </c>
       <c r="Z13" t="n">
         <v>751.6542506365545</v>
@@ -1863,7 +1863,7 @@
         <v>141.6797110712588</v>
       </c>
       <c r="AC13" t="n">
-        <v>106.3351676463896</v>
+        <v>125.6176932296553</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>123.4990785607441</v>
       </c>
       <c r="V14" t="n">
-        <v>75.49628324109401</v>
+        <v>102.8037492387761</v>
       </c>
       <c r="W14" t="n">
         <v>123.4990721164741</v>
@@ -1958,7 +1958,7 @@
         <v>657.65474532127</v>
       </c>
       <c r="Y14" t="n">
-        <v>402.03125</v>
+        <v>547.4484045680127</v>
       </c>
       <c r="Z14" t="n">
         <v>657.6547110043766</v>
@@ -1970,7 +1970,7 @@
         <v>123.9616876520606</v>
       </c>
       <c r="AC14" t="n">
-        <v>75.77908498938106</v>
+        <v>103.1888421038427</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>105.7583067909172</v>
       </c>
       <c r="V15" t="n">
-        <v>64.53714535125778</v>
+        <v>83.73573264114532</v>
       </c>
       <c r="W15" t="n">
         <v>105.7582989362429</v>
@@ -2065,7 +2065,7 @@
         <v>563.1819534910899</v>
       </c>
       <c r="Y15" t="n">
-        <v>343.671875</v>
+        <v>445.907795962349</v>
       </c>
       <c r="Z15" t="n">
         <v>563.1819116635403</v>
@@ -2077,7 +2077,7 @@
         <v>106.154459257666</v>
       </c>
       <c r="AC15" t="n">
-        <v>64.77889523285802</v>
+        <v>84.04939856704782</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>136.938687899711</v>
       </c>
       <c r="V16" t="n">
-        <v>125.4212447392368</v>
+        <v>117.9593776088418</v>
       </c>
       <c r="W16" t="n">
         <v>136.9386777893831</v>
@@ -2172,7 +2172,7 @@
         <v>729.2230757091629</v>
       </c>
       <c r="Y16" t="n">
-        <v>667.890625</v>
+        <v>628.1548440982227</v>
       </c>
       <c r="Z16" t="n">
         <v>729.223021869853</v>
@@ -2184,7 +2184,7 @@
         <v>137.4516367831826</v>
       </c>
       <c r="AC16" t="n">
-        <v>125.891060546875</v>
+        <v>118.4012419865636</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>134.2846534294568</v>
       </c>
       <c r="V17" t="n">
-        <v>85.23773914317064</v>
+        <v>109.584754508139</v>
       </c>
       <c r="W17" t="n">
         <v>134.2846534294568</v>
@@ -2279,7 +2279,7 @@
         <v>715.0898661018505</v>
       </c>
       <c r="Y17" t="n">
-        <v>453.90625</v>
+        <v>583.5584739338465</v>
       </c>
       <c r="Z17" t="n">
         <v>715.0898661018505</v>
@@ -2291,7 +2291,7 @@
         <v>134.7876707056411</v>
       </c>
       <c r="AC17" t="n">
-        <v>85.55703143962378</v>
+        <v>109.9952483606846</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2377,28 +2377,28 @@
         <v>157.1333107673816</v>
       </c>
       <c r="V18" t="n">
-        <v>178.9992522006584</v>
+        <v>149.0554807383192</v>
       </c>
       <c r="W18" t="n">
-        <v>157.2018141335658</v>
+        <v>157.201814133566</v>
       </c>
       <c r="X18" t="n">
         <v>836.7630647817501</v>
       </c>
       <c r="Y18" t="n">
-        <v>953.203125</v>
+        <v>793.7471709595254</v>
       </c>
       <c r="Z18" t="n">
-        <v>837.127857494105</v>
+        <v>837.1278574941061</v>
       </c>
       <c r="AA18" t="n">
         <v>157.7219168959409</v>
       </c>
       <c r="AB18" t="n">
-        <v>157.7906768690848</v>
+        <v>157.790676869085</v>
       </c>
       <c r="AC18" t="n">
-        <v>179.6697660232099</v>
+        <v>149.6138280997377</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>122.1976421021342</v>
       </c>
       <c r="V19" t="n">
-        <v>161.9517043720242</v>
+        <v>117.2700155373638</v>
       </c>
       <c r="W19" t="n">
         <v>122.1976242665745</v>
@@ -2493,7 +2493,7 @@
         <v>650.7243627409828</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.421875</v>
+        <v>624.4838674169756</v>
       </c>
       <c r="Z19" t="n">
         <v>650.7242677634282</v>
@@ -2505,7 +2505,7 @@
         <v>122.6553647048521</v>
       </c>
       <c r="AC19" t="n">
-        <v>162.5583597352852</v>
+        <v>117.709297631685</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>108.5841644566328</v>
       </c>
       <c r="V20" t="n">
-        <v>140.0334285923518</v>
+        <v>101.016643147634</v>
       </c>
       <c r="W20" t="n">
         <v>108.584159743086</v>
@@ -2600,7 +2600,7 @@
         <v>578.2301524340984</v>
       </c>
       <c r="Y20" t="n">
-        <v>745.703125</v>
+        <v>537.9317440801041</v>
       </c>
       <c r="Z20" t="n">
         <v>578.2301273336162</v>
@@ -2612,7 +2612,7 @@
         <v>108.9909054647735</v>
       </c>
       <c r="AC20" t="n">
-        <v>140.5579802222391</v>
+        <v>101.3950416867649</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>102.6187344619679</v>
       </c>
       <c r="V21" t="n">
-        <v>114.4621068494006</v>
+        <v>91.83728812922089</v>
       </c>
       <c r="W21" t="n">
         <v>102.6187362245841</v>
@@ -2707,7 +2707,7 @@
         <v>546.463167695475</v>
       </c>
       <c r="Y21" t="n">
-        <v>609.53125</v>
+        <v>489.0500321094459</v>
       </c>
       <c r="Z21" t="n">
         <v>546.4631770817224</v>
@@ -2719,7 +2719,7 @@
         <v>103.0031360488595</v>
       </c>
       <c r="AC21" t="n">
-        <v>114.8908707903519</v>
+        <v>92.18130169553048</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2805,28 +2805,28 @@
         <v>156.1622154830298</v>
       </c>
       <c r="V22" t="n">
-        <v>158.2986584087455</v>
+        <v>142.6150474863387</v>
       </c>
       <c r="W22" t="n">
-        <v>156.2302863745531</v>
+        <v>156.2302863745529</v>
       </c>
       <c r="X22" t="n">
         <v>831.5918082075649</v>
       </c>
       <c r="Y22" t="n">
-        <v>842.96875</v>
+        <v>759.4507086745327</v>
       </c>
       <c r="Z22" t="n">
-        <v>831.9542979147774</v>
+        <v>831.9542979147767</v>
       </c>
       <c r="AA22" t="n">
         <v>156.7471839829221</v>
       </c>
       <c r="AB22" t="n">
-        <v>156.815509861397</v>
+        <v>156.8155098613969</v>
       </c>
       <c r="AC22" t="n">
-        <v>158.8916298164442</v>
+        <v>143.1492696099945</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -2912,28 +2912,28 @@
         <v>124.8465588268868</v>
       </c>
       <c r="V23" t="n">
-        <v>164.3870683475434</v>
+        <v>114.1672449182469</v>
       </c>
       <c r="W23" t="n">
-        <v>124.870762099779</v>
+        <v>124.8707620997791</v>
       </c>
       <c r="X23" t="n">
         <v>664.8303194355309</v>
       </c>
       <c r="Y23" t="n">
-        <v>875.390625</v>
+        <v>607.9610573273278</v>
       </c>
       <c r="Z23" t="n">
-        <v>664.9592062050143</v>
+        <v>664.9592062050144</v>
       </c>
       <c r="AA23" t="n">
         <v>125.3142219168845</v>
       </c>
       <c r="AB23" t="n">
-        <v>125.3385158528874</v>
+        <v>125.3385158528875</v>
       </c>
       <c r="AC23" t="n">
-        <v>165.0028463478459</v>
+        <v>114.5949043350276</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>121.687104153988</v>
       </c>
       <c r="V24" t="n">
-        <v>93.76151305748772</v>
+        <v>109.5847545081391</v>
       </c>
       <c r="W24" t="n">
         <v>121.7397080829612</v>
@@ -3028,7 +3028,7 @@
         <v>648.0056565920962</v>
       </c>
       <c r="Y24" t="n">
-        <v>499.296875</v>
+        <v>583.5584739338469</v>
       </c>
       <c r="Z24" t="n">
         <v>648.2857819494262</v>
@@ -3040,7 +3040,7 @@
         <v>122.1957332116668</v>
       </c>
       <c r="AC24" t="n">
-        <v>94.11273458358617</v>
+        <v>109.9952483606847</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>117.9613100412668</v>
       </c>
       <c r="V25" t="n">
-        <v>140.0334285923518</v>
+        <v>107.007531963467</v>
       </c>
       <c r="W25" t="n">
         <v>117.9613083451017</v>
@@ -3135,7 +3135,7 @@
         <v>628.165134647506</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.703125</v>
+        <v>569.8343016079873</v>
       </c>
       <c r="Z25" t="n">
         <v>628.1651256151224</v>
@@ -3147,7 +3147,7 @@
         <v>118.4031799551741</v>
       </c>
       <c r="AC25" t="n">
-        <v>140.5579802222391</v>
+        <v>107.4083717905418</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>145.7489784629422</v>
       </c>
       <c r="V26" t="n">
-        <v>168.0401143108221</v>
+        <v>138.3117967366042</v>
       </c>
       <c r="W26" t="n">
         <v>146.1114276791162</v>
@@ -3242,7 +3242,7 @@
         <v>776.139453257019</v>
       </c>
       <c r="Y26" t="n">
-        <v>894.84375</v>
+        <v>736.5351265596571</v>
       </c>
       <c r="Z26" t="n">
         <v>778.0695603455308</v>
@@ -3254,7 +3254,7 @@
         <v>146.6587469035662</v>
       </c>
       <c r="AC26" t="n">
-        <v>168.6695762666869</v>
+        <v>138.8298993006857</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>134.8034961847935</v>
       </c>
       <c r="V27" t="n">
-        <v>131.5096546780347</v>
+        <v>117.1313970136564</v>
       </c>
       <c r="W27" t="n">
         <v>134.8034832174986</v>
@@ -3349,7 +3349,7 @@
         <v>717.8527968386568</v>
       </c>
       <c r="Y27" t="n">
-        <v>700.3125</v>
+        <v>623.7456989142789</v>
       </c>
       <c r="Z27" t="n">
         <v>717.8527277854857</v>
@@ -3361,7 +3361,7 @@
         <v>135.308443979704</v>
       </c>
       <c r="AC27" t="n">
-        <v>132.0022770782767</v>
+        <v>117.5701598564441</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>143.5985745948034</v>
       </c>
       <c r="V28" t="n">
-        <v>177.7815702128988</v>
+        <v>138.5388472684103</v>
       </c>
       <c r="W28" t="n">
         <v>143.5985764360046</v>
@@ -3456,7 +3456,7 @@
         <v>764.6881669420113</v>
       </c>
       <c r="Y28" t="n">
-        <v>946.71875</v>
+        <v>737.744211367497</v>
       </c>
       <c r="Z28" t="n">
         <v>764.6881767467377</v>
@@ -3468,7 +3468,7 @@
         <v>144.1364827636307</v>
       </c>
       <c r="AC28" t="n">
-        <v>178.4475227169296</v>
+        <v>139.0578003417432</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>148.6210637075173</v>
       </c>
       <c r="V29" t="n">
-        <v>160.7340223842646</v>
+        <v>144.0202353673912</v>
       </c>
       <c r="W29" t="n">
         <v>148.862475753204</v>
@@ -3563,7 +3563,7 @@
         <v>791.4338223492784</v>
       </c>
       <c r="Y29" t="n">
-        <v>855.9375</v>
+        <v>766.9335861891824</v>
       </c>
       <c r="Z29" t="n">
         <v>792.719384794552</v>
@@ -3575,7 +3575,7 @@
         <v>149.420100136684</v>
       </c>
       <c r="AC29" t="n">
-        <v>161.3361164290048</v>
+        <v>144.5597211884421</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>136.8604916232561</v>
       </c>
       <c r="V30" t="n">
-        <v>165.604750335303</v>
+        <v>122.1440286444172</v>
       </c>
       <c r="W30" t="n">
         <v>136.8610858329887</v>
@@ -3670,7 +3670,7 @@
         <v>728.8066665110024</v>
       </c>
       <c r="Y30" t="n">
-        <v>881.875</v>
+        <v>650.4388614620131</v>
       </c>
       <c r="Z30" t="n">
         <v>728.8098307844116</v>
@@ -3682,7 +3682,7 @@
         <v>137.3737541748517</v>
       </c>
       <c r="AC30" t="n">
-        <v>166.2250896541262</v>
+        <v>122.601568318697</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>146.0705252385384</v>
       </c>
       <c r="V31" t="n">
-        <v>193.6114360537733</v>
+        <v>139.8265451330602</v>
       </c>
       <c r="W31" t="n">
         <v>146.0705245200236</v>
@@ -3777,7 +3777,7 @@
         <v>777.8517475127978</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.015625</v>
+        <v>744.6014334706605</v>
       </c>
       <c r="Z31" t="n">
         <v>777.8517436865782</v>
@@ -3789,7 +3789,7 @@
         <v>146.6176905252103</v>
       </c>
       <c r="AC31" t="n">
-        <v>194.3366856985741</v>
+        <v>140.350321797592</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>135.1628755053834</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5913788983623</v>
+        <v>116.601605581278</v>
       </c>
       <c r="W32" t="n">
         <v>135.1628673868522</v>
@@ -3884,7 +3884,7 @@
         <v>719.7665561825377</v>
       </c>
       <c r="Y32" t="n">
-        <v>583.59375</v>
+        <v>620.9244645083653</v>
       </c>
       <c r="Z32" t="n">
         <v>719.7665129499028</v>
@@ -3896,7 +3896,7 @@
         <v>135.6691743672691</v>
       </c>
       <c r="AC32" t="n">
-        <v>110.0018975652306</v>
+        <v>117.038383876789</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>143.7546110100494</v>
       </c>
       <c r="V33" t="n">
-        <v>182.6522981639371</v>
+        <v>129.7936318496911</v>
       </c>
       <c r="W33" t="n">
         <v>143.7546155676683</v>
@@ -3991,7 +3991,7 @@
         <v>765.5190888413919</v>
       </c>
       <c r="Y33" t="n">
-        <v>972.65625</v>
+        <v>691.1743706366724</v>
       </c>
       <c r="Z33" t="n">
         <v>765.5191131115297</v>
@@ -4003,7 +4003,7 @@
         <v>144.2931064027342</v>
       </c>
       <c r="AC33" t="n">
-        <v>183.336495942051</v>
+        <v>130.2798261949994</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>145.198923482512</v>
       </c>
       <c r="V34" t="n">
-        <v>146.1218385311497</v>
+        <v>128.1993362163265</v>
       </c>
       <c r="W34" t="n">
         <v>145.1989409503072</v>
@@ -4098,7 +4098,7 @@
         <v>773.2103118230642</v>
       </c>
       <c r="Y34" t="n">
-        <v>778.125</v>
+        <v>682.6844604207715</v>
       </c>
       <c r="Z34" t="n">
         <v>773.2104048422069</v>
@@ -4110,7 +4110,7 @@
         <v>145.74284208805</v>
       </c>
       <c r="AC34" t="n">
-        <v>146.6691967536408</v>
+        <v>128.6795584849571</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>149.0554916567512</v>
       </c>
       <c r="V35" t="n">
-        <v>172.9108422618605</v>
+        <v>140.6183461625234</v>
       </c>
       <c r="W35" t="n">
         <v>149.0554807383193</v>
@@ -4205,7 +4205,7 @@
         <v>793.7472291021342</v>
       </c>
       <c r="Y35" t="n">
-        <v>920.78125</v>
+        <v>748.8179159776178</v>
       </c>
       <c r="Z35" t="n">
         <v>793.7471709595259</v>
@@ -4217,7 +4217,7 @@
         <v>149.6138280997378</v>
       </c>
       <c r="AC35" t="n">
-        <v>173.5585494918082</v>
+        <v>141.1450888368481</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>118.6239252998188</v>
       </c>
       <c r="V36" t="n">
-        <v>125.4212447392368</v>
+        <v>110.8262623198196</v>
       </c>
       <c r="W36" t="n">
         <v>118.6239368656947</v>
@@ -4312,7 +4312,7 @@
         <v>631.6936797523559</v>
       </c>
       <c r="Y36" t="n">
-        <v>667.890625</v>
+        <v>590.1697257198557</v>
       </c>
       <c r="Z36" t="n">
         <v>631.6937413427192</v>
@@ -4324,7 +4324,7 @@
         <v>119.0682906178812</v>
       </c>
       <c r="AC36" t="n">
-        <v>125.891060546875</v>
+        <v>111.2414067401095</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>152.4799242783063</v>
       </c>
       <c r="V37" t="n">
-        <v>192.3937540660137</v>
+        <v>149.4562851418366</v>
       </c>
       <c r="W37" t="n">
         <v>152.4799258306665</v>
@@ -4419,7 +4419,7 @@
         <v>811.982947051163</v>
       </c>
       <c r="Y37" t="n">
-        <v>1024.53125</v>
+        <v>795.8815263003974</v>
       </c>
       <c r="Z37" t="n">
         <v>811.9829553177594</v>
@@ -4431,7 +4431,7 @@
         <v>153.051100830976</v>
       </c>
       <c r="AC37" t="n">
-        <v>193.1144423922937</v>
+        <v>150.0161338776429</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>160.4801055532219</v>
       </c>
       <c r="V38" t="n">
-        <v>137.5980646168326</v>
+        <v>143.9453970158842</v>
       </c>
       <c r="W38" t="n">
         <v>160.4801011700442</v>
@@ -4526,7 +4526,7 @@
         <v>854.5853473297266</v>
       </c>
       <c r="Y38" t="n">
-        <v>732.734375</v>
+        <v>766.5350585436796</v>
       </c>
       <c r="Z38" t="n">
         <v>854.5853239885195</v>
@@ -4538,7 +4538,7 @@
         <v>161.0812440505651</v>
       </c>
       <c r="AC38" t="n">
-        <v>138.1134936096784</v>
+        <v>144.4846024997352</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>119.4424949382637</v>
       </c>
       <c r="V39" t="n">
-        <v>105.9383329350835</v>
+        <v>100.5152574056096</v>
       </c>
       <c r="W39" t="n">
         <v>119.4425248700071</v>
@@ -4633,7 +4633,7 @@
         <v>636.0527099036168</v>
       </c>
       <c r="Y39" t="n">
-        <v>564.140625</v>
+        <v>535.2617750704439</v>
       </c>
       <c r="Z39" t="n">
         <v>636.0528692955191</v>
@@ -4645,7 +4645,7 @@
         <v>119.8899449733941</v>
       </c>
       <c r="AC39" t="n">
-        <v>106.3351676463896</v>
+        <v>100.8917778024225</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>139.2319610626539</v>
       </c>
       <c r="V40" t="n">
-        <v>129.0742907025156</v>
+        <v>126.679122586973</v>
       </c>
       <c r="W40" t="n">
         <v>139.2319544227588</v>
@@ -4740,7 +4740,7 @@
         <v>741.4351666454161</v>
       </c>
       <c r="Y40" t="n">
-        <v>687.34375</v>
+        <v>674.5890501642925</v>
       </c>
       <c r="Z40" t="n">
         <v>741.4351312867839</v>
@@ -4752,7 +4752,7 @@
         <v>139.7535038082092</v>
       </c>
       <c r="AC40" t="n">
-        <v>129.557790465716</v>
+        <v>127.1536502829215</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>172.5277916064204</v>
       </c>
       <c r="V41" t="n">
-        <v>142.4687925678709</v>
+        <v>164.928113212401</v>
       </c>
       <c r="W41" t="n">
         <v>172.5277845472153</v>
@@ -4847,7 +4847,7 @@
         <v>918.7414365521234</v>
       </c>
       <c r="Y41" t="n">
-        <v>758.671875</v>
+        <v>878.2717859523898</v>
       </c>
       <c r="Z41" t="n">
         <v>918.7413989605902</v>
@@ -4859,7 +4859,7 @@
         <v>173.1740568801491</v>
       </c>
       <c r="AC41" t="n">
-        <v>143.0024668347998</v>
+        <v>165.5459179142458</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>147.4310698131381</v>
       </c>
       <c r="V42" t="n">
-        <v>178.9992522006584</v>
+        <v>140.5643479812306</v>
       </c>
       <c r="W42" t="n">
         <v>147.5250647667818</v>
@@ -4954,7 +4954,7 @@
         <v>785.0968914129326</v>
       </c>
       <c r="Y42" t="n">
-        <v>953.203125</v>
+        <v>748.5303659765998</v>
       </c>
       <c r="Z42" t="n">
         <v>785.597431400926</v>
@@ -4966,7 +4966,7 @@
         <v>148.0776793385346</v>
       </c>
       <c r="AC42" t="n">
-        <v>179.6697660232099</v>
+        <v>141.0908883836101</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>158.27608948495</v>
       </c>
       <c r="V43" t="n">
-        <v>120.5505167881985</v>
+        <v>148.5047810309958</v>
       </c>
       <c r="W43" t="n">
         <v>158.2760865955052</v>
@@ -5061,7 +5061,7 @@
         <v>842.8485664326093</v>
       </c>
       <c r="Y43" t="n">
-        <v>641.953125</v>
+        <v>790.8145962392197</v>
       </c>
       <c r="Z43" t="n">
         <v>842.8485510457975</v>
@@ -5073,7 +5073,7 @@
         <v>158.8689734513827</v>
       </c>
       <c r="AC43" t="n">
-        <v>121.0020873217536</v>
+        <v>149.0610655247693</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>122.4260412324264</v>
       </c>
       <c r="V44" t="n">
-        <v>135.1627006413134</v>
+        <v>109.3538629453479</v>
       </c>
       <c r="W44" t="n">
         <v>122.4260353007626</v>
@@ -5168,7 +5168,7 @@
         <v>651.9406290776586</v>
       </c>
       <c r="Y44" t="n">
-        <v>719.765625</v>
+        <v>582.3289349470473</v>
       </c>
       <c r="Z44" t="n">
         <v>651.9405974904848</v>
@@ -5180,7 +5180,7 @@
         <v>122.8846313446015</v>
       </c>
       <c r="AC44" t="n">
-        <v>135.6690069971177</v>
+        <v>109.7634919005128</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>145.7062345154444</v>
       </c>
       <c r="V45" t="n">
-        <v>135.1627006413134</v>
+        <v>134.9675463389499</v>
       </c>
       <c r="W45" t="n">
         <v>145.7062615500503</v>
@@ -5275,7 +5275,7 @@
         <v>775.9118340696264</v>
       </c>
       <c r="Y45" t="n">
-        <v>719.765625</v>
+        <v>718.7263933351568</v>
       </c>
       <c r="Z45" t="n">
         <v>775.911978033752</v>
@@ -5287,7 +5287,7 @@
         <v>146.2520630615119</v>
       </c>
       <c r="AC45" t="n">
-        <v>135.6690069971177</v>
+        <v>135.4731216656819</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>158.1850441785413</v>
       </c>
       <c r="V46" t="n">
-        <v>204.5705739436096</v>
+        <v>156.0132407271587</v>
       </c>
       <c r="W46" t="n">
         <v>158.1850472503425</v>
@@ -5382,7 +5382,7 @@
         <v>842.3637338452188</v>
       </c>
       <c r="Y46" t="n">
-        <v>1089.375</v>
+        <v>830.798490911003</v>
       </c>
       <c r="Z46" t="n">
         <v>842.3637502031114</v>
@@ -5394,7 +5394,7 @@
         <v>158.7775930816705</v>
       </c>
       <c r="AC46" t="n">
-        <v>205.3368754550971</v>
+        <v>156.5976511820771</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>138.4603255233197</v>
       </c>
       <c r="V47" t="n">
-        <v>163.1693863597838</v>
+        <v>125.3260165936287</v>
       </c>
       <c r="W47" t="n">
         <v>138.4603266200077</v>
@@ -5489,7 +5489,7 @@
         <v>737.3260689904721</v>
       </c>
       <c r="Y47" t="n">
-        <v>868.90625</v>
+        <v>667.3835180435984</v>
       </c>
       <c r="Z47" t="n">
         <v>737.3260748305325</v>
@@ -5501,7 +5501,7 @@
         <v>138.978985562614</v>
       </c>
       <c r="AC47" t="n">
-        <v>163.7806030415655</v>
+        <v>125.7954756858776</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>138.9141346290938</v>
       </c>
       <c r="V48" t="n">
-        <v>180.216934188418</v>
+        <v>133.8208017725088</v>
       </c>
       <c r="W48" t="n">
         <v>138.9141517008288</v>
@@ -5596,7 +5596,7 @@
         <v>739.7426838782958</v>
       </c>
       <c r="Y48" t="n">
-        <v>959.6875</v>
+        <v>712.6197728276979</v>
       </c>
       <c r="Z48" t="n">
         <v>739.7427747883465</v>
@@ -5608,7 +5608,7 @@
         <v>139.4345106281332</v>
       </c>
       <c r="AC48" t="n">
-        <v>180.8920093294903</v>
+        <v>134.3220815054142</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>123.6587992973366</v>
       </c>
       <c r="V49" t="n">
-        <v>96.19687703300687</v>
+        <v>115.7232480753053</v>
       </c>
       <c r="W49" t="n">
         <v>123.6587948116768</v>
@@ -5703,7 +5703,7 @@
         <v>658.5052868926763</v>
       </c>
       <c r="Y49" t="n">
-        <v>512.265625</v>
+        <v>616.2470532383908</v>
       </c>
       <c r="Z49" t="n">
         <v>658.5052630057334</v>
@@ -5715,7 +5715,7 @@
         <v>124.1220086529746</v>
       </c>
       <c r="AC49" t="n">
-        <v>96.55722119614686</v>
+        <v>116.1567361288648</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>96.36795249673628</v>
       </c>
       <c r="V50" t="n">
-        <v>113.244424861641</v>
+        <v>91.75567240425681</v>
       </c>
       <c r="W50" t="n">
         <v>96.36796488922003</v>
@@ -5810,7 +5810,7 @@
         <v>513.1766325301035</v>
       </c>
       <c r="Y50" t="n">
-        <v>603.046875</v>
+        <v>488.6154137346288</v>
       </c>
       <c r="Z50" t="n">
         <v>513.1766985223023</v>
@@ -5822,7 +5822,7 @@
         <v>96.72894993086118</v>
       </c>
       <c r="AC50" t="n">
-        <v>113.6686274840716</v>
+        <v>92.09938024598344</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>166.1877603330804</v>
       </c>
       <c r="V51" t="n">
-        <v>113.244424861641</v>
+        <v>133.9333992494458</v>
       </c>
       <c r="W51" t="n">
         <v>166.1877816037669</v>
@@ -5917,7 +5917,7 @@
         <v>884.9796328124585</v>
       </c>
       <c r="Y51" t="n">
-        <v>603.046875</v>
+        <v>713.2193745889564</v>
       </c>
       <c r="Z51" t="n">
         <v>884.9797460826793</v>
@@ -5929,7 +5929,7 @@
         <v>166.8103049011245</v>
       </c>
       <c r="AC51" t="n">
-        <v>113.6686274840716</v>
+        <v>134.4351007615695</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>128.282798228615</v>
       </c>
       <c r="V52" t="n">
-        <v>110.8090608861218</v>
+        <v>115.3309391323641</v>
       </c>
       <c r="W52" t="n">
         <v>128.282806079304</v>
@@ -6024,7 +6024,7 @@
         <v>683.128910606759</v>
       </c>
       <c r="Y52" t="n">
-        <v>590.078125</v>
+        <v>614.1579377489149</v>
       </c>
       <c r="Z52" t="n">
         <v>683.1289524130859</v>
@@ -6036,7 +6036,7 @@
         <v>128.7633410179385</v>
       </c>
       <c r="AC52" t="n">
-        <v>111.2241408715109</v>
+        <v>115.7629576347063</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>169.5358709360638</v>
       </c>
       <c r="V53" t="n">
-        <v>121.7681987759581</v>
+        <v>110.6468593319974</v>
       </c>
       <c r="W53" t="n">
         <v>169.5358441687618</v>
@@ -6131,7 +6131,7 @@
         <v>902.8089223227398</v>
       </c>
       <c r="Y53" t="n">
-        <v>648.4375</v>
+        <v>589.2143726302529</v>
       </c>
       <c r="Z53" t="n">
         <v>902.8087797820552</v>
@@ -6143,7 +6143,7 @@
         <v>170.1709089834777</v>
       </c>
       <c r="AC53" t="n">
-        <v>122.224330628034</v>
+        <v>111.0613317261103</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>150.6526420559427</v>
       </c>
       <c r="V54" t="n">
-        <v>97.41455902076645</v>
+        <v>120.0275454120225</v>
       </c>
       <c r="W54" t="n">
         <v>150.6526784838332</v>
@@ -6238,7 +6238,7 @@
         <v>802.2523414581214</v>
       </c>
       <c r="Y54" t="n">
-        <v>518.75</v>
+        <v>639.1682086166754</v>
       </c>
       <c r="Z54" t="n">
         <v>802.2525354431725</v>
@@ -6250,7 +6250,7 @@
         <v>151.2170087929598</v>
       </c>
       <c r="AC54" t="n">
-        <v>97.77946450242719</v>
+        <v>120.4771569455695</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>102.0519678535106</v>
       </c>
       <c r="V55" t="n">
-        <v>58.44873541245988</v>
+        <v>75.2293353344853</v>
       </c>
       <c r="W55" t="n">
         <v>102.0519681292183</v>
@@ -6345,7 +6345,7 @@
         <v>543.4450338447174</v>
       </c>
       <c r="Y55" t="n">
-        <v>311.25</v>
+        <v>400.6097045149587</v>
       </c>
       <c r="Z55" t="n">
         <v>543.44503531291</v>
@@ -6357,7 +6357,7 @@
         <v>102.4342448952269</v>
       </c>
       <c r="AC55" t="n">
-        <v>58.66767870145632</v>
+        <v>75.51113712182794</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>153.7109530585857</v>
       </c>
       <c r="V56" t="n">
-        <v>202.1352099680904</v>
+        <v>147.1640940312401</v>
       </c>
       <c r="W56" t="n">
         <v>153.7109447850978</v>
@@ -6452,7 +6452,7 @@
         <v>818.53839611534</v>
       </c>
       <c r="Y56" t="n">
-        <v>1076.40625</v>
+        <v>783.6751974869755</v>
       </c>
       <c r="Z56" t="n">
         <v>818.5383520575333</v>
@@ -6464,7 +6464,7 @@
         <v>154.2867310629105</v>
       </c>
       <c r="AC56" t="n">
-        <v>202.8923888425364</v>
+        <v>147.7153564416585</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -6550,28 +6550,28 @@
         <v>151.4488057950835</v>
       </c>
       <c r="V57" t="n">
-        <v>149.7748844944284</v>
+        <v>134.8997502706081</v>
       </c>
       <c r="W57" t="n">
-        <v>151.4513975732121</v>
+        <v>151.4513975732123</v>
       </c>
       <c r="X57" t="n">
         <v>806.4920561766497</v>
       </c>
       <c r="Y57" t="n">
-        <v>797.578125</v>
+        <v>718.3653671106804</v>
       </c>
       <c r="Z57" t="n">
-        <v>806.5058578600709</v>
+        <v>806.5058578600721</v>
       </c>
       <c r="AA57" t="n">
         <v>152.0161183198347</v>
       </c>
       <c r="AB57" t="n">
-        <v>152.0187198065126</v>
+        <v>152.0187198065128</v>
       </c>
       <c r="AC57" t="n">
-        <v>150.3359266724818</v>
+        <v>135.4050716398494</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>128.4136371924826</v>
       </c>
       <c r="V58" t="n">
-        <v>105.9383329350835</v>
+        <v>117.1573194811519</v>
       </c>
       <c r="W58" t="n">
         <v>128.4136733627494</v>
@@ -6666,7 +6666,7 @@
         <v>683.8256515578918</v>
       </c>
       <c r="Y58" t="n">
-        <v>564.140625</v>
+        <v>623.8837407033963</v>
       </c>
       <c r="Z58" t="n">
         <v>683.8258441710507</v>
@@ -6678,7 +6678,7 @@
         <v>128.894698517524</v>
       </c>
       <c r="AC58" t="n">
-        <v>106.3351676463896</v>
+        <v>117.5961794269865</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>132.1131426406206</v>
       </c>
       <c r="V59" t="n">
-        <v>137.5980646168326</v>
+        <v>120.491413973953</v>
       </c>
       <c r="W59" t="n">
         <v>132.1164615225414</v>
@@ -6773,7 +6773,7 @@
         <v>703.5261816481888</v>
       </c>
       <c r="Y59" t="n">
-        <v>732.734375</v>
+        <v>641.6383919128922</v>
       </c>
       <c r="Z59" t="n">
         <v>703.5438552897234</v>
@@ -6785,7 +6785,7 @@
         <v>132.6113569623176</v>
       </c>
       <c r="AC59" t="n">
-        <v>138.1134936096784</v>
+        <v>120.9427631141033</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>134.0967986485918</v>
       </c>
       <c r="V60" t="n">
-        <v>174.12852424962</v>
+        <v>129.9771983471983</v>
       </c>
       <c r="W60" t="n">
         <v>134.0967931066156</v>
@@ -6880,7 +6880,7 @@
         <v>714.0895056982999</v>
       </c>
       <c r="Y60" t="n">
-        <v>927.265625</v>
+        <v>692.1518951621549</v>
       </c>
       <c r="Z60" t="n">
         <v>714.0894761862829</v>
@@ -6892,7 +6892,7 @@
         <v>134.5991066762669</v>
       </c>
       <c r="AC60" t="n">
-        <v>174.7807927980886</v>
+        <v>130.4640803147868</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>148.6912733137501</v>
       </c>
       <c r="V61" t="n">
-        <v>191.1760720782542</v>
+        <v>138.0784969123962</v>
       </c>
       <c r="W61" t="n">
         <v>148.6912866347793</v>
@@ -6987,7 +6987,7 @@
         <v>791.80770109594</v>
       </c>
       <c r="Y61" t="n">
-        <v>1018.046875</v>
+        <v>735.2927631488444</v>
       </c>
       <c r="Z61" t="n">
         <v>791.8077720328102</v>
@@ -6999,7 +6999,7 @@
         <v>149.2482697604398</v>
       </c>
       <c r="AC61" t="n">
-        <v>191.8921990860134</v>
+        <v>138.5957255579837</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>139.9372559195478</v>
       </c>
       <c r="V62" t="n">
-        <v>97.41455902076645</v>
+        <v>123.0907255124977</v>
       </c>
       <c r="W62" t="n">
         <v>139.9372601068099</v>
@@ -7094,7 +7094,7 @@
         <v>745.1909882668612</v>
       </c>
       <c r="Y62" t="n">
-        <v>518.75</v>
+        <v>655.4801920932184</v>
       </c>
       <c r="Z62" t="n">
         <v>745.1910105647829</v>
@@ -7106,7 +7106,7 @@
         <v>140.4614514988859</v>
       </c>
       <c r="AC62" t="n">
-        <v>97.77946450242719</v>
+        <v>123.5518114213456</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>112.8503285653132</v>
       </c>
       <c r="V63" t="n">
-        <v>60.88409938797903</v>
+        <v>74.09656429725177</v>
       </c>
       <c r="W63" t="n">
         <v>112.850341470895</v>
@@ -7201,7 +7201,7 @@
         <v>600.9482415331438</v>
       </c>
       <c r="Y63" t="n">
-        <v>324.21875</v>
+        <v>394.5774955569565</v>
       </c>
       <c r="Z63" t="n">
         <v>600.9483102576817</v>
@@ -7213,7 +7213,7 @@
         <v>113.2730678951992</v>
       </c>
       <c r="AC63" t="n">
-        <v>61.11216531401699</v>
+        <v>74.37412283425166</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>155.1349261705808</v>
       </c>
       <c r="V64" t="n">
-        <v>178.9992522006584</v>
+        <v>143.1672248336066</v>
       </c>
       <c r="W64" t="n">
         <v>155.1349103138343</v>
@@ -7308,7 +7308,7 @@
         <v>826.1213083542591</v>
       </c>
       <c r="Y64" t="n">
-        <v>953.203125</v>
+        <v>762.391152092587</v>
       </c>
       <c r="Z64" t="n">
         <v>826.1212239142401</v>
@@ -7320,7 +7320,7 @@
         <v>155.7160306282875</v>
       </c>
       <c r="AC64" t="n">
-        <v>179.6697660232099</v>
+        <v>143.7035153600033</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -7406,19 +7406,19 @@
         <v>154.7858780452867</v>
       </c>
       <c r="V65" t="n">
-        <v>183.8699801516967</v>
+        <v>145.6748989141434</v>
       </c>
       <c r="W65" t="n">
-        <v>155.2819605154789</v>
+        <v>155.2819605154788</v>
       </c>
       <c r="X65" t="n">
         <v>824.2625644784316</v>
       </c>
       <c r="Y65" t="n">
-        <v>979.140625</v>
+        <v>775.7449663720431</v>
       </c>
       <c r="Z65" t="n">
-        <v>826.9042926143389</v>
+        <v>826.9042926143387</v>
       </c>
       <c r="AA65" t="n">
         <v>155.3656909187439</v>
@@ -7427,7 +7427,7 @@
         <v>155.8636316657126</v>
       </c>
       <c r="AC65" t="n">
-        <v>184.5587392483313</v>
+        <v>146.2205829442155</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -7513,28 +7513,28 @@
         <v>128.0406726662717</v>
       </c>
       <c r="V66" t="n">
-        <v>175.3462062373796</v>
+        <v>126.2588893153503</v>
       </c>
       <c r="W66" t="n">
-        <v>128.040682502547</v>
+        <v>128.0406825025471</v>
       </c>
       <c r="X66" t="n">
         <v>681.8395485573058</v>
       </c>
       <c r="Y66" t="n">
-        <v>933.75</v>
+        <v>672.3512326158107</v>
       </c>
       <c r="Z66" t="n">
-        <v>681.8396009372365</v>
+        <v>681.8396009372368</v>
       </c>
       <c r="AA66" t="n">
         <v>128.5203005966459</v>
       </c>
       <c r="AB66" t="n">
-        <v>128.520310469767</v>
+        <v>128.5203104697671</v>
       </c>
       <c r="AC66" t="n">
-        <v>176.0030361043689</v>
+        <v>126.731842858257</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>127.8649067072094</v>
       </c>
       <c r="V67" t="n">
-        <v>166.8224323230625</v>
+        <v>120.6066597640275</v>
       </c>
       <c r="W67" t="n">
         <v>127.8649118766067</v>
@@ -7629,7 +7629,7 @@
         <v>680.9035632982227</v>
       </c>
       <c r="Y67" t="n">
-        <v>888.359375</v>
+        <v>642.2520964166349</v>
       </c>
       <c r="Z67" t="n">
         <v>680.9035908261903</v>
@@ -7641,7 +7641,7 @@
         <v>128.3438814241247</v>
       </c>
       <c r="AC67" t="n">
-        <v>167.4473329604066</v>
+        <v>121.0584406037201</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>137.5223119684616</v>
       </c>
       <c r="V68" t="n">
-        <v>154.6456124454668</v>
+        <v>126.1175473065487</v>
       </c>
       <c r="W68" t="n">
         <v>137.5223104096348</v>
@@ -7736,7 +7736,7 @@
         <v>732.3309785596989</v>
       </c>
       <c r="Y68" t="n">
-        <v>823.515625</v>
+        <v>671.5985610664769</v>
       </c>
       <c r="Z68" t="n">
         <v>732.3309702586666</v>
@@ -7748,7 +7748,7 @@
         <v>138.0374556345742</v>
       </c>
       <c r="AC68" t="n">
-        <v>155.2248998976032</v>
+        <v>126.5899713960111</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7834,19 +7834,19 @@
         <v>142.2383720902759</v>
       </c>
       <c r="V69" t="n">
-        <v>175.3462062373796</v>
+        <v>127.6272003643167</v>
       </c>
       <c r="W69" t="n">
-        <v>142.2391787457396</v>
+        <v>142.2391787457397</v>
       </c>
       <c r="X69" t="n">
         <v>757.4448446263683</v>
       </c>
       <c r="Y69" t="n">
-        <v>933.75</v>
+        <v>679.6377343850179</v>
       </c>
       <c r="Z69" t="n">
-        <v>757.4491402114019</v>
+        <v>757.4491402114023</v>
       </c>
       <c r="AA69" t="n">
         <v>142.7711832244635</v>
@@ -7855,7 +7855,7 @@
         <v>142.7719929015803</v>
       </c>
       <c r="AC69" t="n">
-        <v>176.0030361043689</v>
+        <v>128.1052794675853</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>151.1171136528311</v>
       </c>
       <c r="V70" t="n">
-        <v>198.4821640048116</v>
+        <v>147.3349073440194</v>
       </c>
       <c r="W70" t="n">
         <v>151.1171114806128</v>
@@ -7950,7 +7950,7 @@
         <v>804.7257360236555</v>
       </c>
       <c r="Y70" t="n">
-        <v>1056.953125</v>
+        <v>784.584809016248</v>
       </c>
       <c r="Z70" t="n">
         <v>804.7257244562038</v>
@@ -7962,7 +7962,7 @@
         <v>151.683181510661</v>
       </c>
       <c r="AC70" t="n">
-        <v>199.2256589236954</v>
+        <v>147.886809604526</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>160.6682516331869</v>
       </c>
       <c r="V71" t="n">
-        <v>193.6114360537733</v>
+        <v>153.3497314802519</v>
       </c>
       <c r="W71" t="n">
         <v>160.6682393357454</v>
@@ -8057,7 +8057,7 @@
         <v>855.5872589532352</v>
       </c>
       <c r="Y71" t="n">
-        <v>1031.015625</v>
+        <v>816.6148264185282</v>
       </c>
       <c r="Z71" t="n">
         <v>855.5871934671532</v>
@@ -8069,7 +8069,7 @@
         <v>161.2700869635717</v>
       </c>
       <c r="AC71" t="n">
-        <v>194.3366856985741</v>
+        <v>153.9241646880891</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>143.9960367554822</v>
       </c>
       <c r="V72" t="n">
-        <v>94.97919504524729</v>
+        <v>118.5080041052441</v>
       </c>
       <c r="W72" t="n">
         <v>143.9960184935385</v>
@@ -8164,7 +8164,7 @@
         <v>766.8047242402704</v>
       </c>
       <c r="Y72" t="n">
-        <v>505.78125</v>
+        <v>631.0763785985023</v>
       </c>
       <c r="Z72" t="n">
         <v>766.804626992145</v>
@@ -8176,7 +8176,7 @@
         <v>144.5354136005308</v>
       </c>
       <c r="AC72" t="n">
-        <v>95.33497788986651</v>
+        <v>118.951923584564</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -8262,28 +8262,28 @@
         <v>136.1843117549759</v>
       </c>
       <c r="V73" t="n">
-        <v>127.856608714756</v>
+        <v>124.7332851746996</v>
       </c>
       <c r="W73" t="n">
-        <v>136.197274245338</v>
+        <v>136.1972742453382</v>
       </c>
       <c r="X73" t="n">
         <v>725.2058874262708</v>
       </c>
       <c r="Y73" t="n">
-        <v>680.859375</v>
+        <v>664.2271169197797</v>
       </c>
       <c r="Z73" t="n">
-        <v>725.2749150125262</v>
+        <v>725.2749150125272</v>
       </c>
       <c r="AA73" t="n">
         <v>136.69444496684</v>
       </c>
       <c r="AB73" t="n">
-        <v>136.7074560134327</v>
+        <v>136.7074560134329</v>
       </c>
       <c r="AC73" t="n">
-        <v>128.3355471594357</v>
+        <v>125.2005239525921</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>123.2664893679007</v>
       </c>
       <c r="V74" t="n">
-        <v>140.0334285923518</v>
+        <v>115.3859311676189</v>
       </c>
       <c r="W74" t="n">
         <v>123.2664907229534</v>
@@ -8378,7 +8378,7 @@
         <v>656.4161661499392</v>
       </c>
       <c r="Y74" t="n">
-        <v>745.703125</v>
+        <v>614.4507802005483</v>
       </c>
       <c r="Z74" t="n">
         <v>656.4161733658381</v>
@@ -8390,7 +8390,7 @@
         <v>123.7282350312175</v>
       </c>
       <c r="AC74" t="n">
-        <v>140.5579802222391</v>
+        <v>115.8181556647869</v>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
@@ -8476,28 +8476,28 @@
         <v>133.9093135460643</v>
       </c>
       <c r="V75" t="n">
-        <v>149.7748844944284</v>
+        <v>122.2897305109332</v>
       </c>
       <c r="W75" t="n">
-        <v>133.9148791591712</v>
+        <v>133.9148791591713</v>
       </c>
       <c r="X75" t="n">
         <v>713.0911138982055</v>
       </c>
       <c r="Y75" t="n">
-        <v>797.578125</v>
+        <v>651.2147500357024</v>
       </c>
       <c r="Z75" t="n">
-        <v>713.1207517863018</v>
+        <v>713.1207517863028</v>
       </c>
       <c r="AA75" t="n">
         <v>134.4109248354812</v>
       </c>
       <c r="AB75" t="n">
-        <v>134.4165112968345</v>
+        <v>134.4165112968347</v>
       </c>
       <c r="AC75" t="n">
-        <v>150.3359266724818</v>
+        <v>122.7478159702611</v>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>99.92224303699318</v>
       </c>
       <c r="V76" t="n">
-        <v>98.35123747288921</v>
+        <v>87.87514035515903</v>
       </c>
       <c r="W76" t="n">
         <v>99.92388500113036</v>
@@ -8592,7 +8592,7 @@
         <v>494.096448103874</v>
       </c>
       <c r="Y76" t="n">
-        <v>486.328125</v>
+        <v>434.5258213432918</v>
       </c>
       <c r="Z76" t="n">
         <v>494.1045673035982</v>
@@ -8604,7 +8604,7 @@
         <v>100.298190174323</v>
       </c>
       <c r="AC76" t="n">
-        <v>98.71965166110436</v>
+        <v>88.20431210052891</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>93.16987866025877</v>
       </c>
       <c r="V77" t="n">
-        <v>95.72853780694551</v>
+        <v>82.48950412206295</v>
       </c>
       <c r="W77" t="n">
         <v>93.16986909818462</v>
@@ -8699,7 +8699,7 @@
         <v>460.707293162542</v>
       </c>
       <c r="Y77" t="n">
-        <v>473.359375</v>
+        <v>407.8948765939116</v>
       </c>
       <c r="Z77" t="n">
         <v>460.7072458799078</v>
@@ -8711,7 +8711,7 @@
         <v>93.51887438344484</v>
       </c>
       <c r="AC77" t="n">
-        <v>96.08712761680826</v>
+        <v>82.79850179690948</v>
       </c>
       <c r="AD77" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>110.0196575904515</v>
       </c>
       <c r="V78" t="n">
-        <v>137.6917324620449</v>
+        <v>101.1635607966164</v>
       </c>
       <c r="W78" t="n">
         <v>110.0206113276522</v>
@@ -8806,7 +8806,7 @@
         <v>544.0262386516007</v>
       </c>
       <c r="Y78" t="n">
-        <v>680.859375</v>
+        <v>500.2345278482509</v>
       </c>
       <c r="Z78" t="n">
         <v>544.0309547002901</v>
@@ -8818,7 +8818,7 @@
         <v>110.4327378575333</v>
       </c>
       <c r="AC78" t="n">
-        <v>138.2075123255461</v>
+        <v>101.5425096749984</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>75.30618550066463</v>
       </c>
       <c r="V79" t="n">
-        <v>86.54908897614251</v>
+        <v>73.41168272055538</v>
       </c>
       <c r="W79" t="n">
         <v>75.30617977808573</v>
@@ -8913,7 +8913,7 @@
         <v>372.3747350462752</v>
       </c>
       <c r="Y79" t="n">
-        <v>427.96875</v>
+        <v>363.0067798630799</v>
       </c>
       <c r="Z79" t="n">
         <v>372.3747067492133</v>
@@ -8925,7 +8925,7 @@
         <v>75.58826941725451</v>
       </c>
       <c r="AC79" t="n">
-        <v>86.87329346177184</v>
+        <v>73.68667575765323</v>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>155.632536619942</v>
       </c>
       <c r="V80" t="n">
-        <v>113.244424861641</v>
+        <v>138.2100790573799</v>
       </c>
       <c r="W80" t="n">
         <v>155.6325250695893</v>
@@ -9020,7 +9020,7 @@
         <v>828.7711732533152</v>
       </c>
       <c r="Y80" t="n">
-        <v>603.046875</v>
+        <v>735.9934616727244</v>
       </c>
       <c r="Z80" t="n">
         <v>828.7711117456154</v>
@@ -9032,7 +9032,7 @@
         <v>156.2155094006121</v>
       </c>
       <c r="AC80" t="n">
-        <v>113.6686274840716</v>
+        <v>138.7278005969092</v>
       </c>
       <c r="AD80" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>104.0247731660686</v>
       </c>
       <c r="V81" t="n">
-        <v>121.9555344663826</v>
+        <v>87.80798481579551</v>
       </c>
       <c r="W81" t="n">
         <v>104.1011607942594</v>
@@ -9127,7 +9127,7 @@
         <v>514.3826777100772</v>
       </c>
       <c r="Y81" t="n">
-        <v>603.046875</v>
+        <v>434.19375</v>
       </c>
       <c r="Z81" t="n">
         <v>514.7603999731192</v>
@@ -9139,7 +9139,7 @@
         <v>104.4911136370677</v>
       </c>
       <c r="AC81" t="n">
-        <v>122.4123680597694</v>
+        <v>88.13690500303399</v>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>122.5361790489141</v>
       </c>
       <c r="V82" t="n">
-        <v>161.2960294555383</v>
+        <v>116.1816522044278</v>
       </c>
       <c r="W82" t="n">
         <v>122.5361659874053</v>
@@ -9234,7 +9234,7 @@
         <v>605.9180517982766</v>
       </c>
       <c r="Y82" t="n">
-        <v>797.578125</v>
+        <v>574.4961276319125</v>
       </c>
       <c r="Z82" t="n">
         <v>605.9179872116048</v>
@@ -9246,7 +9246,7 @@
         <v>122.9951745701056</v>
       </c>
       <c r="AC82" t="n">
-        <v>161.9002287242112</v>
+        <v>116.6168573953558</v>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>76.63952735675873</v>
       </c>
       <c r="V83" t="n">
-        <v>61.63344214967724</v>
+        <v>71.716867548991</v>
       </c>
       <c r="W83" t="n">
         <v>76.6395027019732</v>
@@ -9341,7 +9341,7 @@
         <v>378.9678564092576</v>
       </c>
       <c r="Y83" t="n">
-        <v>304.765625</v>
+        <v>354.6262418466096</v>
       </c>
       <c r="Z83" t="n">
         <v>378.967734496042</v>
@@ -9353,7 +9353,7 @@
         <v>76.9265868393837</v>
       </c>
       <c r="AC83" t="n">
-        <v>61.86431504095874</v>
+        <v>71.98551197297884</v>
       </c>
       <c r="AD83" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>109.9335361810218</v>
       </c>
       <c r="V84" t="n">
-        <v>115.6797888371602</v>
+        <v>98.71902205402468</v>
       </c>
       <c r="W84" t="n">
         <v>109.9389009866237</v>
@@ -9448,7 +9448,7 @@
         <v>585.4157989027905</v>
       </c>
       <c r="Y84" t="n">
-        <v>616.015625</v>
+        <v>525.6964996331652</v>
       </c>
       <c r="Z84" t="n">
         <v>585.4443674549038</v>
@@ -9460,7 +9460,7 @@
         <v>110.3507214374992</v>
       </c>
       <c r="AC84" t="n">
-        <v>116.1131140966323</v>
+        <v>99.08881392757841</v>
       </c>
       <c r="AD84" t="inlineStr">
         <is>
@@ -9546,19 +9546,19 @@
         <v>139.0069973009075</v>
       </c>
       <c r="V85" t="n">
-        <v>90.10846709420898</v>
+        <v>115.4861820167965</v>
       </c>
       <c r="W85" t="n">
-        <v>139.082277538668</v>
+        <v>139.0822775386679</v>
       </c>
       <c r="X85" t="n">
         <v>740.2371942624477</v>
       </c>
       <c r="Y85" t="n">
-        <v>479.84375</v>
+        <v>614.9846339543777</v>
       </c>
       <c r="Z85" t="n">
-        <v>740.6380750315113</v>
+        <v>740.6380750315111</v>
       </c>
       <c r="AA85" t="n">
         <v>139.527704018817</v>
@@ -9567,7 +9567,7 @@
         <v>139.6032662490403</v>
       </c>
       <c r="AC85" t="n">
-        <v>90.44600466474515</v>
+        <v>115.9187820439137</v>
       </c>
       <c r="AD85" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>136.2947825283333</v>
       </c>
       <c r="V86" t="n">
-        <v>102.2852869718048</v>
+        <v>120.0046548321027</v>
       </c>
       <c r="W86" t="n">
         <v>136.2947701092442</v>
@@ -9662,7 +9662,7 @@
         <v>725.7941641095018</v>
       </c>
       <c r="Y86" t="n">
-        <v>544.6875</v>
+        <v>639.0463121727271</v>
       </c>
       <c r="Z86" t="n">
         <v>725.7940979756243</v>
@@ -9674,7 +9674,7 @@
         <v>136.8053170873806</v>
       </c>
       <c r="AC86" t="n">
-        <v>102.6684377275486</v>
+        <v>120.4541806197594</v>
       </c>
       <c r="AD86" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>133.8207995698365</v>
       </c>
       <c r="V87" t="n">
-        <v>163.1693863597838</v>
+        <v>120.7854112625108</v>
       </c>
       <c r="W87" t="n">
         <v>133.8208017725088</v>
@@ -9769,7 +9769,7 @@
         <v>712.6197610980723</v>
       </c>
       <c r="Y87" t="n">
-        <v>868.90625</v>
+        <v>643.2039802086504</v>
       </c>
       <c r="Z87" t="n">
         <v>712.6197728276979</v>
@@ -9781,7 +9781,7 @@
         <v>134.3220815054142</v>
       </c>
       <c r="AC87" t="n">
-        <v>163.7806030415655</v>
+        <v>121.2378616879646</v>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
@@ -9867,28 +9867,28 @@
         <v>143.8053221538262</v>
       </c>
       <c r="V88" t="n">
-        <v>115.6797888371602</v>
+        <v>126.1072760740915</v>
       </c>
       <c r="W88" t="n">
-        <v>143.814467127471</v>
+        <v>143.8144671274709</v>
       </c>
       <c r="X88" t="n">
         <v>765.789134778043</v>
       </c>
       <c r="Y88" t="n">
-        <v>616.015625</v>
+        <v>671.5438649112953</v>
       </c>
       <c r="Z88" t="n">
-        <v>765.8378334030321</v>
+        <v>765.8378334030316</v>
       </c>
       <c r="AA88" t="n">
         <v>144.3440029308416</v>
       </c>
       <c r="AB88" t="n">
-        <v>144.3531821606699</v>
+        <v>144.3531821606698</v>
       </c>
       <c r="AC88" t="n">
-        <v>116.1131140966323</v>
+        <v>126.5796616885142</v>
       </c>
       <c r="AD88" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>128.6232272953374</v>
       </c>
       <c r="V89" t="n">
-        <v>87.67310311868981</v>
+        <v>107.4991176294036</v>
       </c>
       <c r="W89" t="n">
         <v>128.6232267328338</v>
@@ -9983,7 +9983,7 @@
         <v>684.9417564496953</v>
       </c>
       <c r="Y89" t="n">
-        <v>466.875</v>
+        <v>572.4520834546438</v>
       </c>
       <c r="Z89" t="n">
         <v>684.9417534542627</v>
@@ -9995,7 +9995,7 @@
         <v>129.1050368541905</v>
       </c>
       <c r="AC89" t="n">
-        <v>88.00151805218447</v>
+        <v>107.9017988886628</v>
       </c>
       <c r="AD89" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>155.1858456411894</v>
       </c>
       <c r="V90" t="n">
-        <v>192.3937540660137</v>
+        <v>146.7083957683407</v>
       </c>
       <c r="W90" t="n">
         <v>155.1857953755431</v>
@@ -10090,7 +10090,7 @@
         <v>826.3924636686571</v>
       </c>
       <c r="Y90" t="n">
-        <v>1024.53125</v>
+        <v>781.2485224986028</v>
       </c>
       <c r="Z90" t="n">
         <v>826.3921959950745</v>
@@ -10102,7 +10102,7 @@
         <v>155.7671063004978</v>
       </c>
       <c r="AC90" t="n">
-        <v>193.1144423922937</v>
+        <v>147.2579511773028</v>
       </c>
       <c r="AD90" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>134.1714837853786</v>
       </c>
       <c r="V91" t="n">
-        <v>169.2577962985817</v>
+        <v>121.9552858362728</v>
       </c>
       <c r="W91" t="n">
         <v>134.1715019998045</v>
@@ -10197,7 +10197,7 @@
         <v>714.4872174479358</v>
       </c>
       <c r="Y91" t="n">
-        <v>901.328125</v>
+        <v>649.4337721539144</v>
       </c>
       <c r="Z91" t="n">
         <v>714.4873144430211</v>
@@ -10209,7 +10209,7 @@
         <v>134.6740954217174</v>
       </c>
       <c r="AC91" t="n">
-        <v>169.8918195729672</v>
+        <v>122.4121184983153</v>
       </c>
       <c r="AD91" t="inlineStr">
         <is>
@@ -10295,28 +10295,28 @@
         <v>158.2109696797209</v>
       </c>
       <c r="V92" t="n">
-        <v>112.0267428738814</v>
+        <v>137.4396186972558</v>
       </c>
       <c r="W92" t="n">
-        <v>158.2134146233428</v>
+        <v>158.2134146233427</v>
       </c>
       <c r="X92" t="n">
         <v>842.5017917892483</v>
       </c>
       <c r="Y92" t="n">
-        <v>596.5625</v>
+        <v>731.890622057866</v>
       </c>
       <c r="Z92" t="n">
-        <v>842.5148115525834</v>
+        <v>842.5148115525827</v>
       </c>
       <c r="AA92" t="n">
         <v>158.803612613953</v>
       </c>
       <c r="AB92" t="n">
-        <v>158.8060667160963</v>
+        <v>158.8060667160962</v>
       </c>
       <c r="AC92" t="n">
-        <v>112.4463841777913</v>
+        <v>137.9544541670679</v>
       </c>
       <c r="AD92" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>144.1138129295586</v>
       </c>
       <c r="V93" t="n">
-        <v>102.2852869718048</v>
+        <v>128.0691390838696</v>
       </c>
       <c r="W93" t="n">
         <v>144.1138027337883</v>
@@ -10411,7 +10411,7 @@
         <v>767.4319034926975</v>
       </c>
       <c r="Y93" t="n">
-        <v>544.6875</v>
+        <v>681.9911373370257</v>
       </c>
       <c r="Z93" t="n">
         <v>767.4318491983917</v>
@@ -10423,7 +10423,7 @@
         <v>144.6536390491107</v>
       </c>
       <c r="AC93" t="n">
-        <v>102.6684377275486</v>
+        <v>128.5488736466808</v>
       </c>
       <c r="AD93" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>107.2063508578886</v>
       </c>
       <c r="V94" t="n">
-        <v>92.54383106972813</v>
+        <v>97.87870520780282</v>
       </c>
       <c r="W94" t="n">
         <v>107.2063487166135</v>
@@ -10518,7 +10518,7 @@
         <v>570.8930478828556</v>
       </c>
       <c r="Y94" t="n">
-        <v>492.8125</v>
+        <v>521.2216616997033</v>
       </c>
       <c r="Z94" t="n">
         <v>570.893036480182</v>
@@ -10530,7 +10530,7 @@
         <v>107.6079332919457</v>
       </c>
       <c r="AC94" t="n">
-        <v>92.89049127730583</v>
+        <v>98.24534933602364</v>
       </c>
       <c r="AD94" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>159.2682752871106</v>
       </c>
       <c r="V95" t="n">
-        <v>194.8291180415329</v>
+        <v>143.0549963582182</v>
       </c>
       <c r="W95" t="n">
         <v>159.2682757960604</v>
@@ -10625,7 +10625,7 @@
         <v>848.1321337971252</v>
       </c>
       <c r="Y95" t="n">
-        <v>1037.5</v>
+        <v>761.793515330762</v>
       </c>
       <c r="Z95" t="n">
         <v>848.1321365073737</v>
@@ -10637,7 +10637,7 @@
         <v>159.8648792963672</v>
       </c>
       <c r="AC95" t="n">
-        <v>195.5589290048544</v>
+        <v>143.5908664876404</v>
       </c>
       <c r="AD95" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>185.3783617311769</v>
       </c>
       <c r="V96" t="n">
-        <v>121.7681987759581</v>
+        <v>156.8344146973914</v>
       </c>
       <c r="W96" t="n">
         <v>185.3783445151198</v>
@@ -10732,7 +10732,7 @@
         <v>987.1730274685939</v>
       </c>
       <c r="Y96" t="n">
-        <v>648.4375</v>
+        <v>835.1713895961713</v>
       </c>
       <c r="Z96" t="n">
         <v>987.1729357900016</v>
@@ -10744,7 +10744,7 @@
         <v>186.0727537982367</v>
       </c>
       <c r="AC96" t="n">
-        <v>122.224330628034</v>
+        <v>157.4219011902875</v>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>141.9683188805451</v>
       </c>
       <c r="V97" t="n">
-        <v>105.9383329350835</v>
+        <v>109.8650103276247</v>
       </c>
       <c r="W97" t="n">
         <v>141.9683100171074</v>
@@ -10839,7 +10839,7 @@
         <v>756.0067628452047</v>
       </c>
       <c r="Y97" t="n">
-        <v>564.140625</v>
+        <v>585.0508864419936</v>
       </c>
       <c r="Z97" t="n">
         <v>756.0067156458088</v>
@@ -10851,7 +10851,7 @@
         <v>142.5001095249849</v>
       </c>
       <c r="AC97" t="n">
-        <v>106.3351676463896</v>
+        <v>110.2765539912645</v>
       </c>
       <c r="AD97" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>141.9876776555864</v>
       </c>
       <c r="V98" t="n">
-        <v>183.8699801516967</v>
+        <v>134.1524042530606</v>
       </c>
       <c r="W98" t="n">
         <v>141.9876597644194</v>
@@ -10946,7 +10946,7 @@
         <v>756.1098517946758</v>
       </c>
       <c r="Y98" t="n">
-        <v>979.140625</v>
+        <v>714.3856155160533</v>
       </c>
       <c r="Z98" t="n">
         <v>756.1097565210024</v>
@@ -10958,7 +10958,7 @@
         <v>142.519531754572</v>
       </c>
       <c r="AC98" t="n">
-        <v>184.5587392483313</v>
+        <v>134.654926136668</v>
       </c>
       <c r="AD98" t="inlineStr">
         <is>
@@ -11044,28 +11044,28 @@
         <v>136.0048087767481</v>
       </c>
       <c r="V99" t="n">
-        <v>90.10846709420898</v>
+        <v>110.8401756520711</v>
       </c>
       <c r="W99" t="n">
-        <v>136.1371500065006</v>
+        <v>136.1371500065007</v>
       </c>
       <c r="X99" t="n">
         <v>724.2500018698231</v>
       </c>
       <c r="Y99" t="n">
-        <v>479.84375</v>
+        <v>590.2438167097243</v>
       </c>
       <c r="Z99" t="n">
-        <v>724.954742656254</v>
+        <v>724.9547426562543</v>
       </c>
       <c r="AA99" t="n">
         <v>136.5142695878808</v>
       </c>
       <c r="AB99" t="n">
-        <v>136.6471065550331</v>
+        <v>136.6471065550332</v>
       </c>
       <c r="AC99" t="n">
-        <v>90.44600466474515</v>
+        <v>111.255372190353</v>
       </c>
       <c r="AD99" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>122.5315882607022</v>
       </c>
       <c r="V100" t="n">
-        <v>142.4687925678709</v>
+        <v>116.9212132125896</v>
       </c>
       <c r="W100" t="n">
         <v>122.5316011052094</v>
@@ -11160,7 +11160,7 @@
         <v>652.50268593516</v>
       </c>
       <c r="Y100" t="n">
-        <v>758.671875</v>
+        <v>622.6264324730058</v>
       </c>
       <c r="Z100" t="n">
         <v>652.5027543344646</v>
@@ -11172,7 +11172,7 @@
         <v>122.9905925883041</v>
       </c>
       <c r="AC100" t="n">
-        <v>143.0024668347998</v>
+        <v>117.359188727262</v>
       </c>
       <c r="AD100" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>173.9133346912965</v>
       </c>
       <c r="V101" t="n">
-        <v>125.4212447392368</v>
+        <v>143.106761695206</v>
       </c>
       <c r="W101" t="n">
         <v>173.9133367251607</v>
@@ -11267,7 +11267,7 @@
         <v>926.1197020034534</v>
       </c>
       <c r="Y101" t="n">
-        <v>667.890625</v>
+        <v>762.069175035352</v>
       </c>
       <c r="Z101" t="n">
         <v>926.1197128341455</v>
@@ -11279,7 +11279,7 @@
         <v>174.5647992020518</v>
       </c>
       <c r="AC101" t="n">
-        <v>125.891060546875</v>
+        <v>143.6428257325555</v>
       </c>
       <c r="AD101" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="V102" t="n">
-        <v>126.7138610031662</v>
+        <v>103.6569133119592</v>
       </c>
       <c r="W102" t="n">
         <v>114.6133644928176</v>
@@ -11374,10 +11374,10 @@
         <v>521.2321294192969</v>
       </c>
       <c r="Y102" t="n">
-        <v>577.109375</v>
+        <v>472.0981270896576</v>
       </c>
       <c r="Z102" t="n">
-        <v>521.9985140176922</v>
+        <v>521.9985140176923</v>
       </c>
       <c r="AA102" t="n">
         <v>114.8737923470467</v>
@@ -11386,7 +11386,7 @@
         <v>115.042695030218</v>
       </c>
       <c r="AC102" t="n">
-        <v>127.1885188258495</v>
+        <v>104.0452020468238</v>
       </c>
       <c r="AD102" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="V103" t="n">
-        <v>126.7138610031662</v>
+        <v>103.6569133119592</v>
       </c>
       <c r="W103" t="n">
         <v>114.6133644928176</v>
@@ -11481,10 +11481,10 @@
         <v>521.2321294192969</v>
       </c>
       <c r="Y103" t="n">
-        <v>577.109375</v>
+        <v>472.0981270896576</v>
       </c>
       <c r="Z103" t="n">
-        <v>521.9985140176922</v>
+        <v>521.9985140176923</v>
       </c>
       <c r="AA103" t="n">
         <v>114.8737923470467</v>
@@ -11493,7 +11493,7 @@
         <v>115.042695030218</v>
       </c>
       <c r="AC103" t="n">
-        <v>127.1885188258495</v>
+        <v>104.0452020468238</v>
       </c>
       <c r="AD103" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>114.4450921415393</v>
       </c>
       <c r="V104" t="n">
-        <v>126.7138610031662</v>
+        <v>103.6569133119592</v>
       </c>
       <c r="W104" t="n">
         <v>114.6133644928176</v>
@@ -11588,10 +11588,10 @@
         <v>521.2321294192969</v>
       </c>
       <c r="Y104" t="n">
-        <v>577.109375</v>
+        <v>472.0981270896576</v>
       </c>
       <c r="Z104" t="n">
-        <v>521.9985140176922</v>
+        <v>521.9985140176923</v>
       </c>
       <c r="AA104" t="n">
         <v>114.8737923470467</v>
@@ -11600,7 +11600,7 @@
         <v>115.042695030218</v>
       </c>
       <c r="AC104" t="n">
-        <v>127.1885188258495</v>
+        <v>104.0452020468238</v>
       </c>
       <c r="AD104" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>95.3936019126962</v>
       </c>
       <c r="V105" t="n">
-        <v>102.5100898003142</v>
+        <v>87.85419708945554</v>
       </c>
       <c r="W105" t="n">
         <v>95.39362853858485</v>
@@ -11695,7 +11695,7 @@
         <v>434.4634560339007</v>
       </c>
       <c r="Y105" t="n">
-        <v>466.875</v>
+        <v>400.1257666054041</v>
       </c>
       <c r="Z105" t="n">
         <v>434.4635772996394</v>
@@ -11707,7 +11707,7 @@
         <v>95.75096381083935</v>
       </c>
       <c r="AC105" t="n">
-        <v>102.8940826456311</v>
+        <v>88.18329038338516</v>
       </c>
       <c r="AD105" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>93.81386402696883</v>
       </c>
       <c r="V106" t="n">
-        <v>113.9000997781269</v>
+        <v>90.36413564431933</v>
       </c>
       <c r="W106" t="n">
         <v>93.81386402696883</v>
@@ -11802,7 +11802,7 @@
         <v>427.2686508509605</v>
       </c>
       <c r="Y106" t="n">
-        <v>518.75</v>
+        <v>411.557105365176</v>
       </c>
       <c r="Z106" t="n">
         <v>427.2686508509605</v>
@@ -11814,7 +11814,7 @@
         <v>94.16528165471703</v>
       </c>
       <c r="AC106" t="n">
-        <v>114.3267584951456</v>
+        <v>90.70263092442542</v>
       </c>
       <c r="AD106" t="inlineStr">
         <is>
@@ -11900,28 +11900,28 @@
         <v>166.5630038123446</v>
       </c>
       <c r="V107" t="n">
-        <v>175.1214034088702</v>
+        <v>155.8168351747937</v>
       </c>
       <c r="W107" t="n">
-        <v>166.6254805025665</v>
+        <v>166.6254805025663</v>
       </c>
       <c r="X107" t="n">
         <v>758.5994954874188</v>
       </c>
       <c r="Y107" t="n">
-        <v>797.578125</v>
+        <v>709.6568256250691</v>
       </c>
       <c r="Z107" t="n">
-        <v>758.8840411824249</v>
+        <v>758.8840411824239</v>
       </c>
       <c r="AA107" t="n">
         <v>167.1869326556713</v>
       </c>
       <c r="AB107" t="n">
-        <v>167.2496433775099</v>
+        <v>167.2496433775096</v>
       </c>
       <c r="AC107" t="n">
-        <v>175.7773911862864</v>
+        <v>156.4005099135787</v>
       </c>
       <c r="AD107" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>80.41346218240321</v>
       </c>
       <c r="V108" t="n">
-        <v>85.4250748335952</v>
+        <v>66.58783364358995</v>
       </c>
       <c r="W108" t="n">
         <v>80.4134704433576</v>
@@ -12016,7 +12016,7 @@
         <v>366.2374623760637</v>
       </c>
       <c r="Y108" t="n">
-        <v>389.0625</v>
+        <v>303.2696088054325</v>
       </c>
       <c r="Z108" t="n">
         <v>366.2374999999999</v>
@@ -12028,7 +12028,7 @@
         <v>80.71469149757279</v>
       </c>
       <c r="AC108" t="n">
-        <v>85.74506887135924</v>
+        <v>66.83726520446452</v>
       </c>
       <c r="AD108" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>132.3470316439268</v>
       </c>
       <c r="V109" t="n">
-        <v>122.4426072614865</v>
+        <v>113.9648335894923</v>
       </c>
       <c r="W109" t="n">
         <v>132.3470148144411</v>
@@ -12123,7 +12123,7 @@
         <v>602.7652548068388</v>
       </c>
       <c r="Y109" t="n">
-        <v>557.65625</v>
+        <v>519.0448255946325</v>
       </c>
       <c r="Z109" t="n">
         <v>602.7651781581285</v>
@@ -12135,7 +12135,7 @@
         <v>132.842773884468</v>
       </c>
       <c r="AC109" t="n">
-        <v>122.9012653822816</v>
+        <v>114.3917347930844</v>
       </c>
       <c r="AD109" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>114.7078513714162</v>
       </c>
       <c r="V110" t="n">
-        <v>83.18641333302182</v>
+        <v>96.67990004295457</v>
       </c>
       <c r="W110" t="n">
         <v>114.7078343639825</v>
@@ -12230,7 +12230,7 @@
         <v>956.7371671764962</v>
       </c>
       <c r="Y110" t="n">
-        <v>693.828125</v>
+        <v>806.3724721902718</v>
       </c>
       <c r="Z110" t="n">
         <v>956.7370253235739</v>
@@ -12242,7 +12242,7 @@
         <v>115.1375187763498</v>
       </c>
       <c r="AC110" t="n">
-        <v>83.49802156212074</v>
+        <v>97.04205356340077</v>
       </c>
       <c r="AD110" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>133.1094290697119</v>
       </c>
       <c r="V111" t="n">
-        <v>174.1472578186625</v>
+        <v>129.6150774221181</v>
       </c>
       <c r="W111" t="n">
         <v>133.1094211698846</v>
@@ -12337,7 +12337,7 @@
         <v>1110.218146099554</v>
       </c>
       <c r="Y111" t="n">
-        <v>1452.5</v>
+        <v>1081.073008635402</v>
       </c>
       <c r="Z111" t="n">
         <v>1110.21808020992</v>
@@ -12349,7 +12349,7 @@
         <v>133.6080361401092</v>
       </c>
       <c r="AC111" t="n">
-        <v>174.7995965412622</v>
+        <v>130.1006029198738</v>
       </c>
       <c r="AD111" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>105.6318423342176</v>
       </c>
       <c r="V113" t="n">
-        <v>99.51271875352144</v>
+        <v>95.44570053327124</v>
       </c>
       <c r="W113" t="n">
         <v>105.6318435087638</v>
@@ -12527,7 +12527,7 @@
         <v>881.0374215034507</v>
       </c>
       <c r="Y113" t="n">
-        <v>830</v>
+        <v>796.0784554467998</v>
       </c>
       <c r="Z113" t="n">
         <v>881.0374312999209</v>
@@ -12539,7 +12539,7 @@
         <v>106.0275301404311</v>
       </c>
       <c r="AC113" t="n">
-        <v>99.88548373786409</v>
+        <v>95.80323086216298</v>
       </c>
       <c r="AD113" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>109.1039483278914</v>
       </c>
       <c r="V115" t="n">
-        <v>81.63152710249805</v>
+        <v>93.64908218816682</v>
       </c>
       <c r="W115" t="n">
         <v>109.1039547787944</v>
@@ -12717,7 +12717,7 @@
         <v>909.997015923609</v>
       </c>
       <c r="Y115" t="n">
-        <v>680.859375</v>
+        <v>781.0935043258265</v>
       </c>
       <c r="Z115" t="n">
         <v>909.9970697282836</v>
@@ -12729,7 +12729,7 @@
         <v>109.512647602227</v>
       </c>
       <c r="AC115" t="n">
-        <v>81.93731087871663</v>
+        <v>93.9998825591429</v>
       </c>
       <c r="AD115" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>124.9577074028051</v>
       </c>
       <c r="V116" t="n">
-        <v>154.7111799371153</v>
+        <v>117.9593223258183</v>
       </c>
       <c r="W116" t="n">
         <v>124.9577158034129</v>
@@ -12824,7 +12824,7 @@
         <v>1042.227550844179</v>
       </c>
       <c r="Y116" t="n">
-        <v>1290.390625</v>
+        <v>983.8565236362276</v>
       </c>
       <c r="Z116" t="n">
         <v>1042.227620910645</v>
@@ -12836,7 +12836,7 @@
         <v>125.4257952766542</v>
       </c>
       <c r="AC116" t="n">
-        <v>155.2907129987106</v>
+        <v>118.4011864964553</v>
       </c>
       <c r="AD116" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>119.2005661692046</v>
       </c>
       <c r="V121" t="n">
-        <v>128.886955012091</v>
+        <v>111.3493450454741</v>
       </c>
       <c r="W121" t="n">
         <v>119.2005588392866</v>
@@ -13263,7 +13263,7 @@
         <v>1031.492143197263</v>
       </c>
       <c r="Y121" t="n">
-        <v>1115.3125</v>
+        <v>963.5522569710803</v>
       </c>
       <c r="Z121" t="n">
         <v>1031.49207976843</v>
@@ -13275,7 +13275,7 @@
         <v>119.6470725614111</v>
       </c>
       <c r="AC121" t="n">
-        <v>129.3697530339806</v>
+        <v>111.7664488828766</v>
       </c>
       <c r="AD121" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>109.1738636564882</v>
       </c>
       <c r="V122" t="n">
-        <v>85.4250748335952</v>
+        <v>93.38022670743987</v>
       </c>
       <c r="W122" t="n">
         <v>109.1738492986071</v>
@@ -13370,7 +13370,7 @@
         <v>944.7269104771252</v>
       </c>
       <c r="Y122" t="n">
-        <v>739.21875</v>
+        <v>808.0579922915497</v>
       </c>
       <c r="Z122" t="n">
         <v>944.7267862324011</v>
@@ -13382,7 +13382,7 @@
         <v>109.5828039401261</v>
       </c>
       <c r="AC122" t="n">
-        <v>85.74506887135924</v>
+        <v>93.73001997188408</v>
       </c>
       <c r="AD122" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>119.2125459979812</v>
       </c>
       <c r="V127" t="n">
-        <v>148.3323996781594</v>
+        <v>108.1215154419398</v>
       </c>
       <c r="W127" t="n">
         <v>119.2125409772724</v>
@@ -13809,7 +13809,7 @@
         <v>1115.238713129702</v>
       </c>
       <c r="Y127" t="n">
-        <v>1387.65625</v>
+        <v>1011.481624972125</v>
       </c>
       <c r="Z127" t="n">
         <v>1115.238666160746</v>
@@ -13821,7 +13821,7 @@
         <v>119.6590995833226</v>
       </c>
       <c r="AC127" t="n">
-        <v>148.8880384481189</v>
+        <v>108.5265281429861</v>
       </c>
       <c r="AD127" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>128.3166942407068</v>
       </c>
       <c r="V128" t="n">
-        <v>87.99157379241156</v>
+        <v>107.1706226525133</v>
       </c>
       <c r="W128" t="n">
         <v>128.3167166180678</v>
@@ -13916,7 +13916,7 @@
         <v>1153.639268618678</v>
       </c>
       <c r="Y128" t="n">
-        <v>791.09375</v>
+        <v>963.5241888504934</v>
       </c>
       <c r="Z128" t="n">
         <v>1153.639469803743</v>
@@ -13928,7 +13928,7 @@
         <v>128.7973785822888</v>
       </c>
       <c r="AC128" t="n">
-        <v>88.32118168613472</v>
+        <v>107.5720734014774</v>
       </c>
       <c r="AD128" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>157.0022533005351</v>
       </c>
       <c r="V129" t="n">
-        <v>126.2174214235412</v>
+        <v>148.6171602139234</v>
       </c>
       <c r="W129" t="n">
         <v>157.0022421272351</v>
@@ -14023,7 +14023,7 @@
         <v>1411.538582262312</v>
       </c>
       <c r="Y129" t="n">
-        <v>1134.765625</v>
+        <v>1336.151878194078</v>
       </c>
       <c r="Z129" t="n">
         <v>1411.538481808059</v>
@@ -14035,7 +14035,7 @@
         <v>157.5903572853917</v>
       </c>
       <c r="AC129" t="n">
-        <v>126.6902196317506</v>
+        <v>149.1738656692071</v>
       </c>
       <c r="AD129" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>141.4506300739475</v>
       </c>
       <c r="V130" t="n">
-        <v>105.6947965375316</v>
+        <v>124.079768523649</v>
       </c>
       <c r="W130" t="n">
         <v>141.450604047704</v>
@@ -14130,7 +14130,7 @@
         <v>1076.07139584631</v>
       </c>
       <c r="Y130" t="n">
-        <v>804.0625</v>
+        <v>943.924319331269</v>
       </c>
       <c r="Z130" t="n">
         <v>1076.071197854289</v>
@@ -14142,7 +14142,7 @@
         <v>141.980464279276</v>
       </c>
       <c r="AC130" t="n">
-        <v>106.0907189851335</v>
+        <v>124.5445592916061</v>
       </c>
       <c r="AD130" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>102.0036145991135</v>
       </c>
       <c r="V131" t="n">
-        <v>75.00921044599016</v>
+        <v>92.23047934723739</v>
       </c>
       <c r="W131" t="n">
         <v>102.0036145991135</v>
@@ -14237,7 +14237,7 @@
         <v>775.9822058456383</v>
       </c>
       <c r="Y131" t="n">
-        <v>570.625</v>
+        <v>701.6340655313586</v>
       </c>
       <c r="Z131" t="n">
         <v>775.9822058456383</v>
@@ -14249,7 +14249,7 @@
         <v>102.3857102374923</v>
       </c>
       <c r="AC131" t="n">
-        <v>75.29018766686893</v>
+        <v>92.57596576968098</v>
       </c>
       <c r="AD131" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>158.1853147488017</v>
       </c>
       <c r="V132" t="n">
-        <v>112.5138156689853</v>
+        <v>144.3172704632135</v>
       </c>
       <c r="W132" t="n">
         <v>158.185312408025</v>
@@ -14344,7 +14344,7 @@
         <v>1203.378820971982</v>
       </c>
       <c r="Y132" t="n">
-        <v>855.9375</v>
+        <v>1097.879073362164</v>
       </c>
       <c r="Z132" t="n">
         <v>1203.37880316476</v>
@@ -14356,7 +14356,7 @@
         <v>158.777859232608</v>
       </c>
       <c r="AC132" t="n">
-        <v>112.9352815003034</v>
+        <v>144.857868948899</v>
       </c>
       <c r="AD132" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>138.3781947501238</v>
       </c>
       <c r="V133" t="n">
-        <v>106.5471739289633</v>
+        <v>120.7694491830507</v>
       </c>
       <c r="W133" t="n">
         <v>138.3781957891426</v>
@@ -14451,7 +14451,7 @@
         <v>1052.698154130624</v>
       </c>
       <c r="Y133" t="n">
-        <v>810.546875</v>
+        <v>918.7413989605902</v>
       </c>
       <c r="Z133" t="n">
         <v>1052.698162034855</v>
@@ -14463,7 +14463,7 @@
         <v>138.8965470776294</v>
       </c>
       <c r="AC133" t="n">
-        <v>106.9462892995297</v>
+        <v>121.2218398161043</v>
       </c>
       <c r="AD133" t="inlineStr">
         <is>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,25 +566,30 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>RealLength_Hull(cm)</t>
+          <t>Box_Length_pixels</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>RealLength_MEC(cm)</t>
+          <t>RealLength_Hull_focal</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>RealLength_Skeleton(cm)</t>
+          <t>RealLength_MEC_focal</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>RealLength_Skeleton_focal</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>PondType</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Height_mm</t>
         </is>
@@ -668,7 +673,7 @@
         <v>74.76470624280951</v>
       </c>
       <c r="W2" t="n">
-        <v>87.38143681982832</v>
+        <v>87.38143681982831</v>
       </c>
       <c r="X2" t="n">
         <v>465.0141732779099</v>
@@ -677,23 +682,26 @@
         <v>398.135471261432</v>
       </c>
       <c r="Z2" t="n">
-        <v>465.3218246424835</v>
+        <v>465.3218246424834</v>
       </c>
       <c r="AA2" t="n">
+        <v>467.8725280875791</v>
+      </c>
+      <c r="AB2" t="n">
         <v>87.65076982969236</v>
       </c>
-      <c r="AB2" t="n">
-        <v>87.70875919968069</v>
-      </c>
       <c r="AC2" t="n">
+        <v>87.70875919968067</v>
+      </c>
+      <c r="AD2" t="n">
         <v>75.04476757467819</v>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -775,7 +783,7 @@
         <v>132.2260097199337</v>
       </c>
       <c r="W3" t="n">
-        <v>141.4163303275339</v>
+        <v>141.416330327534</v>
       </c>
       <c r="X3" t="n">
         <v>752.9379490196103</v>
@@ -784,23 +792,26 @@
         <v>704.1272190904584</v>
       </c>
       <c r="Z3" t="n">
-        <v>753.0673247904316</v>
+        <v>753.0673247904319</v>
       </c>
       <c r="AA3" t="n">
+        <v>760.9346400356933</v>
+      </c>
+      <c r="AB3" t="n">
         <v>141.921676064951</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>141.9460621730773</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>132.7213155166232</v>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>650</v>
       </c>
     </row>
@@ -894,20 +905,23 @@
         <v>669.219669769389</v>
       </c>
       <c r="AA4" t="n">
+        <v>675.0340889829657</v>
+      </c>
+      <c r="AB4" t="n">
         <v>126.1415724414197</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>126.1415729051412</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>122.6553647048522</v>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1001,20 +1015,23 @@
         <v>782.9434478300459</v>
       </c>
       <c r="AA5" t="n">
+        <v>756.1789764427878</v>
+      </c>
+      <c r="AB5" t="n">
         <v>147.5774127764639</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>147.5774285580837</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>131.8711150029997</v>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1108,20 +1125,23 @@
         <v>621.3793558738898</v>
       </c>
       <c r="AA6" t="n">
+        <v>603.1115200566144</v>
+      </c>
+      <c r="AB6" t="n">
         <v>117.1241526403527</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>117.1241265931799</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>98.20271577005931</v>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1215,20 +1235,23 @@
         <v>896.2392271188326</v>
       </c>
       <c r="AA7" t="n">
+        <v>915.4137128233334</v>
+      </c>
+      <c r="AB7" t="n">
         <v>168.9326046367877</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>168.9326104939733</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>138.8881487150806</v>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1322,20 +1345,23 @@
         <v>590.7050234478816</v>
       </c>
       <c r="AA8" t="n">
+        <v>599.4209561370458</v>
+      </c>
+      <c r="AB8" t="n">
         <v>111.3423052704566</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>111.3423052947037</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>77.5501502046573</v>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1429,20 +1455,23 @@
         <v>718.9715174493565</v>
       </c>
       <c r="AA9" t="n">
+        <v>747.622420812513</v>
+      </c>
+      <c r="AB9" t="n">
         <v>135.4731150294801</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>135.5193252408589</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>124.7295407546879</v>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1536,20 +1565,23 @@
         <v>742.0600439243865</v>
       </c>
       <c r="AA10" t="n">
+        <v>751.0704636758459</v>
+      </c>
+      <c r="AB10" t="n">
         <v>139.8712946809533</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>139.8712939249621</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>129.1352476020526</v>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1631,7 +1663,7 @@
         <v>128.0286754852751</v>
       </c>
       <c r="W11" t="n">
-        <v>147.4736260571129</v>
+        <v>147.473626057113</v>
       </c>
       <c r="X11" t="n">
         <v>785.2393331073433</v>
@@ -1640,23 +1672,26 @@
         <v>681.7756614165692</v>
       </c>
       <c r="Z11" t="n">
-        <v>785.3235110453966</v>
+        <v>785.3235110453971</v>
       </c>
       <c r="AA11" t="n">
+        <v>740.208808483289</v>
+      </c>
+      <c r="AB11" t="n">
         <v>148.0101811999596</v>
       </c>
-      <c r="AB11" t="n">
-        <v>148.0260479444527</v>
-      </c>
       <c r="AC11" t="n">
+        <v>148.0260479444528</v>
+      </c>
+      <c r="AD11" t="n">
         <v>128.508258475374</v>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1750,20 +1785,23 @@
         <v>814.4375000000001</v>
       </c>
       <c r="AA12" t="n">
+        <v>814.4375000000001</v>
+      </c>
+      <c r="AB12" t="n">
         <v>153.5137550040694</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>153.5137592688107</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>151.7582650006968</v>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1857,20 +1895,23 @@
         <v>751.6542506365545</v>
       </c>
       <c r="AA13" t="n">
+        <v>651.4186471895397</v>
+      </c>
+      <c r="AB13" t="n">
         <v>141.6797213612404</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>141.6797110712588</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>125.6176932296553</v>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1964,20 +2005,23 @@
         <v>657.6547110043766</v>
       </c>
       <c r="AA14" t="n">
+        <v>647.5629202054423</v>
+      </c>
+      <c r="AB14" t="n">
         <v>123.9616941204702</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>123.9616876520606</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>103.1888421038427</v>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2071,20 +2115,23 @@
         <v>563.1819116635403</v>
       </c>
       <c r="AA15" t="n">
+        <v>534.9580293481559</v>
+      </c>
+      <c r="AB15" t="n">
         <v>106.1544671417631</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>106.154459257666</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>84.04939856704782</v>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2178,20 +2225,23 @@
         <v>729.223021869853</v>
       </c>
       <c r="AA16" t="n">
+        <v>735.1829613106947</v>
+      </c>
+      <c r="AB16" t="n">
         <v>137.4516469313829</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>137.4516367831826</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>118.4012419865636</v>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2285,20 +2335,23 @@
         <v>715.0898661018505</v>
       </c>
       <c r="AA17" t="n">
-        <v>134.7876707056411</v>
+        <v>718.1990242798738</v>
       </c>
       <c r="AB17" t="n">
         <v>134.7876707056411</v>
       </c>
       <c r="AC17" t="n">
+        <v>134.7876707056411</v>
+      </c>
+      <c r="AD17" t="n">
         <v>109.9952483606846</v>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2380,7 +2433,7 @@
         <v>149.0554807383192</v>
       </c>
       <c r="W18" t="n">
-        <v>157.201814133566</v>
+        <v>157.2018141335658</v>
       </c>
       <c r="X18" t="n">
         <v>836.7630647817501</v>
@@ -2389,23 +2442,26 @@
         <v>793.7471709595254</v>
       </c>
       <c r="Z18" t="n">
-        <v>837.1278574941061</v>
+        <v>837.127857494105</v>
       </c>
       <c r="AA18" t="n">
+        <v>826.6057844290484</v>
+      </c>
+      <c r="AB18" t="n">
         <v>157.7219168959409</v>
       </c>
-      <c r="AB18" t="n">
-        <v>157.790676869085</v>
-      </c>
       <c r="AC18" t="n">
+        <v>157.7906768690848</v>
+      </c>
+      <c r="AD18" t="n">
         <v>149.6138280997377</v>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2499,20 +2555,23 @@
         <v>650.7242677634282</v>
       </c>
       <c r="AA19" t="n">
+        <v>644.2874999999999</v>
+      </c>
+      <c r="AB19" t="n">
         <v>122.6553826072221</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>122.6553647048521</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>117.709297631685</v>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2606,20 +2665,23 @@
         <v>578.2301273336162</v>
       </c>
       <c r="AA20" t="n">
+        <v>569.5875</v>
+      </c>
+      <c r="AB20" t="n">
         <v>108.9909101959768</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>108.9909054647735</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>101.3950416867649</v>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2713,20 +2775,23 @@
         <v>546.4631770817224</v>
       </c>
       <c r="AA21" t="n">
+        <v>571.9573394616617</v>
+      </c>
+      <c r="AB21" t="n">
         <v>103.0031342796407</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>103.0031360488595</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>92.18130169553048</v>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2820,20 +2885,23 @@
         <v>831.9542979147767</v>
       </c>
       <c r="AA22" t="n">
+        <v>831.550263156864</v>
+      </c>
+      <c r="AB22" t="n">
         <v>156.7471839829221</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>156.8155098613969</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>143.1492696099945</v>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>650</v>
       </c>
     </row>
@@ -2927,20 +2995,23 @@
         <v>664.9592062050144</v>
       </c>
       <c r="AA23" t="n">
+        <v>664.2601345905459</v>
+      </c>
+      <c r="AB23" t="n">
         <v>125.3142219168845</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>125.3385158528875</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>114.5949043350276</v>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3031,23 +3102,26 @@
         <v>583.5584739338469</v>
       </c>
       <c r="Z24" t="n">
-        <v>648.2857819494262</v>
+        <v>648.2857819494261</v>
       </c>
       <c r="AA24" t="n">
+        <v>649.4337721539146</v>
+      </c>
+      <c r="AB24" t="n">
         <v>122.1429322334822</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>122.1957332116668</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>109.9952483606847</v>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3141,20 +3215,23 @@
         <v>628.1651256151224</v>
       </c>
       <c r="AA25" t="n">
+        <v>607.6210226996451</v>
+      </c>
+      <c r="AB25" t="n">
         <v>118.4031816576929</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>118.4031799551741</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>107.4083717905418</v>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3248,20 +3325,23 @@
         <v>778.0695603455308</v>
       </c>
       <c r="AA26" t="n">
+        <v>809.2666264317652</v>
+      </c>
+      <c r="AB26" t="n">
         <v>146.2949399878129</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>146.6587469035662</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>138.8298993006857</v>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3355,20 +3435,23 @@
         <v>717.8527277854857</v>
       </c>
       <c r="AA27" t="n">
+        <v>719.1154918544033</v>
+      </c>
+      <c r="AB27" t="n">
         <v>135.308456995573</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>135.308443979704</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>117.5701598564441</v>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3462,20 +3545,23 @@
         <v>764.6881767467377</v>
       </c>
       <c r="AA28" t="n">
+        <v>758.1740220135808</v>
+      </c>
+      <c r="AB28" t="n">
         <v>144.1364809155326</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>144.1364827636307</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>139.0578003417432</v>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3569,20 +3655,23 @@
         <v>792.719384794552</v>
       </c>
       <c r="AA29" t="n">
+        <v>823.1769790915256</v>
+      </c>
+      <c r="AB29" t="n">
         <v>149.177783784909</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
         <v>149.420100136684</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>144.5597211884421</v>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE29" t="n">
+      <c r="AF29" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3676,20 +3765,23 @@
         <v>728.8098307844116</v>
       </c>
       <c r="AA30" t="n">
+        <v>711.3952224326503</v>
+      </c>
+      <c r="AB30" t="n">
         <v>137.3731577392672</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>137.3737541748517</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>122.601568318697</v>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3783,20 +3875,23 @@
         <v>777.8517436865782</v>
       </c>
       <c r="AA31" t="n">
+        <v>782.4875623013124</v>
+      </c>
+      <c r="AB31" t="n">
         <v>146.6176912464165</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>146.6176905252103</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>140.350321797592</v>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE31" t="n">
+      <c r="AF31" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3890,20 +3985,23 @@
         <v>719.7665129499028</v>
       </c>
       <c r="AA32" t="n">
+        <v>759.3495386935207</v>
+      </c>
+      <c r="AB32" t="n">
         <v>135.6691825162115</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>135.6691743672691</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>117.038383876789</v>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE32" t="n">
+      <c r="AF32" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3997,20 +4095,23 @@
         <v>765.5191131115297</v>
       </c>
       <c r="AA33" t="n">
+        <v>762.6339571111835</v>
+      </c>
+      <c r="AB33" t="n">
         <v>144.2931018280429</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
         <v>144.2931064027342</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>130.2798261949994</v>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE33" t="n">
+      <c r="AF33" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4104,20 +4205,23 @@
         <v>773.2104048422069</v>
       </c>
       <c r="AA34" t="n">
+        <v>758.5423537944338</v>
+      </c>
+      <c r="AB34" t="n">
         <v>145.7428245548221</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
         <v>145.74284208805</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
         <v>128.6795584849571</v>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE34" t="n">
+      <c r="AF34" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4211,20 +4315,23 @@
         <v>793.7471709595259</v>
       </c>
       <c r="AA35" t="n">
+        <v>772.3184076865983</v>
+      </c>
+      <c r="AB35" t="n">
         <v>149.6138390590691</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>149.6138280997378</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>141.1450888368481</v>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE35" t="n">
+      <c r="AF35" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4318,20 +4425,23 @@
         <v>631.6937413427192</v>
       </c>
       <c r="AA36" t="n">
+        <v>608.3148367621814</v>
+      </c>
+      <c r="AB36" t="n">
         <v>119.0682790086807</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>119.0682906178812</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>111.2414067401095</v>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE36" t="n">
+      <c r="AF36" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4425,20 +4535,23 @@
         <v>811.9829553177594</v>
       </c>
       <c r="AA37" t="n">
+        <v>830.998155669772</v>
+      </c>
+      <c r="AB37" t="n">
         <v>153.0510992728008</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>153.051100830976</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>150.0161338776429</v>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE37" t="n">
+      <c r="AF37" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4532,20 +4645,23 @@
         <v>854.5853239885195</v>
       </c>
       <c r="AA38" t="n">
+        <v>902.6250000000002</v>
+      </c>
+      <c r="AB38" t="n">
         <v>161.0812484501618</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>161.0812440505651</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
         <v>144.4846024997352</v>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE38" t="n">
+      <c r="AF38" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4639,20 +4755,23 @@
         <v>636.0528692955191</v>
       </c>
       <c r="AA39" t="n">
+        <v>626.7515516846071</v>
+      </c>
+      <c r="AB39" t="n">
         <v>119.8899149295293</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>119.8899449733941</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>100.8917778024225</v>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE39" t="n">
+      <c r="AF39" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4746,20 +4865,23 @@
         <v>741.4351312867839</v>
       </c>
       <c r="AA40" t="n">
+        <v>753.8565598650465</v>
+      </c>
+      <c r="AB40" t="n">
         <v>139.7535104729767</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>139.7535038082092</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>127.1536502829215</v>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AE40" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE40" t="n">
+      <c r="AF40" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4853,20 +4975,23 @@
         <v>918.7413989605902</v>
       </c>
       <c r="AA41" t="n">
+        <v>969.0362469234894</v>
+      </c>
+      <c r="AB41" t="n">
         <v>173.1740639657972</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>173.1740568801491</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AD41" t="n">
         <v>165.5459179142458</v>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AE41" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE41" t="n">
+      <c r="AF41" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4960,20 +5085,23 @@
         <v>785.597431400926</v>
       </c>
       <c r="AA42" t="n">
+        <v>789.4413788401265</v>
+      </c>
+      <c r="AB42" t="n">
         <v>147.9833322889191</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>148.0776793385346</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AD42" t="n">
         <v>141.0908883836101</v>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE42" t="n">
+      <c r="AF42" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5067,20 +5195,23 @@
         <v>842.8485510457975</v>
       </c>
       <c r="AA43" t="n">
+        <v>854.519824068794</v>
+      </c>
+      <c r="AB43" t="n">
         <v>158.868976351651</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>158.8689734513827</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AD43" t="n">
         <v>149.0610655247693</v>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AE43" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE43" t="n">
+      <c r="AF43" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5174,20 +5305,23 @@
         <v>651.9405974904848</v>
       </c>
       <c r="AA44" t="n">
+        <v>639.8492640177548</v>
+      </c>
+      <c r="AB44" t="n">
         <v>122.8846372984848</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>122.8846313446015</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AD44" t="n">
         <v>109.7634919005128</v>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE44" t="n">
+      <c r="AF44" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5281,20 +5415,23 @@
         <v>775.911978033752</v>
       </c>
       <c r="AA45" t="n">
+        <v>787.8444643455964</v>
+      </c>
+      <c r="AB45" t="n">
         <v>146.252035925637</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>146.2520630615119</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AD45" t="n">
         <v>135.4731216656819</v>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AE45" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE45" t="n">
+      <c r="AF45" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5388,20 +5525,23 @@
         <v>842.3637502031114</v>
       </c>
       <c r="AA46" t="n">
+        <v>874.8766041785907</v>
+      </c>
+      <c r="AB46" t="n">
         <v>158.7775899983626</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AC46" t="n">
         <v>158.7775930816705</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AD46" t="n">
         <v>156.5976511820771</v>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AE46" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE46" t="n">
+      <c r="AF46" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5495,20 +5635,23 @@
         <v>737.3260748305325</v>
       </c>
       <c r="AA47" t="n">
+        <v>729.0104324527872</v>
+      </c>
+      <c r="AB47" t="n">
         <v>138.9789844618179</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AC47" t="n">
         <v>138.978985562614</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
         <v>125.7954756858776</v>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE47" t="n">
+      <c r="AF47" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5602,20 +5745,23 @@
         <v>739.7427747883465</v>
       </c>
       <c r="AA48" t="n">
+        <v>747.6627333574696</v>
+      </c>
+      <c r="AB48" t="n">
         <v>139.4344934924492</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
         <v>139.4345106281332</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AD48" t="n">
         <v>134.3220815054142</v>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AE48" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE48" t="n">
+      <c r="AF48" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5709,20 +5855,23 @@
         <v>658.5052630057334</v>
       </c>
       <c r="AA49" t="n">
+        <v>690.7857004210859</v>
+      </c>
+      <c r="AB49" t="n">
         <v>124.1220131554372</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AC49" t="n">
         <v>124.1220086529746</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AD49" t="n">
         <v>116.1567361288648</v>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AE49" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE49" t="n">
+      <c r="AF49" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5816,20 +5965,23 @@
         <v>513.1766985223023</v>
       </c>
       <c r="AA50" t="n">
+        <v>534.1099980341129</v>
+      </c>
+      <c r="AB50" t="n">
         <v>96.72893749195637</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AC50" t="n">
         <v>96.72894993086118</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AD50" t="n">
         <v>92.09938024598344</v>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AE50" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE50" t="n">
+      <c r="AF50" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5923,20 +6075,23 @@
         <v>884.9797460826793</v>
       </c>
       <c r="AA51" t="n">
+        <v>906.5733238969494</v>
+      </c>
+      <c r="AB51" t="n">
         <v>166.8102835507601</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
         <v>166.8103049011245</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AD51" t="n">
         <v>134.4351007615695</v>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AE51" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE51" t="n">
+      <c r="AF51" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6030,20 +6185,23 @@
         <v>683.1289524130859</v>
       </c>
       <c r="AA52" t="n">
+        <v>695.0227909932165</v>
+      </c>
+      <c r="AB52" t="n">
         <v>128.7633331378416</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AC52" t="n">
         <v>128.7633410179385</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AD52" t="n">
         <v>115.7629576347063</v>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AE52" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE52" t="n">
+      <c r="AF52" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6137,20 +6295,23 @@
         <v>902.8087797820552</v>
       </c>
       <c r="AA53" t="n">
+        <v>909.5058991699832</v>
+      </c>
+      <c r="AB53" t="n">
         <v>170.1709358510475</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AC53" t="n">
         <v>170.1709089834777</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AD53" t="n">
         <v>111.0613317261103</v>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AE53" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE53" t="n">
+      <c r="AF53" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6244,20 +6405,23 @@
         <v>802.2525354431725</v>
       </c>
       <c r="AA54" t="n">
+        <v>782.2089494661898</v>
+      </c>
+      <c r="AB54" t="n">
         <v>151.2169722286139</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AC54" t="n">
         <v>151.2170087929598</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AD54" t="n">
         <v>120.4771569455695</v>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AE54" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE54" t="n">
+      <c r="AF54" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6351,20 +6515,23 @@
         <v>543.44503531291</v>
       </c>
       <c r="AA55" t="n">
+        <v>537.8064162933072</v>
+      </c>
+      <c r="AB55" t="n">
         <v>102.4342446184865</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AC55" t="n">
         <v>102.4342448952269</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AD55" t="n">
         <v>75.51113712182794</v>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AE55" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE55" t="n">
+      <c r="AF55" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6458,20 +6625,23 @@
         <v>818.5383520575333</v>
       </c>
       <c r="AA56" t="n">
+        <v>836.2856580822505</v>
+      </c>
+      <c r="AB56" t="n">
         <v>154.28673936739</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AC56" t="n">
         <v>154.2867310629105</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AD56" t="n">
         <v>147.7153564416585</v>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AE56" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE56" t="n">
+      <c r="AF56" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6565,20 +6735,23 @@
         <v>806.5058578600721</v>
       </c>
       <c r="AA57" t="n">
+        <v>791.3370998664222</v>
+      </c>
+      <c r="AB57" t="n">
         <v>152.0161183198347</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AC57" t="n">
         <v>152.0187198065128</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AD57" t="n">
         <v>135.4050716398494</v>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AE57" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE57" t="n">
+      <c r="AF57" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6672,20 +6845,23 @@
         <v>683.8258441710507</v>
       </c>
       <c r="AA58" t="n">
+        <v>686.0740867712921</v>
+      </c>
+      <c r="AB58" t="n">
         <v>128.8946622117668</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AC58" t="n">
         <v>128.894698517524</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AD58" t="n">
         <v>117.5961794269865</v>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AE58" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE58" t="n">
+      <c r="AF58" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6776,23 +6952,26 @@
         <v>641.6383919128922</v>
       </c>
       <c r="Z59" t="n">
-        <v>703.5438552897234</v>
+        <v>703.5438552897238</v>
       </c>
       <c r="AA59" t="n">
+        <v>717.4700708043506</v>
+      </c>
+      <c r="AB59" t="n">
         <v>132.6080256481874</v>
       </c>
-      <c r="AB59" t="n">
-        <v>132.6113569623176</v>
-      </c>
       <c r="AC59" t="n">
+        <v>132.6113569623177</v>
+      </c>
+      <c r="AD59" t="n">
         <v>120.9427631141033</v>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AE59" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE59" t="n">
+      <c r="AF59" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6886,20 +7065,23 @@
         <v>714.0894761862829</v>
       </c>
       <c r="AA60" t="n">
+        <v>700.6607444327551</v>
+      </c>
+      <c r="AB60" t="n">
         <v>134.5991122390028</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AC60" t="n">
         <v>134.5991066762669</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AD60" t="n">
         <v>130.4640803147868</v>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AE60" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE60" t="n">
+      <c r="AF60" t="n">
         <v>650</v>
       </c>
     </row>
@@ -6993,20 +7175,23 @@
         <v>791.8077720328102</v>
       </c>
       <c r="AA61" t="n">
+        <v>791.1549771388425</v>
+      </c>
+      <c r="AB61" t="n">
         <v>149.2482563895112</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AC61" t="n">
         <v>149.2482697604398</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AD61" t="n">
         <v>138.5957255579837</v>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AE61" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE61" t="n">
+      <c r="AF61" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7100,20 +7285,23 @@
         <v>745.1910105647829</v>
       </c>
       <c r="AA62" t="n">
+        <v>743.4901920166801</v>
+      </c>
+      <c r="AB62" t="n">
         <v>140.4614472959387</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AC62" t="n">
         <v>140.4614514988859</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AD62" t="n">
         <v>123.5518114213456</v>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AE62" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE62" t="n">
+      <c r="AF62" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7207,20 +7395,23 @@
         <v>600.9483102576817</v>
       </c>
       <c r="AA63" t="n">
+        <v>578.964276781446</v>
+      </c>
+      <c r="AB63" t="n">
         <v>113.2730549412744</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AC63" t="n">
         <v>113.2730678951992</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AD63" t="n">
         <v>74.37412283425166</v>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AE63" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE63" t="n">
+      <c r="AF63" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7314,20 +7505,23 @@
         <v>826.1212239142401</v>
       </c>
       <c r="AA64" t="n">
+        <v>830.3359847309177</v>
+      </c>
+      <c r="AB64" t="n">
         <v>155.7160465444318</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AC64" t="n">
         <v>155.7160306282875</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AD64" t="n">
         <v>143.7035153600033</v>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AE64" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE64" t="n">
+      <c r="AF64" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7409,7 +7603,7 @@
         <v>145.6748989141434</v>
       </c>
       <c r="W65" t="n">
-        <v>155.2819605154788</v>
+        <v>155.2819605154789</v>
       </c>
       <c r="X65" t="n">
         <v>824.2625644784316</v>
@@ -7418,23 +7612,26 @@
         <v>775.7449663720431</v>
       </c>
       <c r="Z65" t="n">
-        <v>826.9042926143387</v>
+        <v>826.9042926143389</v>
       </c>
       <c r="AA65" t="n">
+        <v>856.1437175826554</v>
+      </c>
+      <c r="AB65" t="n">
         <v>155.3656909187439</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AC65" t="n">
         <v>155.8636316657126</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AD65" t="n">
         <v>146.2205829442155</v>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AE65" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE65" t="n">
+      <c r="AF65" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7516,7 +7713,7 @@
         <v>126.2588893153503</v>
       </c>
       <c r="W66" t="n">
-        <v>128.0406825025471</v>
+        <v>128.040682502547</v>
       </c>
       <c r="X66" t="n">
         <v>681.8395485573058</v>
@@ -7525,23 +7722,26 @@
         <v>672.3512326158107</v>
       </c>
       <c r="Z66" t="n">
-        <v>681.8396009372368</v>
+        <v>681.8396009372365</v>
       </c>
       <c r="AA66" t="n">
+        <v>682.0921429002462</v>
+      </c>
+      <c r="AB66" t="n">
         <v>128.5203005966459</v>
       </c>
-      <c r="AB66" t="n">
-        <v>128.5203104697671</v>
-      </c>
       <c r="AC66" t="n">
+        <v>128.520310469767</v>
+      </c>
+      <c r="AD66" t="n">
         <v>126.731842858257</v>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AE66" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE66" t="n">
+      <c r="AF66" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7635,20 +7835,23 @@
         <v>680.9035908261903</v>
       </c>
       <c r="AA67" t="n">
+        <v>673.1192539216212</v>
+      </c>
+      <c r="AB67" t="n">
         <v>128.3438762353634</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AC67" t="n">
         <v>128.3438814241247</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AD67" t="n">
         <v>121.0584406037201</v>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AE67" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE67" t="n">
+      <c r="AF67" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7742,20 +7945,23 @@
         <v>732.3309702586666</v>
       </c>
       <c r="AA68" t="n">
+        <v>750.1062218789834</v>
+      </c>
+      <c r="AB68" t="n">
         <v>138.0374571992402</v>
       </c>
-      <c r="AB68" t="n">
+      <c r="AC68" t="n">
         <v>138.0374556345742</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AD68" t="n">
         <v>126.5899713960111</v>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AE68" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE68" t="n">
+      <c r="AF68" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7837,7 +8043,7 @@
         <v>127.6272003643167</v>
       </c>
       <c r="W69" t="n">
-        <v>142.2391787457397</v>
+        <v>142.2391787457396</v>
       </c>
       <c r="X69" t="n">
         <v>757.4448446263683</v>
@@ -7846,23 +8052,26 @@
         <v>679.6377343850179</v>
       </c>
       <c r="Z69" t="n">
-        <v>757.4491402114023</v>
+        <v>757.4491402114019</v>
       </c>
       <c r="AA69" t="n">
+        <v>746.758598146851</v>
+      </c>
+      <c r="AB69" t="n">
         <v>142.7711832244635</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AC69" t="n">
         <v>142.7719929015803</v>
       </c>
-      <c r="AC69" t="n">
+      <c r="AD69" t="n">
         <v>128.1052794675853</v>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AE69" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE69" t="n">
+      <c r="AF69" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7956,20 +8165,23 @@
         <v>804.7257244562038</v>
       </c>
       <c r="AA70" t="n">
+        <v>793.865990959156</v>
+      </c>
+      <c r="AB70" t="n">
         <v>151.6831836910161</v>
       </c>
-      <c r="AB70" t="n">
+      <c r="AC70" t="n">
         <v>151.683181510661</v>
       </c>
-      <c r="AC70" t="n">
+      <c r="AD70" t="n">
         <v>147.886809604526</v>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AE70" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE70" t="n">
+      <c r="AF70" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8063,20 +8275,23 @@
         <v>855.5871934671532</v>
       </c>
       <c r="AA71" t="n">
+        <v>870.8185654349879</v>
+      </c>
+      <c r="AB71" t="n">
         <v>161.2700993070782</v>
       </c>
-      <c r="AB71" t="n">
+      <c r="AC71" t="n">
         <v>161.2700869635717</v>
       </c>
-      <c r="AC71" t="n">
+      <c r="AD71" t="n">
         <v>153.9241646880891</v>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AE71" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE71" t="n">
+      <c r="AF71" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8170,20 +8385,23 @@
         <v>766.804626992145</v>
       </c>
       <c r="AA72" t="n">
+        <v>763.6570885588965</v>
+      </c>
+      <c r="AB72" t="n">
         <v>144.5354319308819</v>
       </c>
-      <c r="AB72" t="n">
+      <c r="AC72" t="n">
         <v>144.5354136005308</v>
       </c>
-      <c r="AC72" t="n">
+      <c r="AD72" t="n">
         <v>118.951923584564</v>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AE72" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE72" t="n">
+      <c r="AF72" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8265,7 +8483,7 @@
         <v>124.7332851746996</v>
       </c>
       <c r="W73" t="n">
-        <v>136.1972742453382</v>
+        <v>136.197274245338</v>
       </c>
       <c r="X73" t="n">
         <v>725.2058874262708</v>
@@ -8274,23 +8492,26 @@
         <v>664.2271169197797</v>
       </c>
       <c r="Z73" t="n">
-        <v>725.2749150125272</v>
+        <v>725.2749150125262</v>
       </c>
       <c r="AA73" t="n">
+        <v>753.8037269668162</v>
+      </c>
+      <c r="AB73" t="n">
         <v>136.69444496684</v>
       </c>
-      <c r="AB73" t="n">
-        <v>136.7074560134329</v>
-      </c>
       <c r="AC73" t="n">
+        <v>136.7074560134327</v>
+      </c>
+      <c r="AD73" t="n">
         <v>125.2005239525921</v>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AE73" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE73" t="n">
+      <c r="AF73" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8384,20 +8605,23 @@
         <v>656.4161733658381</v>
       </c>
       <c r="AA74" t="n">
+        <v>681.0191806506352</v>
+      </c>
+      <c r="AB74" t="n">
         <v>123.7282336710888</v>
       </c>
-      <c r="AB74" t="n">
+      <c r="AC74" t="n">
         <v>123.7282350312175</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AD74" t="n">
         <v>115.8181556647869</v>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AE74" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE74" t="n">
+      <c r="AF74" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8491,20 +8715,23 @@
         <v>713.1207517863028</v>
       </c>
       <c r="AA75" t="n">
+        <v>739.9702824480521</v>
+      </c>
+      <c r="AB75" t="n">
         <v>134.4109248354812</v>
       </c>
-      <c r="AB75" t="n">
+      <c r="AC75" t="n">
         <v>134.4165112968347</v>
       </c>
-      <c r="AC75" t="n">
+      <c r="AD75" t="n">
         <v>122.7478159702611</v>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AE75" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE75" t="n">
+      <c r="AF75" t="n">
         <v>650</v>
       </c>
     </row>
@@ -8586,7 +8813,7 @@
         <v>87.87514035515903</v>
       </c>
       <c r="W76" t="n">
-        <v>99.92388500113036</v>
+        <v>99.92388500113039</v>
       </c>
       <c r="X76" t="n">
         <v>494.096448103874</v>
@@ -8598,20 +8825,23 @@
         <v>494.1045673035982</v>
       </c>
       <c r="AA76" t="n">
+        <v>486.9515395951248</v>
+      </c>
+      <c r="AB76" t="n">
         <v>100.2965420595475</v>
       </c>
-      <c r="AB76" t="n">
+      <c r="AC76" t="n">
         <v>100.298190174323</v>
       </c>
-      <c r="AC76" t="n">
+      <c r="AD76" t="n">
         <v>88.20431210052891</v>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AE76" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE76" t="n">
+      <c r="AF76" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8705,20 +8935,23 @@
         <v>460.7072458799078</v>
       </c>
       <c r="AA77" t="n">
+        <v>474.676659397281</v>
+      </c>
+      <c r="AB77" t="n">
         <v>93.51888398133758</v>
       </c>
-      <c r="AB77" t="n">
+      <c r="AC77" t="n">
         <v>93.51887438344484</v>
       </c>
-      <c r="AC77" t="n">
+      <c r="AD77" t="n">
         <v>82.79850179690948</v>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AE77" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE77" t="n">
+      <c r="AF77" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8812,20 +9045,23 @@
         <v>544.0309547002901</v>
       </c>
       <c r="AA78" t="n">
+        <v>540.2140557006662</v>
+      </c>
+      <c r="AB78" t="n">
         <v>110.4317805477256</v>
       </c>
-      <c r="AB78" t="n">
+      <c r="AC78" t="n">
         <v>110.4327378575333</v>
       </c>
-      <c r="AC78" t="n">
+      <c r="AD78" t="n">
         <v>101.5425096749984</v>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AE78" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE78" t="n">
+      <c r="AF78" t="n">
         <v>700</v>
       </c>
     </row>
@@ -8919,20 +9155,23 @@
         <v>372.3747067492133</v>
       </c>
       <c r="AA79" t="n">
+        <v>377.2454005373193</v>
+      </c>
+      <c r="AB79" t="n">
         <v>75.58827516126961</v>
       </c>
-      <c r="AB79" t="n">
+      <c r="AC79" t="n">
         <v>75.58826941725451</v>
       </c>
-      <c r="AC79" t="n">
+      <c r="AD79" t="n">
         <v>73.68667575765323</v>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AE79" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE79" t="n">
+      <c r="AF79" t="n">
         <v>700</v>
       </c>
     </row>
@@ -9026,20 +9265,23 @@
         <v>828.7711117456154</v>
       </c>
       <c r="AA80" t="n">
+        <v>842.3196635630683</v>
+      </c>
+      <c r="AB80" t="n">
         <v>156.2155209942313</v>
       </c>
-      <c r="AB80" t="n">
+      <c r="AC80" t="n">
         <v>156.2155094006121</v>
       </c>
-      <c r="AC80" t="n">
+      <c r="AD80" t="n">
         <v>138.7278005969092</v>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AE80" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE80" t="n">
+      <c r="AF80" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9133,20 +9375,23 @@
         <v>514.7603999731192</v>
       </c>
       <c r="AA81" t="n">
+        <v>499.8319786828995</v>
+      </c>
+      <c r="AB81" t="n">
         <v>104.414439868237</v>
       </c>
-      <c r="AB81" t="n">
+      <c r="AC81" t="n">
         <v>104.4911136370677</v>
       </c>
-      <c r="AC81" t="n">
+      <c r="AD81" t="n">
         <v>88.13690500303399</v>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AE81" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE81" t="n">
+      <c r="AF81" t="n">
         <v>700</v>
       </c>
     </row>
@@ -9240,20 +9485,23 @@
         <v>605.9179872116048</v>
       </c>
       <c r="AA82" t="n">
+        <v>606.8836274167912</v>
+      </c>
+      <c r="AB82" t="n">
         <v>122.9951876805415</v>
       </c>
-      <c r="AB82" t="n">
+      <c r="AC82" t="n">
         <v>122.9951745701056</v>
       </c>
-      <c r="AC82" t="n">
+      <c r="AD82" t="n">
         <v>116.6168573953558</v>
       </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AE82" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE82" t="n">
+      <c r="AF82" t="n">
         <v>700</v>
       </c>
     </row>
@@ -9347,20 +9595,23 @@
         <v>378.967734496042</v>
       </c>
       <c r="AA83" t="n">
+        <v>391.0649095438793</v>
+      </c>
+      <c r="AB83" t="n">
         <v>76.92661158652368</v>
       </c>
-      <c r="AB83" t="n">
+      <c r="AC83" t="n">
         <v>76.9265868393837</v>
       </c>
-      <c r="AC83" t="n">
+      <c r="AD83" t="n">
         <v>71.98551197297884</v>
       </c>
-      <c r="AD83" t="inlineStr">
+      <c r="AE83" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE83" t="n">
+      <c r="AF83" t="n">
         <v>700</v>
       </c>
     </row>
@@ -9454,20 +9705,23 @@
         <v>585.4443674549038</v>
       </c>
       <c r="AA84" t="n">
+        <v>586.4089598258729</v>
+      </c>
+      <c r="AB84" t="n">
         <v>110.3453365358563</v>
       </c>
-      <c r="AB84" t="n">
+      <c r="AC84" t="n">
         <v>110.3507214374992</v>
       </c>
-      <c r="AC84" t="n">
+      <c r="AD84" t="n">
         <v>99.08881392757841</v>
       </c>
-      <c r="AD84" t="inlineStr">
+      <c r="AE84" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE84" t="n">
+      <c r="AF84" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9561,20 +9815,23 @@
         <v>740.6380750315111</v>
       </c>
       <c r="AA85" t="n">
+        <v>777.2592433713799</v>
+      </c>
+      <c r="AB85" t="n">
         <v>139.527704018817</v>
       </c>
-      <c r="AB85" t="n">
+      <c r="AC85" t="n">
         <v>139.6032662490403</v>
       </c>
-      <c r="AC85" t="n">
+      <c r="AD85" t="n">
         <v>115.9187820439137</v>
       </c>
-      <c r="AD85" t="inlineStr">
+      <c r="AE85" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE85" t="n">
+      <c r="AF85" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9668,20 +9925,23 @@
         <v>725.7940979756243</v>
       </c>
       <c r="AA86" t="n">
+        <v>752.4659635419151</v>
+      </c>
+      <c r="AB86" t="n">
         <v>136.8053295529905</v>
       </c>
-      <c r="AB86" t="n">
+      <c r="AC86" t="n">
         <v>136.8053170873806</v>
       </c>
-      <c r="AC86" t="n">
+      <c r="AD86" t="n">
         <v>120.4541806197594</v>
       </c>
-      <c r="AD86" t="inlineStr">
+      <c r="AE86" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE86" t="n">
+      <c r="AF86" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9775,20 +10035,23 @@
         <v>712.6197728276979</v>
       </c>
       <c r="AA87" t="n">
+        <v>733.4327020774044</v>
+      </c>
+      <c r="AB87" t="n">
         <v>134.3220792944908</v>
       </c>
-      <c r="AB87" t="n">
+      <c r="AC87" t="n">
         <v>134.3220815054142</v>
       </c>
-      <c r="AC87" t="n">
+      <c r="AD87" t="n">
         <v>121.2378616879646</v>
       </c>
-      <c r="AD87" t="inlineStr">
+      <c r="AE87" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE87" t="n">
+      <c r="AF87" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9882,20 +10145,23 @@
         <v>765.8378334030316</v>
       </c>
       <c r="AA88" t="n">
+        <v>769.8028024933153</v>
+      </c>
+      <c r="AB88" t="n">
         <v>144.3440029308416</v>
       </c>
-      <c r="AB88" t="n">
+      <c r="AC88" t="n">
         <v>144.3531821606698</v>
       </c>
-      <c r="AC88" t="n">
+      <c r="AD88" t="n">
         <v>126.5796616885142</v>
       </c>
-      <c r="AD88" t="inlineStr">
+      <c r="AE88" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE88" t="n">
+      <c r="AF88" t="n">
         <v>650</v>
       </c>
     </row>
@@ -9989,20 +10255,23 @@
         <v>684.9417534542627</v>
       </c>
       <c r="AA89" t="n">
+        <v>652.7285121894095</v>
+      </c>
+      <c r="AB89" t="n">
         <v>129.1050374188012</v>
       </c>
-      <c r="AB89" t="n">
+      <c r="AC89" t="n">
         <v>129.1050368541905</v>
       </c>
-      <c r="AC89" t="n">
+      <c r="AD89" t="n">
         <v>107.9017988886628</v>
       </c>
-      <c r="AD89" t="inlineStr">
+      <c r="AE89" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE89" t="n">
+      <c r="AF89" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10096,20 +10365,23 @@
         <v>826.3921959950745</v>
       </c>
       <c r="AA90" t="n">
+        <v>815.7363130938825</v>
+      </c>
+      <c r="AB90" t="n">
         <v>155.7671567544343</v>
       </c>
-      <c r="AB90" t="n">
+      <c r="AC90" t="n">
         <v>155.7671063004978</v>
       </c>
-      <c r="AC90" t="n">
+      <c r="AD90" t="n">
         <v>147.2579511773028</v>
       </c>
-      <c r="AD90" t="inlineStr">
+      <c r="AE90" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE90" t="n">
+      <c r="AF90" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10203,20 +10475,23 @@
         <v>714.4873144430211</v>
       </c>
       <c r="AA91" t="n">
+        <v>709.844125495168</v>
+      </c>
+      <c r="AB91" t="n">
         <v>134.674077139062</v>
       </c>
-      <c r="AB91" t="n">
+      <c r="AC91" t="n">
         <v>134.6740954217174</v>
       </c>
-      <c r="AC91" t="n">
+      <c r="AD91" t="n">
         <v>122.4121184983153</v>
       </c>
-      <c r="AD91" t="inlineStr">
+      <c r="AE91" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE91" t="n">
+      <c r="AF91" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10298,7 +10573,7 @@
         <v>137.4396186972558</v>
       </c>
       <c r="W92" t="n">
-        <v>158.2134146233427</v>
+        <v>158.2134146233428</v>
       </c>
       <c r="X92" t="n">
         <v>842.5017917892483</v>
@@ -10307,23 +10582,26 @@
         <v>731.890622057866</v>
       </c>
       <c r="Z92" t="n">
-        <v>842.5148115525827</v>
+        <v>842.5148115525834</v>
       </c>
       <c r="AA92" t="n">
+        <v>838.3000000000002</v>
+      </c>
+      <c r="AB92" t="n">
         <v>158.803612613953</v>
       </c>
-      <c r="AB92" t="n">
-        <v>158.8060667160962</v>
-      </c>
       <c r="AC92" t="n">
+        <v>158.8060667160963</v>
+      </c>
+      <c r="AD92" t="n">
         <v>137.9544541670679</v>
       </c>
-      <c r="AD92" t="inlineStr">
+      <c r="AE92" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE92" t="n">
+      <c r="AF92" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10417,20 +10695,23 @@
         <v>767.4318491983917</v>
       </c>
       <c r="AA93" t="n">
+        <v>781.310004520653</v>
+      </c>
+      <c r="AB93" t="n">
         <v>144.6536492830734</v>
       </c>
-      <c r="AB93" t="n">
+      <c r="AC93" t="n">
         <v>144.6536390491107</v>
       </c>
-      <c r="AC93" t="n">
+      <c r="AD93" t="n">
         <v>128.5488736466808</v>
       </c>
-      <c r="AD93" t="inlineStr">
+      <c r="AE93" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE93" t="n">
+      <c r="AF93" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10524,20 +10805,23 @@
         <v>570.893036480182</v>
       </c>
       <c r="AA94" t="n">
+        <v>614.1669200340104</v>
+      </c>
+      <c r="AB94" t="n">
         <v>107.6079354412417</v>
       </c>
-      <c r="AB94" t="n">
+      <c r="AC94" t="n">
         <v>107.6079332919457</v>
       </c>
-      <c r="AC94" t="n">
+      <c r="AD94" t="n">
         <v>98.24534933602364</v>
       </c>
-      <c r="AD94" t="inlineStr">
+      <c r="AE94" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE94" t="n">
+      <c r="AF94" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10631,20 +10915,23 @@
         <v>848.1321365073737</v>
       </c>
       <c r="AA95" t="n">
+        <v>851.7110425490561</v>
+      </c>
+      <c r="AB95" t="n">
         <v>159.864878785511</v>
       </c>
-      <c r="AB95" t="n">
+      <c r="AC95" t="n">
         <v>159.8648792963672</v>
       </c>
-      <c r="AC95" t="n">
+      <c r="AD95" t="n">
         <v>143.5908664876404</v>
       </c>
-      <c r="AD95" t="inlineStr">
+      <c r="AE95" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE95" t="n">
+      <c r="AF95" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10738,20 +11025,23 @@
         <v>987.1729357900016</v>
       </c>
       <c r="AA96" t="n">
+        <v>939.1713382851127</v>
+      </c>
+      <c r="AB96" t="n">
         <v>186.0727710787835</v>
       </c>
-      <c r="AB96" t="n">
+      <c r="AC96" t="n">
         <v>186.0727537982367</v>
       </c>
-      <c r="AC96" t="n">
+      <c r="AD96" t="n">
         <v>157.4219011902875</v>
       </c>
-      <c r="AD96" t="inlineStr">
+      <c r="AE96" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE96" t="n">
+      <c r="AF96" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10845,20 +11135,23 @@
         <v>756.0067156458088</v>
       </c>
       <c r="AA97" t="n">
+        <v>732.2317496231981</v>
+      </c>
+      <c r="AB97" t="n">
         <v>142.5001184216243</v>
       </c>
-      <c r="AB97" t="n">
+      <c r="AC97" t="n">
         <v>142.5001095249849</v>
       </c>
-      <c r="AC97" t="n">
+      <c r="AD97" t="n">
         <v>110.2765539912645</v>
       </c>
-      <c r="AD97" t="inlineStr">
+      <c r="AE97" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE97" t="n">
+      <c r="AF97" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10952,20 +11245,23 @@
         <v>756.1097565210024</v>
       </c>
       <c r="AA98" t="n">
+        <v>744.6014334706607</v>
+      </c>
+      <c r="AB98" t="n">
         <v>142.5195497127575</v>
       </c>
-      <c r="AB98" t="n">
+      <c r="AC98" t="n">
         <v>142.519531754572</v>
       </c>
-      <c r="AC98" t="n">
+      <c r="AD98" t="n">
         <v>134.654926136668</v>
       </c>
-      <c r="AD98" t="inlineStr">
+      <c r="AE98" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE98" t="n">
+      <c r="AF98" t="n">
         <v>650</v>
       </c>
     </row>
@@ -11056,23 +11352,26 @@
         <v>590.2438167097243</v>
       </c>
       <c r="Z99" t="n">
-        <v>724.9547426562543</v>
+        <v>724.9547426562542</v>
       </c>
       <c r="AA99" t="n">
+        <v>745.5229842198024</v>
+      </c>
+      <c r="AB99" t="n">
         <v>136.5142695878808</v>
       </c>
-      <c r="AB99" t="n">
+      <c r="AC99" t="n">
         <v>136.6471065550332</v>
       </c>
-      <c r="AC99" t="n">
+      <c r="AD99" t="n">
         <v>111.255372190353</v>
       </c>
-      <c r="AD99" t="inlineStr">
+      <c r="AE99" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE99" t="n">
+      <c r="AF99" t="n">
         <v>650</v>
       </c>
     </row>
@@ -11166,20 +11465,23 @@
         <v>652.5027543344646</v>
       </c>
       <c r="AA100" t="n">
+        <v>679.8728871313004</v>
+      </c>
+      <c r="AB100" t="n">
         <v>122.9905796956826</v>
       </c>
-      <c r="AB100" t="n">
+      <c r="AC100" t="n">
         <v>122.9905925883041</v>
       </c>
-      <c r="AC100" t="n">
+      <c r="AD100" t="n">
         <v>117.359188727262</v>
       </c>
-      <c r="AD100" t="inlineStr">
+      <c r="AE100" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE100" t="n">
+      <c r="AF100" t="n">
         <v>650</v>
       </c>
     </row>
@@ -11273,20 +11575,23 @@
         <v>926.1197128341455</v>
       </c>
       <c r="AA101" t="n">
+        <v>907.4135677030415</v>
+      </c>
+      <c r="AB101" t="n">
         <v>174.5647971605689</v>
       </c>
-      <c r="AB101" t="n">
+      <c r="AC101" t="n">
         <v>174.5647992020518</v>
       </c>
-      <c r="AC101" t="n">
+      <c r="AD101" t="n">
         <v>143.6428257325555</v>
       </c>
-      <c r="AD101" t="inlineStr">
+      <c r="AE101" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
       </c>
-      <c r="AE101" t="n">
+      <c r="AF101" t="n">
         <v>650</v>
       </c>
     </row>
@@ -11380,20 +11685,23 @@
         <v>521.9985140176923</v>
       </c>
       <c r="AA102" t="n">
+        <v>540.4419061344615</v>
+      </c>
+      <c r="AB102" t="n">
         <v>114.8737923470467</v>
       </c>
-      <c r="AB102" t="n">
+      <c r="AC102" t="n">
         <v>115.042695030218</v>
       </c>
-      <c r="AC102" t="n">
+      <c r="AD102" t="n">
         <v>104.0452020468238</v>
       </c>
-      <c r="AD102" t="inlineStr">
+      <c r="AE102" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE102" t="n">
+      <c r="AF102" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11487,20 +11795,23 @@
         <v>521.9985140176923</v>
       </c>
       <c r="AA103" t="n">
+        <v>540.4419061344615</v>
+      </c>
+      <c r="AB103" t="n">
         <v>114.8737923470467</v>
       </c>
-      <c r="AB103" t="n">
+      <c r="AC103" t="n">
         <v>115.042695030218</v>
       </c>
-      <c r="AC103" t="n">
+      <c r="AD103" t="n">
         <v>104.0452020468238</v>
       </c>
-      <c r="AD103" t="inlineStr">
+      <c r="AE103" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE103" t="n">
+      <c r="AF103" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11594,20 +11905,23 @@
         <v>521.9985140176923</v>
       </c>
       <c r="AA104" t="n">
+        <v>540.4419061344615</v>
+      </c>
+      <c r="AB104" t="n">
         <v>114.8737923470467</v>
       </c>
-      <c r="AB104" t="n">
+      <c r="AC104" t="n">
         <v>115.042695030218</v>
       </c>
-      <c r="AC104" t="n">
+      <c r="AD104" t="n">
         <v>104.0452020468238</v>
       </c>
-      <c r="AD104" t="inlineStr">
+      <c r="AE104" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE104" t="n">
+      <c r="AF104" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11701,20 +12015,23 @@
         <v>434.4635772996394</v>
       </c>
       <c r="AA105" t="n">
+        <v>420.2608230778388</v>
+      </c>
+      <c r="AB105" t="n">
         <v>95.75093708521271</v>
       </c>
-      <c r="AB105" t="n">
+      <c r="AC105" t="n">
         <v>95.75096381083935</v>
       </c>
-      <c r="AC105" t="n">
+      <c r="AD105" t="n">
         <v>88.18329038338516</v>
       </c>
-      <c r="AD105" t="inlineStr">
+      <c r="AE105" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE105" t="n">
+      <c r="AF105" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11808,20 +12125,23 @@
         <v>427.2686508509605</v>
       </c>
       <c r="AA106" t="n">
-        <v>94.16528165471703</v>
+        <v>456.7746191025172</v>
       </c>
       <c r="AB106" t="n">
         <v>94.16528165471703</v>
       </c>
       <c r="AC106" t="n">
+        <v>94.16528165471703</v>
+      </c>
+      <c r="AD106" t="n">
         <v>90.70263092442542</v>
       </c>
-      <c r="AD106" t="inlineStr">
+      <c r="AE106" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE106" t="n">
+      <c r="AF106" t="n">
         <v>760</v>
       </c>
     </row>
@@ -11903,7 +12223,7 @@
         <v>155.8168351747937</v>
       </c>
       <c r="W107" t="n">
-        <v>166.6254805025663</v>
+        <v>166.6254805025665</v>
       </c>
       <c r="X107" t="n">
         <v>758.5994954874188</v>
@@ -11912,23 +12232,26 @@
         <v>709.6568256250691</v>
       </c>
       <c r="Z107" t="n">
-        <v>758.8840411824239</v>
+        <v>758.8840411824249</v>
       </c>
       <c r="AA107" t="n">
+        <v>720.3764159549247</v>
+      </c>
+      <c r="AB107" t="n">
         <v>167.1869326556713</v>
       </c>
-      <c r="AB107" t="n">
-        <v>167.2496433775096</v>
-      </c>
       <c r="AC107" t="n">
+        <v>167.2496433775099</v>
+      </c>
+      <c r="AD107" t="n">
         <v>156.4005099135787</v>
       </c>
-      <c r="AD107" t="inlineStr">
+      <c r="AE107" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE107" t="n">
+      <c r="AF107" t="n">
         <v>760</v>
       </c>
     </row>
@@ -12022,20 +12345,23 @@
         <v>366.2374999999999</v>
       </c>
       <c r="AA108" t="n">
+        <v>371.3181192240186</v>
+      </c>
+      <c r="AB108" t="n">
         <v>80.71468320567367</v>
       </c>
-      <c r="AB108" t="n">
+      <c r="AC108" t="n">
         <v>80.71469149757279</v>
       </c>
-      <c r="AC108" t="n">
+      <c r="AD108" t="n">
         <v>66.83726520446452</v>
       </c>
-      <c r="AD108" t="inlineStr">
+      <c r="AE108" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE108" t="n">
+      <c r="AF108" t="n">
         <v>760</v>
       </c>
     </row>
@@ -12129,20 +12455,23 @@
         <v>602.7651781581285</v>
       </c>
       <c r="AA109" t="n">
+        <v>562.1919468973656</v>
+      </c>
+      <c r="AB109" t="n">
         <v>132.8427907769954</v>
       </c>
-      <c r="AB109" t="n">
+      <c r="AC109" t="n">
         <v>132.842773884468</v>
       </c>
-      <c r="AC109" t="n">
+      <c r="AD109" t="n">
         <v>114.3917347930844</v>
       </c>
-      <c r="AD109" t="inlineStr">
+      <c r="AE109" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
       </c>
-      <c r="AE109" t="n">
+      <c r="AF109" t="n">
         <v>760</v>
       </c>
     </row>
@@ -12236,20 +12565,23 @@
         <v>956.7370253235739</v>
       </c>
       <c r="AA110" t="n">
+        <v>949.7020495142477</v>
+      </c>
+      <c r="AB110" t="n">
         <v>115.1375358474916</v>
       </c>
-      <c r="AB110" t="n">
+      <c r="AC110" t="n">
         <v>115.1375187763498</v>
       </c>
-      <c r="AC110" t="n">
+      <c r="AD110" t="n">
         <v>97.04205356340077</v>
       </c>
-      <c r="AD110" t="inlineStr">
+      <c r="AE110" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE110" t="n">
+      <c r="AF110" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12343,20 +12675,23 @@
         <v>1110.21808020992</v>
       </c>
       <c r="AA111" t="n">
+        <v>1115.047544109667</v>
+      </c>
+      <c r="AB111" t="n">
         <v>133.6080440695284</v>
       </c>
-      <c r="AB111" t="n">
+      <c r="AC111" t="n">
         <v>133.6080361401092</v>
       </c>
-      <c r="AC111" t="n">
+      <c r="AD111" t="n">
         <v>130.1006029198738</v>
       </c>
-      <c r="AD111" t="inlineStr">
+      <c r="AE111" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE111" t="n">
+      <c r="AF111" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12436,12 +12771,13 @@
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr">
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12533,20 +12869,23 @@
         <v>881.0374312999209</v>
       </c>
       <c r="AA113" t="n">
+        <v>912.7453053837089</v>
+      </c>
+      <c r="AB113" t="n">
         <v>106.0275289614851</v>
       </c>
-      <c r="AB113" t="n">
+      <c r="AC113" t="n">
         <v>106.0275301404311</v>
       </c>
-      <c r="AC113" t="n">
+      <c r="AD113" t="n">
         <v>95.80323086216298</v>
       </c>
-      <c r="AD113" t="inlineStr">
+      <c r="AE113" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE113" t="n">
+      <c r="AF113" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12626,12 +12965,13 @@
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr">
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12723,20 +13063,23 @@
         <v>909.9970697282836</v>
       </c>
       <c r="AA115" t="n">
+        <v>915.6819185593666</v>
+      </c>
+      <c r="AB115" t="n">
         <v>109.5126411271596</v>
       </c>
-      <c r="AB115" t="n">
+      <c r="AC115" t="n">
         <v>109.512647602227</v>
       </c>
-      <c r="AC115" t="n">
+      <c r="AD115" t="n">
         <v>93.9998825591429</v>
       </c>
-      <c r="AD115" t="inlineStr">
+      <c r="AE115" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE115" t="n">
+      <c r="AF115" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12830,20 +13173,23 @@
         <v>1042.227620910645</v>
       </c>
       <c r="AA116" t="n">
+        <v>1033.709442693672</v>
+      </c>
+      <c r="AB116" t="n">
         <v>125.4257868445785</v>
       </c>
-      <c r="AB116" t="n">
+      <c r="AC116" t="n">
         <v>125.4257952766542</v>
       </c>
-      <c r="AC116" t="n">
+      <c r="AD116" t="n">
         <v>118.4011864964553</v>
       </c>
-      <c r="AD116" t="inlineStr">
+      <c r="AE116" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE116" t="n">
+      <c r="AF116" t="n">
         <v>415</v>
       </c>
     </row>
@@ -12923,12 +13269,13 @@
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr">
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13006,12 +13353,13 @@
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr">
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13089,12 +13437,13 @@
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr">
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13172,12 +13521,13 @@
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
-      <c r="AD120" t="inlineStr">
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13269,20 +13619,23 @@
         <v>1031.49207976843</v>
       </c>
       <c r="AA121" t="n">
+        <v>1032.240159211539</v>
+      </c>
+      <c r="AB121" t="n">
         <v>119.6470799187863</v>
       </c>
-      <c r="AB121" t="n">
+      <c r="AC121" t="n">
         <v>119.6470725614111</v>
       </c>
-      <c r="AC121" t="n">
+      <c r="AD121" t="n">
         <v>111.7664488828766</v>
       </c>
-      <c r="AD121" t="inlineStr">
+      <c r="AE121" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE121" t="n">
+      <c r="AF121" t="n">
         <v>400</v>
       </c>
     </row>
@@ -13376,20 +13729,23 @@
         <v>944.7267862324011</v>
       </c>
       <c r="AA122" t="n">
+        <v>950.9591661186092</v>
+      </c>
+      <c r="AB122" t="n">
         <v>109.5828183517904</v>
       </c>
-      <c r="AB122" t="n">
+      <c r="AC122" t="n">
         <v>109.5828039401261</v>
       </c>
-      <c r="AC122" t="n">
+      <c r="AD122" t="n">
         <v>93.73001997188408</v>
       </c>
-      <c r="AD122" t="inlineStr">
+      <c r="AE122" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE122" t="n">
+      <c r="AF122" t="n">
         <v>400</v>
       </c>
     </row>
@@ -13469,12 +13825,13 @@
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr">
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13552,12 +13909,13 @@
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr">
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13635,12 +13993,13 @@
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
-      <c r="AD125" t="inlineStr">
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13718,12 +14077,13 @@
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
-      <c r="AD126" t="inlineStr">
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13815,20 +14175,23 @@
         <v>1115.238666160746</v>
       </c>
       <c r="AA127" t="n">
+        <v>1105.90699104923</v>
+      </c>
+      <c r="AB127" t="n">
         <v>119.6591046228385</v>
       </c>
-      <c r="AB127" t="n">
+      <c r="AC127" t="n">
         <v>119.6590995833226</v>
       </c>
-      <c r="AC127" t="n">
+      <c r="AD127" t="n">
         <v>108.5265281429861</v>
       </c>
-      <c r="AD127" t="inlineStr">
+      <c r="AE127" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE127" t="n">
+      <c r="AF127" t="n">
         <v>370</v>
       </c>
     </row>
@@ -13922,20 +14285,23 @@
         <v>1153.639469803743</v>
       </c>
       <c r="AA128" t="n">
+        <v>1158.461670590168</v>
+      </c>
+      <c r="AB128" t="n">
         <v>128.7973561211043</v>
       </c>
-      <c r="AB128" t="n">
+      <c r="AC128" t="n">
         <v>128.7973785822888</v>
       </c>
-      <c r="AC128" t="n">
+      <c r="AD128" t="n">
         <v>107.5720734014774</v>
       </c>
-      <c r="AD128" t="inlineStr">
+      <c r="AE128" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE128" t="n">
+      <c r="AF128" t="n">
         <v>385</v>
       </c>
     </row>
@@ -14029,20 +14395,23 @@
         <v>1411.538481808059</v>
       </c>
       <c r="AA129" t="n">
+        <v>1464.463499246396</v>
+      </c>
+      <c r="AB129" t="n">
         <v>157.5903685005458</v>
       </c>
-      <c r="AB129" t="n">
+      <c r="AC129" t="n">
         <v>157.5903572853917</v>
       </c>
-      <c r="AC129" t="n">
+      <c r="AD129" t="n">
         <v>149.1738656692071</v>
       </c>
-      <c r="AD129" t="inlineStr">
+      <c r="AE129" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE129" t="n">
+      <c r="AF129" t="n">
         <v>385</v>
       </c>
     </row>
@@ -14136,20 +14505,23 @@
         <v>1076.071197854289</v>
       </c>
       <c r="AA130" t="n">
+        <v>1079.817843597504</v>
+      </c>
+      <c r="AB130" t="n">
         <v>141.9804904030113</v>
       </c>
-      <c r="AB130" t="n">
+      <c r="AC130" t="n">
         <v>141.980464279276</v>
       </c>
-      <c r="AC130" t="n">
+      <c r="AD130" t="n">
         <v>124.5445592916061</v>
       </c>
-      <c r="AD130" t="inlineStr">
+      <c r="AE130" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE130" t="n">
+      <c r="AF130" t="n">
         <v>455</v>
       </c>
     </row>
@@ -14243,20 +14615,23 @@
         <v>775.9822058456383</v>
       </c>
       <c r="AA131" t="n">
-        <v>102.3857102374923</v>
+        <v>771.9446223661381</v>
       </c>
       <c r="AB131" t="n">
         <v>102.3857102374923</v>
       </c>
       <c r="AC131" t="n">
+        <v>102.3857102374923</v>
+      </c>
+      <c r="AD131" t="n">
         <v>92.57596576968098</v>
       </c>
-      <c r="AD131" t="inlineStr">
+      <c r="AE131" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE131" t="n">
+      <c r="AF131" t="n">
         <v>455</v>
       </c>
     </row>
@@ -14350,20 +14725,23 @@
         <v>1203.37880316476</v>
       </c>
       <c r="AA132" t="n">
+        <v>1230.945655929441</v>
+      </c>
+      <c r="AB132" t="n">
         <v>158.7778615821529</v>
       </c>
-      <c r="AB132" t="n">
+      <c r="AC132" t="n">
         <v>158.777859232608</v>
       </c>
-      <c r="AC132" t="n">
+      <c r="AD132" t="n">
         <v>144.857868948899</v>
       </c>
-      <c r="AD132" t="inlineStr">
+      <c r="AE132" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE132" t="n">
+      <c r="AF132" t="n">
         <v>455</v>
       </c>
     </row>
@@ -14457,20 +14835,23 @@
         <v>1052.698162034855</v>
       </c>
       <c r="AA133" t="n">
+        <v>1035.302842242911</v>
+      </c>
+      <c r="AB133" t="n">
         <v>138.8965460347184</v>
       </c>
-      <c r="AB133" t="n">
+      <c r="AC133" t="n">
         <v>138.8965470776294</v>
       </c>
-      <c r="AC133" t="n">
+      <c r="AD133" t="n">
         <v>121.2218398161043</v>
       </c>
-      <c r="AD133" t="inlineStr">
+      <c r="AE133" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
       </c>
-      <c r="AE133" t="n">
+      <c r="AF133" t="n">
         <v>455</v>
       </c>
     </row>

--- a/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_full_Filtered_Data_with_real_length.xlsx
@@ -735,17 +735,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37ddc</t>
+          <t>67bf3ddcdad24bc04d4b4d26</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>81.50992839559875</v>
+        <v>117.4184821719449</v>
       </c>
       <c r="V2" t="n">
         <v>650</v>
       </c>
       <c r="W2" t="n">
-        <v>82.86476042865816</v>
+        <v>119.4064998440595</v>
       </c>
       <c r="X2" t="n">
         <v>389.3041194</v>
@@ -762,43 +762,43 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>439.6229278929971</v>
+        <v>633.4880448498288</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.62073892911748</v>
+        <v>60.79437194887289</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.421281423920624</v>
+        <v>47.54216625654342</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.755508510871518</v>
+        <v>58.10742903379105</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.485928395598748</v>
+        <v>44.39448217194494</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.92692839559875</v>
+        <v>37.83548217194495</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.244928395598734</v>
+        <v>43.15348217194493</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.840760428658157</v>
+        <v>46.38249984405945</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.28176042865816</v>
+        <v>39.82349984405946</v>
       </c>
       <c r="AK2" t="n">
-        <v>8.599760428658143</v>
+        <v>45.14149984405944</v>
       </c>
       <c r="AL2" t="n">
-        <v>13.4760632513395</v>
+        <v>63.51678878732945</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.123695297561238</v>
+        <v>50.04020939655386</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.57982956797703</v>
+        <v>60.78435311931519</v>
       </c>
       <c r="AO2" t="n">
         <v>2.208672299530363</v>
@@ -889,17 +889,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37dda</t>
+          <t>67bf3ddcdad24bc04d4b4d26</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>124.3586459445669</v>
+        <v>117.4184821719449</v>
       </c>
       <c r="V3" t="n">
         <v>650</v>
       </c>
       <c r="W3" t="n">
-        <v>126.3122132618108</v>
+        <v>119.4064998440595</v>
       </c>
       <c r="X3" t="n">
         <v>622.5255761999999</v>
@@ -916,43 +916,43 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>670.1249691128938</v>
+        <v>633.4880448498288</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.80103170512751</v>
+        <v>4.617486521209719</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.2790954317047</v>
+        <v>7.732669459963583</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.73894648836618</v>
+        <v>1.106287966222283</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.12264594456691</v>
+        <v>5.18248217194494</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.900354055433084</v>
+        <v>9.840517828055056</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.626645944566931</v>
+        <v>1.313517828055041</v>
       </c>
       <c r="AI3" t="n">
-        <v>14.07621326181075</v>
+        <v>7.170499844059449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.9467867381892461</v>
+        <v>7.852500155940547</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.580213261810769</v>
+        <v>0.6744998440594685</v>
       </c>
       <c r="AL3" t="n">
-        <v>12.54162056898923</v>
+        <v>6.388769952652846</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7439841097205275</v>
+        <v>6.170487082202867</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.384305209893516</v>
+        <v>0.5680859785563021</v>
       </c>
       <c r="AO3" t="n">
         <v>18.25016417290674</v>
@@ -1043,17 +1043,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37dde</t>
+          <t>67bf3ddcdad24bc04d4b4d28</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>118.57383667686</v>
+        <v>120.7706087240069</v>
       </c>
       <c r="V4" t="n">
         <v>650</v>
       </c>
       <c r="W4" t="n">
-        <v>120.8918447679914</v>
+        <v>123.2328539777825</v>
       </c>
       <c r="X4" t="n">
         <v>487.2917652</v>
@@ -1070,43 +1070,43 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>641.3682544951844</v>
+        <v>653.7880251879249</v>
       </c>
       <c r="AC4" t="n">
-        <v>22.7370783753519</v>
+        <v>25.01098120653248</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.179122019301638</v>
+        <v>3.053628851804656</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.03330523506734</v>
+        <v>21.23858968017238</v>
       </c>
       <c r="AF4" t="n">
-        <v>21.96583667685996</v>
+        <v>24.1626087240069</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.381836676859976</v>
+        <v>3.578608724006912</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.95983667685998</v>
+        <v>21.15660872400692</v>
       </c>
       <c r="AI4" t="n">
-        <v>24.28384476799144</v>
+        <v>26.62485397778249</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.699844767991451</v>
+        <v>6.040853977782504</v>
       </c>
       <c r="AK4" t="n">
-        <v>21.27784476799145</v>
+        <v>23.61885397778251</v>
       </c>
       <c r="AL4" t="n">
-        <v>25.13647396488017</v>
+        <v>27.55967826451484</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.157079636827984</v>
+        <v>5.154664121938788</v>
       </c>
       <c r="AN4" t="n">
-        <v>21.36029550865486</v>
+        <v>23.71037602925544</v>
       </c>
       <c r="AO4" t="n">
         <v>10.66292156400318</v>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c28</t>
+          <t>67bf3ddbdad24bc04d4b4bac</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>138.9271593866406</v>
+        <v>155.8119770348551</v>
       </c>
       <c r="V5" t="n">
         <v>650</v>
       </c>
       <c r="W5" t="n">
-        <v>140.1876716580254</v>
+        <v>157.4003108860072</v>
       </c>
       <c r="X5" t="n">
         <v>662.4526705000001</v>
@@ -1224,43 +1224,43 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>743.7385246755517</v>
+        <v>835.0568464208494</v>
       </c>
       <c r="AC5" t="n">
-        <v>22.0318497840402</v>
+        <v>36.8632588474286</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.510132463074864</v>
+        <v>16.09046390508962</v>
       </c>
       <c r="AE5" t="n">
-        <v>21.98684607254612</v>
+        <v>36.81278551094957</v>
       </c>
       <c r="AF5" t="n">
-        <v>25.08215938664057</v>
+        <v>41.96697703485509</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.71115938664056</v>
+        <v>21.59597703485508</v>
       </c>
       <c r="AH5" t="n">
-        <v>25.0401593866406</v>
+        <v>41.92497703485512</v>
       </c>
       <c r="AI5" t="n">
-        <v>26.34267165802541</v>
+        <v>43.55531088600722</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.9716716580254</v>
+        <v>23.18431088600721</v>
       </c>
       <c r="AK5" t="n">
-        <v>26.30067165802544</v>
+        <v>43.51331088600725</v>
       </c>
       <c r="AL5" t="n">
-        <v>23.13906773070878</v>
+        <v>38.25843110018641</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.449299381612773</v>
+        <v>17.27388007838649</v>
       </c>
       <c r="AN5" t="n">
-        <v>23.09365569206797</v>
+        <v>38.20744324286991</v>
       </c>
       <c r="AO5" t="n">
         <v>14.06581147825611</v>
@@ -1351,17 +1351,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c2c</t>
+          <t>67bf3ddbdad24bc04d4b4bb0</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>101.481407182263</v>
+        <v>120.1549968946658</v>
       </c>
       <c r="V6" t="n">
         <v>650</v>
       </c>
       <c r="W6" t="n">
-        <v>102.429653242667</v>
+        <v>120.7789101437634</v>
       </c>
       <c r="X6" t="n">
         <v>512.8894838</v>
@@ -1378,43 +1378,43 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>543.4206751900805</v>
+        <v>640.7691017322148</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.13399648551547</v>
+        <v>36.31979861435614</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9755198279251313</v>
+        <v>19.55602122831194</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.29670261069951</v>
+        <v>32.96041440611912</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.33940718226305</v>
+        <v>32.01299689466579</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9804071822630362</v>
+        <v>19.65399689466578</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.11240718226304</v>
+        <v>29.78599689466579</v>
       </c>
       <c r="AI6" t="n">
-        <v>14.28765324266698</v>
+        <v>32.63691014376337</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.928653242666968</v>
+        <v>20.27791014376336</v>
       </c>
       <c r="AK6" t="n">
-        <v>12.06065324266697</v>
+        <v>30.40991014376337</v>
       </c>
       <c r="AL6" t="n">
-        <v>16.20981285047648</v>
+        <v>37.02764873018921</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.919038857988446</v>
+        <v>20.17682425424957</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.34600719568322</v>
+        <v>33.6508206838223</v>
       </c>
       <c r="AO6" t="n">
         <v>11.17475817156206</v>
@@ -1505,17 +1505,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c2a</t>
+          <t>67bf3ddbdad24bc04d4b4bae</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>152.4057152735141</v>
+        <v>137.0222512975854</v>
       </c>
       <c r="V7" t="n">
         <v>650</v>
       </c>
       <c r="W7" t="n">
-        <v>152.6215181709518</v>
+        <v>137.2399712919454</v>
       </c>
       <c r="X7" t="n">
         <v>854.9593392</v>
@@ -1532,43 +1532,43 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>809.7038877648583</v>
+        <v>728.1000716252589</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.15157218380605</v>
+        <v>0.9668608719388863</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.625471722020468</v>
+        <v>13.35328331557341</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.728162959758565</v>
+        <v>6.741906717858153</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.04571527351405</v>
+        <v>1.337748702414643</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.733284726485948</v>
+        <v>21.11674870241464</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.477715273514065</v>
+        <v>9.905748702414627</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.2615181709518</v>
+        <v>1.120028708054576</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.517481829048194</v>
+        <v>20.89902870805457</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.693518170951819</v>
+        <v>9.68802870805456</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.30754421144247</v>
+        <v>0.8095032582065453</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.48900766354169</v>
+        <v>13.21560697111691</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.875039591467807</v>
+        <v>6.593725299503539</v>
       </c>
       <c r="AO7" t="n">
         <v>23.40096509023189</v>
@@ -1659,17 +1659,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c2e</t>
+          <t>67bf3ddbdad24bc04d4b4bb2</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>94.74224333026524</v>
+        <v>93.62920945507291</v>
       </c>
       <c r="V8" t="n">
         <v>650</v>
       </c>
       <c r="W8" t="n">
-        <v>94.79940439215453</v>
+        <v>93.66962163250699</v>
       </c>
       <c r="X8" t="n">
         <v>530.5498453</v>
@@ -1686,43 +1686,43 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>502.9398685979655</v>
+        <v>496.9460251099741</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.33808137611312</v>
+        <v>14.97133913954703</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.205593234586201</v>
+        <v>3.354483990263209</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.910244173711859</v>
+        <v>2.689504431022004</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.30524333026524</v>
+        <v>12.19220945507291</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.136756669734766</v>
+        <v>3.249790544927095</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.565243330265261</v>
+        <v>2.452209455072932</v>
       </c>
       <c r="AI8" t="n">
-        <v>13.36240439215453</v>
+        <v>12.23262163250699</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.079595607845476</v>
+        <v>3.209378367493017</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.62240439215455</v>
+        <v>2.49262163250701</v>
       </c>
       <c r="AL8" t="n">
-        <v>16.4082719060802</v>
+        <v>15.02096299287424</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.14659070370821</v>
+        <v>3.312769916589783</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.972936587247388</v>
+        <v>2.733827206978745</v>
       </c>
       <c r="AO8" t="n">
         <v>15.60097467389488</v>
@@ -1813,17 +1813,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ef2</t>
+          <t>67bf3ddcdad24bc04d4b4e22</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>118.7944420475408</v>
+        <v>102.0193333379884</v>
       </c>
       <c r="V9" t="n">
         <v>650</v>
       </c>
       <c r="W9" t="n">
-        <v>119.685937345922</v>
+        <v>103.2508495854434</v>
       </c>
       <c r="X9" t="n">
         <v>622.8962273</v>
@@ -1840,43 +1840,43 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>634.9705463630951</v>
+        <v>547.7773732450662</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.19014248905815</v>
+        <v>1.075998663820671</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.06523248358767919</v>
+        <v>14.06510159624284</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.813163857526844</v>
+        <v>11.70520897840787</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.66544204754078</v>
+        <v>1.10966666201162</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0774420475407851</v>
+        <v>16.69766666201161</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.250442047540815</v>
+        <v>13.52466666201158</v>
       </c>
       <c r="AI9" t="n">
-        <v>16.55693734592204</v>
+        <v>0.1218495854433854</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9689373459220434</v>
+        <v>15.46615041455661</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.141937345922074</v>
+        <v>12.29315041455658</v>
       </c>
       <c r="AL9" t="n">
-        <v>16.05458924834143</v>
+        <v>0.1181525908749095</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.8161740491437987</v>
+        <v>13.02774700721599</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.584727329780927</v>
+        <v>10.63936718008428</v>
       </c>
       <c r="AO9" t="n">
         <v>18.80332994168671</v>
@@ -1967,17 +1967,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ef4</t>
+          <t>67bf3ddcdad24bc04d4b4e22</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>128.3719829361818</v>
+        <v>102.0193333379884</v>
       </c>
       <c r="V10" t="n">
         <v>650</v>
       </c>
       <c r="W10" t="n">
-        <v>128.887258103979</v>
+        <v>103.2508495854434</v>
       </c>
       <c r="X10" t="n">
         <v>606.5888621</v>
@@ -1994,43 +1994,43 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>683.7863704988832</v>
+        <v>547.7773732450662</v>
       </c>
       <c r="AC10" t="n">
-        <v>18.94003792845529</v>
+        <v>5.476389013260095</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.042126614992075</v>
+        <v>16.52128848867655</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.03978317966749</v>
+        <v>11.75485183853475</v>
       </c>
       <c r="AF10" t="n">
-        <v>20.4419829361818</v>
+        <v>5.910666662011621</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.161982936181815</v>
+        <v>20.19066666201161</v>
       </c>
       <c r="AH10" t="n">
-        <v>12.76298293618179</v>
+        <v>13.58966666201164</v>
       </c>
       <c r="AI10" t="n">
-        <v>20.95725810397894</v>
+        <v>4.679150414556617</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.677258103978957</v>
+        <v>18.9591504145566</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.27825810397893</v>
+        <v>12.35815041455663</v>
       </c>
       <c r="AL10" t="n">
-        <v>19.41745400164824</v>
+        <v>4.335356633518591</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.463757551737957</v>
+        <v>15.51358351571607</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.48548824397662</v>
+        <v>10.6896092990655</v>
       </c>
       <c r="AO10" t="n">
         <v>24.44762413656684</v>
@@ -2121,17 +2121,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ef6</t>
+          <t>67bf3ddcdad24bc04d4b4e22</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>132.2505932421517</v>
+        <v>102.0193333379884</v>
       </c>
       <c r="V11" t="n">
         <v>650</v>
       </c>
       <c r="W11" t="n">
-        <v>132.4945773345213</v>
+        <v>103.2508495854434</v>
       </c>
       <c r="X11" t="n">
         <v>654.9862677</v>
@@ -2148,43 +2148,43 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>702.924303605455</v>
+        <v>547.7773732450662</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.64910110606127</v>
+        <v>13.87284863236722</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.767052388956683</v>
+        <v>19.18172479621939</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.942013123254</v>
+        <v>18.27534919613534</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.7985932421517</v>
+        <v>16.43266666201161</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.01759324215169</v>
+        <v>24.21366666201162</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.417593242151668</v>
+        <v>22.81366666201164</v>
       </c>
       <c r="AI11" t="n">
-        <v>14.0425773345213</v>
+        <v>15.20115041455661</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.261577334521292</v>
+        <v>22.98215041455661</v>
       </c>
       <c r="AK11" t="n">
-        <v>7.661577334521269</v>
+        <v>21.58215041455664</v>
       </c>
       <c r="AL11" t="n">
-        <v>11.85507828869187</v>
+        <v>12.83317328078598</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.960333141509186</v>
+        <v>18.20613501584896</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.137461516202661</v>
+        <v>17.28881819275082</v>
       </c>
       <c r="AO11" t="n">
         <v>17.64957056632869</v>
@@ -2275,17 +2275,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a38044</t>
+          <t>67bf3ddddad24bc04d4b4f48</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>138.6755703854776</v>
+        <v>135.8791743462225</v>
       </c>
       <c r="V12" t="n">
         <v>650</v>
       </c>
       <c r="W12" t="n">
-        <v>138.6931893567462</v>
+        <v>136.5328357914365</v>
       </c>
       <c r="X12" t="n">
         <v>656.7793015999999</v>
@@ -2302,43 +2302,43 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>735.8098384454353</v>
+        <v>724.3485012647983</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.915308764033735</v>
+        <v>4.75935912465307</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.977585939982276</v>
+        <v>5.913880109249058</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02565665426834002</v>
+        <v>1.991362993203592</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.969570385477596</v>
+        <v>6.17317434622251</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.744429614522403</v>
+        <v>8.540825653777489</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.03557038547762659</v>
+        <v>2.760825653777459</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.987189356746256</v>
+        <v>6.826835791436508</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.726810643253742</v>
+        <v>7.88716420856349</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.05318935674628733</v>
+        <v>2.107164208563461</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.928892539085514</v>
+        <v>5.263315337329429</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.965386126058539</v>
+        <v>5.461268666779872</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.03836508709339825</v>
+        <v>1.519881858456045</v>
       </c>
       <c r="AO12" t="n">
         <v>13.22511096159317</v>
@@ -2429,17 +2429,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a38042</t>
+          <t>67bf3ddddad24bc04d4b4f48</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>123.8805402669726</v>
+        <v>135.8791743462225</v>
       </c>
       <c r="V13" t="n">
         <v>650</v>
       </c>
       <c r="W13" t="n">
-        <v>124.5098768381093</v>
+        <v>136.5328357914365</v>
       </c>
       <c r="X13" t="n">
         <v>705.1923812</v>
@@ -2456,43 +2456,43 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>660.5630224960568</v>
+        <v>724.3485012647983</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.688236585513467</v>
+        <v>1.252756632902496</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.04817346035123</v>
+        <v>2.432611928006992</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.112759225791358</v>
+        <v>0.7871162205510078</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.31745973302736</v>
+        <v>1.681174346222491</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.38645973302735</v>
+        <v>3.387825653777497</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.9374597330274</v>
+        <v>1.061174346222458</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.688123161890715</v>
+        <v>2.33483579143649</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14.7571231618907</v>
+        <v>2.734164208563499</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.30812316189075</v>
+        <v>1.714835791436457</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.219275370639439</v>
+        <v>1.739843955525782</v>
       </c>
       <c r="AM13" t="n">
-        <v>10.59628136018634</v>
+        <v>1.963253468921926</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.645954666209813</v>
+        <v>1.271963529674417</v>
       </c>
       <c r="AO13" t="n">
         <v>0.2295287927671552</v>
@@ -2583,17 +2583,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37dad</t>
+          <t>67bf3ddcdad24bc04d4b4d03</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>127.4025353424326</v>
+        <v>123.9311910923501</v>
       </c>
       <c r="V14" t="n">
         <v>650</v>
       </c>
       <c r="W14" t="n">
-        <v>129.3929495129303</v>
+        <v>123.9635918661846</v>
       </c>
       <c r="X14" t="n">
         <v>594.1162231999999</v>
@@ -2610,43 +2610,43 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>686.46921826992</v>
+        <v>657.6648134433891</v>
       </c>
       <c r="AC14" t="n">
-        <v>32.85490045719593</v>
+        <v>29.2349952994391</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.43796571729087</v>
+        <v>15.21087961434067</v>
       </c>
       <c r="AE14" t="n">
-        <v>20.85004585611413</v>
+        <v>17.5572376660945</v>
       </c>
       <c r="AF14" t="n">
-        <v>31.50653534243261</v>
+        <v>28.03519109235012</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.83353534243261</v>
+        <v>16.36219109235012</v>
       </c>
       <c r="AH14" t="n">
-        <v>21.98053534243263</v>
+        <v>18.50919109235014</v>
       </c>
       <c r="AI14" t="n">
-        <v>33.49694951293027</v>
+        <v>28.0675918661846</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21.82394951293027</v>
+        <v>16.3945918661846</v>
       </c>
       <c r="AK14" t="n">
-        <v>23.97094951293029</v>
+        <v>18.54159186618462</v>
       </c>
       <c r="AL14" t="n">
-        <v>34.93049711450975</v>
+        <v>29.26878270854321</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.28832610968799</v>
+        <v>15.24100053564187</v>
       </c>
       <c r="AN14" t="n">
-        <v>22.73809025908282</v>
+        <v>17.58797202309254</v>
       </c>
       <c r="AO14" t="n">
         <v>11.86297133327768</v>
@@ -2737,17 +2737,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37db1</t>
+          <t>67bf3ddcdad24bc04d4b4d03</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>99.09866769195092</v>
+        <v>123.9311910923501</v>
       </c>
       <c r="V15" t="n">
         <v>650</v>
       </c>
       <c r="W15" t="n">
-        <v>99.18602298288729</v>
+        <v>123.9635918661846</v>
       </c>
       <c r="X15" t="n">
         <v>501.2809844</v>
@@ -2764,43 +2764,43 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>526.2122234377298</v>
+        <v>657.6648134433891</v>
       </c>
       <c r="AC15" t="n">
-        <v>16.58529628116248</v>
+        <v>45.79968599469431</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.18815588087889</v>
+        <v>39.05010949807592</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.41065969482616</v>
+        <v>39.32836916924319</v>
       </c>
       <c r="AF15" t="n">
-        <v>14.09766769195092</v>
+        <v>38.93019109235011</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.971667691950927</v>
+        <v>34.80419109235012</v>
       </c>
       <c r="AH15" t="n">
-        <v>10.14966769195092</v>
+        <v>34.98219109235012</v>
       </c>
       <c r="AI15" t="n">
-        <v>14.18502298288729</v>
+        <v>38.9625918661846</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.0590229828873</v>
+        <v>34.83659186618461</v>
       </c>
       <c r="AK15" t="n">
-        <v>10.2370229828873</v>
+        <v>35.0145918661846</v>
       </c>
       <c r="AL15" t="n">
-        <v>16.68806600262031</v>
+        <v>45.8378041036983</v>
       </c>
       <c r="AM15" t="n">
-        <v>11.28616803312947</v>
+        <v>39.08646298673197</v>
       </c>
       <c r="AN15" t="n">
-        <v>11.50886798377418</v>
+        <v>39.36479540656399</v>
       </c>
       <c r="AO15" t="n">
         <v>16.58976383117439</v>
@@ -2891,17 +2891,17 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37dab</t>
+          <t>67bf3ddcdad24bc04d4b4d03</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>117.0090647947788</v>
+        <v>123.9311910923501</v>
       </c>
       <c r="V16" t="n">
         <v>650</v>
       </c>
       <c r="W16" t="n">
-        <v>117.8683610280097</v>
+        <v>123.9635918661846</v>
       </c>
       <c r="X16" t="n">
         <v>638.2091576</v>
@@ -2918,43 +2918,43 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>625.3277474408978</v>
+        <v>657.6648134433891</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.81097635908839</v>
+        <v>20.5439072972961</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.322911886317208</v>
+        <v>9.43538058063872</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.278564166068634</v>
+        <v>14.68420374443619</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.19906479477878</v>
+        <v>21.12119109235012</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.763064794778785</v>
+        <v>10.68519109235012</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.946064794778749</v>
+        <v>15.86819109235009</v>
       </c>
       <c r="AI16" t="n">
-        <v>15.0583610280097</v>
+        <v>21.1535918661846</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.622361028009706</v>
+        <v>10.71759186618461</v>
       </c>
       <c r="AK16" t="n">
-        <v>9.805361028009671</v>
+        <v>15.90059186618457</v>
       </c>
       <c r="AL16" t="n">
-        <v>14.6467863320783</v>
+        <v>20.57542249410038</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.081699157594711</v>
+        <v>9.463991546001276</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.073744970998092</v>
+        <v>14.71418697073426</v>
       </c>
       <c r="AO16" t="n">
         <v>13.10116831400438</v>
@@ -3045,17 +3045,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37daf</t>
+          <t>67bf3ddcdad24bc04d4b4d03</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>122.0412135551583</v>
+        <v>123.9311910923501</v>
       </c>
       <c r="V17" t="n">
         <v>650</v>
       </c>
       <c r="W17" t="n">
-        <v>122.0619515739483</v>
+        <v>123.9635918661846</v>
       </c>
       <c r="X17" t="n">
         <v>646.7865408</v>
@@ -3072,43 +3072,43 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>647.5760293963757</v>
+        <v>657.6648134433891</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.20915831812445</v>
+        <v>11.91590006172348</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.337318377211673</v>
+        <v>7.984099306731944</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.803602101001649</v>
+        <v>11.50406324382573</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.30521355515829</v>
+        <v>13.19519109235011</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.273213555158293</v>
+        <v>9.163191092350118</v>
       </c>
       <c r="AH17" t="n">
-        <v>10.89621355515828</v>
+        <v>12.78619109235011</v>
       </c>
       <c r="AI17" t="n">
-        <v>11.32595157394826</v>
+        <v>13.2275918661846</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.293951573948263</v>
+        <v>9.1955918661846</v>
       </c>
       <c r="AK17" t="n">
-        <v>10.91695157394825</v>
+        <v>12.81859186618459</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.2278857588754</v>
+        <v>11.94515953816699</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.355387890307632</v>
+        <v>8.012330846738289</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.822260627062175</v>
+        <v>11.53321504897619</v>
       </c>
       <c r="AO17" t="n">
         <v>12.82108474337088</v>
@@ -3199,17 +3199,17 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f4c</t>
+          <t>67bf3ddcdad24bc04d4b4e74</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>143.0485030268128</v>
+        <v>138.7588978897171</v>
       </c>
       <c r="V18" t="n">
         <v>650</v>
       </c>
       <c r="W18" t="n">
-        <v>144.0222041230203</v>
+        <v>138.7772364103479</v>
       </c>
       <c r="X18" t="n">
         <v>641.310725</v>
@@ -3226,43 +3226,43 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>764.0818935653119</v>
+        <v>736.2557338006382</v>
       </c>
       <c r="AC18" t="n">
-        <v>21.35610012879137</v>
+        <v>17.71698654482891</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.319287460347061</v>
+        <v>0.7489679343396817</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.285686021486332</v>
+        <v>2.128477032478148</v>
       </c>
       <c r="AF18" t="n">
-        <v>25.17350302681282</v>
+        <v>20.88389788971708</v>
       </c>
       <c r="AG18" t="n">
-        <v>3.242503026812813</v>
+        <v>1.047102110282935</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.181503026812834</v>
+        <v>2.891897889717086</v>
       </c>
       <c r="AI18" t="n">
-        <v>26.14720412302026</v>
+        <v>20.90223641034791</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4.216204123020248</v>
+        <v>1.028763589652101</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.155204123020269</v>
+        <v>2.91023641034792</v>
       </c>
       <c r="AL18" t="n">
-        <v>22.18214559747212</v>
+        <v>17.73254414451572</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.015753346079744</v>
+        <v>0.7358508144515263</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.002343558789308</v>
+        <v>2.141974438493468</v>
       </c>
       <c r="AO18" t="n">
         <v>21.94660948387695</v>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f4e</t>
+          <t>67bf3ddcdad24bc04d4b4e74</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>131.1662242253796</v>
+        <v>138.7588978897171</v>
       </c>
       <c r="V19" t="n">
         <v>650</v>
       </c>
       <c r="W19" t="n">
-        <v>131.1829046395836</v>
+        <v>138.7772364103479</v>
       </c>
       <c r="X19" t="n">
         <v>616.1207470000001</v>
@@ -3380,43 +3380,43 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>695.9654783146694</v>
+        <v>736.2557338006382</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.82517923562148</v>
+        <v>22.52982285285626</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.52587214961787</v>
+        <v>2.058618630271453</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.746285711809765</v>
+        <v>7.635960043220017</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.92122422537955</v>
+        <v>25.51389788971707</v>
       </c>
       <c r="AG19" t="n">
-        <v>4.793775774620457</v>
+        <v>2.798897889717068</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.251224225379559</v>
+        <v>9.843897889717084</v>
       </c>
       <c r="AI19" t="n">
-        <v>17.93790463958356</v>
+        <v>25.53223641034791</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.777095360416439</v>
+        <v>2.817236410347903</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.267904639583577</v>
+        <v>9.862236410347919</v>
       </c>
       <c r="AL19" t="n">
-        <v>15.83990872849447</v>
+        <v>22.54601652200795</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.513603530756428</v>
+        <v>2.072106803727495</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.759224791206281</v>
+        <v>7.650185323932761</v>
       </c>
       <c r="AO19" t="n">
         <v>18.68487715553346</v>
@@ -3507,17 +3507,17 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37caa</t>
+          <t>67bf3ddbdad24bc04d4b4c20</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>135.076483306785</v>
+        <v>308.4463450777797</v>
       </c>
       <c r="V20" t="n">
         <v>650</v>
       </c>
       <c r="W20" t="n">
-        <v>136.3892125651488</v>
+        <v>308.7048228227267</v>
       </c>
       <c r="X20" t="n">
         <v>400.019988</v>
@@ -3534,43 +3534,43 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>723.5865360708194</v>
+        <v>1637.773612835794</v>
       </c>
       <c r="AC20" t="n">
-        <v>75.49693808697774</v>
+        <v>300.7462128128309</v>
       </c>
       <c r="AD20" t="n">
-        <v>62.93316684171264</v>
+        <v>272.0569160075989</v>
       </c>
       <c r="AE20" t="n">
-        <v>68.87093477369733</v>
+        <v>285.6157737132816</v>
       </c>
       <c r="AF20" t="n">
-        <v>58.10848330678503</v>
+        <v>231.4783450777797</v>
       </c>
       <c r="AG20" t="n">
-        <v>52.17348330678503</v>
+        <v>225.5433450777797</v>
       </c>
       <c r="AH20" t="n">
-        <v>55.08848330678502</v>
+        <v>228.4583450777797</v>
       </c>
       <c r="AI20" t="n">
-        <v>59.42121256514879</v>
+        <v>231.7368228227267</v>
       </c>
       <c r="AJ20" t="n">
-        <v>53.48621256514879</v>
+        <v>225.8018228227266</v>
       </c>
       <c r="AK20" t="n">
-        <v>56.40121256514878</v>
+        <v>228.7168228227267</v>
       </c>
       <c r="AL20" t="n">
-        <v>77.20249008048641</v>
+        <v>301.0820377594931</v>
       </c>
       <c r="AM20" t="n">
-        <v>64.51661889816869</v>
+        <v>272.3686993507191</v>
       </c>
       <c r="AN20" t="n">
-        <v>70.51209252031401</v>
+        <v>285.9389193663133</v>
       </c>
       <c r="AO20" t="n">
         <v>17.05652591358749</v>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37ca8</t>
+          <t>67bf3ddbdad24bc04d4b4c20</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>90.27122234068464</v>
+        <v>308.4463450777797</v>
       </c>
       <c r="V21" t="n">
         <v>650</v>
       </c>
       <c r="W21" t="n">
-        <v>91.44438384175578</v>
+        <v>308.7048228227267</v>
       </c>
       <c r="X21" t="n">
         <v>462.652512</v>
@@ -3688,43 +3688,43 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>485.1404572453276</v>
+        <v>1637.773612835794</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.60586753169475</v>
+        <v>288.1781337500374</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.422148109775333</v>
+        <v>233.4122547105021</v>
       </c>
       <c r="AE21" t="n">
-        <v>12.61520520550987</v>
+        <v>284.7931549517581</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.81122234068465</v>
+        <v>228.9863450777797</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.240777659315356</v>
+        <v>215.9343450777797</v>
       </c>
       <c r="AH21" t="n">
-        <v>10.11222234068465</v>
+        <v>228.2873450777797</v>
       </c>
       <c r="AI21" t="n">
-        <v>11.98438384175579</v>
+        <v>229.2448228227267</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.067616158244221</v>
+        <v>216.1928228227267</v>
       </c>
       <c r="AK21" t="n">
-        <v>11.28538384175579</v>
+        <v>228.5458228227267</v>
       </c>
       <c r="AL21" t="n">
-        <v>15.08228522748022</v>
+        <v>288.5034266583522</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.15402991854486</v>
+        <v>233.6916538640681</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.07874828996842</v>
+        <v>285.1156112510469</v>
       </c>
       <c r="AO21" t="n">
         <v>10.00737395552919</v>
@@ -3815,17 +3815,17 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37ca6</t>
+          <t>67bf3ddbdad24bc04d4b4c1e</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>142.0727996996214</v>
+        <v>140.8094421100698</v>
       </c>
       <c r="V22" t="n">
         <v>650</v>
       </c>
       <c r="W22" t="n">
-        <v>143.5758883900764</v>
+        <v>142.4128741709853</v>
       </c>
       <c r="X22" t="n">
         <v>814.5878849999999</v>
@@ -3842,43 +3842,43 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>761.7140519367775</v>
+        <v>755.543905380713</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.15360453359041</v>
+        <v>5.209652121662753</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.7772356572911</v>
+        <v>13.5528488749303</v>
       </c>
       <c r="AE22" t="n">
-        <v>3.917435066320502</v>
+        <v>2.993367401325207</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.235799699621396</v>
+        <v>6.972442110069778</v>
       </c>
       <c r="AG22" t="n">
-        <v>20.81220030037861</v>
+        <v>22.07555788993022</v>
       </c>
       <c r="AH22" t="n">
-        <v>5.3557996996214</v>
+        <v>4.092442110069783</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.738888390076397</v>
+        <v>8.575874170985315</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.3091116099236</v>
+        <v>20.47212582901469</v>
       </c>
       <c r="AK22" t="n">
-        <v>6.858888390076402</v>
+        <v>5.69587417098532</v>
       </c>
       <c r="AL22" t="n">
-        <v>7.276678638998482</v>
+        <v>6.407700539451209</v>
       </c>
       <c r="AM22" t="n">
-        <v>11.85444430728649</v>
+        <v>12.56845371213721</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.016851152436348</v>
+        <v>4.166178435004659</v>
       </c>
       <c r="AO22" t="n">
         <v>14.26938642261476</v>
@@ -3969,17 +3969,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37bd8</t>
+          <t>67bf3ddadad24bc04d4b4b62</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>118.4336766929082</v>
+        <v>131.2011050761889</v>
       </c>
       <c r="V23" t="n">
         <v>650</v>
       </c>
       <c r="W23" t="n">
-        <v>120.8747731869839</v>
+        <v>133.9009604020944</v>
       </c>
       <c r="X23" t="n">
         <v>623.9984196</v>
@@ -3996,43 +3996,43 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>641.2776845304918</v>
+        <v>710.3855964241062</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.058690795849228</v>
+        <v>18.59986899542502</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.075047956806289</v>
+        <v>11.97117541108857</v>
       </c>
       <c r="AE23" t="n">
-        <v>4.455448565828943</v>
+        <v>15.71599114161762</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.808676692908207</v>
+        <v>20.57610507618892</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.259676692908201</v>
+        <v>14.02710507618892</v>
       </c>
       <c r="AH23" t="n">
-        <v>5.051676692908174</v>
+        <v>17.81910507618889</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.24977318698394</v>
+        <v>23.27596040209437</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3.700773186983938</v>
+        <v>16.72696040209436</v>
       </c>
       <c r="AK23" t="n">
-        <v>7.492773186983911</v>
+        <v>20.51896040209434</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.265331694448763</v>
+        <v>21.04041618268418</v>
       </c>
       <c r="AM23" t="n">
-        <v>3.158356962281681</v>
+        <v>14.27531739301753</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.608432720347064</v>
+        <v>18.09719391269719</v>
       </c>
       <c r="AO23" t="n">
         <v>7.202556317255116</v>
@@ -4123,17 +4123,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37bda</t>
+          <t>67bf3ddadad24bc04d4b4b64</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>115.8502208401091</v>
+        <v>87.16340171320432</v>
       </c>
       <c r="V24" t="n">
         <v>650</v>
       </c>
       <c r="W24" t="n">
-        <v>115.8956830355044</v>
+        <v>88.57763411308032</v>
       </c>
       <c r="X24" t="n">
         <v>601.3281918</v>
@@ -4150,43 +4150,43 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>614.8620866416744</v>
+        <v>469.9314721141657</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.30812930141918</v>
+        <v>17.75873782780174</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.59767868444</v>
+        <v>22.80754739038026</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.600491181243199</v>
+        <v>19.04353078175827</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.865220840109117</v>
+        <v>18.82159828679568</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.933220840109115</v>
+        <v>25.75359828679568</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.183220840109115</v>
+        <v>20.50359828679568</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.910683035504391</v>
+        <v>17.40736588691968</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2.978683035504389</v>
+        <v>24.33936588691968</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.228683035504389</v>
+        <v>19.08936588691968</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.351024235037404</v>
+        <v>16.42436749249391</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.63794028844584</v>
+        <v>21.55509434976105</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.642715999799742</v>
+        <v>17.73000630362105</v>
       </c>
       <c r="AO24" t="n">
         <v>9.021563437561426</v>
@@ -4277,17 +4277,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37bdc</t>
+          <t>67bf3ddadad24bc04d4b4b64</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>96.62933578689733</v>
+        <v>87.16340171320432</v>
       </c>
       <c r="V25" t="n">
         <v>650</v>
       </c>
       <c r="W25" t="n">
-        <v>98.43316192148285</v>
+        <v>88.57763411308032</v>
       </c>
       <c r="X25" t="n">
         <v>509.8857483999999</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>522.2180649752045</v>
+        <v>469.9314721141657</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.890223507861794</v>
+        <v>6.286996470090283</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.922582444067986</v>
+        <v>8.963923596594817</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.699928564335167</v>
+        <v>7.360688589309791</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.618335786897333</v>
+        <v>5.847598286795673</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.8833357868973337</v>
+        <v>8.582598286795672</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.540335786897316</v>
+        <v>6.92559828679569</v>
       </c>
       <c r="AI25" t="n">
-        <v>5.422161921482854</v>
+        <v>4.433365886919674</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.687161921482854</v>
+        <v>7.168365886919673</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.344161921482836</v>
+        <v>5.511365886919691</v>
       </c>
       <c r="AL25" t="n">
-        <v>5.829592114355134</v>
+        <v>4.766496314328062</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.806552672156387</v>
+        <v>7.486856774089438</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.617077364498332</v>
+        <v>5.857609164641659</v>
       </c>
       <c r="AO25" t="n">
         <v>10.13228091174189</v>
@@ -4431,17 +4431,17 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d7e</t>
+          <t>67bf3ddbdad24bc04d4b4cd8</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>136.8328785415335</v>
+        <v>134.9056451174528</v>
       </c>
       <c r="V26" t="n">
         <v>650</v>
       </c>
       <c r="W26" t="n">
-        <v>137.9285505823255</v>
+        <v>136.252643538804</v>
       </c>
       <c r="X26" t="n">
         <v>719.2252872</v>
@@ -4458,43 +4458,43 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>731.7531956089332</v>
+        <v>722.8619955675873</v>
       </c>
       <c r="AC26" t="n">
-        <v>31.03710728626209</v>
+        <v>29.19150485760112</v>
       </c>
       <c r="AD26" t="n">
-        <v>25.45073349182059</v>
+        <v>23.68381278359707</v>
       </c>
       <c r="AE26" t="n">
-        <v>29.72031373921246</v>
+        <v>27.89325779268018</v>
       </c>
       <c r="AF26" t="n">
-        <v>32.40987854153346</v>
+        <v>30.48264511745282</v>
       </c>
       <c r="AG26" t="n">
-        <v>27.75987854153347</v>
+        <v>25.83264511745283</v>
       </c>
       <c r="AH26" t="n">
-        <v>31.34987854153347</v>
+        <v>29.42264511745283</v>
       </c>
       <c r="AI26" t="n">
-        <v>33.50555058232547</v>
+        <v>31.82964353880402</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28.85555058232548</v>
+        <v>27.17964353880403</v>
       </c>
       <c r="AK26" t="n">
-        <v>32.44555058232548</v>
+        <v>30.76964353880403</v>
       </c>
       <c r="AL26" t="n">
-        <v>32.0863704187061</v>
+        <v>30.48144904743593</v>
       </c>
       <c r="AM26" t="n">
-        <v>26.45526443971054</v>
+        <v>24.91876407433923</v>
       </c>
       <c r="AN26" t="n">
-        <v>30.75903281317889</v>
+        <v>29.17023931705017</v>
       </c>
       <c r="AO26" t="n">
         <v>26.00087958537878</v>
@@ -4585,17 +4585,17 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d7c</t>
+          <t>67bf3ddbdad24bc04d4b4cd6</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>123.3564772668838</v>
+        <v>128.8581176608734</v>
       </c>
       <c r="V27" t="n">
         <v>650</v>
       </c>
       <c r="W27" t="n">
-        <v>124.757051233539</v>
+        <v>130.4382844673861</v>
       </c>
       <c r="X27" t="n">
         <v>705.5612136</v>
@@ -4612,43 +4612,43 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>661.8743583504883</v>
+        <v>692.01504029281</v>
       </c>
       <c r="AC27" t="n">
-        <v>26.4870312913446</v>
+        <v>32.12829291040592</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.20918956202112</v>
+        <v>24.525862890899</v>
       </c>
       <c r="AE27" t="n">
-        <v>26.4805467721561</v>
+        <v>32.12151918473638</v>
       </c>
       <c r="AF27" t="n">
-        <v>25.83147726688382</v>
+        <v>31.33311766087337</v>
       </c>
       <c r="AG27" t="n">
-        <v>19.87747726688383</v>
+        <v>25.37911766087338</v>
       </c>
       <c r="AH27" t="n">
-        <v>25.82647726688384</v>
+        <v>31.32811766087339</v>
       </c>
       <c r="AI27" t="n">
-        <v>27.23205123353895</v>
+        <v>32.91328446738609</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21.27805123353896</v>
+        <v>26.9592844673861</v>
       </c>
       <c r="AK27" t="n">
-        <v>27.22705123353897</v>
+        <v>32.90828446738611</v>
       </c>
       <c r="AL27" t="n">
-        <v>27.92314917563594</v>
+        <v>33.74856136107264</v>
       </c>
       <c r="AM27" t="n">
-        <v>20.56267574439158</v>
+        <v>26.05290393933658</v>
       </c>
       <c r="AN27" t="n">
-        <v>27.91659103203012</v>
+        <v>33.74170457027183</v>
       </c>
       <c r="AO27" t="n">
         <v>29.89917864914668</v>
@@ -4739,17 +4739,17 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d82</t>
+          <t>67bf3ddbdad24bc04d4b4cdc</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>130.1943088095031</v>
+        <v>142.3888051800224</v>
       </c>
       <c r="V28" t="n">
         <v>650</v>
       </c>
       <c r="W28" t="n">
-        <v>132.4017693516169</v>
+        <v>144.825736524492</v>
       </c>
       <c r="X28" t="n">
         <v>742.591944</v>
@@ -4766,43 +4766,43 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>702.4319288376378</v>
+        <v>768.3448790028432</v>
       </c>
       <c r="AC28" t="n">
-        <v>21.04905286551354</v>
+        <v>32.38696962486388</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.65618170090691</v>
+        <v>29.76997300501472</v>
       </c>
       <c r="AE28" t="n">
-        <v>19.54302525893223</v>
+        <v>30.73988171887094</v>
       </c>
       <c r="AF28" t="n">
-        <v>22.63930880950309</v>
+        <v>34.83380518002235</v>
       </c>
       <c r="AG28" t="n">
-        <v>20.47030880950309</v>
+        <v>32.66480518002236</v>
       </c>
       <c r="AH28" t="n">
-        <v>21.28430880950309</v>
+        <v>33.47880518002235</v>
       </c>
       <c r="AI28" t="n">
-        <v>24.8467693516169</v>
+        <v>37.27073652449198</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22.6777693516169</v>
+        <v>35.10173652449198</v>
       </c>
       <c r="AK28" t="n">
-        <v>23.4917693516169</v>
+        <v>35.91573652449198</v>
       </c>
       <c r="AL28" t="n">
-        <v>23.10145446666068</v>
+        <v>34.65272328063966</v>
       </c>
       <c r="AM28" t="n">
-        <v>20.66801187672424</v>
+        <v>31.99093773877363</v>
       </c>
       <c r="AN28" t="n">
-        <v>21.56989197650987</v>
+        <v>32.97744607886509</v>
       </c>
       <c r="AO28" t="n">
         <v>26.68180794545469</v>
@@ -4893,17 +4893,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e38</t>
+          <t>67bf3ddcdad24bc04d4b4d7a</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>141.0801330281357</v>
+        <v>144.2585484291744</v>
       </c>
       <c r="V29" t="n">
         <v>650</v>
       </c>
       <c r="W29" t="n">
-        <v>142.453703177999</v>
+        <v>145.5541898388671</v>
       </c>
       <c r="X29" t="n">
         <v>734.5295805999999</v>
@@ -4920,43 +4920,43 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>755.7605157650725</v>
+        <v>772.2095468935402</v>
       </c>
       <c r="AC29" t="n">
-        <v>18.85837183067306</v>
+        <v>21.53614985271144</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.03863807970361</v>
+        <v>15.58530245032279</v>
       </c>
       <c r="AE29" t="n">
-        <v>18.72533895609296</v>
+        <v>21.40011986061852</v>
       </c>
       <c r="AF29" t="n">
-        <v>22.38413302813569</v>
+        <v>25.56254842917437</v>
       </c>
       <c r="AG29" t="n">
-        <v>16.27313302813569</v>
+        <v>19.45154842917437</v>
       </c>
       <c r="AH29" t="n">
-        <v>22.2511330281357</v>
+        <v>25.42954842917437</v>
       </c>
       <c r="AI29" t="n">
-        <v>23.75770317799896</v>
+        <v>26.85818983886708</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17.64670317799896</v>
+        <v>20.74718983886707</v>
       </c>
       <c r="AK29" t="n">
-        <v>23.62470317799897</v>
+        <v>26.72518983886708</v>
       </c>
       <c r="AL29" t="n">
-        <v>20.01558871233989</v>
+        <v>22.62771267681057</v>
       </c>
       <c r="AM29" t="n">
-        <v>14.13919345709692</v>
+        <v>16.62341842914826</v>
       </c>
       <c r="AN29" t="n">
-        <v>19.8812606165153</v>
+        <v>22.49046094713166</v>
       </c>
       <c r="AO29" t="n">
         <v>17.79596438146956</v>
@@ -5047,17 +5047,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e3c</t>
+          <t>67bf3ddcdad24bc04d4b4d7c</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>123.4803714123402</v>
+        <v>125.7576874744636</v>
       </c>
       <c r="V30" t="n">
         <v>650</v>
       </c>
       <c r="W30" t="n">
-        <v>125.7079998762397</v>
+        <v>128.1075701658038</v>
       </c>
       <c r="X30" t="n">
         <v>720.0527417999999</v>
@@ -5074,43 +5074,43 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>666.9194320877119</v>
+        <v>679.649887240496</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.84712461946031</v>
+        <v>12.89144902866646</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.150110840367917</v>
+        <v>6.070923983184529</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.003563841750736</v>
+        <v>7.958559731526742</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.0833714123402</v>
+        <v>14.36068747446357</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.920371412340202</v>
+        <v>7.197687474463578</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.993371412340181</v>
+        <v>9.270687474463557</v>
       </c>
       <c r="AI30" t="n">
-        <v>14.31099987623966</v>
+        <v>16.71057016580379</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7.147999876239666</v>
+        <v>9.547570165803791</v>
       </c>
       <c r="AK30" t="n">
-        <v>9.220999876239645</v>
+        <v>11.62057016580377</v>
       </c>
       <c r="AL30" t="n">
-        <v>12.84684495654251</v>
+        <v>15.00091579288831</v>
       </c>
       <c r="AM30" t="n">
-        <v>6.029014740418072</v>
+        <v>8.052943797067973</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.915904672830139</v>
+        <v>9.975851524894424</v>
       </c>
       <c r="AO30" t="n">
         <v>11.57281295007365</v>
@@ -5201,17 +5201,17 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e42</t>
+          <t>67bf3ddcdad24bc04d4b4d80</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>124.7124921196702</v>
+        <v>972.3235179344139</v>
       </c>
       <c r="V31" t="n">
         <v>650</v>
       </c>
       <c r="W31" t="n">
-        <v>127.2096063871416</v>
+        <v>991.040502028711</v>
       </c>
       <c r="X31" t="n">
         <v>688.7624949999999</v>
@@ -5228,43 +5228,43 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>674.8859144313642</v>
+        <v>5257.773327390561</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.92505462837803</v>
+        <v>772.6259976974771</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.562880636154706</v>
+        <v>707.4301356350284</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.10046335002516</v>
+        <v>766.1970547824664</v>
       </c>
       <c r="AF31" t="n">
-        <v>13.28749211967022</v>
+        <v>860.8985179344139</v>
       </c>
       <c r="AG31" t="n">
-        <v>4.290492119670219</v>
+        <v>851.9015179344138</v>
       </c>
       <c r="AH31" t="n">
-        <v>12.46049211967023</v>
+        <v>860.0715179344139</v>
       </c>
       <c r="AI31" t="n">
-        <v>15.78460638714157</v>
+        <v>879.615502028711</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6.787606387141565</v>
+        <v>870.618502028711</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.95760638714158</v>
+        <v>878.788502028711</v>
       </c>
       <c r="AL31" t="n">
-        <v>14.16612644123093</v>
+        <v>789.4238295074813</v>
       </c>
       <c r="AM31" t="n">
-        <v>5.636516904835965</v>
+        <v>722.9729634358431</v>
       </c>
       <c r="AN31" t="n">
-        <v>13.32502439790969</v>
+        <v>782.8711310521961</v>
       </c>
       <c r="AO31" t="n">
         <v>20.63646057886238</v>
@@ -5355,17 +5355,17 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e3a</t>
+          <t>67bf3ddcdad24bc04d4b4d7c</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>129.8529529405945</v>
+        <v>125.7576874744636</v>
       </c>
       <c r="V32" t="n">
         <v>650</v>
       </c>
       <c r="W32" t="n">
-        <v>131.7102135029278</v>
+        <v>128.1075701658038</v>
       </c>
       <c r="X32" t="n">
         <v>655.9021726</v>
@@ -5382,43 +5382,43 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>698.7630133006893</v>
+        <v>679.649887240496</v>
       </c>
       <c r="AC32" t="n">
-        <v>25.65604116566137</v>
+        <v>21.69313670840292</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.43841437983268</v>
+        <v>9.860825958297879</v>
       </c>
       <c r="AE32" t="n">
-        <v>22.37694534921118</v>
+        <v>18.51745608239038</v>
       </c>
       <c r="AF32" t="n">
-        <v>26.51295294059446</v>
+        <v>22.41768747446358</v>
       </c>
       <c r="AG32" t="n">
-        <v>15.38295294059446</v>
+        <v>11.28768747446358</v>
       </c>
       <c r="AH32" t="n">
-        <v>23.74395294059448</v>
+        <v>19.6486874744636</v>
       </c>
       <c r="AI32" t="n">
-        <v>28.37021350292781</v>
+        <v>24.76757016580379</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17.24021350292782</v>
+        <v>13.63757016580379</v>
       </c>
       <c r="AK32" t="n">
-        <v>25.60121350292783</v>
+        <v>21.99857016580381</v>
       </c>
       <c r="AL32" t="n">
-        <v>27.45327414643682</v>
+        <v>23.96707002690516</v>
       </c>
       <c r="AM32" t="n">
-        <v>15.06090111201871</v>
+        <v>11.91366311330811</v>
       </c>
       <c r="AN32" t="n">
-        <v>24.12727808473159</v>
+        <v>20.73204927555986</v>
       </c>
       <c r="AO32" t="n">
         <v>22.32172659465598</v>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e3e</t>
+          <t>67bf3ddcdad24bc04d4b4d84</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>137.5863806642583</v>
+        <v>985.8243620511971</v>
       </c>
       <c r="V33" t="n">
         <v>650</v>
       </c>
       <c r="W33" t="n">
-        <v>137.6306733780492</v>
+        <v>1004.719773525807</v>
       </c>
       <c r="X33" t="n">
         <v>695.2282394</v>
@@ -5536,43 +5536,43 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>730.1728658279853</v>
+        <v>5330.346051379473</v>
       </c>
       <c r="AC33" t="n">
-        <v>27.10058259977671</v>
+        <v>810.6922513175031</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.80370395106328</v>
+        <v>729.7486424132625</v>
       </c>
       <c r="AE33" t="n">
-        <v>22.33053912942739</v>
+        <v>776.5142677234105</v>
       </c>
       <c r="AF33" t="n">
-        <v>29.33638066425829</v>
+        <v>877.5743620511971</v>
       </c>
       <c r="AG33" t="n">
-        <v>18.77638066425828</v>
+        <v>867.0143620511972</v>
       </c>
       <c r="AH33" t="n">
-        <v>25.11538066425828</v>
+        <v>873.3533620511971</v>
       </c>
       <c r="AI33" t="n">
-        <v>29.38067337804918</v>
+        <v>896.4697735258065</v>
       </c>
       <c r="AJ33" t="n">
-        <v>18.82067337804918</v>
+        <v>885.9097735258065</v>
       </c>
       <c r="AK33" t="n">
-        <v>25.15967337804918</v>
+        <v>892.2487735258065</v>
       </c>
       <c r="AL33" t="n">
-        <v>27.14149965639647</v>
+        <v>828.1475967905834</v>
       </c>
       <c r="AM33" t="n">
-        <v>15.84098424210856</v>
+        <v>745.6525322159805</v>
       </c>
       <c r="AN33" t="n">
-        <v>22.36992058223824</v>
+        <v>793.3145197658121</v>
       </c>
       <c r="AO33" t="n">
         <v>27.93458658080357</v>
@@ -5663,17 +5663,17 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c68</t>
+          <t>67bf3ddbdad24bc04d4b4be6</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>148.572266598689</v>
+        <v>816.9808294816797</v>
       </c>
       <c r="V34" t="n">
         <v>650</v>
       </c>
       <c r="W34" t="n">
-        <v>149.7717348378283</v>
+        <v>826.3911220630613</v>
       </c>
       <c r="X34" t="n">
         <v>704.043171</v>
@@ -5690,43 +5690,43 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>794.5849145573384</v>
+        <v>4384.257949782203</v>
       </c>
       <c r="AC34" t="n">
-        <v>22.44697913124632</v>
+        <v>573.321050209072</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.18534404868834</v>
+        <v>544.3879586396388</v>
       </c>
       <c r="AE34" t="n">
-        <v>19.23459459788052</v>
+        <v>555.6565382462018</v>
       </c>
       <c r="AF34" t="n">
-        <v>27.23626659868903</v>
+        <v>695.6448294816797</v>
       </c>
       <c r="AG34" t="n">
-        <v>21.78826659868902</v>
+        <v>690.1968294816797</v>
       </c>
       <c r="AH34" t="n">
-        <v>23.96726659868902</v>
+        <v>692.3758294816797</v>
       </c>
       <c r="AI34" t="n">
-        <v>28.43573483782826</v>
+        <v>705.0551220630613</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22.98773483782826</v>
+        <v>699.6071220630613</v>
       </c>
       <c r="AK34" t="n">
-        <v>25.16673483782826</v>
+        <v>701.7861220630613</v>
       </c>
       <c r="AL34" t="n">
-        <v>23.43553012941605</v>
+        <v>581.0766154010856</v>
       </c>
       <c r="AM34" t="n">
-        <v>18.13141629687362</v>
+        <v>551.8102615969375</v>
       </c>
       <c r="AN34" t="n">
-        <v>20.19721105720337</v>
+        <v>563.2086369431895</v>
       </c>
       <c r="AO34" t="n">
         <v>16.31719516649476</v>
@@ -5817,17 +5817,17 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c6a</t>
+          <t>67bf3ddbdad24bc04d4b4be6</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>140.6328176687469</v>
+        <v>816.9808294816797</v>
       </c>
       <c r="V35" t="n">
         <v>650</v>
       </c>
       <c r="W35" t="n">
-        <v>141.3573220903398</v>
+        <v>826.3911220630613</v>
       </c>
       <c r="X35" t="n">
         <v>742.4249796</v>
@@ -5844,43 +5844,43 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>749.9438783748249</v>
+        <v>4384.257949782203</v>
       </c>
       <c r="AC35" t="n">
-        <v>12.890080408386</v>
+        <v>555.8144326563754</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.028126507821178</v>
+        <v>521.7604754118629</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.43506837609087</v>
+        <v>535.7431673371927</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.05781766874686</v>
+        <v>692.4058294816797</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.234817668746871</v>
+        <v>685.5828294816797</v>
       </c>
       <c r="AH35" t="n">
-        <v>12.12481766874686</v>
+        <v>688.4728294816797</v>
       </c>
       <c r="AI35" t="n">
-        <v>16.78232209033978</v>
+        <v>701.8161220630612</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.959322090339782</v>
+        <v>694.9931220630613</v>
       </c>
       <c r="AK35" t="n">
-        <v>12.84932209033977</v>
+        <v>697.8831220630613</v>
       </c>
       <c r="AL35" t="n">
-        <v>13.47166132076241</v>
+        <v>563.368350040587</v>
       </c>
       <c r="AM35" t="n">
-        <v>7.579508128236186</v>
+        <v>528.9221465037987</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.998849947349401</v>
+        <v>543.0658963356843</v>
       </c>
       <c r="AO35" t="n">
         <v>14.28541271577022</v>
@@ -5971,17 +5971,17 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c6a</t>
+          <t>67bf3ddbdad24bc04d4b4be6</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>140.6328176687469</v>
+        <v>816.9808294816797</v>
       </c>
       <c r="V36" t="n">
         <v>650</v>
       </c>
       <c r="W36" t="n">
-        <v>141.3573220903398</v>
+        <v>826.3911220630613</v>
       </c>
       <c r="X36" t="n">
         <v>817.9286022</v>
@@ -5998,43 +5998,43 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>749.9438783748249</v>
+        <v>4384.257949782203</v>
       </c>
       <c r="AC36" t="n">
-        <v>5.641262342906092</v>
+        <v>513.7037397607324</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.387702994264187</v>
+        <v>443.8236488838238</v>
       </c>
       <c r="AE36" t="n">
-        <v>2.851722723145864</v>
+        <v>464.3652844907671</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.509817668746877</v>
+        <v>683.8578294816798</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.596182331253146</v>
+        <v>666.7518294816797</v>
       </c>
       <c r="AH36" t="n">
-        <v>4.128182331253186</v>
+        <v>672.2198294816797</v>
       </c>
       <c r="AI36" t="n">
-        <v>8.234322090339788</v>
+        <v>693.2681220630614</v>
       </c>
       <c r="AJ36" t="n">
-        <v>8.871677909660235</v>
+        <v>676.1621220630612</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.403677909660274</v>
+        <v>681.6301220630612</v>
       </c>
       <c r="AL36" t="n">
-        <v>6.185499192731375</v>
+        <v>520.7726103401076</v>
       </c>
       <c r="AM36" t="n">
-        <v>5.905436307011453</v>
+        <v>450.0876142842335</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.351239567052088</v>
+        <v>470.8658561788471</v>
       </c>
       <c r="AO36" t="n">
         <v>68.91418324243101</v>
@@ -6125,17 +6125,17 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e05</t>
+          <t>67bf3ddcdad24bc04d4b4d45</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>153.1941651742607</v>
+        <v>144.0834666502791</v>
       </c>
       <c r="V37" t="n">
         <v>650</v>
       </c>
       <c r="W37" t="n">
-        <v>154.0924317391353</v>
+        <v>145.148531150918</v>
       </c>
       <c r="X37" t="n">
         <v>759.7476315000001</v>
@@ -6152,43 +6152,43 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>817.5075346489771</v>
+        <v>770.0574033381993</v>
       </c>
       <c r="AC37" t="n">
-        <v>21.04947664988399</v>
+        <v>13.85047343074478</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.93815099656425</v>
+        <v>8.102597948950416</v>
       </c>
       <c r="AE37" t="n">
-        <v>17.86070455555183</v>
+        <v>10.85134264017963</v>
       </c>
       <c r="AF37" t="n">
-        <v>26.63916517426068</v>
+        <v>17.52846665027906</v>
       </c>
       <c r="AG37" t="n">
-        <v>19.9101651742607</v>
+        <v>10.79946665027907</v>
       </c>
       <c r="AH37" t="n">
-        <v>23.2151651742607</v>
+        <v>14.10446665027908</v>
       </c>
       <c r="AI37" t="n">
-        <v>27.53743173913526</v>
+        <v>18.59353115091798</v>
       </c>
       <c r="AJ37" t="n">
-        <v>20.80843173913527</v>
+        <v>11.864531150918</v>
       </c>
       <c r="AK37" t="n">
-        <v>24.11343173913528</v>
+        <v>15.169531150918</v>
       </c>
       <c r="AL37" t="n">
-        <v>21.75926019448876</v>
+        <v>14.69205574723874</v>
       </c>
       <c r="AM37" t="n">
-        <v>15.61210028145559</v>
+        <v>8.901691989224512</v>
       </c>
       <c r="AN37" t="n">
-        <v>18.5517904731805</v>
+        <v>11.67075539196178</v>
       </c>
       <c r="AO37" t="n">
         <v>15.59784832721112</v>
@@ -6279,17 +6279,17 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e01</t>
+          <t>67bf3ddcdad24bc04d4b4d49</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>153.0465475055417</v>
+        <v>128.2519568650085</v>
       </c>
       <c r="V38" t="n">
         <v>650</v>
       </c>
       <c r="W38" t="n">
-        <v>154.4211731003985</v>
+        <v>128.9910842391557</v>
       </c>
       <c r="X38" t="n">
         <v>749.0617575</v>
@@ -6306,43 +6306,43 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>819.2516082335801</v>
+        <v>684.3371999383471</v>
       </c>
       <c r="AC38" t="n">
-        <v>22.65802244483403</v>
+        <v>2.786581338415951</v>
       </c>
       <c r="AD38" t="n">
-        <v>12.27088484036831</v>
+        <v>5.917768715286556</v>
       </c>
       <c r="AE38" t="n">
-        <v>12.5607109801877</v>
+        <v>5.674896398411049</v>
       </c>
       <c r="AF38" t="n">
-        <v>28.27154750554166</v>
+        <v>3.476956865008503</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.72754750554168</v>
+        <v>8.067043134991479</v>
       </c>
       <c r="AH38" t="n">
-        <v>17.07854750554162</v>
+        <v>7.716043134991537</v>
       </c>
       <c r="AI38" t="n">
-        <v>29.6461731003985</v>
+        <v>4.21608423915572</v>
       </c>
       <c r="AJ38" t="n">
-        <v>18.10217310039852</v>
+        <v>7.327915760844263</v>
       </c>
       <c r="AK38" t="n">
-        <v>18.45317310039846</v>
+        <v>6.976915760844321</v>
       </c>
       <c r="AL38" t="n">
-        <v>23.75970595103065</v>
+        <v>3.378949500425341</v>
       </c>
       <c r="AM38" t="n">
-        <v>13.27927368921318</v>
+        <v>5.375564492729747</v>
       </c>
       <c r="AN38" t="n">
-        <v>13.57170297452228</v>
+        <v>5.131292481204635</v>
       </c>
       <c r="AO38" t="n">
         <v>30.01436458894685</v>
@@ -6433,17 +6433,17 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37dfd</t>
+          <t>67bf3ddcdad24bc04d4b4d43</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>110.8272042125663</v>
+        <v>116.7514636013269</v>
       </c>
       <c r="V39" t="n">
         <v>650</v>
       </c>
       <c r="W39" t="n">
-        <v>112.0202465304886</v>
+        <v>117.9989789341647</v>
       </c>
       <c r="X39" t="n">
         <v>538.8261915</v>
@@ -6460,43 +6460,43 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>594.3017092944754</v>
+        <v>626.0207154292452</v>
       </c>
       <c r="AC39" t="n">
-        <v>23.47747112981598</v>
+        <v>30.07794953075247</v>
       </c>
       <c r="AD39" t="n">
-        <v>11.83257909866331</v>
+        <v>17.81058072201781</v>
       </c>
       <c r="AE39" t="n">
-        <v>12.90464976830314</v>
+        <v>18.93995884405757</v>
       </c>
       <c r="AF39" t="n">
-        <v>21.07220421256633</v>
+        <v>26.99646360132688</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.72620421256633</v>
+        <v>17.65046360132688</v>
       </c>
       <c r="AH39" t="n">
-        <v>12.66720421256636</v>
+        <v>18.59146360132691</v>
       </c>
       <c r="AI39" t="n">
-        <v>22.26524653048858</v>
+        <v>28.24397893416474</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12.91924653048858</v>
+        <v>18.89797893416474</v>
       </c>
       <c r="AK39" t="n">
-        <v>13.86024653048861</v>
+        <v>19.83897893416477</v>
       </c>
       <c r="AL39" t="n">
-        <v>24.80669214025801</v>
+        <v>31.46786132712912</v>
       </c>
       <c r="AM39" t="n">
-        <v>13.03644416351861</v>
+        <v>19.06941295664498</v>
       </c>
       <c r="AN39" t="n">
-        <v>14.12005555265751</v>
+        <v>20.2108587348867</v>
       </c>
       <c r="AO39" t="n">
         <v>12.60250825950973</v>
@@ -6587,17 +6587,17 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37dff</t>
+          <t>67bf3ddcdad24bc04d4b4d49</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>125.6522747305943</v>
+        <v>128.2519568650085</v>
       </c>
       <c r="V40" t="n">
         <v>650</v>
       </c>
       <c r="W40" t="n">
-        <v>126.7200508934887</v>
+        <v>128.9910842391557</v>
       </c>
       <c r="X40" t="n">
         <v>666.7505112</v>
@@ -6614,43 +6614,43 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>672.2886726319255</v>
+        <v>684.3371999383471</v>
       </c>
       <c r="AC40" t="n">
-        <v>13.13501650453284</v>
+        <v>15.47572288501091</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.6889801693004159</v>
+        <v>1.365714698403867</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.409430405713588</v>
+        <v>4.528229824125082</v>
       </c>
       <c r="AF40" t="n">
-        <v>14.58827473059435</v>
+        <v>17.18795686500852</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.8717252694056583</v>
+        <v>1.727956865008508</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.956274730594345</v>
+        <v>5.555956865008511</v>
       </c>
       <c r="AI40" t="n">
-        <v>15.65605089348867</v>
+        <v>17.92708423915573</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.1960508934886604</v>
+        <v>2.467084239155724</v>
       </c>
       <c r="AK40" t="n">
-        <v>4.024050893488663</v>
+        <v>6.295084239155727</v>
       </c>
       <c r="AL40" t="n">
-        <v>14.09642268735924</v>
+        <v>16.14121969238973</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.1549515455476119</v>
+        <v>1.949894280259654</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.279691997692397</v>
+        <v>5.130635260445106</v>
       </c>
       <c r="AO40" t="n">
         <v>13.57693289087831</v>
@@ -6741,17 +6741,17 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e03</t>
+          <t>67bf3ddcdad24bc04d4b4d43</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>157.3104273987053</v>
+        <v>116.7514636013269</v>
       </c>
       <c r="V41" t="n">
         <v>650</v>
       </c>
       <c r="W41" t="n">
-        <v>157.8304350319595</v>
+        <v>117.9989789341647</v>
       </c>
       <c r="X41" t="n">
         <v>840.2098614</v>
@@ -6768,43 +6768,43 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>837.3387867224064</v>
+        <v>626.0207154292452</v>
       </c>
       <c r="AC41" t="n">
-        <v>12.39831049222289</v>
+        <v>16.5810717491484</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.646865594832973</v>
+        <v>23.81832539357741</v>
       </c>
       <c r="AE41" t="n">
-        <v>3.971148695129782</v>
+        <v>22.83547897494624</v>
       </c>
       <c r="AF41" t="n">
-        <v>17.35242739870532</v>
+        <v>23.20653639867312</v>
       </c>
       <c r="AG41" t="n">
-        <v>4.056427398705324</v>
+        <v>36.50253639867312</v>
       </c>
       <c r="AH41" t="n">
-        <v>6.008427398705265</v>
+        <v>34.55053639867317</v>
       </c>
       <c r="AI41" t="n">
-        <v>17.8724350319595</v>
+        <v>21.95902106583526</v>
       </c>
       <c r="AJ41" t="n">
-        <v>4.576435031959505</v>
+        <v>35.25502106583525</v>
       </c>
       <c r="AK41" t="n">
-        <v>6.528435031959447</v>
+        <v>33.30302106583531</v>
       </c>
       <c r="AL41" t="n">
-        <v>12.7698559796221</v>
+        <v>15.68972196361427</v>
       </c>
       <c r="AM41" t="n">
-        <v>2.986176564369938</v>
+        <v>23.00430727148084</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.314837234114186</v>
+        <v>22.0109589204606</v>
       </c>
       <c r="AO41" t="n">
         <v>17.88715806761618</v>
@@ -6895,17 +6895,17 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f17</t>
+          <t>67bf3ddcdad24bc04d4b4e3d</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>138.419899912921</v>
+        <v>142.7013805442686</v>
       </c>
       <c r="V42" t="n">
         <v>650</v>
       </c>
       <c r="W42" t="n">
-        <v>139.2326262356874</v>
+        <v>143.7003949435731</v>
       </c>
       <c r="X42" t="n">
         <v>695.0171029999999</v>
@@ -6922,43 +6922,43 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>738.6717162678869</v>
+        <v>762.3745973279299</v>
       </c>
       <c r="AC42" t="n">
-        <v>22.55513737918541</v>
+        <v>26.345903354968</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.029281841598517</v>
+        <v>10.33981593012286</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.59114700136302</v>
+        <v>17.10464683834348</v>
       </c>
       <c r="AF42" t="n">
-        <v>25.47489991292096</v>
+        <v>29.75638054426861</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.090899912920946</v>
+        <v>13.37238054426859</v>
       </c>
       <c r="AH42" t="n">
-        <v>16.56189991292095</v>
+        <v>20.8433805442686</v>
       </c>
       <c r="AI42" t="n">
-        <v>26.28762623568738</v>
+        <v>30.75539494357312</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.903626235687369</v>
+        <v>14.37139494357311</v>
       </c>
       <c r="AK42" t="n">
-        <v>17.37462623568737</v>
+        <v>21.84239494357311</v>
       </c>
       <c r="AL42" t="n">
-        <v>23.27471445011943</v>
+        <v>27.23041740986598</v>
       </c>
       <c r="AM42" t="n">
-        <v>7.657699538144862</v>
+        <v>11.11227562539965</v>
       </c>
       <c r="AN42" t="n">
-        <v>14.25809239909351</v>
+        <v>17.92446531501675</v>
       </c>
       <c r="AO42" t="n">
         <v>24.22711440330841</v>
@@ -7049,17 +7049,17 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f13</t>
+          <t>67bf3ddcdad24bc04d4b4e3f</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>139.4681268536799</v>
+        <v>150.6702342095505</v>
       </c>
       <c r="V43" t="n">
         <v>650</v>
       </c>
       <c r="W43" t="n">
-        <v>140.1792994007896</v>
+        <v>151.1973626193806</v>
       </c>
       <c r="X43" t="n">
         <v>741.2838949999999</v>
@@ -7076,43 +7076,43 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>743.694107287267</v>
+        <v>802.1483064765272</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.94346715067257</v>
+        <v>20.93478843030672</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.225437728669133</v>
+        <v>15.83780595798457</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.307937873109152</v>
+        <v>15.92693253023818</v>
       </c>
       <c r="AF43" t="n">
-        <v>14.88012685367994</v>
+        <v>26.08223420955053</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.39812685367994</v>
+        <v>20.60023420955054</v>
       </c>
       <c r="AH43" t="n">
-        <v>9.498126853679963</v>
+        <v>20.70023420955056</v>
       </c>
       <c r="AI43" t="n">
-        <v>15.59129940078958</v>
+        <v>26.60936261938059</v>
       </c>
       <c r="AJ43" t="n">
-        <v>10.10929940078958</v>
+        <v>21.12736261938059</v>
       </c>
       <c r="AK43" t="n">
-        <v>10.2092994007896</v>
+        <v>21.22736261938061</v>
       </c>
       <c r="AL43" t="n">
-        <v>12.5142866092959</v>
+        <v>21.35788568672793</v>
       </c>
       <c r="AM43" t="n">
-        <v>7.772199124155901</v>
+        <v>16.24307113045329</v>
       </c>
       <c r="AN43" t="n">
-        <v>7.855119951365397</v>
+        <v>16.33250951710442</v>
       </c>
       <c r="AO43" t="n">
         <v>26.56433727668258</v>
@@ -7203,17 +7203,17 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f15</t>
+          <t>67bf3ddcdad24bc04d4b4e45</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>110.4262350319473</v>
+        <v>101.5828226428137</v>
       </c>
       <c r="V44" t="n">
         <v>650</v>
       </c>
       <c r="W44" t="n">
-        <v>112.223391985321</v>
+        <v>103.2396420922961</v>
       </c>
       <c r="X44" t="n">
         <v>563.6483875</v>
@@ -7230,43 +7230,43 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>595.3794581370422</v>
+        <v>547.7179140621</v>
       </c>
       <c r="AC44" t="n">
-        <v>11.73917028276984</v>
+        <v>2.790612337782653</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.555128889665478</v>
+        <v>5.657931142035094</v>
       </c>
       <c r="AE44" t="n">
-        <v>11.49772819994881</v>
+        <v>2.568505985332756</v>
       </c>
       <c r="AF44" t="n">
-        <v>11.6012350319473</v>
+        <v>2.757822642813707</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.751235031947303</v>
+        <v>6.092177357186287</v>
       </c>
       <c r="AH44" t="n">
-        <v>11.3872350319473</v>
+        <v>2.543822642813709</v>
       </c>
       <c r="AI44" t="n">
-        <v>13.39839198532097</v>
+        <v>4.414642092296049</v>
       </c>
       <c r="AJ44" t="n">
-        <v>4.548391985320976</v>
+        <v>4.435357907703946</v>
       </c>
       <c r="AK44" t="n">
-        <v>13.18439198532097</v>
+        <v>4.20064209229605</v>
       </c>
       <c r="AL44" t="n">
-        <v>13.55769490040068</v>
+        <v>4.467130880137666</v>
       </c>
       <c r="AM44" t="n">
-        <v>4.224185730504737</v>
+        <v>4.119208644257205</v>
       </c>
       <c r="AN44" t="n">
-        <v>13.31232341332301</v>
+        <v>4.241401965181444</v>
       </c>
       <c r="AO44" t="n">
         <v>10.77886713234375</v>
@@ -7357,17 +7357,17 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f11</t>
+          <t>67bf3ddcdad24bc04d4b4e41</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>140.3930845461445</v>
+        <v>110.4484609573795</v>
       </c>
       <c r="V45" t="n">
         <v>650</v>
       </c>
       <c r="W45" t="n">
-        <v>141.4833133533554</v>
+        <v>110.7735232566907</v>
       </c>
       <c r="X45" t="n">
         <v>736.0423784999999</v>
@@ -7384,43 +7384,43 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>750.612300604604</v>
+        <v>587.6874605708431</v>
       </c>
       <c r="AC45" t="n">
-        <v>20.41812583297127</v>
+        <v>5.266012833756941</v>
       </c>
       <c r="AD45" t="n">
-        <v>5.163359210595158</v>
+        <v>17.26707044391052</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.788838944405303</v>
+        <v>14.41487399758281</v>
       </c>
       <c r="AF45" t="n">
-        <v>23.80508454614454</v>
+        <v>6.139539042620541</v>
       </c>
       <c r="AG45" t="n">
-        <v>6.893084546144536</v>
+        <v>23.05153904262055</v>
       </c>
       <c r="AH45" t="n">
-        <v>11.34208454614449</v>
+        <v>18.60253904262059</v>
       </c>
       <c r="AI45" t="n">
-        <v>24.89531335335536</v>
+        <v>5.814476743309257</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7.983313353355356</v>
+        <v>22.72647674330926</v>
       </c>
       <c r="AK45" t="n">
-        <v>12.43231335335531</v>
+        <v>18.27747674330931</v>
       </c>
       <c r="AL45" t="n">
-        <v>21.35323820063417</v>
+        <v>4.987200006269305</v>
       </c>
       <c r="AM45" t="n">
-        <v>5.980010002513376</v>
+        <v>17.02357808487585</v>
       </c>
       <c r="AN45" t="n">
-        <v>9.633643562122964</v>
+        <v>14.16298730215907</v>
       </c>
       <c r="AO45" t="n">
         <v>21.28118282161651</v>
@@ -7511,17 +7511,17 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e80</t>
+          <t>67bf3ddcdad24bc04d4b4dbc</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>142.6053567068959</v>
+        <v>117.1010064263495</v>
       </c>
       <c r="V46" t="n">
         <v>650</v>
       </c>
       <c r="W46" t="n">
-        <v>143.6535995582581</v>
+        <v>119.2901884162098</v>
       </c>
       <c r="X46" t="n">
         <v>799.6228254</v>
@@ -7538,43 +7538,43 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>762.1263334797313</v>
+        <v>632.8709771096438</v>
       </c>
       <c r="AC46" t="n">
-        <v>11.48795389520517</v>
+        <v>8.451183693076047</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.77003154338152</v>
+        <v>19.33803586957156</v>
       </c>
       <c r="AE46" t="n">
-        <v>6.250638304595489</v>
+        <v>12.75182807835914</v>
       </c>
       <c r="AF46" t="n">
-        <v>14.69435670689589</v>
+        <v>10.8099935736505</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.569643293104122</v>
+        <v>28.07399357365051</v>
       </c>
       <c r="AH46" t="n">
-        <v>8.389356706895882</v>
+        <v>17.11499357365051</v>
       </c>
       <c r="AI46" t="n">
-        <v>15.74259955825806</v>
+        <v>8.620811583790214</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1.521400441741946</v>
+        <v>25.88481158379022</v>
       </c>
       <c r="AK46" t="n">
-        <v>9.437599558258057</v>
+        <v>14.92581158379022</v>
       </c>
       <c r="AL46" t="n">
-        <v>12.30746343806089</v>
+        <v>6.739695244185577</v>
       </c>
       <c r="AM46" t="n">
-        <v>1.047976884272048</v>
+        <v>17.83007513951453</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.031650144735393</v>
+        <v>11.1207393930606</v>
       </c>
       <c r="AO46" t="n">
         <v>14.03048125421725</v>
@@ -7665,17 +7665,17 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e82</t>
+          <t>67bf3ddcdad24bc04d4b4dbc</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>120.9494420449844</v>
+        <v>117.1010064263495</v>
       </c>
       <c r="V47" t="n">
         <v>650</v>
       </c>
       <c r="W47" t="n">
-        <v>123.0363001213167</v>
+        <v>119.2901884162098</v>
       </c>
       <c r="X47" t="n">
         <v>710.1777942</v>
@@ -7692,43 +7692,43 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>652.74524679309</v>
+        <v>632.8709771096438</v>
       </c>
       <c r="AC47" t="n">
-        <v>6.466767642566117</v>
+        <v>3.079149693537587</v>
       </c>
       <c r="AD47" t="n">
-        <v>9.297215501672799</v>
+        <v>12.18324639748214</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.989836680049934</v>
+        <v>5.10837775912686</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.346442044984386</v>
+        <v>3.498006426349505</v>
       </c>
       <c r="AG47" t="n">
-        <v>12.39755795501563</v>
+        <v>16.24599357365051</v>
       </c>
       <c r="AH47" t="n">
-        <v>2.455557955015621</v>
+        <v>6.303993573650502</v>
       </c>
       <c r="AI47" t="n">
-        <v>9.433300121316663</v>
+        <v>5.687188416209793</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10.31069987868335</v>
+        <v>14.05681158379022</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.3686998786833442</v>
+        <v>4.114811583790214</v>
       </c>
       <c r="AL47" t="n">
-        <v>8.303742085434946</v>
+        <v>5.006195625300206</v>
       </c>
       <c r="AM47" t="n">
-        <v>7.732232355196106</v>
+        <v>10.54152818120409</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.2987722366867989</v>
+        <v>3.334396162060058</v>
       </c>
       <c r="AO47" t="n">
         <v>13.0958960547831</v>
@@ -7819,17 +7819,17 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e86</t>
+          <t>67bf3ddcdad24bc04d4b4dc0</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>146.9280862981063</v>
+        <v>135.9376196062499</v>
       </c>
       <c r="V48" t="n">
         <v>650</v>
       </c>
       <c r="W48" t="n">
-        <v>149.5839423771537</v>
+        <v>138.5804445886831</v>
       </c>
       <c r="X48" t="n">
         <v>669.2561298000001</v>
@@ -7846,43 +7846,43 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>793.5886180499821</v>
+        <v>735.2116929275558</v>
       </c>
       <c r="AC48" t="n">
-        <v>37.24285782163365</v>
+        <v>26.97686242492312</v>
       </c>
       <c r="AD48" t="n">
-        <v>9.167975316040938</v>
+        <v>1.002028105008537</v>
       </c>
       <c r="AE48" t="n">
-        <v>24.65054151800794</v>
+        <v>15.32647244998806</v>
       </c>
       <c r="AF48" t="n">
-        <v>39.87108629810633</v>
+        <v>28.88061960624994</v>
       </c>
       <c r="AG48" t="n">
-        <v>12.33908629810634</v>
+        <v>1.34861960624994</v>
       </c>
       <c r="AH48" t="n">
-        <v>29.05608629810632</v>
+        <v>18.06561960624992</v>
       </c>
       <c r="AI48" t="n">
-        <v>42.52694237715367</v>
+        <v>31.52344458868306</v>
       </c>
       <c r="AJ48" t="n">
-        <v>14.99494237715368</v>
+        <v>3.991444588683066</v>
       </c>
       <c r="AK48" t="n">
-        <v>31.71194237715366</v>
+        <v>20.70844458868305</v>
       </c>
       <c r="AL48" t="n">
-        <v>39.72364476601593</v>
+        <v>29.44547725854737</v>
       </c>
       <c r="AM48" t="n">
-        <v>11.14128374321354</v>
+        <v>2.965654391282398</v>
       </c>
       <c r="AN48" t="n">
-        <v>26.90371112490978</v>
+        <v>17.56858676249071</v>
       </c>
       <c r="AO48" t="n">
         <v>19.99049374022157</v>
@@ -7973,17 +7973,17 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>679b409df166b42905a37e84</t>
+          <t>67bf3ddcdad24bc04d4b4dbe</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>121.1626997087366</v>
+        <v>76.0294382187295</v>
       </c>
       <c r="V49" t="n">
         <v>650</v>
       </c>
       <c r="W49" t="n">
-        <v>121.2902189834102</v>
+        <v>76.05403562663966</v>
       </c>
       <c r="X49" t="n">
         <v>539.2270098000001</v>
@@ -8000,43 +8000,43 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>643.4817516931909</v>
+        <v>403.48994732263</v>
       </c>
       <c r="AC49" t="n">
-        <v>40.46709218815469</v>
+        <v>11.8570803311853</v>
       </c>
       <c r="AD49" t="n">
-        <v>17.6234112638086</v>
+        <v>26.19146072796601</v>
       </c>
       <c r="AE49" t="n">
-        <v>26.9038289295075</v>
+        <v>20.36801057990544</v>
       </c>
       <c r="AF49" t="n">
-        <v>34.90569970873659</v>
+        <v>10.22756178127051</v>
       </c>
       <c r="AG49" t="n">
-        <v>18.1536997087366</v>
+        <v>26.9795617812705</v>
       </c>
       <c r="AH49" t="n">
-        <v>25.68669970873658</v>
+        <v>19.44656178127052</v>
       </c>
       <c r="AI49" t="n">
-        <v>35.03321898341015</v>
+        <v>10.20296437336035</v>
       </c>
       <c r="AJ49" t="n">
-        <v>18.28121898341016</v>
+        <v>26.95496437336034</v>
       </c>
       <c r="AK49" t="n">
-        <v>25.81421898341014</v>
+        <v>19.42196437336035</v>
       </c>
       <c r="AL49" t="n">
-        <v>40.61492862423937</v>
+        <v>11.82856391175249</v>
       </c>
       <c r="AM49" t="n">
-        <v>17.74720556787286</v>
+        <v>26.16758183591758</v>
       </c>
       <c r="AN49" t="n">
-        <v>27.03739053103412</v>
+        <v>20.34224765738023</v>
       </c>
       <c r="AO49" t="n">
         <v>29.62916954370222</v>
@@ -8122,94 +8122,34 @@
       <c r="R50" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S50" t="n">
-        <v>98.33431455219301</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>679b409bf166b42905a37c53</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>89.42647954469113</v>
-      </c>
-      <c r="V50" t="n">
-        <v>650</v>
-      </c>
-      <c r="W50" t="n">
-        <v>90.09964834064914</v>
-      </c>
-      <c r="X50" t="n">
-        <v>465.9937764</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>501.4554946</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>491.5445000000001</v>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="AB50" t="n">
-        <v>478.0062236437338</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>21.03632659938706</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>6.991773658913631</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>4.609502777871398</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>15.54247954469113</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>6.722520455308867</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>3.940479544691144</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>16.21564834064914</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>6.049351659350862</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>4.613648340649149</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>21.94744239706721</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>6.291642824523253</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>5.396963643929006</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>24.45031455219301</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>2.185314552193006</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>12.84831455219302</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>33.09284087514619</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>2.272841685501676</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>15.02972949043471</v>
-      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8276,94 +8216,34 @@
       <c r="R51" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S51" t="n">
-        <v>152.0024035949408</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>679b409bf166b42905a37c55</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>149.3522436564067</v>
-      </c>
-      <c r="V51" t="n">
-        <v>650</v>
-      </c>
-      <c r="W51" t="n">
-        <v>152.2858291260366</v>
-      </c>
-      <c r="X51" t="n">
-        <v>825.5930828999999</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>816.8672404000001</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>827.8045</v>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="AB51" t="n">
-        <v>807.9229545910482</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>14.09731446107814</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>4.644028669309906</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>3.741330353282506</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>18.45324365640667</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>7.273756343593334</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>5.386243656406691</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>21.38682912603662</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>4.340170873963388</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>8.319829126036637</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>16.33842055786264</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2.771041125971031</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>5.779023606988205</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>21.10340359494077</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>4.623596405059232</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>8.036403594940793</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>16.12189825357014</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>2.951998011223699</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>5.582153838365166</v>
-      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8435,17 +8315,17 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a38057</t>
+          <t>67bf3ddddad24bc04d4b4f5d</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>122.7099402269121</v>
+        <v>124.7807643268767</v>
       </c>
       <c r="V52" t="n">
         <v>650</v>
       </c>
       <c r="W52" t="n">
-        <v>123.6333948561732</v>
+        <v>127.2928794680328</v>
       </c>
       <c r="X52" t="n">
         <v>569.0980000000001</v>
@@ -8462,43 +8342,43 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>655.9130171964465</v>
+        <v>675.3277036243419</v>
       </c>
       <c r="AC52" t="n">
-        <v>33.68552154582422</v>
+        <v>35.94156697557107</v>
       </c>
       <c r="AD52" t="n">
-        <v>15.60922182256982</v>
+        <v>17.56021586824885</v>
       </c>
       <c r="AE52" t="n">
-        <v>30.08856355155636</v>
+        <v>32.2839075639012</v>
       </c>
       <c r="AF52" t="n">
-        <v>30.91994022691205</v>
+        <v>32.99076432687669</v>
       </c>
       <c r="AG52" t="n">
-        <v>16.56794022691206</v>
+        <v>18.6387643268767</v>
       </c>
       <c r="AH52" t="n">
-        <v>28.38194022691208</v>
+        <v>30.45276432687672</v>
       </c>
       <c r="AI52" t="n">
-        <v>31.84339485617321</v>
+        <v>35.50287946803279</v>
       </c>
       <c r="AJ52" t="n">
-        <v>17.49139485617322</v>
+        <v>21.1508794680328</v>
       </c>
       <c r="AK52" t="n">
-        <v>29.30539485617324</v>
+        <v>32.96487946803282</v>
       </c>
       <c r="AL52" t="n">
-        <v>34.69157299942609</v>
+        <v>38.67837397105653</v>
       </c>
       <c r="AM52" t="n">
-        <v>16.4792399391129</v>
+        <v>19.92696526166155</v>
       </c>
       <c r="AN52" t="n">
-        <v>31.06754606921936</v>
+        <v>34.94707771608942</v>
       </c>
       <c r="AO52" t="n">
         <v>27.71819911424444</v>
@@ -8589,17 +8469,17 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a38059</t>
+          <t>67bf3ddddad24bc04d4b4f5d</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>149.697110232853</v>
+        <v>124.7807643268767</v>
       </c>
       <c r="V53" t="n">
         <v>650</v>
       </c>
       <c r="W53" t="n">
-        <v>152.7625157834501</v>
+        <v>127.2928794680328</v>
       </c>
       <c r="X53" t="n">
         <v>801.7654</v>
@@ -8616,43 +8496,43 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>810.4519232737017</v>
+        <v>675.3277036243419</v>
       </c>
       <c r="AC53" t="n">
-        <v>15.75980747531495</v>
+        <v>3.507841716961663</v>
       </c>
       <c r="AD53" t="n">
-        <v>14.49810331251859</v>
+        <v>4.559541442782961</v>
       </c>
       <c r="AE53" t="n">
-        <v>15.68913276519609</v>
+        <v>3.566752970047946</v>
       </c>
       <c r="AF53" t="n">
-        <v>20.38011023285304</v>
+        <v>4.536235673123315</v>
       </c>
       <c r="AG53" t="n">
-        <v>18.95511023285306</v>
+        <v>5.961235673123298</v>
       </c>
       <c r="AH53" t="n">
-        <v>20.30111023285312</v>
+        <v>4.615235673123237</v>
       </c>
       <c r="AI53" t="n">
-        <v>23.44551578345013</v>
+        <v>2.024120531967213</v>
       </c>
       <c r="AJ53" t="n">
-        <v>22.02051578345015</v>
+        <v>3.449120531967196</v>
       </c>
       <c r="AK53" t="n">
-        <v>23.36651578345021</v>
+        <v>2.103120531967136</v>
       </c>
       <c r="AL53" t="n">
-        <v>18.1302657681899</v>
+        <v>1.565239320404288</v>
       </c>
       <c r="AM53" t="n">
-        <v>16.84272520188627</v>
+        <v>2.638112107790302</v>
       </c>
       <c r="AN53" t="n">
-        <v>18.058143824732</v>
+        <v>1.625336588431742</v>
       </c>
       <c r="AO53" t="n">
         <v>13.08652025947421</v>
@@ -8743,17 +8623,17 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a3805b</t>
+          <t>67bf3ddddad24bc04d4b4f5b</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>135.1896025361117</v>
+        <v>131.7423211551165</v>
       </c>
       <c r="V54" t="n">
         <v>650</v>
       </c>
       <c r="W54" t="n">
-        <v>135.2067596087921</v>
+        <v>131.7662425101595</v>
       </c>
       <c r="X54" t="n">
         <v>704.9213999999999</v>
@@ -8770,43 +8650,43 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>717.3132610612714</v>
+        <v>699.0602643405606</v>
       </c>
       <c r="AC54" t="n">
-        <v>18.90340337573699</v>
+        <v>15.87141363018941</v>
       </c>
       <c r="AD54" t="n">
-        <v>12.49582063867232</v>
+        <v>9.627221717953663</v>
       </c>
       <c r="AE54" t="n">
-        <v>15.98483376182819</v>
+        <v>13.02726638679152</v>
       </c>
       <c r="AF54" t="n">
-        <v>21.49260253611169</v>
+        <v>18.04532115511645</v>
       </c>
       <c r="AG54" t="n">
-        <v>15.01660253611169</v>
+        <v>11.56932115511646</v>
       </c>
       <c r="AH54" t="n">
-        <v>18.6316025361117</v>
+        <v>15.18432115511646</v>
       </c>
       <c r="AI54" t="n">
-        <v>21.50975960879205</v>
+        <v>18.06924251015946</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15.03375960879205</v>
+        <v>11.59324251015946</v>
       </c>
       <c r="AK54" t="n">
-        <v>18.64875960879206</v>
+        <v>15.20824251015947</v>
       </c>
       <c r="AL54" t="n">
-        <v>18.91849354758002</v>
+        <v>15.89245319591498</v>
       </c>
       <c r="AM54" t="n">
-        <v>12.51009761659612</v>
+        <v>9.647127483011539</v>
       </c>
       <c r="AN54" t="n">
-        <v>15.99955353454251</v>
+        <v>13.04778952123361</v>
       </c>
       <c r="AO54" t="n">
         <v>19.67078363720256</v>
@@ -8897,17 +8777,17 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ec6</t>
+          <t>67bf3ddcdad24bc04d4b4df8</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>88.06193606804548</v>
+        <v>75.82259094809959</v>
       </c>
       <c r="V55" t="n">
         <v>650</v>
       </c>
       <c r="W55" t="n">
-        <v>88.08830225678264</v>
+        <v>75.83821104380607</v>
       </c>
       <c r="X55" t="n">
         <v>437.172558</v>
@@ -8924,43 +8804,43 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>467.3354167793759</v>
+        <v>402.3449318235715</v>
       </c>
       <c r="AC55" t="n">
-        <v>39.70545430727145</v>
+        <v>20.2884014152673</v>
       </c>
       <c r="AD55" t="n">
-        <v>24.7618951434397</v>
+        <v>7.421782483423417</v>
       </c>
       <c r="AE55" t="n">
-        <v>28.03421934871399</v>
+        <v>10.23930059334049</v>
       </c>
       <c r="AF55" t="n">
-        <v>25.02793606804548</v>
+        <v>12.78859094809959</v>
       </c>
       <c r="AG55" t="n">
-        <v>17.47793606804548</v>
+        <v>5.238590948099585</v>
       </c>
       <c r="AH55" t="n">
-        <v>19.28193606804548</v>
+        <v>7.042590948099587</v>
       </c>
       <c r="AI55" t="n">
-        <v>25.05430225678264</v>
+        <v>12.80421104380607</v>
       </c>
       <c r="AJ55" t="n">
-        <v>17.50430225678264</v>
+        <v>5.254211043806066</v>
       </c>
       <c r="AK55" t="n">
-        <v>19.30830225678264</v>
+        <v>7.058211043806068</v>
       </c>
       <c r="AL55" t="n">
-        <v>39.7472828263836</v>
+        <v>20.31318184441107</v>
       </c>
       <c r="AM55" t="n">
-        <v>24.79924948541119</v>
+        <v>7.443912280128734</v>
       </c>
       <c r="AN55" t="n">
-        <v>28.07255344109137</v>
+        <v>10.26201082263168</v>
       </c>
       <c r="AO55" t="n">
         <v>18.11282920502048</v>
@@ -9051,17 +8931,17 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ec2</t>
+          <t>67bf3ddcdad24bc04d4b4dfa</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>140.4666304886669</v>
+        <v>145.1408656234507</v>
       </c>
       <c r="V56" t="n">
         <v>650</v>
       </c>
       <c r="W56" t="n">
-        <v>140.535901315721</v>
+        <v>145.2259718582827</v>
       </c>
       <c r="X56" t="n">
         <v>757.0560026999999</v>
@@ -9078,43 +8958,43 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>745.5859896401925</v>
+        <v>770.4682500037015</v>
       </c>
       <c r="AC56" t="n">
-        <v>31.08977862371268</v>
+        <v>35.45198512729527</v>
       </c>
       <c r="AD56" t="n">
-        <v>17.93314455797464</v>
+        <v>21.85754458046186</v>
       </c>
       <c r="AE56" t="n">
-        <v>21.47309703610201</v>
+        <v>25.51529421931819</v>
       </c>
       <c r="AF56" t="n">
-        <v>33.31363048866685</v>
+        <v>37.9878656234507</v>
       </c>
       <c r="AG56" t="n">
-        <v>21.35963048866685</v>
+        <v>26.03386562345071</v>
       </c>
       <c r="AH56" t="n">
-        <v>24.83063048866691</v>
+        <v>29.50486562345077</v>
       </c>
       <c r="AI56" t="n">
-        <v>33.38290131572096</v>
+        <v>38.07297185828266</v>
       </c>
       <c r="AJ56" t="n">
-        <v>21.42890131572096</v>
+        <v>26.11897185828266</v>
       </c>
       <c r="AK56" t="n">
-        <v>24.89990131572102</v>
+        <v>29.58997185828272</v>
       </c>
       <c r="AL56" t="n">
-        <v>31.15442527574679</v>
+        <v>35.53141009424156</v>
       </c>
       <c r="AM56" t="n">
-        <v>17.99130304324764</v>
+        <v>21.92899817666692</v>
       </c>
       <c r="AN56" t="n">
-        <v>21.53300124158656</v>
+        <v>25.58889260981246</v>
       </c>
       <c r="AO56" t="n">
         <v>37.48593972880589</v>
@@ -9205,17 +9085,17 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ec0</t>
+          <t>67bf3ddcdad24bc04d4b4df4</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>140.4154345717284</v>
+        <v>135.6450855368304</v>
       </c>
       <c r="V57" t="n">
         <v>650</v>
       </c>
       <c r="W57" t="n">
-        <v>141.7422877253761</v>
+        <v>137.0485620628703</v>
       </c>
       <c r="X57" t="n">
         <v>744.3120222</v>
@@ -9232,43 +9112,43 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>751.9862389480935</v>
+        <v>727.0845870540558</v>
       </c>
       <c r="AC57" t="n">
-        <v>33.63480458698475</v>
+        <v>29.09481464190033</v>
       </c>
       <c r="AD57" t="n">
-        <v>13.41294620886071</v>
+        <v>9.559955687252424</v>
       </c>
       <c r="AE57" t="n">
-        <v>19.90865619009782</v>
+        <v>15.83498619735816</v>
       </c>
       <c r="AF57" t="n">
-        <v>35.34143457172836</v>
+        <v>30.57108553683035</v>
       </c>
       <c r="AG57" t="n">
-        <v>16.60643457172836</v>
+        <v>11.83608553683035</v>
       </c>
       <c r="AH57" t="n">
-        <v>23.31343457172835</v>
+        <v>18.54308553683035</v>
       </c>
       <c r="AI57" t="n">
-        <v>36.66828772537609</v>
+        <v>31.97456206287031</v>
       </c>
       <c r="AJ57" t="n">
-        <v>17.93328772537609</v>
+        <v>13.23956206287031</v>
       </c>
       <c r="AK57" t="n">
-        <v>24.64028772537608</v>
+        <v>19.9465620628703</v>
       </c>
       <c r="AL57" t="n">
-        <v>34.89758429809095</v>
+        <v>30.43051759985373</v>
       </c>
       <c r="AM57" t="n">
-        <v>14.48463982858766</v>
+        <v>10.69353767728542</v>
       </c>
       <c r="AN57" t="n">
-        <v>21.0417309058565</v>
+        <v>17.03349393082125</v>
       </c>
       <c r="AO57" t="n">
         <v>38.50285199798664</v>
@@ -9359,17 +9239,17 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fa2</t>
+          <t>67bf3ddddad24bc04d4b4ebc</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>115.4629041328561</v>
+        <v>118.8845555616326</v>
       </c>
       <c r="V58" t="n">
         <v>650</v>
       </c>
       <c r="W58" t="n">
-        <v>116.3315574084416</v>
+        <v>120.4723088736387</v>
       </c>
       <c r="X58" t="n">
         <v>626.5780599000001</v>
@@ -9386,43 +9266,43 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>617.1745336581494</v>
+        <v>639.1424881105659</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.99986820786878</v>
+        <v>15.31889531838807</v>
       </c>
       <c r="AD58" t="n">
-        <v>3.24472775559887</v>
+        <v>0.3774621346355805</v>
       </c>
       <c r="AE58" t="n">
-        <v>2.698506731231324</v>
+        <v>5.741895384315974</v>
       </c>
       <c r="AF58" t="n">
-        <v>12.37090413285608</v>
+        <v>15.79255556163262</v>
       </c>
       <c r="AG58" t="n">
-        <v>3.872095867143912</v>
+        <v>0.45044443836737</v>
       </c>
       <c r="AH58" t="n">
-        <v>3.033904132856065</v>
+        <v>6.455555561632607</v>
       </c>
       <c r="AI58" t="n">
-        <v>13.23955740844157</v>
+        <v>17.3803088736387</v>
       </c>
       <c r="AJ58" t="n">
-        <v>3.003442591558425</v>
+        <v>1.137308873638702</v>
       </c>
       <c r="AK58" t="n">
-        <v>3.902557408441552</v>
+        <v>8.043308873638679</v>
       </c>
       <c r="AL58" t="n">
-        <v>12.84246828894732</v>
+        <v>16.85902773604033</v>
       </c>
       <c r="AM58" t="n">
-        <v>2.516816182644174</v>
+        <v>0.9530388181494968</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.471130587696726</v>
+        <v>7.154122934152824</v>
       </c>
       <c r="AO58" t="n">
         <v>9.543743279701786</v>
@@ -9513,17 +9393,17 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fa0</t>
+          <t>67bf3ddddad24bc04d4b4ebc</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>127.8004749542261</v>
+        <v>118.8845555616326</v>
       </c>
       <c r="V59" t="n">
         <v>650</v>
       </c>
       <c r="W59" t="n">
-        <v>129.457879685517</v>
+        <v>120.4723088736387</v>
       </c>
       <c r="X59" t="n">
         <v>647.3545766999999</v>
@@ -9540,43 +9420,43 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>686.8136927176045</v>
+        <v>639.1424881105659</v>
       </c>
       <c r="AC59" t="n">
-        <v>19.91262263715412</v>
+        <v>11.54699427802419</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.1704576269770421</v>
+        <v>6.817871063047094</v>
       </c>
       <c r="AE59" t="n">
-        <v>10.02391156299331</v>
+        <v>2.348162884400115</v>
       </c>
       <c r="AF59" t="n">
-        <v>21.22247495422612</v>
+        <v>12.30655556163262</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.2174749542261196</v>
+        <v>8.698444438367375</v>
       </c>
       <c r="AH59" t="n">
-        <v>11.64347495422614</v>
+        <v>2.727555561632641</v>
       </c>
       <c r="AI59" t="n">
-        <v>22.87987968551698</v>
+        <v>13.89430887363869</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.874879685516987</v>
+        <v>7.110691126361303</v>
       </c>
       <c r="AK59" t="n">
-        <v>13.300879685517</v>
+        <v>4.315308873638713</v>
       </c>
       <c r="AL59" t="n">
-        <v>21.46773225761131</v>
+        <v>13.03675136861143</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.469537231070744</v>
+        <v>5.573384484109405</v>
       </c>
       <c r="AN59" t="n">
-        <v>11.45077755582273</v>
+        <v>3.715065707308827</v>
       </c>
       <c r="AO59" t="n">
         <v>18.99630376944984</v>
@@ -9667,17 +9547,17 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fa4</t>
+          <t>67bf3ddddad24bc04d4b4ec2</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>121.7939346303637</v>
+        <v>120.7142735379031</v>
       </c>
       <c r="V60" t="n">
         <v>650</v>
       </c>
       <c r="W60" t="n">
-        <v>124.112975945364</v>
+        <v>123.1642076891469</v>
       </c>
       <c r="X60" t="n">
         <v>662.0731338000001</v>
@@ -9694,43 +9574,43 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>658.4573417259755</v>
+        <v>653.4238356066979</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.925506983042687</v>
+        <v>6.968784703502958</v>
       </c>
       <c r="AD60" t="n">
-        <v>8.98266651444268</v>
+        <v>9.789503685785427</v>
       </c>
       <c r="AE60" t="n">
-        <v>2.521872952712725</v>
+        <v>1.613052019312682</v>
       </c>
       <c r="AF60" t="n">
-        <v>8.943934630363671</v>
+        <v>7.864273537903088</v>
       </c>
       <c r="AG60" t="n">
-        <v>12.02006536963633</v>
+        <v>13.09972646209691</v>
       </c>
       <c r="AH60" t="n">
-        <v>2.995934630363664</v>
+        <v>1.916273537903081</v>
       </c>
       <c r="AI60" t="n">
-        <v>11.26297594536405</v>
+        <v>10.31420768914687</v>
       </c>
       <c r="AJ60" t="n">
-        <v>9.701024054635951</v>
+        <v>10.64979231085313</v>
       </c>
       <c r="AK60" t="n">
-        <v>5.31497594536404</v>
+        <v>4.366207689146862</v>
       </c>
       <c r="AL60" t="n">
-        <v>9.980483779675717</v>
+        <v>9.139749835309589</v>
       </c>
       <c r="AM60" t="n">
-        <v>7.249633113602427</v>
+        <v>7.958653288036476</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.473960795100961</v>
+        <v>3.675320871687117</v>
       </c>
       <c r="AO60" t="n">
         <v>10.76601528734662</v>
@@ -9821,17 +9701,17 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fa6</t>
+          <t>67bf3ddddad24bc04d4b4ebe</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>129.3560904610867</v>
+        <v>138.5536388051763</v>
       </c>
       <c r="V61" t="n">
         <v>650</v>
       </c>
       <c r="W61" t="n">
-        <v>131.9915342124565</v>
+        <v>141.3907666506713</v>
       </c>
       <c r="X61" t="n">
         <v>760.6445535</v>
@@ -9848,43 +9728,43 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>700.255505807277</v>
+        <v>750.1213120083621</v>
       </c>
       <c r="AC61" t="n">
-        <v>3.379838453001133</v>
+        <v>10.73040894864925</v>
       </c>
       <c r="AD61" t="n">
-        <v>11.28205254853249</v>
+        <v>4.973979942405431</v>
       </c>
       <c r="AE61" t="n">
-        <v>5.223218330888569</v>
+        <v>1.515652859417784</v>
       </c>
       <c r="AF61" t="n">
-        <v>4.229090461086727</v>
+        <v>13.42663880517635</v>
       </c>
       <c r="AG61" t="n">
-        <v>16.44990953891329</v>
+        <v>7.252361194823663</v>
       </c>
       <c r="AH61" t="n">
-        <v>7.128909538913263</v>
+        <v>2.068638805176363</v>
       </c>
       <c r="AI61" t="n">
-        <v>6.864534212456547</v>
+        <v>16.26376665067131</v>
       </c>
       <c r="AJ61" t="n">
-        <v>13.81446578754347</v>
+        <v>4.415233349328702</v>
       </c>
       <c r="AK61" t="n">
-        <v>4.493465787543443</v>
+        <v>4.905766650671325</v>
       </c>
       <c r="AL61" t="n">
-        <v>5.486053539569036</v>
+        <v>12.99780754806822</v>
       </c>
       <c r="AM61" t="n">
-        <v>9.474552341840162</v>
+        <v>3.028156145377214</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.292278116674684</v>
+        <v>3.594363227220079</v>
       </c>
       <c r="AO61" t="n">
         <v>13.44064296584183</v>
@@ -9975,17 +9855,17 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37cf4</t>
+          <t>67bf3ddbdad24bc04d4b4c62</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>129.933447482626</v>
+        <v>99.58091704779496</v>
       </c>
       <c r="V62" t="n">
         <v>650</v>
       </c>
       <c r="W62" t="n">
-        <v>130.3458582571652</v>
+        <v>99.69978958250559</v>
       </c>
       <c r="X62" t="n">
         <v>673.3778528</v>
@@ -10002,43 +9882,43 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>691.5246909459808</v>
+        <v>528.9379125679395</v>
       </c>
       <c r="AC62" t="n">
-        <v>34.23292817197432</v>
+        <v>2.876036496787047</v>
       </c>
       <c r="AD62" t="n">
-        <v>11.08487704087676</v>
+        <v>31.85550252662323</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.2820507244272805</v>
+        <v>23.14389583246255</v>
       </c>
       <c r="AF62" t="n">
-        <v>33.13644748262598</v>
+        <v>2.783917047794958</v>
       </c>
       <c r="AG62" t="n">
-        <v>16.19855251737403</v>
+        <v>46.55108295220505</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.3654474826259388</v>
+        <v>29.98708295220509</v>
       </c>
       <c r="AI62" t="n">
-        <v>33.54885825716525</v>
+        <v>2.902789582505591</v>
       </c>
       <c r="AJ62" t="n">
-        <v>15.78614174283476</v>
+        <v>46.43221041749442</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.7778582571652066</v>
+        <v>29.86821041749445</v>
       </c>
       <c r="AL62" t="n">
-        <v>34.65898556480599</v>
+        <v>2.99884250803805</v>
       </c>
       <c r="AM62" t="n">
-        <v>10.80265906361013</v>
+        <v>31.77415652799826</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.6003475064562287</v>
+        <v>23.05215054449744</v>
       </c>
       <c r="AO62" t="n">
         <v>25.26120456721095</v>
@@ -10129,17 +10009,17 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37cf6</t>
+          <t>67bf3ddbdad24bc04d4b4c60</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>100.623935271911</v>
+        <v>111.8093005333644</v>
       </c>
       <c r="V63" t="n">
         <v>650</v>
       </c>
       <c r="W63" t="n">
-        <v>102.4809457640849</v>
+        <v>113.8562120255011</v>
       </c>
       <c r="X63" t="n">
         <v>562.9186893999999</v>
@@ -10156,43 +10036,43 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>543.6927977223625</v>
+        <v>604.0420684320947</v>
       </c>
       <c r="AC63" t="n">
-        <v>22.48805267426773</v>
+        <v>36.10383509843506</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.099788326614326</v>
+        <v>3.227007158229236</v>
       </c>
       <c r="AE63" t="n">
-        <v>4.805934239091289</v>
+        <v>5.775846262548626</v>
       </c>
       <c r="AF63" t="n">
-        <v>18.47393527191095</v>
+        <v>29.6593005333644</v>
       </c>
       <c r="AG63" t="n">
-        <v>7.690064728089041</v>
+        <v>3.495300533364414</v>
       </c>
       <c r="AH63" t="n">
-        <v>5.080064728089056</v>
+        <v>6.105300533364399</v>
       </c>
       <c r="AI63" t="n">
-        <v>20.33094576408493</v>
+        <v>31.7062120255011</v>
       </c>
       <c r="AJ63" t="n">
-        <v>5.833054235915057</v>
+        <v>5.542212025501115</v>
       </c>
       <c r="AK63" t="n">
-        <v>3.223054235915072</v>
+        <v>8.1522120255011</v>
       </c>
       <c r="AL63" t="n">
-        <v>24.74856453327441</v>
+        <v>38.59551068228983</v>
       </c>
       <c r="AM63" t="n">
-        <v>5.385318828512526</v>
+        <v>5.116801175749317</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.049131760307151</v>
+        <v>7.712302302184495</v>
       </c>
       <c r="AO63" t="n">
         <v>28.79250488840884</v>
@@ -10283,17 +10163,17 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37cf2</t>
+          <t>67bf3ddbdad24bc04d4b4c5e</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>140.7294506759717</v>
+        <v>139.9365183726091</v>
       </c>
       <c r="V64" t="n">
         <v>650</v>
       </c>
       <c r="W64" t="n">
-        <v>141.2634431608334</v>
+        <v>140.6422547041252</v>
       </c>
       <c r="X64" t="n">
         <v>772.7827844999999</v>
@@ -10310,43 +10190,43 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>749.4458219073523</v>
+        <v>746.1502269318925</v>
       </c>
       <c r="AC64" t="n">
-        <v>35.04409430570163</v>
+        <v>34.28319582824017</v>
       </c>
       <c r="AD64" t="n">
-        <v>9.069530338723188</v>
+        <v>9.581873038904488</v>
       </c>
       <c r="AE64" t="n">
-        <v>5.356971871299172</v>
+        <v>5.890232776751669</v>
       </c>
       <c r="AF64" t="n">
-        <v>36.51945067597167</v>
+        <v>35.72651837260908</v>
       </c>
       <c r="AG64" t="n">
-        <v>14.03654932402833</v>
+        <v>14.82948162739092</v>
       </c>
       <c r="AH64" t="n">
-        <v>7.965549324028302</v>
+        <v>8.758481627390893</v>
       </c>
       <c r="AI64" t="n">
-        <v>37.0534431608334</v>
+        <v>36.43225470412524</v>
       </c>
       <c r="AJ64" t="n">
-        <v>13.5025568391666</v>
+        <v>14.12374529587476</v>
       </c>
       <c r="AK64" t="n">
-        <v>7.431556839166575</v>
+        <v>8.052745295874729</v>
       </c>
       <c r="AL64" t="n">
-        <v>35.55651392460742</v>
+        <v>34.96042098083221</v>
       </c>
       <c r="AM64" t="n">
-        <v>8.724498170894513</v>
+        <v>9.125870860443996</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.997852543237215</v>
+        <v>5.415612694357397</v>
       </c>
       <c r="AO64" t="n">
         <v>40.50644647331411</v>
@@ -10437,17 +10317,17 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d2e</t>
+          <t>67bf3ddbdad24bc04d4b4c94</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>134.8847146778287</v>
+        <v>117.8735856904871</v>
       </c>
       <c r="V65" t="n">
         <v>650</v>
       </c>
       <c r="W65" t="n">
-        <v>136.8970455552883</v>
+        <v>118.1843763791731</v>
       </c>
       <c r="X65" t="n">
         <v>781.4389614</v>
@@ -10464,43 +10344,43 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>726.2807455858278</v>
+        <v>627.0043056451206</v>
       </c>
       <c r="AC65" t="n">
-        <v>7.585016692186376</v>
+        <v>5.98318190190458</v>
       </c>
       <c r="AD65" t="n">
-        <v>1.560638103355613</v>
+        <v>11.24778958942933</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.898991983008882</v>
+        <v>10.95210756851036</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.509714677828669</v>
+        <v>7.501414309512867</v>
       </c>
       <c r="AG65" t="n">
-        <v>2.072714677828657</v>
+        <v>14.93841430951288</v>
       </c>
       <c r="AH65" t="n">
-        <v>2.513714677828688</v>
+        <v>14.49741430951285</v>
       </c>
       <c r="AI65" t="n">
-        <v>11.52204555528829</v>
+        <v>7.190623620826855</v>
       </c>
       <c r="AJ65" t="n">
-        <v>4.085045555288275</v>
+        <v>14.62762362082687</v>
       </c>
       <c r="AK65" t="n">
-        <v>4.526045555288306</v>
+        <v>14.18662362082684</v>
       </c>
       <c r="AL65" t="n">
-        <v>9.190066245494148</v>
+        <v>5.735293017608658</v>
       </c>
       <c r="AM65" t="n">
-        <v>3.075810585856906</v>
+        <v>11.01378160168273</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.419212331468604</v>
+        <v>10.71731997252181</v>
       </c>
       <c r="AO65" t="n">
         <v>16.6663969663384</v>
@@ -10591,17 +10471,17 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d32</t>
+          <t>67bf3ddbdad24bc04d4b4c94</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>107.4657125254924</v>
+        <v>117.8735856904871</v>
       </c>
       <c r="V66" t="n">
         <v>650</v>
       </c>
       <c r="W66" t="n">
-        <v>109.6790971583893</v>
+        <v>118.1843763791731</v>
       </c>
       <c r="X66" t="n">
         <v>668.0110338</v>
@@ -10618,43 +10498,43 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>581.8811949977708</v>
+        <v>627.0043056451206</v>
       </c>
       <c r="AC66" t="n">
-        <v>3.892295940284753</v>
+        <v>5.415573244457185</v>
       </c>
       <c r="AD66" t="n">
-        <v>14.36995017889052</v>
+        <v>6.076824151006269</v>
       </c>
       <c r="AE66" t="n">
-        <v>5.029549629724758</v>
+        <v>4.168178451608908</v>
       </c>
       <c r="AF66" t="n">
-        <v>4.352287474507605</v>
+        <v>6.055585690487135</v>
       </c>
       <c r="AG66" t="n">
-        <v>18.03428747450761</v>
+        <v>7.626414309512867</v>
       </c>
       <c r="AH66" t="n">
-        <v>5.691287474507646</v>
+        <v>4.716585690487094</v>
       </c>
       <c r="AI66" t="n">
-        <v>2.138902841610715</v>
+        <v>6.366376379173147</v>
       </c>
       <c r="AJ66" t="n">
-        <v>15.82090284161072</v>
+        <v>7.315623620826855</v>
       </c>
       <c r="AK66" t="n">
-        <v>3.477902841610756</v>
+        <v>5.027376379173106</v>
       </c>
       <c r="AL66" t="n">
-        <v>1.912843049965762</v>
+        <v>5.693516588718406</v>
       </c>
       <c r="AM66" t="n">
-        <v>12.60629708494878</v>
+        <v>5.829182167989526</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.073519836696585</v>
+        <v>4.442832859808147</v>
       </c>
       <c r="AO66" t="n">
         <v>16.54690593641654</v>
@@ -10745,17 +10625,17 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d17</t>
+          <t>67bf3ddbdad24bc04d4b4c81</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>110.4741113572186</v>
+        <v>325.4144696252564</v>
       </c>
       <c r="V67" t="n">
         <v>650</v>
       </c>
       <c r="W67" t="n">
-        <v>112.7507025971744</v>
+        <v>331.8876085240652</v>
       </c>
       <c r="X67" t="n">
         <v>678.3154194000001</v>
@@ -10772,43 +10652,43 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>598.1770023994387</v>
+        <v>1760.76538972644</v>
       </c>
       <c r="AC67" t="n">
-        <v>10.75987182653109</v>
+        <v>226.2562106487301</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.7696765885345112</v>
+        <v>192.2945717053259</v>
       </c>
       <c r="AE67" t="n">
-        <v>4.514684071463769</v>
+        <v>207.860276650637</v>
       </c>
       <c r="AF67" t="n">
-        <v>10.73211135721864</v>
+        <v>225.6724696252564</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.8568886427813567</v>
+        <v>214.0834696252564</v>
       </c>
       <c r="AH67" t="n">
-        <v>4.772111357218634</v>
+        <v>219.7124696252564</v>
       </c>
       <c r="AI67" t="n">
-        <v>13.00870259717441</v>
+        <v>232.1456085240652</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1.419702597174407</v>
+        <v>220.5566085240652</v>
       </c>
       <c r="AK67" t="n">
-        <v>7.048702597174398</v>
+        <v>226.1856085240652</v>
       </c>
       <c r="AL67" t="n">
-        <v>13.04235186498607</v>
+        <v>232.7460934451536</v>
       </c>
       <c r="AM67" t="n">
-        <v>1.275208699440773</v>
+        <v>198.1088901779964</v>
       </c>
       <c r="AN67" t="n">
-        <v>6.668466629935475</v>
+        <v>213.9842278519471</v>
       </c>
       <c r="AO67" t="n">
         <v>14.68303590643126</v>
@@ -10899,17 +10779,17 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d15</t>
+          <t>67bf3ddbdad24bc04d4b4c81</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>131.0849287082483</v>
+        <v>325.4144696252564</v>
       </c>
       <c r="V68" t="n">
         <v>650</v>
       </c>
       <c r="W68" t="n">
-        <v>132.8994626307326</v>
+        <v>331.8876085240652</v>
       </c>
       <c r="X68" t="n">
         <v>666.9514497</v>
@@ -10926,43 +10806,43 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>705.0723440808084</v>
+        <v>1760.76538972644</v>
       </c>
       <c r="AC68" t="n">
-        <v>33.66329364261433</v>
+        <v>231.8151845349353</v>
       </c>
       <c r="AD68" t="n">
-        <v>2.353326442557879</v>
+        <v>154.0891143391216</v>
       </c>
       <c r="AE68" t="n">
-        <v>13.63216455434628</v>
+        <v>182.0884973216277</v>
       </c>
       <c r="AF68" t="n">
-        <v>33.0139287082483</v>
+        <v>227.3434696252564</v>
       </c>
       <c r="AG68" t="n">
-        <v>3.013928708248301</v>
+        <v>197.3434696252564</v>
       </c>
       <c r="AH68" t="n">
-        <v>15.72592870824832</v>
+        <v>210.0554696252564</v>
       </c>
       <c r="AI68" t="n">
-        <v>34.82846263073259</v>
+        <v>233.8166085240652</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4.828462630732588</v>
+        <v>203.8166085240652</v>
       </c>
       <c r="AK68" t="n">
-        <v>17.54046263073261</v>
+        <v>216.5286085240652</v>
       </c>
       <c r="AL68" t="n">
-        <v>35.51351840068174</v>
+        <v>238.4156463420024</v>
       </c>
       <c r="AM68" t="n">
-        <v>3.770145177856493</v>
+        <v>159.1434505267119</v>
       </c>
       <c r="AN68" t="n">
-        <v>15.20510981434705</v>
+        <v>187.6997967424</v>
       </c>
       <c r="AO68" t="n">
         <v>27.90230695856368</v>
@@ -11053,17 +10933,17 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fdb</t>
+          <t>67bf3ddddad24bc04d4b4ee9</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>133.1074468221489</v>
+        <v>138.4768950948852</v>
       </c>
       <c r="V69" t="n">
         <v>650</v>
       </c>
       <c r="W69" t="n">
-        <v>135.8118524658757</v>
+        <v>141.2618113712071</v>
       </c>
       <c r="X69" t="n">
         <v>662.2348019</v>
@@ -11080,43 +10960,43 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>720.5234639521283</v>
+        <v>749.4371647637183</v>
       </c>
       <c r="AC69" t="n">
-        <v>5.617360286721111</v>
+        <v>9.877880387600511</v>
       </c>
       <c r="AD69" t="n">
-        <v>7.661100636035215</v>
+        <v>3.93622306131406</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.5525362375332652</v>
+        <v>3.459095157071239</v>
       </c>
       <c r="AF69" t="n">
-        <v>7.079446822148881</v>
+        <v>12.44889509488517</v>
       </c>
       <c r="AG69" t="n">
-        <v>11.04355317785112</v>
+        <v>5.674104905114831</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.7395531778511497</v>
+        <v>4.629895094885143</v>
       </c>
       <c r="AI69" t="n">
-        <v>9.783852465875654</v>
+        <v>15.2338113712071</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8.339147534124351</v>
+        <v>2.889188628792908</v>
       </c>
       <c r="AK69" t="n">
-        <v>1.964852465875623</v>
+        <v>7.414811371207065</v>
       </c>
       <c r="AL69" t="n">
-        <v>7.763237110702109</v>
+        <v>12.0876403427866</v>
       </c>
       <c r="AM69" t="n">
-        <v>5.785008452334254</v>
+        <v>2.004279282691697</v>
       </c>
       <c r="AN69" t="n">
-        <v>1.467983941272963</v>
+        <v>5.539766577664844</v>
       </c>
       <c r="AO69" t="n">
         <v>0.3985947546500199</v>
@@ -11207,17 +11087,17 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fd7</t>
+          <t>67bf3ddddad24bc04d4b4eeb</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>125.5898352592069</v>
+        <v>92.35575535268477</v>
       </c>
       <c r="V70" t="n">
         <v>650</v>
       </c>
       <c r="W70" t="n">
-        <v>128.0902612302304</v>
+        <v>94.25169090924408</v>
       </c>
       <c r="X70" t="n">
         <v>738.1770491999999</v>
@@ -11234,43 +11114,43 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>679.5580580371515</v>
+        <v>500.0340808570974</v>
       </c>
       <c r="AC70" t="n">
-        <v>12.81874044870958</v>
+        <v>35.88899084197482</v>
       </c>
       <c r="AD70" t="n">
-        <v>16.5809812762237</v>
+        <v>38.6556525923198</v>
       </c>
       <c r="AE70" t="n">
-        <v>15.82225042279491</v>
+        <v>38.09770010410148</v>
       </c>
       <c r="AF70" t="n">
-        <v>18.46616474079308</v>
+        <v>51.70024464731524</v>
       </c>
       <c r="AG70" t="n">
-        <v>24.96316474079306</v>
+        <v>58.19724464731523</v>
       </c>
       <c r="AH70" t="n">
-        <v>23.60616474079309</v>
+        <v>56.84024464731526</v>
       </c>
       <c r="AI70" t="n">
-        <v>15.96573876976964</v>
+        <v>49.80430909075594</v>
       </c>
       <c r="AJ70" t="n">
-        <v>22.46273876976963</v>
+        <v>56.30130909075592</v>
       </c>
       <c r="AK70" t="n">
-        <v>21.10573876976966</v>
+        <v>54.94430909075595</v>
       </c>
       <c r="AL70" t="n">
-        <v>11.08300853124454</v>
+        <v>34.57288074828951</v>
       </c>
       <c r="AM70" t="n">
-        <v>14.92015354710277</v>
+        <v>37.39633822690742</v>
       </c>
       <c r="AN70" t="n">
-        <v>14.14631677107272</v>
+        <v>36.82693174800661</v>
       </c>
       <c r="AO70" t="n">
         <v>8.849582202377178</v>
@@ -11361,17 +11241,17 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37fd3</t>
+          <t>67bf3ddddad24bc04d4b4eeb</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>143.9605831953583</v>
+        <v>92.35575535268477</v>
       </c>
       <c r="V71" t="n">
         <v>650</v>
       </c>
       <c r="W71" t="n">
-        <v>146.1726986569559</v>
+        <v>94.25169090924408</v>
       </c>
       <c r="X71" t="n">
         <v>836.4927959</v>
@@ -11388,43 +11268,43 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>775.4909255655989</v>
+        <v>500.0340808570974</v>
       </c>
       <c r="AC71" t="n">
-        <v>13.44049015996351</v>
+        <v>44.46904328397803</v>
       </c>
       <c r="AD71" t="n">
-        <v>15.8995757634739</v>
+        <v>46.04663281125106</v>
       </c>
       <c r="AE71" t="n">
-        <v>14.84998066130099</v>
+        <v>45.37328079833158</v>
       </c>
       <c r="AF71" t="n">
-        <v>22.35341680464171</v>
+        <v>73.95824464731523</v>
       </c>
       <c r="AG71" t="n">
-        <v>27.21641680464171</v>
+        <v>78.82124464731523</v>
       </c>
       <c r="AH71" t="n">
-        <v>25.10641680464175</v>
+        <v>76.71124464731527</v>
       </c>
       <c r="AI71" t="n">
-        <v>20.14130134304409</v>
+        <v>72.06230909075592</v>
       </c>
       <c r="AJ71" t="n">
-        <v>25.00430134304409</v>
+        <v>76.92530909075592</v>
       </c>
       <c r="AK71" t="n">
-        <v>22.89430134304413</v>
+        <v>74.81530909075596</v>
       </c>
       <c r="AL71" t="n">
-        <v>12.1104064258235</v>
+        <v>43.32906976607858</v>
       </c>
       <c r="AM71" t="n">
-        <v>14.60727863150078</v>
+        <v>44.93904501817178</v>
       </c>
       <c r="AN71" t="n">
-        <v>13.54155532602112</v>
+        <v>44.25187002239109</v>
       </c>
       <c r="AO71" t="n">
         <v>13.50953049000975</v>
@@ -11515,17 +11395,17 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d4f</t>
+          <t>67bf3ddbdad24bc04d4b4cad</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>120.7562956803994</v>
+        <v>113.268169124567</v>
       </c>
       <c r="V72" t="n">
         <v>650</v>
       </c>
       <c r="W72" t="n">
-        <v>120.786502015785</v>
+        <v>114.2043143821956</v>
       </c>
       <c r="X72" t="n">
         <v>660.0471076</v>
@@ -11542,43 +11422,43 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>640.8093789379784</v>
+        <v>605.8888580259444</v>
       </c>
       <c r="AC72" t="n">
-        <v>3.103880329231657</v>
+        <v>3.289615760993307</v>
       </c>
       <c r="AD72" t="n">
-        <v>14.7634707772888</v>
+        <v>20.04900818470338</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.246885713725414</v>
+        <v>7.37058976900169</v>
       </c>
       <c r="AF72" t="n">
-        <v>3.635295680399409</v>
+        <v>3.852830875432971</v>
       </c>
       <c r="AG72" t="n">
-        <v>20.91570431960059</v>
+        <v>28.40383087543297</v>
       </c>
       <c r="AH72" t="n">
-        <v>1.524704319600573</v>
+        <v>9.012830875432954</v>
       </c>
       <c r="AI72" t="n">
-        <v>3.665502015785023</v>
+        <v>2.91668561780439</v>
       </c>
       <c r="AJ72" t="n">
-        <v>20.88549798421498</v>
+        <v>27.46768561780439</v>
       </c>
       <c r="AK72" t="n">
-        <v>1.494497984214959</v>
+        <v>8.076685617804372</v>
       </c>
       <c r="AL72" t="n">
-        <v>3.129671037461278</v>
+        <v>2.490318233113097</v>
       </c>
       <c r="AM72" t="n">
-        <v>14.74214946087793</v>
+        <v>19.38822464411061</v>
       </c>
       <c r="AN72" t="n">
-        <v>1.222183318925229</v>
+        <v>6.605020909057314</v>
       </c>
       <c r="AO72" t="n">
         <v>16.00429731841838</v>
@@ -11669,17 +11549,17 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d4b</t>
+          <t>67bf3ddbdad24bc04d4b4cad</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>128.0471298887329</v>
+        <v>113.268169124567</v>
       </c>
       <c r="V73" t="n">
         <v>650</v>
       </c>
       <c r="W73" t="n">
-        <v>129.1931678555395</v>
+        <v>114.2043143821956</v>
       </c>
       <c r="X73" t="n">
         <v>663.0339756000001</v>
@@ -11696,43 +11576,43 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>685.4093154028014</v>
+        <v>605.8888580259444</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.836414385541062</v>
+        <v>3.725281447189546</v>
       </c>
       <c r="AD73" t="n">
-        <v>10.52975545271846</v>
+        <v>20.85624410477649</v>
       </c>
       <c r="AE73" t="n">
-        <v>6.322295291766284</v>
+        <v>5.949225607128442</v>
       </c>
       <c r="AF73" t="n">
-        <v>10.39612988873291</v>
+        <v>4.382830875432973</v>
       </c>
       <c r="AG73" t="n">
-        <v>15.06987011126708</v>
+        <v>29.84883087543297</v>
       </c>
       <c r="AH73" t="n">
-        <v>7.61412988873289</v>
+        <v>7.164830875432997</v>
       </c>
       <c r="AI73" t="n">
-        <v>11.54216785553955</v>
+        <v>3.446685617804391</v>
       </c>
       <c r="AJ73" t="n">
-        <v>13.92383214446045</v>
+        <v>28.91268561780439</v>
       </c>
       <c r="AK73" t="n">
-        <v>8.760167855539521</v>
+        <v>6.228685617804416</v>
       </c>
       <c r="AL73" t="n">
-        <v>9.810514024988777</v>
+        <v>2.929584634048492</v>
       </c>
       <c r="AM73" t="n">
-        <v>9.728985476540487</v>
+        <v>20.20213225389324</v>
       </c>
       <c r="AN73" t="n">
-        <v>7.273893248145873</v>
+        <v>5.171909375174923</v>
       </c>
       <c r="AO73" t="n">
         <v>15.7824365266837</v>
@@ -11823,17 +11703,17 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d51</t>
+          <t>67bf3ddbdad24bc04d4b4caf</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>109.5821690990894</v>
+        <v>86.73324329532549</v>
       </c>
       <c r="V74" t="n">
         <v>650</v>
       </c>
       <c r="W74" t="n">
-        <v>111.278119103552</v>
+        <v>87.99257741805813</v>
       </c>
       <c r="X74" t="n">
         <v>620.8233316</v>
@@ -11850,43 +11730,43 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>590.3644960495225</v>
+        <v>466.8275671982697</v>
       </c>
       <c r="AC74" t="n">
-        <v>14.9805037501594</v>
+        <v>8.994026236477112</v>
       </c>
       <c r="AD74" t="n">
-        <v>12.03447822251077</v>
+        <v>30.37612720525512</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.5254408555755563</v>
+        <v>21.2668337294274</v>
       </c>
       <c r="AF74" t="n">
-        <v>14.27716909908942</v>
+        <v>8.571756704674513</v>
       </c>
       <c r="AG74" t="n">
-        <v>14.99183090091057</v>
+        <v>37.8407567046745</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.5788309009105888</v>
+        <v>23.42775670467452</v>
       </c>
       <c r="AI74" t="n">
-        <v>15.97311910355198</v>
+        <v>7.312422581941874</v>
       </c>
       <c r="AJ74" t="n">
-        <v>13.29588089644801</v>
+        <v>36.58142258194187</v>
       </c>
       <c r="AK74" t="n">
-        <v>1.117119103551971</v>
+        <v>22.16842258194188</v>
       </c>
       <c r="AL74" t="n">
-        <v>16.76000115791614</v>
+        <v>7.672653671834503</v>
       </c>
       <c r="AM74" t="n">
-        <v>10.67307856892129</v>
+        <v>29.36521471731009</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.014078579126888</v>
+        <v>20.12365772091927</v>
       </c>
       <c r="AO74" t="n">
         <v>10.17994998452193</v>
@@ -11977,17 +11857,17 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>679b409cf166b42905a37d4d</t>
+          <t>67bf3ddbdad24bc04d4b4caf</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>125.5856032153758</v>
+        <v>86.73324329532549</v>
       </c>
       <c r="V75" t="n">
         <v>650</v>
       </c>
       <c r="W75" t="n">
-        <v>127.3678879467986</v>
+        <v>87.99257741805813</v>
       </c>
       <c r="X75" t="n">
         <v>712.8639508</v>
@@ -12004,43 +11884,43 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>675.7256465723607</v>
+        <v>466.8275671982697</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.7173494063894533</v>
+        <v>31.4323770522278</v>
       </c>
       <c r="AD75" t="n">
-        <v>12.52291436893943</v>
+        <v>39.58565984834255</v>
       </c>
       <c r="AE75" t="n">
-        <v>5.354131271854841</v>
+        <v>34.6346798588247</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.9073967846242113</v>
+        <v>39.7597567046745</v>
       </c>
       <c r="AG75" t="n">
-        <v>17.97839678462421</v>
+        <v>56.8307567046745</v>
       </c>
       <c r="AH75" t="n">
-        <v>7.104396784624186</v>
+        <v>45.95675670467448</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.8748879467986512</v>
+        <v>38.50042258194186</v>
       </c>
       <c r="AJ75" t="n">
-        <v>16.19611205320135</v>
+        <v>55.57142258194186</v>
       </c>
       <c r="AK75" t="n">
-        <v>5.322112053201323</v>
+        <v>44.69742258194184</v>
       </c>
       <c r="AL75" t="n">
-        <v>0.6916492982209698</v>
+        <v>30.43680091541972</v>
       </c>
       <c r="AM75" t="n">
-        <v>11.28145778412509</v>
+        <v>38.7084663160276</v>
       </c>
       <c r="AN75" t="n">
-        <v>4.010936810009288</v>
+        <v>33.68559995624527</v>
       </c>
       <c r="AO75" t="n">
         <v>6.477852288178852</v>
@@ -12131,17 +12011,17 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380cb</t>
+          <t>67bf3ddddad24bc04d4b4fbb</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>94.30626241254755</v>
+        <v>108.619055350433</v>
       </c>
       <c r="V76" t="n">
         <v>700</v>
       </c>
       <c r="W76" t="n">
-        <v>95.520911763824</v>
+        <v>110.0894412238402</v>
       </c>
       <c r="X76" t="n">
         <v>424.167362</v>
@@ -12158,43 +12038,43 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>470.5699942688724</v>
+        <v>542.3397533500674</v>
       </c>
       <c r="AC76" t="n">
-        <v>37.09298213773447</v>
+        <v>57.89948444604308</v>
       </c>
       <c r="AD76" t="n">
-        <v>23.69981165894639</v>
+        <v>42.47364221311295</v>
       </c>
       <c r="AE76" t="n">
-        <v>27.04088803166725</v>
+        <v>46.32179131980795</v>
       </c>
       <c r="AF76" t="n">
-        <v>25.51626241254755</v>
+        <v>39.82905535043304</v>
       </c>
       <c r="AG76" t="n">
-        <v>18.06826241254755</v>
+        <v>32.38105535043304</v>
       </c>
       <c r="AH76" t="n">
-        <v>20.07326241254755</v>
+        <v>34.38605535043304</v>
       </c>
       <c r="AI76" t="n">
-        <v>26.730911763824</v>
+        <v>41.29944122384022</v>
       </c>
       <c r="AJ76" t="n">
-        <v>19.282911763824</v>
+        <v>33.85144122384023</v>
       </c>
       <c r="AK76" t="n">
-        <v>21.287911763824</v>
+        <v>35.85644122384022</v>
       </c>
       <c r="AL76" t="n">
-        <v>38.85871749356592</v>
+        <v>60.03698389859022</v>
       </c>
       <c r="AM76" t="n">
-        <v>25.29304515310475</v>
+        <v>44.40232065877938</v>
       </c>
       <c r="AN76" t="n">
-        <v>28.67715404715423</v>
+        <v>48.30256250433126</v>
       </c>
       <c r="AO76" t="n">
         <v>21.73702039528705</v>
@@ -12285,17 +12165,17 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380cf</t>
+          <t>67bf3ddddad24bc04d4b4fbb</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>82.78848455002225</v>
+        <v>108.619055350433</v>
       </c>
       <c r="V77" t="n">
         <v>700</v>
       </c>
       <c r="W77" t="n">
-        <v>83.79151701231267</v>
+        <v>110.0894412238402</v>
       </c>
       <c r="X77" t="n">
         <v>368.78156</v>
@@ -12312,43 +12192,43 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>412.7868228242465</v>
+        <v>542.3397533500674</v>
       </c>
       <c r="AC77" t="n">
-        <v>41.13277284354287</v>
+        <v>85.16715879719237</v>
       </c>
       <c r="AD77" t="n">
-        <v>15.43935042392528</v>
+        <v>51.45721366282706</v>
       </c>
       <c r="AE77" t="n">
-        <v>28.27468941745002</v>
+        <v>68.29726580482341</v>
       </c>
       <c r="AF77" t="n">
-        <v>24.12848455002225</v>
+        <v>49.95905535043305</v>
       </c>
       <c r="AG77" t="n">
-        <v>11.07248455002225</v>
+        <v>36.90305535043305</v>
       </c>
       <c r="AH77" t="n">
-        <v>18.24848455002224</v>
+        <v>44.07905535043304</v>
       </c>
       <c r="AI77" t="n">
-        <v>25.13151701231267</v>
+        <v>51.42944122384023</v>
       </c>
       <c r="AJ77" t="n">
-        <v>12.07551701231267</v>
+        <v>38.37344122384023</v>
       </c>
       <c r="AK77" t="n">
-        <v>19.25151701231266</v>
+        <v>45.54944122384022</v>
       </c>
       <c r="AL77" t="n">
-        <v>42.84268157571202</v>
+        <v>87.67378319781834</v>
       </c>
       <c r="AM77" t="n">
-        <v>16.83796783467103</v>
+        <v>53.50750351921501</v>
       </c>
       <c r="AN77" t="n">
-        <v>29.82881470764279</v>
+        <v>70.57552095419928</v>
       </c>
       <c r="AO77" t="n">
         <v>19.28853248728912</v>
@@ -12439,17 +12319,17 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380cd</t>
+          <t>67bf3ddddad24bc04d4b4fbd</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>97.57844765770079</v>
+        <v>110.5223816309017</v>
       </c>
       <c r="V78" t="n">
         <v>700</v>
       </c>
       <c r="W78" t="n">
-        <v>99.3443279272792</v>
+        <v>112.6328081023823</v>
       </c>
       <c r="X78" t="n">
         <v>483.221552</v>
@@ -12466,43 +12346,43 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>489.4055025246261</v>
+        <v>554.8692834326357</v>
       </c>
       <c r="AC78" t="n">
-        <v>22.70160032405003</v>
+        <v>38.97815986281262</v>
       </c>
       <c r="AD78" t="n">
-        <v>14.54213834687263</v>
+        <v>29.73633246965812</v>
       </c>
       <c r="AE78" t="n">
-        <v>15.38459897088825</v>
+        <v>30.69054681546416</v>
       </c>
       <c r="AF78" t="n">
-        <v>18.05344765770079</v>
+        <v>30.99738163090174</v>
       </c>
       <c r="AG78" t="n">
-        <v>12.38844765770079</v>
+        <v>25.33238163090175</v>
       </c>
       <c r="AH78" t="n">
-        <v>13.01044765770078</v>
+        <v>25.95438163090174</v>
       </c>
       <c r="AI78" t="n">
-        <v>19.81932792727919</v>
+        <v>33.10780810238229</v>
       </c>
       <c r="AJ78" t="n">
-        <v>14.1543279272792</v>
+        <v>27.4428081023823</v>
       </c>
       <c r="AK78" t="n">
-        <v>14.77632792727918</v>
+        <v>28.06480810238229</v>
       </c>
       <c r="AL78" t="n">
-        <v>24.92213508617314</v>
+        <v>41.63194983009404</v>
       </c>
       <c r="AM78" t="n">
-        <v>16.61501106618054</v>
+        <v>32.21364960955781</v>
       </c>
       <c r="AN78" t="n">
-        <v>17.47271772689337</v>
+        <v>33.18608469206116</v>
       </c>
       <c r="AO78" t="n">
         <v>19.73279451082149</v>
@@ -12593,17 +12473,17 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380d1</t>
+          <t>67bf3ddddad24bc04d4b4fbd</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>61.08318998984846</v>
+        <v>110.5223816309017</v>
       </c>
       <c r="V79" t="n">
         <v>700</v>
       </c>
       <c r="W79" t="n">
-        <v>61.80896521892038</v>
+        <v>112.6328081023823</v>
       </c>
       <c r="X79" t="n">
         <v>283.745812</v>
@@ -12620,43 +12500,43 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>304.4929520851542</v>
+        <v>554.8692834326357</v>
       </c>
       <c r="AC79" t="n">
-        <v>23.00775301028729</v>
+        <v>122.567122378875</v>
       </c>
       <c r="AD79" t="n">
-        <v>8.186518109577346</v>
+        <v>95.74995418235906</v>
       </c>
       <c r="AE79" t="n">
-        <v>19.50383454601177</v>
+        <v>116.2272207827635</v>
       </c>
       <c r="AF79" t="n">
-        <v>11.42518998984846</v>
+        <v>60.86438163090175</v>
       </c>
       <c r="AG79" t="n">
-        <v>4.622189989848465</v>
+        <v>54.06138163090175</v>
       </c>
       <c r="AH79" t="n">
-        <v>9.969189989848459</v>
+        <v>59.40838163090174</v>
       </c>
       <c r="AI79" t="n">
-        <v>12.15096521892038</v>
+        <v>62.9748081023823</v>
       </c>
       <c r="AJ79" t="n">
-        <v>5.347965218920386</v>
+        <v>56.1718081023823</v>
       </c>
       <c r="AK79" t="n">
-        <v>10.69496521892038</v>
+        <v>61.51880810238229</v>
       </c>
       <c r="AL79" t="n">
-        <v>24.46930045293887</v>
+        <v>126.817044791136</v>
       </c>
       <c r="AM79" t="n">
-        <v>9.471963335612877</v>
+        <v>99.48780238108128</v>
       </c>
       <c r="AN79" t="n">
-        <v>20.92374930336186</v>
+        <v>120.3560826825963</v>
       </c>
       <c r="AO79" t="n">
         <v>34.43071776725774</v>
@@ -12747,17 +12627,17 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37cda</t>
+          <t>67bf3ddbdad24bc04d4b4c4a</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>148.8096362035655</v>
+        <v>125.9573493201118</v>
       </c>
       <c r="V80" t="n">
         <v>650</v>
       </c>
       <c r="W80" t="n">
-        <v>149.2372710485382</v>
+        <v>126.2852982894877</v>
       </c>
       <c r="X80" t="n">
         <v>793.2273029999999</v>
@@ -12774,43 +12654,43 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>791.7494204982833</v>
+        <v>669.9821769431514</v>
       </c>
       <c r="AC80" t="n">
-        <v>31.15950201712148</v>
+        <v>11.01769773580455</v>
       </c>
       <c r="AD80" t="n">
-        <v>5.140557183125971</v>
+        <v>11.00558924349501</v>
       </c>
       <c r="AE80" t="n">
-        <v>25.86879045520064</v>
+        <v>6.539466208881092</v>
       </c>
       <c r="AF80" t="n">
-        <v>35.35263620356551</v>
+        <v>12.50034932011177</v>
       </c>
       <c r="AG80" t="n">
-        <v>7.275636203565512</v>
+        <v>15.57665067988823</v>
       </c>
       <c r="AH80" t="n">
-        <v>30.5836362035655</v>
+        <v>7.731349320111761</v>
       </c>
       <c r="AI80" t="n">
-        <v>35.7802710485382</v>
+        <v>12.82829828948775</v>
       </c>
       <c r="AJ80" t="n">
-        <v>7.703271048538198</v>
+        <v>15.24870171051225</v>
       </c>
       <c r="AK80" t="n">
-        <v>31.01127104853819</v>
+        <v>8.059298289487742</v>
       </c>
       <c r="AL80" t="n">
-        <v>31.53641560109839</v>
+        <v>11.30674906747732</v>
       </c>
       <c r="AM80" t="n">
-        <v>5.442700021576581</v>
+        <v>10.77387886339131</v>
       </c>
       <c r="AN80" t="n">
-        <v>26.23050010026407</v>
+        <v>6.816857788885476</v>
       </c>
       <c r="AO80" t="n">
         <v>31.90775779497434</v>
@@ -12901,17 +12781,17 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380f8</t>
+          <t>67bf3ddedad24bc04d4b4fe2</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>64.79951768835893</v>
+        <v>57.27494653523053</v>
       </c>
       <c r="V81" t="n">
         <v>700</v>
       </c>
       <c r="W81" t="n">
-        <v>64.96621103971997</v>
+        <v>57.2866473540175</v>
       </c>
       <c r="X81" t="n">
         <v>454.3996794000001</v>
@@ -12928,43 +12808,43 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>320.0466682334306</v>
+        <v>282.2144054038681</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.4294508391970701</v>
+        <v>11.99166161860119</v>
       </c>
       <c r="AD81" t="n">
-        <v>18.8779057219558</v>
+        <v>28.29786735533679</v>
       </c>
       <c r="AE81" t="n">
-        <v>10.08933178621228</v>
+        <v>20.52982956358239</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.2794823116410612</v>
+        <v>7.804053464769467</v>
       </c>
       <c r="AG81" t="n">
-        <v>15.07948231164107</v>
+        <v>22.60405346476948</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.271482311641051</v>
+        <v>14.79605346476946</v>
       </c>
       <c r="AI81" t="n">
-        <v>0.112788960280028</v>
+        <v>7.79235264598249</v>
       </c>
       <c r="AJ81" t="n">
-        <v>14.91278896028004</v>
+        <v>22.5923526459825</v>
       </c>
       <c r="AK81" t="n">
-        <v>7.104788960280018</v>
+        <v>14.78435264598248</v>
       </c>
       <c r="AL81" t="n">
-        <v>0.1733108380276711</v>
+        <v>11.97368221082452</v>
       </c>
       <c r="AM81" t="n">
-        <v>18.66922340074367</v>
+        <v>28.28321917648255</v>
       </c>
       <c r="AN81" t="n">
-        <v>9.858041320753173</v>
+        <v>20.51359443601793</v>
       </c>
       <c r="AO81" t="n">
         <v>13.62424874175197</v>
@@ -13055,17 +12935,17 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380f6</t>
+          <t>67bf3ddedad24bc04d4b4fe0</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>101.0222581762195</v>
+        <v>34.91478075464238</v>
       </c>
       <c r="V82" t="n">
         <v>700</v>
       </c>
       <c r="W82" t="n">
-        <v>103.1052331182409</v>
+        <v>35.06561755529702</v>
       </c>
       <c r="X82" t="n">
         <v>484.5947682</v>
@@ -13082,43 +12962,43 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>507.9330594907108</v>
+        <v>172.7457071685934</v>
       </c>
       <c r="AC82" t="n">
-        <v>23.11829936287466</v>
+        <v>57.44850187727154</v>
       </c>
       <c r="AD82" t="n">
-        <v>4.531164013136316</v>
+        <v>67.00456377080963</v>
       </c>
       <c r="AE82" t="n">
-        <v>18.58882009722083</v>
+        <v>59.01395664286526</v>
       </c>
       <c r="AF82" t="n">
-        <v>18.96925817621954</v>
+        <v>47.13821924535762</v>
       </c>
       <c r="AG82" t="n">
-        <v>4.794741823780456</v>
+        <v>70.90221924535761</v>
       </c>
       <c r="AH82" t="n">
-        <v>15.83525817621951</v>
+        <v>50.27221924535765</v>
       </c>
       <c r="AI82" t="n">
-        <v>21.05223311824086</v>
+        <v>46.98738244470298</v>
       </c>
       <c r="AJ82" t="n">
-        <v>2.711766881759132</v>
+        <v>70.75138244470298</v>
       </c>
       <c r="AK82" t="n">
-        <v>17.91823311824083</v>
+        <v>50.12138244470301</v>
       </c>
       <c r="AL82" t="n">
-        <v>25.65687192210018</v>
+        <v>57.26467337538296</v>
       </c>
       <c r="AM82" t="n">
-        <v>2.562694918358234</v>
+        <v>66.86201881049641</v>
       </c>
       <c r="AN82" t="n">
-        <v>21.03399945794643</v>
+        <v>58.83689112740559</v>
       </c>
       <c r="AO82" t="n">
         <v>19.16671179413879</v>
@@ -13209,17 +13089,17 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a380fa</t>
+          <t>67bf3ddedad24bc04d4b4fe0</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>54.62266437068924</v>
+        <v>34.91478075464238</v>
       </c>
       <c r="V83" t="n">
         <v>700</v>
       </c>
       <c r="W83" t="n">
-        <v>54.96394941796107</v>
+        <v>35.06561755529702</v>
       </c>
       <c r="X83" t="n">
         <v>209.9150286000001</v>
@@ -13236,43 +13116,43 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>270.7719690380927</v>
+        <v>172.7457071685934</v>
       </c>
       <c r="AC83" t="n">
-        <v>58.78219926946669</v>
+        <v>1.493505289504304</v>
       </c>
       <c r="AD83" t="n">
-        <v>39.47517904830898</v>
+        <v>10.8475327358926</v>
       </c>
       <c r="AE83" t="n">
-        <v>48.02488921896222</v>
+        <v>5.382562113107009</v>
       </c>
       <c r="AF83" t="n">
-        <v>20.22166437068924</v>
+        <v>0.5137807546423758</v>
       </c>
       <c r="AG83" t="n">
-        <v>15.45966437068925</v>
+        <v>4.248219245357618</v>
       </c>
       <c r="AH83" t="n">
-        <v>17.72166437068925</v>
+        <v>1.986219245357617</v>
       </c>
       <c r="AI83" t="n">
-        <v>20.56294941796106</v>
+        <v>0.6646175552970135</v>
       </c>
       <c r="AJ83" t="n">
-        <v>15.80094941796107</v>
+        <v>4.09738244470298</v>
       </c>
       <c r="AK83" t="n">
-        <v>18.06294941796107</v>
+        <v>1.835382444702979</v>
       </c>
       <c r="AL83" t="n">
-        <v>59.7742781255227</v>
+        <v>1.931971615060648</v>
       </c>
       <c r="AM83" t="n">
-        <v>40.34662670878399</v>
+        <v>10.46238144346189</v>
       </c>
       <c r="AN83" t="n">
-        <v>48.94975588184893</v>
+        <v>4.973801373141594</v>
       </c>
       <c r="AO83" t="n">
         <v>16.29649893177121</v>
@@ -13363,17 +13243,17 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f65</t>
+          <t>67bf3ddddad24bc04d4b4e8b</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>107.4165763680848</v>
+        <v>202.6278637505531</v>
       </c>
       <c r="V84" t="n">
         <v>650</v>
       </c>
       <c r="W84" t="n">
-        <v>108.0866723301407</v>
+        <v>204.7903187997022</v>
       </c>
       <c r="X84" t="n">
         <v>549.1114650000001</v>
@@ -13390,43 +13270,43 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>573.4328936713357</v>
+        <v>1086.475349583332</v>
       </c>
       <c r="AC84" t="n">
-        <v>41.74231208593594</v>
+        <v>167.3790477423078</v>
       </c>
       <c r="AD84" t="n">
-        <v>8.520227077462623</v>
+        <v>104.7097620304023</v>
       </c>
       <c r="AE84" t="n">
-        <v>31.88038841999368</v>
+        <v>148.7757688772905</v>
       </c>
       <c r="AF84" t="n">
-        <v>31.63357636808483</v>
+        <v>126.8448637505531</v>
       </c>
       <c r="AG84" t="n">
-        <v>8.433576368084829</v>
+        <v>103.6448637505531</v>
       </c>
       <c r="AH84" t="n">
-        <v>25.96657636808484</v>
+        <v>121.1778637505531</v>
       </c>
       <c r="AI84" t="n">
-        <v>32.30367233014067</v>
+        <v>129.0073187997023</v>
       </c>
       <c r="AJ84" t="n">
-        <v>9.103672330140668</v>
+        <v>105.8073187997022</v>
       </c>
       <c r="AK84" t="n">
-        <v>26.63667233014068</v>
+        <v>123.3403187997023</v>
       </c>
       <c r="AL84" t="n">
-        <v>42.62654200828771</v>
+        <v>170.2325307782778</v>
       </c>
       <c r="AM84" t="n">
-        <v>9.197207934837969</v>
+        <v>106.8944352057447</v>
       </c>
       <c r="AN84" t="n">
-        <v>32.70309678347537</v>
+        <v>151.4307167583822</v>
       </c>
       <c r="AO84" t="n">
         <v>31.76132002695387</v>
@@ -13517,17 +13397,17 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f67</t>
+          <t>67bf3ddddad24bc04d4b4e8b</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>118.4906215704422</v>
+        <v>202.6278637505531</v>
       </c>
       <c r="V85" t="n">
         <v>650</v>
       </c>
       <c r="W85" t="n">
-        <v>120.7451810122013</v>
+        <v>204.7903187997022</v>
       </c>
       <c r="X85" t="n">
         <v>737.4475961999999</v>
@@ -13544,43 +13424,43 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>640.5901583611617</v>
+        <v>1086.475349583332</v>
       </c>
       <c r="AC85" t="n">
-        <v>13.58380135203429</v>
+        <v>94.23683258296887</v>
       </c>
       <c r="AD85" t="n">
-        <v>4.552350074558036</v>
+        <v>63.22265127882031</v>
       </c>
       <c r="AE85" t="n">
-        <v>8.323388340776877</v>
+        <v>85.24113117817012</v>
       </c>
       <c r="AF85" t="n">
-        <v>14.17062157044217</v>
+        <v>98.30786375055311</v>
       </c>
       <c r="AG85" t="n">
-        <v>5.651378429557838</v>
+        <v>78.48586375055311</v>
       </c>
       <c r="AH85" t="n">
-        <v>9.104621570442191</v>
+        <v>93.24186375055314</v>
       </c>
       <c r="AI85" t="n">
-        <v>16.42518101220129</v>
+        <v>100.4703187997023</v>
       </c>
       <c r="AJ85" t="n">
-        <v>3.39681898779871</v>
+        <v>80.64831879970225</v>
       </c>
       <c r="AK85" t="n">
-        <v>11.35918101220132</v>
+        <v>95.40431879970228</v>
       </c>
       <c r="AL85" t="n">
-        <v>15.74499713592915</v>
+        <v>96.30973811321152</v>
       </c>
       <c r="AM85" t="n">
-        <v>2.736236719078724</v>
+        <v>64.96457186101581</v>
       </c>
       <c r="AN85" t="n">
-        <v>10.38449254219125</v>
+        <v>87.21803411743944</v>
       </c>
       <c r="AO85" t="n">
         <v>19.6504576512515</v>
@@ -13671,17 +13551,17 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37f7e</t>
+          <t>67bf3ddddad24bc04d4b4e9e</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>129.0698208638136</v>
+        <v>11.14692827459282</v>
       </c>
       <c r="V86" t="n">
         <v>650</v>
       </c>
       <c r="W86" t="n">
-        <v>129.3560750281661</v>
+        <v>11.15097896211106</v>
       </c>
       <c r="X86" t="n">
         <v>660.3867522</v>
@@ -13698,43 +13578,43 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>686.2735878369986</v>
+        <v>59.15935790844427</v>
       </c>
       <c r="AC86" t="n">
-        <v>15.19771234341904</v>
+        <v>90.05111630050087</v>
       </c>
       <c r="AD86" t="n">
-        <v>8.837019026742185</v>
+        <v>90.60044837288741</v>
       </c>
       <c r="AE86" t="n">
-        <v>9.186888472898726</v>
+        <v>90.57023240454038</v>
       </c>
       <c r="AF86" t="n">
-        <v>17.02782086381356</v>
+        <v>100.8950717254072</v>
       </c>
       <c r="AG86" t="n">
-        <v>10.47982086381356</v>
+        <v>107.4430717254072</v>
       </c>
       <c r="AH86" t="n">
-        <v>10.85982086381358</v>
+        <v>107.0630717254072</v>
       </c>
       <c r="AI86" t="n">
-        <v>17.31407502816606</v>
+        <v>100.8910210378889</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10.76607502816606</v>
+        <v>107.4390210378889</v>
       </c>
       <c r="AK86" t="n">
-        <v>11.14607502816608</v>
+        <v>107.0590210378889</v>
       </c>
       <c r="AL86" t="n">
-        <v>15.45320061063356</v>
+        <v>90.0475009709653</v>
       </c>
       <c r="AM86" t="n">
-        <v>9.07840039477701</v>
+        <v>90.59703266539249</v>
       </c>
       <c r="AN86" t="n">
-        <v>9.429045789836801</v>
+        <v>90.56680571685047</v>
       </c>
       <c r="AO86" t="n">
         <v>20.38617352378114</v>
@@ -13825,17 +13705,17 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>679b40a0f166b42905a38076</t>
+          <t>67bf3ddddad24bc04d4b4f78</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>126.0291016215603</v>
+        <v>145.9468764358434</v>
       </c>
       <c r="V87" t="n">
         <v>650</v>
       </c>
       <c r="W87" t="n">
-        <v>128.4287554081008</v>
+        <v>148.579288265262</v>
       </c>
       <c r="X87" t="n">
         <v>658.3920672</v>
@@ -13852,43 +13732,43 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>681.3538733002418</v>
+        <v>788.2586203536778</v>
       </c>
       <c r="AC87" t="n">
-        <v>18.4205793954055</v>
+        <v>37.13589517110018</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.5169542944963031</v>
+        <v>15.2054532820588</v>
       </c>
       <c r="AE87" t="n">
-        <v>1.741395651608366</v>
+        <v>17.82071528339204</v>
       </c>
       <c r="AF87" t="n">
-        <v>19.6041016215603</v>
+        <v>39.52187643584337</v>
       </c>
       <c r="AG87" t="n">
-        <v>0.6548983784396967</v>
+        <v>19.26287643584337</v>
       </c>
       <c r="AH87" t="n">
-        <v>2.157101621560315</v>
+        <v>22.07487643584338</v>
       </c>
       <c r="AI87" t="n">
-        <v>22.00375540810079</v>
+        <v>42.154288265262</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1.744755408100787</v>
+        <v>21.895288265262</v>
       </c>
       <c r="AK87" t="n">
-        <v>4.556755408100798</v>
+        <v>24.70728826526201</v>
       </c>
       <c r="AL87" t="n">
-        <v>20.67536331510528</v>
+        <v>39.60938526216772</v>
       </c>
       <c r="AM87" t="n">
-        <v>1.377250014288139</v>
+        <v>17.28338879831865</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.678600012997932</v>
+        <v>19.94582170729625</v>
       </c>
       <c r="AO87" t="n">
         <v>16.42096010118189</v>
@@ -13979,17 +13859,17 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37f95</t>
+          <t>67bf3ddddad24bc04d4b4eb1</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>137.9435949004724</v>
+        <v>139.5666987930174</v>
       </c>
       <c r="V88" t="n">
         <v>650</v>
       </c>
       <c r="W88" t="n">
-        <v>138.8242670428149</v>
+        <v>140.4184028873804</v>
       </c>
       <c r="X88" t="n">
         <v>639.0505759</v>
@@ -14006,43 +13886,43 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>736.5052457070123</v>
+        <v>744.9626244989345</v>
       </c>
       <c r="AC88" t="n">
-        <v>27.52835421198001</v>
+        <v>29.02890788597021</v>
       </c>
       <c r="AD88" t="n">
-        <v>9.152452503598301</v>
+        <v>10.43678738458533</v>
       </c>
       <c r="AE88" t="n">
-        <v>13.60488445486268</v>
+        <v>14.94160857245473</v>
       </c>
       <c r="AF88" t="n">
-        <v>29.77659490047242</v>
+        <v>31.39969879301739</v>
       </c>
       <c r="AG88" t="n">
-        <v>11.56659490047242</v>
+        <v>13.1896987930174</v>
       </c>
       <c r="AH88" t="n">
-        <v>16.51959490047246</v>
+        <v>18.14269879301743</v>
       </c>
       <c r="AI88" t="n">
-        <v>30.65726704281488</v>
+        <v>32.25140288738035</v>
       </c>
       <c r="AJ88" t="n">
-        <v>12.44726704281489</v>
+        <v>14.04140288738036</v>
       </c>
       <c r="AK88" t="n">
-        <v>17.40026704281492</v>
+        <v>18.99440288738039</v>
       </c>
       <c r="AL88" t="n">
-        <v>28.34253242006793</v>
+        <v>29.81630523854813</v>
       </c>
       <c r="AM88" t="n">
-        <v>9.849313595681878</v>
+        <v>11.11072654627057</v>
       </c>
       <c r="AN88" t="n">
-        <v>14.3301711711152</v>
+        <v>15.64303835105119</v>
       </c>
       <c r="AO88" t="n">
         <v>26.97438925144843</v>
@@ -14133,17 +14013,17 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c8d</t>
+          <t>67bf3ddbdad24bc04d4b4c07</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>123.660409613013</v>
+        <v>755.6005592714616</v>
       </c>
       <c r="V89" t="n">
         <v>650</v>
       </c>
       <c r="W89" t="n">
-        <v>124.001188808245</v>
+        <v>755.7662270646031</v>
       </c>
       <c r="X89" t="n">
         <v>623.0780075</v>
@@ -14160,43 +14040,43 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>657.8642767334886</v>
+        <v>4009.571255936166</v>
       </c>
       <c r="AC89" t="n">
-        <v>30.53710426573178</v>
+        <v>697.6191353201259</v>
       </c>
       <c r="AD89" t="n">
-        <v>10.09161772803296</v>
+        <v>572.6913503418309</v>
       </c>
       <c r="AE89" t="n">
-        <v>20.55609028809459</v>
+        <v>636.6322781101259</v>
       </c>
       <c r="AF89" t="n">
-        <v>28.92840961301303</v>
+        <v>660.8685592714617</v>
       </c>
       <c r="AG89" t="n">
-        <v>11.33540961301303</v>
+        <v>643.2755592714616</v>
       </c>
       <c r="AH89" t="n">
-        <v>21.08540961301303</v>
+        <v>653.0255592714616</v>
       </c>
       <c r="AI89" t="n">
-        <v>29.26918880824498</v>
+        <v>661.0342270646031</v>
       </c>
       <c r="AJ89" t="n">
-        <v>11.67618880824497</v>
+        <v>643.441227064603</v>
       </c>
       <c r="AK89" t="n">
-        <v>21.42618880824497</v>
+        <v>653.191227064603</v>
       </c>
       <c r="AL89" t="n">
-        <v>30.89683402466429</v>
+        <v>697.7940158178895</v>
       </c>
       <c r="AM89" t="n">
-        <v>10.39500450322277</v>
+        <v>572.8388400308061</v>
       </c>
       <c r="AN89" t="n">
-        <v>20.88831470460148</v>
+        <v>636.793787048114</v>
       </c>
       <c r="AO89" t="n">
         <v>20.24715437856895</v>
@@ -14287,17 +14167,17 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>679b409bf166b42905a37c8b</t>
+          <t>67bf3ddbdad24bc04d4b4c09</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>928.2336607105831</v>
+        <v>141.1621318782659</v>
       </c>
       <c r="V90" t="n">
         <v>650</v>
       </c>
       <c r="W90" t="n">
-        <v>932.3424542344288</v>
+        <v>141.5631726072977</v>
       </c>
       <c r="X90" t="n">
         <v>560.2903825999999</v>
@@ -14314,43 +14194,43 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>4946.362210053873</v>
+        <v>751.0359784002785</v>
       </c>
       <c r="AC90" t="n">
-        <v>876.337825366385</v>
+        <v>48.47762443413579</v>
       </c>
       <c r="AD90" t="n">
-        <v>815.8061709705132</v>
+        <v>39.27220801549564</v>
       </c>
       <c r="AE90" t="n">
-        <v>818.9886350420601</v>
+        <v>39.75618466058047</v>
       </c>
       <c r="AF90" t="n">
-        <v>833.1606607105831</v>
+        <v>46.08913187826592</v>
       </c>
       <c r="AG90" t="n">
-        <v>826.8766607105831</v>
+        <v>39.80513187826591</v>
       </c>
       <c r="AH90" t="n">
-        <v>827.2276607105831</v>
+        <v>40.15613187826591</v>
       </c>
       <c r="AI90" t="n">
-        <v>837.2694542344288</v>
+        <v>46.49017260729774</v>
       </c>
       <c r="AJ90" t="n">
-        <v>830.9854542344289</v>
+        <v>40.20617260729773</v>
       </c>
       <c r="AK90" t="n">
-        <v>831.3364542344289</v>
+        <v>40.55717260729773</v>
       </c>
       <c r="AL90" t="n">
-        <v>880.6595502765548</v>
+        <v>48.89944843151866</v>
       </c>
       <c r="AM90" t="n">
-        <v>819.8599546498306</v>
+        <v>39.66787948271725</v>
       </c>
       <c r="AN90" t="n">
-        <v>823.0565057862195</v>
+        <v>40.15323110240751</v>
       </c>
       <c r="AO90" t="n">
         <v>11.14878156416813</v>
@@ -14441,17 +14321,17 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37bff</t>
+          <t>67bf3ddbdad24bc04d4b4b87</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>119.3160112027606</v>
+        <v>139.7046286194019</v>
       </c>
       <c r="V91" t="n">
         <v>650</v>
       </c>
       <c r="W91" t="n">
-        <v>119.3528709119483</v>
+        <v>139.7225126228713</v>
       </c>
       <c r="X91" t="n">
         <v>608.4716081</v>
@@ -14468,43 +14348,43 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>633.2035269433927</v>
+        <v>741.2707135588298</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.495775706116111</v>
+        <v>25.86456144311682</v>
       </c>
       <c r="AD91" t="n">
-        <v>2.791284333333886</v>
+        <v>20.35617062907229</v>
       </c>
       <c r="AE91" t="n">
-        <v>6.0520778287223</v>
+        <v>24.17416571360173</v>
       </c>
       <c r="AF91" t="n">
-        <v>8.320011202760639</v>
+        <v>28.70862861940195</v>
       </c>
       <c r="AG91" t="n">
-        <v>3.240011202760641</v>
+        <v>23.62862861940195</v>
       </c>
       <c r="AH91" t="n">
-        <v>6.809011202760601</v>
+        <v>27.19762861940191</v>
       </c>
       <c r="AI91" t="n">
-        <v>8.356870911948292</v>
+        <v>28.72651262287128</v>
       </c>
       <c r="AJ91" t="n">
-        <v>3.276870911948293</v>
+        <v>23.64651262287128</v>
       </c>
       <c r="AK91" t="n">
-        <v>6.845870911948253</v>
+        <v>27.21551262287124</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.528983848020012</v>
+        <v>25.88067373857732</v>
       </c>
       <c r="AM91" t="n">
-        <v>2.82303913982933</v>
+        <v>20.37157777910273</v>
       </c>
       <c r="AN91" t="n">
-        <v>6.084839976133264</v>
+        <v>24.19006161649607</v>
       </c>
       <c r="AO91" t="n">
         <v>16.76980851032179</v>
@@ -14595,17 +14475,17 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37c01</t>
+          <t>67bf3ddbdad24bc04d4b4b81</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>138.7062988126014</v>
+        <v>126.1290974591513</v>
       </c>
       <c r="V92" t="n">
         <v>650</v>
       </c>
       <c r="W92" t="n">
-        <v>138.7299876399546</v>
+        <v>126.1462579211891</v>
       </c>
       <c r="X92" t="n">
         <v>740.6883182</v>
@@ -14622,43 +14502,43 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>736.0050646057692</v>
+        <v>669.2445252141105</v>
       </c>
       <c r="AC92" t="n">
-        <v>3.385631624430859</v>
+        <v>5.988866268781975</v>
       </c>
       <c r="AD92" t="n">
-        <v>1.082340531862296</v>
+        <v>10.05170480149522</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.279479834544004</v>
+        <v>7.904042628071227</v>
       </c>
       <c r="AF92" t="n">
-        <v>4.542298812601416</v>
+        <v>8.034902540848648</v>
       </c>
       <c r="AG92" t="n">
-        <v>1.517701187398586</v>
+        <v>14.09490254084865</v>
       </c>
       <c r="AH92" t="n">
-        <v>1.752298812601396</v>
+        <v>10.82490254084867</v>
       </c>
       <c r="AI92" t="n">
-        <v>4.565987639954614</v>
+        <v>8.017742078810898</v>
       </c>
       <c r="AJ92" t="n">
-        <v>1.494012360045389</v>
+        <v>14.0777420788109</v>
       </c>
       <c r="AK92" t="n">
-        <v>1.775987639954593</v>
+        <v>10.80774207881092</v>
       </c>
       <c r="AL92" t="n">
-        <v>3.403288244204566</v>
+        <v>5.976075608069898</v>
       </c>
       <c r="AM92" t="n">
-        <v>1.065446970593756</v>
+        <v>10.03946690923872</v>
       </c>
       <c r="AN92" t="n">
-        <v>1.296776757126183</v>
+        <v>7.891512536188003</v>
       </c>
       <c r="AO92" t="n">
         <v>19.27891639682088</v>
@@ -14749,17 +14629,17 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37bfb</t>
+          <t>67bf3ddbdad24bc04d4b4b83</t>
         </is>
       </c>
       <c r="U93" t="n">
-        <v>121.4411563137372</v>
+        <v>117.7488522272998</v>
       </c>
       <c r="V93" t="n">
         <v>650</v>
       </c>
       <c r="W93" t="n">
-        <v>123.2722852251874</v>
+        <v>119.7745683785498</v>
       </c>
       <c r="X93" t="n">
         <v>583.0904561999999</v>
@@ -14776,43 +14656,43 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>653.9972200295555</v>
+        <v>635.4407611306808</v>
       </c>
       <c r="AC93" t="n">
-        <v>17.89487837229847</v>
+        <v>14.31039552976453</v>
       </c>
       <c r="AD93" t="n">
-        <v>12.63950536455119</v>
+        <v>9.214807193221514</v>
       </c>
       <c r="AE93" t="n">
-        <v>13.68978665930573</v>
+        <v>10.23315567348183</v>
       </c>
       <c r="AF93" t="n">
-        <v>18.43315631373721</v>
+        <v>14.74085222729984</v>
       </c>
       <c r="AG93" t="n">
-        <v>13.62715631373722</v>
+        <v>9.934852227299842</v>
       </c>
       <c r="AH93" t="n">
-        <v>14.6231563137372</v>
+        <v>10.93085222729982</v>
       </c>
       <c r="AI93" t="n">
-        <v>20.26428522518744</v>
+        <v>16.76656837854983</v>
       </c>
       <c r="AJ93" t="n">
-        <v>15.45828522518744</v>
+        <v>11.96056837854984</v>
       </c>
       <c r="AK93" t="n">
-        <v>16.45428522518742</v>
+        <v>12.95656837854982</v>
       </c>
       <c r="AL93" t="n">
-        <v>19.67253536151312</v>
+        <v>16.2769574970389</v>
       </c>
       <c r="AM93" t="n">
-        <v>14.337920145053</v>
+        <v>11.09370617781535</v>
       </c>
       <c r="AN93" t="n">
-        <v>15.40403791981447</v>
+        <v>12.1295740217471</v>
       </c>
       <c r="AO93" t="n">
         <v>20.61636785291689</v>
@@ -14903,17 +14783,17 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>679b409af166b42905a37bfd</t>
+          <t>67bf3ddbdad24bc04d4b4b87</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>96.7839513023015</v>
+        <v>139.7046286194019</v>
       </c>
       <c r="V94" t="n">
         <v>650</v>
       </c>
       <c r="W94" t="n">
-        <v>97.35588736757464</v>
+        <v>139.7225126228713</v>
       </c>
       <c r="X94" t="n">
         <v>524.0588617000001</v>
@@ -14930,43 +14810,43 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>516.5027935970717</v>
+        <v>741.2707135588298</v>
       </c>
       <c r="AC94" t="n">
-        <v>14.75586775074581</v>
+        <v>65.64653199516469</v>
       </c>
       <c r="AD94" t="n">
-        <v>5.062581487761529</v>
+        <v>37.03921587071652</v>
       </c>
       <c r="AE94" t="n">
-        <v>0.1187305314796829</v>
+        <v>44.17551122240884</v>
       </c>
       <c r="AF94" t="n">
-        <v>12.4449513023015</v>
+        <v>55.36562861940195</v>
       </c>
       <c r="AG94" t="n">
-        <v>5.16104869769849</v>
+        <v>37.75962861940195</v>
       </c>
       <c r="AH94" t="n">
-        <v>0.1150486976984979</v>
+        <v>42.80562861940194</v>
       </c>
       <c r="AI94" t="n">
-        <v>13.01688736757464</v>
+        <v>55.38351262287128</v>
       </c>
       <c r="AJ94" t="n">
-        <v>4.589112632425355</v>
+        <v>37.77751262287128</v>
       </c>
       <c r="AK94" t="n">
-        <v>0.4568873675746374</v>
+        <v>42.82351262287128</v>
       </c>
       <c r="AL94" t="n">
-        <v>15.43400724169677</v>
+        <v>65.66773689855378</v>
       </c>
       <c r="AM94" t="n">
-        <v>4.5015573421211</v>
+        <v>37.05675866680199</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.4715088572375746</v>
+        <v>44.19396755680789</v>
       </c>
       <c r="AO94" t="n">
         <v>10.48539945617843</v>
@@ -15057,17 +14937,17 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a38013</t>
+          <t>67bf3ddddad24bc04d4b4f1f</t>
         </is>
       </c>
       <c r="U95" t="n">
-        <v>157.8302909019093</v>
+        <v>164.6678633392506</v>
       </c>
       <c r="V95" t="n">
         <v>650</v>
       </c>
       <c r="W95" t="n">
-        <v>158.1241660150337</v>
+        <v>164.8809582687728</v>
       </c>
       <c r="X95" t="n">
         <v>744.0472626000001</v>
@@ -15084,43 +14964,43 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>838.8971195302727</v>
+        <v>874.7439714174619</v>
       </c>
       <c r="AC95" t="n">
-        <v>25.69408435489365</v>
+        <v>31.13944216175479</v>
       </c>
       <c r="AD95" t="n">
-        <v>20.92977833941899</v>
+        <v>26.16873541478356</v>
       </c>
       <c r="AE95" t="n">
-        <v>23.56072407868579</v>
+        <v>28.91365979508405</v>
       </c>
       <c r="AF95" t="n">
-        <v>32.26329090190931</v>
+        <v>39.10086333925064</v>
       </c>
       <c r="AG95" t="n">
-        <v>27.3162909019093</v>
+        <v>34.15386333925062</v>
       </c>
       <c r="AH95" t="n">
-        <v>30.09529090190929</v>
+        <v>36.93286333925062</v>
       </c>
       <c r="AI95" t="n">
-        <v>32.55716601503367</v>
+        <v>39.31395826877282</v>
       </c>
       <c r="AJ95" t="n">
-        <v>27.61016601503366</v>
+        <v>34.36695826877281</v>
       </c>
       <c r="AK95" t="n">
-        <v>30.38916601503365</v>
+        <v>37.1459582687728</v>
       </c>
       <c r="AL95" t="n">
-        <v>25.92812284679388</v>
+        <v>31.30914831824669</v>
       </c>
       <c r="AM95" t="n">
-        <v>21.15494584108498</v>
+        <v>26.33200903257337</v>
       </c>
       <c r="AN95" t="n">
-        <v>23.79079031982906</v>
+        <v>29.08048559030242</v>
       </c>
       <c r="AO95" t="n">
         <v>18.16845913448508</v>
@@ -15211,17 +15091,17 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a38015</t>
+          <t>67bf3ddddad24bc04d4b4f21</t>
         </is>
       </c>
       <c r="U96" t="n">
-        <v>167.3187590297687</v>
+        <v>137.163164654808</v>
       </c>
       <c r="V96" t="n">
         <v>650</v>
       </c>
       <c r="W96" t="n">
-        <v>167.5661539896444</v>
+        <v>137.241995584144</v>
       </c>
       <c r="X96" t="n">
         <v>906.2036621999999</v>
@@ -15238,43 +15118,43 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>888.9897569440086</v>
+        <v>728.1108111152261</v>
       </c>
       <c r="AC96" t="n">
-        <v>23.11631018429964</v>
+        <v>0.9272530075185726</v>
       </c>
       <c r="AD96" t="n">
-        <v>5.259728374645334</v>
+        <v>13.71106540418981</v>
       </c>
       <c r="AE96" t="n">
-        <v>6.047623563490694</v>
+        <v>13.06517131469863</v>
       </c>
       <c r="AF96" t="n">
-        <v>31.41575902976874</v>
+        <v>1.260164654807966</v>
       </c>
       <c r="AG96" t="n">
-        <v>8.36075902976873</v>
+        <v>21.79483534519204</v>
       </c>
       <c r="AH96" t="n">
-        <v>9.541759029768713</v>
+        <v>20.61383534519206</v>
       </c>
       <c r="AI96" t="n">
-        <v>31.66315398964446</v>
+        <v>1.338995584144044</v>
       </c>
       <c r="AJ96" t="n">
-        <v>8.60815398964445</v>
+        <v>21.71600441585596</v>
       </c>
       <c r="AK96" t="n">
-        <v>9.789153989644433</v>
+        <v>20.53500441585598</v>
       </c>
       <c r="AL96" t="n">
-        <v>23.29834807888307</v>
+        <v>0.9852582975681509</v>
       </c>
       <c r="AM96" t="n">
-        <v>5.415363800277086</v>
+        <v>13.6614731034965</v>
       </c>
       <c r="AN96" t="n">
-        <v>6.204423958906832</v>
+        <v>13.01520780332747</v>
       </c>
       <c r="AO96" t="n">
         <v>32.15970023043081</v>
@@ -15365,17 +15245,17 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a38019</t>
+          <t>67bf3ddddad24bc04d4b4f21</t>
         </is>
       </c>
       <c r="U97" t="n">
-        <v>126.2182296403473</v>
+        <v>137.163164654808</v>
       </c>
       <c r="V97" t="n">
         <v>650</v>
       </c>
       <c r="W97" t="n">
-        <v>126.281539285617</v>
+        <v>137.241995584144</v>
       </c>
       <c r="X97" t="n">
         <v>596.3654481</v>
@@ -15392,43 +15272,43 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>669.9622342765814</v>
+        <v>728.1108111152261</v>
       </c>
       <c r="AC97" t="n">
-        <v>37.49562042783857</v>
+        <v>49.41846734657396</v>
       </c>
       <c r="AD97" t="n">
-        <v>19.06930836604963</v>
+        <v>29.3943291336251</v>
       </c>
       <c r="AE97" t="n">
-        <v>20.65714196708435</v>
+        <v>31.11985073445685</v>
       </c>
       <c r="AF97" t="n">
-        <v>34.42022964034726</v>
+        <v>45.36516465480796</v>
       </c>
       <c r="AG97" t="n">
-        <v>20.21422964034726</v>
+        <v>31.15916465480795</v>
       </c>
       <c r="AH97" t="n">
-        <v>21.60922964034727</v>
+        <v>32.55416465480796</v>
       </c>
       <c r="AI97" t="n">
-        <v>34.48353928561696</v>
+        <v>45.44399558414403</v>
       </c>
       <c r="AJ97" t="n">
-        <v>20.27753928561695</v>
+        <v>31.23799558414403</v>
       </c>
       <c r="AK97" t="n">
-        <v>21.67253928561696</v>
+        <v>32.63299558414404</v>
       </c>
       <c r="AL97" t="n">
-        <v>37.56458668556718</v>
+        <v>49.50434168951833</v>
       </c>
       <c r="AM97" t="n">
-        <v>19.12903219276344</v>
+        <v>29.46869512862159</v>
       </c>
       <c r="AN97" t="n">
-        <v>20.71766223328487</v>
+        <v>31.19520842771085</v>
       </c>
       <c r="AO97" t="n">
         <v>23.95539071301718</v>
@@ -15519,17 +15399,17 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a38017</t>
+          <t>67bf3ddddad24bc04d4b4f23</t>
         </is>
       </c>
       <c r="U98" t="n">
-        <v>124.1400687469845</v>
+        <v>144.7022714115591</v>
       </c>
       <c r="V98" t="n">
         <v>650</v>
       </c>
       <c r="W98" t="n">
-        <v>124.1740864103734</v>
+        <v>144.7383563724144</v>
       </c>
       <c r="X98" t="n">
         <v>555.7009284</v>
@@ -15546,43 +15426,43 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>658.7815514553387</v>
+        <v>767.8813005396056</v>
       </c>
       <c r="AC98" t="n">
-        <v>27.35449623187708</v>
+        <v>48.44912738680202</v>
       </c>
       <c r="AD98" t="n">
-        <v>20.64615606727618</v>
+        <v>40.62963712054807</v>
       </c>
       <c r="AE98" t="n">
-        <v>26.08172734814595</v>
+        <v>46.96554073893881</v>
       </c>
       <c r="AF98" t="n">
-        <v>26.6640687469845</v>
+        <v>47.22627141155914</v>
       </c>
       <c r="AG98" t="n">
-        <v>21.2440687469845</v>
+        <v>41.80627141155914</v>
       </c>
       <c r="AH98" t="n">
-        <v>25.6800687469845</v>
+        <v>46.24227141155914</v>
       </c>
       <c r="AI98" t="n">
-        <v>26.69808641037338</v>
+        <v>47.26235637241444</v>
       </c>
       <c r="AJ98" t="n">
-        <v>21.27808641037338</v>
+        <v>41.84235637241444</v>
       </c>
       <c r="AK98" t="n">
-        <v>25.71408641037338</v>
+        <v>46.27835637241445</v>
       </c>
       <c r="AL98" t="n">
-        <v>27.38939473344554</v>
+        <v>48.48614671551402</v>
       </c>
       <c r="AM98" t="n">
-        <v>20.67921630614735</v>
+        <v>40.66470647295759</v>
       </c>
       <c r="AN98" t="n">
-        <v>26.1162770773648</v>
+        <v>47.00219009995374</v>
       </c>
       <c r="AO98" t="n">
         <v>19.45805030133766</v>
@@ -15673,17 +15553,17 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a38000</t>
+          <t>67bf3ddddad24bc04d4b4f0c</t>
         </is>
       </c>
       <c r="U99" t="n">
-        <v>128.2308977028475</v>
+        <v>122.59371604474</v>
       </c>
       <c r="V99" t="n">
         <v>650</v>
       </c>
       <c r="W99" t="n">
-        <v>128.3384491154371</v>
+        <v>122.6600762106306</v>
       </c>
       <c r="X99" t="n">
         <v>637.9095074999999</v>
@@ -15700,43 +15580,43 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>680.8747707651886</v>
+        <v>650.749263744282</v>
       </c>
       <c r="AC99" t="n">
-        <v>34.52674958334821</v>
+        <v>28.6127948434117</v>
       </c>
       <c r="AD99" t="n">
-        <v>21.3721571048523</v>
+        <v>16.03649378116632</v>
       </c>
       <c r="AE99" t="n">
-        <v>24.89008785278546</v>
+        <v>19.39977213999512</v>
       </c>
       <c r="AF99" t="n">
-        <v>32.91089770284751</v>
+        <v>27.27371604474003</v>
       </c>
       <c r="AG99" t="n">
-        <v>22.5798977028475</v>
+        <v>16.94271604474002</v>
       </c>
       <c r="AH99" t="n">
-        <v>25.55589770284747</v>
+        <v>19.91871604473999</v>
       </c>
       <c r="AI99" t="n">
-        <v>33.01844911543714</v>
+        <v>27.34007621063064</v>
       </c>
       <c r="AJ99" t="n">
-        <v>22.68744911543713</v>
+        <v>17.00907621063064</v>
       </c>
       <c r="AK99" t="n">
-        <v>25.6634491154371</v>
+        <v>19.98507621063061</v>
       </c>
       <c r="AL99" t="n">
-        <v>34.63958153109225</v>
+        <v>28.68241314585674</v>
       </c>
       <c r="AM99" t="n">
-        <v>21.47395586926497</v>
+        <v>16.09930451262235</v>
       </c>
       <c r="AN99" t="n">
-        <v>24.99483721980725</v>
+        <v>19.46440341916787</v>
       </c>
       <c r="AO99" t="n">
         <v>26.73971967150207</v>
@@ -15827,17 +15707,17 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>679b409ff166b42905a37ffe</t>
+          <t>67bf3ddddad24bc04d4b4f0c</t>
         </is>
       </c>
       <c r="U100" t="n">
-        <v>114.2446798520081</v>
+        <v>122.59371604474</v>
       </c>
       <c r="V100" t="n">
         <v>650</v>
       </c>
       <c r="W100" t="n">
-        <v>115.6081920794636</v>
+        <v>122.6600762106306</v>
       </c>
       <c r="X100" t="n">
         <v>609.6408125</v>
@@ -15854,43 +15734,43 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>613.3368590879638</v>
+        <v>650.749263744282</v>
       </c>
       <c r="AC100" t="n">
-        <v>33.86061426664174</v>
+        <v>43.64318895406933</v>
       </c>
       <c r="AD100" t="n">
-        <v>11.83683284094256</v>
+        <v>20.00990283666658</v>
       </c>
       <c r="AE100" t="n">
-        <v>16.4276992122375</v>
+        <v>24.93627112839745</v>
       </c>
       <c r="AF100" t="n">
-        <v>28.89867985200806</v>
+        <v>37.24771604474002</v>
       </c>
       <c r="AG100" t="n">
-        <v>12.09167985200806</v>
+        <v>20.44071604474001</v>
       </c>
       <c r="AH100" t="n">
-        <v>16.11967985200805</v>
+        <v>24.46871604474001</v>
       </c>
       <c r="AI100" t="n">
-        <v>30.2621920794636</v>
+        <v>37.31407621063063</v>
       </c>
       <c r="AJ100" t="n">
-        <v>13.4551920794636</v>
+        <v>20.50707621063063</v>
       </c>
       <c r="AK100" t="n">
-        <v>17.48319207946359</v>
+        <v>24.53507621063062</v>
       </c>
       <c r="AL100" t="n">
-        <v>35.45824301017458</v>
+        <v>43.7209432318218</v>
       </c>
       <c r="AM100" t="n">
-        <v>13.17160737272875</v>
+        <v>20.07486438051807</v>
       </c>
       <c r="AN100" t="n">
-        <v>17.81726581346608</v>
+        <v>25.00389932293566</v>
       </c>
       <c r="AO100" t="n">
         <v>27.20404339751113</v>
@@ -15981,17 +15861,17 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>679b409ef166b42905a37ee1</t>
+          <t>67bf3ddcdad24bc04d4b4e15</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>159.8331872129956</v>
+        <v>145.4677440901995</v>
       </c>
       <c r="V101" t="n">
         <v>650</v>
       </c>
       <c r="W101" t="n">
-        <v>160.7728364070822</v>
+        <v>146.4609339960292</v>
       </c>
       <c r="X101" t="n">
         <v>840.9588803</v>
@@ -16008,43 +15888,43 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>852.9491270030798</v>
+        <v>777.0201022992326</v>
       </c>
       <c r="AC101" t="n">
-        <v>7.648448724715358</v>
+        <v>2.026748863325999</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.222718627644952</v>
+        <v>8.785071238541082</v>
       </c>
       <c r="AE101" t="n">
-        <v>1.132721609306123</v>
+        <v>7.956857253912222</v>
       </c>
       <c r="AF101" t="n">
-        <v>11.35618721299562</v>
+        <v>3.009255909800544</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.3551872129956166</v>
+        <v>14.01025590980055</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.790187212995676</v>
+        <v>12.57525590980049</v>
       </c>
       <c r="AI101" t="n">
-        <v>12.29583640708219</v>
+        <v>2.016066003970792</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1.294836407082187</v>
+        <v>13.0170660039708</v>
       </c>
       <c r="AK101" t="n">
-        <v>2.729836407082246</v>
+        <v>11.58206600397074</v>
       </c>
       <c r="AL101" t="n">
-        <v>8.281307143249252</v>
+        <v>1.357830508409243</v>
       </c>
       <c r="AM101" t="n">
-        <v>0.8119216488055948</v>
+        <v>8.162295742341136</v>
       </c>
       <c r="AN101" t="n">
-        <v>1.72727448041498</v>
+        <v>7.328427076156959</v>
       </c>
       <c r="AO101" t="n">
         <v>14.39751781429521</v>
@@ -16130,94 +16010,34 @@
       <c r="R102" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S102" t="n">
-        <v>107.2724699314261</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>679b40a0f166b42905a38096</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
-        <v>100.0635220172425</v>
-      </c>
-      <c r="V102" t="n">
-        <v>760</v>
-      </c>
-      <c r="W102" t="n">
-        <v>101.4643862510011</v>
-      </c>
-      <c r="X102" t="n">
-        <v>479.412878</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>528.2997102</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>488.461558</v>
-      </c>
-      <c r="AA102" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AB102" t="n">
-        <v>460.3878484837975</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>14.28516836909236</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>4.177491142458177</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>4.496253072581382</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>12.50752201724251</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>4.012522017242503</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>4.305522017242481</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>13.9083862510011</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>5.4133862510011</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>5.706386251001078</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>15.88513208803635</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>5.635949913068162</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>5.959174430335926</v>
-      </c>
-      <c r="AO102" t="n">
-        <v>19.71646993142613</v>
-      </c>
-      <c r="AP102" t="n">
-        <v>11.22146993142613</v>
-      </c>
-      <c r="AQ102" t="n">
-        <v>11.51446993142611</v>
-      </c>
-      <c r="AR102" t="n">
-        <v>22.51869652728098</v>
-      </c>
-      <c r="AS102" t="n">
-        <v>11.68282467795872</v>
-      </c>
-      <c r="AT102" t="n">
-        <v>12.02455140189447</v>
-      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
+      <c r="AO102" t="inlineStr"/>
+      <c r="AP102" t="inlineStr"/>
+      <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="inlineStr"/>
+      <c r="AS102" t="inlineStr"/>
+      <c r="AT102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16284,94 +16104,34 @@
       <c r="R103" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S103" t="n">
-        <v>47.62593637241354</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>679b40a0f166b42905a3809e</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
-        <v>60.01351971189207</v>
-      </c>
-      <c r="V103" t="n">
-        <v>760</v>
-      </c>
-      <c r="W103" t="n">
-        <v>61.1916141371041</v>
-      </c>
-      <c r="X103" t="n">
-        <v>258.2410065</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>243.9998724</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>261.227311</v>
-      </c>
-      <c r="AA103" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AB103" t="n">
-        <v>277.65284568066</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>35.28136628621807</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>17.18872842141741</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>27.24703626124732</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>15.65151971189206</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>8.802519711892067</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>12.85051971189207</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>16.8296141371041</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>9.980614137104105</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>14.02861413710411</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>37.93700495267143</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>19.48919985375038</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>29.74495714247209</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>3.263936372413539</v>
-      </c>
-      <c r="AP103" t="n">
-        <v>3.585063627586457</v>
-      </c>
-      <c r="AQ103" t="n">
-        <v>0.4629363724135445</v>
-      </c>
-      <c r="AR103" t="n">
-        <v>7.3575050097235</v>
-      </c>
-      <c r="AS103" t="n">
-        <v>7.000573368195226</v>
-      </c>
-      <c r="AT103" t="n">
-        <v>0.9815668477695322</v>
-      </c>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr"/>
+      <c r="AP103" t="inlineStr"/>
+      <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="inlineStr"/>
+      <c r="AS103" t="inlineStr"/>
+      <c r="AT103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16438,94 +16198,34 @@
       <c r="R104" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S104" t="n">
-        <v>68.46127447730363</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>679b40a0f166b42905a3809e</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
-        <v>60.01351971189207</v>
-      </c>
-      <c r="V104" t="n">
-        <v>760</v>
-      </c>
-      <c r="W104" t="n">
-        <v>61.1916141371041</v>
-      </c>
-      <c r="X104" t="n">
-        <v>324.3959975</v>
-      </c>
-      <c r="Y104" t="n">
-        <v>325.2048252</v>
-      </c>
-      <c r="Z104" t="n">
-        <v>320.898809</v>
-      </c>
-      <c r="AA104" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AB104" t="n">
-        <v>277.65284568066</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>1.501065033812651</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>4.602648727698633</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>1.297189149957074</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>0.8875197118920681</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>2.895480288107933</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>0.7685197118920684</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>2.065614137104106</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>1.717385862895895</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>1.946614137104106</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>3.493580044488222</v>
-      </c>
-      <c r="AM104" t="n">
-        <v>2.729952571008751</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>3.285701978401733</v>
-      </c>
-      <c r="AO104" t="n">
-        <v>9.335274477303635</v>
-      </c>
-      <c r="AP104" t="n">
-        <v>5.552274477303634</v>
-      </c>
-      <c r="AQ104" t="n">
-        <v>9.216274477303635</v>
-      </c>
-      <c r="AR104" t="n">
-        <v>15.78878070105137</v>
-      </c>
-      <c r="AS104" t="n">
-        <v>8.825882588029748</v>
-      </c>
-      <c r="AT104" t="n">
-        <v>15.55620639261311</v>
-      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
+      <c r="AO104" t="inlineStr"/>
+      <c r="AP104" t="inlineStr"/>
+      <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="inlineStr"/>
+      <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16592,94 +16292,34 @@
       <c r="R105" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S105" t="n">
-        <v>84.16669498053967</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>679b40a0f166b42905a38098</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
-        <v>80.38677972424816</v>
-      </c>
-      <c r="V105" t="n">
-        <v>760</v>
-      </c>
-      <c r="W105" t="n">
-        <v>81.04690187128065</v>
-      </c>
-      <c r="X105" t="n">
-        <v>339.459098</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>385.0360008000001</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>365.757003</v>
-      </c>
-      <c r="AA105" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AB105" t="n">
-        <v>367.7448822929061</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>29.66446177857951</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>12.1107620660895</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>14.83169493778665</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>18.39077972424815</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>8.683779724248154</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>10.38277972424817</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>19.05090187128065</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>9.34390187128065</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>11.04290187128066</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>30.72924361455683</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>13.03139599637484</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>15.77467269196141</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>22.17069498053967</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>12.46369498053967</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>14.16269498053968</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>35.76149264555725</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>17.38238983102474</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>20.2312653284665</v>
-      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="inlineStr"/>
+      <c r="AS105" t="inlineStr"/>
+      <c r="AT105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16746,94 +16386,34 @@
       <c r="R106" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S106" t="n">
-        <v>82.6960512849065</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>679b40a0f166b42905a3809a</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>81.75066579858841</v>
-      </c>
-      <c r="V106" t="n">
-        <v>760</v>
-      </c>
-      <c r="W106" t="n">
-        <v>82.76169747640304</v>
-      </c>
-      <c r="X106" t="n">
-        <v>347.332867</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>361.08813</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>383.605402</v>
-      </c>
-      <c r="AA106" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AB106" t="n">
-        <v>375.5256523581662</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>28.8751549619895</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>8.708100580554262</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>24.52500502450633</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>18.31666579858842</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>6.548665798588416</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>16.10066579858841</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>19.32769747640305</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>7.559697476403045</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>17.11169747640304</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>30.4689874143252</v>
-      </c>
-      <c r="AM106" t="n">
-        <v>10.05252184304014</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>26.06503804478756</v>
-      </c>
-      <c r="AO106" t="n">
-        <v>19.26205128490651</v>
-      </c>
-      <c r="AP106" t="n">
-        <v>7.494051284906504</v>
-      </c>
-      <c r="AQ106" t="n">
-        <v>17.0460512849065</v>
-      </c>
-      <c r="AR106" t="n">
-        <v>30.36550002349924</v>
-      </c>
-      <c r="AS106" t="n">
-        <v>9.965228697250744</v>
-      </c>
-      <c r="AT106" t="n">
-        <v>25.96504384601142</v>
-      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr"/>
+      <c r="AP106" t="inlineStr"/>
+      <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="inlineStr"/>
+      <c r="AS106" t="inlineStr"/>
+      <c r="AT106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16900,94 +16480,34 @@
       <c r="R107" t="n">
         <v>1.230960202536279</v>
       </c>
-      <c r="S107" t="n">
-        <v>150.5025930095059</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>679b40a0f166b42905a38085</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
-        <v>151.5675926306396</v>
-      </c>
-      <c r="V107" t="n">
-        <v>760</v>
-      </c>
-      <c r="W107" t="n">
-        <v>152.6453341228672</v>
-      </c>
-      <c r="X107" t="n">
-        <v>708.410968</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>767.2077372</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>722.7732423</v>
-      </c>
-      <c r="AA107" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="AB107" t="n">
-        <v>692.6179672941532</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>19.98986092975574</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>11.76974096517108</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>12.32720636062042</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>25.25059263063956</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>15.96059263063955</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>16.63359263063955</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>26.32833412286716</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>17.03833412286716</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>17.71133412286716</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>20.84306476789914</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>12.564494548856</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>13.12592387601876</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>24.18559300950589</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>14.89559300950589</v>
-      </c>
-      <c r="AQ107" t="n">
-        <v>15.56859300950589</v>
-      </c>
-      <c r="AR107" t="n">
-        <v>19.1467443095592</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>10.98438355653166</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>11.53793188485177</v>
-      </c>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
+      <c r="AO107" t="inlineStr"/>
+      <c r="AP107" t="inlineStr"/>
+      <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="inlineStr"/>
+      <c r="AS107" t="inlineStr"/>
+      <c r="AT107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -17059,17 +16579,17 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>679b40a1f166b42905a38123</t>
+          <t>67bf3ddedad24bc04d4b5003</t>
         </is>
       </c>
       <c r="U108" t="n">
-        <v>71.20218710451475</v>
+        <v>125.3124638503198</v>
       </c>
       <c r="V108" t="n">
         <v>760</v>
       </c>
       <c r="W108" t="n">
-        <v>71.967132781209</v>
+        <v>126.4636725335861</v>
       </c>
       <c r="X108" t="n">
         <v>305.6750133</v>
@@ -17086,43 +16606,43 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>326.546038929612</v>
+        <v>573.8204335565355</v>
       </c>
       <c r="AC108" t="n">
-        <v>34.09327313982326</v>
+        <v>135.9977849871368</v>
       </c>
       <c r="AD108" t="n">
-        <v>13.6761400863956</v>
+        <v>100.0646015874573</v>
       </c>
       <c r="AE108" t="n">
-        <v>32.64687042087031</v>
+        <v>133.4521849739554</v>
       </c>
       <c r="AF108" t="n">
-        <v>18.10318710451475</v>
+        <v>72.21346385031976</v>
       </c>
       <c r="AG108" t="n">
-        <v>8.566187104514746</v>
+        <v>62.67646385031976</v>
       </c>
       <c r="AH108" t="n">
-        <v>17.52418710451476</v>
+        <v>71.63446385031978</v>
       </c>
       <c r="AI108" t="n">
-        <v>18.86813278120901</v>
+        <v>73.36467253358612</v>
       </c>
       <c r="AJ108" t="n">
-        <v>9.331132781209</v>
+        <v>63.82767253358612</v>
       </c>
       <c r="AK108" t="n">
-        <v>18.28913278120901</v>
+        <v>72.78567253358614</v>
       </c>
       <c r="AL108" t="n">
-        <v>35.53387593214374</v>
+        <v>138.1658271033091</v>
       </c>
       <c r="AM108" t="n">
-        <v>14.89739571685453</v>
+        <v>101.9025361351078</v>
       </c>
       <c r="AN108" t="n">
-        <v>34.07193409070572</v>
+        <v>135.5968414128435</v>
       </c>
       <c r="AO108" t="n">
         <v>18.48407130520841</v>
@@ -17213,17 +16733,17 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>679b40a1f166b42905a38121</t>
+          <t>67bf3ddedad24bc04d4b5003</t>
         </is>
       </c>
       <c r="U109" t="n">
-        <v>121.5415465603743</v>
+        <v>125.3124638503198</v>
       </c>
       <c r="V109" t="n">
         <v>760</v>
       </c>
       <c r="W109" t="n">
-        <v>122.680540878228</v>
+        <v>126.4636725335861</v>
       </c>
       <c r="X109" t="n">
         <v>545.9481579000001</v>
@@ -17240,43 +16760,43 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>556.6547273644863</v>
+        <v>573.8204335565355</v>
       </c>
       <c r="AC109" t="n">
-        <v>36.21305467995194</v>
+        <v>40.43916647090045</v>
       </c>
       <c r="AD109" t="n">
-        <v>18.00150151492652</v>
+        <v>21.66258626244637</v>
       </c>
       <c r="AE109" t="n">
-        <v>28.15836283346611</v>
+        <v>32.13457179193743</v>
       </c>
       <c r="AF109" t="n">
-        <v>32.31254656037432</v>
+        <v>36.08346385031976</v>
       </c>
       <c r="AG109" t="n">
-        <v>18.54154656037431</v>
+        <v>22.31246385031976</v>
       </c>
       <c r="AH109" t="n">
-        <v>26.70454656037427</v>
+        <v>30.47546385031971</v>
       </c>
       <c r="AI109" t="n">
-        <v>33.45154087822799</v>
+        <v>37.23467253358612</v>
       </c>
       <c r="AJ109" t="n">
-        <v>19.68054087822799</v>
+        <v>23.46367253358612</v>
       </c>
       <c r="AK109" t="n">
-        <v>27.84354087822794</v>
+        <v>31.62667253358607</v>
       </c>
       <c r="AL109" t="n">
-        <v>37.48953913887636</v>
+        <v>41.72933971420291</v>
       </c>
       <c r="AM109" t="n">
-        <v>19.10732124099805</v>
+        <v>22.78026459571468</v>
       </c>
       <c r="AN109" t="n">
-        <v>29.35936488736245</v>
+        <v>33.34845317079417</v>
       </c>
       <c r="AO109" t="n">
         <v>30.29482225397068</v>
@@ -17367,17 +16887,17 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>679b40a1f166b42905a38165</t>
+          <t>67bf3ddedad24bc04d4b503d</t>
         </is>
       </c>
       <c r="U110" t="n">
-        <v>101.2527632346806</v>
+        <v>107.3758538113396</v>
       </c>
       <c r="V110" t="n">
         <v>415</v>
       </c>
       <c r="W110" t="n">
-        <v>101.7677320771105</v>
+        <v>107.9512856601846</v>
       </c>
       <c r="X110" t="n">
         <v>818.0424386</v>
@@ -17394,43 +16914,43 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>845.6405722144219</v>
+        <v>897.0229080843731</v>
       </c>
       <c r="AC110" t="n">
-        <v>4.686237318032786</v>
+        <v>1.077702188005036</v>
       </c>
       <c r="AD110" t="n">
-        <v>18.94591479772608</v>
+        <v>14.04430530632435</v>
       </c>
       <c r="AE110" t="n">
-        <v>8.079885945293769</v>
+        <v>2.521171632783864</v>
       </c>
       <c r="AF110" t="n">
-        <v>4.978236765319409</v>
+        <v>1.14485381133963</v>
       </c>
       <c r="AG110" t="n">
-        <v>23.66723676531942</v>
+        <v>17.54414618866038</v>
       </c>
       <c r="AH110" t="n">
-        <v>8.900236765319448</v>
+        <v>2.77714618866041</v>
       </c>
       <c r="AI110" t="n">
-        <v>4.4632679228895</v>
+        <v>1.720285660184558</v>
       </c>
       <c r="AJ110" t="n">
-        <v>23.15226792288951</v>
+        <v>16.96871433981545</v>
       </c>
       <c r="AK110" t="n">
-        <v>8.38526792288954</v>
+        <v>2.201714339815481</v>
       </c>
       <c r="AL110" t="n">
-        <v>4.201474073377357</v>
+        <v>1.619381969655334</v>
       </c>
       <c r="AM110" t="n">
-        <v>18.53367589088177</v>
+        <v>13.58366501746354</v>
       </c>
       <c r="AN110" t="n">
-        <v>7.612382706680288</v>
+        <v>1.99877837173339</v>
       </c>
       <c r="AO110" t="n">
         <v>2.737370991133005</v>
@@ -17521,17 +17041,17 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>679b40a1f166b42905a38169</t>
+          <t>67bf3ddedad24bc04d4b5041</t>
         </is>
       </c>
       <c r="U111" t="n">
-        <v>110.8633376124099</v>
+        <v>95.87619983694866</v>
       </c>
       <c r="V111" t="n">
         <v>415</v>
       </c>
       <c r="W111" t="n">
-        <v>113.0934969352848</v>
+        <v>97.8049674721307</v>
       </c>
       <c r="X111" t="n">
         <v>892.2377196</v>
@@ -17548,43 +17068,43 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>939.7521936483706</v>
+        <v>812.7119173283423</v>
       </c>
       <c r="AC111" t="n">
-        <v>4.317627593591001</v>
+        <v>17.25251597798434</v>
       </c>
       <c r="AD111" t="n">
-        <v>20.34993130700214</v>
+        <v>31.11748150921871</v>
       </c>
       <c r="AE111" t="n">
-        <v>12.20484053659884</v>
+        <v>24.07349052706503</v>
       </c>
       <c r="AF111" t="n">
-        <v>5.002662387590149</v>
+        <v>19.98980016305134</v>
       </c>
       <c r="AG111" t="n">
-        <v>28.32466238759014</v>
+        <v>43.31180016305133</v>
       </c>
       <c r="AH111" t="n">
-        <v>15.41166238759018</v>
+        <v>30.39880016305138</v>
       </c>
       <c r="AI111" t="n">
-        <v>2.772503064715153</v>
+        <v>18.0610325278693</v>
       </c>
       <c r="AJ111" t="n">
-        <v>26.09450306471514</v>
+        <v>41.38303252786929</v>
       </c>
       <c r="AK111" t="n">
-        <v>13.18150306471519</v>
+        <v>28.47003252786934</v>
       </c>
       <c r="AL111" t="n">
-        <v>2.392853006675947</v>
+        <v>15.58786229598787</v>
       </c>
       <c r="AM111" t="n">
-        <v>18.74766723044741</v>
+        <v>29.73175311655408</v>
       </c>
       <c r="AN111" t="n">
-        <v>10.43872743196609</v>
+        <v>22.54605624856015</v>
       </c>
       <c r="AO111" t="n">
         <v>0.748882555753994</v>
@@ -17769,17 +17289,17 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>679b40a3f166b42905a38208</t>
+          <t>67bf3ddfdad24bc04d4b50da</t>
         </is>
       </c>
       <c r="U113" t="n">
-        <v>95.31435956045057</v>
+        <v>101.3196655122725</v>
       </c>
       <c r="V113" t="n">
         <v>415</v>
       </c>
       <c r="W113" t="n">
-        <v>96.22792339133574</v>
+        <v>102.341920100236</v>
       </c>
       <c r="X113" t="n">
         <v>823.77688</v>
@@ -17796,43 +17316,43 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>799.6074447055239</v>
+        <v>850.4117966342274</v>
       </c>
       <c r="AC113" t="n">
-        <v>9.150874936424188</v>
+        <v>3.426902242508274</v>
       </c>
       <c r="AD113" t="n">
-        <v>14.64487627570068</v>
+        <v>9.2670545614926</v>
       </c>
       <c r="AE113" t="n">
-        <v>12.67580434223492</v>
+        <v>7.173920740016058</v>
       </c>
       <c r="AF113" t="n">
-        <v>9.600640439549437</v>
+        <v>3.595334487727555</v>
       </c>
       <c r="AG113" t="n">
-        <v>16.35364043954944</v>
+        <v>10.34833448772756</v>
       </c>
       <c r="AH113" t="n">
-        <v>13.83564043954941</v>
+        <v>7.830334487727526</v>
       </c>
       <c r="AI113" t="n">
-        <v>8.68707660866427</v>
+        <v>2.573079899763997</v>
       </c>
       <c r="AJ113" t="n">
-        <v>15.44007660866427</v>
+        <v>9.326079899763997</v>
       </c>
       <c r="AK113" t="n">
-        <v>12.92207660866424</v>
+        <v>6.808079899763968</v>
       </c>
       <c r="AL113" t="n">
-        <v>8.280109239540838</v>
+        <v>2.452537673129673</v>
       </c>
       <c r="AM113" t="n">
-        <v>13.82676918066435</v>
+        <v>8.351613622312566</v>
       </c>
       <c r="AN113" t="n">
-        <v>11.83882419483669</v>
+        <v>6.23736133739255</v>
       </c>
       <c r="AO113" t="n">
         <v>11.50440144606947</v>
@@ -18017,17 +17537,17 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>679b40a1f166b42905a3817e</t>
+          <t>67bf3ddedad24bc04d4b5056</t>
         </is>
       </c>
       <c r="U115" t="n">
-        <v>90.18545346082541</v>
+        <v>90.28332565485344</v>
       </c>
       <c r="V115" t="n">
         <v>415</v>
       </c>
       <c r="W115" t="n">
-        <v>90.230522291406</v>
+        <v>90.30335785120523</v>
       </c>
       <c r="X115" t="n">
         <v>805.2792720000001</v>
@@ -18044,43 +17564,43 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>749.7719458255731</v>
+        <v>750.3771740566543</v>
       </c>
       <c r="AC115" t="n">
-        <v>5.623276236853235</v>
+        <v>5.520855539662989</v>
       </c>
       <c r="AD115" t="n">
-        <v>21.20650940884393</v>
+        <v>21.12100014428573</v>
       </c>
       <c r="AE115" t="n">
-        <v>11.6175485487795</v>
+        <v>11.52163303130789</v>
       </c>
       <c r="AF115" t="n">
-        <v>5.373546539174583</v>
+        <v>5.275674345146555</v>
       </c>
       <c r="AG115" t="n">
-        <v>24.27254653917458</v>
+        <v>24.17467434514656</v>
       </c>
       <c r="AH115" t="n">
-        <v>11.85454653917461</v>
+        <v>11.75667434514658</v>
       </c>
       <c r="AI115" t="n">
-        <v>5.328477708593994</v>
+        <v>5.255642148794763</v>
       </c>
       <c r="AJ115" t="n">
-        <v>24.22747770859399</v>
+        <v>24.15464214879476</v>
       </c>
       <c r="AK115" t="n">
-        <v>11.80947770859402</v>
+        <v>11.73664214879479</v>
       </c>
       <c r="AL115" t="n">
-        <v>5.57611288166891</v>
+        <v>5.499892368897501</v>
       </c>
       <c r="AM115" t="n">
-        <v>21.16713354120638</v>
+        <v>21.10349835642311</v>
       </c>
       <c r="AN115" t="n">
-        <v>11.57338074146807</v>
+        <v>11.50200132182946</v>
       </c>
       <c r="AO115" t="n">
         <v>1.218593900486624</v>
@@ -18171,17 +17691,17 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>679b40a2f166b42905a381c2</t>
+          <t>67bf3ddedad24bc04d4b5098</t>
         </is>
       </c>
       <c r="U116" t="n">
-        <v>102.39217328031</v>
+        <v>95.44751499686133</v>
       </c>
       <c r="V116" t="n">
         <v>415</v>
       </c>
       <c r="W116" t="n">
-        <v>104.4097996563739</v>
+        <v>97.34579788774587</v>
       </c>
       <c r="X116" t="n">
         <v>954.5981775000002</v>
@@ -18198,43 +17718,43 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>867.5948743685127</v>
+        <v>808.8964404364291</v>
       </c>
       <c r="AC116" t="n">
-        <v>3.586525924216252</v>
+        <v>3.439138267361341</v>
       </c>
       <c r="AD116" t="n">
-        <v>20.0629448748858</v>
+        <v>25.48460469754993</v>
       </c>
       <c r="AE116" t="n">
-        <v>10.80044143191043</v>
+        <v>16.85032233046318</v>
       </c>
       <c r="AF116" t="n">
-        <v>3.545173280310038</v>
+        <v>3.399485003138665</v>
       </c>
       <c r="AG116" t="n">
-        <v>25.69882671968998</v>
+        <v>32.64348500313868</v>
       </c>
       <c r="AH116" t="n">
-        <v>12.39782671968999</v>
+        <v>19.34248500313869</v>
       </c>
       <c r="AI116" t="n">
-        <v>5.562799656373869</v>
+        <v>1.50120211225412</v>
       </c>
       <c r="AJ116" t="n">
-        <v>23.68120034362614</v>
+        <v>30.74520211225413</v>
       </c>
       <c r="AK116" t="n">
-        <v>10.38020034362616</v>
+        <v>17.44420211225415</v>
       </c>
       <c r="AL116" t="n">
-        <v>5.627686886171426</v>
+        <v>1.518712871664411</v>
       </c>
       <c r="AM116" t="n">
-        <v>18.48779410233829</v>
+        <v>24.00262478414107</v>
       </c>
       <c r="AN116" t="n">
-        <v>9.042774060132551</v>
+        <v>15.19662175472963</v>
       </c>
       <c r="AO116" t="n">
         <v>13.88730340722813</v>
@@ -18701,17 +18221,17 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>679b40a2f166b42905a381df</t>
+          <t>67bf3ddfdad24bc04d4b50b3</t>
         </is>
       </c>
       <c r="U121" t="n">
-        <v>113.0753191011336</v>
+        <v>117.0027429700002</v>
       </c>
       <c r="V121" t="n">
         <v>400</v>
       </c>
       <c r="W121" t="n">
-        <v>114.7102511447404</v>
+        <v>118.6802771174054</v>
       </c>
       <c r="X121" t="n">
         <v>812.1056062</v>
@@ -18728,43 +18248,43 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>988.931137143501</v>
+        <v>1023.157217728774</v>
       </c>
       <c r="AC121" t="n">
-        <v>30.97577878810371</v>
+        <v>35.52493596886494</v>
       </c>
       <c r="AD121" t="n">
-        <v>14.58555673895297</v>
+        <v>18.56543540868666</v>
       </c>
       <c r="AE121" t="n">
-        <v>27.00382903095883</v>
+        <v>31.41502922511897</v>
       </c>
       <c r="AF121" t="n">
-        <v>26.74231910113357</v>
+        <v>30.66974297000017</v>
       </c>
       <c r="AG121" t="n">
-        <v>14.39331910113357</v>
+        <v>18.32074297000017</v>
       </c>
       <c r="AH121" t="n">
-        <v>24.04231910113357</v>
+        <v>27.96974297000017</v>
       </c>
       <c r="AI121" t="n">
-        <v>28.37725114474043</v>
+        <v>32.34727711740544</v>
       </c>
       <c r="AJ121" t="n">
-        <v>16.02825114474042</v>
+        <v>19.99827711740544</v>
       </c>
       <c r="AK121" t="n">
-        <v>25.67725114474042</v>
+        <v>29.64727711740544</v>
       </c>
       <c r="AL121" t="n">
-        <v>32.86952977973709</v>
+        <v>37.46803321720019</v>
       </c>
       <c r="AM121" t="n">
-        <v>16.24232498808336</v>
+        <v>20.26537475669873</v>
       </c>
       <c r="AN121" t="n">
-        <v>28.84015044392576</v>
+        <v>33.29920042838659</v>
       </c>
       <c r="AO121" t="n">
         <v>25.76358576095991</v>
@@ -18855,17 +18375,17 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>679b40a2f166b42905a381cd</t>
+          <t>67bf3ddedad24bc04d4b50a3</t>
         </is>
       </c>
       <c r="U122" t="n">
-        <v>94.03169716055712</v>
+        <v>92.61168731124744</v>
       </c>
       <c r="V122" t="n">
         <v>400</v>
       </c>
       <c r="W122" t="n">
-        <v>94.19612086327099</v>
+        <v>92.72414309868083</v>
       </c>
       <c r="X122" t="n">
         <v>834.0817200000001</v>
@@ -18882,43 +18402,43 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>812.0763052142652</v>
+        <v>799.386204459893</v>
       </c>
       <c r="AC122" t="n">
-        <v>13.86909111176104</v>
+        <v>15.16978803252871</v>
       </c>
       <c r="AD122" t="n">
-        <v>17.01816410696008</v>
+        <v>18.271305630937</v>
       </c>
       <c r="AE122" t="n">
-        <v>16.18979539327862</v>
+        <v>17.45544644082905</v>
       </c>
       <c r="AF122" t="n">
-        <v>15.14130283944289</v>
+        <v>16.56131268875257</v>
       </c>
       <c r="AG122" t="n">
-        <v>19.28430283944289</v>
+        <v>20.70431268875257</v>
       </c>
       <c r="AH122" t="n">
-        <v>18.16430283944288</v>
+        <v>19.58431268875256</v>
       </c>
       <c r="AI122" t="n">
-        <v>14.97687913672901</v>
+        <v>16.44885690131917</v>
       </c>
       <c r="AJ122" t="n">
-        <v>19.11987913672901</v>
+        <v>20.59185690131918</v>
       </c>
       <c r="AK122" t="n">
-        <v>17.99987913672901</v>
+        <v>19.47185690131917</v>
       </c>
       <c r="AL122" t="n">
-        <v>13.71848271709032</v>
+        <v>15.06678107345147</v>
       </c>
       <c r="AM122" t="n">
-        <v>16.87306217721152</v>
+        <v>18.17206475812699</v>
       </c>
       <c r="AN122" t="n">
-        <v>16.04324497908037</v>
+        <v>17.35521489297227</v>
       </c>
       <c r="AO122" t="n">
         <v>0.07708113370311764</v>
@@ -19761,17 +19281,17 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>679b40a1f166b42905a38150</t>
+          <t>67bf3ddedad24bc04d4b502c</t>
         </is>
       </c>
       <c r="U131" t="n">
-        <v>92.09708087998449</v>
+        <v>88.50616515359971</v>
       </c>
       <c r="V131" t="n">
         <v>455</v>
       </c>
       <c r="W131" t="n">
-        <v>93.91390984249819</v>
+        <v>90.20625370950451</v>
       </c>
       <c r="X131" t="n">
         <v>716.6120352999999</v>
@@ -19788,43 +19308,43 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>711.7743555241179</v>
+        <v>683.6739968126931</v>
       </c>
       <c r="AC131" t="n">
-        <v>7.350729467642658</v>
+        <v>10.96317537161511</v>
       </c>
       <c r="AD131" t="n">
-        <v>8.324625841146233</v>
+        <v>11.89909899104149</v>
       </c>
       <c r="AE131" t="n">
-        <v>8.175637476709694</v>
+        <v>11.75591976469914</v>
       </c>
       <c r="AF131" t="n">
-        <v>7.306919120015507</v>
+        <v>10.89783484640029</v>
       </c>
       <c r="AG131" t="n">
-        <v>8.362919120015505</v>
+        <v>11.95383484640028</v>
       </c>
       <c r="AH131" t="n">
-        <v>8.199919120015522</v>
+        <v>11.7908348464003</v>
       </c>
       <c r="AI131" t="n">
-        <v>5.490090157501811</v>
+        <v>9.197746290495488</v>
       </c>
       <c r="AJ131" t="n">
-        <v>6.546090157501808</v>
+        <v>10.25374629049549</v>
       </c>
       <c r="AK131" t="n">
-        <v>6.383090157501826</v>
+        <v>10.0907462904955</v>
       </c>
       <c r="AL131" t="n">
-        <v>5.523007280895951</v>
+        <v>9.252893535969868</v>
       </c>
       <c r="AM131" t="n">
-        <v>6.516116023792364</v>
+        <v>10.20679503334211</v>
       </c>
       <c r="AN131" t="n">
-        <v>6.364188517604539</v>
+        <v>10.06086551990139</v>
       </c>
       <c r="AO131" t="n">
         <v>9.742867475042033</v>
@@ -19915,17 +19435,17 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>679b40a3f166b42905a381fb</t>
+          <t>67bf3ddfdad24bc04d4b50cd</t>
         </is>
       </c>
       <c r="U132" t="n">
-        <v>144.1355482399329</v>
+        <v>137.6399898471275</v>
       </c>
       <c r="V132" t="n">
         <v>455</v>
       </c>
       <c r="W132" t="n">
-        <v>144.5627899888246</v>
+        <v>137.986350734336</v>
       </c>
       <c r="X132" t="n">
         <v>1105.3676138</v>
@@ -19942,43 +19462,43 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>1095.642667307002</v>
+        <v>1045.799775877421</v>
       </c>
       <c r="AC132" t="n">
-        <v>11.83441434474124</v>
+        <v>6.794526700284366</v>
       </c>
       <c r="AD132" t="n">
-        <v>0.005931046877302525</v>
+        <v>4.500898619184817</v>
       </c>
       <c r="AE132" t="n">
-        <v>5.022914443051573</v>
+        <v>0.2899912906599224</v>
       </c>
       <c r="AF132" t="n">
-        <v>15.25254823993285</v>
+        <v>8.7569898471275</v>
       </c>
       <c r="AG132" t="n">
-        <v>0.00854823993284981</v>
+        <v>6.4870101528725</v>
       </c>
       <c r="AH132" t="n">
-        <v>6.893548239932841</v>
+        <v>0.3979898471274907</v>
       </c>
       <c r="AI132" t="n">
-        <v>15.67978998882458</v>
+        <v>9.103350734336033</v>
       </c>
       <c r="AJ132" t="n">
-        <v>0.4357899888245811</v>
+        <v>6.140649265663967</v>
       </c>
       <c r="AK132" t="n">
-        <v>7.320789988824572</v>
+        <v>0.7443507343360238</v>
       </c>
       <c r="AL132" t="n">
-        <v>12.16591015791422</v>
+        <v>7.063267253505917</v>
       </c>
       <c r="AM132" t="n">
-        <v>0.3023652673160345</v>
+        <v>4.260582171046345</v>
       </c>
       <c r="AN132" t="n">
-        <v>5.334219837094017</v>
+        <v>0.5423636600574341</v>
       </c>
       <c r="AO132" t="n">
         <v>12.29198573365755</v>
@@ -20069,17 +19589,17 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>679b40a2f166b42905a381aa</t>
+          <t>67bf3ddedad24bc04d4b5084</t>
         </is>
       </c>
       <c r="U133" t="n">
-        <v>127.2993985839252</v>
+        <v>114.4685810716968</v>
       </c>
       <c r="V133" t="n">
         <v>455</v>
       </c>
       <c r="W133" t="n">
-        <v>127.7329627707734</v>
+        <v>114.8974575176455</v>
       </c>
       <c r="X133" t="n">
         <v>1043.06678</v>
@@ -20096,43 +19616,43 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>968.0892575746147</v>
+        <v>870.8088494359973</v>
       </c>
       <c r="AC133" t="n">
-        <v>3.015893443504253</v>
+        <v>12.79115857951762</v>
       </c>
       <c r="AD133" t="n">
-        <v>9.347054595744927</v>
+        <v>18.48418652540732</v>
       </c>
       <c r="AE133" t="n">
-        <v>3.555216540453074</v>
+        <v>13.27612198338023</v>
       </c>
       <c r="AF133" t="n">
-        <v>3.958601416074814</v>
+        <v>16.78941892830323</v>
       </c>
       <c r="AG133" t="n">
-        <v>13.12560141607482</v>
+        <v>25.95641892830324</v>
       </c>
       <c r="AH133" t="n">
-        <v>4.692601416074822</v>
+        <v>17.52341892830324</v>
       </c>
       <c r="AI133" t="n">
-        <v>3.525037229226612</v>
+        <v>16.36054248235453</v>
       </c>
       <c r="AJ133" t="n">
-        <v>12.69203722922661</v>
+        <v>25.52754248235453</v>
       </c>
       <c r="AK133" t="n">
-        <v>4.259037229226621</v>
+        <v>17.09454248235454</v>
       </c>
       <c r="AL133" t="n">
-        <v>2.685578958407573</v>
+        <v>12.46441548884985</v>
       </c>
       <c r="AM133" t="n">
-        <v>9.038303171961269</v>
+        <v>18.17877335400002</v>
       </c>
       <c r="AN133" t="n">
-        <v>3.22673891540898</v>
+        <v>12.95119589244389</v>
       </c>
       <c r="AO133" t="n">
         <v>0.5397562232936366</v>
